--- a/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
+++ b/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 4월\게임기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB85C76-DAA7-4130-B452-C92957921597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DD6E9-4BAF-4B8C-B255-2636D42C1F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="11" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
+    <workbookView xWindow="6630" yWindow="1905" windowWidth="21945" windowHeight="13050" firstSheet="11" activeTab="13" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 분석(4.01)" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="샌드위치 만들기 알고리즘 순서도(4.16)" sheetId="11" r:id="rId10"/>
     <sheet name="현실에서의 알고리즘 순서도(4.16~4.17)" sheetId="12" r:id="rId11"/>
     <sheet name="지하철 개찰구 플로우(4.17~4.18)" sheetId="13" r:id="rId12"/>
+    <sheet name="에스컬레이터 플로우(4.18~4.19)" sheetId="14" r:id="rId13"/>
+    <sheet name="엘리베이터 메커니즘(4.19~4.20)" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'시스템 기획_러시안룰렛 조(4.11 - 4.12)'!$A$1:$AH$158</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="911">
   <si>
     <t>짧은 거리 도약</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7276,14 +7278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어린이권 / 경로 우대권 &lt; 청소년권 &lt;= 할인권 &lt; 성인권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플로우 차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -7301,6 +7295,1739 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>어린이권 / 경로 우대권 &lt; 청소년권 &lt; 할인권 &lt;= 성인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모든 이용객은, 모든 지하철 역사를 관리하는 코레일에, 의무적으로 자신의 나이를 기재해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 모든 이용객은, 자신의 이용권에 대해 코레일에, 의무적으로 자신이 사용중인 이용권 종류와 ID를 기재해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 정기권이 망가진 경우, 디스플레이에 '정기권 손상' 이라는 메시지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 개찰구가 망가진 경우, 디스플레이에 X와, 고장 이라는 메시지를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이용권이 찍힌 순간, 코레일의 전산망에 등록되지 않은 ID가 찍힌경우, 다음 탑승시, 운임의 N배를 부과한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6. 개찰구에 일정 수준 이상의 압력, 충격, 차단문에 일정 수준 이상의 진동이 가해지면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운임료를 부과하지 않았다고 판단하고, 다음 탑승시, 운임의 N배를 부과한다.</t>
+  </si>
+  <si>
+    <t>7. 3의 경우를 A회 반복시 정기권의 모든 효력을 즉시 박탈한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 6의 경우를 B회(B&lt;A) 반복시 정기권의 모든 효력을 즉시 박탈한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">차단문: 열려있음 / 디스플레이: 현재 시간 표시중 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일정 수준 이상의)진동이 전달됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일정 수준 이상의) 압력(무게)가 가해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 전자 증명권의 경우 발급시 1과 2의 조건을 충족한상태로 발급 된다고 가정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 개찰구에 정기권이 찍히면, 정기권 종류 / 남은 사용 가능 기간 / 남은 사용 가능 횟수 를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날짜와 현재 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 사용 가능 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 사용 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 어린이권 / 청소년권…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권이 망가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정기권 손상"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰구가 망가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"고장"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 박탈된 정기권의 경우, 입력시 디스플레이에 "유효하지 않은 정기권"  이라는 메시를 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효한 정기권이 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이전에)운임을 부과하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈된 정기권이 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유효하지 않은 정기권"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N &gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 사용 가능 기간 (N배 추가 차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 사용 가능 횟수 (N배 추가 차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 통과 소리가 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 불가 소리가 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 불가 상태를 확인 후 다시 입력하여 정상 통과로 상태를 전환하지 않고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서에 감지되면 차단문이 닫힘 상태가 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 통과시 닫힘 상태가 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 통과시 사람이 완벽히 빠져 나갈때까지, 리셋되지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 입장 센서 / 역사 내(출구)센서 두개를 만족하면 리셋됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 정기권은 전자 카드의 형식이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14. 존재가 감지 되지 않은 상태에서의 부정승차의 경우, 최근 한달의 기록을 코레일에서 확인하여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의로 경고를 부여하고, 알림을 보낸다. 해당알림은 휴대전화로 전송된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 임의 경고를 풀지 않고 입력할 경우, 운임 N배가 부과되고 6의 경우로 전환되어 누적되어 6의 경우의 규칙을 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15. 임의 경고는 전화 / 문자 / 방문 / 인터넷 등 모든 수단 코레일에 연락하여 풀 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13. 개찰구와 정기권(전자 정기권)은 블루투스로 '존재'를 감지하고, 찍힌 경우 '입력' 으로 감지한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개찰구가 정기권의 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재를 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개찰구의 펄스 장치에 정기권을 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권의 사용 기간 만료 / 사용 가능 횟수가 0일때, 진행 불가 소리 + 상태에 따른 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 순서는 진행 순서이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 입장 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 입장 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">정상 정기권 입력됨! </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">입장 센서 감지됨! </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입장 센서 통과함!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;역사 내 센서 감지됨!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>역사 내 센서 통과함!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 통과 가능 소리 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 동시에, 디스플레이에 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위 규칙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 것들이 출력됨.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 동시에, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위 규칙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 것들이 N회 차감됨.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">정기권이 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재했으나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 개찰구의 펄스 장치에 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력 되지 않았음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개찰구 상태</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰구의 상태를 확인함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1-a. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개찰구가 고장나지 않음!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1-b. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개찰구가 고장남!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1과 상태 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권이 감지됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1-a. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권이 입력됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 통과 불가 소리 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;동시에, "정기권 손상" 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>망가진 정기권 입력됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2) 차단문: 닫혀있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 차단문 : 닫혀 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 근처 기기가 부정 출입을 관리하여줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1) 모든 부정 출입과 같은 규칙을 상속받음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 정기권에 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">경고됨! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부여</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 부정 출입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 부정 출입 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행 상태</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">진동 감지됨! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의 경우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개찰구 압력 감지됨!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 의 경우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 경고 A1 회 부여 (A1 &gt;= 1) / 경고가 A2 (A2 &gt; A1)회가 된 경우, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권 박탈됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 경고 B1 회 부여 (B1 &gt;A1) / 경고가 B2 (B2 &gt; B1)회가 된 경우, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권 박탈됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권이 감지되지 않음!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈된 정기권이 개찰구의 펄스 장치에 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 디스플레이에 "유효하지 않은 정기권" 을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1) 동시에, "고장" 을 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 디스플레이에 "X" 를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 모든 부정 출입과 같은 규칙을 상속받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 디스플레이에 "기간만료" 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1-c. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용 가능 기간이 만료된 정기권이 입력됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1-d. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용 가능 횟수가 0인 정기권이 입력됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 기간이 지난 정기권이 개찰구의 펄스 장치에 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 횟수가 0 인 정기권이 개찰구의 펄스 장치에 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 디스플레이에 "사용 횟수 없음" 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 정기권을 발급받을때 경고가 있으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적된 횟수가 그대로 전승된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈 후 구매하는 새 정기권은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본래 정기권 값보다 N배 비싸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1), 1-2) ... = 동시에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1-e. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정기권이 입력되지 않음!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 모든 부정 출입과 같은 규칙을 상속받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-2-a. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임의 경고 부여됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부정 출입으로 간주하고 임의 경고를 부여함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연락을 취함!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연락을 취하지 않음!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개찰구가 정기권의 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재를 확인하지 못함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 최근 1달 내 활동 내역과 달리 활동이 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권은 사용을 일시 정지 할수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지 상태에선 사용 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임의 경고 해제!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-1-b. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>박탈(일시정지)된 정기권이 입력됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈 정기권은 코레일에 직접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 구매 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; 이후 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 전환된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">차단문 진동 감지됨! </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">입장 센서 감지됨! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 개찰구 압력 감지됨!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 개찰구 압력의 경우 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">바로 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">경고됨! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 넘어감.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 경고를 받지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 이벤트 유지중, 모든 부정 출입이 감지시,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 부정 출입의 규칙을 즉시 상속받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용 불가 상태</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈 / 초기 발행 모두 이 플로우를 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-a. 정보입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 나이와 정기권 종류를 선택한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 할인권은 나이 상관없이 선택할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 이외 정기권은, 나이에 따라 결정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 박탈 이후 발행의 경우, 원래 값의 N배(N&gt;1)를 지불해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 정기권은 코레일만 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리/ 발행 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1-b. 일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) N일 간의 기간동안 카드를 일시 정지 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 사용 가능 기간과 사용 가능 횟수가 차감되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용 가능 상태</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">정상적으로 사용 가능한 정기권. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전자 정기권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드 정기권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 나뉜다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능에 차이는 없고, 실물 존재 여부만 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이 상태여야 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 갈 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스컬레이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드 발급 상태</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 발급 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 불가 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일시정지의 경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-2-a. 1)의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 거치면, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-2의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 되어, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-1상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 즉시 변환된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5) 일시정지를 제외한 모든 정기권은 이 상태를 거치면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-2의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 전환된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 개찰구 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장나지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫혀있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2의 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 갈 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 값 지불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈 후 재발행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값의 N배 지불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기발행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연동 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 감지됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 감지 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상출입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과 가능 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출입 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출입 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의 경고 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코레일에 연락함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코레일에 연락안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박탈 / 일시정지 된 정기권 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효하지 않은 정기권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재발행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권에 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망가진 정기권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 기간 만료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 횟수 = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 손상됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 기간 만료됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 가능 횟수 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부정 출입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단문에 진동이 느껴짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰구에 압력 가해짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 A1회 부여됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고가 A2회 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">경고가 A2회 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 B1회 부여됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고가 B2회 미만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고가 B2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기권 박탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고누적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝마침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 켜짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소 시속 N km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7309,7 +9036,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7515,8 +9242,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7559,8 +9302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="166">
     <border>
       <left/>
       <right/>
@@ -9323,13 +11072,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9834,43 +11719,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9879,7 +11743,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9909,16 +11785,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9927,13 +11797,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9963,11 +11848,35 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9996,20 +11905,38 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10023,16 +11950,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10086,51 +12046,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10173,88 +12088,49 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
@@ -10275,23 +12151,311 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="146" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32684,7 +34848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183AA49D-1C8A-4B00-88FD-09588261F0F8}">
   <dimension ref="A2:AC187"/>
   <sheetViews>
-    <sheetView topLeftCell="B175" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
@@ -33014,7 +35178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E540392-01E7-4B4F-886C-B92ADEEF8A2B}">
   <dimension ref="A1:AZ176"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y134" sqref="Y134"/>
     </sheetView>
   </sheetViews>
@@ -34126,152 +36290,134 @@
       </c>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="291" t="s">
+      <c r="B67" s="318" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="294" t="s">
+      <c r="C67" s="291" t="s">
         <v>617</v>
       </c>
-      <c r="D67" s="295"/>
-      <c r="E67" s="288" t="s">
+      <c r="D67" s="293"/>
+      <c r="E67" s="168" t="s">
         <v>618</v>
       </c>
-      <c r="F67" s="294" t="s">
+      <c r="F67" s="291" t="s">
         <v>615</v>
       </c>
-      <c r="G67" s="295"/>
-      <c r="H67" s="294" t="s">
+      <c r="G67" s="293"/>
+      <c r="H67" s="291" t="s">
         <v>622</v>
       </c>
-      <c r="I67" s="296"/>
-      <c r="J67" s="296"/>
-      <c r="K67" s="296"/>
-      <c r="L67" s="296"/>
-      <c r="M67" s="296"/>
-      <c r="N67" s="296"/>
-      <c r="O67" s="295"/>
-      <c r="R67" s="289" t="s">
+      <c r="I67" s="292"/>
+      <c r="J67" s="292"/>
+      <c r="K67" s="292"/>
+      <c r="L67" s="292"/>
+      <c r="M67" s="292"/>
+      <c r="N67" s="292"/>
+      <c r="O67" s="293"/>
+      <c r="R67" s="300" t="s">
         <v>667</v>
       </c>
-      <c r="S67" s="318"/>
-      <c r="T67" s="318"/>
-      <c r="U67" s="318"/>
-      <c r="V67" s="318"/>
-      <c r="W67" s="318"/>
-      <c r="X67" s="318"/>
-      <c r="Y67" s="290"/>
+      <c r="S67" s="301"/>
+      <c r="T67" s="301"/>
+      <c r="U67" s="301"/>
+      <c r="V67" s="301"/>
+      <c r="W67" s="301"/>
+      <c r="X67" s="301"/>
+      <c r="Y67" s="302"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="297"/>
-      <c r="C68" s="299" t="s">
+      <c r="B68" s="319"/>
+      <c r="C68" s="294" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="300"/>
-      <c r="E68" s="291" t="s">
+      <c r="D68" s="296"/>
+      <c r="E68" s="318" t="s">
         <v>616</v>
       </c>
-      <c r="F68" s="299" t="s">
+      <c r="F68" s="294" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="300"/>
-      <c r="H68" s="294" t="s">
+      <c r="G68" s="296"/>
+      <c r="H68" s="291" t="s">
         <v>633</v>
       </c>
-      <c r="I68" s="296"/>
-      <c r="J68" s="296"/>
-      <c r="K68" s="296"/>
-      <c r="L68" s="296"/>
-      <c r="M68" s="296"/>
-      <c r="N68" s="296"/>
-      <c r="O68" s="295"/>
+      <c r="I68" s="292"/>
+      <c r="J68" s="292"/>
+      <c r="K68" s="292"/>
+      <c r="L68" s="292"/>
+      <c r="M68" s="292"/>
+      <c r="N68" s="292"/>
+      <c r="O68" s="293"/>
       <c r="R68" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="S68" s="287"/>
-      <c r="T68" s="287"/>
-      <c r="U68" s="287"/>
-      <c r="V68" s="287"/>
-      <c r="W68" s="287"/>
-      <c r="X68" s="287"/>
       <c r="Y68" s="115"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="297"/>
-      <c r="C69" s="301"/>
-      <c r="D69" s="302"/>
-      <c r="E69" s="298"/>
-      <c r="F69" s="303"/>
-      <c r="G69" s="304"/>
-      <c r="H69" s="294" t="s">
+      <c r="B69" s="319"/>
+      <c r="C69" s="312"/>
+      <c r="D69" s="313"/>
+      <c r="E69" s="320"/>
+      <c r="F69" s="297"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="291" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="296"/>
-      <c r="J69" s="296"/>
-      <c r="K69" s="296"/>
-      <c r="L69" s="296"/>
-      <c r="M69" s="296"/>
-      <c r="N69" s="296"/>
-      <c r="O69" s="295"/>
+      <c r="I69" s="292"/>
+      <c r="J69" s="292"/>
+      <c r="K69" s="292"/>
+      <c r="L69" s="292"/>
+      <c r="M69" s="292"/>
+      <c r="N69" s="292"/>
+      <c r="O69" s="293"/>
       <c r="R69" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="S69" s="287"/>
-      <c r="T69" s="287"/>
-      <c r="U69" s="287"/>
-      <c r="V69" s="287"/>
-      <c r="W69" s="287"/>
-      <c r="X69" s="287"/>
       <c r="Y69" s="115"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B70" s="297"/>
-      <c r="C70" s="301"/>
-      <c r="D70" s="302"/>
-      <c r="E70" s="291" t="s">
+      <c r="B70" s="319"/>
+      <c r="C70" s="312"/>
+      <c r="D70" s="313"/>
+      <c r="E70" s="318" t="s">
         <v>619</v>
       </c>
-      <c r="F70" s="299" t="s">
+      <c r="F70" s="294" t="s">
         <v>630</v>
       </c>
-      <c r="G70" s="300"/>
-      <c r="H70" s="306" t="s">
+      <c r="G70" s="296"/>
+      <c r="H70" s="314" t="s">
         <v>623</v>
       </c>
-      <c r="I70" s="307"/>
-      <c r="J70" s="307"/>
-      <c r="K70" s="307"/>
-      <c r="L70" s="307"/>
-      <c r="M70" s="307"/>
-      <c r="N70" s="307"/>
-      <c r="O70" s="308"/>
+      <c r="I70" s="315"/>
+      <c r="J70" s="315"/>
+      <c r="K70" s="315"/>
+      <c r="L70" s="315"/>
+      <c r="M70" s="315"/>
+      <c r="N70" s="315"/>
+      <c r="O70" s="316"/>
       <c r="R70" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="S70" s="287"/>
-      <c r="T70" s="287"/>
-      <c r="U70" s="287"/>
-      <c r="V70" s="287"/>
-      <c r="W70" s="287"/>
-      <c r="X70" s="287"/>
       <c r="Y70" s="115"/>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B71" s="297"/>
-      <c r="C71" s="301"/>
-      <c r="D71" s="302"/>
-      <c r="E71" s="297"/>
-      <c r="F71" s="301"/>
-      <c r="G71" s="302"/>
-      <c r="H71" s="309" t="s">
+      <c r="B71" s="319"/>
+      <c r="C71" s="312"/>
+      <c r="D71" s="313"/>
+      <c r="E71" s="319"/>
+      <c r="F71" s="312"/>
+      <c r="G71" s="313"/>
+      <c r="H71" s="306" t="s">
         <v>624</v>
       </c>
-      <c r="I71" s="310"/>
-      <c r="J71" s="310"/>
-      <c r="K71" s="310"/>
-      <c r="L71" s="310"/>
-      <c r="M71" s="310"/>
-      <c r="N71" s="310"/>
-      <c r="O71" s="311"/>
+      <c r="I71" s="307"/>
+      <c r="J71" s="307"/>
+      <c r="K71" s="307"/>
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="307"/>
+      <c r="O71" s="308"/>
       <c r="R71" s="5" t="s">
         <v>671</v>
       </c>
@@ -34284,718 +36430,718 @@
       <c r="Y71" s="142"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B72" s="297"/>
-      <c r="C72" s="301"/>
-      <c r="D72" s="302"/>
-      <c r="E72" s="297"/>
-      <c r="F72" s="303"/>
-      <c r="G72" s="304"/>
-      <c r="H72" s="312"/>
-      <c r="I72" s="313"/>
-      <c r="J72" s="313"/>
-      <c r="K72" s="313"/>
-      <c r="L72" s="313"/>
-      <c r="M72" s="313"/>
-      <c r="N72" s="313"/>
-      <c r="O72" s="314"/>
+      <c r="B72" s="319"/>
+      <c r="C72" s="312"/>
+      <c r="D72" s="313"/>
+      <c r="E72" s="319"/>
+      <c r="F72" s="297"/>
+      <c r="G72" s="299"/>
+      <c r="H72" s="309"/>
+      <c r="I72" s="310"/>
+      <c r="J72" s="310"/>
+      <c r="K72" s="310"/>
+      <c r="L72" s="310"/>
+      <c r="M72" s="310"/>
+      <c r="N72" s="310"/>
+      <c r="O72" s="311"/>
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B73" s="297"/>
-      <c r="C73" s="301"/>
-      <c r="D73" s="302"/>
-      <c r="E73" s="297"/>
-      <c r="F73" s="299" t="s">
+      <c r="B73" s="319"/>
+      <c r="C73" s="312"/>
+      <c r="D73" s="313"/>
+      <c r="E73" s="319"/>
+      <c r="F73" s="294" t="s">
         <v>625</v>
       </c>
-      <c r="G73" s="300"/>
-      <c r="H73" s="299" t="s">
+      <c r="G73" s="296"/>
+      <c r="H73" s="294" t="s">
         <v>628</v>
       </c>
-      <c r="I73" s="292"/>
-      <c r="J73" s="292"/>
-      <c r="K73" s="292"/>
-      <c r="L73" s="292"/>
-      <c r="M73" s="292"/>
-      <c r="N73" s="292"/>
-      <c r="O73" s="300"/>
+      <c r="I73" s="295"/>
+      <c r="J73" s="295"/>
+      <c r="K73" s="295"/>
+      <c r="L73" s="295"/>
+      <c r="M73" s="295"/>
+      <c r="N73" s="295"/>
+      <c r="O73" s="296"/>
       <c r="R73" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B74" s="297"/>
-      <c r="C74" s="301"/>
-      <c r="D74" s="302"/>
-      <c r="E74" s="298"/>
-      <c r="F74" s="303"/>
-      <c r="G74" s="304"/>
-      <c r="H74" s="303"/>
-      <c r="I74" s="305"/>
-      <c r="J74" s="305"/>
-      <c r="K74" s="305"/>
-      <c r="L74" s="305"/>
-      <c r="M74" s="305"/>
-      <c r="N74" s="305"/>
-      <c r="O74" s="304"/>
+      <c r="B74" s="319"/>
+      <c r="C74" s="312"/>
+      <c r="D74" s="313"/>
+      <c r="E74" s="320"/>
+      <c r="F74" s="297"/>
+      <c r="G74" s="299"/>
+      <c r="H74" s="297"/>
+      <c r="I74" s="298"/>
+      <c r="J74" s="298"/>
+      <c r="K74" s="298"/>
+      <c r="L74" s="298"/>
+      <c r="M74" s="298"/>
+      <c r="N74" s="298"/>
+      <c r="O74" s="299"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B75" s="297"/>
-      <c r="C75" s="301"/>
-      <c r="D75" s="302"/>
-      <c r="E75" s="291" t="s">
+      <c r="B75" s="319"/>
+      <c r="C75" s="312"/>
+      <c r="D75" s="313"/>
+      <c r="E75" s="318" t="s">
         <v>620</v>
       </c>
-      <c r="F75" s="299" t="s">
+      <c r="F75" s="294" t="s">
         <v>626</v>
       </c>
-      <c r="G75" s="300"/>
-      <c r="H75" s="299" t="s">
+      <c r="G75" s="296"/>
+      <c r="H75" s="294" t="s">
         <v>627</v>
       </c>
-      <c r="I75" s="292"/>
-      <c r="J75" s="292"/>
-      <c r="K75" s="292"/>
-      <c r="L75" s="292"/>
-      <c r="M75" s="292"/>
-      <c r="N75" s="292"/>
-      <c r="O75" s="300"/>
+      <c r="I75" s="295"/>
+      <c r="J75" s="295"/>
+      <c r="K75" s="295"/>
+      <c r="L75" s="295"/>
+      <c r="M75" s="295"/>
+      <c r="N75" s="295"/>
+      <c r="O75" s="296"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="297"/>
-      <c r="C76" s="301"/>
-      <c r="D76" s="302"/>
-      <c r="E76" s="298"/>
-      <c r="F76" s="303"/>
-      <c r="G76" s="304"/>
-      <c r="H76" s="303"/>
-      <c r="I76" s="305"/>
-      <c r="J76" s="305"/>
-      <c r="K76" s="305"/>
-      <c r="L76" s="305"/>
-      <c r="M76" s="305"/>
-      <c r="N76" s="305"/>
-      <c r="O76" s="304"/>
+      <c r="B76" s="319"/>
+      <c r="C76" s="312"/>
+      <c r="D76" s="313"/>
+      <c r="E76" s="320"/>
+      <c r="F76" s="297"/>
+      <c r="G76" s="299"/>
+      <c r="H76" s="297"/>
+      <c r="I76" s="298"/>
+      <c r="J76" s="298"/>
+      <c r="K76" s="298"/>
+      <c r="L76" s="298"/>
+      <c r="M76" s="298"/>
+      <c r="N76" s="298"/>
+      <c r="O76" s="299"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="297"/>
-      <c r="C77" s="301"/>
-      <c r="D77" s="302"/>
-      <c r="E77" s="291" t="s">
+      <c r="B77" s="319"/>
+      <c r="C77" s="312"/>
+      <c r="D77" s="313"/>
+      <c r="E77" s="318" t="s">
         <v>409</v>
       </c>
-      <c r="F77" s="299" t="s">
+      <c r="F77" s="294" t="s">
         <v>629</v>
       </c>
-      <c r="G77" s="300"/>
-      <c r="H77" s="299" t="s">
+      <c r="G77" s="296"/>
+      <c r="H77" s="294" t="s">
         <v>632</v>
       </c>
-      <c r="I77" s="292"/>
-      <c r="J77" s="292"/>
-      <c r="K77" s="292"/>
-      <c r="L77" s="292"/>
-      <c r="M77" s="292"/>
-      <c r="N77" s="292"/>
-      <c r="O77" s="300"/>
+      <c r="I77" s="295"/>
+      <c r="J77" s="295"/>
+      <c r="K77" s="295"/>
+      <c r="L77" s="295"/>
+      <c r="M77" s="295"/>
+      <c r="N77" s="295"/>
+      <c r="O77" s="296"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="297"/>
-      <c r="C78" s="303"/>
-      <c r="D78" s="304"/>
-      <c r="E78" s="298"/>
-      <c r="F78" s="303"/>
-      <c r="G78" s="304"/>
-      <c r="H78" s="303"/>
-      <c r="I78" s="305"/>
-      <c r="J78" s="305"/>
-      <c r="K78" s="305"/>
-      <c r="L78" s="305"/>
-      <c r="M78" s="305"/>
-      <c r="N78" s="305"/>
-      <c r="O78" s="304"/>
+      <c r="B78" s="319"/>
+      <c r="C78" s="297"/>
+      <c r="D78" s="299"/>
+      <c r="E78" s="320"/>
+      <c r="F78" s="297"/>
+      <c r="G78" s="299"/>
+      <c r="H78" s="297"/>
+      <c r="I78" s="298"/>
+      <c r="J78" s="298"/>
+      <c r="K78" s="298"/>
+      <c r="L78" s="298"/>
+      <c r="M78" s="298"/>
+      <c r="N78" s="298"/>
+      <c r="O78" s="299"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="297"/>
-      <c r="C79" s="299" t="s">
+      <c r="B79" s="319"/>
+      <c r="C79" s="294" t="s">
         <v>582</v>
       </c>
-      <c r="D79" s="300"/>
-      <c r="E79" s="291" t="s">
+      <c r="D79" s="296"/>
+      <c r="E79" s="318" t="s">
         <v>616</v>
       </c>
-      <c r="F79" s="299" t="s">
+      <c r="F79" s="294" t="s">
         <v>621</v>
       </c>
-      <c r="G79" s="300"/>
-      <c r="H79" s="294" t="s">
+      <c r="G79" s="296"/>
+      <c r="H79" s="291" t="s">
         <v>634</v>
       </c>
-      <c r="I79" s="296"/>
-      <c r="J79" s="296"/>
-      <c r="K79" s="296"/>
-      <c r="L79" s="296"/>
-      <c r="M79" s="296"/>
-      <c r="N79" s="296"/>
-      <c r="O79" s="295"/>
+      <c r="I79" s="292"/>
+      <c r="J79" s="292"/>
+      <c r="K79" s="292"/>
+      <c r="L79" s="292"/>
+      <c r="M79" s="292"/>
+      <c r="N79" s="292"/>
+      <c r="O79" s="293"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="297"/>
-      <c r="C80" s="301"/>
-      <c r="D80" s="302"/>
-      <c r="E80" s="297"/>
-      <c r="F80" s="303"/>
-      <c r="G80" s="304"/>
-      <c r="H80" s="294" t="s">
+      <c r="B80" s="319"/>
+      <c r="C80" s="312"/>
+      <c r="D80" s="313"/>
+      <c r="E80" s="319"/>
+      <c r="F80" s="297"/>
+      <c r="G80" s="299"/>
+      <c r="H80" s="291" t="s">
         <v>663</v>
       </c>
-      <c r="I80" s="296"/>
-      <c r="J80" s="296"/>
-      <c r="K80" s="296"/>
-      <c r="L80" s="296"/>
-      <c r="M80" s="296"/>
-      <c r="N80" s="296"/>
-      <c r="O80" s="295"/>
+      <c r="I80" s="292"/>
+      <c r="J80" s="292"/>
+      <c r="K80" s="292"/>
+      <c r="L80" s="292"/>
+      <c r="M80" s="292"/>
+      <c r="N80" s="292"/>
+      <c r="O80" s="293"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="297"/>
-      <c r="C81" s="301"/>
-      <c r="D81" s="302"/>
-      <c r="E81" s="297"/>
-      <c r="F81" s="299" t="s">
+      <c r="B81" s="319"/>
+      <c r="C81" s="312"/>
+      <c r="D81" s="313"/>
+      <c r="E81" s="319"/>
+      <c r="F81" s="294" t="s">
         <v>635</v>
       </c>
-      <c r="G81" s="300"/>
-      <c r="H81" s="299" t="s">
+      <c r="G81" s="296"/>
+      <c r="H81" s="294" t="s">
         <v>636</v>
       </c>
-      <c r="I81" s="292"/>
-      <c r="J81" s="292"/>
-      <c r="K81" s="292"/>
-      <c r="L81" s="292"/>
-      <c r="M81" s="292"/>
-      <c r="N81" s="292"/>
-      <c r="O81" s="300"/>
+      <c r="I81" s="295"/>
+      <c r="J81" s="295"/>
+      <c r="K81" s="295"/>
+      <c r="L81" s="295"/>
+      <c r="M81" s="295"/>
+      <c r="N81" s="295"/>
+      <c r="O81" s="296"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="297"/>
-      <c r="C82" s="301"/>
-      <c r="D82" s="302"/>
-      <c r="E82" s="298"/>
-      <c r="F82" s="303"/>
-      <c r="G82" s="304"/>
-      <c r="H82" s="303"/>
-      <c r="I82" s="305"/>
-      <c r="J82" s="305"/>
-      <c r="K82" s="305"/>
-      <c r="L82" s="305"/>
-      <c r="M82" s="305"/>
-      <c r="N82" s="305"/>
-      <c r="O82" s="304"/>
+      <c r="B82" s="319"/>
+      <c r="C82" s="312"/>
+      <c r="D82" s="313"/>
+      <c r="E82" s="320"/>
+      <c r="F82" s="297"/>
+      <c r="G82" s="299"/>
+      <c r="H82" s="297"/>
+      <c r="I82" s="298"/>
+      <c r="J82" s="298"/>
+      <c r="K82" s="298"/>
+      <c r="L82" s="298"/>
+      <c r="M82" s="298"/>
+      <c r="N82" s="298"/>
+      <c r="O82" s="299"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="297"/>
-      <c r="C83" s="301"/>
-      <c r="D83" s="302"/>
-      <c r="E83" s="291" t="s">
+      <c r="B83" s="319"/>
+      <c r="C83" s="312"/>
+      <c r="D83" s="313"/>
+      <c r="E83" s="318" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="299" t="s">
+      <c r="F83" s="294" t="s">
         <v>638</v>
       </c>
-      <c r="G83" s="300"/>
-      <c r="H83" s="309" t="s">
+      <c r="G83" s="296"/>
+      <c r="H83" s="306" t="s">
         <v>639</v>
       </c>
-      <c r="I83" s="310"/>
-      <c r="J83" s="310"/>
-      <c r="K83" s="310"/>
-      <c r="L83" s="310"/>
-      <c r="M83" s="310"/>
-      <c r="N83" s="310"/>
-      <c r="O83" s="311"/>
+      <c r="I83" s="307"/>
+      <c r="J83" s="307"/>
+      <c r="K83" s="307"/>
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="307"/>
+      <c r="O83" s="308"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="297"/>
-      <c r="C84" s="301"/>
-      <c r="D84" s="302"/>
-      <c r="E84" s="297"/>
-      <c r="F84" s="303"/>
-      <c r="G84" s="304"/>
-      <c r="H84" s="312"/>
-      <c r="I84" s="313"/>
-      <c r="J84" s="313"/>
-      <c r="K84" s="313"/>
-      <c r="L84" s="313"/>
-      <c r="M84" s="313"/>
-      <c r="N84" s="313"/>
-      <c r="O84" s="314"/>
+      <c r="B84" s="319"/>
+      <c r="C84" s="312"/>
+      <c r="D84" s="313"/>
+      <c r="E84" s="319"/>
+      <c r="F84" s="297"/>
+      <c r="G84" s="299"/>
+      <c r="H84" s="309"/>
+      <c r="I84" s="310"/>
+      <c r="J84" s="310"/>
+      <c r="K84" s="310"/>
+      <c r="L84" s="310"/>
+      <c r="M84" s="310"/>
+      <c r="N84" s="310"/>
+      <c r="O84" s="311"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="297"/>
-      <c r="C85" s="301"/>
-      <c r="D85" s="302"/>
-      <c r="E85" s="297"/>
-      <c r="F85" s="299" t="s">
+      <c r="B85" s="319"/>
+      <c r="C85" s="312"/>
+      <c r="D85" s="313"/>
+      <c r="E85" s="319"/>
+      <c r="F85" s="294" t="s">
         <v>625</v>
       </c>
-      <c r="G85" s="300"/>
-      <c r="H85" s="299" t="s">
+      <c r="G85" s="296"/>
+      <c r="H85" s="294" t="s">
         <v>640</v>
       </c>
-      <c r="I85" s="292"/>
-      <c r="J85" s="292"/>
-      <c r="K85" s="292"/>
-      <c r="L85" s="292"/>
-      <c r="M85" s="292"/>
-      <c r="N85" s="292"/>
-      <c r="O85" s="300"/>
+      <c r="I85" s="295"/>
+      <c r="J85" s="295"/>
+      <c r="K85" s="295"/>
+      <c r="L85" s="295"/>
+      <c r="M85" s="295"/>
+      <c r="N85" s="295"/>
+      <c r="O85" s="296"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="297"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="302"/>
-      <c r="E86" s="298"/>
-      <c r="F86" s="303"/>
-      <c r="G86" s="304"/>
-      <c r="H86" s="303"/>
-      <c r="I86" s="305"/>
-      <c r="J86" s="305"/>
-      <c r="K86" s="305"/>
-      <c r="L86" s="305"/>
-      <c r="M86" s="305"/>
-      <c r="N86" s="305"/>
-      <c r="O86" s="304"/>
+      <c r="B86" s="319"/>
+      <c r="C86" s="312"/>
+      <c r="D86" s="313"/>
+      <c r="E86" s="320"/>
+      <c r="F86" s="297"/>
+      <c r="G86" s="299"/>
+      <c r="H86" s="297"/>
+      <c r="I86" s="298"/>
+      <c r="J86" s="298"/>
+      <c r="K86" s="298"/>
+      <c r="L86" s="298"/>
+      <c r="M86" s="298"/>
+      <c r="N86" s="298"/>
+      <c r="O86" s="299"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="297"/>
-      <c r="C87" s="301"/>
-      <c r="D87" s="302"/>
-      <c r="E87" s="291" t="s">
+      <c r="B87" s="319"/>
+      <c r="C87" s="312"/>
+      <c r="D87" s="313"/>
+      <c r="E87" s="318" t="s">
         <v>642</v>
       </c>
-      <c r="F87" s="299" t="s">
+      <c r="F87" s="294" t="s">
         <v>643</v>
       </c>
-      <c r="G87" s="300"/>
-      <c r="H87" s="294" t="s">
+      <c r="G87" s="296"/>
+      <c r="H87" s="291" t="s">
         <v>645</v>
       </c>
-      <c r="I87" s="296"/>
-      <c r="J87" s="296"/>
-      <c r="K87" s="296"/>
-      <c r="L87" s="296"/>
-      <c r="M87" s="296"/>
-      <c r="N87" s="296"/>
-      <c r="O87" s="295"/>
+      <c r="I87" s="292"/>
+      <c r="J87" s="292"/>
+      <c r="K87" s="292"/>
+      <c r="L87" s="292"/>
+      <c r="M87" s="292"/>
+      <c r="N87" s="292"/>
+      <c r="O87" s="293"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="297"/>
-      <c r="C88" s="301"/>
-      <c r="D88" s="302"/>
-      <c r="E88" s="297"/>
-      <c r="F88" s="301"/>
-      <c r="G88" s="302"/>
-      <c r="H88" s="294" t="s">
+      <c r="B88" s="319"/>
+      <c r="C88" s="312"/>
+      <c r="D88" s="313"/>
+      <c r="E88" s="319"/>
+      <c r="F88" s="312"/>
+      <c r="G88" s="313"/>
+      <c r="H88" s="291" t="s">
         <v>646</v>
       </c>
-      <c r="I88" s="296"/>
-      <c r="J88" s="296"/>
-      <c r="K88" s="296"/>
-      <c r="L88" s="296"/>
-      <c r="M88" s="296"/>
-      <c r="N88" s="296"/>
-      <c r="O88" s="295"/>
+      <c r="I88" s="292"/>
+      <c r="J88" s="292"/>
+      <c r="K88" s="292"/>
+      <c r="L88" s="292"/>
+      <c r="M88" s="292"/>
+      <c r="N88" s="292"/>
+      <c r="O88" s="293"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="297"/>
-      <c r="C89" s="301"/>
-      <c r="D89" s="302"/>
-      <c r="E89" s="297"/>
-      <c r="F89" s="301"/>
-      <c r="G89" s="302"/>
-      <c r="H89" s="299" t="s">
+      <c r="B89" s="319"/>
+      <c r="C89" s="312"/>
+      <c r="D89" s="313"/>
+      <c r="E89" s="319"/>
+      <c r="F89" s="312"/>
+      <c r="G89" s="313"/>
+      <c r="H89" s="294" t="s">
         <v>647</v>
       </c>
-      <c r="I89" s="292"/>
-      <c r="J89" s="292"/>
-      <c r="K89" s="292"/>
-      <c r="L89" s="292"/>
-      <c r="M89" s="292"/>
-      <c r="N89" s="292"/>
-      <c r="O89" s="300"/>
+      <c r="I89" s="295"/>
+      <c r="J89" s="295"/>
+      <c r="K89" s="295"/>
+      <c r="L89" s="295"/>
+      <c r="M89" s="295"/>
+      <c r="N89" s="295"/>
+      <c r="O89" s="296"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="297"/>
-      <c r="C90" s="301"/>
-      <c r="D90" s="302"/>
-      <c r="E90" s="297"/>
-      <c r="F90" s="303"/>
-      <c r="G90" s="304"/>
-      <c r="H90" s="303"/>
-      <c r="I90" s="305"/>
-      <c r="J90" s="305"/>
-      <c r="K90" s="305"/>
-      <c r="L90" s="305"/>
-      <c r="M90" s="305"/>
-      <c r="N90" s="305"/>
-      <c r="O90" s="304"/>
+      <c r="B90" s="319"/>
+      <c r="C90" s="312"/>
+      <c r="D90" s="313"/>
+      <c r="E90" s="319"/>
+      <c r="F90" s="297"/>
+      <c r="G90" s="299"/>
+      <c r="H90" s="297"/>
+      <c r="I90" s="298"/>
+      <c r="J90" s="298"/>
+      <c r="K90" s="298"/>
+      <c r="L90" s="298"/>
+      <c r="M90" s="298"/>
+      <c r="N90" s="298"/>
+      <c r="O90" s="299"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="297"/>
-      <c r="C91" s="301"/>
-      <c r="D91" s="302"/>
-      <c r="E91" s="297"/>
-      <c r="F91" s="299" t="s">
+      <c r="B91" s="319"/>
+      <c r="C91" s="312"/>
+      <c r="D91" s="313"/>
+      <c r="E91" s="319"/>
+      <c r="F91" s="294" t="s">
         <v>644</v>
       </c>
-      <c r="G91" s="300"/>
-      <c r="H91" s="315" t="s">
+      <c r="G91" s="296"/>
+      <c r="H91" s="303" t="s">
         <v>648</v>
       </c>
-      <c r="I91" s="316"/>
-      <c r="J91" s="316"/>
-      <c r="K91" s="316"/>
-      <c r="L91" s="316"/>
-      <c r="M91" s="316"/>
-      <c r="N91" s="316"/>
-      <c r="O91" s="317"/>
+      <c r="I91" s="304"/>
+      <c r="J91" s="304"/>
+      <c r="K91" s="304"/>
+      <c r="L91" s="304"/>
+      <c r="M91" s="304"/>
+      <c r="N91" s="304"/>
+      <c r="O91" s="305"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="297"/>
-      <c r="C92" s="301"/>
-      <c r="D92" s="302"/>
-      <c r="E92" s="297"/>
-      <c r="F92" s="301"/>
-      <c r="G92" s="302"/>
-      <c r="H92" s="299" t="s">
+      <c r="B92" s="319"/>
+      <c r="C92" s="312"/>
+      <c r="D92" s="313"/>
+      <c r="E92" s="319"/>
+      <c r="F92" s="312"/>
+      <c r="G92" s="313"/>
+      <c r="H92" s="294" t="s">
         <v>649</v>
       </c>
-      <c r="I92" s="292"/>
-      <c r="J92" s="292"/>
-      <c r="K92" s="292"/>
-      <c r="L92" s="292"/>
-      <c r="M92" s="292"/>
-      <c r="N92" s="292"/>
-      <c r="O92" s="300"/>
+      <c r="I92" s="295"/>
+      <c r="J92" s="295"/>
+      <c r="K92" s="295"/>
+      <c r="L92" s="295"/>
+      <c r="M92" s="295"/>
+      <c r="N92" s="295"/>
+      <c r="O92" s="296"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="297"/>
-      <c r="C93" s="301"/>
-      <c r="D93" s="302"/>
-      <c r="E93" s="298"/>
-      <c r="F93" s="301"/>
-      <c r="G93" s="302"/>
-      <c r="H93" s="303"/>
-      <c r="I93" s="305"/>
-      <c r="J93" s="305"/>
-      <c r="K93" s="305"/>
-      <c r="L93" s="305"/>
-      <c r="M93" s="305"/>
-      <c r="N93" s="305"/>
-      <c r="O93" s="304"/>
+      <c r="B93" s="319"/>
+      <c r="C93" s="312"/>
+      <c r="D93" s="313"/>
+      <c r="E93" s="320"/>
+      <c r="F93" s="312"/>
+      <c r="G93" s="313"/>
+      <c r="H93" s="297"/>
+      <c r="I93" s="298"/>
+      <c r="J93" s="298"/>
+      <c r="K93" s="298"/>
+      <c r="L93" s="298"/>
+      <c r="M93" s="298"/>
+      <c r="N93" s="298"/>
+      <c r="O93" s="299"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="297"/>
-      <c r="C94" s="301"/>
-      <c r="D94" s="302"/>
-      <c r="E94" s="299" t="s">
+      <c r="B94" s="319"/>
+      <c r="C94" s="312"/>
+      <c r="D94" s="313"/>
+      <c r="E94" s="294" t="s">
         <v>641</v>
       </c>
-      <c r="F94" s="299" t="s">
+      <c r="F94" s="294" t="s">
         <v>629</v>
       </c>
-      <c r="G94" s="300"/>
-      <c r="H94" s="299" t="s">
+      <c r="G94" s="296"/>
+      <c r="H94" s="294" t="s">
         <v>631</v>
       </c>
-      <c r="I94" s="292"/>
-      <c r="J94" s="292"/>
-      <c r="K94" s="292"/>
-      <c r="L94" s="292"/>
-      <c r="M94" s="292"/>
-      <c r="N94" s="292"/>
-      <c r="O94" s="300"/>
+      <c r="I94" s="295"/>
+      <c r="J94" s="295"/>
+      <c r="K94" s="295"/>
+      <c r="L94" s="295"/>
+      <c r="M94" s="295"/>
+      <c r="N94" s="295"/>
+      <c r="O94" s="296"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="297"/>
-      <c r="C95" s="301"/>
-      <c r="D95" s="302"/>
-      <c r="E95" s="303"/>
-      <c r="F95" s="301"/>
-      <c r="G95" s="302"/>
-      <c r="H95" s="301"/>
-      <c r="I95" s="293"/>
-      <c r="J95" s="293"/>
-      <c r="K95" s="293"/>
-      <c r="L95" s="293"/>
-      <c r="M95" s="293"/>
-      <c r="N95" s="293"/>
-      <c r="O95" s="302"/>
+      <c r="B95" s="319"/>
+      <c r="C95" s="312"/>
+      <c r="D95" s="313"/>
+      <c r="E95" s="297"/>
+      <c r="F95" s="312"/>
+      <c r="G95" s="313"/>
+      <c r="H95" s="312"/>
+      <c r="I95" s="317"/>
+      <c r="J95" s="317"/>
+      <c r="K95" s="317"/>
+      <c r="L95" s="317"/>
+      <c r="M95" s="317"/>
+      <c r="N95" s="317"/>
+      <c r="O95" s="313"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="297"/>
-      <c r="C96" s="301"/>
-      <c r="D96" s="302"/>
-      <c r="E96" s="299" t="s">
+      <c r="B96" s="319"/>
+      <c r="C96" s="312"/>
+      <c r="D96" s="313"/>
+      <c r="E96" s="294" t="s">
         <v>409</v>
       </c>
-      <c r="F96" s="301"/>
-      <c r="G96" s="302"/>
-      <c r="H96" s="301"/>
-      <c r="I96" s="293"/>
-      <c r="J96" s="293"/>
-      <c r="K96" s="293"/>
-      <c r="L96" s="293"/>
-      <c r="M96" s="293"/>
-      <c r="N96" s="293"/>
-      <c r="O96" s="302"/>
+      <c r="F96" s="312"/>
+      <c r="G96" s="313"/>
+      <c r="H96" s="312"/>
+      <c r="I96" s="317"/>
+      <c r="J96" s="317"/>
+      <c r="K96" s="317"/>
+      <c r="L96" s="317"/>
+      <c r="M96" s="317"/>
+      <c r="N96" s="317"/>
+      <c r="O96" s="313"/>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B97" s="297"/>
-      <c r="C97" s="303"/>
-      <c r="D97" s="304"/>
-      <c r="E97" s="303"/>
-      <c r="F97" s="303"/>
-      <c r="G97" s="304"/>
-      <c r="H97" s="303"/>
-      <c r="I97" s="305"/>
-      <c r="J97" s="305"/>
-      <c r="K97" s="305"/>
-      <c r="L97" s="305"/>
-      <c r="M97" s="305"/>
-      <c r="N97" s="305"/>
-      <c r="O97" s="304"/>
+      <c r="B97" s="319"/>
+      <c r="C97" s="297"/>
+      <c r="D97" s="299"/>
+      <c r="E97" s="297"/>
+      <c r="F97" s="297"/>
+      <c r="G97" s="299"/>
+      <c r="H97" s="297"/>
+      <c r="I97" s="298"/>
+      <c r="J97" s="298"/>
+      <c r="K97" s="298"/>
+      <c r="L97" s="298"/>
+      <c r="M97" s="298"/>
+      <c r="N97" s="298"/>
+      <c r="O97" s="299"/>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B98" s="297"/>
-      <c r="C98" s="299" t="s">
+      <c r="B98" s="319"/>
+      <c r="C98" s="294" t="s">
         <v>583</v>
       </c>
-      <c r="D98" s="300"/>
-      <c r="E98" s="291" t="s">
+      <c r="D98" s="296"/>
+      <c r="E98" s="318" t="s">
         <v>616</v>
       </c>
-      <c r="F98" s="299" t="s">
+      <c r="F98" s="294" t="s">
         <v>652</v>
       </c>
-      <c r="G98" s="300"/>
-      <c r="H98" s="299" t="s">
+      <c r="G98" s="296"/>
+      <c r="H98" s="294" t="s">
         <v>653</v>
       </c>
-      <c r="I98" s="292"/>
-      <c r="J98" s="292"/>
-      <c r="K98" s="292"/>
-      <c r="L98" s="292"/>
-      <c r="M98" s="292"/>
-      <c r="N98" s="292"/>
-      <c r="O98" s="300"/>
+      <c r="I98" s="295"/>
+      <c r="J98" s="295"/>
+      <c r="K98" s="295"/>
+      <c r="L98" s="295"/>
+      <c r="M98" s="295"/>
+      <c r="N98" s="295"/>
+      <c r="O98" s="296"/>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B99" s="297"/>
-      <c r="C99" s="301"/>
-      <c r="D99" s="302"/>
-      <c r="E99" s="297"/>
-      <c r="F99" s="303"/>
-      <c r="G99" s="304"/>
-      <c r="H99" s="303"/>
-      <c r="I99" s="305"/>
-      <c r="J99" s="305"/>
-      <c r="K99" s="305"/>
-      <c r="L99" s="305"/>
-      <c r="M99" s="305"/>
-      <c r="N99" s="305"/>
-      <c r="O99" s="304"/>
+      <c r="B99" s="319"/>
+      <c r="C99" s="312"/>
+      <c r="D99" s="313"/>
+      <c r="E99" s="319"/>
+      <c r="F99" s="297"/>
+      <c r="G99" s="299"/>
+      <c r="H99" s="297"/>
+      <c r="I99" s="298"/>
+      <c r="J99" s="298"/>
+      <c r="K99" s="298"/>
+      <c r="L99" s="298"/>
+      <c r="M99" s="298"/>
+      <c r="N99" s="298"/>
+      <c r="O99" s="299"/>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B100" s="297"/>
-      <c r="C100" s="301"/>
-      <c r="D100" s="302"/>
-      <c r="E100" s="297"/>
-      <c r="F100" s="299" t="s">
+      <c r="B100" s="319"/>
+      <c r="C100" s="312"/>
+      <c r="D100" s="313"/>
+      <c r="E100" s="319"/>
+      <c r="F100" s="294" t="s">
         <v>654</v>
       </c>
-      <c r="G100" s="300"/>
-      <c r="H100" s="315" t="s">
+      <c r="G100" s="296"/>
+      <c r="H100" s="303" t="s">
         <v>655</v>
       </c>
-      <c r="I100" s="316"/>
-      <c r="J100" s="316"/>
-      <c r="K100" s="316"/>
-      <c r="L100" s="316"/>
-      <c r="M100" s="316"/>
-      <c r="N100" s="316"/>
-      <c r="O100" s="317"/>
+      <c r="I100" s="304"/>
+      <c r="J100" s="304"/>
+      <c r="K100" s="304"/>
+      <c r="L100" s="304"/>
+      <c r="M100" s="304"/>
+      <c r="N100" s="304"/>
+      <c r="O100" s="305"/>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B101" s="297"/>
-      <c r="C101" s="301"/>
-      <c r="D101" s="302"/>
-      <c r="E101" s="297"/>
-      <c r="F101" s="301"/>
-      <c r="G101" s="302"/>
-      <c r="H101" s="294" t="s">
+      <c r="B101" s="319"/>
+      <c r="C101" s="312"/>
+      <c r="D101" s="313"/>
+      <c r="E101" s="319"/>
+      <c r="F101" s="312"/>
+      <c r="G101" s="313"/>
+      <c r="H101" s="291" t="s">
         <v>656</v>
       </c>
-      <c r="I101" s="296"/>
-      <c r="J101" s="296"/>
-      <c r="K101" s="296"/>
-      <c r="L101" s="296"/>
-      <c r="M101" s="296"/>
-      <c r="N101" s="296"/>
-      <c r="O101" s="295"/>
+      <c r="I101" s="292"/>
+      <c r="J101" s="292"/>
+      <c r="K101" s="292"/>
+      <c r="L101" s="292"/>
+      <c r="M101" s="292"/>
+      <c r="N101" s="292"/>
+      <c r="O101" s="293"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B102" s="297"/>
-      <c r="C102" s="301"/>
-      <c r="D102" s="302"/>
-      <c r="E102" s="297"/>
-      <c r="F102" s="301"/>
-      <c r="G102" s="302"/>
-      <c r="H102" s="294" t="s">
+      <c r="B102" s="319"/>
+      <c r="C102" s="312"/>
+      <c r="D102" s="313"/>
+      <c r="E102" s="319"/>
+      <c r="F102" s="312"/>
+      <c r="G102" s="313"/>
+      <c r="H102" s="291" t="s">
         <v>657</v>
       </c>
-      <c r="I102" s="296"/>
-      <c r="J102" s="296"/>
-      <c r="K102" s="296"/>
-      <c r="L102" s="296"/>
-      <c r="M102" s="296"/>
-      <c r="N102" s="296"/>
-      <c r="O102" s="295"/>
+      <c r="I102" s="292"/>
+      <c r="J102" s="292"/>
+      <c r="K102" s="292"/>
+      <c r="L102" s="292"/>
+      <c r="M102" s="292"/>
+      <c r="N102" s="292"/>
+      <c r="O102" s="293"/>
       <c r="P102" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B103" s="297"/>
-      <c r="C103" s="301"/>
-      <c r="D103" s="302"/>
-      <c r="E103" s="297"/>
-      <c r="F103" s="301"/>
-      <c r="G103" s="302"/>
-      <c r="H103" s="299" t="s">
+      <c r="B103" s="319"/>
+      <c r="C103" s="312"/>
+      <c r="D103" s="313"/>
+      <c r="E103" s="319"/>
+      <c r="F103" s="312"/>
+      <c r="G103" s="313"/>
+      <c r="H103" s="294" t="s">
         <v>662</v>
       </c>
-      <c r="I103" s="292"/>
-      <c r="J103" s="292"/>
-      <c r="K103" s="292"/>
-      <c r="L103" s="292"/>
-      <c r="M103" s="292"/>
-      <c r="N103" s="292"/>
-      <c r="O103" s="300"/>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+      <c r="K103" s="295"/>
+      <c r="L103" s="295"/>
+      <c r="M103" s="295"/>
+      <c r="N103" s="295"/>
+      <c r="O103" s="296"/>
       <c r="P103" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B104" s="297"/>
-      <c r="C104" s="301"/>
-      <c r="D104" s="302"/>
-      <c r="E104" s="297"/>
-      <c r="F104" s="303"/>
-      <c r="G104" s="304"/>
-      <c r="H104" s="303"/>
-      <c r="I104" s="305"/>
-      <c r="J104" s="305"/>
-      <c r="K104" s="305"/>
-      <c r="L104" s="305"/>
-      <c r="M104" s="305"/>
-      <c r="N104" s="305"/>
-      <c r="O104" s="304"/>
+      <c r="B104" s="319"/>
+      <c r="C104" s="312"/>
+      <c r="D104" s="313"/>
+      <c r="E104" s="319"/>
+      <c r="F104" s="297"/>
+      <c r="G104" s="299"/>
+      <c r="H104" s="297"/>
+      <c r="I104" s="298"/>
+      <c r="J104" s="298"/>
+      <c r="K104" s="298"/>
+      <c r="L104" s="298"/>
+      <c r="M104" s="298"/>
+      <c r="N104" s="298"/>
+      <c r="O104" s="299"/>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B105" s="297"/>
-      <c r="C105" s="301"/>
-      <c r="D105" s="302"/>
-      <c r="E105" s="297"/>
-      <c r="F105" s="299" t="s">
+      <c r="B105" s="319"/>
+      <c r="C105" s="312"/>
+      <c r="D105" s="313"/>
+      <c r="E105" s="319"/>
+      <c r="F105" s="294" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="300"/>
-      <c r="H105" s="294" t="s">
+      <c r="G105" s="296"/>
+      <c r="H105" s="291" t="s">
         <v>658</v>
       </c>
-      <c r="I105" s="296"/>
-      <c r="J105" s="296"/>
-      <c r="K105" s="296"/>
-      <c r="L105" s="296"/>
-      <c r="M105" s="296"/>
-      <c r="N105" s="296"/>
-      <c r="O105" s="295"/>
+      <c r="I105" s="292"/>
+      <c r="J105" s="292"/>
+      <c r="K105" s="292"/>
+      <c r="L105" s="292"/>
+      <c r="M105" s="292"/>
+      <c r="N105" s="292"/>
+      <c r="O105" s="293"/>
       <c r="P105" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B106" s="297"/>
-      <c r="C106" s="301"/>
-      <c r="D106" s="302"/>
-      <c r="E106" s="297"/>
-      <c r="F106" s="301"/>
-      <c r="G106" s="302"/>
-      <c r="H106" s="294" t="s">
+      <c r="B106" s="319"/>
+      <c r="C106" s="312"/>
+      <c r="D106" s="313"/>
+      <c r="E106" s="319"/>
+      <c r="F106" s="312"/>
+      <c r="G106" s="313"/>
+      <c r="H106" s="291" t="s">
         <v>659</v>
       </c>
-      <c r="I106" s="296"/>
-      <c r="J106" s="296"/>
-      <c r="K106" s="296"/>
-      <c r="L106" s="296"/>
-      <c r="M106" s="296"/>
-      <c r="N106" s="296"/>
-      <c r="O106" s="295"/>
+      <c r="I106" s="292"/>
+      <c r="J106" s="292"/>
+      <c r="K106" s="292"/>
+      <c r="L106" s="292"/>
+      <c r="M106" s="292"/>
+      <c r="N106" s="292"/>
+      <c r="O106" s="293"/>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B107" s="297"/>
-      <c r="C107" s="301"/>
-      <c r="D107" s="302"/>
-      <c r="E107" s="297"/>
-      <c r="F107" s="301"/>
-      <c r="G107" s="302"/>
-      <c r="H107" s="299" t="s">
+      <c r="B107" s="319"/>
+      <c r="C107" s="312"/>
+      <c r="D107" s="313"/>
+      <c r="E107" s="319"/>
+      <c r="F107" s="312"/>
+      <c r="G107" s="313"/>
+      <c r="H107" s="294" t="s">
         <v>660</v>
       </c>
-      <c r="I107" s="292"/>
-      <c r="J107" s="292"/>
-      <c r="K107" s="292"/>
-      <c r="L107" s="292"/>
-      <c r="M107" s="292"/>
-      <c r="N107" s="292"/>
-      <c r="O107" s="300"/>
+      <c r="I107" s="295"/>
+      <c r="J107" s="295"/>
+      <c r="K107" s="295"/>
+      <c r="L107" s="295"/>
+      <c r="M107" s="295"/>
+      <c r="N107" s="295"/>
+      <c r="O107" s="296"/>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B108" s="297"/>
-      <c r="C108" s="301"/>
-      <c r="D108" s="302"/>
-      <c r="E108" s="297"/>
-      <c r="F108" s="303"/>
-      <c r="G108" s="304"/>
-      <c r="H108" s="303"/>
-      <c r="I108" s="305"/>
-      <c r="J108" s="305"/>
-      <c r="K108" s="305"/>
-      <c r="L108" s="305"/>
-      <c r="M108" s="305"/>
-      <c r="N108" s="305"/>
-      <c r="O108" s="304"/>
+      <c r="B108" s="319"/>
+      <c r="C108" s="312"/>
+      <c r="D108" s="313"/>
+      <c r="E108" s="319"/>
+      <c r="F108" s="297"/>
+      <c r="G108" s="299"/>
+      <c r="H108" s="297"/>
+      <c r="I108" s="298"/>
+      <c r="J108" s="298"/>
+      <c r="K108" s="298"/>
+      <c r="L108" s="298"/>
+      <c r="M108" s="298"/>
+      <c r="N108" s="298"/>
+      <c r="O108" s="299"/>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B109" s="298"/>
-      <c r="C109" s="303"/>
-      <c r="D109" s="304"/>
-      <c r="E109" s="298"/>
-      <c r="F109" s="294" t="s">
+      <c r="B109" s="320"/>
+      <c r="C109" s="297"/>
+      <c r="D109" s="299"/>
+      <c r="E109" s="320"/>
+      <c r="F109" s="291" t="s">
         <v>651</v>
       </c>
-      <c r="G109" s="295"/>
-      <c r="H109" s="294" t="s">
+      <c r="G109" s="293"/>
+      <c r="H109" s="291" t="s">
         <v>661</v>
       </c>
-      <c r="I109" s="296"/>
-      <c r="J109" s="296"/>
-      <c r="K109" s="296"/>
-      <c r="L109" s="296"/>
-      <c r="M109" s="296"/>
-      <c r="N109" s="296"/>
-      <c r="O109" s="295"/>
+      <c r="I109" s="292"/>
+      <c r="J109" s="292"/>
+      <c r="K109" s="292"/>
+      <c r="L109" s="292"/>
+      <c r="M109" s="292"/>
+      <c r="N109" s="292"/>
+      <c r="O109" s="293"/>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
@@ -35116,12 +37262,12 @@
       </c>
     </row>
     <row r="132" spans="5:49" x14ac:dyDescent="0.3">
-      <c r="G132" s="319" t="s">
+      <c r="G132" s="170" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="140" spans="5:49" x14ac:dyDescent="0.3">
-      <c r="J140" s="320" t="s">
+      <c r="J140" s="171" t="s">
         <v>552</v>
       </c>
       <c r="P140" t="s">
@@ -35212,6 +37358,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B67:B109"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D78"/>
+    <mergeCell ref="C79:D97"/>
+    <mergeCell ref="C98:D109"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="F70:G72"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="H103:O104"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="F83:G84"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="F87:G90"/>
+    <mergeCell ref="F91:G93"/>
+    <mergeCell ref="H85:O86"/>
+    <mergeCell ref="F105:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O72"/>
+    <mergeCell ref="H73:O74"/>
+    <mergeCell ref="H75:O76"/>
+    <mergeCell ref="F94:G97"/>
+    <mergeCell ref="H94:O97"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="H98:O99"/>
+    <mergeCell ref="F100:G104"/>
+    <mergeCell ref="H101:O101"/>
     <mergeCell ref="H105:O105"/>
     <mergeCell ref="H106:O106"/>
     <mergeCell ref="H107:O108"/>
@@ -35228,51 +37419,6 @@
     <mergeCell ref="H80:O80"/>
     <mergeCell ref="H81:O82"/>
     <mergeCell ref="H83:O84"/>
-    <mergeCell ref="H85:O86"/>
-    <mergeCell ref="F105:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="H71:O72"/>
-    <mergeCell ref="H73:O74"/>
-    <mergeCell ref="H75:O76"/>
-    <mergeCell ref="F94:G97"/>
-    <mergeCell ref="H94:O97"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:O99"/>
-    <mergeCell ref="F100:G104"/>
-    <mergeCell ref="H101:O101"/>
-    <mergeCell ref="H102:O102"/>
-    <mergeCell ref="H103:O104"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="F83:G84"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="F87:G90"/>
-    <mergeCell ref="F91:G93"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E109"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="F70:G72"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="B67:B109"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D78"/>
-    <mergeCell ref="C79:D97"/>
-    <mergeCell ref="C98:D109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35282,65 +37428,97 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81583094-C4D9-4363-9EDF-FC9FAE6C7CD7}">
-  <dimension ref="A2:Z32"/>
+  <dimension ref="A2:AL183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="N128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE128" sqref="AE128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>684</v>
       </c>
@@ -35350,8 +37528,11 @@
       <c r="I14" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>685</v>
       </c>
@@ -35361,8 +37542,11 @@
       <c r="I15" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>686</v>
       </c>
@@ -35371,6 +37555,9 @@
       </c>
       <c r="I16" t="s">
         <v>695</v>
+      </c>
+      <c r="N16" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -35380,6 +37567,9 @@
       <c r="D17" t="s">
         <v>696</v>
       </c>
+      <c r="N17" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -35388,23 +37578,42 @@
       <c r="D18" t="s">
         <v>697</v>
       </c>
+      <c r="N18" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>689</v>
       </c>
+      <c r="N19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N20" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>698</v>
       </c>
+      <c r="N21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>699</v>
       </c>
       <c r="F23" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -35436,32 +37645,2445 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>701</v>
-      </c>
+      <c r="C26" s="241" t="s">
+        <v>713</v>
+      </c>
+      <c r="D26" s="322"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="242"/>
+      <c r="H26" s="241" t="s">
+        <v>717</v>
+      </c>
+      <c r="I26" s="322"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="242"/>
+      <c r="M26" s="241" t="s">
+        <v>583</v>
+      </c>
+      <c r="N26" s="242"/>
+      <c r="O26" s="168" t="s">
+        <v>348</v>
+      </c>
+      <c r="P26" s="291" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q26" s="292"/>
+      <c r="R26" s="293"/>
+      <c r="S26" s="291" t="s">
+        <v>725</v>
+      </c>
+      <c r="T26" s="292"/>
+      <c r="U26" s="292"/>
+      <c r="V26" s="293"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C27" s="243"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="244"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="244"/>
+      <c r="M27" s="324"/>
+      <c r="N27" s="326"/>
+      <c r="O27" s="318" t="s">
+        <v>722</v>
+      </c>
+      <c r="P27" s="294" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q27" s="295"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="294" t="s">
+        <v>726</v>
+      </c>
+      <c r="T27" s="295"/>
+      <c r="U27" s="295"/>
+      <c r="V27" s="296"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="C28" s="291" t="s">
+        <v>714</v>
+      </c>
+      <c r="D28" s="292"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="293"/>
+      <c r="H28" s="291" t="s">
+        <v>718</v>
+      </c>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="293"/>
+      <c r="M28" s="324"/>
+      <c r="N28" s="326"/>
+      <c r="O28" s="320"/>
+      <c r="P28" s="297"/>
+      <c r="Q28" s="298"/>
+      <c r="R28" s="299"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="298"/>
+      <c r="V28" s="299"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C29" s="291" t="s">
+        <v>715</v>
+      </c>
+      <c r="D29" s="292"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="293"/>
+      <c r="H29" s="291" t="s">
+        <v>719</v>
+      </c>
+      <c r="I29" s="292"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="293"/>
+      <c r="M29" s="324"/>
+      <c r="N29" s="326"/>
+      <c r="O29" s="318" t="s">
+        <v>723</v>
+      </c>
+      <c r="P29" s="294" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="291" t="s">
+        <v>729</v>
+      </c>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="293"/>
+      <c r="W29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C30" s="291" t="s">
+        <v>716</v>
+      </c>
+      <c r="D30" s="292"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="293"/>
+      <c r="M30" s="324"/>
+      <c r="N30" s="326"/>
+      <c r="O30" s="319"/>
+      <c r="P30" s="312"/>
+      <c r="Q30" s="327"/>
+      <c r="R30" s="313"/>
+      <c r="S30" s="291" t="s">
+        <v>730</v>
+      </c>
+      <c r="T30" s="292"/>
+      <c r="U30" s="292"/>
+      <c r="V30" s="293"/>
+      <c r="W30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C31" s="291" t="s">
+        <v>748</v>
+      </c>
+      <c r="D31" s="292"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="293"/>
+      <c r="H31" t="s">
+        <v>809</v>
+      </c>
+      <c r="M31" s="324"/>
+      <c r="N31" s="326"/>
+      <c r="O31" s="319"/>
+      <c r="P31" s="312"/>
+      <c r="Q31" s="327"/>
+      <c r="R31" s="313"/>
+      <c r="S31" s="294" t="s">
+        <v>731</v>
+      </c>
+      <c r="T31" s="295"/>
+      <c r="U31" s="295"/>
+      <c r="V31" s="296"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>810</v>
+      </c>
+      <c r="M32" s="324"/>
+      <c r="N32" s="326"/>
+      <c r="O32" s="320"/>
+      <c r="P32" s="297"/>
+      <c r="Q32" s="298"/>
+      <c r="R32" s="299"/>
+      <c r="S32" s="297"/>
+      <c r="T32" s="298"/>
+      <c r="U32" s="298"/>
+      <c r="V32" s="299"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M33" s="324"/>
+      <c r="N33" s="326"/>
+      <c r="O33" s="318" t="s">
+        <v>724</v>
+      </c>
+      <c r="P33" s="294" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q33" s="295"/>
+      <c r="R33" s="296"/>
+      <c r="S33" s="294" t="s">
+        <v>734</v>
+      </c>
+      <c r="T33" s="295"/>
+      <c r="U33" s="295"/>
+      <c r="V33" s="296"/>
+      <c r="W33" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>749</v>
+      </c>
+      <c r="M34" s="324"/>
+      <c r="N34" s="326"/>
+      <c r="O34" s="319"/>
+      <c r="P34" s="297"/>
+      <c r="Q34" s="298"/>
+      <c r="R34" s="299"/>
+      <c r="S34" s="297"/>
+      <c r="T34" s="298"/>
+      <c r="U34" s="298"/>
+      <c r="V34" s="299"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>750</v>
+      </c>
+      <c r="M35" s="324"/>
+      <c r="N35" s="326"/>
+      <c r="O35" s="319"/>
+      <c r="P35" s="294" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q35" s="295"/>
+      <c r="R35" s="296"/>
+      <c r="S35" s="291" t="s">
+        <v>736</v>
+      </c>
+      <c r="T35" s="292"/>
+      <c r="U35" s="292"/>
+      <c r="V35" s="293"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>811</v>
+      </c>
+      <c r="M36" s="324"/>
+      <c r="N36" s="326"/>
+      <c r="O36" s="319"/>
+      <c r="P36" s="312"/>
+      <c r="Q36" s="327"/>
+      <c r="R36" s="313"/>
+      <c r="S36" s="294" t="s">
+        <v>737</v>
+      </c>
+      <c r="T36" s="295"/>
+      <c r="U36" s="295"/>
+      <c r="V36" s="296"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>751</v>
+      </c>
+      <c r="I37" t="s">
+        <v>812</v>
+      </c>
+      <c r="M37" s="324"/>
+      <c r="N37" s="326"/>
+      <c r="O37" s="319"/>
+      <c r="P37" s="297"/>
+      <c r="Q37" s="298"/>
+      <c r="R37" s="299"/>
+      <c r="S37" s="297"/>
+      <c r="T37" s="298"/>
+      <c r="U37" s="298"/>
+      <c r="V37" s="299"/>
+      <c r="X37" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M38" s="324"/>
+      <c r="N38" s="326"/>
+      <c r="O38" s="319"/>
+      <c r="P38" s="294" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q38" s="295"/>
+      <c r="R38" s="296"/>
+      <c r="S38" s="291" t="s">
+        <v>729</v>
+      </c>
+      <c r="T38" s="292"/>
+      <c r="U38" s="292"/>
+      <c r="V38" s="293"/>
+      <c r="X38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>752</v>
+      </c>
+      <c r="I39" t="s">
+        <v>821</v>
+      </c>
+      <c r="M39" s="324"/>
+      <c r="N39" s="326"/>
+      <c r="O39" s="319"/>
+      <c r="P39" s="312"/>
+      <c r="Q39" s="327"/>
+      <c r="R39" s="313"/>
+      <c r="S39" s="291" t="s">
+        <v>744</v>
+      </c>
+      <c r="T39" s="292"/>
+      <c r="U39" s="292"/>
+      <c r="V39" s="293"/>
+      <c r="W39" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>753</v>
+      </c>
+      <c r="I40" t="s">
+        <v>822</v>
+      </c>
+      <c r="M40" s="324"/>
+      <c r="N40" s="326"/>
+      <c r="O40" s="319"/>
+      <c r="P40" s="312"/>
+      <c r="Q40" s="327"/>
+      <c r="R40" s="313"/>
+      <c r="S40" s="294" t="s">
+        <v>745</v>
+      </c>
+      <c r="T40" s="295"/>
+      <c r="U40" s="295"/>
+      <c r="V40" s="296"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
+      <c r="O41" s="319"/>
+      <c r="P41" s="297"/>
+      <c r="Q41" s="298"/>
+      <c r="R41" s="299"/>
+      <c r="S41" s="297"/>
+      <c r="T41" s="298"/>
+      <c r="U41" s="298"/>
+      <c r="V41" s="299"/>
+      <c r="X41" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>762</v>
+      </c>
+      <c r="M42" s="243"/>
+      <c r="N42" s="244"/>
+      <c r="O42" s="320"/>
+      <c r="P42" s="291" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q42" s="292"/>
+      <c r="R42" s="293"/>
+      <c r="S42" s="291" t="s">
+        <v>742</v>
+      </c>
+      <c r="T42" s="292"/>
+      <c r="U42" s="292"/>
+      <c r="V42" s="293"/>
+      <c r="X42" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C29" s="109" t="s">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C46" s="109" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D46" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E46" s="107" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>702</v>
-      </c>
+      <c r="G46" t="s">
+        <v>763</v>
+      </c>
+      <c r="K46" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>700</v>
+      </c>
+      <c r="D49" t="s">
+        <v>712</v>
+      </c>
+      <c r="J49" t="s">
+        <v>792</v>
+      </c>
+      <c r="L49" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>775</v>
+      </c>
+      <c r="K51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>776</v>
+      </c>
+      <c r="L52" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>777</v>
+      </c>
+      <c r="M54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>864</v>
+      </c>
+      <c r="N55" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>778</v>
+      </c>
+      <c r="O57" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>801</v>
+      </c>
+      <c r="P58" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>800</v>
+      </c>
+      <c r="P59" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>785</v>
+      </c>
+      <c r="P60" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>767</v>
+      </c>
+      <c r="T62" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q64" s="108" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>770</v>
+      </c>
+      <c r="T65" t="s">
+        <v>765</v>
+      </c>
+      <c r="V65" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>835</v>
+      </c>
+      <c r="O67" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>836</v>
+      </c>
+      <c r="P68" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="P69" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>829</v>
+      </c>
+      <c r="V71" t="s">
+        <v>790</v>
+      </c>
+      <c r="X71" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>786</v>
+      </c>
+      <c r="X72" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>789</v>
+      </c>
+      <c r="V74" t="s">
+        <v>791</v>
+      </c>
+      <c r="X74" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="R76" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>844</v>
+      </c>
+      <c r="S77" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>846</v>
+      </c>
+      <c r="R79" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>848</v>
+      </c>
+      <c r="M82" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>849</v>
+      </c>
+      <c r="N83" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O85" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O86" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O87" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M89" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="N90" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O92" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O93" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="M95" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="N96" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="98" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="O98" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="O99" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="101" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="M101" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="102" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="N102" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="104" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="O104" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="106" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="K106" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="107" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="L107" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="109" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="M109" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="110" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="N110" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="112" spans="11:20" x14ac:dyDescent="0.3">
+      <c r="O112" t="s">
+        <v>818</v>
+      </c>
+      <c r="T112" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="P114" t="s">
+        <v>823</v>
+      </c>
+      <c r="U114" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="P115" t="s">
+        <v>832</v>
+      </c>
+      <c r="U115" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
+      <c r="AG116" s="4"/>
+      <c r="AH116" s="4"/>
+      <c r="AI116" s="4"/>
+      <c r="AJ116" s="4"/>
+      <c r="AK116" s="4"/>
+    </row>
+    <row r="118" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M118" s="338" t="s">
+        <v>259</v>
+      </c>
+      <c r="N118" s="339"/>
+      <c r="O118" s="339"/>
+      <c r="P118" s="339"/>
+      <c r="Q118" s="339"/>
+      <c r="R118" s="340"/>
+    </row>
+    <row r="119" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M119" s="341"/>
+      <c r="N119" s="342"/>
+      <c r="O119" s="342"/>
+      <c r="P119" s="342"/>
+      <c r="Q119" s="342"/>
+      <c r="R119" s="343"/>
+    </row>
+    <row r="120" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H120" s="101"/>
+      <c r="I120" s="157"/>
+      <c r="J120" s="157"/>
+      <c r="K120" s="157"/>
+      <c r="L120" s="139"/>
+      <c r="M120" s="341"/>
+      <c r="N120" s="342"/>
+      <c r="O120" s="342"/>
+      <c r="P120" s="342"/>
+      <c r="Q120" s="342"/>
+      <c r="R120" s="343"/>
+    </row>
+    <row r="121" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H121" s="6"/>
+      <c r="M121" s="341"/>
+      <c r="N121" s="342"/>
+      <c r="O121" s="342"/>
+      <c r="P121" s="342"/>
+      <c r="Q121" s="342"/>
+      <c r="R121" s="343"/>
+      <c r="S121" s="146"/>
+      <c r="T121" s="112"/>
+      <c r="U121" s="112"/>
+      <c r="V121" s="112"/>
+      <c r="W121" s="112"/>
+      <c r="X121" s="112"/>
+      <c r="Y121" s="112"/>
+      <c r="Z121" s="112"/>
+      <c r="AA121" s="112"/>
+      <c r="AB121" s="112"/>
+      <c r="AC121" s="112"/>
+      <c r="AD121" s="112"/>
+      <c r="AE121" s="112"/>
+      <c r="AF121" s="112"/>
+      <c r="AG121" s="112"/>
+      <c r="AH121" s="112"/>
+      <c r="AI121" s="112"/>
+      <c r="AJ121" s="112"/>
+      <c r="AK121" s="112"/>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H122" s="6"/>
+      <c r="M122" s="344"/>
+      <c r="N122" s="345"/>
+      <c r="O122" s="345"/>
+      <c r="P122" s="345"/>
+      <c r="Q122" s="345"/>
+      <c r="R122" s="346"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="321"/>
+      <c r="U122" s="321"/>
+      <c r="V122" s="321"/>
+      <c r="W122" s="321"/>
+      <c r="X122" s="321"/>
+      <c r="Y122" s="321"/>
+      <c r="Z122" s="321"/>
+      <c r="AA122" s="321"/>
+      <c r="AB122" s="321"/>
+      <c r="AC122" s="321"/>
+      <c r="AD122" s="321"/>
+      <c r="AE122" s="321"/>
+      <c r="AF122" s="321"/>
+      <c r="AG122" s="321"/>
+      <c r="AH122" s="321"/>
+      <c r="AI122" s="321"/>
+      <c r="AJ122" s="321"/>
+      <c r="AK122" s="113"/>
+      <c r="AL122" s="321"/>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H123" s="6"/>
+      <c r="P123" s="138"/>
+      <c r="AK123" s="113"/>
+      <c r="AL123" s="321"/>
+    </row>
+    <row r="124" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="6"/>
+      <c r="N124" s="328" t="s">
+        <v>859</v>
+      </c>
+      <c r="O124" s="329"/>
+      <c r="P124" s="329"/>
+      <c r="Q124" s="330"/>
+      <c r="W124" s="394" t="s">
+        <v>904</v>
+      </c>
+      <c r="X124" s="395"/>
+      <c r="Y124" s="396"/>
+      <c r="AA124" s="402" t="s">
+        <v>905</v>
+      </c>
+      <c r="AB124" s="403"/>
+      <c r="AC124" s="404"/>
+      <c r="AE124" s="264" t="s">
+        <v>906</v>
+      </c>
+      <c r="AF124" s="410"/>
+      <c r="AG124" s="265"/>
+      <c r="AK124" s="113"/>
+      <c r="AL124" s="321"/>
+    </row>
+    <row r="125" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H125" s="6"/>
+      <c r="N125" s="331"/>
+      <c r="O125" s="332"/>
+      <c r="P125" s="332"/>
+      <c r="Q125" s="333"/>
+      <c r="W125" s="397"/>
+      <c r="X125" s="337"/>
+      <c r="Y125" s="398"/>
+      <c r="AA125" s="405"/>
+      <c r="AB125" s="337"/>
+      <c r="AC125" s="406"/>
+      <c r="AE125" s="411"/>
+      <c r="AF125" s="325"/>
+      <c r="AG125" s="412"/>
+      <c r="AK125" s="113"/>
+      <c r="AL125" s="321"/>
+    </row>
+    <row r="126" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="6"/>
+      <c r="M126" s="141"/>
+      <c r="N126" s="334"/>
+      <c r="O126" s="335"/>
+      <c r="P126" s="335"/>
+      <c r="Q126" s="336"/>
+      <c r="R126" s="141"/>
+      <c r="S126" s="6"/>
+      <c r="W126" s="397"/>
+      <c r="X126" s="337"/>
+      <c r="Y126" s="398"/>
+      <c r="AA126" s="405"/>
+      <c r="AB126" s="337"/>
+      <c r="AC126" s="406"/>
+      <c r="AE126" s="411"/>
+      <c r="AF126" s="325"/>
+      <c r="AG126" s="412"/>
+      <c r="AK126" s="113"/>
+      <c r="AL126" s="321"/>
+    </row>
+    <row r="127" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H127" s="6"/>
+      <c r="M127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="W127" s="399"/>
+      <c r="X127" s="400"/>
+      <c r="Y127" s="401"/>
+      <c r="AA127" s="407"/>
+      <c r="AB127" s="408"/>
+      <c r="AC127" s="409"/>
+      <c r="AE127" s="266"/>
+      <c r="AF127" s="413"/>
+      <c r="AG127" s="267"/>
+      <c r="AK127" s="113"/>
+      <c r="AL127" s="321"/>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H128" s="6"/>
+      <c r="K128" s="362" t="s">
+        <v>860</v>
+      </c>
+      <c r="L128" s="363"/>
+      <c r="M128" s="363"/>
+      <c r="N128" s="364"/>
+      <c r="Q128" s="241" t="s">
+        <v>861</v>
+      </c>
+      <c r="R128" s="322"/>
+      <c r="S128" s="322"/>
+      <c r="T128" s="242"/>
+      <c r="AK128" s="113"/>
+      <c r="AL128" s="321"/>
+    </row>
+    <row r="129" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H129" s="6"/>
+      <c r="J129" s="141"/>
+      <c r="K129" s="365"/>
+      <c r="L129" s="366"/>
+      <c r="M129" s="366"/>
+      <c r="N129" s="367"/>
+      <c r="Q129" s="243"/>
+      <c r="R129" s="323"/>
+      <c r="S129" s="323"/>
+      <c r="T129" s="244"/>
+      <c r="AK129" s="113"/>
+      <c r="AL129" s="321"/>
+    </row>
+    <row r="130" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H130" s="6"/>
+      <c r="J130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="S130" s="5"/>
+      <c r="AK130" s="113"/>
+      <c r="AL130" s="321"/>
+    </row>
+    <row r="131" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H131" s="6"/>
+      <c r="I131" s="368" t="s">
+        <v>583</v>
+      </c>
+      <c r="J131" s="369"/>
+      <c r="M131" s="368" t="s">
+        <v>713</v>
+      </c>
+      <c r="N131" s="369"/>
+      <c r="R131" s="349" t="s">
+        <v>583</v>
+      </c>
+      <c r="S131" s="350"/>
+      <c r="AK131" s="113"/>
+      <c r="AL131" s="321"/>
+    </row>
+    <row r="132" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H132" s="6"/>
+      <c r="I132" s="370" t="s">
+        <v>862</v>
+      </c>
+      <c r="J132" s="371"/>
+      <c r="M132" s="372" t="s">
+        <v>863</v>
+      </c>
+      <c r="N132" s="373"/>
+      <c r="R132" s="352" t="s">
+        <v>865</v>
+      </c>
+      <c r="S132" s="238"/>
+      <c r="AK132" s="113"/>
+      <c r="AL132" s="321"/>
+    </row>
+    <row r="133" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H133" s="6"/>
+      <c r="I133" s="372" t="s">
+        <v>860</v>
+      </c>
+      <c r="J133" s="373"/>
+      <c r="M133" s="347"/>
+      <c r="N133" s="348"/>
+      <c r="R133" s="239" t="s">
+        <v>866</v>
+      </c>
+      <c r="S133" s="240"/>
+      <c r="AK133" s="113"/>
+      <c r="AL133" s="321"/>
+    </row>
+    <row r="134" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="H134" s="5"/>
+      <c r="I134" s="142"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="142"/>
+      <c r="N134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="AK134" s="113"/>
+      <c r="AL134" s="321"/>
+    </row>
+    <row r="135" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="S135" s="6"/>
+      <c r="AK135" s="113"/>
+      <c r="AL135" s="321"/>
+    </row>
+    <row r="136" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="S136" s="6"/>
+      <c r="AK136" s="113"/>
+      <c r="AL136" s="321"/>
+    </row>
+    <row r="137" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="S137" s="5"/>
+      <c r="AK137" s="113"/>
+      <c r="AL137" s="321"/>
+    </row>
+    <row r="138" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="G138" s="338" t="s">
+        <v>853</v>
+      </c>
+      <c r="H138" s="339"/>
+      <c r="I138" s="339"/>
+      <c r="J138" s="339"/>
+      <c r="K138" s="339"/>
+      <c r="L138" s="340"/>
+      <c r="P138" s="338" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q138" s="339"/>
+      <c r="R138" s="339"/>
+      <c r="S138" s="339"/>
+      <c r="T138" s="339"/>
+      <c r="U138" s="340"/>
+      <c r="AK138" s="113"/>
+      <c r="AL138" s="321"/>
+    </row>
+    <row r="139" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="G139" s="341"/>
+      <c r="H139" s="342"/>
+      <c r="I139" s="342"/>
+      <c r="J139" s="342"/>
+      <c r="K139" s="342"/>
+      <c r="L139" s="343"/>
+      <c r="N139" s="101"/>
+      <c r="O139" s="139"/>
+      <c r="P139" s="341"/>
+      <c r="Q139" s="342"/>
+      <c r="R139" s="342"/>
+      <c r="S139" s="342"/>
+      <c r="T139" s="342"/>
+      <c r="U139" s="343"/>
+      <c r="AK139" s="113"/>
+      <c r="AL139" s="321"/>
+    </row>
+    <row r="140" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="G140" s="341"/>
+      <c r="H140" s="342"/>
+      <c r="I140" s="342"/>
+      <c r="J140" s="342"/>
+      <c r="K140" s="342"/>
+      <c r="L140" s="343"/>
+      <c r="N140" s="6"/>
+      <c r="P140" s="341"/>
+      <c r="Q140" s="342"/>
+      <c r="R140" s="342"/>
+      <c r="S140" s="342"/>
+      <c r="T140" s="342"/>
+      <c r="U140" s="343"/>
+      <c r="AK140" s="113"/>
+      <c r="AL140" s="321"/>
+    </row>
+    <row r="141" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="G141" s="341"/>
+      <c r="H141" s="342"/>
+      <c r="I141" s="342"/>
+      <c r="J141" s="342"/>
+      <c r="K141" s="342"/>
+      <c r="L141" s="343"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="321"/>
+      <c r="P141" s="341"/>
+      <c r="Q141" s="342"/>
+      <c r="R141" s="342"/>
+      <c r="S141" s="342"/>
+      <c r="T141" s="342"/>
+      <c r="U141" s="343"/>
+      <c r="AK141" s="113"/>
+      <c r="AL141" s="321"/>
+    </row>
+    <row r="142" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="344"/>
+      <c r="H142" s="345"/>
+      <c r="I142" s="345"/>
+      <c r="J142" s="345"/>
+      <c r="K142" s="345"/>
+      <c r="L142" s="346"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="321"/>
+      <c r="P142" s="344"/>
+      <c r="Q142" s="345"/>
+      <c r="R142" s="345"/>
+      <c r="S142" s="345"/>
+      <c r="T142" s="345"/>
+      <c r="U142" s="346"/>
+      <c r="AK142" s="113"/>
+      <c r="AL142" s="321"/>
+    </row>
+    <row r="143" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H143" s="138"/>
+      <c r="L143" s="138"/>
+      <c r="N143" s="5"/>
+      <c r="S143" s="138"/>
+      <c r="AK143" s="113"/>
+      <c r="AL143" s="321"/>
+    </row>
+    <row r="144" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="241" t="s">
+        <v>855</v>
+      </c>
+      <c r="F144" s="322"/>
+      <c r="G144" s="322"/>
+      <c r="H144" s="242"/>
+      <c r="K144" s="328" t="s">
+        <v>858</v>
+      </c>
+      <c r="L144" s="329"/>
+      <c r="M144" s="329"/>
+      <c r="N144" s="330"/>
+      <c r="Q144" s="328" t="s">
+        <v>872</v>
+      </c>
+      <c r="R144" s="329"/>
+      <c r="S144" s="329"/>
+      <c r="T144" s="330"/>
+      <c r="Z144" s="378"/>
+      <c r="AA144" s="378"/>
+      <c r="AB144" s="378"/>
+      <c r="AC144" s="378"/>
+      <c r="AD144" s="378"/>
+      <c r="AE144" s="378"/>
+      <c r="AF144" s="378"/>
+      <c r="AG144" s="378"/>
+      <c r="AH144" s="378"/>
+      <c r="AI144" s="378"/>
+      <c r="AJ144" s="378"/>
+      <c r="AK144" s="113"/>
+      <c r="AL144" s="321"/>
+    </row>
+    <row r="145" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="324"/>
+      <c r="F145" s="325"/>
+      <c r="G145" s="325"/>
+      <c r="H145" s="326"/>
+      <c r="K145" s="331"/>
+      <c r="L145" s="332"/>
+      <c r="M145" s="332"/>
+      <c r="N145" s="333"/>
+      <c r="Q145" s="331"/>
+      <c r="R145" s="332"/>
+      <c r="S145" s="332"/>
+      <c r="T145" s="333"/>
+      <c r="Y145" s="382"/>
+      <c r="Z145" s="321"/>
+      <c r="AA145" s="321"/>
+      <c r="AB145" s="321"/>
+      <c r="AC145" s="321"/>
+      <c r="AD145" s="321"/>
+      <c r="AE145" s="321"/>
+      <c r="AF145" s="321"/>
+      <c r="AG145" s="321"/>
+      <c r="AH145" s="321"/>
+      <c r="AI145" s="321"/>
+      <c r="AJ145" s="380"/>
+      <c r="AK145" s="113"/>
+      <c r="AL145" s="321"/>
+    </row>
+    <row r="146" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E146" s="243"/>
+      <c r="F146" s="323"/>
+      <c r="G146" s="323"/>
+      <c r="H146" s="244"/>
+      <c r="K146" s="334"/>
+      <c r="L146" s="335"/>
+      <c r="M146" s="335"/>
+      <c r="N146" s="336"/>
+      <c r="P146" s="141"/>
+      <c r="Q146" s="334"/>
+      <c r="R146" s="335"/>
+      <c r="S146" s="335"/>
+      <c r="T146" s="336"/>
+      <c r="U146" s="101"/>
+      <c r="V146" s="157"/>
+      <c r="W146" s="157"/>
+      <c r="X146" s="157"/>
+      <c r="Y146" s="385"/>
+      <c r="Z146" s="157"/>
+      <c r="AA146" s="157"/>
+      <c r="AB146" s="157"/>
+      <c r="AC146" s="157"/>
+      <c r="AD146" s="157"/>
+      <c r="AE146" s="157"/>
+      <c r="AF146" s="6"/>
+      <c r="AJ146" s="382"/>
+      <c r="AK146" s="113"/>
+      <c r="AL146" s="321"/>
+    </row>
+    <row r="147" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="G147" s="138"/>
+      <c r="K147" s="385"/>
+      <c r="L147" s="157"/>
+      <c r="M147" s="101"/>
+      <c r="P147" s="5"/>
+      <c r="V147" s="321"/>
+      <c r="W147" s="321"/>
+      <c r="Y147" s="382"/>
+      <c r="Z147" s="321"/>
+      <c r="AA147" s="321"/>
+      <c r="AF147" s="5"/>
+      <c r="AJ147" s="382"/>
+      <c r="AK147" s="113"/>
+      <c r="AL147" s="321"/>
+    </row>
+    <row r="148" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="E148" s="241" t="s">
+        <v>867</v>
+      </c>
+      <c r="F148" s="322"/>
+      <c r="G148" s="322"/>
+      <c r="H148" s="242"/>
+      <c r="K148" s="382"/>
+      <c r="L148" s="321"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="241" t="s">
+        <v>873</v>
+      </c>
+      <c r="O148" s="322"/>
+      <c r="P148" s="322"/>
+      <c r="Q148" s="242"/>
+      <c r="R148" s="321"/>
+      <c r="S148" s="321"/>
+      <c r="W148" s="321"/>
+      <c r="Y148" s="382"/>
+      <c r="Z148" s="321"/>
+      <c r="AD148" s="241" t="s">
+        <v>874</v>
+      </c>
+      <c r="AE148" s="322"/>
+      <c r="AF148" s="322"/>
+      <c r="AG148" s="242"/>
+      <c r="AJ148" s="382"/>
+      <c r="AK148" s="113"/>
+      <c r="AL148" s="321"/>
+    </row>
+    <row r="149" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B149" s="101"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="139"/>
+      <c r="E149" s="243"/>
+      <c r="F149" s="323"/>
+      <c r="G149" s="323"/>
+      <c r="H149" s="244"/>
+      <c r="K149" s="382"/>
+      <c r="L149" s="321"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="243"/>
+      <c r="O149" s="323"/>
+      <c r="P149" s="323"/>
+      <c r="Q149" s="244"/>
+      <c r="R149" s="101"/>
+      <c r="S149" s="157"/>
+      <c r="T149" s="157"/>
+      <c r="U149" s="157"/>
+      <c r="V149" s="157"/>
+      <c r="W149" s="157"/>
+      <c r="X149" s="157"/>
+      <c r="Y149" s="387"/>
+      <c r="Z149" s="321"/>
+      <c r="AD149" s="243"/>
+      <c r="AE149" s="323"/>
+      <c r="AF149" s="323"/>
+      <c r="AG149" s="244"/>
+      <c r="AJ149" s="382"/>
+      <c r="AK149" s="113"/>
+      <c r="AL149" s="321"/>
+    </row>
+    <row r="150" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B150" s="6"/>
+      <c r="G150" s="138"/>
+      <c r="K150" s="382"/>
+      <c r="L150" s="321"/>
+      <c r="M150" s="6"/>
+      <c r="P150" s="138"/>
+      <c r="R150" s="321"/>
+      <c r="S150" s="321"/>
+      <c r="T150" s="321"/>
+      <c r="U150" s="321"/>
+      <c r="W150" s="321"/>
+      <c r="X150" s="321"/>
+      <c r="Y150" s="388"/>
+      <c r="Z150" s="321"/>
+      <c r="AF150" s="5"/>
+      <c r="AJ150" s="382"/>
+      <c r="AK150" s="113"/>
+      <c r="AL150" s="321"/>
+    </row>
+    <row r="151" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B151" s="6"/>
+      <c r="E151" s="241" t="s">
+        <v>868</v>
+      </c>
+      <c r="F151" s="322"/>
+      <c r="G151" s="322"/>
+      <c r="H151" s="242"/>
+      <c r="K151" s="382"/>
+      <c r="L151" s="321"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="241" t="s">
+        <v>875</v>
+      </c>
+      <c r="O151" s="322"/>
+      <c r="P151" s="322"/>
+      <c r="Q151" s="242"/>
+      <c r="R151" s="321"/>
+      <c r="S151" s="321"/>
+      <c r="U151" s="321"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="241" t="s">
+        <v>886</v>
+      </c>
+      <c r="X151" s="322"/>
+      <c r="Y151" s="322"/>
+      <c r="Z151" s="242"/>
+      <c r="AA151" s="4"/>
+      <c r="AD151" s="241" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE151" s="322"/>
+      <c r="AF151" s="322"/>
+      <c r="AG151" s="242"/>
+      <c r="AH151" s="383"/>
+      <c r="AI151" s="378"/>
+      <c r="AJ151" s="382"/>
+      <c r="AK151" s="113"/>
+      <c r="AL151" s="321"/>
+    </row>
+    <row r="152" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="157"/>
+      <c r="E152" s="243"/>
+      <c r="F152" s="323"/>
+      <c r="G152" s="323"/>
+      <c r="H152" s="244"/>
+      <c r="I152" s="157"/>
+      <c r="J152" s="157"/>
+      <c r="K152" s="387"/>
+      <c r="L152" s="321"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="243"/>
+      <c r="O152" s="323"/>
+      <c r="P152" s="323"/>
+      <c r="Q152" s="244"/>
+      <c r="S152" s="321"/>
+      <c r="V152" s="6"/>
+      <c r="W152" s="243"/>
+      <c r="X152" s="323"/>
+      <c r="Y152" s="323"/>
+      <c r="Z152" s="244"/>
+      <c r="AB152" s="6"/>
+      <c r="AD152" s="243"/>
+      <c r="AE152" s="323"/>
+      <c r="AF152" s="323"/>
+      <c r="AG152" s="244"/>
+      <c r="AH152" s="6"/>
+      <c r="AI152" s="380"/>
+      <c r="AJ152" s="382"/>
+      <c r="AK152" s="113"/>
+      <c r="AL152" s="321"/>
+    </row>
+    <row r="153" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="K153" s="387"/>
+      <c r="L153" s="321"/>
+      <c r="M153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="T153" s="321"/>
+      <c r="U153" s="321"/>
+      <c r="V153" s="5"/>
+      <c r="Y153" s="138"/>
+      <c r="AB153" s="5"/>
+      <c r="AE153" s="321"/>
+      <c r="AF153" s="5"/>
+      <c r="AI153" s="382"/>
+      <c r="AJ153" s="382"/>
+      <c r="AK153" s="113"/>
+      <c r="AL153" s="321"/>
+    </row>
+    <row r="154" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="349" t="s">
+        <v>869</v>
+      </c>
+      <c r="E154" s="350"/>
+      <c r="H154" s="237" t="s">
+        <v>871</v>
+      </c>
+      <c r="I154" s="238"/>
+      <c r="K154" s="387"/>
+      <c r="L154" s="321"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="352" t="s">
+        <v>876</v>
+      </c>
+      <c r="O154" s="238"/>
+      <c r="P154" s="321"/>
+      <c r="Q154" s="169"/>
+      <c r="R154" s="349" t="s">
+        <v>729</v>
+      </c>
+      <c r="S154" s="350"/>
+      <c r="U154" s="237" t="s">
+        <v>887</v>
+      </c>
+      <c r="V154" s="238"/>
+      <c r="W154" s="347"/>
+      <c r="X154" s="237" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y154" s="238"/>
+      <c r="AA154" s="237" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB154" s="238"/>
+      <c r="AD154" s="241" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE154" s="322"/>
+      <c r="AF154" s="322"/>
+      <c r="AG154" s="242"/>
+      <c r="AI154" s="382"/>
+      <c r="AJ154" s="382"/>
+      <c r="AK154" s="113"/>
+      <c r="AL154" s="321"/>
+    </row>
+    <row r="155" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="351" t="s">
+        <v>870</v>
+      </c>
+      <c r="E155" s="350"/>
+      <c r="H155" s="239"/>
+      <c r="I155" s="240"/>
+      <c r="J155" s="157"/>
+      <c r="K155" s="382"/>
+      <c r="L155" s="321"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="239"/>
+      <c r="O155" s="240"/>
+      <c r="Q155" s="139"/>
+      <c r="R155" s="351" t="s">
+        <v>730</v>
+      </c>
+      <c r="S155" s="350"/>
+      <c r="U155" s="239"/>
+      <c r="V155" s="240"/>
+      <c r="W155" s="347"/>
+      <c r="X155" s="239"/>
+      <c r="Y155" s="240"/>
+      <c r="AA155" s="239"/>
+      <c r="AB155" s="240"/>
+      <c r="AD155" s="243"/>
+      <c r="AE155" s="323"/>
+      <c r="AF155" s="323"/>
+      <c r="AG155" s="244"/>
+      <c r="AI155" s="382"/>
+      <c r="AJ155" s="382"/>
+      <c r="AK155" s="113"/>
+      <c r="AL155" s="321"/>
+    </row>
+    <row r="156" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B156" s="6"/>
+      <c r="D156" s="385"/>
+      <c r="E156" s="377"/>
+      <c r="F156" s="378"/>
+      <c r="G156" s="378"/>
+      <c r="H156" s="379"/>
+      <c r="I156" s="377"/>
+      <c r="J156" s="378"/>
+      <c r="K156" s="389"/>
+      <c r="L156" s="321"/>
+      <c r="M156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="R156" s="239" t="s">
+        <v>731</v>
+      </c>
+      <c r="S156" s="240"/>
+      <c r="T156" s="321"/>
+      <c r="V156" s="138"/>
+      <c r="W156" s="347"/>
+      <c r="Y156" s="138"/>
+      <c r="AB156" s="138"/>
+      <c r="AD156" s="347"/>
+      <c r="AE156" s="138"/>
+      <c r="AI156" s="382"/>
+      <c r="AJ156" s="382"/>
+      <c r="AK156" s="113"/>
+      <c r="AL156" s="321"/>
+    </row>
+    <row r="157" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="O157" s="5"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="321"/>
+      <c r="U157" s="349" t="s">
+        <v>583</v>
+      </c>
+      <c r="V157" s="350"/>
+      <c r="X157" s="349" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y157" s="350"/>
+      <c r="AA157" s="349" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB157" s="350"/>
+      <c r="AD157" s="349" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE157" s="357"/>
+      <c r="AF157" s="350"/>
+      <c r="AI157" s="382"/>
+      <c r="AJ157" s="382"/>
+      <c r="AK157" s="113"/>
+      <c r="AL157" s="321"/>
+    </row>
+    <row r="158" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B158" s="5"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="142"/>
+      <c r="F158" s="241" t="s">
+        <v>880</v>
+      </c>
+      <c r="G158" s="242"/>
+      <c r="H158" s="140"/>
+      <c r="I158" s="353" t="s">
+        <v>881</v>
+      </c>
+      <c r="J158" s="354"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="358" t="s">
+        <v>885</v>
+      </c>
+      <c r="M158" s="359"/>
+      <c r="P158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="U158" s="351" t="s">
+        <v>890</v>
+      </c>
+      <c r="V158" s="350"/>
+      <c r="X158" s="351" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y158" s="350"/>
+      <c r="AA158" s="351" t="s">
+        <v>892</v>
+      </c>
+      <c r="AB158" s="350"/>
+      <c r="AD158" s="351" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE158" s="357"/>
+      <c r="AF158" s="350"/>
+      <c r="AI158" s="382"/>
+      <c r="AJ158" s="382"/>
+      <c r="AK158" s="113"/>
+      <c r="AL158" s="321"/>
+    </row>
+    <row r="159" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="F159" s="243"/>
+      <c r="G159" s="244"/>
+      <c r="I159" s="355"/>
+      <c r="J159" s="356"/>
+      <c r="L159" s="360"/>
+      <c r="M159" s="361"/>
+      <c r="O159" s="241" t="s">
+        <v>877</v>
+      </c>
+      <c r="P159" s="322"/>
+      <c r="Q159" s="322"/>
+      <c r="R159" s="242"/>
+      <c r="U159" s="157"/>
+      <c r="V159" s="374"/>
+      <c r="W159" s="375"/>
+      <c r="X159" s="376"/>
+      <c r="Y159" s="377"/>
+      <c r="Z159" s="378"/>
+      <c r="AA159" s="379"/>
+      <c r="AB159" s="157"/>
+      <c r="AE159" s="101"/>
+      <c r="AI159" s="382"/>
+      <c r="AJ159" s="382"/>
+      <c r="AK159" s="113"/>
+      <c r="AL159" s="321"/>
+    </row>
+    <row r="160" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="G160" s="101"/>
+      <c r="I160" s="385"/>
+      <c r="J160" s="321"/>
+      <c r="L160" s="385"/>
+      <c r="M160" s="157"/>
+      <c r="O160" s="243"/>
+      <c r="P160" s="323"/>
+      <c r="Q160" s="323"/>
+      <c r="R160" s="244"/>
+      <c r="V160" s="380"/>
+      <c r="W160" s="321"/>
+      <c r="Z160" s="386"/>
+      <c r="AA160" s="321"/>
+      <c r="AE160" s="6"/>
+      <c r="AI160" s="382"/>
+      <c r="AJ160" s="382"/>
+      <c r="AK160" s="113"/>
+      <c r="AL160" s="321"/>
+    </row>
+    <row r="161" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F161" s="353" t="s">
+        <v>882</v>
+      </c>
+      <c r="G161" s="354"/>
+      <c r="H161" s="321"/>
+      <c r="I161" s="382"/>
+      <c r="J161" s="321"/>
+      <c r="L161" s="382"/>
+      <c r="M161" s="321"/>
+      <c r="Q161" s="138"/>
+      <c r="S161" s="321"/>
+      <c r="V161" s="381"/>
+      <c r="W161" s="321"/>
+      <c r="Y161" s="241" t="s">
+        <v>893</v>
+      </c>
+      <c r="Z161" s="322"/>
+      <c r="AA161" s="322"/>
+      <c r="AB161" s="242"/>
+      <c r="AC161" s="5"/>
+      <c r="AD161" s="142"/>
+      <c r="AE161" s="6"/>
+      <c r="AI161" s="382"/>
+      <c r="AJ161" s="382"/>
+      <c r="AK161" s="113"/>
+      <c r="AL161" s="321"/>
+    </row>
+    <row r="162" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F162" s="355"/>
+      <c r="G162" s="356"/>
+      <c r="H162" s="321"/>
+      <c r="I162" s="382"/>
+      <c r="J162" s="321"/>
+      <c r="L162" s="393"/>
+      <c r="M162" s="321"/>
+      <c r="O162" s="241" t="s">
+        <v>878</v>
+      </c>
+      <c r="P162" s="322"/>
+      <c r="Q162" s="322"/>
+      <c r="R162" s="242"/>
+      <c r="V162" s="382"/>
+      <c r="W162" s="321"/>
+      <c r="Y162" s="243"/>
+      <c r="Z162" s="323"/>
+      <c r="AA162" s="323"/>
+      <c r="AB162" s="244"/>
+      <c r="AI162" s="382"/>
+      <c r="AJ162" s="382"/>
+      <c r="AK162" s="113"/>
+      <c r="AL162" s="321"/>
+    </row>
+    <row r="163" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F163" s="385"/>
+      <c r="G163" s="321"/>
+      <c r="I163" s="382"/>
+      <c r="J163" s="321"/>
+      <c r="L163" s="382"/>
+      <c r="M163" s="321"/>
+      <c r="O163" s="243"/>
+      <c r="P163" s="323"/>
+      <c r="Q163" s="323"/>
+      <c r="R163" s="244"/>
+      <c r="V163" s="382"/>
+      <c r="W163" s="321" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z163" s="101"/>
+      <c r="AB163" s="5"/>
+      <c r="AC163" s="4"/>
+      <c r="AI163" s="382"/>
+      <c r="AJ163" s="382"/>
+      <c r="AK163" s="113"/>
+      <c r="AL163" s="321"/>
+    </row>
+    <row r="164" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F164" s="382"/>
+      <c r="G164" s="321"/>
+      <c r="I164" s="382"/>
+      <c r="J164" s="321"/>
+      <c r="L164" s="382"/>
+      <c r="M164" s="321"/>
+      <c r="P164" s="390"/>
+      <c r="Q164" s="157"/>
+      <c r="U164" s="347"/>
+      <c r="V164" s="381"/>
+      <c r="W164" s="347"/>
+      <c r="Z164" s="5"/>
+      <c r="AD164" s="6"/>
+      <c r="AI164" s="382"/>
+      <c r="AJ164" s="382"/>
+      <c r="AK164" s="113"/>
+      <c r="AL164" s="321"/>
+    </row>
+    <row r="165" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F165" s="382"/>
+      <c r="G165" s="321"/>
+      <c r="I165" s="382"/>
+      <c r="J165" s="321"/>
+      <c r="L165" s="382"/>
+      <c r="M165" s="378"/>
+      <c r="N165" s="378"/>
+      <c r="O165" s="378"/>
+      <c r="P165" s="391"/>
+      <c r="Q165" s="378"/>
+      <c r="R165" s="378"/>
+      <c r="S165" s="378"/>
+      <c r="T165" s="378"/>
+      <c r="U165" s="378"/>
+      <c r="V165" s="384"/>
+      <c r="W165" s="321"/>
+      <c r="X165" s="241" t="s">
+        <v>894</v>
+      </c>
+      <c r="Y165" s="322"/>
+      <c r="Z165" s="322"/>
+      <c r="AA165" s="242"/>
+      <c r="AC165" s="241" t="s">
+        <v>895</v>
+      </c>
+      <c r="AD165" s="322"/>
+      <c r="AE165" s="322"/>
+      <c r="AF165" s="242"/>
+      <c r="AI165" s="382"/>
+      <c r="AJ165" s="382"/>
+      <c r="AK165" s="113"/>
+      <c r="AL165" s="321"/>
+    </row>
+    <row r="166" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F166" s="382"/>
+      <c r="G166" s="321"/>
+      <c r="I166" s="382"/>
+      <c r="J166" s="321"/>
+      <c r="M166" s="321"/>
+      <c r="N166" s="321"/>
+      <c r="O166" s="321"/>
+      <c r="P166" s="113"/>
+      <c r="Q166" s="321"/>
+      <c r="R166" s="321"/>
+      <c r="S166" s="321"/>
+      <c r="T166" s="321"/>
+      <c r="U166" s="321"/>
+      <c r="V166" s="321"/>
+      <c r="X166" s="243"/>
+      <c r="Y166" s="323"/>
+      <c r="Z166" s="323"/>
+      <c r="AA166" s="244"/>
+      <c r="AC166" s="243"/>
+      <c r="AD166" s="323"/>
+      <c r="AE166" s="323"/>
+      <c r="AF166" s="244"/>
+      <c r="AI166" s="382"/>
+      <c r="AJ166" s="382"/>
+      <c r="AK166" s="113"/>
+      <c r="AL166" s="321"/>
+    </row>
+    <row r="167" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F167" s="382"/>
+      <c r="G167" s="321"/>
+      <c r="I167" s="382"/>
+      <c r="J167" s="321"/>
+      <c r="P167" s="113"/>
+      <c r="Q167" s="321"/>
+      <c r="Z167" s="6"/>
+      <c r="AE167" s="6"/>
+      <c r="AI167" s="382"/>
+      <c r="AJ167" s="382"/>
+      <c r="AK167" s="113"/>
+      <c r="AL167" s="321"/>
+    </row>
+    <row r="168" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F168" s="382"/>
+      <c r="G168" s="321"/>
+      <c r="I168" s="382"/>
+      <c r="J168" s="321"/>
+      <c r="P168" s="113"/>
+      <c r="Q168" s="321"/>
+      <c r="Y168" s="237" t="s">
+        <v>896</v>
+      </c>
+      <c r="Z168" s="238"/>
+      <c r="AD168" s="237" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE168" s="238"/>
+      <c r="AI168" s="382"/>
+      <c r="AJ168" s="382"/>
+      <c r="AK168" s="113"/>
+      <c r="AL168" s="321"/>
+    </row>
+    <row r="169" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F169" s="382"/>
+      <c r="G169" s="321"/>
+      <c r="I169" s="382"/>
+      <c r="J169" s="321"/>
+      <c r="P169" s="113"/>
+      <c r="Q169" s="321"/>
+      <c r="X169" s="141"/>
+      <c r="Y169" s="239"/>
+      <c r="Z169" s="240"/>
+      <c r="AA169" s="141"/>
+      <c r="AB169" s="6"/>
+      <c r="AD169" s="239"/>
+      <c r="AE169" s="240"/>
+      <c r="AF169" s="101"/>
+      <c r="AG169" s="139"/>
+      <c r="AH169" s="6"/>
+      <c r="AI169" s="382"/>
+      <c r="AJ169" s="382"/>
+      <c r="AK169" s="113"/>
+      <c r="AL169" s="321"/>
+    </row>
+    <row r="170" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F170" s="382"/>
+      <c r="G170" s="321"/>
+      <c r="I170" s="382"/>
+      <c r="J170" s="321"/>
+      <c r="P170" s="113"/>
+      <c r="Q170" s="321"/>
+      <c r="X170" s="6"/>
+      <c r="AB170" s="6"/>
+      <c r="AE170" s="6"/>
+      <c r="AH170" s="6"/>
+      <c r="AI170" s="382"/>
+      <c r="AJ170" s="382"/>
+      <c r="AK170" s="113"/>
+      <c r="AL170" s="321"/>
+    </row>
+    <row r="171" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F171" s="382"/>
+      <c r="G171" s="321"/>
+      <c r="I171" s="382"/>
+      <c r="J171" s="321"/>
+      <c r="O171" s="321"/>
+      <c r="P171" s="113"/>
+      <c r="Q171" s="321"/>
+      <c r="W171" s="237" t="s">
+        <v>897</v>
+      </c>
+      <c r="X171" s="238"/>
+      <c r="AA171" s="237" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB171" s="238"/>
+      <c r="AD171" s="237" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE171" s="238"/>
+      <c r="AG171" s="237" t="s">
+        <v>900</v>
+      </c>
+      <c r="AH171" s="238"/>
+      <c r="AI171" s="382"/>
+      <c r="AJ171" s="382"/>
+      <c r="AK171" s="113"/>
+      <c r="AL171" s="321"/>
+    </row>
+    <row r="172" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F172" s="382"/>
+      <c r="G172" s="321"/>
+      <c r="I172" s="382"/>
+      <c r="J172" s="321"/>
+      <c r="O172" s="321"/>
+      <c r="P172" s="113"/>
+      <c r="Q172" s="321"/>
+      <c r="W172" s="239"/>
+      <c r="X172" s="240"/>
+      <c r="AA172" s="239"/>
+      <c r="AB172" s="240"/>
+      <c r="AD172" s="239"/>
+      <c r="AE172" s="240"/>
+      <c r="AG172" s="239"/>
+      <c r="AH172" s="240"/>
+      <c r="AI172" s="382"/>
+      <c r="AJ172" s="382"/>
+      <c r="AK172" s="113"/>
+      <c r="AL172" s="321"/>
+    </row>
+    <row r="173" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F173" s="382"/>
+      <c r="G173" s="321"/>
+      <c r="I173" s="382"/>
+      <c r="J173" s="321"/>
+      <c r="M173" s="321"/>
+      <c r="N173" s="321"/>
+      <c r="O173" s="321"/>
+      <c r="P173" s="113"/>
+      <c r="Q173" s="321"/>
+      <c r="X173" s="101"/>
+      <c r="AB173" s="6"/>
+      <c r="AE173" s="6"/>
+      <c r="AH173" s="101"/>
+      <c r="AI173" s="382"/>
+      <c r="AJ173" s="382"/>
+      <c r="AK173" s="113"/>
+      <c r="AL173" s="321"/>
+    </row>
+    <row r="174" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F174" s="382"/>
+      <c r="G174" s="321"/>
+      <c r="I174" s="382"/>
+      <c r="J174" s="321"/>
+      <c r="M174" s="321"/>
+      <c r="N174" s="321"/>
+      <c r="O174" s="321"/>
+      <c r="P174" s="113"/>
+      <c r="Q174" s="321"/>
+      <c r="X174" s="6"/>
+      <c r="AB174" s="148"/>
+      <c r="AC174" s="6"/>
+      <c r="AD174" s="138"/>
+      <c r="AH174" s="6"/>
+      <c r="AI174" s="382"/>
+      <c r="AJ174" s="382"/>
+      <c r="AK174" s="113"/>
+      <c r="AL174" s="321"/>
+    </row>
+    <row r="175" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F175" s="382"/>
+      <c r="G175" s="321"/>
+      <c r="I175" s="382"/>
+      <c r="J175" s="321"/>
+      <c r="P175" s="113"/>
+      <c r="Q175" s="321"/>
+      <c r="X175" s="6"/>
+      <c r="AB175" s="362" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC175" s="363"/>
+      <c r="AD175" s="363"/>
+      <c r="AE175" s="364"/>
+      <c r="AH175" s="6"/>
+      <c r="AI175" s="382"/>
+      <c r="AJ175" s="382"/>
+      <c r="AK175" s="113"/>
+      <c r="AL175" s="321"/>
+    </row>
+    <row r="176" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F176" s="382"/>
+      <c r="G176" s="321"/>
+      <c r="I176" s="382"/>
+      <c r="J176" s="321"/>
+      <c r="P176" s="113"/>
+      <c r="Q176" s="321"/>
+      <c r="X176" s="6"/>
+      <c r="AB176" s="365"/>
+      <c r="AC176" s="366"/>
+      <c r="AD176" s="366"/>
+      <c r="AE176" s="367"/>
+      <c r="AH176" s="6"/>
+      <c r="AI176" s="382"/>
+      <c r="AJ176" s="382"/>
+      <c r="AK176" s="113"/>
+      <c r="AL176" s="321"/>
+    </row>
+    <row r="177" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F177" s="382"/>
+      <c r="G177" s="321"/>
+      <c r="I177" s="382"/>
+      <c r="J177" s="321"/>
+      <c r="M177" s="321"/>
+      <c r="N177" s="321"/>
+      <c r="O177" s="321"/>
+      <c r="P177" s="113"/>
+      <c r="Q177" s="321"/>
+      <c r="X177" s="6"/>
+      <c r="AH177" s="6"/>
+      <c r="AI177" s="382"/>
+      <c r="AJ177" s="382"/>
+      <c r="AK177" s="113"/>
+      <c r="AL177" s="321"/>
+    </row>
+    <row r="178" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F178" s="382"/>
+      <c r="G178" s="321"/>
+      <c r="I178" s="382"/>
+      <c r="J178" s="321"/>
+      <c r="P178" s="113"/>
+      <c r="Q178" s="321"/>
+      <c r="X178" s="6"/>
+      <c r="AB178" s="362" t="s">
+        <v>903</v>
+      </c>
+      <c r="AC178" s="363"/>
+      <c r="AD178" s="363"/>
+      <c r="AE178" s="364"/>
+      <c r="AH178" s="6"/>
+      <c r="AI178" s="382"/>
+      <c r="AJ178" s="382"/>
+      <c r="AK178" s="113"/>
+      <c r="AL178" s="321"/>
+    </row>
+    <row r="179" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F179" s="382"/>
+      <c r="G179" s="321"/>
+      <c r="I179" s="382"/>
+      <c r="J179" s="321"/>
+      <c r="P179" s="113"/>
+      <c r="Q179" s="321"/>
+      <c r="X179" s="157"/>
+      <c r="Y179" s="157"/>
+      <c r="Z179" s="157"/>
+      <c r="AA179" s="157"/>
+      <c r="AB179" s="365"/>
+      <c r="AC179" s="366"/>
+      <c r="AD179" s="366"/>
+      <c r="AE179" s="367"/>
+      <c r="AF179" s="157"/>
+      <c r="AG179" s="157"/>
+      <c r="AI179" s="382"/>
+      <c r="AJ179" s="382"/>
+      <c r="AK179" s="113"/>
+      <c r="AL179" s="321"/>
+    </row>
+    <row r="180" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F180" s="382"/>
+      <c r="G180" s="321"/>
+      <c r="I180" s="382"/>
+      <c r="J180" s="321"/>
+      <c r="P180" s="113"/>
+      <c r="Q180" s="321"/>
+      <c r="AC180" s="390"/>
+      <c r="AD180" s="157"/>
+      <c r="AI180" s="382"/>
+      <c r="AJ180" s="382"/>
+      <c r="AK180" s="113"/>
+      <c r="AL180" s="321"/>
+    </row>
+    <row r="181" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F181" s="382"/>
+      <c r="G181" s="321"/>
+      <c r="I181" s="382"/>
+      <c r="J181" s="378"/>
+      <c r="K181" s="378"/>
+      <c r="L181" s="378"/>
+      <c r="M181" s="378"/>
+      <c r="N181" s="378"/>
+      <c r="O181" s="378"/>
+      <c r="P181" s="391"/>
+      <c r="Q181" s="378"/>
+      <c r="R181" s="378"/>
+      <c r="S181" s="378"/>
+      <c r="T181" s="378"/>
+      <c r="U181" s="378"/>
+      <c r="V181" s="378"/>
+      <c r="W181" s="378"/>
+      <c r="X181" s="378"/>
+      <c r="Y181" s="378"/>
+      <c r="Z181" s="378"/>
+      <c r="AA181" s="378"/>
+      <c r="AB181" s="378"/>
+      <c r="AC181" s="391"/>
+      <c r="AD181" s="378"/>
+      <c r="AE181" s="378"/>
+      <c r="AF181" s="378"/>
+      <c r="AG181" s="378"/>
+      <c r="AH181" s="378"/>
+      <c r="AI181" s="389"/>
+      <c r="AJ181" s="382"/>
+      <c r="AK181" s="113"/>
+      <c r="AL181" s="321"/>
+    </row>
+    <row r="182" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F182" s="382"/>
+      <c r="G182" s="378"/>
+      <c r="H182" s="378"/>
+      <c r="I182" s="378"/>
+      <c r="J182" s="378"/>
+      <c r="K182" s="378"/>
+      <c r="L182" s="378"/>
+      <c r="M182" s="378"/>
+      <c r="N182" s="378"/>
+      <c r="O182" s="378"/>
+      <c r="P182" s="391"/>
+      <c r="Q182" s="378"/>
+      <c r="R182" s="378"/>
+      <c r="S182" s="378"/>
+      <c r="T182" s="378"/>
+      <c r="U182" s="378"/>
+      <c r="V182" s="378"/>
+      <c r="W182" s="378"/>
+      <c r="X182" s="378"/>
+      <c r="Y182" s="378"/>
+      <c r="Z182" s="378"/>
+      <c r="AA182" s="378"/>
+      <c r="AB182" s="378"/>
+      <c r="AC182" s="391"/>
+      <c r="AD182" s="378"/>
+      <c r="AE182" s="378"/>
+      <c r="AF182" s="378"/>
+      <c r="AG182" s="378"/>
+      <c r="AH182" s="378"/>
+      <c r="AI182" s="378"/>
+      <c r="AJ182" s="389"/>
+      <c r="AK182" s="113"/>
+      <c r="AL182" s="321"/>
+    </row>
+    <row r="183" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="G183" s="321"/>
+      <c r="H183" s="321"/>
+      <c r="I183" s="321"/>
+      <c r="J183" s="321"/>
+      <c r="K183" s="321"/>
+      <c r="L183" s="321"/>
+      <c r="M183" s="321"/>
+      <c r="N183" s="321"/>
+      <c r="O183" s="321"/>
+      <c r="P183" s="113"/>
+      <c r="Q183" s="392"/>
+      <c r="R183" s="112"/>
+      <c r="S183" s="112"/>
+      <c r="T183" s="112"/>
+      <c r="U183" s="112"/>
+      <c r="V183" s="112"/>
+      <c r="W183" s="112"/>
+      <c r="X183" s="112"/>
+      <c r="Y183" s="112"/>
+      <c r="Z183" s="112"/>
+      <c r="AA183" s="112"/>
+      <c r="AB183" s="112"/>
+      <c r="AC183" s="111"/>
+      <c r="AD183" s="112"/>
+      <c r="AE183" s="112"/>
+      <c r="AF183" s="112"/>
+      <c r="AG183" s="112"/>
+      <c r="AH183" s="112"/>
+      <c r="AI183" s="112"/>
+      <c r="AJ183" s="112"/>
+      <c r="AK183" s="111"/>
+      <c r="AL183" s="321"/>
     </row>
   </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="AD171:AE172"/>
+    <mergeCell ref="AB175:AE176"/>
+    <mergeCell ref="AB178:AE179"/>
+    <mergeCell ref="W124:Y127"/>
+    <mergeCell ref="AA124:AC127"/>
+    <mergeCell ref="AE124:AG127"/>
+    <mergeCell ref="Y161:AB162"/>
+    <mergeCell ref="X165:AA166"/>
+    <mergeCell ref="AC165:AF166"/>
+    <mergeCell ref="Y168:Z169"/>
+    <mergeCell ref="AA171:AB172"/>
+    <mergeCell ref="W171:X172"/>
+    <mergeCell ref="AD168:AE169"/>
+    <mergeCell ref="AG171:AH172"/>
+    <mergeCell ref="L158:M159"/>
+    <mergeCell ref="U154:V155"/>
+    <mergeCell ref="X154:Y155"/>
+    <mergeCell ref="AA154:AB155"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="W151:Z152"/>
+    <mergeCell ref="AD154:AG155"/>
+    <mergeCell ref="AD157:AF157"/>
+    <mergeCell ref="AD158:AF158"/>
+    <mergeCell ref="AA157:AB157"/>
+    <mergeCell ref="AA158:AB158"/>
+    <mergeCell ref="F158:G159"/>
+    <mergeCell ref="I158:J159"/>
+    <mergeCell ref="F161:G162"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="O159:R160"/>
+    <mergeCell ref="O162:R163"/>
+    <mergeCell ref="AD148:AG149"/>
+    <mergeCell ref="N151:Q152"/>
+    <mergeCell ref="AD151:AG152"/>
+    <mergeCell ref="N154:O155"/>
+    <mergeCell ref="R154:S154"/>
+    <mergeCell ref="R155:S155"/>
+    <mergeCell ref="E148:H149"/>
+    <mergeCell ref="E151:H152"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="H154:I155"/>
+    <mergeCell ref="Q144:T146"/>
+    <mergeCell ref="N148:Q149"/>
+    <mergeCell ref="K128:N129"/>
+    <mergeCell ref="Q128:T129"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="E144:H146"/>
+    <mergeCell ref="K144:N146"/>
+    <mergeCell ref="N124:Q126"/>
+    <mergeCell ref="M118:R122"/>
+    <mergeCell ref="P138:U142"/>
+    <mergeCell ref="G138:L142"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:V34"/>
+    <mergeCell ref="P35:R37"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="M26:N42"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="S27:V28"/>
+    <mergeCell ref="P29:R32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H26:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C492E84-E7FD-4E9C-86B5-FA7A12D1A893}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E2A31-F412-41EA-93E0-16FA43723815}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36714,12 +41336,12 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="184" t="s">
+      <c r="K65" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="185"/>
-      <c r="M65" s="185"/>
-      <c r="N65" s="186"/>
+      <c r="L65" s="182"/>
+      <c r="M65" s="182"/>
+      <c r="N65" s="183"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -36744,10 +41366,10 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="187"/>
-      <c r="L66" s="188"/>
-      <c r="M66" s="188"/>
-      <c r="N66" s="189"/>
+      <c r="K66" s="184"/>
+      <c r="L66" s="185"/>
+      <c r="M66" s="185"/>
+      <c r="N66" s="186"/>
       <c r="O66" s="12"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -36772,10 +41394,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="190"/>
-      <c r="L67" s="191"/>
-      <c r="M67" s="191"/>
-      <c r="N67" s="192"/>
+      <c r="K67" s="187"/>
+      <c r="L67" s="188"/>
+      <c r="M67" s="188"/>
+      <c r="N67" s="189"/>
       <c r="O67" s="13"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -36853,20 +41475,20 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="193" t="s">
+      <c r="H70" s="211" t="s">
         <v>195</v>
       </c>
-      <c r="I70" s="194"/>
-      <c r="J70" s="194"/>
-      <c r="K70" s="195"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="212"/>
+      <c r="K70" s="213"/>
       <c r="L70" s="10"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="193" t="s">
+      <c r="N70" s="211" t="s">
         <v>194</v>
       </c>
-      <c r="O70" s="194"/>
-      <c r="P70" s="194"/>
-      <c r="Q70" s="195"/>
+      <c r="O70" s="212"/>
+      <c r="P70" s="212"/>
+      <c r="Q70" s="213"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -36917,10 +41539,10 @@
       <c r="I72" s="10"/>
       <c r="J72" s="13"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="196" t="s">
+      <c r="L72" s="190" t="s">
         <v>193</v>
       </c>
-      <c r="M72" s="197"/>
+      <c r="M72" s="192"/>
       <c r="N72" s="11"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -36947,8 +41569,8 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="198"/>
-      <c r="M73" s="199"/>
+      <c r="L73" s="193"/>
+      <c r="M73" s="195"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -37005,10 +41627,10 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="196" t="s">
+      <c r="L75" s="190" t="s">
         <v>192</v>
       </c>
-      <c r="M75" s="197"/>
+      <c r="M75" s="192"/>
       <c r="N75" s="16"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -37035,8 +41657,8 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="198"/>
-      <c r="M76" s="199"/>
+      <c r="L76" s="193"/>
+      <c r="M76" s="195"/>
       <c r="N76" s="10" t="s">
         <v>191</v>
       </c>
@@ -37148,12 +41770,12 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="184" t="s">
+      <c r="K80" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="L80" s="185"/>
-      <c r="M80" s="185"/>
-      <c r="N80" s="186"/>
+      <c r="L80" s="182"/>
+      <c r="M80" s="182"/>
+      <c r="N80" s="183"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -37178,10 +41800,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="188"/>
-      <c r="M81" s="188"/>
-      <c r="N81" s="189"/>
+      <c r="K81" s="184"/>
+      <c r="L81" s="185"/>
+      <c r="M81" s="185"/>
+      <c r="N81" s="186"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="10"/>
@@ -37206,10 +41828,10 @@
       <c r="H82" s="13"/>
       <c r="I82" s="10"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="191"/>
-      <c r="M82" s="191"/>
-      <c r="N82" s="192"/>
+      <c r="K82" s="187"/>
+      <c r="L82" s="188"/>
+      <c r="M82" s="188"/>
+      <c r="N82" s="189"/>
       <c r="O82" s="10"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="10"/>
@@ -37259,20 +41881,20 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="196" t="s">
+      <c r="H84" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="200"/>
-      <c r="J84" s="197"/>
+      <c r="I84" s="191"/>
+      <c r="J84" s="192"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="13"/>
-      <c r="O84" s="196" t="s">
+      <c r="O84" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="P84" s="200"/>
-      <c r="Q84" s="197"/>
+      <c r="P84" s="191"/>
+      <c r="Q84" s="192"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -37291,16 +41913,16 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="198"/>
-      <c r="I85" s="201"/>
-      <c r="J85" s="199"/>
+      <c r="H85" s="193"/>
+      <c r="I85" s="194"/>
+      <c r="J85" s="195"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="13"/>
-      <c r="O85" s="198"/>
-      <c r="P85" s="201"/>
-      <c r="Q85" s="199"/>
+      <c r="O85" s="193"/>
+      <c r="P85" s="194"/>
+      <c r="Q85" s="195"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
@@ -37433,17 +42055,17 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="196" t="s">
+      <c r="F90" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="197"/>
+      <c r="G90" s="192"/>
       <c r="H90" s="11"/>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="196" t="s">
+      <c r="K90" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="L90" s="197"/>
+      <c r="L90" s="192"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -37465,13 +42087,13 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="198"/>
-      <c r="G91" s="199"/>
+      <c r="F91" s="193"/>
+      <c r="G91" s="195"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="198"/>
-      <c r="L91" s="199"/>
+      <c r="K91" s="193"/>
+      <c r="L91" s="195"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -37548,12 +42170,12 @@
       <c r="B94" s="13"/>
       <c r="C94" s="10"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="168" t="s">
+      <c r="E94" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="169"/>
-      <c r="G94" s="169"/>
-      <c r="H94" s="170"/>
+      <c r="F94" s="179"/>
+      <c r="G94" s="179"/>
+      <c r="H94" s="180"/>
       <c r="I94" s="13"/>
       <c r="J94" s="10"/>
       <c r="K94" s="13"/>
@@ -37635,19 +42257,19 @@
       <c r="C97" s="13"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="168" t="s">
+      <c r="F97" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="170"/>
+      <c r="G97" s="180"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="184" t="s">
+      <c r="K97" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="185"/>
-      <c r="M97" s="185"/>
-      <c r="N97" s="186"/>
+      <c r="L97" s="182"/>
+      <c r="M97" s="182"/>
+      <c r="N97" s="183"/>
       <c r="O97" s="12"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="10"/>
@@ -37672,10 +42294,10 @@
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="187"/>
-      <c r="L98" s="188"/>
-      <c r="M98" s="188"/>
-      <c r="N98" s="189"/>
+      <c r="K98" s="184"/>
+      <c r="L98" s="185"/>
+      <c r="M98" s="185"/>
+      <c r="N98" s="186"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -37695,17 +42317,17 @@
       <c r="C99" s="13"/>
       <c r="D99" s="10"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="168" t="s">
+      <c r="F99" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="G99" s="170"/>
+      <c r="G99" s="180"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="190"/>
-      <c r="L99" s="191"/>
-      <c r="M99" s="191"/>
-      <c r="N99" s="192"/>
+      <c r="K99" s="187"/>
+      <c r="L99" s="188"/>
+      <c r="M99" s="188"/>
+      <c r="N99" s="189"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -37758,12 +42380,12 @@
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="180" t="s">
+      <c r="K101" s="172" t="s">
         <v>179</v>
       </c>
-      <c r="L101" s="211"/>
-      <c r="M101" s="211"/>
-      <c r="N101" s="181"/>
+      <c r="L101" s="173"/>
+      <c r="M101" s="173"/>
+      <c r="N101" s="174"/>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="10"/>
@@ -37788,10 +42410,10 @@
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="182"/>
-      <c r="L102" s="212"/>
-      <c r="M102" s="212"/>
-      <c r="N102" s="183"/>
+      <c r="K102" s="175"/>
+      <c r="L102" s="176"/>
+      <c r="M102" s="176"/>
+      <c r="N102" s="177"/>
       <c r="O102" s="10"/>
       <c r="P102" s="13"/>
       <c r="Q102" s="10"/>
@@ -37840,21 +42462,21 @@
       <c r="D104" s="10"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="171" t="s">
+      <c r="G104" s="196" t="s">
         <v>178</v>
       </c>
-      <c r="H104" s="172"/>
-      <c r="I104" s="173"/>
+      <c r="H104" s="197"/>
+      <c r="I104" s="198"/>
       <c r="J104" s="12"/>
       <c r="K104" s="11"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="13"/>
-      <c r="O104" s="168" t="s">
+      <c r="O104" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="P104" s="169"/>
-      <c r="Q104" s="170"/>
+      <c r="P104" s="179"/>
+      <c r="Q104" s="180"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
@@ -37872,9 +42494,9 @@
       <c r="D105" s="10"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="174"/>
-      <c r="H105" s="175"/>
-      <c r="I105" s="176"/>
+      <c r="G105" s="199"/>
+      <c r="H105" s="200"/>
+      <c r="I105" s="201"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
@@ -37969,13 +42591,13 @@
       <c r="O108" s="209"/>
       <c r="P108" s="210"/>
       <c r="Q108" s="13"/>
-      <c r="R108" s="193" t="s">
+      <c r="R108" s="211" t="s">
         <v>175</v>
       </c>
-      <c r="S108" s="194"/>
-      <c r="T108" s="194"/>
-      <c r="U108" s="194"/>
-      <c r="V108" s="195"/>
+      <c r="S108" s="212"/>
+      <c r="T108" s="212"/>
+      <c r="U108" s="212"/>
+      <c r="V108" s="213"/>
       <c r="W108" s="13"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="10"/>
@@ -38021,20 +42643,20 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="13"/>
-      <c r="L110" s="196" t="s">
+      <c r="L110" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="M110" s="200"/>
-      <c r="N110" s="197"/>
+      <c r="M110" s="191"/>
+      <c r="N110" s="192"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="13"/>
-      <c r="S110" s="177" t="s">
+      <c r="S110" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="T110" s="178"/>
-      <c r="U110" s="179"/>
+      <c r="T110" s="215"/>
+      <c r="U110" s="216"/>
       <c r="V110" s="10"/>
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
@@ -38053,9 +42675,9 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="13"/>
-      <c r="L111" s="198"/>
-      <c r="M111" s="201"/>
-      <c r="N111" s="199"/>
+      <c r="L111" s="193"/>
+      <c r="M111" s="194"/>
+      <c r="N111" s="195"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -38088,10 +42710,10 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
-      <c r="S112" s="180" t="s">
+      <c r="S112" s="172" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="181"/>
+      <c r="T112" s="174"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="11"/>
@@ -38104,26 +42726,26 @@
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="184" t="s">
+      <c r="E113" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="F113" s="185"/>
-      <c r="G113" s="185"/>
-      <c r="H113" s="186"/>
+      <c r="F113" s="182"/>
+      <c r="G113" s="182"/>
+      <c r="H113" s="183"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="13"/>
-      <c r="L113" s="177" t="s">
+      <c r="L113" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="M113" s="178"/>
-      <c r="N113" s="179"/>
+      <c r="M113" s="215"/>
+      <c r="N113" s="216"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
-      <c r="S113" s="182"/>
-      <c r="T113" s="183"/>
+      <c r="S113" s="175"/>
+      <c r="T113" s="177"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
       <c r="W113" s="10"/>
@@ -38136,10 +42758,10 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="187"/>
-      <c r="F114" s="188"/>
-      <c r="G114" s="188"/>
-      <c r="H114" s="189"/>
+      <c r="E114" s="184"/>
+      <c r="F114" s="185"/>
+      <c r="G114" s="185"/>
+      <c r="H114" s="186"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -38164,18 +42786,18 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="190"/>
-      <c r="F115" s="191"/>
-      <c r="G115" s="191"/>
-      <c r="H115" s="192"/>
+      <c r="E115" s="187"/>
+      <c r="F115" s="188"/>
+      <c r="G115" s="188"/>
+      <c r="H115" s="189"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="13"/>
-      <c r="L115" s="177" t="s">
+      <c r="L115" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="M115" s="178"/>
-      <c r="N115" s="179"/>
+      <c r="M115" s="215"/>
+      <c r="N115" s="216"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -38229,11 +42851,11 @@
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="13"/>
-      <c r="L117" s="177" t="s">
+      <c r="L117" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="M117" s="178"/>
-      <c r="N117" s="179"/>
+      <c r="M117" s="215"/>
+      <c r="N117" s="216"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -38338,18 +42960,18 @@
       <c r="D121" s="10"/>
       <c r="E121" s="13"/>
       <c r="F121" s="11"/>
-      <c r="G121" s="171" t="s">
+      <c r="G121" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="H121" s="173"/>
+      <c r="H121" s="198"/>
       <c r="I121" s="12"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="184" t="s">
+      <c r="K121" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="L121" s="185"/>
-      <c r="M121" s="185"/>
-      <c r="N121" s="186"/>
+      <c r="L121" s="182"/>
+      <c r="M121" s="182"/>
+      <c r="N121" s="183"/>
       <c r="O121" s="12"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
@@ -38370,14 +42992,14 @@
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="174"/>
-      <c r="H122" s="176"/>
+      <c r="G122" s="199"/>
+      <c r="H122" s="201"/>
       <c r="I122" s="10"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="187"/>
-      <c r="L122" s="188"/>
-      <c r="M122" s="188"/>
-      <c r="N122" s="189"/>
+      <c r="K122" s="184"/>
+      <c r="L122" s="185"/>
+      <c r="M122" s="185"/>
+      <c r="N122" s="186"/>
       <c r="O122" s="13"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
@@ -38402,10 +43024,10 @@
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="190"/>
-      <c r="L123" s="191"/>
-      <c r="M123" s="191"/>
-      <c r="N123" s="192"/>
+      <c r="K123" s="187"/>
+      <c r="L123" s="188"/>
+      <c r="M123" s="188"/>
+      <c r="N123" s="189"/>
       <c r="O123" s="13"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
@@ -38480,27 +43102,27 @@
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="171" t="s">
+      <c r="E126" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="172"/>
-      <c r="G126" s="173"/>
+      <c r="F126" s="197"/>
+      <c r="G126" s="198"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="171" t="s">
+      <c r="I126" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="J126" s="172"/>
-      <c r="K126" s="172"/>
-      <c r="L126" s="172"/>
-      <c r="M126" s="173"/>
+      <c r="J126" s="197"/>
+      <c r="K126" s="197"/>
+      <c r="L126" s="197"/>
+      <c r="M126" s="198"/>
       <c r="N126" s="13"/>
-      <c r="O126" s="171" t="s">
+      <c r="O126" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="P126" s="172"/>
-      <c r="Q126" s="172"/>
-      <c r="R126" s="172"/>
-      <c r="S126" s="173"/>
+      <c r="P126" s="197"/>
+      <c r="Q126" s="197"/>
+      <c r="R126" s="197"/>
+      <c r="S126" s="198"/>
       <c r="T126" s="11"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
@@ -38514,21 +43136,21 @@
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="174"/>
-      <c r="F127" s="175"/>
-      <c r="G127" s="176"/>
+      <c r="E127" s="199"/>
+      <c r="F127" s="200"/>
+      <c r="G127" s="201"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="174"/>
-      <c r="J127" s="175"/>
-      <c r="K127" s="175"/>
-      <c r="L127" s="175"/>
-      <c r="M127" s="176"/>
+      <c r="I127" s="199"/>
+      <c r="J127" s="200"/>
+      <c r="K127" s="200"/>
+      <c r="L127" s="200"/>
+      <c r="M127" s="201"/>
       <c r="N127" s="13"/>
-      <c r="O127" s="174"/>
-      <c r="P127" s="175"/>
-      <c r="Q127" s="175"/>
-      <c r="R127" s="175"/>
-      <c r="S127" s="176"/>
+      <c r="O127" s="199"/>
+      <c r="P127" s="200"/>
+      <c r="Q127" s="200"/>
+      <c r="R127" s="200"/>
+      <c r="S127" s="201"/>
       <c r="T127" s="13"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
@@ -38570,11 +43192,11 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="168" t="s">
+      <c r="E129" s="178" t="s">
         <v>162</v>
       </c>
-      <c r="F129" s="169"/>
-      <c r="G129" s="170"/>
+      <c r="F129" s="179"/>
+      <c r="G129" s="180"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -38628,11 +43250,11 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="171" t="s">
+      <c r="E131" s="196" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="172"/>
-      <c r="G131" s="173"/>
+      <c r="F131" s="197"/>
+      <c r="G131" s="198"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -38658,9 +43280,9 @@
       <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="174"/>
-      <c r="F132" s="175"/>
-      <c r="G132" s="176"/>
+      <c r="E132" s="199"/>
+      <c r="F132" s="200"/>
+      <c r="G132" s="201"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -38795,6 +43417,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E131:G132"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="S112:T113"/>
+    <mergeCell ref="E113:H115"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="K121:N123"/>
+    <mergeCell ref="E126:G127"/>
+    <mergeCell ref="I126:M127"/>
+    <mergeCell ref="G121:H122"/>
+    <mergeCell ref="K97:N99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="K65:N67"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="L75:M76"/>
     <mergeCell ref="K101:N102"/>
     <mergeCell ref="O104:Q104"/>
     <mergeCell ref="K80:N82"/>
@@ -38811,25 +43452,6 @@
     <mergeCell ref="L108:P108"/>
     <mergeCell ref="R108:V108"/>
     <mergeCell ref="F97:G97"/>
-    <mergeCell ref="K97:N99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="K65:N67"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="L75:M76"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E131:G132"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="S112:T113"/>
-    <mergeCell ref="E113:H115"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="K121:N123"/>
-    <mergeCell ref="E126:G127"/>
-    <mergeCell ref="I126:M127"/>
-    <mergeCell ref="G121:H122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39374,12 +43996,12 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="226" t="s">
+      <c r="G87" s="217" t="s">
         <v>300</v>
       </c>
-      <c r="H87" s="226"/>
-      <c r="I87" s="226"/>
-      <c r="J87" s="226"/>
+      <c r="H87" s="217"/>
+      <c r="I87" s="217"/>
+      <c r="J87" s="217"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
@@ -39412,17 +44034,17 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="226"/>
-      <c r="H88" s="226"/>
-      <c r="I88" s="226"/>
-      <c r="J88" s="226"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="217"/>
+      <c r="I88" s="217"/>
+      <c r="J88" s="217"/>
       <c r="K88" s="98"/>
-      <c r="L88" s="224" t="s">
+      <c r="L88" s="218" t="s">
         <v>299</v>
       </c>
-      <c r="M88" s="224"/>
-      <c r="N88" s="224"/>
-      <c r="O88" s="224"/>
+      <c r="M88" s="218"/>
+      <c r="N88" s="218"/>
+      <c r="O88" s="218"/>
       <c r="P88" s="81"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -39431,17 +44053,17 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="105"/>
-      <c r="X88" s="213" t="s">
+      <c r="X88" s="221" t="s">
         <v>298</v>
       </c>
-      <c r="Y88" s="214"/>
-      <c r="Z88" s="214"/>
-      <c r="AA88" s="214"/>
-      <c r="AB88" s="214"/>
-      <c r="AC88" s="214"/>
-      <c r="AD88" s="214"/>
-      <c r="AE88" s="214"/>
-      <c r="AF88" s="215"/>
+      <c r="Y88" s="222"/>
+      <c r="Z88" s="222"/>
+      <c r="AA88" s="222"/>
+      <c r="AB88" s="222"/>
+      <c r="AC88" s="222"/>
+      <c r="AD88" s="222"/>
+      <c r="AE88" s="222"/>
+      <c r="AF88" s="223"/>
       <c r="AG88" s="18"/>
       <c r="AH88" s="18"/>
     </row>
@@ -39452,15 +44074,15 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="226"/>
-      <c r="H89" s="226"/>
-      <c r="I89" s="226"/>
-      <c r="J89" s="226"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="217"/>
+      <c r="I89" s="217"/>
+      <c r="J89" s="217"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="224"/>
-      <c r="M89" s="224"/>
-      <c r="N89" s="224"/>
-      <c r="O89" s="224"/>
+      <c r="L89" s="218"/>
+      <c r="M89" s="218"/>
+      <c r="N89" s="218"/>
+      <c r="O89" s="218"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
@@ -39469,15 +44091,15 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="105"/>
-      <c r="X89" s="216"/>
-      <c r="Y89" s="217"/>
-      <c r="Z89" s="217"/>
-      <c r="AA89" s="217"/>
-      <c r="AB89" s="217"/>
-      <c r="AC89" s="217"/>
-      <c r="AD89" s="217"/>
-      <c r="AE89" s="217"/>
-      <c r="AF89" s="218"/>
+      <c r="X89" s="224"/>
+      <c r="Y89" s="225"/>
+      <c r="Z89" s="225"/>
+      <c r="AA89" s="225"/>
+      <c r="AB89" s="225"/>
+      <c r="AC89" s="225"/>
+      <c r="AD89" s="225"/>
+      <c r="AE89" s="225"/>
+      <c r="AF89" s="226"/>
       <c r="AG89" s="18"/>
       <c r="AH89" s="18"/>
     </row>
@@ -39488,15 +44110,15 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="226"/>
-      <c r="H90" s="226"/>
-      <c r="I90" s="226"/>
-      <c r="J90" s="226"/>
+      <c r="G90" s="217"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="224"/>
-      <c r="M90" s="224"/>
-      <c r="N90" s="224"/>
-      <c r="O90" s="224"/>
+      <c r="L90" s="218"/>
+      <c r="M90" s="218"/>
+      <c r="N90" s="218"/>
+      <c r="O90" s="218"/>
       <c r="P90" s="36"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
@@ -39505,15 +44127,15 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="105"/>
-      <c r="X90" s="216"/>
-      <c r="Y90" s="217"/>
-      <c r="Z90" s="217"/>
-      <c r="AA90" s="217"/>
-      <c r="AB90" s="217"/>
-      <c r="AC90" s="217"/>
-      <c r="AD90" s="217"/>
-      <c r="AE90" s="217"/>
-      <c r="AF90" s="218"/>
+      <c r="X90" s="224"/>
+      <c r="Y90" s="225"/>
+      <c r="Z90" s="225"/>
+      <c r="AA90" s="225"/>
+      <c r="AB90" s="225"/>
+      <c r="AC90" s="225"/>
+      <c r="AD90" s="225"/>
+      <c r="AE90" s="225"/>
+      <c r="AF90" s="226"/>
       <c r="AG90" s="18"/>
       <c r="AH90" s="18"/>
     </row>
@@ -39541,15 +44163,15 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="105"/>
-      <c r="X91" s="219"/>
-      <c r="Y91" s="220"/>
-      <c r="Z91" s="220"/>
-      <c r="AA91" s="220"/>
-      <c r="AB91" s="220"/>
-      <c r="AC91" s="220"/>
-      <c r="AD91" s="220"/>
-      <c r="AE91" s="220"/>
-      <c r="AF91" s="221"/>
+      <c r="X91" s="227"/>
+      <c r="Y91" s="228"/>
+      <c r="Z91" s="228"/>
+      <c r="AA91" s="228"/>
+      <c r="AB91" s="228"/>
+      <c r="AC91" s="228"/>
+      <c r="AD91" s="228"/>
+      <c r="AE91" s="228"/>
+      <c r="AF91" s="229"/>
       <c r="AG91" s="18"/>
       <c r="AH91" s="18"/>
     </row>
@@ -39592,21 +44214,21 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="224" t="s">
+      <c r="C93" s="218" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="224"/>
-      <c r="E93" s="224"/>
-      <c r="F93" s="224"/>
+      <c r="D93" s="218"/>
+      <c r="E93" s="218"/>
+      <c r="F93" s="218"/>
       <c r="G93" s="19"/>
       <c r="H93" s="103"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="224" t="s">
+      <c r="J93" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="K93" s="224"/>
-      <c r="L93" s="224"/>
-      <c r="M93" s="224"/>
+      <c r="K93" s="218"/>
+      <c r="L93" s="218"/>
+      <c r="M93" s="218"/>
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
       <c r="P93" s="36"/>
@@ -39632,17 +44254,17 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="224"/>
-      <c r="E94" s="224"/>
-      <c r="F94" s="224"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="218"/>
+      <c r="E94" s="218"/>
+      <c r="F94" s="218"/>
       <c r="G94" s="19"/>
       <c r="H94" s="103"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="224"/>
-      <c r="K94" s="224"/>
-      <c r="L94" s="224"/>
-      <c r="M94" s="224"/>
+      <c r="J94" s="218"/>
+      <c r="K94" s="218"/>
+      <c r="L94" s="218"/>
+      <c r="M94" s="218"/>
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
       <c r="P94" s="36"/>
@@ -39668,17 +44290,17 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="224"/>
-      <c r="E95" s="224"/>
-      <c r="F95" s="224"/>
+      <c r="C95" s="218"/>
+      <c r="D95" s="218"/>
+      <c r="E95" s="218"/>
+      <c r="F95" s="218"/>
       <c r="G95" s="19"/>
       <c r="H95" s="103"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="224"/>
-      <c r="K95" s="224"/>
-      <c r="L95" s="224"/>
-      <c r="M95" s="224"/>
+      <c r="J95" s="218"/>
+      <c r="K95" s="218"/>
+      <c r="L95" s="218"/>
+      <c r="M95" s="218"/>
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
       <c r="P95" s="36"/>
@@ -39783,12 +44405,12 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="224" t="s">
+      <c r="J98" s="218" t="s">
         <v>296</v>
       </c>
-      <c r="K98" s="224"/>
-      <c r="L98" s="224"/>
-      <c r="M98" s="224"/>
+      <c r="K98" s="218"/>
+      <c r="L98" s="218"/>
+      <c r="M98" s="218"/>
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
       <c r="P98" s="36"/>
@@ -39821,10 +44443,10 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="224"/>
-      <c r="K99" s="224"/>
-      <c r="L99" s="224"/>
-      <c r="M99" s="224"/>
+      <c r="J99" s="218"/>
+      <c r="K99" s="218"/>
+      <c r="L99" s="218"/>
+      <c r="M99" s="218"/>
       <c r="N99" s="79"/>
       <c r="O99" s="50"/>
       <c r="P99" s="91"/>
@@ -39857,10 +44479,10 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="224"/>
-      <c r="K100" s="224"/>
-      <c r="L100" s="224"/>
-      <c r="M100" s="224"/>
+      <c r="J100" s="218"/>
+      <c r="K100" s="218"/>
+      <c r="L100" s="218"/>
+      <c r="M100" s="218"/>
       <c r="N100" s="19"/>
       <c r="O100" s="19"/>
       <c r="P100" s="36"/>
@@ -39962,12 +44584,12 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="78"/>
-      <c r="G103" s="226" t="s">
+      <c r="G103" s="217" t="s">
         <v>295</v>
       </c>
-      <c r="H103" s="226"/>
-      <c r="I103" s="226"/>
-      <c r="J103" s="226"/>
+      <c r="H103" s="217"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="217"/>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
       <c r="M103" s="19"/>
@@ -40000,17 +44622,17 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="78"/>
-      <c r="G104" s="226"/>
-      <c r="H104" s="226"/>
-      <c r="I104" s="226"/>
-      <c r="J104" s="226"/>
+      <c r="G104" s="217"/>
+      <c r="H104" s="217"/>
+      <c r="I104" s="217"/>
+      <c r="J104" s="217"/>
       <c r="K104" s="98"/>
-      <c r="L104" s="224" t="s">
+      <c r="L104" s="218" t="s">
         <v>294</v>
       </c>
-      <c r="M104" s="224"/>
-      <c r="N104" s="224"/>
-      <c r="O104" s="224"/>
+      <c r="M104" s="218"/>
+      <c r="N104" s="218"/>
+      <c r="O104" s="218"/>
       <c r="P104" s="97"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
@@ -40038,15 +44660,15 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="78"/>
-      <c r="G105" s="226"/>
-      <c r="H105" s="226"/>
-      <c r="I105" s="226"/>
-      <c r="J105" s="226"/>
+      <c r="G105" s="217"/>
+      <c r="H105" s="217"/>
+      <c r="I105" s="217"/>
+      <c r="J105" s="217"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="224"/>
-      <c r="M105" s="224"/>
-      <c r="N105" s="224"/>
-      <c r="O105" s="224"/>
+      <c r="L105" s="218"/>
+      <c r="M105" s="218"/>
+      <c r="N105" s="218"/>
+      <c r="O105" s="218"/>
       <c r="P105" s="80"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
@@ -40074,15 +44696,15 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="78"/>
-      <c r="G106" s="226"/>
-      <c r="H106" s="226"/>
-      <c r="I106" s="226"/>
-      <c r="J106" s="226"/>
+      <c r="G106" s="217"/>
+      <c r="H106" s="217"/>
+      <c r="I106" s="217"/>
+      <c r="J106" s="217"/>
       <c r="K106" s="19"/>
-      <c r="L106" s="224"/>
-      <c r="M106" s="224"/>
-      <c r="N106" s="224"/>
-      <c r="O106" s="224"/>
+      <c r="L106" s="218"/>
+      <c r="M106" s="218"/>
+      <c r="N106" s="218"/>
+      <c r="O106" s="218"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
@@ -40179,20 +44801,20 @@
       <c r="A109" s="19"/>
       <c r="B109" s="90"/>
       <c r="C109" s="19"/>
-      <c r="D109" s="224" t="s">
+      <c r="D109" s="218" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="224"/>
-      <c r="F109" s="224"/>
-      <c r="G109" s="224"/>
+      <c r="E109" s="218"/>
+      <c r="F109" s="218"/>
+      <c r="G109" s="218"/>
       <c r="H109" s="90"/>
       <c r="I109" s="93"/>
-      <c r="J109" s="224" t="s">
+      <c r="J109" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="K109" s="224"/>
-      <c r="L109" s="224"/>
-      <c r="M109" s="224"/>
+      <c r="K109" s="218"/>
+      <c r="L109" s="218"/>
+      <c r="M109" s="218"/>
       <c r="N109" s="28"/>
       <c r="O109" s="19"/>
       <c r="P109" s="36"/>
@@ -40219,16 +44841,16 @@
       <c r="A110" s="19"/>
       <c r="B110" s="90"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="224"/>
-      <c r="E110" s="224"/>
-      <c r="F110" s="224"/>
-      <c r="G110" s="224"/>
+      <c r="D110" s="218"/>
+      <c r="E110" s="218"/>
+      <c r="F110" s="218"/>
+      <c r="G110" s="218"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="224"/>
-      <c r="K110" s="224"/>
-      <c r="L110" s="224"/>
-      <c r="M110" s="224"/>
+      <c r="J110" s="218"/>
+      <c r="K110" s="218"/>
+      <c r="L110" s="218"/>
+      <c r="M110" s="218"/>
       <c r="N110" s="92"/>
       <c r="O110" s="50"/>
       <c r="P110" s="91"/>
@@ -40255,16 +44877,16 @@
       <c r="A111" s="19"/>
       <c r="B111" s="90"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="224"/>
-      <c r="E111" s="224"/>
-      <c r="F111" s="224"/>
-      <c r="G111" s="224"/>
+      <c r="D111" s="218"/>
+      <c r="E111" s="218"/>
+      <c r="F111" s="218"/>
+      <c r="G111" s="218"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="224"/>
-      <c r="K111" s="224"/>
-      <c r="L111" s="224"/>
-      <c r="M111" s="224"/>
+      <c r="J111" s="218"/>
+      <c r="K111" s="218"/>
+      <c r="L111" s="218"/>
+      <c r="M111" s="218"/>
       <c r="N111" s="28"/>
       <c r="O111" s="19"/>
       <c r="P111" s="36"/>
@@ -40366,12 +44988,12 @@
       <c r="D114" s="88"/>
       <c r="E114" s="88"/>
       <c r="F114" s="87"/>
-      <c r="G114" s="226" t="s">
+      <c r="G114" s="217" t="s">
         <v>291</v>
       </c>
-      <c r="H114" s="226"/>
-      <c r="I114" s="226"/>
-      <c r="J114" s="226"/>
+      <c r="H114" s="217"/>
+      <c r="I114" s="217"/>
+      <c r="J114" s="217"/>
       <c r="K114" s="19"/>
       <c r="L114" s="19"/>
       <c r="M114" s="19"/>
@@ -40404,10 +45026,10 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="226"/>
-      <c r="H115" s="226"/>
-      <c r="I115" s="226"/>
-      <c r="J115" s="226"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="217"/>
+      <c r="I115" s="217"/>
+      <c r="J115" s="217"/>
       <c r="K115" s="19"/>
       <c r="L115" s="19"/>
       <c r="M115" s="46"/>
@@ -40440,16 +45062,16 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="226"/>
-      <c r="H116" s="226"/>
-      <c r="I116" s="226"/>
-      <c r="J116" s="226"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="217"/>
+      <c r="I116" s="217"/>
+      <c r="J116" s="217"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="222" t="s">
+      <c r="L116" s="220" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="222"/>
-      <c r="N116" s="222"/>
+      <c r="M116" s="220"/>
+      <c r="N116" s="220"/>
       <c r="O116" s="19"/>
       <c r="P116" s="36"/>
       <c r="Q116" s="19"/>
@@ -40478,16 +45100,16 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="226"/>
-      <c r="H117" s="226"/>
-      <c r="I117" s="226"/>
-      <c r="J117" s="226"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="217"/>
+      <c r="I117" s="217"/>
+      <c r="J117" s="217"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="222" t="s">
+      <c r="L117" s="220" t="s">
         <v>285</v>
       </c>
-      <c r="M117" s="222"/>
-      <c r="N117" s="222"/>
+      <c r="M117" s="220"/>
+      <c r="N117" s="220"/>
       <c r="O117" s="19"/>
       <c r="P117" s="36"/>
       <c r="Q117" s="19"/>
@@ -40585,20 +45207,20 @@
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="224" t="s">
+      <c r="D120" s="218" t="s">
         <v>290</v>
       </c>
-      <c r="E120" s="224"/>
-      <c r="F120" s="224"/>
-      <c r="G120" s="224"/>
+      <c r="E120" s="218"/>
+      <c r="F120" s="218"/>
+      <c r="G120" s="218"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="224" t="s">
+      <c r="J120" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="K120" s="224"/>
-      <c r="L120" s="224"/>
-      <c r="M120" s="224"/>
+      <c r="K120" s="218"/>
+      <c r="L120" s="218"/>
+      <c r="M120" s="218"/>
       <c r="N120" s="81"/>
       <c r="O120" s="30"/>
       <c r="P120" s="29"/>
@@ -40625,16 +45247,16 @@
       <c r="A121" s="19"/>
       <c r="B121" s="25"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="224"/>
-      <c r="F121" s="224"/>
-      <c r="G121" s="224"/>
+      <c r="D121" s="218"/>
+      <c r="E121" s="218"/>
+      <c r="F121" s="218"/>
+      <c r="G121" s="218"/>
       <c r="H121" s="79"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="224"/>
-      <c r="K121" s="224"/>
-      <c r="L121" s="224"/>
-      <c r="M121" s="224"/>
+      <c r="J121" s="218"/>
+      <c r="K121" s="218"/>
+      <c r="L121" s="218"/>
+      <c r="M121" s="218"/>
       <c r="N121" s="78"/>
       <c r="O121" s="77"/>
       <c r="P121" s="19"/>
@@ -40661,16 +45283,16 @@
       <c r="A122" s="28"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="224"/>
-      <c r="E122" s="224"/>
-      <c r="F122" s="224"/>
-      <c r="G122" s="224"/>
+      <c r="D122" s="218"/>
+      <c r="E122" s="218"/>
+      <c r="F122" s="218"/>
+      <c r="G122" s="218"/>
       <c r="H122" s="76"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="224"/>
-      <c r="K122" s="224"/>
-      <c r="L122" s="224"/>
-      <c r="M122" s="224"/>
+      <c r="J122" s="218"/>
+      <c r="K122" s="218"/>
+      <c r="L122" s="218"/>
+      <c r="M122" s="218"/>
       <c r="N122" s="75"/>
       <c r="O122" s="74"/>
       <c r="P122" s="19"/>
@@ -40708,11 +45330,11 @@
       <c r="L123" s="27"/>
       <c r="M123" s="57"/>
       <c r="N123" s="19"/>
-      <c r="O123" s="222" t="s">
+      <c r="O123" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="P123" s="222"/>
-      <c r="Q123" s="222"/>
+      <c r="P123" s="220"/>
+      <c r="Q123" s="220"/>
       <c r="R123" s="19"/>
       <c r="S123" s="36"/>
       <c r="T123" s="54"/>
@@ -40736,11 +45358,11 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="222" t="s">
+      <c r="E124" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="F124" s="222"/>
-      <c r="G124" s="222"/>
+      <c r="F124" s="220"/>
+      <c r="G124" s="220"/>
       <c r="H124" s="54"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
@@ -40748,11 +45370,11 @@
       <c r="L124" s="22"/>
       <c r="M124" s="73"/>
       <c r="N124" s="19"/>
-      <c r="O124" s="225" t="s">
+      <c r="O124" s="230" t="s">
         <v>287</v>
       </c>
-      <c r="P124" s="222"/>
-      <c r="Q124" s="222"/>
+      <c r="P124" s="220"/>
+      <c r="Q124" s="220"/>
       <c r="R124" s="19"/>
       <c r="S124" s="36"/>
       <c r="T124" s="54"/>
@@ -40776,11 +45398,11 @@
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="222" t="s">
+      <c r="E125" s="220" t="s">
         <v>286</v>
       </c>
-      <c r="F125" s="222"/>
-      <c r="G125" s="222"/>
+      <c r="F125" s="220"/>
+      <c r="G125" s="220"/>
       <c r="H125" s="54"/>
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
@@ -40824,11 +45446,11 @@
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
       <c r="N126" s="19"/>
-      <c r="O126" s="222" t="s">
+      <c r="O126" s="220" t="s">
         <v>276</v>
       </c>
-      <c r="P126" s="222"/>
-      <c r="Q126" s="222"/>
+      <c r="P126" s="220"/>
+      <c r="Q126" s="220"/>
       <c r="R126" s="19"/>
       <c r="S126" s="36"/>
       <c r="T126" s="54"/>
@@ -40862,11 +45484,11 @@
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
       <c r="N127" s="19"/>
-      <c r="O127" s="222" t="s">
+      <c r="O127" s="220" t="s">
         <v>285</v>
       </c>
-      <c r="P127" s="222"/>
-      <c r="Q127" s="222"/>
+      <c r="P127" s="220"/>
+      <c r="Q127" s="220"/>
       <c r="R127" s="19"/>
       <c r="S127" s="36"/>
       <c r="T127" s="54"/>
@@ -40888,17 +45510,17 @@
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="222" t="s">
+      <c r="C128" s="220" t="s">
         <v>284</v>
       </c>
-      <c r="D128" s="222"/>
-      <c r="E128" s="222"/>
+      <c r="D128" s="220"/>
+      <c r="E128" s="220"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="222" t="s">
+      <c r="G128" s="220" t="s">
         <v>284</v>
       </c>
-      <c r="H128" s="222"/>
-      <c r="I128" s="222"/>
+      <c r="H128" s="220"/>
+      <c r="I128" s="220"/>
       <c r="J128" s="54"/>
       <c r="K128" s="19"/>
       <c r="L128" s="28"/>
@@ -40928,28 +45550,28 @@
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
       <c r="B129" s="19"/>
-      <c r="C129" s="222" t="s">
+      <c r="C129" s="220" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="222"/>
-      <c r="E129" s="222"/>
+      <c r="D129" s="220"/>
+      <c r="E129" s="220"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="222" t="s">
+      <c r="G129" s="220" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="222"/>
-      <c r="I129" s="222"/>
+      <c r="H129" s="220"/>
+      <c r="I129" s="220"/>
       <c r="J129" s="54"/>
       <c r="K129" s="50"/>
       <c r="L129" s="49"/>
       <c r="M129" s="49"/>
       <c r="N129" s="64"/>
-      <c r="O129" s="226" t="s">
+      <c r="O129" s="217" t="s">
         <v>281</v>
       </c>
-      <c r="P129" s="226"/>
-      <c r="Q129" s="226"/>
-      <c r="R129" s="226"/>
+      <c r="P129" s="217"/>
+      <c r="Q129" s="217"/>
+      <c r="R129" s="217"/>
       <c r="S129" s="68"/>
       <c r="T129" s="47"/>
       <c r="U129" s="54"/>
@@ -40982,10 +45604,10 @@
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
       <c r="N130" s="19"/>
-      <c r="O130" s="226"/>
-      <c r="P130" s="226"/>
-      <c r="Q130" s="226"/>
-      <c r="R130" s="226"/>
+      <c r="O130" s="217"/>
+      <c r="P130" s="217"/>
+      <c r="Q130" s="217"/>
+      <c r="R130" s="217"/>
       <c r="S130" s="65"/>
       <c r="T130" s="19"/>
       <c r="U130" s="47"/>
@@ -41007,25 +45629,25 @@
       <c r="A131" s="28"/>
       <c r="B131" s="19"/>
       <c r="C131" s="64"/>
-      <c r="D131" s="223" t="s">
+      <c r="D131" s="219" t="s">
         <v>280</v>
       </c>
-      <c r="E131" s="223"/>
+      <c r="E131" s="219"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="223" t="s">
+      <c r="G131" s="219" t="s">
         <v>279</v>
       </c>
-      <c r="H131" s="223"/>
+      <c r="H131" s="219"/>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
       <c r="N131" s="19"/>
-      <c r="O131" s="226"/>
-      <c r="P131" s="226"/>
-      <c r="Q131" s="226"/>
-      <c r="R131" s="226"/>
+      <c r="O131" s="217"/>
+      <c r="P131" s="217"/>
+      <c r="Q131" s="217"/>
+      <c r="R131" s="217"/>
       <c r="S131" s="36"/>
       <c r="T131" s="63"/>
       <c r="U131" s="19"/>
@@ -41047,21 +45669,21 @@
       <c r="A132" s="28"/>
       <c r="B132" s="53"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="223"/>
-      <c r="E132" s="223"/>
+      <c r="D132" s="219"/>
+      <c r="E132" s="219"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="223"/>
-      <c r="H132" s="223"/>
+      <c r="G132" s="219"/>
+      <c r="H132" s="219"/>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
       <c r="N132" s="19"/>
-      <c r="O132" s="226"/>
-      <c r="P132" s="226"/>
-      <c r="Q132" s="226"/>
-      <c r="R132" s="226"/>
+      <c r="O132" s="217"/>
+      <c r="P132" s="217"/>
+      <c r="Q132" s="217"/>
+      <c r="R132" s="217"/>
       <c r="S132" s="36"/>
       <c r="T132" s="19"/>
       <c r="U132" s="19"/>
@@ -41156,11 +45778,11 @@
       <c r="B135" s="53"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="222" t="s">
+      <c r="E135" s="220" t="s">
         <v>278</v>
       </c>
-      <c r="F135" s="222"/>
-      <c r="G135" s="222"/>
+      <c r="F135" s="220"/>
+      <c r="G135" s="220"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
@@ -41194,11 +45816,11 @@
       <c r="B136" s="53"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="222" t="s">
+      <c r="E136" s="220" t="s">
         <v>277</v>
       </c>
-      <c r="F136" s="222"/>
-      <c r="G136" s="222"/>
+      <c r="F136" s="220"/>
+      <c r="G136" s="220"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -41306,11 +45928,11 @@
       <c r="D139" s="19"/>
       <c r="E139" s="23"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="222" t="s">
+      <c r="G139" s="220" t="s">
         <v>276</v>
       </c>
-      <c r="H139" s="222"/>
-      <c r="I139" s="222"/>
+      <c r="H139" s="220"/>
+      <c r="I139" s="220"/>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="28"/>
@@ -41344,11 +45966,11 @@
       <c r="D140" s="19"/>
       <c r="E140" s="23"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="222" t="s">
+      <c r="G140" s="220" t="s">
         <v>275</v>
       </c>
-      <c r="H140" s="222"/>
-      <c r="I140" s="222"/>
+      <c r="H140" s="220"/>
+      <c r="I140" s="220"/>
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="28"/>
@@ -41454,12 +46076,12 @@
       <c r="D143" s="19"/>
       <c r="E143" s="23"/>
       <c r="F143" s="45"/>
-      <c r="G143" s="226" t="s">
+      <c r="G143" s="217" t="s">
         <v>274</v>
       </c>
-      <c r="H143" s="226"/>
-      <c r="I143" s="226"/>
-      <c r="J143" s="226"/>
+      <c r="H143" s="217"/>
+      <c r="I143" s="217"/>
+      <c r="J143" s="217"/>
       <c r="K143" s="19"/>
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
@@ -41492,10 +46114,10 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="226"/>
-      <c r="H144" s="226"/>
-      <c r="I144" s="226"/>
-      <c r="J144" s="226"/>
+      <c r="G144" s="217"/>
+      <c r="H144" s="217"/>
+      <c r="I144" s="217"/>
+      <c r="J144" s="217"/>
       <c r="K144" s="19"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
@@ -41528,10 +46150,10 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="226"/>
-      <c r="H145" s="226"/>
-      <c r="I145" s="226"/>
-      <c r="J145" s="226"/>
+      <c r="G145" s="217"/>
+      <c r="H145" s="217"/>
+      <c r="I145" s="217"/>
+      <c r="J145" s="217"/>
       <c r="K145" s="19"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
@@ -41564,10 +46186,10 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="226"/>
-      <c r="H146" s="226"/>
-      <c r="I146" s="226"/>
-      <c r="J146" s="226"/>
+      <c r="G146" s="217"/>
+      <c r="H146" s="217"/>
+      <c r="I146" s="217"/>
+      <c r="J146" s="217"/>
       <c r="K146" s="19"/>
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
@@ -41671,16 +46293,16 @@
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="223" t="s">
+      <c r="F149" s="219" t="s">
         <v>273</v>
       </c>
-      <c r="G149" s="223"/>
+      <c r="G149" s="219"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-      <c r="J149" s="223" t="s">
+      <c r="J149" s="219" t="s">
         <v>272</v>
       </c>
-      <c r="K149" s="223"/>
+      <c r="K149" s="219"/>
       <c r="L149" s="37"/>
       <c r="M149" s="28"/>
       <c r="N149" s="23"/>
@@ -41711,12 +46333,12 @@
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="35"/>
-      <c r="F150" s="223"/>
-      <c r="G150" s="223"/>
+      <c r="F150" s="219"/>
+      <c r="G150" s="219"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-      <c r="J150" s="223"/>
-      <c r="K150" s="223"/>
+      <c r="J150" s="219"/>
+      <c r="K150" s="219"/>
       <c r="L150" s="34"/>
       <c r="M150" s="33"/>
       <c r="N150" s="32"/>
@@ -41747,12 +46369,12 @@
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="223"/>
-      <c r="G151" s="223"/>
+      <c r="F151" s="219"/>
+      <c r="G151" s="219"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-      <c r="J151" s="223"/>
-      <c r="K151" s="223"/>
+      <c r="J151" s="219"/>
+      <c r="K151" s="219"/>
       <c r="L151" s="19"/>
       <c r="M151" s="28"/>
       <c r="N151" s="23"/>
@@ -42031,25 +46653,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G87:J90"/>
-    <mergeCell ref="G103:J106"/>
-    <mergeCell ref="L88:O90"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="L104:O106"/>
-    <mergeCell ref="F149:G151"/>
-    <mergeCell ref="J149:K151"/>
-    <mergeCell ref="O126:Q126"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="O129:R132"/>
-    <mergeCell ref="G131:H132"/>
-    <mergeCell ref="D109:G111"/>
-    <mergeCell ref="J109:M111"/>
-    <mergeCell ref="G114:J117"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="G143:J146"/>
-    <mergeCell ref="L117:N117"/>
     <mergeCell ref="X88:AF91"/>
     <mergeCell ref="E135:G135"/>
     <mergeCell ref="E136:G136"/>
@@ -42066,6 +46669,25 @@
     <mergeCell ref="E125:G125"/>
     <mergeCell ref="J93:M95"/>
     <mergeCell ref="J98:M100"/>
+    <mergeCell ref="D109:G111"/>
+    <mergeCell ref="J109:M111"/>
+    <mergeCell ref="G114:J117"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="G143:J146"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="F149:G151"/>
+    <mergeCell ref="J149:K151"/>
+    <mergeCell ref="O126:Q126"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="O129:R132"/>
+    <mergeCell ref="G131:H132"/>
+    <mergeCell ref="G87:J90"/>
+    <mergeCell ref="G103:J106"/>
+    <mergeCell ref="L88:O90"/>
+    <mergeCell ref="C93:F95"/>
+    <mergeCell ref="L104:O106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42674,25 +47296,25 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U101" s="239" t="s">
+      <c r="U101" s="264" t="s">
         <v>409</v>
       </c>
-      <c r="V101" s="240"/>
+      <c r="V101" s="265"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U102" s="241"/>
-      <c r="V102" s="242"/>
+      <c r="U102" s="266"/>
+      <c r="V102" s="267"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S104" s="235" t="s">
+      <c r="S104" s="260" t="s">
         <v>408</v>
       </c>
-      <c r="T104" s="236"/>
-      <c r="V104" s="243" t="s">
+      <c r="T104" s="261"/>
+      <c r="V104" s="268" t="s">
         <v>407</v>
       </c>
-      <c r="W104" s="244"/>
-      <c r="X104" s="245"/>
+      <c r="W104" s="269"/>
+      <c r="X104" s="270"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="134"/>
@@ -42700,17 +47322,17 @@
       <c r="H105" s="134"/>
       <c r="I105" s="134"/>
       <c r="J105" s="155"/>
-      <c r="K105" s="258" t="s">
+      <c r="K105" s="245" t="s">
         <v>406</v>
       </c>
-      <c r="L105" s="259"/>
-      <c r="M105" s="259"/>
-      <c r="N105" s="260"/>
-      <c r="S105" s="237"/>
-      <c r="T105" s="238"/>
-      <c r="V105" s="246"/>
-      <c r="W105" s="247"/>
-      <c r="X105" s="248"/>
+      <c r="L105" s="246"/>
+      <c r="M105" s="246"/>
+      <c r="N105" s="247"/>
+      <c r="S105" s="262"/>
+      <c r="T105" s="263"/>
+      <c r="V105" s="271"/>
+      <c r="W105" s="272"/>
+      <c r="X105" s="273"/>
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="136"/>
@@ -42718,22 +47340,22 @@
       <c r="H106" s="154"/>
       <c r="I106" s="154"/>
       <c r="J106" s="153"/>
-      <c r="K106" s="261"/>
-      <c r="L106" s="262"/>
-      <c r="M106" s="262"/>
-      <c r="N106" s="263"/>
-      <c r="V106" s="249"/>
-      <c r="W106" s="250"/>
-      <c r="X106" s="251"/>
+      <c r="K106" s="248"/>
+      <c r="L106" s="249"/>
+      <c r="M106" s="249"/>
+      <c r="N106" s="250"/>
+      <c r="V106" s="274"/>
+      <c r="W106" s="275"/>
+      <c r="X106" s="276"/>
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="136"/>
       <c r="F107" s="149"/>
       <c r="J107" s="115"/>
-      <c r="K107" s="264"/>
-      <c r="L107" s="265"/>
-      <c r="M107" s="265"/>
-      <c r="N107" s="266"/>
+      <c r="K107" s="251"/>
+      <c r="L107" s="252"/>
+      <c r="M107" s="252"/>
+      <c r="N107" s="253"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E108" s="136"/>
@@ -42743,22 +47365,22 @@
     <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="136"/>
       <c r="F109" s="149"/>
-      <c r="K109" s="252" t="s">
+      <c r="K109" s="254" t="s">
         <v>393</v>
       </c>
-      <c r="L109" s="253"/>
-      <c r="M109" s="253"/>
-      <c r="N109" s="254"/>
+      <c r="L109" s="255"/>
+      <c r="M109" s="255"/>
+      <c r="N109" s="256"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="136"/>
       <c r="F110" s="149"/>
       <c r="I110" s="126"/>
       <c r="J110" s="125"/>
-      <c r="K110" s="255"/>
-      <c r="L110" s="256"/>
-      <c r="M110" s="256"/>
-      <c r="N110" s="257"/>
+      <c r="K110" s="257"/>
+      <c r="L110" s="258"/>
+      <c r="M110" s="258"/>
+      <c r="N110" s="259"/>
       <c r="O110" s="126"/>
       <c r="P110" s="125"/>
     </row>
@@ -42785,31 +47407,29 @@
     <row r="113" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="136"/>
       <c r="F113" s="149"/>
-      <c r="H113" s="281" t="s">
+      <c r="H113" s="231" t="s">
         <v>392</v>
       </c>
-      <c r="I113" s="282"/>
-      <c r="J113" s="283"/>
-      <c r="O113" s="275" t="s">
+      <c r="I113" s="232"/>
+      <c r="J113" s="233"/>
+      <c r="O113" s="285" t="s">
         <v>391</v>
       </c>
-      <c r="P113" s="276"/>
-      <c r="Q113" s="277"/>
+      <c r="P113" s="286"/>
+      <c r="Q113" s="287"/>
       <c r="U113" s="136"/>
     </row>
     <row r="114" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E114" s="136"/>
       <c r="F114" s="149"/>
-      <c r="H114" s="284"/>
-      <c r="I114" s="285"/>
-      <c r="J114" s="286"/>
+      <c r="H114" s="234"/>
+      <c r="I114" s="235"/>
+      <c r="J114" s="236"/>
       <c r="K114" s="139"/>
       <c r="N114" s="101"/>
-      <c r="O114" s="278"/>
-      <c r="P114" s="279"/>
-      <c r="Q114" s="280"/>
-      <c r="R114" s="287"/>
-      <c r="S114" s="287"/>
+      <c r="O114" s="288"/>
+      <c r="P114" s="289"/>
+      <c r="Q114" s="290"/>
       <c r="U114" s="136"/>
     </row>
     <row r="115" spans="5:21" x14ac:dyDescent="0.3">
@@ -42818,49 +47438,41 @@
       <c r="I115" s="5"/>
       <c r="K115" s="142"/>
       <c r="N115" s="5"/>
-      <c r="R115" s="287"/>
-      <c r="S115" s="287"/>
       <c r="U115" s="136"/>
     </row>
     <row r="116" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E116" s="136"/>
       <c r="F116" s="149"/>
       <c r="G116" s="145"/>
-      <c r="H116" s="227" t="s">
+      <c r="H116" s="241" t="s">
         <v>405</v>
       </c>
-      <c r="I116" s="228"/>
-      <c r="K116" s="258" t="s">
+      <c r="I116" s="242"/>
+      <c r="K116" s="245" t="s">
         <v>404</v>
       </c>
-      <c r="L116" s="259"/>
-      <c r="M116" s="259"/>
-      <c r="N116" s="260"/>
-      <c r="R116" s="287"/>
-      <c r="S116" s="287"/>
+      <c r="L116" s="246"/>
+      <c r="M116" s="246"/>
+      <c r="N116" s="247"/>
       <c r="U116" s="136"/>
     </row>
     <row r="117" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="136"/>
       <c r="G117" s="115"/>
-      <c r="H117" s="229"/>
-      <c r="I117" s="230"/>
-      <c r="K117" s="261"/>
-      <c r="L117" s="262"/>
-      <c r="M117" s="262"/>
-      <c r="N117" s="263"/>
-      <c r="R117" s="287"/>
-      <c r="S117" s="287"/>
+      <c r="H117" s="243"/>
+      <c r="I117" s="244"/>
+      <c r="K117" s="248"/>
+      <c r="L117" s="249"/>
+      <c r="M117" s="249"/>
+      <c r="N117" s="250"/>
       <c r="U117" s="136"/>
     </row>
     <row r="118" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E118" s="136"/>
-      <c r="K118" s="264"/>
-      <c r="L118" s="265"/>
-      <c r="M118" s="265"/>
-      <c r="N118" s="266"/>
-      <c r="R118" s="287"/>
-      <c r="S118" s="287"/>
+      <c r="K118" s="251"/>
+      <c r="L118" s="252"/>
+      <c r="M118" s="252"/>
+      <c r="N118" s="253"/>
       <c r="U118" s="136"/>
     </row>
     <row r="119" spans="5:21" x14ac:dyDescent="0.3">
@@ -42869,8 +47481,6 @@
       <c r="L119" s="101"/>
       <c r="M119" s="139"/>
       <c r="N119" s="148"/>
-      <c r="R119" s="287"/>
-      <c r="S119" s="287"/>
       <c r="U119" s="136"/>
     </row>
     <row r="120" spans="5:21" x14ac:dyDescent="0.3">
@@ -42878,33 +47488,28 @@
       <c r="K120" s="138"/>
       <c r="O120" s="148"/>
       <c r="P120" s="5"/>
-      <c r="R120" s="287"/>
-      <c r="S120" s="287"/>
       <c r="U120" s="136"/>
     </row>
     <row r="121" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E121" s="136"/>
-      <c r="J121" s="227" t="s">
+      <c r="J121" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="K121" s="228"/>
-      <c r="O121" s="227" t="s">
+      <c r="K121" s="242"/>
+      <c r="O121" s="241" t="s">
         <v>403</v>
       </c>
-      <c r="P121" s="228"/>
-      <c r="Q121" s="287"/>
-      <c r="R121" s="287"/>
-      <c r="S121" s="287"/>
+      <c r="P121" s="242"/>
       <c r="U121" s="136"/>
     </row>
     <row r="122" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E122" s="136"/>
       <c r="I122" s="101"/>
-      <c r="J122" s="229"/>
-      <c r="K122" s="230"/>
+      <c r="J122" s="243"/>
+      <c r="K122" s="244"/>
       <c r="L122" s="139"/>
-      <c r="O122" s="229"/>
-      <c r="P122" s="230"/>
+      <c r="O122" s="243"/>
+      <c r="P122" s="244"/>
       <c r="U122" s="136"/>
     </row>
     <row r="123" spans="5:21" x14ac:dyDescent="0.3">
@@ -42916,24 +47521,24 @@
     </row>
     <row r="124" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E124" s="136"/>
-      <c r="H124" s="231" t="s">
+      <c r="H124" s="237" t="s">
         <v>389</v>
       </c>
-      <c r="I124" s="232"/>
-      <c r="L124" s="231" t="s">
+      <c r="I124" s="238"/>
+      <c r="L124" s="237" t="s">
         <v>388</v>
       </c>
-      <c r="M124" s="232"/>
+      <c r="M124" s="238"/>
       <c r="P124" s="6"/>
       <c r="U124" s="136"/>
     </row>
     <row r="125" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E125" s="136"/>
       <c r="G125" s="141"/>
-      <c r="H125" s="233"/>
-      <c r="I125" s="234"/>
-      <c r="L125" s="233"/>
-      <c r="M125" s="234"/>
+      <c r="H125" s="239"/>
+      <c r="I125" s="240"/>
+      <c r="L125" s="239"/>
+      <c r="M125" s="240"/>
       <c r="P125" s="6"/>
       <c r="U125" s="136"/>
     </row>
@@ -42947,12 +47552,12 @@
     <row r="127" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E127" s="136"/>
       <c r="G127" s="6"/>
-      <c r="K127" s="258" t="s">
+      <c r="K127" s="245" t="s">
         <v>402</v>
       </c>
-      <c r="L127" s="259"/>
-      <c r="M127" s="259"/>
-      <c r="N127" s="260"/>
+      <c r="L127" s="246"/>
+      <c r="M127" s="246"/>
+      <c r="N127" s="247"/>
       <c r="O127" s="140"/>
       <c r="P127" s="6"/>
       <c r="U127" s="136"/>
@@ -42963,10 +47568,10 @@
       <c r="H128" s="112"/>
       <c r="I128" s="112"/>
       <c r="J128" s="145"/>
-      <c r="K128" s="261"/>
-      <c r="L128" s="262"/>
-      <c r="M128" s="262"/>
-      <c r="N128" s="263"/>
+      <c r="K128" s="248"/>
+      <c r="L128" s="249"/>
+      <c r="M128" s="249"/>
+      <c r="N128" s="250"/>
       <c r="U128" s="136"/>
     </row>
     <row r="129" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42975,10 +47580,10 @@
       <c r="F129" s="144"/>
       <c r="G129" s="6"/>
       <c r="J129" s="115"/>
-      <c r="K129" s="264"/>
-      <c r="L129" s="265"/>
-      <c r="M129" s="265"/>
-      <c r="N129" s="266"/>
+      <c r="K129" s="251"/>
+      <c r="L129" s="252"/>
+      <c r="M129" s="252"/>
+      <c r="N129" s="253"/>
       <c r="U129" s="136"/>
     </row>
     <row r="130" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42986,40 +47591,40 @@
       <c r="E130" s="136"/>
       <c r="G130" s="6"/>
       <c r="M130" s="138"/>
-      <c r="U130" s="267" t="s">
+      <c r="U130" s="277" t="s">
         <v>401</v>
       </c>
-      <c r="V130" s="268"/>
-      <c r="W130" s="268"/>
-      <c r="X130" s="269"/>
+      <c r="V130" s="278"/>
+      <c r="W130" s="278"/>
+      <c r="X130" s="279"/>
     </row>
     <row r="131" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="113"/>
       <c r="F131" s="143"/>
       <c r="G131" s="6"/>
-      <c r="L131" s="227" t="s">
+      <c r="L131" s="241" t="s">
         <v>400</v>
       </c>
-      <c r="M131" s="228"/>
+      <c r="M131" s="242"/>
       <c r="T131" s="134"/>
-      <c r="U131" s="270"/>
-      <c r="V131" s="262"/>
-      <c r="W131" s="262"/>
-      <c r="X131" s="271"/>
+      <c r="U131" s="280"/>
+      <c r="V131" s="249"/>
+      <c r="W131" s="249"/>
+      <c r="X131" s="281"/>
     </row>
     <row r="132" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="113"/>
       <c r="E132" s="136"/>
       <c r="G132" s="6"/>
       <c r="K132" s="101"/>
-      <c r="L132" s="229"/>
-      <c r="M132" s="230"/>
+      <c r="L132" s="243"/>
+      <c r="M132" s="244"/>
       <c r="N132" s="139"/>
       <c r="S132" s="136"/>
-      <c r="U132" s="272"/>
-      <c r="V132" s="273"/>
-      <c r="W132" s="273"/>
-      <c r="X132" s="274"/>
+      <c r="U132" s="282"/>
+      <c r="V132" s="283"/>
+      <c r="W132" s="283"/>
+      <c r="X132" s="284"/>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D133" s="113"/>
@@ -43034,16 +47639,16 @@
       <c r="D134" s="113"/>
       <c r="E134" s="136"/>
       <c r="G134" s="6"/>
-      <c r="I134" s="275" t="s">
+      <c r="I134" s="285" t="s">
         <v>399</v>
       </c>
-      <c r="J134" s="276"/>
-      <c r="K134" s="277"/>
-      <c r="N134" s="275" t="s">
+      <c r="J134" s="286"/>
+      <c r="K134" s="287"/>
+      <c r="N134" s="285" t="s">
         <v>398</v>
       </c>
-      <c r="O134" s="276"/>
-      <c r="P134" s="277"/>
+      <c r="O134" s="286"/>
+      <c r="P134" s="287"/>
       <c r="S134" s="136"/>
       <c r="U134" s="123"/>
     </row>
@@ -43052,12 +47657,12 @@
       <c r="E135" s="136"/>
       <c r="G135" s="6"/>
       <c r="H135" s="141"/>
-      <c r="I135" s="278"/>
-      <c r="J135" s="279"/>
-      <c r="K135" s="280"/>
-      <c r="N135" s="278"/>
-      <c r="O135" s="279"/>
-      <c r="P135" s="280"/>
+      <c r="I135" s="288"/>
+      <c r="J135" s="289"/>
+      <c r="K135" s="290"/>
+      <c r="N135" s="288"/>
+      <c r="O135" s="289"/>
+      <c r="P135" s="290"/>
       <c r="S135" s="136"/>
       <c r="U135" s="123"/>
     </row>
@@ -43084,12 +47689,12 @@
       <c r="E138" s="136"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="K138" s="258" t="s">
+      <c r="K138" s="245" t="s">
         <v>397</v>
       </c>
-      <c r="L138" s="259"/>
-      <c r="M138" s="259"/>
-      <c r="N138" s="260"/>
+      <c r="L138" s="246"/>
+      <c r="M138" s="246"/>
+      <c r="N138" s="247"/>
       <c r="O138" s="140"/>
       <c r="S138" s="136"/>
       <c r="U138" s="123"/>
@@ -43099,10 +47704,10 @@
       <c r="E139" s="136"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="K139" s="261"/>
-      <c r="L139" s="262"/>
-      <c r="M139" s="262"/>
-      <c r="N139" s="263"/>
+      <c r="K139" s="248"/>
+      <c r="L139" s="249"/>
+      <c r="M139" s="249"/>
+      <c r="N139" s="250"/>
       <c r="S139" s="136"/>
       <c r="U139" s="123"/>
     </row>
@@ -43111,10 +47716,10 @@
       <c r="E140" s="136"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="K140" s="264"/>
-      <c r="L140" s="265"/>
-      <c r="M140" s="265"/>
-      <c r="N140" s="266"/>
+      <c r="K140" s="251"/>
+      <c r="L140" s="252"/>
+      <c r="M140" s="252"/>
+      <c r="N140" s="253"/>
       <c r="S140" s="136"/>
       <c r="U140" s="123"/>
     </row>
@@ -43143,14 +47748,14 @@
       <c r="E143" s="136"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="J143" s="227" t="s">
+      <c r="J143" s="241" t="s">
         <v>396</v>
       </c>
-      <c r="K143" s="228"/>
-      <c r="N143" s="227" t="s">
+      <c r="K143" s="242"/>
+      <c r="N143" s="241" t="s">
         <v>395</v>
       </c>
-      <c r="O143" s="228"/>
+      <c r="O143" s="242"/>
       <c r="P143" s="135"/>
       <c r="Q143" s="134"/>
       <c r="R143" s="134"/>
@@ -43163,10 +47768,10 @@
       <c r="G144" s="132"/>
       <c r="H144" s="131"/>
       <c r="I144" s="130"/>
-      <c r="J144" s="229"/>
-      <c r="K144" s="230"/>
-      <c r="N144" s="229"/>
-      <c r="O144" s="230"/>
+      <c r="J144" s="243"/>
+      <c r="K144" s="244"/>
+      <c r="N144" s="243"/>
+      <c r="O144" s="244"/>
       <c r="U144" s="123"/>
     </row>
     <row r="145" spans="4:21" x14ac:dyDescent="0.3">
@@ -43191,12 +47796,12 @@
       <c r="H147" s="122"/>
       <c r="I147" s="122"/>
       <c r="J147" s="122"/>
-      <c r="K147" s="267" t="s">
+      <c r="K147" s="277" t="s">
         <v>394</v>
       </c>
-      <c r="L147" s="268"/>
-      <c r="M147" s="268"/>
-      <c r="N147" s="269"/>
+      <c r="L147" s="278"/>
+      <c r="M147" s="278"/>
+      <c r="N147" s="279"/>
       <c r="U147" s="123"/>
     </row>
     <row r="148" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43206,20 +47811,20 @@
       <c r="H148" s="112"/>
       <c r="I148" s="112"/>
       <c r="J148" s="127"/>
-      <c r="K148" s="270"/>
-      <c r="L148" s="262"/>
-      <c r="M148" s="262"/>
-      <c r="N148" s="271"/>
+      <c r="K148" s="280"/>
+      <c r="L148" s="249"/>
+      <c r="M148" s="249"/>
+      <c r="N148" s="281"/>
       <c r="U148" s="123"/>
     </row>
     <row r="149" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="113"/>
       <c r="E149" s="113"/>
       <c r="J149" s="123"/>
-      <c r="K149" s="272"/>
-      <c r="L149" s="273"/>
-      <c r="M149" s="273"/>
-      <c r="N149" s="274"/>
+      <c r="K149" s="282"/>
+      <c r="L149" s="283"/>
+      <c r="M149" s="283"/>
+      <c r="N149" s="284"/>
       <c r="U149" s="123"/>
     </row>
     <row r="150" spans="4:21" x14ac:dyDescent="0.3">
@@ -43231,22 +47836,22 @@
     <row r="151" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="113"/>
       <c r="E151" s="113"/>
-      <c r="K151" s="252" t="s">
+      <c r="K151" s="254" t="s">
         <v>393</v>
       </c>
-      <c r="L151" s="253"/>
-      <c r="M151" s="253"/>
-      <c r="N151" s="254"/>
+      <c r="L151" s="255"/>
+      <c r="M151" s="255"/>
+      <c r="N151" s="256"/>
       <c r="U151" s="123"/>
     </row>
     <row r="152" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="113"/>
       <c r="E152" s="113"/>
       <c r="J152" s="126"/>
-      <c r="K152" s="255"/>
-      <c r="L152" s="256"/>
-      <c r="M152" s="256"/>
-      <c r="N152" s="257"/>
+      <c r="K152" s="257"/>
+      <c r="L152" s="258"/>
+      <c r="M152" s="258"/>
+      <c r="N152" s="259"/>
       <c r="O152" s="125"/>
       <c r="U152" s="123"/>
     </row>
@@ -43260,16 +47865,16 @@
     <row r="154" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="113"/>
       <c r="E154" s="113"/>
-      <c r="I154" s="281" t="s">
+      <c r="I154" s="231" t="s">
         <v>392</v>
       </c>
-      <c r="J154" s="282"/>
-      <c r="K154" s="283"/>
-      <c r="N154" s="281" t="s">
+      <c r="J154" s="232"/>
+      <c r="K154" s="233"/>
+      <c r="N154" s="231" t="s">
         <v>391</v>
       </c>
-      <c r="O154" s="282"/>
-      <c r="P154" s="283"/>
+      <c r="O154" s="232"/>
+      <c r="P154" s="233"/>
       <c r="Q154" s="122"/>
       <c r="R154" s="122"/>
       <c r="S154" s="122"/>
@@ -43279,12 +47884,12 @@
     <row r="155" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="113"/>
       <c r="E155" s="113"/>
-      <c r="I155" s="284"/>
-      <c r="J155" s="285"/>
-      <c r="K155" s="286"/>
-      <c r="N155" s="284"/>
-      <c r="O155" s="285"/>
-      <c r="P155" s="286"/>
+      <c r="I155" s="234"/>
+      <c r="J155" s="235"/>
+      <c r="K155" s="236"/>
+      <c r="N155" s="234"/>
+      <c r="O155" s="235"/>
+      <c r="P155" s="236"/>
     </row>
     <row r="156" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D156" s="113"/>
@@ -43294,18 +47899,18 @@
     <row r="157" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D157" s="113"/>
       <c r="E157" s="113"/>
-      <c r="I157" s="227" t="s">
+      <c r="I157" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="J157" s="228"/>
+      <c r="J157" s="242"/>
       <c r="K157" s="120"/>
     </row>
     <row r="158" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D158" s="113"/>
       <c r="E158" s="113"/>
       <c r="H158" s="119"/>
-      <c r="I158" s="229"/>
-      <c r="J158" s="230"/>
+      <c r="I158" s="243"/>
+      <c r="J158" s="244"/>
       <c r="K158" s="118"/>
     </row>
     <row r="159" spans="4:21" x14ac:dyDescent="0.3">
@@ -43318,22 +47923,22 @@
       <c r="D160" s="113"/>
       <c r="E160" s="113"/>
       <c r="F160" s="115"/>
-      <c r="G160" s="231" t="s">
+      <c r="G160" s="237" t="s">
         <v>389</v>
       </c>
-      <c r="H160" s="232"/>
-      <c r="K160" s="231" t="s">
+      <c r="H160" s="238"/>
+      <c r="K160" s="237" t="s">
         <v>388</v>
       </c>
-      <c r="L160" s="232"/>
+      <c r="L160" s="238"/>
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D161" s="113"/>
       <c r="F161" s="114"/>
-      <c r="G161" s="233"/>
-      <c r="H161" s="234"/>
-      <c r="K161" s="233"/>
-      <c r="L161" s="234"/>
+      <c r="G161" s="239"/>
+      <c r="H161" s="240"/>
+      <c r="K161" s="239"/>
+      <c r="L161" s="240"/>
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D162" s="113"/>
@@ -43348,18 +47953,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I154:K155"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="H124:I125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="L131:M132"/>
-    <mergeCell ref="O121:P122"/>
-    <mergeCell ref="J121:K122"/>
-    <mergeCell ref="K105:N107"/>
-    <mergeCell ref="K116:N118"/>
-    <mergeCell ref="K127:N129"/>
-    <mergeCell ref="K109:N110"/>
-    <mergeCell ref="H113:J114"/>
     <mergeCell ref="I157:J158"/>
     <mergeCell ref="G160:H161"/>
     <mergeCell ref="K160:L161"/>
@@ -43376,6 +47969,18 @@
     <mergeCell ref="J143:K144"/>
     <mergeCell ref="O113:Q114"/>
     <mergeCell ref="H116:I117"/>
+    <mergeCell ref="O121:P122"/>
+    <mergeCell ref="J121:K122"/>
+    <mergeCell ref="K105:N107"/>
+    <mergeCell ref="K116:N118"/>
+    <mergeCell ref="K127:N129"/>
+    <mergeCell ref="K109:N110"/>
+    <mergeCell ref="H113:J114"/>
+    <mergeCell ref="I154:K155"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="H124:I125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="L131:M132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43387,8 +47992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B07CB08-8998-4A23-8E17-70EB65FFE7F6}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:E63"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
+++ b/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 4월\게임기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DD6E9-4BAF-4B8C-B255-2636D42C1F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B4E5E-8821-41C5-B8E8-D2258B638B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1905" windowWidth="21945" windowHeight="13050" firstSheet="11" activeTab="13" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="12" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 분석(4.01)" sheetId="2" r:id="rId1"/>
@@ -11214,7 +11214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11731,6 +11731,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12178,9 +12229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12190,14 +12238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12211,7 +12256,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12226,9 +12271,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12241,7 +12283,7 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12254,51 +12296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12337,65 +12334,44 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12407,6 +12383,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24436,7 +24415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="9486900"/>
+          <a:off x="219075" y="9854293"/>
           <a:ext cx="7256206" cy="3611229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34848,8 +34827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183AA49D-1C8A-4B00-88FD-09588261F0F8}">
   <dimension ref="A2:AC187"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView topLeftCell="J157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35170,7 +35149,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35178,8 +35158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E540392-01E7-4B4F-886C-B92ADEEF8A2B}">
   <dimension ref="A1:AZ176"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y134" sqref="Y134"/>
+    <sheetView topLeftCell="A108" zoomScale="36" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36290,134 +36270,134 @@
       </c>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="318" t="s">
+      <c r="B67" s="335" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="291" t="s">
+      <c r="C67" s="308" t="s">
         <v>617</v>
       </c>
-      <c r="D67" s="293"/>
+      <c r="D67" s="310"/>
       <c r="E67" s="168" t="s">
         <v>618</v>
       </c>
-      <c r="F67" s="291" t="s">
+      <c r="F67" s="308" t="s">
         <v>615</v>
       </c>
-      <c r="G67" s="293"/>
-      <c r="H67" s="291" t="s">
+      <c r="G67" s="310"/>
+      <c r="H67" s="308" t="s">
         <v>622</v>
       </c>
-      <c r="I67" s="292"/>
-      <c r="J67" s="292"/>
-      <c r="K67" s="292"/>
-      <c r="L67" s="292"/>
-      <c r="M67" s="292"/>
-      <c r="N67" s="292"/>
-      <c r="O67" s="293"/>
-      <c r="R67" s="300" t="s">
+      <c r="I67" s="309"/>
+      <c r="J67" s="309"/>
+      <c r="K67" s="309"/>
+      <c r="L67" s="309"/>
+      <c r="M67" s="309"/>
+      <c r="N67" s="309"/>
+      <c r="O67" s="310"/>
+      <c r="R67" s="317" t="s">
         <v>667</v>
       </c>
-      <c r="S67" s="301"/>
-      <c r="T67" s="301"/>
-      <c r="U67" s="301"/>
-      <c r="V67" s="301"/>
-      <c r="W67" s="301"/>
-      <c r="X67" s="301"/>
-      <c r="Y67" s="302"/>
+      <c r="S67" s="318"/>
+      <c r="T67" s="318"/>
+      <c r="U67" s="318"/>
+      <c r="V67" s="318"/>
+      <c r="W67" s="318"/>
+      <c r="X67" s="318"/>
+      <c r="Y67" s="319"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="319"/>
-      <c r="C68" s="294" t="s">
+      <c r="B68" s="336"/>
+      <c r="C68" s="311" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="296"/>
-      <c r="E68" s="318" t="s">
+      <c r="D68" s="313"/>
+      <c r="E68" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F68" s="294" t="s">
+      <c r="F68" s="311" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="296"/>
-      <c r="H68" s="291" t="s">
+      <c r="G68" s="313"/>
+      <c r="H68" s="308" t="s">
         <v>633</v>
       </c>
-      <c r="I68" s="292"/>
-      <c r="J68" s="292"/>
-      <c r="K68" s="292"/>
-      <c r="L68" s="292"/>
-      <c r="M68" s="292"/>
-      <c r="N68" s="292"/>
-      <c r="O68" s="293"/>
+      <c r="I68" s="309"/>
+      <c r="J68" s="309"/>
+      <c r="K68" s="309"/>
+      <c r="L68" s="309"/>
+      <c r="M68" s="309"/>
+      <c r="N68" s="309"/>
+      <c r="O68" s="310"/>
       <c r="R68" s="6" t="s">
         <v>668</v>
       </c>
       <c r="Y68" s="115"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="319"/>
-      <c r="C69" s="312"/>
-      <c r="D69" s="313"/>
-      <c r="E69" s="320"/>
-      <c r="F69" s="297"/>
-      <c r="G69" s="299"/>
-      <c r="H69" s="291" t="s">
+      <c r="B69" s="336"/>
+      <c r="C69" s="329"/>
+      <c r="D69" s="330"/>
+      <c r="E69" s="337"/>
+      <c r="F69" s="314"/>
+      <c r="G69" s="316"/>
+      <c r="H69" s="308" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="292"/>
-      <c r="J69" s="292"/>
-      <c r="K69" s="292"/>
-      <c r="L69" s="292"/>
-      <c r="M69" s="292"/>
-      <c r="N69" s="292"/>
-      <c r="O69" s="293"/>
+      <c r="I69" s="309"/>
+      <c r="J69" s="309"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
+      <c r="N69" s="309"/>
+      <c r="O69" s="310"/>
       <c r="R69" s="6" t="s">
         <v>669</v>
       </c>
       <c r="Y69" s="115"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B70" s="319"/>
-      <c r="C70" s="312"/>
-      <c r="D70" s="313"/>
-      <c r="E70" s="318" t="s">
+      <c r="B70" s="336"/>
+      <c r="C70" s="329"/>
+      <c r="D70" s="330"/>
+      <c r="E70" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="F70" s="294" t="s">
+      <c r="F70" s="311" t="s">
         <v>630</v>
       </c>
-      <c r="G70" s="296"/>
-      <c r="H70" s="314" t="s">
+      <c r="G70" s="313"/>
+      <c r="H70" s="331" t="s">
         <v>623</v>
       </c>
-      <c r="I70" s="315"/>
-      <c r="J70" s="315"/>
-      <c r="K70" s="315"/>
-      <c r="L70" s="315"/>
-      <c r="M70" s="315"/>
-      <c r="N70" s="315"/>
-      <c r="O70" s="316"/>
+      <c r="I70" s="332"/>
+      <c r="J70" s="332"/>
+      <c r="K70" s="332"/>
+      <c r="L70" s="332"/>
+      <c r="M70" s="332"/>
+      <c r="N70" s="332"/>
+      <c r="O70" s="333"/>
       <c r="R70" s="6" t="s">
         <v>670</v>
       </c>
       <c r="Y70" s="115"/>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B71" s="319"/>
-      <c r="C71" s="312"/>
-      <c r="D71" s="313"/>
-      <c r="E71" s="319"/>
-      <c r="F71" s="312"/>
-      <c r="G71" s="313"/>
-      <c r="H71" s="306" t="s">
+      <c r="B71" s="336"/>
+      <c r="C71" s="329"/>
+      <c r="D71" s="330"/>
+      <c r="E71" s="336"/>
+      <c r="F71" s="329"/>
+      <c r="G71" s="330"/>
+      <c r="H71" s="323" t="s">
         <v>624</v>
       </c>
-      <c r="I71" s="307"/>
-      <c r="J71" s="307"/>
-      <c r="K71" s="307"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="307"/>
-      <c r="O71" s="308"/>
+      <c r="I71" s="324"/>
+      <c r="J71" s="324"/>
+      <c r="K71" s="324"/>
+      <c r="L71" s="324"/>
+      <c r="M71" s="324"/>
+      <c r="N71" s="324"/>
+      <c r="O71" s="325"/>
       <c r="R71" s="5" t="s">
         <v>671</v>
       </c>
@@ -36430,718 +36410,718 @@
       <c r="Y71" s="142"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B72" s="319"/>
-      <c r="C72" s="312"/>
-      <c r="D72" s="313"/>
-      <c r="E72" s="319"/>
-      <c r="F72" s="297"/>
-      <c r="G72" s="299"/>
-      <c r="H72" s="309"/>
-      <c r="I72" s="310"/>
-      <c r="J72" s="310"/>
-      <c r="K72" s="310"/>
-      <c r="L72" s="310"/>
-      <c r="M72" s="310"/>
-      <c r="N72" s="310"/>
-      <c r="O72" s="311"/>
+      <c r="B72" s="336"/>
+      <c r="C72" s="329"/>
+      <c r="D72" s="330"/>
+      <c r="E72" s="336"/>
+      <c r="F72" s="314"/>
+      <c r="G72" s="316"/>
+      <c r="H72" s="326"/>
+      <c r="I72" s="327"/>
+      <c r="J72" s="327"/>
+      <c r="K72" s="327"/>
+      <c r="L72" s="327"/>
+      <c r="M72" s="327"/>
+      <c r="N72" s="327"/>
+      <c r="O72" s="328"/>
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B73" s="319"/>
-      <c r="C73" s="312"/>
-      <c r="D73" s="313"/>
-      <c r="E73" s="319"/>
-      <c r="F73" s="294" t="s">
+      <c r="B73" s="336"/>
+      <c r="C73" s="329"/>
+      <c r="D73" s="330"/>
+      <c r="E73" s="336"/>
+      <c r="F73" s="311" t="s">
         <v>625</v>
       </c>
-      <c r="G73" s="296"/>
-      <c r="H73" s="294" t="s">
+      <c r="G73" s="313"/>
+      <c r="H73" s="311" t="s">
         <v>628</v>
       </c>
-      <c r="I73" s="295"/>
-      <c r="J73" s="295"/>
-      <c r="K73" s="295"/>
-      <c r="L73" s="295"/>
-      <c r="M73" s="295"/>
-      <c r="N73" s="295"/>
-      <c r="O73" s="296"/>
+      <c r="I73" s="312"/>
+      <c r="J73" s="312"/>
+      <c r="K73" s="312"/>
+      <c r="L73" s="312"/>
+      <c r="M73" s="312"/>
+      <c r="N73" s="312"/>
+      <c r="O73" s="313"/>
       <c r="R73" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B74" s="319"/>
-      <c r="C74" s="312"/>
-      <c r="D74" s="313"/>
-      <c r="E74" s="320"/>
-      <c r="F74" s="297"/>
-      <c r="G74" s="299"/>
-      <c r="H74" s="297"/>
-      <c r="I74" s="298"/>
-      <c r="J74" s="298"/>
-      <c r="K74" s="298"/>
-      <c r="L74" s="298"/>
-      <c r="M74" s="298"/>
-      <c r="N74" s="298"/>
-      <c r="O74" s="299"/>
+      <c r="B74" s="336"/>
+      <c r="C74" s="329"/>
+      <c r="D74" s="330"/>
+      <c r="E74" s="337"/>
+      <c r="F74" s="314"/>
+      <c r="G74" s="316"/>
+      <c r="H74" s="314"/>
+      <c r="I74" s="315"/>
+      <c r="J74" s="315"/>
+      <c r="K74" s="315"/>
+      <c r="L74" s="315"/>
+      <c r="M74" s="315"/>
+      <c r="N74" s="315"/>
+      <c r="O74" s="316"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B75" s="319"/>
-      <c r="C75" s="312"/>
-      <c r="D75" s="313"/>
-      <c r="E75" s="318" t="s">
+      <c r="B75" s="336"/>
+      <c r="C75" s="329"/>
+      <c r="D75" s="330"/>
+      <c r="E75" s="335" t="s">
         <v>620</v>
       </c>
-      <c r="F75" s="294" t="s">
+      <c r="F75" s="311" t="s">
         <v>626</v>
       </c>
-      <c r="G75" s="296"/>
-      <c r="H75" s="294" t="s">
+      <c r="G75" s="313"/>
+      <c r="H75" s="311" t="s">
         <v>627</v>
       </c>
-      <c r="I75" s="295"/>
-      <c r="J75" s="295"/>
-      <c r="K75" s="295"/>
-      <c r="L75" s="295"/>
-      <c r="M75" s="295"/>
-      <c r="N75" s="295"/>
-      <c r="O75" s="296"/>
+      <c r="I75" s="312"/>
+      <c r="J75" s="312"/>
+      <c r="K75" s="312"/>
+      <c r="L75" s="312"/>
+      <c r="M75" s="312"/>
+      <c r="N75" s="312"/>
+      <c r="O75" s="313"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="319"/>
-      <c r="C76" s="312"/>
-      <c r="D76" s="313"/>
-      <c r="E76" s="320"/>
-      <c r="F76" s="297"/>
-      <c r="G76" s="299"/>
-      <c r="H76" s="297"/>
-      <c r="I76" s="298"/>
-      <c r="J76" s="298"/>
-      <c r="K76" s="298"/>
-      <c r="L76" s="298"/>
-      <c r="M76" s="298"/>
-      <c r="N76" s="298"/>
-      <c r="O76" s="299"/>
+      <c r="B76" s="336"/>
+      <c r="C76" s="329"/>
+      <c r="D76" s="330"/>
+      <c r="E76" s="337"/>
+      <c r="F76" s="314"/>
+      <c r="G76" s="316"/>
+      <c r="H76" s="314"/>
+      <c r="I76" s="315"/>
+      <c r="J76" s="315"/>
+      <c r="K76" s="315"/>
+      <c r="L76" s="315"/>
+      <c r="M76" s="315"/>
+      <c r="N76" s="315"/>
+      <c r="O76" s="316"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="319"/>
-      <c r="C77" s="312"/>
-      <c r="D77" s="313"/>
-      <c r="E77" s="318" t="s">
+      <c r="B77" s="336"/>
+      <c r="C77" s="329"/>
+      <c r="D77" s="330"/>
+      <c r="E77" s="335" t="s">
         <v>409</v>
       </c>
-      <c r="F77" s="294" t="s">
+      <c r="F77" s="311" t="s">
         <v>629</v>
       </c>
-      <c r="G77" s="296"/>
-      <c r="H77" s="294" t="s">
+      <c r="G77" s="313"/>
+      <c r="H77" s="311" t="s">
         <v>632</v>
       </c>
-      <c r="I77" s="295"/>
-      <c r="J77" s="295"/>
-      <c r="K77" s="295"/>
-      <c r="L77" s="295"/>
-      <c r="M77" s="295"/>
-      <c r="N77" s="295"/>
-      <c r="O77" s="296"/>
+      <c r="I77" s="312"/>
+      <c r="J77" s="312"/>
+      <c r="K77" s="312"/>
+      <c r="L77" s="312"/>
+      <c r="M77" s="312"/>
+      <c r="N77" s="312"/>
+      <c r="O77" s="313"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="319"/>
-      <c r="C78" s="297"/>
-      <c r="D78" s="299"/>
-      <c r="E78" s="320"/>
-      <c r="F78" s="297"/>
-      <c r="G78" s="299"/>
-      <c r="H78" s="297"/>
-      <c r="I78" s="298"/>
-      <c r="J78" s="298"/>
-      <c r="K78" s="298"/>
-      <c r="L78" s="298"/>
-      <c r="M78" s="298"/>
-      <c r="N78" s="298"/>
-      <c r="O78" s="299"/>
+      <c r="B78" s="336"/>
+      <c r="C78" s="314"/>
+      <c r="D78" s="316"/>
+      <c r="E78" s="337"/>
+      <c r="F78" s="314"/>
+      <c r="G78" s="316"/>
+      <c r="H78" s="314"/>
+      <c r="I78" s="315"/>
+      <c r="J78" s="315"/>
+      <c r="K78" s="315"/>
+      <c r="L78" s="315"/>
+      <c r="M78" s="315"/>
+      <c r="N78" s="315"/>
+      <c r="O78" s="316"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="319"/>
-      <c r="C79" s="294" t="s">
+      <c r="B79" s="336"/>
+      <c r="C79" s="311" t="s">
         <v>582</v>
       </c>
-      <c r="D79" s="296"/>
-      <c r="E79" s="318" t="s">
+      <c r="D79" s="313"/>
+      <c r="E79" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F79" s="294" t="s">
+      <c r="F79" s="311" t="s">
         <v>621</v>
       </c>
-      <c r="G79" s="296"/>
-      <c r="H79" s="291" t="s">
+      <c r="G79" s="313"/>
+      <c r="H79" s="308" t="s">
         <v>634</v>
       </c>
-      <c r="I79" s="292"/>
-      <c r="J79" s="292"/>
-      <c r="K79" s="292"/>
-      <c r="L79" s="292"/>
-      <c r="M79" s="292"/>
-      <c r="N79" s="292"/>
-      <c r="O79" s="293"/>
+      <c r="I79" s="309"/>
+      <c r="J79" s="309"/>
+      <c r="K79" s="309"/>
+      <c r="L79" s="309"/>
+      <c r="M79" s="309"/>
+      <c r="N79" s="309"/>
+      <c r="O79" s="310"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="319"/>
-      <c r="C80" s="312"/>
-      <c r="D80" s="313"/>
-      <c r="E80" s="319"/>
-      <c r="F80" s="297"/>
-      <c r="G80" s="299"/>
-      <c r="H80" s="291" t="s">
+      <c r="B80" s="336"/>
+      <c r="C80" s="329"/>
+      <c r="D80" s="330"/>
+      <c r="E80" s="336"/>
+      <c r="F80" s="314"/>
+      <c r="G80" s="316"/>
+      <c r="H80" s="308" t="s">
         <v>663</v>
       </c>
-      <c r="I80" s="292"/>
-      <c r="J80" s="292"/>
-      <c r="K80" s="292"/>
-      <c r="L80" s="292"/>
-      <c r="M80" s="292"/>
-      <c r="N80" s="292"/>
-      <c r="O80" s="293"/>
+      <c r="I80" s="309"/>
+      <c r="J80" s="309"/>
+      <c r="K80" s="309"/>
+      <c r="L80" s="309"/>
+      <c r="M80" s="309"/>
+      <c r="N80" s="309"/>
+      <c r="O80" s="310"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="319"/>
-      <c r="C81" s="312"/>
-      <c r="D81" s="313"/>
-      <c r="E81" s="319"/>
-      <c r="F81" s="294" t="s">
+      <c r="B81" s="336"/>
+      <c r="C81" s="329"/>
+      <c r="D81" s="330"/>
+      <c r="E81" s="336"/>
+      <c r="F81" s="311" t="s">
         <v>635</v>
       </c>
-      <c r="G81" s="296"/>
-      <c r="H81" s="294" t="s">
+      <c r="G81" s="313"/>
+      <c r="H81" s="311" t="s">
         <v>636</v>
       </c>
-      <c r="I81" s="295"/>
-      <c r="J81" s="295"/>
-      <c r="K81" s="295"/>
-      <c r="L81" s="295"/>
-      <c r="M81" s="295"/>
-      <c r="N81" s="295"/>
-      <c r="O81" s="296"/>
+      <c r="I81" s="312"/>
+      <c r="J81" s="312"/>
+      <c r="K81" s="312"/>
+      <c r="L81" s="312"/>
+      <c r="M81" s="312"/>
+      <c r="N81" s="312"/>
+      <c r="O81" s="313"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="319"/>
-      <c r="C82" s="312"/>
-      <c r="D82" s="313"/>
-      <c r="E82" s="320"/>
-      <c r="F82" s="297"/>
-      <c r="G82" s="299"/>
-      <c r="H82" s="297"/>
-      <c r="I82" s="298"/>
-      <c r="J82" s="298"/>
-      <c r="K82" s="298"/>
-      <c r="L82" s="298"/>
-      <c r="M82" s="298"/>
-      <c r="N82" s="298"/>
-      <c r="O82" s="299"/>
+      <c r="B82" s="336"/>
+      <c r="C82" s="329"/>
+      <c r="D82" s="330"/>
+      <c r="E82" s="337"/>
+      <c r="F82" s="314"/>
+      <c r="G82" s="316"/>
+      <c r="H82" s="314"/>
+      <c r="I82" s="315"/>
+      <c r="J82" s="315"/>
+      <c r="K82" s="315"/>
+      <c r="L82" s="315"/>
+      <c r="M82" s="315"/>
+      <c r="N82" s="315"/>
+      <c r="O82" s="316"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="319"/>
-      <c r="C83" s="312"/>
-      <c r="D83" s="313"/>
-      <c r="E83" s="318" t="s">
+      <c r="B83" s="336"/>
+      <c r="C83" s="329"/>
+      <c r="D83" s="330"/>
+      <c r="E83" s="335" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="294" t="s">
+      <c r="F83" s="311" t="s">
         <v>638</v>
       </c>
-      <c r="G83" s="296"/>
-      <c r="H83" s="306" t="s">
+      <c r="G83" s="313"/>
+      <c r="H83" s="323" t="s">
         <v>639</v>
       </c>
-      <c r="I83" s="307"/>
-      <c r="J83" s="307"/>
-      <c r="K83" s="307"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="307"/>
-      <c r="O83" s="308"/>
+      <c r="I83" s="324"/>
+      <c r="J83" s="324"/>
+      <c r="K83" s="324"/>
+      <c r="L83" s="324"/>
+      <c r="M83" s="324"/>
+      <c r="N83" s="324"/>
+      <c r="O83" s="325"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="319"/>
-      <c r="C84" s="312"/>
-      <c r="D84" s="313"/>
-      <c r="E84" s="319"/>
-      <c r="F84" s="297"/>
-      <c r="G84" s="299"/>
-      <c r="H84" s="309"/>
-      <c r="I84" s="310"/>
-      <c r="J84" s="310"/>
-      <c r="K84" s="310"/>
-      <c r="L84" s="310"/>
-      <c r="M84" s="310"/>
-      <c r="N84" s="310"/>
-      <c r="O84" s="311"/>
+      <c r="B84" s="336"/>
+      <c r="C84" s="329"/>
+      <c r="D84" s="330"/>
+      <c r="E84" s="336"/>
+      <c r="F84" s="314"/>
+      <c r="G84" s="316"/>
+      <c r="H84" s="326"/>
+      <c r="I84" s="327"/>
+      <c r="J84" s="327"/>
+      <c r="K84" s="327"/>
+      <c r="L84" s="327"/>
+      <c r="M84" s="327"/>
+      <c r="N84" s="327"/>
+      <c r="O84" s="328"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="319"/>
-      <c r="C85" s="312"/>
-      <c r="D85" s="313"/>
-      <c r="E85" s="319"/>
-      <c r="F85" s="294" t="s">
+      <c r="B85" s="336"/>
+      <c r="C85" s="329"/>
+      <c r="D85" s="330"/>
+      <c r="E85" s="336"/>
+      <c r="F85" s="311" t="s">
         <v>625</v>
       </c>
-      <c r="G85" s="296"/>
-      <c r="H85" s="294" t="s">
+      <c r="G85" s="313"/>
+      <c r="H85" s="311" t="s">
         <v>640</v>
       </c>
-      <c r="I85" s="295"/>
-      <c r="J85" s="295"/>
-      <c r="K85" s="295"/>
-      <c r="L85" s="295"/>
-      <c r="M85" s="295"/>
-      <c r="N85" s="295"/>
-      <c r="O85" s="296"/>
+      <c r="I85" s="312"/>
+      <c r="J85" s="312"/>
+      <c r="K85" s="312"/>
+      <c r="L85" s="312"/>
+      <c r="M85" s="312"/>
+      <c r="N85" s="312"/>
+      <c r="O85" s="313"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="319"/>
-      <c r="C86" s="312"/>
-      <c r="D86" s="313"/>
-      <c r="E86" s="320"/>
-      <c r="F86" s="297"/>
-      <c r="G86" s="299"/>
-      <c r="H86" s="297"/>
-      <c r="I86" s="298"/>
-      <c r="J86" s="298"/>
-      <c r="K86" s="298"/>
-      <c r="L86" s="298"/>
-      <c r="M86" s="298"/>
-      <c r="N86" s="298"/>
-      <c r="O86" s="299"/>
+      <c r="B86" s="336"/>
+      <c r="C86" s="329"/>
+      <c r="D86" s="330"/>
+      <c r="E86" s="337"/>
+      <c r="F86" s="314"/>
+      <c r="G86" s="316"/>
+      <c r="H86" s="314"/>
+      <c r="I86" s="315"/>
+      <c r="J86" s="315"/>
+      <c r="K86" s="315"/>
+      <c r="L86" s="315"/>
+      <c r="M86" s="315"/>
+      <c r="N86" s="315"/>
+      <c r="O86" s="316"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="319"/>
-      <c r="C87" s="312"/>
-      <c r="D87" s="313"/>
-      <c r="E87" s="318" t="s">
+      <c r="B87" s="336"/>
+      <c r="C87" s="329"/>
+      <c r="D87" s="330"/>
+      <c r="E87" s="335" t="s">
         <v>642</v>
       </c>
-      <c r="F87" s="294" t="s">
+      <c r="F87" s="311" t="s">
         <v>643</v>
       </c>
-      <c r="G87" s="296"/>
-      <c r="H87" s="291" t="s">
+      <c r="G87" s="313"/>
+      <c r="H87" s="308" t="s">
         <v>645</v>
       </c>
-      <c r="I87" s="292"/>
-      <c r="J87" s="292"/>
-      <c r="K87" s="292"/>
-      <c r="L87" s="292"/>
-      <c r="M87" s="292"/>
-      <c r="N87" s="292"/>
-      <c r="O87" s="293"/>
+      <c r="I87" s="309"/>
+      <c r="J87" s="309"/>
+      <c r="K87" s="309"/>
+      <c r="L87" s="309"/>
+      <c r="M87" s="309"/>
+      <c r="N87" s="309"/>
+      <c r="O87" s="310"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="319"/>
-      <c r="C88" s="312"/>
-      <c r="D88" s="313"/>
-      <c r="E88" s="319"/>
-      <c r="F88" s="312"/>
-      <c r="G88" s="313"/>
-      <c r="H88" s="291" t="s">
+      <c r="B88" s="336"/>
+      <c r="C88" s="329"/>
+      <c r="D88" s="330"/>
+      <c r="E88" s="336"/>
+      <c r="F88" s="329"/>
+      <c r="G88" s="330"/>
+      <c r="H88" s="308" t="s">
         <v>646</v>
       </c>
-      <c r="I88" s="292"/>
-      <c r="J88" s="292"/>
-      <c r="K88" s="292"/>
-      <c r="L88" s="292"/>
-      <c r="M88" s="292"/>
-      <c r="N88" s="292"/>
-      <c r="O88" s="293"/>
+      <c r="I88" s="309"/>
+      <c r="J88" s="309"/>
+      <c r="K88" s="309"/>
+      <c r="L88" s="309"/>
+      <c r="M88" s="309"/>
+      <c r="N88" s="309"/>
+      <c r="O88" s="310"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="319"/>
-      <c r="C89" s="312"/>
-      <c r="D89" s="313"/>
-      <c r="E89" s="319"/>
-      <c r="F89" s="312"/>
-      <c r="G89" s="313"/>
-      <c r="H89" s="294" t="s">
+      <c r="B89" s="336"/>
+      <c r="C89" s="329"/>
+      <c r="D89" s="330"/>
+      <c r="E89" s="336"/>
+      <c r="F89" s="329"/>
+      <c r="G89" s="330"/>
+      <c r="H89" s="311" t="s">
         <v>647</v>
       </c>
-      <c r="I89" s="295"/>
-      <c r="J89" s="295"/>
-      <c r="K89" s="295"/>
-      <c r="L89" s="295"/>
-      <c r="M89" s="295"/>
-      <c r="N89" s="295"/>
-      <c r="O89" s="296"/>
+      <c r="I89" s="312"/>
+      <c r="J89" s="312"/>
+      <c r="K89" s="312"/>
+      <c r="L89" s="312"/>
+      <c r="M89" s="312"/>
+      <c r="N89" s="312"/>
+      <c r="O89" s="313"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="319"/>
-      <c r="C90" s="312"/>
-      <c r="D90" s="313"/>
-      <c r="E90" s="319"/>
-      <c r="F90" s="297"/>
-      <c r="G90" s="299"/>
-      <c r="H90" s="297"/>
-      <c r="I90" s="298"/>
-      <c r="J90" s="298"/>
-      <c r="K90" s="298"/>
-      <c r="L90" s="298"/>
-      <c r="M90" s="298"/>
-      <c r="N90" s="298"/>
-      <c r="O90" s="299"/>
+      <c r="B90" s="336"/>
+      <c r="C90" s="329"/>
+      <c r="D90" s="330"/>
+      <c r="E90" s="336"/>
+      <c r="F90" s="314"/>
+      <c r="G90" s="316"/>
+      <c r="H90" s="314"/>
+      <c r="I90" s="315"/>
+      <c r="J90" s="315"/>
+      <c r="K90" s="315"/>
+      <c r="L90" s="315"/>
+      <c r="M90" s="315"/>
+      <c r="N90" s="315"/>
+      <c r="O90" s="316"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="319"/>
-      <c r="C91" s="312"/>
-      <c r="D91" s="313"/>
-      <c r="E91" s="319"/>
-      <c r="F91" s="294" t="s">
+      <c r="B91" s="336"/>
+      <c r="C91" s="329"/>
+      <c r="D91" s="330"/>
+      <c r="E91" s="336"/>
+      <c r="F91" s="311" t="s">
         <v>644</v>
       </c>
-      <c r="G91" s="296"/>
-      <c r="H91" s="303" t="s">
+      <c r="G91" s="313"/>
+      <c r="H91" s="320" t="s">
         <v>648</v>
       </c>
-      <c r="I91" s="304"/>
-      <c r="J91" s="304"/>
-      <c r="K91" s="304"/>
-      <c r="L91" s="304"/>
-      <c r="M91" s="304"/>
-      <c r="N91" s="304"/>
-      <c r="O91" s="305"/>
+      <c r="I91" s="321"/>
+      <c r="J91" s="321"/>
+      <c r="K91" s="321"/>
+      <c r="L91" s="321"/>
+      <c r="M91" s="321"/>
+      <c r="N91" s="321"/>
+      <c r="O91" s="322"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="319"/>
-      <c r="C92" s="312"/>
-      <c r="D92" s="313"/>
-      <c r="E92" s="319"/>
-      <c r="F92" s="312"/>
-      <c r="G92" s="313"/>
-      <c r="H92" s="294" t="s">
+      <c r="B92" s="336"/>
+      <c r="C92" s="329"/>
+      <c r="D92" s="330"/>
+      <c r="E92" s="336"/>
+      <c r="F92" s="329"/>
+      <c r="G92" s="330"/>
+      <c r="H92" s="311" t="s">
         <v>649</v>
       </c>
-      <c r="I92" s="295"/>
-      <c r="J92" s="295"/>
-      <c r="K92" s="295"/>
-      <c r="L92" s="295"/>
-      <c r="M92" s="295"/>
-      <c r="N92" s="295"/>
-      <c r="O92" s="296"/>
+      <c r="I92" s="312"/>
+      <c r="J92" s="312"/>
+      <c r="K92" s="312"/>
+      <c r="L92" s="312"/>
+      <c r="M92" s="312"/>
+      <c r="N92" s="312"/>
+      <c r="O92" s="313"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="319"/>
-      <c r="C93" s="312"/>
-      <c r="D93" s="313"/>
-      <c r="E93" s="320"/>
-      <c r="F93" s="312"/>
-      <c r="G93" s="313"/>
-      <c r="H93" s="297"/>
-      <c r="I93" s="298"/>
-      <c r="J93" s="298"/>
-      <c r="K93" s="298"/>
-      <c r="L93" s="298"/>
-      <c r="M93" s="298"/>
-      <c r="N93" s="298"/>
-      <c r="O93" s="299"/>
+      <c r="B93" s="336"/>
+      <c r="C93" s="329"/>
+      <c r="D93" s="330"/>
+      <c r="E93" s="337"/>
+      <c r="F93" s="329"/>
+      <c r="G93" s="330"/>
+      <c r="H93" s="314"/>
+      <c r="I93" s="315"/>
+      <c r="J93" s="315"/>
+      <c r="K93" s="315"/>
+      <c r="L93" s="315"/>
+      <c r="M93" s="315"/>
+      <c r="N93" s="315"/>
+      <c r="O93" s="316"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="319"/>
-      <c r="C94" s="312"/>
-      <c r="D94" s="313"/>
-      <c r="E94" s="294" t="s">
+      <c r="B94" s="336"/>
+      <c r="C94" s="329"/>
+      <c r="D94" s="330"/>
+      <c r="E94" s="311" t="s">
         <v>641</v>
       </c>
-      <c r="F94" s="294" t="s">
+      <c r="F94" s="311" t="s">
         <v>629</v>
       </c>
-      <c r="G94" s="296"/>
-      <c r="H94" s="294" t="s">
+      <c r="G94" s="313"/>
+      <c r="H94" s="311" t="s">
         <v>631</v>
       </c>
-      <c r="I94" s="295"/>
-      <c r="J94" s="295"/>
-      <c r="K94" s="295"/>
-      <c r="L94" s="295"/>
-      <c r="M94" s="295"/>
-      <c r="N94" s="295"/>
-      <c r="O94" s="296"/>
+      <c r="I94" s="312"/>
+      <c r="J94" s="312"/>
+      <c r="K94" s="312"/>
+      <c r="L94" s="312"/>
+      <c r="M94" s="312"/>
+      <c r="N94" s="312"/>
+      <c r="O94" s="313"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="319"/>
-      <c r="C95" s="312"/>
-      <c r="D95" s="313"/>
-      <c r="E95" s="297"/>
-      <c r="F95" s="312"/>
-      <c r="G95" s="313"/>
-      <c r="H95" s="312"/>
-      <c r="I95" s="317"/>
-      <c r="J95" s="317"/>
-      <c r="K95" s="317"/>
-      <c r="L95" s="317"/>
-      <c r="M95" s="317"/>
-      <c r="N95" s="317"/>
-      <c r="O95" s="313"/>
+      <c r="B95" s="336"/>
+      <c r="C95" s="329"/>
+      <c r="D95" s="330"/>
+      <c r="E95" s="314"/>
+      <c r="F95" s="329"/>
+      <c r="G95" s="330"/>
+      <c r="H95" s="329"/>
+      <c r="I95" s="334"/>
+      <c r="J95" s="334"/>
+      <c r="K95" s="334"/>
+      <c r="L95" s="334"/>
+      <c r="M95" s="334"/>
+      <c r="N95" s="334"/>
+      <c r="O95" s="330"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="319"/>
-      <c r="C96" s="312"/>
-      <c r="D96" s="313"/>
-      <c r="E96" s="294" t="s">
+      <c r="B96" s="336"/>
+      <c r="C96" s="329"/>
+      <c r="D96" s="330"/>
+      <c r="E96" s="311" t="s">
         <v>409</v>
       </c>
-      <c r="F96" s="312"/>
-      <c r="G96" s="313"/>
-      <c r="H96" s="312"/>
-      <c r="I96" s="317"/>
-      <c r="J96" s="317"/>
-      <c r="K96" s="317"/>
-      <c r="L96" s="317"/>
-      <c r="M96" s="317"/>
-      <c r="N96" s="317"/>
-      <c r="O96" s="313"/>
+      <c r="F96" s="329"/>
+      <c r="G96" s="330"/>
+      <c r="H96" s="329"/>
+      <c r="I96" s="334"/>
+      <c r="J96" s="334"/>
+      <c r="K96" s="334"/>
+      <c r="L96" s="334"/>
+      <c r="M96" s="334"/>
+      <c r="N96" s="334"/>
+      <c r="O96" s="330"/>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B97" s="319"/>
-      <c r="C97" s="297"/>
-      <c r="D97" s="299"/>
-      <c r="E97" s="297"/>
-      <c r="F97" s="297"/>
-      <c r="G97" s="299"/>
-      <c r="H97" s="297"/>
-      <c r="I97" s="298"/>
-      <c r="J97" s="298"/>
-      <c r="K97" s="298"/>
-      <c r="L97" s="298"/>
-      <c r="M97" s="298"/>
-      <c r="N97" s="298"/>
-      <c r="O97" s="299"/>
+      <c r="B97" s="336"/>
+      <c r="C97" s="314"/>
+      <c r="D97" s="316"/>
+      <c r="E97" s="314"/>
+      <c r="F97" s="314"/>
+      <c r="G97" s="316"/>
+      <c r="H97" s="314"/>
+      <c r="I97" s="315"/>
+      <c r="J97" s="315"/>
+      <c r="K97" s="315"/>
+      <c r="L97" s="315"/>
+      <c r="M97" s="315"/>
+      <c r="N97" s="315"/>
+      <c r="O97" s="316"/>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B98" s="319"/>
-      <c r="C98" s="294" t="s">
+      <c r="B98" s="336"/>
+      <c r="C98" s="311" t="s">
         <v>583</v>
       </c>
-      <c r="D98" s="296"/>
-      <c r="E98" s="318" t="s">
+      <c r="D98" s="313"/>
+      <c r="E98" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F98" s="294" t="s">
+      <c r="F98" s="311" t="s">
         <v>652</v>
       </c>
-      <c r="G98" s="296"/>
-      <c r="H98" s="294" t="s">
+      <c r="G98" s="313"/>
+      <c r="H98" s="311" t="s">
         <v>653</v>
       </c>
-      <c r="I98" s="295"/>
-      <c r="J98" s="295"/>
-      <c r="K98" s="295"/>
-      <c r="L98" s="295"/>
-      <c r="M98" s="295"/>
-      <c r="N98" s="295"/>
-      <c r="O98" s="296"/>
+      <c r="I98" s="312"/>
+      <c r="J98" s="312"/>
+      <c r="K98" s="312"/>
+      <c r="L98" s="312"/>
+      <c r="M98" s="312"/>
+      <c r="N98" s="312"/>
+      <c r="O98" s="313"/>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B99" s="319"/>
-      <c r="C99" s="312"/>
-      <c r="D99" s="313"/>
-      <c r="E99" s="319"/>
-      <c r="F99" s="297"/>
-      <c r="G99" s="299"/>
-      <c r="H99" s="297"/>
-      <c r="I99" s="298"/>
-      <c r="J99" s="298"/>
-      <c r="K99" s="298"/>
-      <c r="L99" s="298"/>
-      <c r="M99" s="298"/>
-      <c r="N99" s="298"/>
-      <c r="O99" s="299"/>
+      <c r="B99" s="336"/>
+      <c r="C99" s="329"/>
+      <c r="D99" s="330"/>
+      <c r="E99" s="336"/>
+      <c r="F99" s="314"/>
+      <c r="G99" s="316"/>
+      <c r="H99" s="314"/>
+      <c r="I99" s="315"/>
+      <c r="J99" s="315"/>
+      <c r="K99" s="315"/>
+      <c r="L99" s="315"/>
+      <c r="M99" s="315"/>
+      <c r="N99" s="315"/>
+      <c r="O99" s="316"/>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B100" s="319"/>
-      <c r="C100" s="312"/>
-      <c r="D100" s="313"/>
-      <c r="E100" s="319"/>
-      <c r="F100" s="294" t="s">
+      <c r="B100" s="336"/>
+      <c r="C100" s="329"/>
+      <c r="D100" s="330"/>
+      <c r="E100" s="336"/>
+      <c r="F100" s="311" t="s">
         <v>654</v>
       </c>
-      <c r="G100" s="296"/>
-      <c r="H100" s="303" t="s">
+      <c r="G100" s="313"/>
+      <c r="H100" s="320" t="s">
         <v>655</v>
       </c>
-      <c r="I100" s="304"/>
-      <c r="J100" s="304"/>
-      <c r="K100" s="304"/>
-      <c r="L100" s="304"/>
-      <c r="M100" s="304"/>
-      <c r="N100" s="304"/>
-      <c r="O100" s="305"/>
+      <c r="I100" s="321"/>
+      <c r="J100" s="321"/>
+      <c r="K100" s="321"/>
+      <c r="L100" s="321"/>
+      <c r="M100" s="321"/>
+      <c r="N100" s="321"/>
+      <c r="O100" s="322"/>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B101" s="319"/>
-      <c r="C101" s="312"/>
-      <c r="D101" s="313"/>
-      <c r="E101" s="319"/>
-      <c r="F101" s="312"/>
-      <c r="G101" s="313"/>
-      <c r="H101" s="291" t="s">
+      <c r="B101" s="336"/>
+      <c r="C101" s="329"/>
+      <c r="D101" s="330"/>
+      <c r="E101" s="336"/>
+      <c r="F101" s="329"/>
+      <c r="G101" s="330"/>
+      <c r="H101" s="308" t="s">
         <v>656</v>
       </c>
-      <c r="I101" s="292"/>
-      <c r="J101" s="292"/>
-      <c r="K101" s="292"/>
-      <c r="L101" s="292"/>
-      <c r="M101" s="292"/>
-      <c r="N101" s="292"/>
-      <c r="O101" s="293"/>
+      <c r="I101" s="309"/>
+      <c r="J101" s="309"/>
+      <c r="K101" s="309"/>
+      <c r="L101" s="309"/>
+      <c r="M101" s="309"/>
+      <c r="N101" s="309"/>
+      <c r="O101" s="310"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B102" s="319"/>
-      <c r="C102" s="312"/>
-      <c r="D102" s="313"/>
-      <c r="E102" s="319"/>
-      <c r="F102" s="312"/>
-      <c r="G102" s="313"/>
-      <c r="H102" s="291" t="s">
+      <c r="B102" s="336"/>
+      <c r="C102" s="329"/>
+      <c r="D102" s="330"/>
+      <c r="E102" s="336"/>
+      <c r="F102" s="329"/>
+      <c r="G102" s="330"/>
+      <c r="H102" s="308" t="s">
         <v>657</v>
       </c>
-      <c r="I102" s="292"/>
-      <c r="J102" s="292"/>
-      <c r="K102" s="292"/>
-      <c r="L102" s="292"/>
-      <c r="M102" s="292"/>
-      <c r="N102" s="292"/>
-      <c r="O102" s="293"/>
+      <c r="I102" s="309"/>
+      <c r="J102" s="309"/>
+      <c r="K102" s="309"/>
+      <c r="L102" s="309"/>
+      <c r="M102" s="309"/>
+      <c r="N102" s="309"/>
+      <c r="O102" s="310"/>
       <c r="P102" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B103" s="319"/>
-      <c r="C103" s="312"/>
-      <c r="D103" s="313"/>
-      <c r="E103" s="319"/>
-      <c r="F103" s="312"/>
-      <c r="G103" s="313"/>
-      <c r="H103" s="294" t="s">
+      <c r="B103" s="336"/>
+      <c r="C103" s="329"/>
+      <c r="D103" s="330"/>
+      <c r="E103" s="336"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="330"/>
+      <c r="H103" s="311" t="s">
         <v>662</v>
       </c>
-      <c r="I103" s="295"/>
-      <c r="J103" s="295"/>
-      <c r="K103" s="295"/>
-      <c r="L103" s="295"/>
-      <c r="M103" s="295"/>
-      <c r="N103" s="295"/>
-      <c r="O103" s="296"/>
+      <c r="I103" s="312"/>
+      <c r="J103" s="312"/>
+      <c r="K103" s="312"/>
+      <c r="L103" s="312"/>
+      <c r="M103" s="312"/>
+      <c r="N103" s="312"/>
+      <c r="O103" s="313"/>
       <c r="P103" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B104" s="319"/>
-      <c r="C104" s="312"/>
-      <c r="D104" s="313"/>
-      <c r="E104" s="319"/>
-      <c r="F104" s="297"/>
-      <c r="G104" s="299"/>
-      <c r="H104" s="297"/>
-      <c r="I104" s="298"/>
-      <c r="J104" s="298"/>
-      <c r="K104" s="298"/>
-      <c r="L104" s="298"/>
-      <c r="M104" s="298"/>
-      <c r="N104" s="298"/>
-      <c r="O104" s="299"/>
+      <c r="B104" s="336"/>
+      <c r="C104" s="329"/>
+      <c r="D104" s="330"/>
+      <c r="E104" s="336"/>
+      <c r="F104" s="314"/>
+      <c r="G104" s="316"/>
+      <c r="H104" s="314"/>
+      <c r="I104" s="315"/>
+      <c r="J104" s="315"/>
+      <c r="K104" s="315"/>
+      <c r="L104" s="315"/>
+      <c r="M104" s="315"/>
+      <c r="N104" s="315"/>
+      <c r="O104" s="316"/>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B105" s="319"/>
-      <c r="C105" s="312"/>
-      <c r="D105" s="313"/>
-      <c r="E105" s="319"/>
-      <c r="F105" s="294" t="s">
+      <c r="B105" s="336"/>
+      <c r="C105" s="329"/>
+      <c r="D105" s="330"/>
+      <c r="E105" s="336"/>
+      <c r="F105" s="311" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="296"/>
-      <c r="H105" s="291" t="s">
+      <c r="G105" s="313"/>
+      <c r="H105" s="308" t="s">
         <v>658</v>
       </c>
-      <c r="I105" s="292"/>
-      <c r="J105" s="292"/>
-      <c r="K105" s="292"/>
-      <c r="L105" s="292"/>
-      <c r="M105" s="292"/>
-      <c r="N105" s="292"/>
-      <c r="O105" s="293"/>
+      <c r="I105" s="309"/>
+      <c r="J105" s="309"/>
+      <c r="K105" s="309"/>
+      <c r="L105" s="309"/>
+      <c r="M105" s="309"/>
+      <c r="N105" s="309"/>
+      <c r="O105" s="310"/>
       <c r="P105" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B106" s="319"/>
-      <c r="C106" s="312"/>
-      <c r="D106" s="313"/>
-      <c r="E106" s="319"/>
-      <c r="F106" s="312"/>
-      <c r="G106" s="313"/>
-      <c r="H106" s="291" t="s">
+      <c r="B106" s="336"/>
+      <c r="C106" s="329"/>
+      <c r="D106" s="330"/>
+      <c r="E106" s="336"/>
+      <c r="F106" s="329"/>
+      <c r="G106" s="330"/>
+      <c r="H106" s="308" t="s">
         <v>659</v>
       </c>
-      <c r="I106" s="292"/>
-      <c r="J106" s="292"/>
-      <c r="K106" s="292"/>
-      <c r="L106" s="292"/>
-      <c r="M106" s="292"/>
-      <c r="N106" s="292"/>
-      <c r="O106" s="293"/>
+      <c r="I106" s="309"/>
+      <c r="J106" s="309"/>
+      <c r="K106" s="309"/>
+      <c r="L106" s="309"/>
+      <c r="M106" s="309"/>
+      <c r="N106" s="309"/>
+      <c r="O106" s="310"/>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B107" s="319"/>
-      <c r="C107" s="312"/>
-      <c r="D107" s="313"/>
-      <c r="E107" s="319"/>
-      <c r="F107" s="312"/>
-      <c r="G107" s="313"/>
-      <c r="H107" s="294" t="s">
+      <c r="B107" s="336"/>
+      <c r="C107" s="329"/>
+      <c r="D107" s="330"/>
+      <c r="E107" s="336"/>
+      <c r="F107" s="329"/>
+      <c r="G107" s="330"/>
+      <c r="H107" s="311" t="s">
         <v>660</v>
       </c>
-      <c r="I107" s="295"/>
-      <c r="J107" s="295"/>
-      <c r="K107" s="295"/>
-      <c r="L107" s="295"/>
-      <c r="M107" s="295"/>
-      <c r="N107" s="295"/>
-      <c r="O107" s="296"/>
+      <c r="I107" s="312"/>
+      <c r="J107" s="312"/>
+      <c r="K107" s="312"/>
+      <c r="L107" s="312"/>
+      <c r="M107" s="312"/>
+      <c r="N107" s="312"/>
+      <c r="O107" s="313"/>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B108" s="319"/>
-      <c r="C108" s="312"/>
-      <c r="D108" s="313"/>
-      <c r="E108" s="319"/>
-      <c r="F108" s="297"/>
-      <c r="G108" s="299"/>
-      <c r="H108" s="297"/>
-      <c r="I108" s="298"/>
-      <c r="J108" s="298"/>
-      <c r="K108" s="298"/>
-      <c r="L108" s="298"/>
-      <c r="M108" s="298"/>
-      <c r="N108" s="298"/>
-      <c r="O108" s="299"/>
+      <c r="B108" s="336"/>
+      <c r="C108" s="329"/>
+      <c r="D108" s="330"/>
+      <c r="E108" s="336"/>
+      <c r="F108" s="314"/>
+      <c r="G108" s="316"/>
+      <c r="H108" s="314"/>
+      <c r="I108" s="315"/>
+      <c r="J108" s="315"/>
+      <c r="K108" s="315"/>
+      <c r="L108" s="315"/>
+      <c r="M108" s="315"/>
+      <c r="N108" s="315"/>
+      <c r="O108" s="316"/>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B109" s="320"/>
-      <c r="C109" s="297"/>
-      <c r="D109" s="299"/>
-      <c r="E109" s="320"/>
-      <c r="F109" s="291" t="s">
+      <c r="B109" s="337"/>
+      <c r="C109" s="314"/>
+      <c r="D109" s="316"/>
+      <c r="E109" s="337"/>
+      <c r="F109" s="308" t="s">
         <v>651</v>
       </c>
-      <c r="G109" s="293"/>
-      <c r="H109" s="291" t="s">
+      <c r="G109" s="310"/>
+      <c r="H109" s="308" t="s">
         <v>661</v>
       </c>
-      <c r="I109" s="292"/>
-      <c r="J109" s="292"/>
-      <c r="K109" s="292"/>
-      <c r="L109" s="292"/>
-      <c r="M109" s="292"/>
-      <c r="N109" s="292"/>
-      <c r="O109" s="293"/>
+      <c r="I109" s="309"/>
+      <c r="J109" s="309"/>
+      <c r="K109" s="309"/>
+      <c r="L109" s="309"/>
+      <c r="M109" s="309"/>
+      <c r="N109" s="309"/>
+      <c r="O109" s="310"/>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
@@ -37379,7 +37359,6 @@
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="E79:E82"/>
     <mergeCell ref="E83:E86"/>
-    <mergeCell ref="H102:O102"/>
     <mergeCell ref="H103:O104"/>
     <mergeCell ref="F79:G80"/>
     <mergeCell ref="F81:G82"/>
@@ -37419,19 +37398,21 @@
     <mergeCell ref="H80:O80"/>
     <mergeCell ref="H81:O82"/>
     <mergeCell ref="H83:O84"/>
+    <mergeCell ref="H102:O102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81583094-C4D9-4363-9EDF-FC9FAE6C7CD7}">
-  <dimension ref="A2:AL183"/>
+  <dimension ref="A2:AK183"/>
   <sheetViews>
-    <sheetView topLeftCell="N128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE128" sqref="AE128"/>
+    <sheetView topLeftCell="V124" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AP124" sqref="AP124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37645,198 +37626,198 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C26" s="241" t="s">
+      <c r="C26" s="258" t="s">
         <v>713</v>
       </c>
-      <c r="D26" s="322"/>
-      <c r="E26" s="322"/>
-      <c r="F26" s="242"/>
-      <c r="H26" s="241" t="s">
+      <c r="D26" s="338"/>
+      <c r="E26" s="338"/>
+      <c r="F26" s="259"/>
+      <c r="H26" s="258" t="s">
         <v>717</v>
       </c>
-      <c r="I26" s="322"/>
-      <c r="J26" s="322"/>
-      <c r="K26" s="242"/>
-      <c r="M26" s="241" t="s">
+      <c r="I26" s="338"/>
+      <c r="J26" s="338"/>
+      <c r="K26" s="259"/>
+      <c r="M26" s="258" t="s">
         <v>583</v>
       </c>
-      <c r="N26" s="242"/>
+      <c r="N26" s="259"/>
       <c r="O26" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="P26" s="291" t="s">
+      <c r="P26" s="308" t="s">
         <v>727</v>
       </c>
-      <c r="Q26" s="292"/>
-      <c r="R26" s="293"/>
-      <c r="S26" s="291" t="s">
+      <c r="Q26" s="309"/>
+      <c r="R26" s="310"/>
+      <c r="S26" s="308" t="s">
         <v>725</v>
       </c>
-      <c r="T26" s="292"/>
-      <c r="U26" s="292"/>
-      <c r="V26" s="293"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="309"/>
+      <c r="V26" s="310"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C27" s="243"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="323"/>
-      <c r="F27" s="244"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="323"/>
-      <c r="J27" s="323"/>
-      <c r="K27" s="244"/>
-      <c r="M27" s="324"/>
-      <c r="N27" s="326"/>
-      <c r="O27" s="318" t="s">
+      <c r="C27" s="260"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="261"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="261"/>
+      <c r="M27" s="340"/>
+      <c r="N27" s="342"/>
+      <c r="O27" s="335" t="s">
         <v>722</v>
       </c>
-      <c r="P27" s="294" t="s">
+      <c r="P27" s="311" t="s">
         <v>728</v>
       </c>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="294" t="s">
+      <c r="Q27" s="312"/>
+      <c r="R27" s="313"/>
+      <c r="S27" s="311" t="s">
         <v>726</v>
       </c>
-      <c r="T27" s="295"/>
-      <c r="U27" s="295"/>
-      <c r="V27" s="296"/>
+      <c r="T27" s="312"/>
+      <c r="U27" s="312"/>
+      <c r="V27" s="313"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C28" s="291" t="s">
+      <c r="C28" s="308" t="s">
         <v>714</v>
       </c>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="293"/>
-      <c r="H28" s="291" t="s">
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="310"/>
+      <c r="H28" s="308" t="s">
         <v>718</v>
       </c>
-      <c r="I28" s="292"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="293"/>
-      <c r="M28" s="324"/>
-      <c r="N28" s="326"/>
-      <c r="O28" s="320"/>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="298"/>
-      <c r="R28" s="299"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="298"/>
-      <c r="U28" s="298"/>
-      <c r="V28" s="299"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="310"/>
+      <c r="M28" s="340"/>
+      <c r="N28" s="342"/>
+      <c r="O28" s="337"/>
+      <c r="P28" s="314"/>
+      <c r="Q28" s="315"/>
+      <c r="R28" s="316"/>
+      <c r="S28" s="314"/>
+      <c r="T28" s="315"/>
+      <c r="U28" s="315"/>
+      <c r="V28" s="316"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C29" s="291" t="s">
+      <c r="C29" s="308" t="s">
         <v>715</v>
       </c>
-      <c r="D29" s="292"/>
-      <c r="E29" s="292"/>
-      <c r="F29" s="293"/>
-      <c r="H29" s="291" t="s">
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="310"/>
+      <c r="H29" s="308" t="s">
         <v>719</v>
       </c>
-      <c r="I29" s="292"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="293"/>
-      <c r="M29" s="324"/>
-      <c r="N29" s="326"/>
-      <c r="O29" s="318" t="s">
+      <c r="I29" s="309"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="310"/>
+      <c r="M29" s="340"/>
+      <c r="N29" s="342"/>
+      <c r="O29" s="335" t="s">
         <v>723</v>
       </c>
-      <c r="P29" s="294" t="s">
+      <c r="P29" s="311" t="s">
         <v>739</v>
       </c>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="291" t="s">
+      <c r="Q29" s="312"/>
+      <c r="R29" s="313"/>
+      <c r="S29" s="308" t="s">
         <v>729</v>
       </c>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="293"/>
+      <c r="T29" s="309"/>
+      <c r="U29" s="309"/>
+      <c r="V29" s="310"/>
       <c r="W29" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C30" s="291" t="s">
+      <c r="C30" s="308" t="s">
         <v>716</v>
       </c>
-      <c r="D30" s="292"/>
-      <c r="E30" s="292"/>
-      <c r="F30" s="293"/>
-      <c r="M30" s="324"/>
-      <c r="N30" s="326"/>
-      <c r="O30" s="319"/>
-      <c r="P30" s="312"/>
-      <c r="Q30" s="327"/>
-      <c r="R30" s="313"/>
-      <c r="S30" s="291" t="s">
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="310"/>
+      <c r="M30" s="340"/>
+      <c r="N30" s="342"/>
+      <c r="O30" s="336"/>
+      <c r="P30" s="329"/>
+      <c r="Q30" s="334"/>
+      <c r="R30" s="330"/>
+      <c r="S30" s="308" t="s">
         <v>730</v>
       </c>
-      <c r="T30" s="292"/>
-      <c r="U30" s="292"/>
-      <c r="V30" s="293"/>
+      <c r="T30" s="309"/>
+      <c r="U30" s="309"/>
+      <c r="V30" s="310"/>
       <c r="W30" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C31" s="291" t="s">
+      <c r="C31" s="308" t="s">
         <v>748</v>
       </c>
-      <c r="D31" s="292"/>
-      <c r="E31" s="292"/>
-      <c r="F31" s="293"/>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="310"/>
       <c r="H31" t="s">
         <v>809</v>
       </c>
-      <c r="M31" s="324"/>
-      <c r="N31" s="326"/>
-      <c r="O31" s="319"/>
-      <c r="P31" s="312"/>
-      <c r="Q31" s="327"/>
-      <c r="R31" s="313"/>
-      <c r="S31" s="294" t="s">
+      <c r="M31" s="340"/>
+      <c r="N31" s="342"/>
+      <c r="O31" s="336"/>
+      <c r="P31" s="329"/>
+      <c r="Q31" s="334"/>
+      <c r="R31" s="330"/>
+      <c r="S31" s="311" t="s">
         <v>731</v>
       </c>
-      <c r="T31" s="295"/>
-      <c r="U31" s="295"/>
-      <c r="V31" s="296"/>
+      <c r="T31" s="312"/>
+      <c r="U31" s="312"/>
+      <c r="V31" s="313"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>810</v>
       </c>
-      <c r="M32" s="324"/>
-      <c r="N32" s="326"/>
-      <c r="O32" s="320"/>
-      <c r="P32" s="297"/>
-      <c r="Q32" s="298"/>
-      <c r="R32" s="299"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="298"/>
-      <c r="U32" s="298"/>
-      <c r="V32" s="299"/>
+      <c r="M32" s="340"/>
+      <c r="N32" s="342"/>
+      <c r="O32" s="337"/>
+      <c r="P32" s="314"/>
+      <c r="Q32" s="315"/>
+      <c r="R32" s="316"/>
+      <c r="S32" s="314"/>
+      <c r="T32" s="315"/>
+      <c r="U32" s="315"/>
+      <c r="V32" s="316"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M33" s="324"/>
-      <c r="N33" s="326"/>
-      <c r="O33" s="318" t="s">
+      <c r="M33" s="340"/>
+      <c r="N33" s="342"/>
+      <c r="O33" s="335" t="s">
         <v>724</v>
       </c>
-      <c r="P33" s="294" t="s">
+      <c r="P33" s="311" t="s">
         <v>733</v>
       </c>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="294" t="s">
+      <c r="Q33" s="312"/>
+      <c r="R33" s="313"/>
+      <c r="S33" s="311" t="s">
         <v>734</v>
       </c>
-      <c r="T33" s="295"/>
-      <c r="U33" s="295"/>
-      <c r="V33" s="296"/>
+      <c r="T33" s="312"/>
+      <c r="U33" s="312"/>
+      <c r="V33" s="313"/>
       <c r="W33" t="s">
         <v>747</v>
       </c>
@@ -37845,52 +37826,52 @@
       <c r="C34" t="s">
         <v>749</v>
       </c>
-      <c r="M34" s="324"/>
-      <c r="N34" s="326"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="297"/>
-      <c r="Q34" s="298"/>
-      <c r="R34" s="299"/>
-      <c r="S34" s="297"/>
-      <c r="T34" s="298"/>
-      <c r="U34" s="298"/>
-      <c r="V34" s="299"/>
+      <c r="M34" s="340"/>
+      <c r="N34" s="342"/>
+      <c r="O34" s="336"/>
+      <c r="P34" s="314"/>
+      <c r="Q34" s="315"/>
+      <c r="R34" s="316"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="315"/>
+      <c r="U34" s="315"/>
+      <c r="V34" s="316"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>750</v>
       </c>
-      <c r="M35" s="324"/>
-      <c r="N35" s="326"/>
-      <c r="O35" s="319"/>
-      <c r="P35" s="294" t="s">
+      <c r="M35" s="340"/>
+      <c r="N35" s="342"/>
+      <c r="O35" s="336"/>
+      <c r="P35" s="311" t="s">
         <v>735</v>
       </c>
-      <c r="Q35" s="295"/>
-      <c r="R35" s="296"/>
-      <c r="S35" s="291" t="s">
+      <c r="Q35" s="312"/>
+      <c r="R35" s="313"/>
+      <c r="S35" s="308" t="s">
         <v>736</v>
       </c>
-      <c r="T35" s="292"/>
-      <c r="U35" s="292"/>
-      <c r="V35" s="293"/>
+      <c r="T35" s="309"/>
+      <c r="U35" s="309"/>
+      <c r="V35" s="310"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>811</v>
       </c>
-      <c r="M36" s="324"/>
-      <c r="N36" s="326"/>
-      <c r="O36" s="319"/>
-      <c r="P36" s="312"/>
-      <c r="Q36" s="327"/>
-      <c r="R36" s="313"/>
-      <c r="S36" s="294" t="s">
+      <c r="M36" s="340"/>
+      <c r="N36" s="342"/>
+      <c r="O36" s="336"/>
+      <c r="P36" s="329"/>
+      <c r="Q36" s="334"/>
+      <c r="R36" s="330"/>
+      <c r="S36" s="311" t="s">
         <v>737</v>
       </c>
-      <c r="T36" s="295"/>
-      <c r="U36" s="295"/>
-      <c r="V36" s="296"/>
+      <c r="T36" s="312"/>
+      <c r="U36" s="312"/>
+      <c r="V36" s="313"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
@@ -37899,35 +37880,35 @@
       <c r="I37" t="s">
         <v>812</v>
       </c>
-      <c r="M37" s="324"/>
-      <c r="N37" s="326"/>
-      <c r="O37" s="319"/>
-      <c r="P37" s="297"/>
-      <c r="Q37" s="298"/>
-      <c r="R37" s="299"/>
-      <c r="S37" s="297"/>
-      <c r="T37" s="298"/>
-      <c r="U37" s="298"/>
-      <c r="V37" s="299"/>
+      <c r="M37" s="340"/>
+      <c r="N37" s="342"/>
+      <c r="O37" s="336"/>
+      <c r="P37" s="314"/>
+      <c r="Q37" s="315"/>
+      <c r="R37" s="316"/>
+      <c r="S37" s="314"/>
+      <c r="T37" s="315"/>
+      <c r="U37" s="315"/>
+      <c r="V37" s="316"/>
       <c r="X37" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M38" s="324"/>
-      <c r="N38" s="326"/>
-      <c r="O38" s="319"/>
-      <c r="P38" s="294" t="s">
+      <c r="M38" s="340"/>
+      <c r="N38" s="342"/>
+      <c r="O38" s="336"/>
+      <c r="P38" s="311" t="s">
         <v>740</v>
       </c>
-      <c r="Q38" s="295"/>
-      <c r="R38" s="296"/>
-      <c r="S38" s="291" t="s">
+      <c r="Q38" s="312"/>
+      <c r="R38" s="313"/>
+      <c r="S38" s="308" t="s">
         <v>729</v>
       </c>
-      <c r="T38" s="292"/>
-      <c r="U38" s="292"/>
-      <c r="V38" s="293"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="309"/>
+      <c r="V38" s="310"/>
       <c r="X38" t="s">
         <v>843</v>
       </c>
@@ -37939,18 +37920,18 @@
       <c r="I39" t="s">
         <v>821</v>
       </c>
-      <c r="M39" s="324"/>
-      <c r="N39" s="326"/>
-      <c r="O39" s="319"/>
-      <c r="P39" s="312"/>
-      <c r="Q39" s="327"/>
-      <c r="R39" s="313"/>
-      <c r="S39" s="291" t="s">
+      <c r="M39" s="340"/>
+      <c r="N39" s="342"/>
+      <c r="O39" s="336"/>
+      <c r="P39" s="329"/>
+      <c r="Q39" s="334"/>
+      <c r="R39" s="330"/>
+      <c r="S39" s="308" t="s">
         <v>744</v>
       </c>
-      <c r="T39" s="292"/>
-      <c r="U39" s="292"/>
-      <c r="V39" s="293"/>
+      <c r="T39" s="309"/>
+      <c r="U39" s="309"/>
+      <c r="V39" s="310"/>
       <c r="W39" t="s">
         <v>743</v>
       </c>
@@ -37962,30 +37943,30 @@
       <c r="I40" t="s">
         <v>822</v>
       </c>
-      <c r="M40" s="324"/>
-      <c r="N40" s="326"/>
-      <c r="O40" s="319"/>
-      <c r="P40" s="312"/>
-      <c r="Q40" s="327"/>
-      <c r="R40" s="313"/>
-      <c r="S40" s="294" t="s">
+      <c r="M40" s="340"/>
+      <c r="N40" s="342"/>
+      <c r="O40" s="336"/>
+      <c r="P40" s="329"/>
+      <c r="Q40" s="334"/>
+      <c r="R40" s="330"/>
+      <c r="S40" s="311" t="s">
         <v>745</v>
       </c>
-      <c r="T40" s="295"/>
-      <c r="U40" s="295"/>
-      <c r="V40" s="296"/>
+      <c r="T40" s="312"/>
+      <c r="U40" s="312"/>
+      <c r="V40" s="313"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
-      <c r="O41" s="319"/>
-      <c r="P41" s="297"/>
-      <c r="Q41" s="298"/>
-      <c r="R41" s="299"/>
-      <c r="S41" s="297"/>
-      <c r="T41" s="298"/>
-      <c r="U41" s="298"/>
-      <c r="V41" s="299"/>
+      <c r="M41" s="340"/>
+      <c r="N41" s="342"/>
+      <c r="O41" s="336"/>
+      <c r="P41" s="314"/>
+      <c r="Q41" s="315"/>
+      <c r="R41" s="316"/>
+      <c r="S41" s="314"/>
+      <c r="T41" s="315"/>
+      <c r="U41" s="315"/>
+      <c r="V41" s="316"/>
       <c r="X41" t="s">
         <v>825</v>
       </c>
@@ -37994,20 +37975,20 @@
       <c r="C42" t="s">
         <v>762</v>
       </c>
-      <c r="M42" s="243"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="320"/>
-      <c r="P42" s="291" t="s">
+      <c r="M42" s="260"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="337"/>
+      <c r="P42" s="308" t="s">
         <v>741</v>
       </c>
-      <c r="Q42" s="292"/>
-      <c r="R42" s="293"/>
-      <c r="S42" s="291" t="s">
+      <c r="Q42" s="309"/>
+      <c r="R42" s="310"/>
+      <c r="S42" s="308" t="s">
         <v>742</v>
       </c>
-      <c r="T42" s="292"/>
-      <c r="U42" s="292"/>
-      <c r="V42" s="293"/>
+      <c r="T42" s="309"/>
+      <c r="U42" s="309"/>
+      <c r="V42" s="310"/>
       <c r="X42" t="s">
         <v>826</v>
       </c>
@@ -38439,7 +38420,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="P114" t="s">
         <v>823</v>
       </c>
@@ -38447,7 +38428,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="P115" t="s">
         <v>832</v>
       </c>
@@ -38455,7 +38436,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -38494,45 +38475,45 @@
       <c r="AJ116" s="4"/>
       <c r="AK116" s="4"/>
     </row>
-    <row r="118" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M118" s="338" t="s">
+    <row r="118" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M118" s="352" t="s">
         <v>259</v>
       </c>
-      <c r="N118" s="339"/>
-      <c r="O118" s="339"/>
-      <c r="P118" s="339"/>
-      <c r="Q118" s="339"/>
-      <c r="R118" s="340"/>
-    </row>
-    <row r="119" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M119" s="341"/>
-      <c r="N119" s="342"/>
-      <c r="O119" s="342"/>
-      <c r="P119" s="342"/>
-      <c r="Q119" s="342"/>
-      <c r="R119" s="343"/>
-    </row>
-    <row r="120" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N118" s="353"/>
+      <c r="O118" s="353"/>
+      <c r="P118" s="353"/>
+      <c r="Q118" s="353"/>
+      <c r="R118" s="354"/>
+    </row>
+    <row r="119" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M119" s="355"/>
+      <c r="N119" s="356"/>
+      <c r="O119" s="356"/>
+      <c r="P119" s="356"/>
+      <c r="Q119" s="356"/>
+      <c r="R119" s="357"/>
+    </row>
+    <row r="120" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H120" s="101"/>
       <c r="I120" s="157"/>
       <c r="J120" s="157"/>
       <c r="K120" s="157"/>
       <c r="L120" s="139"/>
-      <c r="M120" s="341"/>
-      <c r="N120" s="342"/>
-      <c r="O120" s="342"/>
-      <c r="P120" s="342"/>
-      <c r="Q120" s="342"/>
-      <c r="R120" s="343"/>
-    </row>
-    <row r="121" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M120" s="355"/>
+      <c r="N120" s="356"/>
+      <c r="O120" s="356"/>
+      <c r="P120" s="356"/>
+      <c r="Q120" s="356"/>
+      <c r="R120" s="357"/>
+    </row>
+    <row r="121" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H121" s="6"/>
-      <c r="M121" s="341"/>
-      <c r="N121" s="342"/>
-      <c r="O121" s="342"/>
-      <c r="P121" s="342"/>
-      <c r="Q121" s="342"/>
-      <c r="R121" s="343"/>
+      <c r="M121" s="355"/>
+      <c r="N121" s="356"/>
+      <c r="O121" s="356"/>
+      <c r="P121" s="356"/>
+      <c r="Q121" s="356"/>
+      <c r="R121" s="357"/>
       <c r="S121" s="146"/>
       <c r="T121" s="112"/>
       <c r="U121" s="112"/>
@@ -38553,211 +38534,181 @@
       <c r="AJ121" s="112"/>
       <c r="AK121" s="112"/>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H122" s="6"/>
-      <c r="M122" s="344"/>
-      <c r="N122" s="345"/>
-      <c r="O122" s="345"/>
-      <c r="P122" s="345"/>
-      <c r="Q122" s="345"/>
-      <c r="R122" s="346"/>
+      <c r="M122" s="358"/>
+      <c r="N122" s="359"/>
+      <c r="O122" s="359"/>
+      <c r="P122" s="359"/>
+      <c r="Q122" s="359"/>
+      <c r="R122" s="360"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="321"/>
-      <c r="U122" s="321"/>
-      <c r="V122" s="321"/>
-      <c r="W122" s="321"/>
-      <c r="X122" s="321"/>
-      <c r="Y122" s="321"/>
-      <c r="Z122" s="321"/>
-      <c r="AA122" s="321"/>
-      <c r="AB122" s="321"/>
-      <c r="AC122" s="321"/>
-      <c r="AD122" s="321"/>
-      <c r="AE122" s="321"/>
-      <c r="AF122" s="321"/>
-      <c r="AG122" s="321"/>
-      <c r="AH122" s="321"/>
-      <c r="AI122" s="321"/>
-      <c r="AJ122" s="321"/>
       <c r="AK122" s="113"/>
-      <c r="AL122" s="321"/>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H123" s="6"/>
       <c r="P123" s="138"/>
       <c r="AK123" s="113"/>
-      <c r="AL123" s="321"/>
-    </row>
-    <row r="124" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H124" s="6"/>
-      <c r="N124" s="328" t="s">
+      <c r="N124" s="343" t="s">
         <v>859</v>
       </c>
-      <c r="O124" s="329"/>
-      <c r="P124" s="329"/>
-      <c r="Q124" s="330"/>
-      <c r="W124" s="394" t="s">
+      <c r="O124" s="344"/>
+      <c r="P124" s="344"/>
+      <c r="Q124" s="345"/>
+      <c r="W124" s="386" t="s">
         <v>904</v>
       </c>
-      <c r="X124" s="395"/>
-      <c r="Y124" s="396"/>
-      <c r="AA124" s="402" t="s">
+      <c r="X124" s="387"/>
+      <c r="Y124" s="388"/>
+      <c r="AA124" s="395" t="s">
         <v>905</v>
       </c>
-      <c r="AB124" s="403"/>
-      <c r="AC124" s="404"/>
-      <c r="AE124" s="264" t="s">
+      <c r="AB124" s="396"/>
+      <c r="AC124" s="397"/>
+      <c r="AE124" s="281" t="s">
         <v>906</v>
       </c>
-      <c r="AF124" s="410"/>
-      <c r="AG124" s="265"/>
+      <c r="AF124" s="403"/>
+      <c r="AG124" s="282"/>
       <c r="AK124" s="113"/>
-      <c r="AL124" s="321"/>
-    </row>
-    <row r="125" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H125" s="6"/>
-      <c r="N125" s="331"/>
-      <c r="O125" s="332"/>
-      <c r="P125" s="332"/>
-      <c r="Q125" s="333"/>
-      <c r="W125" s="397"/>
-      <c r="X125" s="337"/>
-      <c r="Y125" s="398"/>
-      <c r="AA125" s="405"/>
-      <c r="AB125" s="337"/>
-      <c r="AC125" s="406"/>
-      <c r="AE125" s="411"/>
-      <c r="AF125" s="325"/>
-      <c r="AG125" s="412"/>
+      <c r="N125" s="346"/>
+      <c r="O125" s="347"/>
+      <c r="P125" s="347"/>
+      <c r="Q125" s="348"/>
+      <c r="W125" s="389"/>
+      <c r="X125" s="390"/>
+      <c r="Y125" s="391"/>
+      <c r="AA125" s="398"/>
+      <c r="AB125" s="390"/>
+      <c r="AC125" s="399"/>
+      <c r="AE125" s="404"/>
+      <c r="AF125" s="341"/>
+      <c r="AG125" s="405"/>
       <c r="AK125" s="113"/>
-      <c r="AL125" s="321"/>
-    </row>
-    <row r="126" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H126" s="6"/>
       <c r="M126" s="141"/>
-      <c r="N126" s="334"/>
-      <c r="O126" s="335"/>
-      <c r="P126" s="335"/>
-      <c r="Q126" s="336"/>
+      <c r="N126" s="349"/>
+      <c r="O126" s="350"/>
+      <c r="P126" s="350"/>
+      <c r="Q126" s="351"/>
       <c r="R126" s="141"/>
       <c r="S126" s="6"/>
-      <c r="W126" s="397"/>
-      <c r="X126" s="337"/>
-      <c r="Y126" s="398"/>
-      <c r="AA126" s="405"/>
-      <c r="AB126" s="337"/>
-      <c r="AC126" s="406"/>
-      <c r="AE126" s="411"/>
-      <c r="AF126" s="325"/>
-      <c r="AG126" s="412"/>
+      <c r="W126" s="389"/>
+      <c r="X126" s="390"/>
+      <c r="Y126" s="391"/>
+      <c r="AA126" s="398"/>
+      <c r="AB126" s="390"/>
+      <c r="AC126" s="399"/>
+      <c r="AE126" s="404"/>
+      <c r="AF126" s="341"/>
+      <c r="AG126" s="405"/>
       <c r="AK126" s="113"/>
-      <c r="AL126" s="321"/>
-    </row>
-    <row r="127" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H127" s="6"/>
       <c r="M127" s="5"/>
       <c r="S127" s="5"/>
-      <c r="W127" s="399"/>
-      <c r="X127" s="400"/>
-      <c r="Y127" s="401"/>
-      <c r="AA127" s="407"/>
-      <c r="AB127" s="408"/>
-      <c r="AC127" s="409"/>
-      <c r="AE127" s="266"/>
-      <c r="AF127" s="413"/>
-      <c r="AG127" s="267"/>
+      <c r="W127" s="392"/>
+      <c r="X127" s="393"/>
+      <c r="Y127" s="394"/>
+      <c r="AA127" s="400"/>
+      <c r="AB127" s="401"/>
+      <c r="AC127" s="402"/>
+      <c r="AE127" s="283"/>
+      <c r="AF127" s="406"/>
+      <c r="AG127" s="284"/>
       <c r="AK127" s="113"/>
-      <c r="AL127" s="321"/>
-    </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H128" s="6"/>
-      <c r="K128" s="362" t="s">
+      <c r="K128" s="361" t="s">
         <v>860</v>
       </c>
-      <c r="L128" s="363"/>
-      <c r="M128" s="363"/>
-      <c r="N128" s="364"/>
-      <c r="Q128" s="241" t="s">
+      <c r="L128" s="362"/>
+      <c r="M128" s="362"/>
+      <c r="N128" s="363"/>
+      <c r="Q128" s="258" t="s">
         <v>861</v>
       </c>
-      <c r="R128" s="322"/>
-      <c r="S128" s="322"/>
-      <c r="T128" s="242"/>
+      <c r="R128" s="338"/>
+      <c r="S128" s="338"/>
+      <c r="T128" s="259"/>
       <c r="AK128" s="113"/>
-      <c r="AL128" s="321"/>
-    </row>
-    <row r="129" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H129" s="6"/>
       <c r="J129" s="141"/>
-      <c r="K129" s="365"/>
-      <c r="L129" s="366"/>
-      <c r="M129" s="366"/>
-      <c r="N129" s="367"/>
-      <c r="Q129" s="243"/>
-      <c r="R129" s="323"/>
-      <c r="S129" s="323"/>
-      <c r="T129" s="244"/>
+      <c r="K129" s="364"/>
+      <c r="L129" s="365"/>
+      <c r="M129" s="365"/>
+      <c r="N129" s="366"/>
+      <c r="Q129" s="260"/>
+      <c r="R129" s="339"/>
+      <c r="S129" s="339"/>
+      <c r="T129" s="261"/>
       <c r="AK129" s="113"/>
-      <c r="AL129" s="321"/>
-    </row>
-    <row r="130" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H130" s="6"/>
       <c r="J130" s="5"/>
       <c r="N130" s="5"/>
       <c r="S130" s="5"/>
       <c r="AK130" s="113"/>
-      <c r="AL130" s="321"/>
-    </row>
-    <row r="131" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H131" s="6"/>
-      <c r="I131" s="368" t="s">
+      <c r="I131" s="367" t="s">
         <v>583</v>
       </c>
-      <c r="J131" s="369"/>
-      <c r="M131" s="368" t="s">
+      <c r="J131" s="368"/>
+      <c r="M131" s="367" t="s">
         <v>713</v>
       </c>
-      <c r="N131" s="369"/>
-      <c r="R131" s="349" t="s">
+      <c r="N131" s="368"/>
+      <c r="R131" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="S131" s="350"/>
+      <c r="S131" s="374"/>
       <c r="AK131" s="113"/>
-      <c r="AL131" s="321"/>
-    </row>
-    <row r="132" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H132" s="6"/>
-      <c r="I132" s="370" t="s">
+      <c r="I132" s="369" t="s">
         <v>862</v>
       </c>
-      <c r="J132" s="371"/>
-      <c r="M132" s="372" t="s">
+      <c r="J132" s="370"/>
+      <c r="M132" s="371" t="s">
         <v>863</v>
       </c>
-      <c r="N132" s="373"/>
-      <c r="R132" s="352" t="s">
+      <c r="N132" s="372"/>
+      <c r="R132" s="375" t="s">
         <v>865</v>
       </c>
-      <c r="S132" s="238"/>
+      <c r="S132" s="255"/>
       <c r="AK132" s="113"/>
-      <c r="AL132" s="321"/>
-    </row>
-    <row r="133" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H133" s="6"/>
-      <c r="I133" s="372" t="s">
+      <c r="I133" s="371" t="s">
         <v>860</v>
       </c>
-      <c r="J133" s="373"/>
-      <c r="M133" s="347"/>
-      <c r="N133" s="348"/>
-      <c r="R133" s="239" t="s">
+      <c r="J133" s="372"/>
+      <c r="N133" s="6"/>
+      <c r="R133" s="256" t="s">
         <v>866</v>
       </c>
-      <c r="S133" s="240"/>
+      <c r="S133" s="257"/>
       <c r="AK133" s="113"/>
-      <c r="AL133" s="321"/>
-    </row>
-    <row r="134" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H134" s="5"/>
       <c r="I134" s="142"/>
       <c r="J134" s="5"/>
@@ -38767,202 +38718,178 @@
       <c r="N134" s="6"/>
       <c r="S134" s="6"/>
       <c r="AK134" s="113"/>
-      <c r="AL134" s="321"/>
-    </row>
-    <row r="135" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="5:37" x14ac:dyDescent="0.3">
       <c r="S135" s="6"/>
       <c r="AK135" s="113"/>
-      <c r="AL135" s="321"/>
-    </row>
-    <row r="136" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="5:37" x14ac:dyDescent="0.3">
       <c r="S136" s="6"/>
       <c r="AK136" s="113"/>
-      <c r="AL136" s="321"/>
-    </row>
-    <row r="137" spans="5:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="5:37" x14ac:dyDescent="0.3">
       <c r="S137" s="5"/>
       <c r="AK137" s="113"/>
-      <c r="AL137" s="321"/>
-    </row>
-    <row r="138" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="G138" s="338" t="s">
+    </row>
+    <row r="138" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="G138" s="352" t="s">
         <v>853</v>
       </c>
-      <c r="H138" s="339"/>
-      <c r="I138" s="339"/>
-      <c r="J138" s="339"/>
-      <c r="K138" s="339"/>
-      <c r="L138" s="340"/>
-      <c r="P138" s="338" t="s">
+      <c r="H138" s="353"/>
+      <c r="I138" s="353"/>
+      <c r="J138" s="353"/>
+      <c r="K138" s="353"/>
+      <c r="L138" s="354"/>
+      <c r="P138" s="352" t="s">
         <v>854</v>
       </c>
-      <c r="Q138" s="339"/>
-      <c r="R138" s="339"/>
-      <c r="S138" s="339"/>
-      <c r="T138" s="339"/>
-      <c r="U138" s="340"/>
+      <c r="Q138" s="353"/>
+      <c r="R138" s="353"/>
+      <c r="S138" s="353"/>
+      <c r="T138" s="353"/>
+      <c r="U138" s="354"/>
       <c r="AK138" s="113"/>
-      <c r="AL138" s="321"/>
-    </row>
-    <row r="139" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="G139" s="341"/>
-      <c r="H139" s="342"/>
-      <c r="I139" s="342"/>
-      <c r="J139" s="342"/>
-      <c r="K139" s="342"/>
-      <c r="L139" s="343"/>
+    </row>
+    <row r="139" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="G139" s="355"/>
+      <c r="H139" s="356"/>
+      <c r="I139" s="356"/>
+      <c r="J139" s="356"/>
+      <c r="K139" s="356"/>
+      <c r="L139" s="357"/>
       <c r="N139" s="101"/>
       <c r="O139" s="139"/>
-      <c r="P139" s="341"/>
-      <c r="Q139" s="342"/>
-      <c r="R139" s="342"/>
-      <c r="S139" s="342"/>
-      <c r="T139" s="342"/>
-      <c r="U139" s="343"/>
+      <c r="P139" s="355"/>
+      <c r="Q139" s="356"/>
+      <c r="R139" s="356"/>
+      <c r="S139" s="356"/>
+      <c r="T139" s="356"/>
+      <c r="U139" s="357"/>
       <c r="AK139" s="113"/>
-      <c r="AL139" s="321"/>
-    </row>
-    <row r="140" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="G140" s="341"/>
-      <c r="H140" s="342"/>
-      <c r="I140" s="342"/>
-      <c r="J140" s="342"/>
-      <c r="K140" s="342"/>
-      <c r="L140" s="343"/>
+    </row>
+    <row r="140" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="G140" s="355"/>
+      <c r="H140" s="356"/>
+      <c r="I140" s="356"/>
+      <c r="J140" s="356"/>
+      <c r="K140" s="356"/>
+      <c r="L140" s="357"/>
       <c r="N140" s="6"/>
-      <c r="P140" s="341"/>
-      <c r="Q140" s="342"/>
-      <c r="R140" s="342"/>
-      <c r="S140" s="342"/>
-      <c r="T140" s="342"/>
-      <c r="U140" s="343"/>
+      <c r="P140" s="355"/>
+      <c r="Q140" s="356"/>
+      <c r="R140" s="356"/>
+      <c r="S140" s="356"/>
+      <c r="T140" s="356"/>
+      <c r="U140" s="357"/>
       <c r="AK140" s="113"/>
-      <c r="AL140" s="321"/>
-    </row>
-    <row r="141" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="G141" s="341"/>
-      <c r="H141" s="342"/>
-      <c r="I141" s="342"/>
-      <c r="J141" s="342"/>
-      <c r="K141" s="342"/>
-      <c r="L141" s="343"/>
+    </row>
+    <row r="141" spans="5:37" x14ac:dyDescent="0.3">
+      <c r="G141" s="355"/>
+      <c r="H141" s="356"/>
+      <c r="I141" s="356"/>
+      <c r="J141" s="356"/>
+      <c r="K141" s="356"/>
+      <c r="L141" s="357"/>
       <c r="N141" s="6"/>
-      <c r="O141" s="321"/>
-      <c r="P141" s="341"/>
-      <c r="Q141" s="342"/>
-      <c r="R141" s="342"/>
-      <c r="S141" s="342"/>
-      <c r="T141" s="342"/>
-      <c r="U141" s="343"/>
+      <c r="P141" s="355"/>
+      <c r="Q141" s="356"/>
+      <c r="R141" s="356"/>
+      <c r="S141" s="356"/>
+      <c r="T141" s="356"/>
+      <c r="U141" s="357"/>
       <c r="AK141" s="113"/>
-      <c r="AL141" s="321"/>
-    </row>
-    <row r="142" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G142" s="344"/>
-      <c r="H142" s="345"/>
-      <c r="I142" s="345"/>
-      <c r="J142" s="345"/>
-      <c r="K142" s="345"/>
-      <c r="L142" s="346"/>
+    </row>
+    <row r="142" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="358"/>
+      <c r="H142" s="359"/>
+      <c r="I142" s="359"/>
+      <c r="J142" s="359"/>
+      <c r="K142" s="359"/>
+      <c r="L142" s="360"/>
       <c r="N142" s="6"/>
-      <c r="O142" s="321"/>
-      <c r="P142" s="344"/>
-      <c r="Q142" s="345"/>
-      <c r="R142" s="345"/>
-      <c r="S142" s="345"/>
-      <c r="T142" s="345"/>
-      <c r="U142" s="346"/>
+      <c r="P142" s="358"/>
+      <c r="Q142" s="359"/>
+      <c r="R142" s="359"/>
+      <c r="S142" s="359"/>
+      <c r="T142" s="359"/>
+      <c r="U142" s="360"/>
       <c r="AK142" s="113"/>
-      <c r="AL142" s="321"/>
-    </row>
-    <row r="143" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H143" s="138"/>
       <c r="L143" s="138"/>
       <c r="N143" s="5"/>
       <c r="S143" s="138"/>
       <c r="AK143" s="113"/>
-      <c r="AL143" s="321"/>
-    </row>
-    <row r="144" spans="5:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="241" t="s">
+    </row>
+    <row r="144" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="258" t="s">
         <v>855</v>
       </c>
-      <c r="F144" s="322"/>
-      <c r="G144" s="322"/>
-      <c r="H144" s="242"/>
-      <c r="K144" s="328" t="s">
+      <c r="F144" s="338"/>
+      <c r="G144" s="338"/>
+      <c r="H144" s="259"/>
+      <c r="K144" s="343" t="s">
         <v>858</v>
       </c>
-      <c r="L144" s="329"/>
-      <c r="M144" s="329"/>
-      <c r="N144" s="330"/>
-      <c r="Q144" s="328" t="s">
+      <c r="L144" s="344"/>
+      <c r="M144" s="344"/>
+      <c r="N144" s="345"/>
+      <c r="Q144" s="343" t="s">
         <v>872</v>
       </c>
-      <c r="R144" s="329"/>
-      <c r="S144" s="329"/>
-      <c r="T144" s="330"/>
-      <c r="Z144" s="378"/>
-      <c r="AA144" s="378"/>
-      <c r="AB144" s="378"/>
-      <c r="AC144" s="378"/>
-      <c r="AD144" s="378"/>
-      <c r="AE144" s="378"/>
-      <c r="AF144" s="378"/>
-      <c r="AG144" s="378"/>
-      <c r="AH144" s="378"/>
-      <c r="AI144" s="378"/>
-      <c r="AJ144" s="378"/>
+      <c r="R144" s="344"/>
+      <c r="S144" s="344"/>
+      <c r="T144" s="345"/>
+      <c r="Z144" s="173"/>
+      <c r="AA144" s="173"/>
+      <c r="AB144" s="173"/>
+      <c r="AC144" s="173"/>
+      <c r="AD144" s="173"/>
+      <c r="AE144" s="173"/>
+      <c r="AF144" s="173"/>
+      <c r="AG144" s="173"/>
+      <c r="AH144" s="173"/>
+      <c r="AI144" s="173"/>
+      <c r="AJ144" s="173"/>
       <c r="AK144" s="113"/>
-      <c r="AL144" s="321"/>
-    </row>
-    <row r="145" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="324"/>
-      <c r="F145" s="325"/>
-      <c r="G145" s="325"/>
-      <c r="H145" s="326"/>
-      <c r="K145" s="331"/>
-      <c r="L145" s="332"/>
-      <c r="M145" s="332"/>
-      <c r="N145" s="333"/>
-      <c r="Q145" s="331"/>
-      <c r="R145" s="332"/>
-      <c r="S145" s="332"/>
-      <c r="T145" s="333"/>
-      <c r="Y145" s="382"/>
-      <c r="Z145" s="321"/>
-      <c r="AA145" s="321"/>
-      <c r="AB145" s="321"/>
-      <c r="AC145" s="321"/>
-      <c r="AD145" s="321"/>
-      <c r="AE145" s="321"/>
-      <c r="AF145" s="321"/>
-      <c r="AG145" s="321"/>
-      <c r="AH145" s="321"/>
-      <c r="AI145" s="321"/>
-      <c r="AJ145" s="380"/>
+    </row>
+    <row r="145" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="340"/>
+      <c r="F145" s="341"/>
+      <c r="G145" s="341"/>
+      <c r="H145" s="342"/>
+      <c r="K145" s="346"/>
+      <c r="L145" s="347"/>
+      <c r="M145" s="347"/>
+      <c r="N145" s="348"/>
+      <c r="Q145" s="346"/>
+      <c r="R145" s="347"/>
+      <c r="S145" s="347"/>
+      <c r="T145" s="348"/>
+      <c r="Y145" s="178"/>
+      <c r="AJ145" s="177"/>
       <c r="AK145" s="113"/>
-      <c r="AL145" s="321"/>
-    </row>
-    <row r="146" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="E146" s="243"/>
-      <c r="F146" s="323"/>
-      <c r="G146" s="323"/>
-      <c r="H146" s="244"/>
-      <c r="K146" s="334"/>
-      <c r="L146" s="335"/>
-      <c r="M146" s="335"/>
-      <c r="N146" s="336"/>
+    </row>
+    <row r="146" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="E146" s="260"/>
+      <c r="F146" s="339"/>
+      <c r="G146" s="339"/>
+      <c r="H146" s="261"/>
+      <c r="K146" s="349"/>
+      <c r="L146" s="350"/>
+      <c r="M146" s="350"/>
+      <c r="N146" s="351"/>
       <c r="P146" s="141"/>
-      <c r="Q146" s="334"/>
-      <c r="R146" s="335"/>
-      <c r="S146" s="335"/>
-      <c r="T146" s="336"/>
+      <c r="Q146" s="349"/>
+      <c r="R146" s="350"/>
+      <c r="S146" s="350"/>
+      <c r="T146" s="351"/>
       <c r="U146" s="101"/>
       <c r="V146" s="157"/>
       <c r="W146" s="157"/>
       <c r="X146" s="157"/>
-      <c r="Y146" s="385"/>
+      <c r="Y146" s="181"/>
       <c r="Z146" s="157"/>
       <c r="AA146" s="157"/>
       <c r="AB146" s="157"/>
@@ -38970,72 +38897,59 @@
       <c r="AD146" s="157"/>
       <c r="AE146" s="157"/>
       <c r="AF146" s="6"/>
-      <c r="AJ146" s="382"/>
+      <c r="AJ146" s="178"/>
       <c r="AK146" s="113"/>
-      <c r="AL146" s="321"/>
-    </row>
-    <row r="147" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="2:37" x14ac:dyDescent="0.3">
       <c r="G147" s="138"/>
-      <c r="K147" s="385"/>
+      <c r="K147" s="181"/>
       <c r="L147" s="157"/>
       <c r="M147" s="101"/>
       <c r="P147" s="5"/>
-      <c r="V147" s="321"/>
-      <c r="W147" s="321"/>
-      <c r="Y147" s="382"/>
-      <c r="Z147" s="321"/>
-      <c r="AA147" s="321"/>
+      <c r="Y147" s="178"/>
       <c r="AF147" s="5"/>
-      <c r="AJ147" s="382"/>
+      <c r="AJ147" s="178"/>
       <c r="AK147" s="113"/>
-      <c r="AL147" s="321"/>
-    </row>
-    <row r="148" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="E148" s="241" t="s">
+    </row>
+    <row r="148" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="E148" s="258" t="s">
         <v>867</v>
       </c>
-      <c r="F148" s="322"/>
-      <c r="G148" s="322"/>
-      <c r="H148" s="242"/>
-      <c r="K148" s="382"/>
-      <c r="L148" s="321"/>
+      <c r="F148" s="338"/>
+      <c r="G148" s="338"/>
+      <c r="H148" s="259"/>
+      <c r="K148" s="178"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="241" t="s">
+      <c r="N148" s="258" t="s">
         <v>873</v>
       </c>
-      <c r="O148" s="322"/>
-      <c r="P148" s="322"/>
-      <c r="Q148" s="242"/>
-      <c r="R148" s="321"/>
-      <c r="S148" s="321"/>
-      <c r="W148" s="321"/>
-      <c r="Y148" s="382"/>
-      <c r="Z148" s="321"/>
-      <c r="AD148" s="241" t="s">
+      <c r="O148" s="338"/>
+      <c r="P148" s="338"/>
+      <c r="Q148" s="259"/>
+      <c r="Y148" s="178"/>
+      <c r="AD148" s="258" t="s">
         <v>874</v>
       </c>
-      <c r="AE148" s="322"/>
-      <c r="AF148" s="322"/>
-      <c r="AG148" s="242"/>
-      <c r="AJ148" s="382"/>
+      <c r="AE148" s="338"/>
+      <c r="AF148" s="338"/>
+      <c r="AG148" s="259"/>
+      <c r="AJ148" s="178"/>
       <c r="AK148" s="113"/>
-      <c r="AL148" s="321"/>
-    </row>
-    <row r="149" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B149" s="101"/>
       <c r="C149" s="157"/>
       <c r="D149" s="139"/>
-      <c r="E149" s="243"/>
-      <c r="F149" s="323"/>
-      <c r="G149" s="323"/>
-      <c r="H149" s="244"/>
-      <c r="K149" s="382"/>
-      <c r="L149" s="321"/>
+      <c r="E149" s="260"/>
+      <c r="F149" s="339"/>
+      <c r="G149" s="339"/>
+      <c r="H149" s="261"/>
+      <c r="K149" s="178"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="243"/>
-      <c r="O149" s="323"/>
-      <c r="P149" s="323"/>
-      <c r="Q149" s="244"/>
+      <c r="N149" s="260"/>
+      <c r="O149" s="339"/>
+      <c r="P149" s="339"/>
+      <c r="Q149" s="261"/>
       <c r="R149" s="101"/>
       <c r="S149" s="157"/>
       <c r="T149" s="157"/>
@@ -39043,872 +38957,712 @@
       <c r="V149" s="157"/>
       <c r="W149" s="157"/>
       <c r="X149" s="157"/>
-      <c r="Y149" s="387"/>
-      <c r="Z149" s="321"/>
-      <c r="AD149" s="243"/>
-      <c r="AE149" s="323"/>
-      <c r="AF149" s="323"/>
-      <c r="AG149" s="244"/>
-      <c r="AJ149" s="382"/>
+      <c r="Y149" s="183"/>
+      <c r="AD149" s="260"/>
+      <c r="AE149" s="339"/>
+      <c r="AF149" s="339"/>
+      <c r="AG149" s="261"/>
+      <c r="AJ149" s="178"/>
       <c r="AK149" s="113"/>
-      <c r="AL149" s="321"/>
-    </row>
-    <row r="150" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B150" s="6"/>
       <c r="G150" s="138"/>
-      <c r="K150" s="382"/>
-      <c r="L150" s="321"/>
+      <c r="K150" s="178"/>
       <c r="M150" s="6"/>
       <c r="P150" s="138"/>
-      <c r="R150" s="321"/>
-      <c r="S150" s="321"/>
-      <c r="T150" s="321"/>
-      <c r="U150" s="321"/>
-      <c r="W150" s="321"/>
-      <c r="X150" s="321"/>
-      <c r="Y150" s="388"/>
-      <c r="Z150" s="321"/>
+      <c r="Y150" s="184"/>
       <c r="AF150" s="5"/>
-      <c r="AJ150" s="382"/>
+      <c r="AJ150" s="178"/>
       <c r="AK150" s="113"/>
-      <c r="AL150" s="321"/>
-    </row>
-    <row r="151" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B151" s="6"/>
-      <c r="E151" s="241" t="s">
+      <c r="E151" s="258" t="s">
         <v>868</v>
       </c>
-      <c r="F151" s="322"/>
-      <c r="G151" s="322"/>
-      <c r="H151" s="242"/>
-      <c r="K151" s="382"/>
-      <c r="L151" s="321"/>
+      <c r="F151" s="338"/>
+      <c r="G151" s="338"/>
+      <c r="H151" s="259"/>
+      <c r="K151" s="178"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="241" t="s">
+      <c r="N151" s="258" t="s">
         <v>875</v>
       </c>
-      <c r="O151" s="322"/>
-      <c r="P151" s="322"/>
-      <c r="Q151" s="242"/>
-      <c r="R151" s="321"/>
-      <c r="S151" s="321"/>
-      <c r="U151" s="321"/>
+      <c r="O151" s="338"/>
+      <c r="P151" s="338"/>
+      <c r="Q151" s="259"/>
       <c r="V151" s="4"/>
-      <c r="W151" s="241" t="s">
+      <c r="W151" s="258" t="s">
         <v>886</v>
       </c>
-      <c r="X151" s="322"/>
-      <c r="Y151" s="322"/>
-      <c r="Z151" s="242"/>
+      <c r="X151" s="338"/>
+      <c r="Y151" s="338"/>
+      <c r="Z151" s="259"/>
       <c r="AA151" s="4"/>
-      <c r="AD151" s="241" t="s">
+      <c r="AD151" s="258" t="s">
         <v>879</v>
       </c>
-      <c r="AE151" s="322"/>
-      <c r="AF151" s="322"/>
-      <c r="AG151" s="242"/>
-      <c r="AH151" s="383"/>
-      <c r="AI151" s="378"/>
-      <c r="AJ151" s="382"/>
+      <c r="AE151" s="338"/>
+      <c r="AF151" s="338"/>
+      <c r="AG151" s="259"/>
+      <c r="AH151" s="179"/>
+      <c r="AI151" s="173"/>
+      <c r="AJ151" s="178"/>
       <c r="AK151" s="113"/>
-      <c r="AL151" s="321"/>
-    </row>
-    <row r="152" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B152" s="6"/>
       <c r="C152" s="101"/>
       <c r="D152" s="157"/>
-      <c r="E152" s="243"/>
-      <c r="F152" s="323"/>
-      <c r="G152" s="323"/>
-      <c r="H152" s="244"/>
+      <c r="E152" s="260"/>
+      <c r="F152" s="339"/>
+      <c r="G152" s="339"/>
+      <c r="H152" s="261"/>
       <c r="I152" s="157"/>
       <c r="J152" s="157"/>
-      <c r="K152" s="387"/>
-      <c r="L152" s="321"/>
+      <c r="K152" s="183"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="243"/>
-      <c r="O152" s="323"/>
-      <c r="P152" s="323"/>
-      <c r="Q152" s="244"/>
-      <c r="S152" s="321"/>
+      <c r="N152" s="260"/>
+      <c r="O152" s="339"/>
+      <c r="P152" s="339"/>
+      <c r="Q152" s="261"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="243"/>
-      <c r="X152" s="323"/>
-      <c r="Y152" s="323"/>
-      <c r="Z152" s="244"/>
+      <c r="W152" s="260"/>
+      <c r="X152" s="339"/>
+      <c r="Y152" s="339"/>
+      <c r="Z152" s="261"/>
       <c r="AB152" s="6"/>
-      <c r="AD152" s="243"/>
-      <c r="AE152" s="323"/>
-      <c r="AF152" s="323"/>
-      <c r="AG152" s="244"/>
+      <c r="AD152" s="260"/>
+      <c r="AE152" s="339"/>
+      <c r="AF152" s="339"/>
+      <c r="AG152" s="261"/>
       <c r="AH152" s="6"/>
-      <c r="AI152" s="380"/>
-      <c r="AJ152" s="382"/>
+      <c r="AI152" s="177"/>
+      <c r="AJ152" s="178"/>
       <c r="AK152" s="113"/>
-      <c r="AL152" s="321"/>
-    </row>
-    <row r="153" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
-      <c r="K153" s="387"/>
-      <c r="L153" s="321"/>
+      <c r="K153" s="183"/>
       <c r="M153" s="6"/>
       <c r="O153" s="6"/>
       <c r="Q153" s="6"/>
-      <c r="T153" s="321"/>
-      <c r="U153" s="321"/>
       <c r="V153" s="5"/>
       <c r="Y153" s="138"/>
       <c r="AB153" s="5"/>
-      <c r="AE153" s="321"/>
       <c r="AF153" s="5"/>
-      <c r="AI153" s="382"/>
-      <c r="AJ153" s="382"/>
+      <c r="AI153" s="178"/>
+      <c r="AJ153" s="178"/>
       <c r="AK153" s="113"/>
-      <c r="AL153" s="321"/>
-    </row>
-    <row r="154" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="349" t="s">
+      <c r="D154" s="373" t="s">
         <v>869</v>
       </c>
-      <c r="E154" s="350"/>
-      <c r="H154" s="237" t="s">
+      <c r="E154" s="374"/>
+      <c r="H154" s="254" t="s">
         <v>871</v>
       </c>
-      <c r="I154" s="238"/>
-      <c r="K154" s="387"/>
-      <c r="L154" s="321"/>
+      <c r="I154" s="255"/>
+      <c r="K154" s="183"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="352" t="s">
+      <c r="N154" s="375" t="s">
         <v>876</v>
       </c>
-      <c r="O154" s="238"/>
-      <c r="P154" s="321"/>
+      <c r="O154" s="255"/>
       <c r="Q154" s="169"/>
-      <c r="R154" s="349" t="s">
+      <c r="R154" s="373" t="s">
         <v>729</v>
       </c>
-      <c r="S154" s="350"/>
-      <c r="U154" s="237" t="s">
+      <c r="S154" s="374"/>
+      <c r="U154" s="254" t="s">
         <v>887</v>
       </c>
-      <c r="V154" s="238"/>
-      <c r="W154" s="347"/>
-      <c r="X154" s="237" t="s">
+      <c r="V154" s="255"/>
+      <c r="X154" s="254" t="s">
         <v>888</v>
       </c>
-      <c r="Y154" s="238"/>
-      <c r="AA154" s="237" t="s">
+      <c r="Y154" s="255"/>
+      <c r="AA154" s="254" t="s">
         <v>889</v>
       </c>
-      <c r="AB154" s="238"/>
-      <c r="AD154" s="241" t="s">
+      <c r="AB154" s="255"/>
+      <c r="AD154" s="258" t="s">
         <v>883</v>
       </c>
-      <c r="AE154" s="322"/>
-      <c r="AF154" s="322"/>
-      <c r="AG154" s="242"/>
-      <c r="AI154" s="382"/>
-      <c r="AJ154" s="382"/>
+      <c r="AE154" s="338"/>
+      <c r="AF154" s="338"/>
+      <c r="AG154" s="259"/>
+      <c r="AI154" s="178"/>
+      <c r="AJ154" s="178"/>
       <c r="AK154" s="113"/>
-      <c r="AL154" s="321"/>
-    </row>
-    <row r="155" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B155" s="6"/>
       <c r="C155" s="157"/>
-      <c r="D155" s="351" t="s">
+      <c r="D155" s="380" t="s">
         <v>870</v>
       </c>
-      <c r="E155" s="350"/>
-      <c r="H155" s="239"/>
-      <c r="I155" s="240"/>
+      <c r="E155" s="374"/>
+      <c r="H155" s="256"/>
+      <c r="I155" s="257"/>
       <c r="J155" s="157"/>
-      <c r="K155" s="382"/>
-      <c r="L155" s="321"/>
+      <c r="K155" s="178"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="239"/>
-      <c r="O155" s="240"/>
+      <c r="N155" s="256"/>
+      <c r="O155" s="257"/>
       <c r="Q155" s="139"/>
-      <c r="R155" s="351" t="s">
+      <c r="R155" s="380" t="s">
         <v>730</v>
       </c>
-      <c r="S155" s="350"/>
-      <c r="U155" s="239"/>
-      <c r="V155" s="240"/>
-      <c r="W155" s="347"/>
-      <c r="X155" s="239"/>
-      <c r="Y155" s="240"/>
-      <c r="AA155" s="239"/>
-      <c r="AB155" s="240"/>
-      <c r="AD155" s="243"/>
-      <c r="AE155" s="323"/>
-      <c r="AF155" s="323"/>
-      <c r="AG155" s="244"/>
-      <c r="AI155" s="382"/>
-      <c r="AJ155" s="382"/>
+      <c r="S155" s="374"/>
+      <c r="U155" s="256"/>
+      <c r="V155" s="257"/>
+      <c r="X155" s="256"/>
+      <c r="Y155" s="257"/>
+      <c r="AA155" s="256"/>
+      <c r="AB155" s="257"/>
+      <c r="AD155" s="260"/>
+      <c r="AE155" s="339"/>
+      <c r="AF155" s="339"/>
+      <c r="AG155" s="261"/>
+      <c r="AI155" s="178"/>
+      <c r="AJ155" s="178"/>
       <c r="AK155" s="113"/>
-      <c r="AL155" s="321"/>
-    </row>
-    <row r="156" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B156" s="6"/>
-      <c r="D156" s="385"/>
-      <c r="E156" s="377"/>
-      <c r="F156" s="378"/>
-      <c r="G156" s="378"/>
-      <c r="H156" s="379"/>
-      <c r="I156" s="377"/>
-      <c r="J156" s="378"/>
-      <c r="K156" s="389"/>
-      <c r="L156" s="321"/>
+      <c r="D156" s="181"/>
+      <c r="E156" s="175"/>
+      <c r="F156" s="173"/>
+      <c r="G156" s="173"/>
+      <c r="H156" s="176"/>
+      <c r="I156" s="175"/>
+      <c r="J156" s="173"/>
+      <c r="K156" s="180"/>
       <c r="M156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="R156" s="239" t="s">
+      <c r="R156" s="256" t="s">
         <v>731</v>
       </c>
-      <c r="S156" s="240"/>
-      <c r="T156" s="321"/>
+      <c r="S156" s="257"/>
       <c r="V156" s="138"/>
-      <c r="W156" s="347"/>
       <c r="Y156" s="138"/>
       <c r="AB156" s="138"/>
-      <c r="AD156" s="347"/>
       <c r="AE156" s="138"/>
-      <c r="AI156" s="382"/>
-      <c r="AJ156" s="382"/>
+      <c r="AI156" s="178"/>
+      <c r="AJ156" s="178"/>
       <c r="AK156" s="113"/>
-      <c r="AL156" s="321"/>
-    </row>
-    <row r="157" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B157" s="6"/>
       <c r="M157" s="6"/>
       <c r="O157" s="5"/>
       <c r="R157" s="4"/>
       <c r="S157" s="6"/>
-      <c r="T157" s="321"/>
-      <c r="U157" s="349" t="s">
+      <c r="U157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="V157" s="350"/>
-      <c r="X157" s="349" t="s">
+      <c r="V157" s="374"/>
+      <c r="X157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="Y157" s="350"/>
-      <c r="AA157" s="349" t="s">
+      <c r="Y157" s="374"/>
+      <c r="AA157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="AB157" s="350"/>
-      <c r="AD157" s="349" t="s">
+      <c r="AB157" s="374"/>
+      <c r="AD157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="AE157" s="357"/>
-      <c r="AF157" s="350"/>
-      <c r="AI157" s="382"/>
-      <c r="AJ157" s="382"/>
+      <c r="AE157" s="381"/>
+      <c r="AF157" s="374"/>
+      <c r="AI157" s="178"/>
+      <c r="AJ157" s="178"/>
       <c r="AK157" s="113"/>
-      <c r="AL157" s="321"/>
-    </row>
-    <row r="158" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="142"/>
-      <c r="F158" s="241" t="s">
+      <c r="F158" s="258" t="s">
         <v>880</v>
       </c>
-      <c r="G158" s="242"/>
+      <c r="G158" s="259"/>
       <c r="H158" s="140"/>
-      <c r="I158" s="353" t="s">
+      <c r="I158" s="376" t="s">
         <v>881</v>
       </c>
-      <c r="J158" s="354"/>
+      <c r="J158" s="377"/>
       <c r="K158" s="5"/>
-      <c r="L158" s="358" t="s">
+      <c r="L158" s="382" t="s">
         <v>885</v>
       </c>
-      <c r="M158" s="359"/>
+      <c r="M158" s="383"/>
       <c r="P158" s="6"/>
       <c r="R158" s="6"/>
-      <c r="U158" s="351" t="s">
+      <c r="U158" s="380" t="s">
         <v>890</v>
       </c>
-      <c r="V158" s="350"/>
-      <c r="X158" s="351" t="s">
+      <c r="V158" s="374"/>
+      <c r="X158" s="380" t="s">
         <v>891</v>
       </c>
-      <c r="Y158" s="350"/>
-      <c r="AA158" s="351" t="s">
+      <c r="Y158" s="374"/>
+      <c r="AA158" s="380" t="s">
         <v>892</v>
       </c>
-      <c r="AB158" s="350"/>
-      <c r="AD158" s="351" t="s">
+      <c r="AB158" s="374"/>
+      <c r="AD158" s="380" t="s">
         <v>884</v>
       </c>
-      <c r="AE158" s="357"/>
-      <c r="AF158" s="350"/>
-      <c r="AI158" s="382"/>
-      <c r="AJ158" s="382"/>
+      <c r="AE158" s="381"/>
+      <c r="AF158" s="374"/>
+      <c r="AI158" s="178"/>
+      <c r="AJ158" s="178"/>
       <c r="AK158" s="113"/>
-      <c r="AL158" s="321"/>
-    </row>
-    <row r="159" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="F159" s="243"/>
-      <c r="G159" s="244"/>
-      <c r="I159" s="355"/>
-      <c r="J159" s="356"/>
-      <c r="L159" s="360"/>
-      <c r="M159" s="361"/>
-      <c r="O159" s="241" t="s">
+    </row>
+    <row r="159" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="F159" s="260"/>
+      <c r="G159" s="261"/>
+      <c r="I159" s="378"/>
+      <c r="J159" s="379"/>
+      <c r="L159" s="384"/>
+      <c r="M159" s="385"/>
+      <c r="O159" s="258" t="s">
         <v>877</v>
       </c>
-      <c r="P159" s="322"/>
-      <c r="Q159" s="322"/>
-      <c r="R159" s="242"/>
+      <c r="P159" s="338"/>
+      <c r="Q159" s="338"/>
+      <c r="R159" s="259"/>
       <c r="U159" s="157"/>
-      <c r="V159" s="374"/>
-      <c r="W159" s="375"/>
-      <c r="X159" s="376"/>
-      <c r="Y159" s="377"/>
-      <c r="Z159" s="378"/>
-      <c r="AA159" s="379"/>
+      <c r="V159" s="172"/>
+      <c r="W159" s="173"/>
+      <c r="X159" s="174"/>
+      <c r="Y159" s="175"/>
+      <c r="Z159" s="173"/>
+      <c r="AA159" s="176"/>
       <c r="AB159" s="157"/>
       <c r="AE159" s="101"/>
-      <c r="AI159" s="382"/>
-      <c r="AJ159" s="382"/>
+      <c r="AI159" s="178"/>
+      <c r="AJ159" s="178"/>
       <c r="AK159" s="113"/>
-      <c r="AL159" s="321"/>
-    </row>
-    <row r="160" spans="2:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="2:37" x14ac:dyDescent="0.3">
       <c r="G160" s="101"/>
-      <c r="I160" s="385"/>
-      <c r="J160" s="321"/>
-      <c r="L160" s="385"/>
+      <c r="I160" s="181"/>
+      <c r="L160" s="181"/>
       <c r="M160" s="157"/>
-      <c r="O160" s="243"/>
-      <c r="P160" s="323"/>
-      <c r="Q160" s="323"/>
-      <c r="R160" s="244"/>
-      <c r="V160" s="380"/>
-      <c r="W160" s="321"/>
-      <c r="Z160" s="386"/>
-      <c r="AA160" s="321"/>
+      <c r="O160" s="260"/>
+      <c r="P160" s="339"/>
+      <c r="Q160" s="339"/>
+      <c r="R160" s="261"/>
+      <c r="V160" s="177"/>
+      <c r="Z160" s="182"/>
       <c r="AE160" s="6"/>
-      <c r="AI160" s="382"/>
-      <c r="AJ160" s="382"/>
+      <c r="AI160" s="178"/>
+      <c r="AJ160" s="178"/>
       <c r="AK160" s="113"/>
-      <c r="AL160" s="321"/>
-    </row>
-    <row r="161" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F161" s="353" t="s">
+    </row>
+    <row r="161" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F161" s="376" t="s">
         <v>882</v>
       </c>
-      <c r="G161" s="354"/>
-      <c r="H161" s="321"/>
-      <c r="I161" s="382"/>
-      <c r="J161" s="321"/>
-      <c r="L161" s="382"/>
-      <c r="M161" s="321"/>
+      <c r="G161" s="377"/>
+      <c r="I161" s="178"/>
+      <c r="L161" s="178"/>
       <c r="Q161" s="138"/>
-      <c r="S161" s="321"/>
-      <c r="V161" s="381"/>
-      <c r="W161" s="321"/>
-      <c r="Y161" s="241" t="s">
+      <c r="V161" s="178"/>
+      <c r="Y161" s="258" t="s">
         <v>893</v>
       </c>
-      <c r="Z161" s="322"/>
-      <c r="AA161" s="322"/>
-      <c r="AB161" s="242"/>
+      <c r="Z161" s="338"/>
+      <c r="AA161" s="338"/>
+      <c r="AB161" s="259"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="142"/>
       <c r="AE161" s="6"/>
-      <c r="AI161" s="382"/>
-      <c r="AJ161" s="382"/>
+      <c r="AI161" s="178"/>
+      <c r="AJ161" s="178"/>
       <c r="AK161" s="113"/>
-      <c r="AL161" s="321"/>
-    </row>
-    <row r="162" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F162" s="355"/>
-      <c r="G162" s="356"/>
-      <c r="H162" s="321"/>
-      <c r="I162" s="382"/>
-      <c r="J162" s="321"/>
-      <c r="L162" s="393"/>
-      <c r="M162" s="321"/>
-      <c r="O162" s="241" t="s">
+    </row>
+    <row r="162" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F162" s="378"/>
+      <c r="G162" s="379"/>
+      <c r="I162" s="178"/>
+      <c r="L162" s="188"/>
+      <c r="O162" s="258" t="s">
         <v>878</v>
       </c>
-      <c r="P162" s="322"/>
-      <c r="Q162" s="322"/>
-      <c r="R162" s="242"/>
-      <c r="V162" s="382"/>
-      <c r="W162" s="321"/>
-      <c r="Y162" s="243"/>
-      <c r="Z162" s="323"/>
-      <c r="AA162" s="323"/>
-      <c r="AB162" s="244"/>
-      <c r="AI162" s="382"/>
-      <c r="AJ162" s="382"/>
+      <c r="P162" s="338"/>
+      <c r="Q162" s="338"/>
+      <c r="R162" s="259"/>
+      <c r="V162" s="178"/>
+      <c r="Y162" s="260"/>
+      <c r="Z162" s="339"/>
+      <c r="AA162" s="339"/>
+      <c r="AB162" s="261"/>
+      <c r="AI162" s="178"/>
+      <c r="AJ162" s="178"/>
       <c r="AK162" s="113"/>
-      <c r="AL162" s="321"/>
-    </row>
-    <row r="163" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F163" s="385"/>
-      <c r="G163" s="321"/>
-      <c r="I163" s="382"/>
-      <c r="J163" s="321"/>
-      <c r="L163" s="382"/>
-      <c r="M163" s="321"/>
-      <c r="O163" s="243"/>
-      <c r="P163" s="323"/>
-      <c r="Q163" s="323"/>
-      <c r="R163" s="244"/>
-      <c r="V163" s="382"/>
-      <c r="W163" s="321" t="s">
+    </row>
+    <row r="163" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F163" s="181"/>
+      <c r="I163" s="178"/>
+      <c r="L163" s="178"/>
+      <c r="O163" s="260"/>
+      <c r="P163" s="339"/>
+      <c r="Q163" s="339"/>
+      <c r="R163" s="261"/>
+      <c r="V163" s="178"/>
+      <c r="W163" t="s">
         <v>191</v>
       </c>
       <c r="Z163" s="101"/>
       <c r="AB163" s="5"/>
       <c r="AC163" s="4"/>
-      <c r="AI163" s="382"/>
-      <c r="AJ163" s="382"/>
+      <c r="AI163" s="178"/>
+      <c r="AJ163" s="178"/>
       <c r="AK163" s="113"/>
-      <c r="AL163" s="321"/>
-    </row>
-    <row r="164" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F164" s="382"/>
-      <c r="G164" s="321"/>
-      <c r="I164" s="382"/>
-      <c r="J164" s="321"/>
-      <c r="L164" s="382"/>
-      <c r="M164" s="321"/>
-      <c r="P164" s="390"/>
+    </row>
+    <row r="164" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F164" s="178"/>
+      <c r="I164" s="178"/>
+      <c r="L164" s="178"/>
+      <c r="P164" s="185"/>
       <c r="Q164" s="157"/>
-      <c r="U164" s="347"/>
-      <c r="V164" s="381"/>
-      <c r="W164" s="347"/>
+      <c r="V164" s="178"/>
       <c r="Z164" s="5"/>
       <c r="AD164" s="6"/>
-      <c r="AI164" s="382"/>
-      <c r="AJ164" s="382"/>
+      <c r="AI164" s="178"/>
+      <c r="AJ164" s="178"/>
       <c r="AK164" s="113"/>
-      <c r="AL164" s="321"/>
-    </row>
-    <row r="165" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F165" s="382"/>
-      <c r="G165" s="321"/>
-      <c r="I165" s="382"/>
-      <c r="J165" s="321"/>
-      <c r="L165" s="382"/>
-      <c r="M165" s="378"/>
-      <c r="N165" s="378"/>
-      <c r="O165" s="378"/>
-      <c r="P165" s="391"/>
-      <c r="Q165" s="378"/>
-      <c r="R165" s="378"/>
-      <c r="S165" s="378"/>
-      <c r="T165" s="378"/>
-      <c r="U165" s="378"/>
-      <c r="V165" s="384"/>
-      <c r="W165" s="321"/>
-      <c r="X165" s="241" t="s">
+    </row>
+    <row r="165" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F165" s="178"/>
+      <c r="I165" s="178"/>
+      <c r="L165" s="178"/>
+      <c r="M165" s="173"/>
+      <c r="N165" s="173"/>
+      <c r="O165" s="173"/>
+      <c r="P165" s="186"/>
+      <c r="Q165" s="173"/>
+      <c r="R165" s="173"/>
+      <c r="S165" s="173"/>
+      <c r="T165" s="173"/>
+      <c r="U165" s="173"/>
+      <c r="V165" s="180"/>
+      <c r="X165" s="258" t="s">
         <v>894</v>
       </c>
-      <c r="Y165" s="322"/>
-      <c r="Z165" s="322"/>
-      <c r="AA165" s="242"/>
-      <c r="AC165" s="241" t="s">
+      <c r="Y165" s="338"/>
+      <c r="Z165" s="338"/>
+      <c r="AA165" s="259"/>
+      <c r="AC165" s="258" t="s">
         <v>895</v>
       </c>
-      <c r="AD165" s="322"/>
-      <c r="AE165" s="322"/>
-      <c r="AF165" s="242"/>
-      <c r="AI165" s="382"/>
-      <c r="AJ165" s="382"/>
+      <c r="AD165" s="338"/>
+      <c r="AE165" s="338"/>
+      <c r="AF165" s="259"/>
+      <c r="AI165" s="178"/>
+      <c r="AJ165" s="178"/>
       <c r="AK165" s="113"/>
-      <c r="AL165" s="321"/>
-    </row>
-    <row r="166" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F166" s="382"/>
-      <c r="G166" s="321"/>
-      <c r="I166" s="382"/>
-      <c r="J166" s="321"/>
-      <c r="M166" s="321"/>
-      <c r="N166" s="321"/>
-      <c r="O166" s="321"/>
+    </row>
+    <row r="166" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F166" s="178"/>
+      <c r="I166" s="178"/>
       <c r="P166" s="113"/>
-      <c r="Q166" s="321"/>
-      <c r="R166" s="321"/>
-      <c r="S166" s="321"/>
-      <c r="T166" s="321"/>
-      <c r="U166" s="321"/>
-      <c r="V166" s="321"/>
-      <c r="X166" s="243"/>
-      <c r="Y166" s="323"/>
-      <c r="Z166" s="323"/>
-      <c r="AA166" s="244"/>
-      <c r="AC166" s="243"/>
-      <c r="AD166" s="323"/>
-      <c r="AE166" s="323"/>
-      <c r="AF166" s="244"/>
-      <c r="AI166" s="382"/>
-      <c r="AJ166" s="382"/>
+      <c r="X166" s="260"/>
+      <c r="Y166" s="339"/>
+      <c r="Z166" s="339"/>
+      <c r="AA166" s="261"/>
+      <c r="AC166" s="260"/>
+      <c r="AD166" s="339"/>
+      <c r="AE166" s="339"/>
+      <c r="AF166" s="261"/>
+      <c r="AI166" s="178"/>
+      <c r="AJ166" s="178"/>
       <c r="AK166" s="113"/>
-      <c r="AL166" s="321"/>
-    </row>
-    <row r="167" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F167" s="382"/>
-      <c r="G167" s="321"/>
-      <c r="I167" s="382"/>
-      <c r="J167" s="321"/>
+    </row>
+    <row r="167" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F167" s="178"/>
+      <c r="I167" s="178"/>
       <c r="P167" s="113"/>
-      <c r="Q167" s="321"/>
       <c r="Z167" s="6"/>
       <c r="AE167" s="6"/>
-      <c r="AI167" s="382"/>
-      <c r="AJ167" s="382"/>
+      <c r="AI167" s="178"/>
+      <c r="AJ167" s="178"/>
       <c r="AK167" s="113"/>
-      <c r="AL167" s="321"/>
-    </row>
-    <row r="168" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F168" s="382"/>
-      <c r="G168" s="321"/>
-      <c r="I168" s="382"/>
-      <c r="J168" s="321"/>
+    </row>
+    <row r="168" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F168" s="178"/>
+      <c r="I168" s="178"/>
       <c r="P168" s="113"/>
-      <c r="Q168" s="321"/>
-      <c r="Y168" s="237" t="s">
+      <c r="Y168" s="254" t="s">
         <v>896</v>
       </c>
-      <c r="Z168" s="238"/>
-      <c r="AD168" s="237" t="s">
+      <c r="Z168" s="255"/>
+      <c r="AD168" s="254" t="s">
         <v>899</v>
       </c>
-      <c r="AE168" s="238"/>
-      <c r="AI168" s="382"/>
-      <c r="AJ168" s="382"/>
+      <c r="AE168" s="255"/>
+      <c r="AI168" s="178"/>
+      <c r="AJ168" s="178"/>
       <c r="AK168" s="113"/>
-      <c r="AL168" s="321"/>
-    </row>
-    <row r="169" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F169" s="382"/>
-      <c r="G169" s="321"/>
-      <c r="I169" s="382"/>
-      <c r="J169" s="321"/>
+    </row>
+    <row r="169" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F169" s="178"/>
+      <c r="I169" s="178"/>
       <c r="P169" s="113"/>
-      <c r="Q169" s="321"/>
       <c r="X169" s="141"/>
-      <c r="Y169" s="239"/>
-      <c r="Z169" s="240"/>
+      <c r="Y169" s="256"/>
+      <c r="Z169" s="257"/>
       <c r="AA169" s="141"/>
       <c r="AB169" s="6"/>
-      <c r="AD169" s="239"/>
-      <c r="AE169" s="240"/>
+      <c r="AD169" s="256"/>
+      <c r="AE169" s="257"/>
       <c r="AF169" s="101"/>
       <c r="AG169" s="139"/>
       <c r="AH169" s="6"/>
-      <c r="AI169" s="382"/>
-      <c r="AJ169" s="382"/>
+      <c r="AI169" s="178"/>
+      <c r="AJ169" s="178"/>
       <c r="AK169" s="113"/>
-      <c r="AL169" s="321"/>
-    </row>
-    <row r="170" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F170" s="382"/>
-      <c r="G170" s="321"/>
-      <c r="I170" s="382"/>
-      <c r="J170" s="321"/>
+    </row>
+    <row r="170" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F170" s="178"/>
+      <c r="I170" s="178"/>
       <c r="P170" s="113"/>
-      <c r="Q170" s="321"/>
       <c r="X170" s="6"/>
       <c r="AB170" s="6"/>
       <c r="AE170" s="6"/>
       <c r="AH170" s="6"/>
-      <c r="AI170" s="382"/>
-      <c r="AJ170" s="382"/>
+      <c r="AI170" s="178"/>
+      <c r="AJ170" s="178"/>
       <c r="AK170" s="113"/>
-      <c r="AL170" s="321"/>
-    </row>
-    <row r="171" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F171" s="382"/>
-      <c r="G171" s="321"/>
-      <c r="I171" s="382"/>
-      <c r="J171" s="321"/>
-      <c r="O171" s="321"/>
+    </row>
+    <row r="171" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F171" s="178"/>
+      <c r="I171" s="178"/>
       <c r="P171" s="113"/>
-      <c r="Q171" s="321"/>
-      <c r="W171" s="237" t="s">
+      <c r="W171" s="254" t="s">
         <v>897</v>
       </c>
-      <c r="X171" s="238"/>
-      <c r="AA171" s="237" t="s">
+      <c r="X171" s="255"/>
+      <c r="AA171" s="254" t="s">
         <v>898</v>
       </c>
-      <c r="AB171" s="238"/>
-      <c r="AD171" s="237" t="s">
+      <c r="AB171" s="255"/>
+      <c r="AD171" s="254" t="s">
         <v>901</v>
       </c>
-      <c r="AE171" s="238"/>
-      <c r="AG171" s="237" t="s">
+      <c r="AE171" s="255"/>
+      <c r="AG171" s="254" t="s">
         <v>900</v>
       </c>
-      <c r="AH171" s="238"/>
-      <c r="AI171" s="382"/>
-      <c r="AJ171" s="382"/>
+      <c r="AH171" s="255"/>
+      <c r="AI171" s="178"/>
+      <c r="AJ171" s="178"/>
       <c r="AK171" s="113"/>
-      <c r="AL171" s="321"/>
-    </row>
-    <row r="172" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F172" s="382"/>
-      <c r="G172" s="321"/>
-      <c r="I172" s="382"/>
-      <c r="J172" s="321"/>
-      <c r="O172" s="321"/>
+    </row>
+    <row r="172" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F172" s="178"/>
+      <c r="I172" s="178"/>
       <c r="P172" s="113"/>
-      <c r="Q172" s="321"/>
-      <c r="W172" s="239"/>
-      <c r="X172" s="240"/>
-      <c r="AA172" s="239"/>
-      <c r="AB172" s="240"/>
-      <c r="AD172" s="239"/>
-      <c r="AE172" s="240"/>
-      <c r="AG172" s="239"/>
-      <c r="AH172" s="240"/>
-      <c r="AI172" s="382"/>
-      <c r="AJ172" s="382"/>
+      <c r="W172" s="256"/>
+      <c r="X172" s="257"/>
+      <c r="AA172" s="256"/>
+      <c r="AB172" s="257"/>
+      <c r="AD172" s="256"/>
+      <c r="AE172" s="257"/>
+      <c r="AG172" s="256"/>
+      <c r="AH172" s="257"/>
+      <c r="AI172" s="178"/>
+      <c r="AJ172" s="178"/>
       <c r="AK172" s="113"/>
-      <c r="AL172" s="321"/>
-    </row>
-    <row r="173" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F173" s="382"/>
-      <c r="G173" s="321"/>
-      <c r="I173" s="382"/>
-      <c r="J173" s="321"/>
-      <c r="M173" s="321"/>
-      <c r="N173" s="321"/>
-      <c r="O173" s="321"/>
+    </row>
+    <row r="173" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F173" s="178"/>
+      <c r="I173" s="178"/>
       <c r="P173" s="113"/>
-      <c r="Q173" s="321"/>
       <c r="X173" s="101"/>
       <c r="AB173" s="6"/>
       <c r="AE173" s="6"/>
       <c r="AH173" s="101"/>
-      <c r="AI173" s="382"/>
-      <c r="AJ173" s="382"/>
+      <c r="AI173" s="178"/>
+      <c r="AJ173" s="178"/>
       <c r="AK173" s="113"/>
-      <c r="AL173" s="321"/>
-    </row>
-    <row r="174" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F174" s="382"/>
-      <c r="G174" s="321"/>
-      <c r="I174" s="382"/>
-      <c r="J174" s="321"/>
-      <c r="M174" s="321"/>
-      <c r="N174" s="321"/>
-      <c r="O174" s="321"/>
+    </row>
+    <row r="174" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F174" s="178"/>
+      <c r="I174" s="178"/>
       <c r="P174" s="113"/>
-      <c r="Q174" s="321"/>
       <c r="X174" s="6"/>
       <c r="AB174" s="148"/>
       <c r="AC174" s="6"/>
       <c r="AD174" s="138"/>
       <c r="AH174" s="6"/>
-      <c r="AI174" s="382"/>
-      <c r="AJ174" s="382"/>
+      <c r="AI174" s="178"/>
+      <c r="AJ174" s="178"/>
       <c r="AK174" s="113"/>
-      <c r="AL174" s="321"/>
-    </row>
-    <row r="175" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F175" s="382"/>
-      <c r="G175" s="321"/>
-      <c r="I175" s="382"/>
-      <c r="J175" s="321"/>
+    </row>
+    <row r="175" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F175" s="178"/>
+      <c r="I175" s="178"/>
       <c r="P175" s="113"/>
-      <c r="Q175" s="321"/>
       <c r="X175" s="6"/>
-      <c r="AB175" s="362" t="s">
+      <c r="AB175" s="361" t="s">
         <v>902</v>
       </c>
-      <c r="AC175" s="363"/>
-      <c r="AD175" s="363"/>
-      <c r="AE175" s="364"/>
+      <c r="AC175" s="362"/>
+      <c r="AD175" s="362"/>
+      <c r="AE175" s="363"/>
       <c r="AH175" s="6"/>
-      <c r="AI175" s="382"/>
-      <c r="AJ175" s="382"/>
+      <c r="AI175" s="178"/>
+      <c r="AJ175" s="178"/>
       <c r="AK175" s="113"/>
-      <c r="AL175" s="321"/>
-    </row>
-    <row r="176" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F176" s="382"/>
-      <c r="G176" s="321"/>
-      <c r="I176" s="382"/>
-      <c r="J176" s="321"/>
+    </row>
+    <row r="176" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F176" s="178"/>
+      <c r="I176" s="178"/>
       <c r="P176" s="113"/>
-      <c r="Q176" s="321"/>
       <c r="X176" s="6"/>
-      <c r="AB176" s="365"/>
-      <c r="AC176" s="366"/>
-      <c r="AD176" s="366"/>
-      <c r="AE176" s="367"/>
+      <c r="AB176" s="364"/>
+      <c r="AC176" s="365"/>
+      <c r="AD176" s="365"/>
+      <c r="AE176" s="366"/>
       <c r="AH176" s="6"/>
-      <c r="AI176" s="382"/>
-      <c r="AJ176" s="382"/>
+      <c r="AI176" s="178"/>
+      <c r="AJ176" s="178"/>
       <c r="AK176" s="113"/>
-      <c r="AL176" s="321"/>
-    </row>
-    <row r="177" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F177" s="382"/>
-      <c r="G177" s="321"/>
-      <c r="I177" s="382"/>
-      <c r="J177" s="321"/>
-      <c r="M177" s="321"/>
-      <c r="N177" s="321"/>
-      <c r="O177" s="321"/>
+    </row>
+    <row r="177" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F177" s="178"/>
+      <c r="I177" s="178"/>
       <c r="P177" s="113"/>
-      <c r="Q177" s="321"/>
       <c r="X177" s="6"/>
       <c r="AH177" s="6"/>
-      <c r="AI177" s="382"/>
-      <c r="AJ177" s="382"/>
+      <c r="AI177" s="178"/>
+      <c r="AJ177" s="178"/>
       <c r="AK177" s="113"/>
-      <c r="AL177" s="321"/>
-    </row>
-    <row r="178" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F178" s="382"/>
-      <c r="G178" s="321"/>
-      <c r="I178" s="382"/>
-      <c r="J178" s="321"/>
+    </row>
+    <row r="178" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F178" s="178"/>
+      <c r="I178" s="178"/>
       <c r="P178" s="113"/>
-      <c r="Q178" s="321"/>
       <c r="X178" s="6"/>
-      <c r="AB178" s="362" t="s">
+      <c r="AB178" s="361" t="s">
         <v>903</v>
       </c>
-      <c r="AC178" s="363"/>
-      <c r="AD178" s="363"/>
-      <c r="AE178" s="364"/>
+      <c r="AC178" s="362"/>
+      <c r="AD178" s="362"/>
+      <c r="AE178" s="363"/>
       <c r="AH178" s="6"/>
-      <c r="AI178" s="382"/>
-      <c r="AJ178" s="382"/>
+      <c r="AI178" s="178"/>
+      <c r="AJ178" s="178"/>
       <c r="AK178" s="113"/>
-      <c r="AL178" s="321"/>
-    </row>
-    <row r="179" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F179" s="382"/>
-      <c r="G179" s="321"/>
-      <c r="I179" s="382"/>
-      <c r="J179" s="321"/>
+    </row>
+    <row r="179" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F179" s="178"/>
+      <c r="I179" s="178"/>
       <c r="P179" s="113"/>
-      <c r="Q179" s="321"/>
       <c r="X179" s="157"/>
       <c r="Y179" s="157"/>
       <c r="Z179" s="157"/>
       <c r="AA179" s="157"/>
-      <c r="AB179" s="365"/>
-      <c r="AC179" s="366"/>
-      <c r="AD179" s="366"/>
-      <c r="AE179" s="367"/>
+      <c r="AB179" s="364"/>
+      <c r="AC179" s="365"/>
+      <c r="AD179" s="365"/>
+      <c r="AE179" s="366"/>
       <c r="AF179" s="157"/>
       <c r="AG179" s="157"/>
-      <c r="AI179" s="382"/>
-      <c r="AJ179" s="382"/>
+      <c r="AI179" s="178"/>
+      <c r="AJ179" s="178"/>
       <c r="AK179" s="113"/>
-      <c r="AL179" s="321"/>
-    </row>
-    <row r="180" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F180" s="382"/>
-      <c r="G180" s="321"/>
-      <c r="I180" s="382"/>
-      <c r="J180" s="321"/>
+    </row>
+    <row r="180" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F180" s="178"/>
+      <c r="I180" s="178"/>
       <c r="P180" s="113"/>
-      <c r="Q180" s="321"/>
-      <c r="AC180" s="390"/>
+      <c r="AC180" s="185"/>
       <c r="AD180" s="157"/>
-      <c r="AI180" s="382"/>
-      <c r="AJ180" s="382"/>
+      <c r="AI180" s="178"/>
+      <c r="AJ180" s="178"/>
       <c r="AK180" s="113"/>
-      <c r="AL180" s="321"/>
-    </row>
-    <row r="181" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F181" s="382"/>
-      <c r="G181" s="321"/>
-      <c r="I181" s="382"/>
-      <c r="J181" s="378"/>
-      <c r="K181" s="378"/>
-      <c r="L181" s="378"/>
-      <c r="M181" s="378"/>
-      <c r="N181" s="378"/>
-      <c r="O181" s="378"/>
-      <c r="P181" s="391"/>
-      <c r="Q181" s="378"/>
-      <c r="R181" s="378"/>
-      <c r="S181" s="378"/>
-      <c r="T181" s="378"/>
-      <c r="U181" s="378"/>
-      <c r="V181" s="378"/>
-      <c r="W181" s="378"/>
-      <c r="X181" s="378"/>
-      <c r="Y181" s="378"/>
-      <c r="Z181" s="378"/>
-      <c r="AA181" s="378"/>
-      <c r="AB181" s="378"/>
-      <c r="AC181" s="391"/>
-      <c r="AD181" s="378"/>
-      <c r="AE181" s="378"/>
-      <c r="AF181" s="378"/>
-      <c r="AG181" s="378"/>
-      <c r="AH181" s="378"/>
-      <c r="AI181" s="389"/>
-      <c r="AJ181" s="382"/>
+    </row>
+    <row r="181" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F181" s="178"/>
+      <c r="I181" s="178"/>
+      <c r="J181" s="173"/>
+      <c r="K181" s="173"/>
+      <c r="L181" s="173"/>
+      <c r="M181" s="173"/>
+      <c r="N181" s="173"/>
+      <c r="O181" s="173"/>
+      <c r="P181" s="186"/>
+      <c r="Q181" s="173"/>
+      <c r="R181" s="173"/>
+      <c r="S181" s="173"/>
+      <c r="T181" s="173"/>
+      <c r="U181" s="173"/>
+      <c r="V181" s="173"/>
+      <c r="W181" s="173"/>
+      <c r="X181" s="173"/>
+      <c r="Y181" s="173"/>
+      <c r="Z181" s="173"/>
+      <c r="AA181" s="173"/>
+      <c r="AB181" s="173"/>
+      <c r="AC181" s="186"/>
+      <c r="AD181" s="173"/>
+      <c r="AE181" s="173"/>
+      <c r="AF181" s="173"/>
+      <c r="AG181" s="173"/>
+      <c r="AH181" s="173"/>
+      <c r="AI181" s="180"/>
+      <c r="AJ181" s="178"/>
       <c r="AK181" s="113"/>
-      <c r="AL181" s="321"/>
-    </row>
-    <row r="182" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F182" s="382"/>
-      <c r="G182" s="378"/>
-      <c r="H182" s="378"/>
-      <c r="I182" s="378"/>
-      <c r="J182" s="378"/>
-      <c r="K182" s="378"/>
-      <c r="L182" s="378"/>
-      <c r="M182" s="378"/>
-      <c r="N182" s="378"/>
-      <c r="O182" s="378"/>
-      <c r="P182" s="391"/>
-      <c r="Q182" s="378"/>
-      <c r="R182" s="378"/>
-      <c r="S182" s="378"/>
-      <c r="T182" s="378"/>
-      <c r="U182" s="378"/>
-      <c r="V182" s="378"/>
-      <c r="W182" s="378"/>
-      <c r="X182" s="378"/>
-      <c r="Y182" s="378"/>
-      <c r="Z182" s="378"/>
-      <c r="AA182" s="378"/>
-      <c r="AB182" s="378"/>
-      <c r="AC182" s="391"/>
-      <c r="AD182" s="378"/>
-      <c r="AE182" s="378"/>
-      <c r="AF182" s="378"/>
-      <c r="AG182" s="378"/>
-      <c r="AH182" s="378"/>
-      <c r="AI182" s="378"/>
-      <c r="AJ182" s="389"/>
+    </row>
+    <row r="182" spans="6:37" x14ac:dyDescent="0.3">
+      <c r="F182" s="178"/>
+      <c r="G182" s="173"/>
+      <c r="H182" s="173"/>
+      <c r="I182" s="173"/>
+      <c r="J182" s="173"/>
+      <c r="K182" s="173"/>
+      <c r="L182" s="173"/>
+      <c r="M182" s="173"/>
+      <c r="N182" s="173"/>
+      <c r="O182" s="173"/>
+      <c r="P182" s="186"/>
+      <c r="Q182" s="173"/>
+      <c r="R182" s="173"/>
+      <c r="S182" s="173"/>
+      <c r="T182" s="173"/>
+      <c r="U182" s="173"/>
+      <c r="V182" s="173"/>
+      <c r="W182" s="173"/>
+      <c r="X182" s="173"/>
+      <c r="Y182" s="173"/>
+      <c r="Z182" s="173"/>
+      <c r="AA182" s="173"/>
+      <c r="AB182" s="173"/>
+      <c r="AC182" s="186"/>
+      <c r="AD182" s="173"/>
+      <c r="AE182" s="173"/>
+      <c r="AF182" s="173"/>
+      <c r="AG182" s="173"/>
+      <c r="AH182" s="173"/>
+      <c r="AI182" s="173"/>
+      <c r="AJ182" s="180"/>
       <c r="AK182" s="113"/>
-      <c r="AL182" s="321"/>
-    </row>
-    <row r="183" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="G183" s="321"/>
-      <c r="H183" s="321"/>
-      <c r="I183" s="321"/>
-      <c r="J183" s="321"/>
-      <c r="K183" s="321"/>
-      <c r="L183" s="321"/>
-      <c r="M183" s="321"/>
-      <c r="N183" s="321"/>
-      <c r="O183" s="321"/>
+    </row>
+    <row r="183" spans="6:37" x14ac:dyDescent="0.3">
       <c r="P183" s="113"/>
-      <c r="Q183" s="392"/>
+      <c r="Q183" s="187"/>
       <c r="R183" s="112"/>
       <c r="S183" s="112"/>
       <c r="T183" s="112"/>
@@ -39929,7 +39683,6 @@
       <c r="AI183" s="112"/>
       <c r="AJ183" s="112"/>
       <c r="AK183" s="111"/>
-      <c r="AL183" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -39947,7 +39700,8 @@
     <mergeCell ref="W171:X172"/>
     <mergeCell ref="AD168:AE169"/>
     <mergeCell ref="AG171:AH172"/>
-    <mergeCell ref="L158:M159"/>
+    <mergeCell ref="W151:Z152"/>
+    <mergeCell ref="AD154:AG155"/>
     <mergeCell ref="U154:V155"/>
     <mergeCell ref="X154:Y155"/>
     <mergeCell ref="AA154:AB155"/>
@@ -39955,14 +39709,12 @@
     <mergeCell ref="U158:V158"/>
     <mergeCell ref="X157:Y157"/>
     <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="W151:Z152"/>
-    <mergeCell ref="AD154:AG155"/>
-    <mergeCell ref="AD157:AF157"/>
     <mergeCell ref="AD158:AF158"/>
     <mergeCell ref="AA157:AB157"/>
     <mergeCell ref="AA158:AB158"/>
     <mergeCell ref="F158:G159"/>
     <mergeCell ref="I158:J159"/>
+    <mergeCell ref="L158:M159"/>
     <mergeCell ref="F161:G162"/>
     <mergeCell ref="R156:S156"/>
     <mergeCell ref="O159:R160"/>
@@ -39978,6 +39730,7 @@
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="H154:I155"/>
+    <mergeCell ref="AD157:AF157"/>
     <mergeCell ref="Q144:T146"/>
     <mergeCell ref="N148:Q149"/>
     <mergeCell ref="K128:N129"/>
@@ -40004,11 +39757,6 @@
     <mergeCell ref="S39:V39"/>
     <mergeCell ref="S40:V41"/>
     <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:V34"/>
-    <mergeCell ref="P35:R37"/>
     <mergeCell ref="P38:R41"/>
     <mergeCell ref="M26:N42"/>
     <mergeCell ref="O27:O28"/>
@@ -40020,6 +39768,11 @@
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="P29:R32"/>
     <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:V34"/>
+    <mergeCell ref="P35:R37"/>
     <mergeCell ref="C26:F27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:F29"/>
@@ -40030,6 +39783,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -40037,8 +39791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C492E84-E7FD-4E9C-86B5-FA7A12D1A893}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40078,7 +39832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E2A31-F412-41EA-93E0-16FA43723815}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -41336,12 +41090,12 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="181" t="s">
+      <c r="K65" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="182"/>
-      <c r="M65" s="182"/>
-      <c r="N65" s="183"/>
+      <c r="L65" s="199"/>
+      <c r="M65" s="199"/>
+      <c r="N65" s="200"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -41366,10 +41120,10 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="185"/>
-      <c r="M66" s="185"/>
-      <c r="N66" s="186"/>
+      <c r="K66" s="201"/>
+      <c r="L66" s="202"/>
+      <c r="M66" s="202"/>
+      <c r="N66" s="203"/>
       <c r="O66" s="12"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -41394,10 +41148,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="187"/>
-      <c r="L67" s="188"/>
-      <c r="M67" s="188"/>
-      <c r="N67" s="189"/>
+      <c r="K67" s="204"/>
+      <c r="L67" s="205"/>
+      <c r="M67" s="205"/>
+      <c r="N67" s="206"/>
       <c r="O67" s="13"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -41475,20 +41229,20 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="211" t="s">
+      <c r="H70" s="228" t="s">
         <v>195</v>
       </c>
-      <c r="I70" s="212"/>
-      <c r="J70" s="212"/>
-      <c r="K70" s="213"/>
+      <c r="I70" s="229"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="230"/>
       <c r="L70" s="10"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="211" t="s">
+      <c r="N70" s="228" t="s">
         <v>194</v>
       </c>
-      <c r="O70" s="212"/>
-      <c r="P70" s="212"/>
-      <c r="Q70" s="213"/>
+      <c r="O70" s="229"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="230"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -41539,10 +41293,10 @@
       <c r="I72" s="10"/>
       <c r="J72" s="13"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="190" t="s">
+      <c r="L72" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="M72" s="192"/>
+      <c r="M72" s="209"/>
       <c r="N72" s="11"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -41569,8 +41323,8 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="193"/>
-      <c r="M73" s="195"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="212"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -41627,10 +41381,10 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="190" t="s">
+      <c r="L75" s="207" t="s">
         <v>192</v>
       </c>
-      <c r="M75" s="192"/>
+      <c r="M75" s="209"/>
       <c r="N75" s="16"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -41657,8 +41411,8 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="193"/>
-      <c r="M76" s="195"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="212"/>
       <c r="N76" s="10" t="s">
         <v>191</v>
       </c>
@@ -41770,12 +41524,12 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="L80" s="182"/>
-      <c r="M80" s="182"/>
-      <c r="N80" s="183"/>
+      <c r="L80" s="199"/>
+      <c r="M80" s="199"/>
+      <c r="N80" s="200"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -41800,10 +41554,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="184"/>
-      <c r="L81" s="185"/>
-      <c r="M81" s="185"/>
-      <c r="N81" s="186"/>
+      <c r="K81" s="201"/>
+      <c r="L81" s="202"/>
+      <c r="M81" s="202"/>
+      <c r="N81" s="203"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="10"/>
@@ -41828,10 +41582,10 @@
       <c r="H82" s="13"/>
       <c r="I82" s="10"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="187"/>
-      <c r="L82" s="188"/>
-      <c r="M82" s="188"/>
-      <c r="N82" s="189"/>
+      <c r="K82" s="204"/>
+      <c r="L82" s="205"/>
+      <c r="M82" s="205"/>
+      <c r="N82" s="206"/>
       <c r="O82" s="10"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="10"/>
@@ -41881,20 +41635,20 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="190" t="s">
+      <c r="H84" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="191"/>
-      <c r="J84" s="192"/>
+      <c r="I84" s="208"/>
+      <c r="J84" s="209"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="13"/>
-      <c r="O84" s="190" t="s">
+      <c r="O84" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="P84" s="191"/>
-      <c r="Q84" s="192"/>
+      <c r="P84" s="208"/>
+      <c r="Q84" s="209"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -41913,16 +41667,16 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="193"/>
-      <c r="I85" s="194"/>
-      <c r="J85" s="195"/>
+      <c r="H85" s="210"/>
+      <c r="I85" s="211"/>
+      <c r="J85" s="212"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="13"/>
-      <c r="O85" s="193"/>
-      <c r="P85" s="194"/>
-      <c r="Q85" s="195"/>
+      <c r="O85" s="210"/>
+      <c r="P85" s="211"/>
+      <c r="Q85" s="212"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
@@ -41968,13 +41722,13 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="202" t="s">
+      <c r="G87" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="H87" s="203"/>
-      <c r="I87" s="203"/>
-      <c r="J87" s="203"/>
-      <c r="K87" s="204"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="220"/>
+      <c r="K87" s="221"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -41998,13 +41752,13 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="205" t="s">
+      <c r="G88" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="H88" s="206"/>
-      <c r="I88" s="206"/>
-      <c r="J88" s="206"/>
-      <c r="K88" s="207"/>
+      <c r="H88" s="223"/>
+      <c r="I88" s="223"/>
+      <c r="J88" s="223"/>
+      <c r="K88" s="224"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -42055,17 +41809,17 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="190" t="s">
+      <c r="F90" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="192"/>
+      <c r="G90" s="209"/>
       <c r="H90" s="11"/>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="190" t="s">
+      <c r="K90" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="L90" s="192"/>
+      <c r="L90" s="209"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -42087,13 +41841,13 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="193"/>
-      <c r="G91" s="195"/>
+      <c r="F91" s="210"/>
+      <c r="G91" s="212"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="193"/>
-      <c r="L91" s="195"/>
+      <c r="K91" s="210"/>
+      <c r="L91" s="212"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -42170,12 +41924,12 @@
       <c r="B94" s="13"/>
       <c r="C94" s="10"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="178" t="s">
+      <c r="E94" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="179"/>
-      <c r="G94" s="179"/>
-      <c r="H94" s="180"/>
+      <c r="F94" s="196"/>
+      <c r="G94" s="196"/>
+      <c r="H94" s="197"/>
       <c r="I94" s="13"/>
       <c r="J94" s="10"/>
       <c r="K94" s="13"/>
@@ -42257,19 +42011,19 @@
       <c r="C97" s="13"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="178" t="s">
+      <c r="F97" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="180"/>
+      <c r="G97" s="197"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="181" t="s">
+      <c r="K97" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="182"/>
-      <c r="M97" s="182"/>
-      <c r="N97" s="183"/>
+      <c r="L97" s="199"/>
+      <c r="M97" s="199"/>
+      <c r="N97" s="200"/>
       <c r="O97" s="12"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="10"/>
@@ -42294,10 +42048,10 @@
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="184"/>
-      <c r="L98" s="185"/>
-      <c r="M98" s="185"/>
-      <c r="N98" s="186"/>
+      <c r="K98" s="201"/>
+      <c r="L98" s="202"/>
+      <c r="M98" s="202"/>
+      <c r="N98" s="203"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -42317,17 +42071,17 @@
       <c r="C99" s="13"/>
       <c r="D99" s="10"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="178" t="s">
+      <c r="F99" s="195" t="s">
         <v>180</v>
       </c>
-      <c r="G99" s="180"/>
+      <c r="G99" s="197"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="187"/>
-      <c r="L99" s="188"/>
-      <c r="M99" s="188"/>
-      <c r="N99" s="189"/>
+      <c r="K99" s="204"/>
+      <c r="L99" s="205"/>
+      <c r="M99" s="205"/>
+      <c r="N99" s="206"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -42380,12 +42134,12 @@
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="172" t="s">
+      <c r="K101" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="L101" s="173"/>
-      <c r="M101" s="173"/>
-      <c r="N101" s="174"/>
+      <c r="L101" s="190"/>
+      <c r="M101" s="190"/>
+      <c r="N101" s="191"/>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="10"/>
@@ -42410,10 +42164,10 @@
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="175"/>
-      <c r="L102" s="176"/>
-      <c r="M102" s="176"/>
-      <c r="N102" s="177"/>
+      <c r="K102" s="192"/>
+      <c r="L102" s="193"/>
+      <c r="M102" s="193"/>
+      <c r="N102" s="194"/>
       <c r="O102" s="10"/>
       <c r="P102" s="13"/>
       <c r="Q102" s="10"/>
@@ -42462,21 +42216,21 @@
       <c r="D104" s="10"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="196" t="s">
+      <c r="G104" s="213" t="s">
         <v>178</v>
       </c>
-      <c r="H104" s="197"/>
-      <c r="I104" s="198"/>
+      <c r="H104" s="214"/>
+      <c r="I104" s="215"/>
       <c r="J104" s="12"/>
       <c r="K104" s="11"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="13"/>
-      <c r="O104" s="178" t="s">
+      <c r="O104" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="P104" s="179"/>
-      <c r="Q104" s="180"/>
+      <c r="P104" s="196"/>
+      <c r="Q104" s="197"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
@@ -42494,9 +42248,9 @@
       <c r="D105" s="10"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="199"/>
-      <c r="H105" s="200"/>
-      <c r="I105" s="201"/>
+      <c r="G105" s="216"/>
+      <c r="H105" s="217"/>
+      <c r="I105" s="218"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
@@ -42583,21 +42337,21 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="13"/>
-      <c r="L108" s="208" t="s">
+      <c r="L108" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="M108" s="209"/>
-      <c r="N108" s="209"/>
-      <c r="O108" s="209"/>
-      <c r="P108" s="210"/>
+      <c r="M108" s="226"/>
+      <c r="N108" s="226"/>
+      <c r="O108" s="226"/>
+      <c r="P108" s="227"/>
       <c r="Q108" s="13"/>
-      <c r="R108" s="211" t="s">
+      <c r="R108" s="228" t="s">
         <v>175</v>
       </c>
-      <c r="S108" s="212"/>
-      <c r="T108" s="212"/>
-      <c r="U108" s="212"/>
-      <c r="V108" s="213"/>
+      <c r="S108" s="229"/>
+      <c r="T108" s="229"/>
+      <c r="U108" s="229"/>
+      <c r="V108" s="230"/>
       <c r="W108" s="13"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="10"/>
@@ -42643,20 +42397,20 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="13"/>
-      <c r="L110" s="190" t="s">
+      <c r="L110" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="M110" s="191"/>
-      <c r="N110" s="192"/>
+      <c r="M110" s="208"/>
+      <c r="N110" s="209"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="13"/>
-      <c r="S110" s="214" t="s">
+      <c r="S110" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="T110" s="215"/>
-      <c r="U110" s="216"/>
+      <c r="T110" s="232"/>
+      <c r="U110" s="233"/>
       <c r="V110" s="10"/>
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
@@ -42675,9 +42429,9 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="13"/>
-      <c r="L111" s="193"/>
-      <c r="M111" s="194"/>
-      <c r="N111" s="195"/>
+      <c r="L111" s="210"/>
+      <c r="M111" s="211"/>
+      <c r="N111" s="212"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -42710,10 +42464,10 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
-      <c r="S112" s="172" t="s">
+      <c r="S112" s="189" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="174"/>
+      <c r="T112" s="191"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="11"/>
@@ -42726,26 +42480,26 @@
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="181" t="s">
+      <c r="E113" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="F113" s="182"/>
-      <c r="G113" s="182"/>
-      <c r="H113" s="183"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="199"/>
+      <c r="H113" s="200"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="13"/>
-      <c r="L113" s="214" t="s">
+      <c r="L113" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="M113" s="215"/>
-      <c r="N113" s="216"/>
+      <c r="M113" s="232"/>
+      <c r="N113" s="233"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
-      <c r="S113" s="175"/>
-      <c r="T113" s="177"/>
+      <c r="S113" s="192"/>
+      <c r="T113" s="194"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
       <c r="W113" s="10"/>
@@ -42758,10 +42512,10 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="184"/>
-      <c r="F114" s="185"/>
-      <c r="G114" s="185"/>
-      <c r="H114" s="186"/>
+      <c r="E114" s="201"/>
+      <c r="F114" s="202"/>
+      <c r="G114" s="202"/>
+      <c r="H114" s="203"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -42786,18 +42540,18 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="187"/>
-      <c r="F115" s="188"/>
-      <c r="G115" s="188"/>
-      <c r="H115" s="189"/>
+      <c r="E115" s="204"/>
+      <c r="F115" s="205"/>
+      <c r="G115" s="205"/>
+      <c r="H115" s="206"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="13"/>
-      <c r="L115" s="214" t="s">
+      <c r="L115" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="M115" s="215"/>
-      <c r="N115" s="216"/>
+      <c r="M115" s="232"/>
+      <c r="N115" s="233"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -42851,11 +42605,11 @@
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="13"/>
-      <c r="L117" s="214" t="s">
+      <c r="L117" s="231" t="s">
         <v>168</v>
       </c>
-      <c r="M117" s="215"/>
-      <c r="N117" s="216"/>
+      <c r="M117" s="232"/>
+      <c r="N117" s="233"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -42960,18 +42714,18 @@
       <c r="D121" s="10"/>
       <c r="E121" s="13"/>
       <c r="F121" s="11"/>
-      <c r="G121" s="196" t="s">
+      <c r="G121" s="213" t="s">
         <v>167</v>
       </c>
-      <c r="H121" s="198"/>
+      <c r="H121" s="215"/>
       <c r="I121" s="12"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="181" t="s">
+      <c r="K121" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="L121" s="182"/>
-      <c r="M121" s="182"/>
-      <c r="N121" s="183"/>
+      <c r="L121" s="199"/>
+      <c r="M121" s="199"/>
+      <c r="N121" s="200"/>
       <c r="O121" s="12"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
@@ -42992,14 +42746,14 @@
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="199"/>
-      <c r="H122" s="201"/>
+      <c r="G122" s="216"/>
+      <c r="H122" s="218"/>
       <c r="I122" s="10"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="184"/>
-      <c r="L122" s="185"/>
-      <c r="M122" s="185"/>
-      <c r="N122" s="186"/>
+      <c r="K122" s="201"/>
+      <c r="L122" s="202"/>
+      <c r="M122" s="202"/>
+      <c r="N122" s="203"/>
       <c r="O122" s="13"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
@@ -43024,10 +42778,10 @@
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="187"/>
-      <c r="L123" s="188"/>
-      <c r="M123" s="188"/>
-      <c r="N123" s="189"/>
+      <c r="K123" s="204"/>
+      <c r="L123" s="205"/>
+      <c r="M123" s="205"/>
+      <c r="N123" s="206"/>
       <c r="O123" s="13"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
@@ -43102,27 +42856,27 @@
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="196" t="s">
+      <c r="E126" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="197"/>
-      <c r="G126" s="198"/>
+      <c r="F126" s="214"/>
+      <c r="G126" s="215"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="196" t="s">
+      <c r="I126" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="J126" s="197"/>
-      <c r="K126" s="197"/>
-      <c r="L126" s="197"/>
-      <c r="M126" s="198"/>
+      <c r="J126" s="214"/>
+      <c r="K126" s="214"/>
+      <c r="L126" s="214"/>
+      <c r="M126" s="215"/>
       <c r="N126" s="13"/>
-      <c r="O126" s="196" t="s">
+      <c r="O126" s="213" t="s">
         <v>163</v>
       </c>
-      <c r="P126" s="197"/>
-      <c r="Q126" s="197"/>
-      <c r="R126" s="197"/>
-      <c r="S126" s="198"/>
+      <c r="P126" s="214"/>
+      <c r="Q126" s="214"/>
+      <c r="R126" s="214"/>
+      <c r="S126" s="215"/>
       <c r="T126" s="11"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
@@ -43136,21 +42890,21 @@
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="199"/>
-      <c r="F127" s="200"/>
-      <c r="G127" s="201"/>
+      <c r="E127" s="216"/>
+      <c r="F127" s="217"/>
+      <c r="G127" s="218"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="199"/>
-      <c r="J127" s="200"/>
-      <c r="K127" s="200"/>
-      <c r="L127" s="200"/>
-      <c r="M127" s="201"/>
+      <c r="I127" s="216"/>
+      <c r="J127" s="217"/>
+      <c r="K127" s="217"/>
+      <c r="L127" s="217"/>
+      <c r="M127" s="218"/>
       <c r="N127" s="13"/>
-      <c r="O127" s="199"/>
-      <c r="P127" s="200"/>
-      <c r="Q127" s="200"/>
-      <c r="R127" s="200"/>
-      <c r="S127" s="201"/>
+      <c r="O127" s="216"/>
+      <c r="P127" s="217"/>
+      <c r="Q127" s="217"/>
+      <c r="R127" s="217"/>
+      <c r="S127" s="218"/>
       <c r="T127" s="13"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
@@ -43192,11 +42946,11 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="178" t="s">
+      <c r="E129" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="F129" s="179"/>
-      <c r="G129" s="180"/>
+      <c r="F129" s="196"/>
+      <c r="G129" s="197"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -43250,11 +43004,11 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="196" t="s">
+      <c r="E131" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="197"/>
-      <c r="G131" s="198"/>
+      <c r="F131" s="214"/>
+      <c r="G131" s="215"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -43280,9 +43034,9 @@
       <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="199"/>
-      <c r="F132" s="200"/>
-      <c r="G132" s="201"/>
+      <c r="E132" s="216"/>
+      <c r="F132" s="217"/>
+      <c r="G132" s="218"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -43996,12 +43750,12 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="217" t="s">
+      <c r="G87" s="234" t="s">
         <v>300</v>
       </c>
-      <c r="H87" s="217"/>
-      <c r="I87" s="217"/>
-      <c r="J87" s="217"/>
+      <c r="H87" s="234"/>
+      <c r="I87" s="234"/>
+      <c r="J87" s="234"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
@@ -44034,17 +43788,17 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="217"/>
-      <c r="H88" s="217"/>
-      <c r="I88" s="217"/>
-      <c r="J88" s="217"/>
+      <c r="G88" s="234"/>
+      <c r="H88" s="234"/>
+      <c r="I88" s="234"/>
+      <c r="J88" s="234"/>
       <c r="K88" s="98"/>
-      <c r="L88" s="218" t="s">
+      <c r="L88" s="235" t="s">
         <v>299</v>
       </c>
-      <c r="M88" s="218"/>
-      <c r="N88" s="218"/>
-      <c r="O88" s="218"/>
+      <c r="M88" s="235"/>
+      <c r="N88" s="235"/>
+      <c r="O88" s="235"/>
       <c r="P88" s="81"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -44053,17 +43807,17 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="105"/>
-      <c r="X88" s="221" t="s">
+      <c r="X88" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="Y88" s="222"/>
-      <c r="Z88" s="222"/>
-      <c r="AA88" s="222"/>
-      <c r="AB88" s="222"/>
-      <c r="AC88" s="222"/>
-      <c r="AD88" s="222"/>
-      <c r="AE88" s="222"/>
-      <c r="AF88" s="223"/>
+      <c r="Y88" s="239"/>
+      <c r="Z88" s="239"/>
+      <c r="AA88" s="239"/>
+      <c r="AB88" s="239"/>
+      <c r="AC88" s="239"/>
+      <c r="AD88" s="239"/>
+      <c r="AE88" s="239"/>
+      <c r="AF88" s="240"/>
       <c r="AG88" s="18"/>
       <c r="AH88" s="18"/>
     </row>
@@ -44074,15 +43828,15 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="217"/>
-      <c r="H89" s="217"/>
-      <c r="I89" s="217"/>
-      <c r="J89" s="217"/>
+      <c r="G89" s="234"/>
+      <c r="H89" s="234"/>
+      <c r="I89" s="234"/>
+      <c r="J89" s="234"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="218"/>
-      <c r="M89" s="218"/>
-      <c r="N89" s="218"/>
-      <c r="O89" s="218"/>
+      <c r="L89" s="235"/>
+      <c r="M89" s="235"/>
+      <c r="N89" s="235"/>
+      <c r="O89" s="235"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
@@ -44091,15 +43845,15 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="105"/>
-      <c r="X89" s="224"/>
-      <c r="Y89" s="225"/>
-      <c r="Z89" s="225"/>
-      <c r="AA89" s="225"/>
-      <c r="AB89" s="225"/>
-      <c r="AC89" s="225"/>
-      <c r="AD89" s="225"/>
-      <c r="AE89" s="225"/>
-      <c r="AF89" s="226"/>
+      <c r="X89" s="241"/>
+      <c r="Y89" s="242"/>
+      <c r="Z89" s="242"/>
+      <c r="AA89" s="242"/>
+      <c r="AB89" s="242"/>
+      <c r="AC89" s="242"/>
+      <c r="AD89" s="242"/>
+      <c r="AE89" s="242"/>
+      <c r="AF89" s="243"/>
       <c r="AG89" s="18"/>
       <c r="AH89" s="18"/>
     </row>
@@ -44110,15 +43864,15 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="217"/>
-      <c r="H90" s="217"/>
-      <c r="I90" s="217"/>
-      <c r="J90" s="217"/>
+      <c r="G90" s="234"/>
+      <c r="H90" s="234"/>
+      <c r="I90" s="234"/>
+      <c r="J90" s="234"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="218"/>
-      <c r="M90" s="218"/>
-      <c r="N90" s="218"/>
-      <c r="O90" s="218"/>
+      <c r="L90" s="235"/>
+      <c r="M90" s="235"/>
+      <c r="N90" s="235"/>
+      <c r="O90" s="235"/>
       <c r="P90" s="36"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
@@ -44127,15 +43881,15 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="105"/>
-      <c r="X90" s="224"/>
-      <c r="Y90" s="225"/>
-      <c r="Z90" s="225"/>
-      <c r="AA90" s="225"/>
-      <c r="AB90" s="225"/>
-      <c r="AC90" s="225"/>
-      <c r="AD90" s="225"/>
-      <c r="AE90" s="225"/>
-      <c r="AF90" s="226"/>
+      <c r="X90" s="241"/>
+      <c r="Y90" s="242"/>
+      <c r="Z90" s="242"/>
+      <c r="AA90" s="242"/>
+      <c r="AB90" s="242"/>
+      <c r="AC90" s="242"/>
+      <c r="AD90" s="242"/>
+      <c r="AE90" s="242"/>
+      <c r="AF90" s="243"/>
       <c r="AG90" s="18"/>
       <c r="AH90" s="18"/>
     </row>
@@ -44163,15 +43917,15 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="105"/>
-      <c r="X91" s="227"/>
-      <c r="Y91" s="228"/>
-      <c r="Z91" s="228"/>
-      <c r="AA91" s="228"/>
-      <c r="AB91" s="228"/>
-      <c r="AC91" s="228"/>
-      <c r="AD91" s="228"/>
-      <c r="AE91" s="228"/>
-      <c r="AF91" s="229"/>
+      <c r="X91" s="244"/>
+      <c r="Y91" s="245"/>
+      <c r="Z91" s="245"/>
+      <c r="AA91" s="245"/>
+      <c r="AB91" s="245"/>
+      <c r="AC91" s="245"/>
+      <c r="AD91" s="245"/>
+      <c r="AE91" s="245"/>
+      <c r="AF91" s="246"/>
       <c r="AG91" s="18"/>
       <c r="AH91" s="18"/>
     </row>
@@ -44214,21 +43968,21 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="218" t="s">
+      <c r="C93" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="218"/>
-      <c r="E93" s="218"/>
-      <c r="F93" s="218"/>
+      <c r="D93" s="235"/>
+      <c r="E93" s="235"/>
+      <c r="F93" s="235"/>
       <c r="G93" s="19"/>
       <c r="H93" s="103"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="218" t="s">
+      <c r="J93" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="K93" s="218"/>
-      <c r="L93" s="218"/>
-      <c r="M93" s="218"/>
+      <c r="K93" s="235"/>
+      <c r="L93" s="235"/>
+      <c r="M93" s="235"/>
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
       <c r="P93" s="36"/>
@@ -44254,17 +44008,17 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="218"/>
-      <c r="D94" s="218"/>
-      <c r="E94" s="218"/>
-      <c r="F94" s="218"/>
+      <c r="C94" s="235"/>
+      <c r="D94" s="235"/>
+      <c r="E94" s="235"/>
+      <c r="F94" s="235"/>
       <c r="G94" s="19"/>
       <c r="H94" s="103"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="218"/>
-      <c r="K94" s="218"/>
-      <c r="L94" s="218"/>
-      <c r="M94" s="218"/>
+      <c r="J94" s="235"/>
+      <c r="K94" s="235"/>
+      <c r="L94" s="235"/>
+      <c r="M94" s="235"/>
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
       <c r="P94" s="36"/>
@@ -44290,17 +44044,17 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="218"/>
-      <c r="D95" s="218"/>
-      <c r="E95" s="218"/>
-      <c r="F95" s="218"/>
+      <c r="C95" s="235"/>
+      <c r="D95" s="235"/>
+      <c r="E95" s="235"/>
+      <c r="F95" s="235"/>
       <c r="G95" s="19"/>
       <c r="H95" s="103"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="218"/>
-      <c r="K95" s="218"/>
-      <c r="L95" s="218"/>
-      <c r="M95" s="218"/>
+      <c r="J95" s="235"/>
+      <c r="K95" s="235"/>
+      <c r="L95" s="235"/>
+      <c r="M95" s="235"/>
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
       <c r="P95" s="36"/>
@@ -44405,12 +44159,12 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="218" t="s">
+      <c r="J98" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="K98" s="218"/>
-      <c r="L98" s="218"/>
-      <c r="M98" s="218"/>
+      <c r="K98" s="235"/>
+      <c r="L98" s="235"/>
+      <c r="M98" s="235"/>
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
       <c r="P98" s="36"/>
@@ -44443,10 +44197,10 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="218"/>
-      <c r="K99" s="218"/>
-      <c r="L99" s="218"/>
-      <c r="M99" s="218"/>
+      <c r="J99" s="235"/>
+      <c r="K99" s="235"/>
+      <c r="L99" s="235"/>
+      <c r="M99" s="235"/>
       <c r="N99" s="79"/>
       <c r="O99" s="50"/>
       <c r="P99" s="91"/>
@@ -44479,10 +44233,10 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="218"/>
-      <c r="K100" s="218"/>
-      <c r="L100" s="218"/>
-      <c r="M100" s="218"/>
+      <c r="J100" s="235"/>
+      <c r="K100" s="235"/>
+      <c r="L100" s="235"/>
+      <c r="M100" s="235"/>
       <c r="N100" s="19"/>
       <c r="O100" s="19"/>
       <c r="P100" s="36"/>
@@ -44584,12 +44338,12 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="78"/>
-      <c r="G103" s="217" t="s">
+      <c r="G103" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="H103" s="217"/>
-      <c r="I103" s="217"/>
-      <c r="J103" s="217"/>
+      <c r="H103" s="234"/>
+      <c r="I103" s="234"/>
+      <c r="J103" s="234"/>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
       <c r="M103" s="19"/>
@@ -44622,17 +44376,17 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="78"/>
-      <c r="G104" s="217"/>
-      <c r="H104" s="217"/>
-      <c r="I104" s="217"/>
-      <c r="J104" s="217"/>
+      <c r="G104" s="234"/>
+      <c r="H104" s="234"/>
+      <c r="I104" s="234"/>
+      <c r="J104" s="234"/>
       <c r="K104" s="98"/>
-      <c r="L104" s="218" t="s">
+      <c r="L104" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="M104" s="218"/>
-      <c r="N104" s="218"/>
-      <c r="O104" s="218"/>
+      <c r="M104" s="235"/>
+      <c r="N104" s="235"/>
+      <c r="O104" s="235"/>
       <c r="P104" s="97"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
@@ -44660,15 +44414,15 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="78"/>
-      <c r="G105" s="217"/>
-      <c r="H105" s="217"/>
-      <c r="I105" s="217"/>
-      <c r="J105" s="217"/>
+      <c r="G105" s="234"/>
+      <c r="H105" s="234"/>
+      <c r="I105" s="234"/>
+      <c r="J105" s="234"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="218"/>
-      <c r="M105" s="218"/>
-      <c r="N105" s="218"/>
-      <c r="O105" s="218"/>
+      <c r="L105" s="235"/>
+      <c r="M105" s="235"/>
+      <c r="N105" s="235"/>
+      <c r="O105" s="235"/>
       <c r="P105" s="80"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
@@ -44696,15 +44450,15 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="78"/>
-      <c r="G106" s="217"/>
-      <c r="H106" s="217"/>
-      <c r="I106" s="217"/>
-      <c r="J106" s="217"/>
+      <c r="G106" s="234"/>
+      <c r="H106" s="234"/>
+      <c r="I106" s="234"/>
+      <c r="J106" s="234"/>
       <c r="K106" s="19"/>
-      <c r="L106" s="218"/>
-      <c r="M106" s="218"/>
-      <c r="N106" s="218"/>
-      <c r="O106" s="218"/>
+      <c r="L106" s="235"/>
+      <c r="M106" s="235"/>
+      <c r="N106" s="235"/>
+      <c r="O106" s="235"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
@@ -44801,20 +44555,20 @@
       <c r="A109" s="19"/>
       <c r="B109" s="90"/>
       <c r="C109" s="19"/>
-      <c r="D109" s="218" t="s">
+      <c r="D109" s="235" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="218"/>
-      <c r="F109" s="218"/>
-      <c r="G109" s="218"/>
+      <c r="E109" s="235"/>
+      <c r="F109" s="235"/>
+      <c r="G109" s="235"/>
       <c r="H109" s="90"/>
       <c r="I109" s="93"/>
-      <c r="J109" s="218" t="s">
+      <c r="J109" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="K109" s="218"/>
-      <c r="L109" s="218"/>
-      <c r="M109" s="218"/>
+      <c r="K109" s="235"/>
+      <c r="L109" s="235"/>
+      <c r="M109" s="235"/>
       <c r="N109" s="28"/>
       <c r="O109" s="19"/>
       <c r="P109" s="36"/>
@@ -44841,16 +44595,16 @@
       <c r="A110" s="19"/>
       <c r="B110" s="90"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="218"/>
-      <c r="E110" s="218"/>
-      <c r="F110" s="218"/>
-      <c r="G110" s="218"/>
+      <c r="D110" s="235"/>
+      <c r="E110" s="235"/>
+      <c r="F110" s="235"/>
+      <c r="G110" s="235"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="218"/>
-      <c r="K110" s="218"/>
-      <c r="L110" s="218"/>
-      <c r="M110" s="218"/>
+      <c r="J110" s="235"/>
+      <c r="K110" s="235"/>
+      <c r="L110" s="235"/>
+      <c r="M110" s="235"/>
       <c r="N110" s="92"/>
       <c r="O110" s="50"/>
       <c r="P110" s="91"/>
@@ -44877,16 +44631,16 @@
       <c r="A111" s="19"/>
       <c r="B111" s="90"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="218"/>
-      <c r="E111" s="218"/>
-      <c r="F111" s="218"/>
-      <c r="G111" s="218"/>
+      <c r="D111" s="235"/>
+      <c r="E111" s="235"/>
+      <c r="F111" s="235"/>
+      <c r="G111" s="235"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="218"/>
-      <c r="K111" s="218"/>
-      <c r="L111" s="218"/>
-      <c r="M111" s="218"/>
+      <c r="J111" s="235"/>
+      <c r="K111" s="235"/>
+      <c r="L111" s="235"/>
+      <c r="M111" s="235"/>
       <c r="N111" s="28"/>
       <c r="O111" s="19"/>
       <c r="P111" s="36"/>
@@ -44988,12 +44742,12 @@
       <c r="D114" s="88"/>
       <c r="E114" s="88"/>
       <c r="F114" s="87"/>
-      <c r="G114" s="217" t="s">
+      <c r="G114" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="H114" s="217"/>
-      <c r="I114" s="217"/>
-      <c r="J114" s="217"/>
+      <c r="H114" s="234"/>
+      <c r="I114" s="234"/>
+      <c r="J114" s="234"/>
       <c r="K114" s="19"/>
       <c r="L114" s="19"/>
       <c r="M114" s="19"/>
@@ -45026,10 +44780,10 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="217"/>
-      <c r="H115" s="217"/>
-      <c r="I115" s="217"/>
-      <c r="J115" s="217"/>
+      <c r="G115" s="234"/>
+      <c r="H115" s="234"/>
+      <c r="I115" s="234"/>
+      <c r="J115" s="234"/>
       <c r="K115" s="19"/>
       <c r="L115" s="19"/>
       <c r="M115" s="46"/>
@@ -45062,16 +44816,16 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="217"/>
-      <c r="H116" s="217"/>
-      <c r="I116" s="217"/>
-      <c r="J116" s="217"/>
+      <c r="G116" s="234"/>
+      <c r="H116" s="234"/>
+      <c r="I116" s="234"/>
+      <c r="J116" s="234"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="220" t="s">
+      <c r="L116" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="220"/>
-      <c r="N116" s="220"/>
+      <c r="M116" s="237"/>
+      <c r="N116" s="237"/>
       <c r="O116" s="19"/>
       <c r="P116" s="36"/>
       <c r="Q116" s="19"/>
@@ -45100,16 +44854,16 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="217"/>
-      <c r="H117" s="217"/>
-      <c r="I117" s="217"/>
-      <c r="J117" s="217"/>
+      <c r="G117" s="234"/>
+      <c r="H117" s="234"/>
+      <c r="I117" s="234"/>
+      <c r="J117" s="234"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="220" t="s">
+      <c r="L117" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="M117" s="220"/>
-      <c r="N117" s="220"/>
+      <c r="M117" s="237"/>
+      <c r="N117" s="237"/>
       <c r="O117" s="19"/>
       <c r="P117" s="36"/>
       <c r="Q117" s="19"/>
@@ -45207,20 +44961,20 @@
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="218" t="s">
+      <c r="D120" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="E120" s="218"/>
-      <c r="F120" s="218"/>
-      <c r="G120" s="218"/>
+      <c r="E120" s="235"/>
+      <c r="F120" s="235"/>
+      <c r="G120" s="235"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="218" t="s">
+      <c r="J120" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="K120" s="218"/>
-      <c r="L120" s="218"/>
-      <c r="M120" s="218"/>
+      <c r="K120" s="235"/>
+      <c r="L120" s="235"/>
+      <c r="M120" s="235"/>
       <c r="N120" s="81"/>
       <c r="O120" s="30"/>
       <c r="P120" s="29"/>
@@ -45247,16 +45001,16 @@
       <c r="A121" s="19"/>
       <c r="B121" s="25"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="218"/>
-      <c r="E121" s="218"/>
-      <c r="F121" s="218"/>
-      <c r="G121" s="218"/>
+      <c r="D121" s="235"/>
+      <c r="E121" s="235"/>
+      <c r="F121" s="235"/>
+      <c r="G121" s="235"/>
       <c r="H121" s="79"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="218"/>
-      <c r="K121" s="218"/>
-      <c r="L121" s="218"/>
-      <c r="M121" s="218"/>
+      <c r="J121" s="235"/>
+      <c r="K121" s="235"/>
+      <c r="L121" s="235"/>
+      <c r="M121" s="235"/>
       <c r="N121" s="78"/>
       <c r="O121" s="77"/>
       <c r="P121" s="19"/>
@@ -45283,16 +45037,16 @@
       <c r="A122" s="28"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="218"/>
-      <c r="E122" s="218"/>
-      <c r="F122" s="218"/>
-      <c r="G122" s="218"/>
+      <c r="D122" s="235"/>
+      <c r="E122" s="235"/>
+      <c r="F122" s="235"/>
+      <c r="G122" s="235"/>
       <c r="H122" s="76"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="218"/>
-      <c r="K122" s="218"/>
-      <c r="L122" s="218"/>
-      <c r="M122" s="218"/>
+      <c r="J122" s="235"/>
+      <c r="K122" s="235"/>
+      <c r="L122" s="235"/>
+      <c r="M122" s="235"/>
       <c r="N122" s="75"/>
       <c r="O122" s="74"/>
       <c r="P122" s="19"/>
@@ -45330,11 +45084,11 @@
       <c r="L123" s="27"/>
       <c r="M123" s="57"/>
       <c r="N123" s="19"/>
-      <c r="O123" s="220" t="s">
+      <c r="O123" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="P123" s="220"/>
-      <c r="Q123" s="220"/>
+      <c r="P123" s="237"/>
+      <c r="Q123" s="237"/>
       <c r="R123" s="19"/>
       <c r="S123" s="36"/>
       <c r="T123" s="54"/>
@@ -45358,11 +45112,11 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="220" t="s">
+      <c r="E124" s="237" t="s">
         <v>288</v>
       </c>
-      <c r="F124" s="220"/>
-      <c r="G124" s="220"/>
+      <c r="F124" s="237"/>
+      <c r="G124" s="237"/>
       <c r="H124" s="54"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
@@ -45370,11 +45124,11 @@
       <c r="L124" s="22"/>
       <c r="M124" s="73"/>
       <c r="N124" s="19"/>
-      <c r="O124" s="230" t="s">
+      <c r="O124" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="P124" s="220"/>
-      <c r="Q124" s="220"/>
+      <c r="P124" s="237"/>
+      <c r="Q124" s="237"/>
       <c r="R124" s="19"/>
       <c r="S124" s="36"/>
       <c r="T124" s="54"/>
@@ -45398,11 +45152,11 @@
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="220" t="s">
+      <c r="E125" s="237" t="s">
         <v>286</v>
       </c>
-      <c r="F125" s="220"/>
-      <c r="G125" s="220"/>
+      <c r="F125" s="237"/>
+      <c r="G125" s="237"/>
       <c r="H125" s="54"/>
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
@@ -45446,11 +45200,11 @@
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
       <c r="N126" s="19"/>
-      <c r="O126" s="220" t="s">
+      <c r="O126" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="P126" s="220"/>
-      <c r="Q126" s="220"/>
+      <c r="P126" s="237"/>
+      <c r="Q126" s="237"/>
       <c r="R126" s="19"/>
       <c r="S126" s="36"/>
       <c r="T126" s="54"/>
@@ -45484,11 +45238,11 @@
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
       <c r="N127" s="19"/>
-      <c r="O127" s="220" t="s">
+      <c r="O127" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="P127" s="220"/>
-      <c r="Q127" s="220"/>
+      <c r="P127" s="237"/>
+      <c r="Q127" s="237"/>
       <c r="R127" s="19"/>
       <c r="S127" s="36"/>
       <c r="T127" s="54"/>
@@ -45510,17 +45264,17 @@
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="220" t="s">
+      <c r="C128" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="D128" s="220"/>
-      <c r="E128" s="220"/>
+      <c r="D128" s="237"/>
+      <c r="E128" s="237"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="220" t="s">
+      <c r="G128" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="H128" s="220"/>
-      <c r="I128" s="220"/>
+      <c r="H128" s="237"/>
+      <c r="I128" s="237"/>
       <c r="J128" s="54"/>
       <c r="K128" s="19"/>
       <c r="L128" s="28"/>
@@ -45550,28 +45304,28 @@
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
       <c r="B129" s="19"/>
-      <c r="C129" s="220" t="s">
+      <c r="C129" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="220"/>
-      <c r="E129" s="220"/>
+      <c r="D129" s="237"/>
+      <c r="E129" s="237"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="220" t="s">
+      <c r="G129" s="237" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="220"/>
-      <c r="I129" s="220"/>
+      <c r="H129" s="237"/>
+      <c r="I129" s="237"/>
       <c r="J129" s="54"/>
       <c r="K129" s="50"/>
       <c r="L129" s="49"/>
       <c r="M129" s="49"/>
       <c r="N129" s="64"/>
-      <c r="O129" s="217" t="s">
+      <c r="O129" s="234" t="s">
         <v>281</v>
       </c>
-      <c r="P129" s="217"/>
-      <c r="Q129" s="217"/>
-      <c r="R129" s="217"/>
+      <c r="P129" s="234"/>
+      <c r="Q129" s="234"/>
+      <c r="R129" s="234"/>
       <c r="S129" s="68"/>
       <c r="T129" s="47"/>
       <c r="U129" s="54"/>
@@ -45604,10 +45358,10 @@
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
       <c r="N130" s="19"/>
-      <c r="O130" s="217"/>
-      <c r="P130" s="217"/>
-      <c r="Q130" s="217"/>
-      <c r="R130" s="217"/>
+      <c r="O130" s="234"/>
+      <c r="P130" s="234"/>
+      <c r="Q130" s="234"/>
+      <c r="R130" s="234"/>
       <c r="S130" s="65"/>
       <c r="T130" s="19"/>
       <c r="U130" s="47"/>
@@ -45629,25 +45383,25 @@
       <c r="A131" s="28"/>
       <c r="B131" s="19"/>
       <c r="C131" s="64"/>
-      <c r="D131" s="219" t="s">
+      <c r="D131" s="236" t="s">
         <v>280</v>
       </c>
-      <c r="E131" s="219"/>
+      <c r="E131" s="236"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="219" t="s">
+      <c r="G131" s="236" t="s">
         <v>279</v>
       </c>
-      <c r="H131" s="219"/>
+      <c r="H131" s="236"/>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
       <c r="N131" s="19"/>
-      <c r="O131" s="217"/>
-      <c r="P131" s="217"/>
-      <c r="Q131" s="217"/>
-      <c r="R131" s="217"/>
+      <c r="O131" s="234"/>
+      <c r="P131" s="234"/>
+      <c r="Q131" s="234"/>
+      <c r="R131" s="234"/>
       <c r="S131" s="36"/>
       <c r="T131" s="63"/>
       <c r="U131" s="19"/>
@@ -45669,21 +45423,21 @@
       <c r="A132" s="28"/>
       <c r="B132" s="53"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="219"/>
-      <c r="E132" s="219"/>
+      <c r="D132" s="236"/>
+      <c r="E132" s="236"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="219"/>
-      <c r="H132" s="219"/>
+      <c r="G132" s="236"/>
+      <c r="H132" s="236"/>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
       <c r="N132" s="19"/>
-      <c r="O132" s="217"/>
-      <c r="P132" s="217"/>
-      <c r="Q132" s="217"/>
-      <c r="R132" s="217"/>
+      <c r="O132" s="234"/>
+      <c r="P132" s="234"/>
+      <c r="Q132" s="234"/>
+      <c r="R132" s="234"/>
       <c r="S132" s="36"/>
       <c r="T132" s="19"/>
       <c r="U132" s="19"/>
@@ -45778,11 +45532,11 @@
       <c r="B135" s="53"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="220" t="s">
+      <c r="E135" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="F135" s="220"/>
-      <c r="G135" s="220"/>
+      <c r="F135" s="237"/>
+      <c r="G135" s="237"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
@@ -45816,11 +45570,11 @@
       <c r="B136" s="53"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="220" t="s">
+      <c r="E136" s="237" t="s">
         <v>277</v>
       </c>
-      <c r="F136" s="220"/>
-      <c r="G136" s="220"/>
+      <c r="F136" s="237"/>
+      <c r="G136" s="237"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -45928,11 +45682,11 @@
       <c r="D139" s="19"/>
       <c r="E139" s="23"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="220" t="s">
+      <c r="G139" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="H139" s="220"/>
-      <c r="I139" s="220"/>
+      <c r="H139" s="237"/>
+      <c r="I139" s="237"/>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="28"/>
@@ -45966,11 +45720,11 @@
       <c r="D140" s="19"/>
       <c r="E140" s="23"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="220" t="s">
+      <c r="G140" s="237" t="s">
         <v>275</v>
       </c>
-      <c r="H140" s="220"/>
-      <c r="I140" s="220"/>
+      <c r="H140" s="237"/>
+      <c r="I140" s="237"/>
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="28"/>
@@ -46076,12 +45830,12 @@
       <c r="D143" s="19"/>
       <c r="E143" s="23"/>
       <c r="F143" s="45"/>
-      <c r="G143" s="217" t="s">
+      <c r="G143" s="234" t="s">
         <v>274</v>
       </c>
-      <c r="H143" s="217"/>
-      <c r="I143" s="217"/>
-      <c r="J143" s="217"/>
+      <c r="H143" s="234"/>
+      <c r="I143" s="234"/>
+      <c r="J143" s="234"/>
       <c r="K143" s="19"/>
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
@@ -46114,10 +45868,10 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="217"/>
-      <c r="H144" s="217"/>
-      <c r="I144" s="217"/>
-      <c r="J144" s="217"/>
+      <c r="G144" s="234"/>
+      <c r="H144" s="234"/>
+      <c r="I144" s="234"/>
+      <c r="J144" s="234"/>
       <c r="K144" s="19"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
@@ -46150,10 +45904,10 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="217"/>
-      <c r="H145" s="217"/>
-      <c r="I145" s="217"/>
-      <c r="J145" s="217"/>
+      <c r="G145" s="234"/>
+      <c r="H145" s="234"/>
+      <c r="I145" s="234"/>
+      <c r="J145" s="234"/>
       <c r="K145" s="19"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
@@ -46186,10 +45940,10 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="217"/>
-      <c r="H146" s="217"/>
-      <c r="I146" s="217"/>
-      <c r="J146" s="217"/>
+      <c r="G146" s="234"/>
+      <c r="H146" s="234"/>
+      <c r="I146" s="234"/>
+      <c r="J146" s="234"/>
       <c r="K146" s="19"/>
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
@@ -46293,16 +46047,16 @@
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="219" t="s">
+      <c r="F149" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="G149" s="219"/>
+      <c r="G149" s="236"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-      <c r="J149" s="219" t="s">
+      <c r="J149" s="236" t="s">
         <v>272</v>
       </c>
-      <c r="K149" s="219"/>
+      <c r="K149" s="236"/>
       <c r="L149" s="37"/>
       <c r="M149" s="28"/>
       <c r="N149" s="23"/>
@@ -46333,12 +46087,12 @@
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="35"/>
-      <c r="F150" s="219"/>
-      <c r="G150" s="219"/>
+      <c r="F150" s="236"/>
+      <c r="G150" s="236"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-      <c r="J150" s="219"/>
-      <c r="K150" s="219"/>
+      <c r="J150" s="236"/>
+      <c r="K150" s="236"/>
       <c r="L150" s="34"/>
       <c r="M150" s="33"/>
       <c r="N150" s="32"/>
@@ -46369,12 +46123,12 @@
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="219"/>
-      <c r="G151" s="219"/>
+      <c r="F151" s="236"/>
+      <c r="G151" s="236"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-      <c r="J151" s="219"/>
-      <c r="K151" s="219"/>
+      <c r="J151" s="236"/>
+      <c r="K151" s="236"/>
       <c r="L151" s="19"/>
       <c r="M151" s="28"/>
       <c r="N151" s="23"/>
@@ -47296,25 +47050,25 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U101" s="264" t="s">
+      <c r="U101" s="281" t="s">
         <v>409</v>
       </c>
-      <c r="V101" s="265"/>
+      <c r="V101" s="282"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U102" s="266"/>
-      <c r="V102" s="267"/>
+      <c r="U102" s="283"/>
+      <c r="V102" s="284"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S104" s="260" t="s">
+      <c r="S104" s="277" t="s">
         <v>408</v>
       </c>
-      <c r="T104" s="261"/>
-      <c r="V104" s="268" t="s">
+      <c r="T104" s="278"/>
+      <c r="V104" s="285" t="s">
         <v>407</v>
       </c>
-      <c r="W104" s="269"/>
-      <c r="X104" s="270"/>
+      <c r="W104" s="286"/>
+      <c r="X104" s="287"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="134"/>
@@ -47322,17 +47076,17 @@
       <c r="H105" s="134"/>
       <c r="I105" s="134"/>
       <c r="J105" s="155"/>
-      <c r="K105" s="245" t="s">
+      <c r="K105" s="262" t="s">
         <v>406</v>
       </c>
-      <c r="L105" s="246"/>
-      <c r="M105" s="246"/>
-      <c r="N105" s="247"/>
-      <c r="S105" s="262"/>
-      <c r="T105" s="263"/>
-      <c r="V105" s="271"/>
-      <c r="W105" s="272"/>
-      <c r="X105" s="273"/>
+      <c r="L105" s="263"/>
+      <c r="M105" s="263"/>
+      <c r="N105" s="264"/>
+      <c r="S105" s="279"/>
+      <c r="T105" s="280"/>
+      <c r="V105" s="288"/>
+      <c r="W105" s="289"/>
+      <c r="X105" s="290"/>
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="136"/>
@@ -47340,22 +47094,22 @@
       <c r="H106" s="154"/>
       <c r="I106" s="154"/>
       <c r="J106" s="153"/>
-      <c r="K106" s="248"/>
-      <c r="L106" s="249"/>
-      <c r="M106" s="249"/>
-      <c r="N106" s="250"/>
-      <c r="V106" s="274"/>
-      <c r="W106" s="275"/>
-      <c r="X106" s="276"/>
+      <c r="K106" s="265"/>
+      <c r="L106" s="266"/>
+      <c r="M106" s="266"/>
+      <c r="N106" s="267"/>
+      <c r="V106" s="291"/>
+      <c r="W106" s="292"/>
+      <c r="X106" s="293"/>
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="136"/>
       <c r="F107" s="149"/>
       <c r="J107" s="115"/>
-      <c r="K107" s="251"/>
-      <c r="L107" s="252"/>
-      <c r="M107" s="252"/>
-      <c r="N107" s="253"/>
+      <c r="K107" s="268"/>
+      <c r="L107" s="269"/>
+      <c r="M107" s="269"/>
+      <c r="N107" s="270"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E108" s="136"/>
@@ -47365,22 +47119,22 @@
     <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="136"/>
       <c r="F109" s="149"/>
-      <c r="K109" s="254" t="s">
+      <c r="K109" s="271" t="s">
         <v>393</v>
       </c>
-      <c r="L109" s="255"/>
-      <c r="M109" s="255"/>
-      <c r="N109" s="256"/>
+      <c r="L109" s="272"/>
+      <c r="M109" s="272"/>
+      <c r="N109" s="273"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="136"/>
       <c r="F110" s="149"/>
       <c r="I110" s="126"/>
       <c r="J110" s="125"/>
-      <c r="K110" s="257"/>
-      <c r="L110" s="258"/>
-      <c r="M110" s="258"/>
-      <c r="N110" s="259"/>
+      <c r="K110" s="274"/>
+      <c r="L110" s="275"/>
+      <c r="M110" s="275"/>
+      <c r="N110" s="276"/>
       <c r="O110" s="126"/>
       <c r="P110" s="125"/>
     </row>
@@ -47407,29 +47161,29 @@
     <row r="113" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="136"/>
       <c r="F113" s="149"/>
-      <c r="H113" s="231" t="s">
+      <c r="H113" s="248" t="s">
         <v>392</v>
       </c>
-      <c r="I113" s="232"/>
-      <c r="J113" s="233"/>
-      <c r="O113" s="285" t="s">
+      <c r="I113" s="249"/>
+      <c r="J113" s="250"/>
+      <c r="O113" s="302" t="s">
         <v>391</v>
       </c>
-      <c r="P113" s="286"/>
-      <c r="Q113" s="287"/>
+      <c r="P113" s="303"/>
+      <c r="Q113" s="304"/>
       <c r="U113" s="136"/>
     </row>
     <row r="114" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E114" s="136"/>
       <c r="F114" s="149"/>
-      <c r="H114" s="234"/>
-      <c r="I114" s="235"/>
-      <c r="J114" s="236"/>
+      <c r="H114" s="251"/>
+      <c r="I114" s="252"/>
+      <c r="J114" s="253"/>
       <c r="K114" s="139"/>
       <c r="N114" s="101"/>
-      <c r="O114" s="288"/>
-      <c r="P114" s="289"/>
-      <c r="Q114" s="290"/>
+      <c r="O114" s="305"/>
+      <c r="P114" s="306"/>
+      <c r="Q114" s="307"/>
       <c r="U114" s="136"/>
     </row>
     <row r="115" spans="5:21" x14ac:dyDescent="0.3">
@@ -47444,35 +47198,35 @@
       <c r="E116" s="136"/>
       <c r="F116" s="149"/>
       <c r="G116" s="145"/>
-      <c r="H116" s="241" t="s">
+      <c r="H116" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="I116" s="242"/>
-      <c r="K116" s="245" t="s">
+      <c r="I116" s="259"/>
+      <c r="K116" s="262" t="s">
         <v>404</v>
       </c>
-      <c r="L116" s="246"/>
-      <c r="M116" s="246"/>
-      <c r="N116" s="247"/>
+      <c r="L116" s="263"/>
+      <c r="M116" s="263"/>
+      <c r="N116" s="264"/>
       <c r="U116" s="136"/>
     </row>
     <row r="117" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="136"/>
       <c r="G117" s="115"/>
-      <c r="H117" s="243"/>
-      <c r="I117" s="244"/>
-      <c r="K117" s="248"/>
-      <c r="L117" s="249"/>
-      <c r="M117" s="249"/>
-      <c r="N117" s="250"/>
+      <c r="H117" s="260"/>
+      <c r="I117" s="261"/>
+      <c r="K117" s="265"/>
+      <c r="L117" s="266"/>
+      <c r="M117" s="266"/>
+      <c r="N117" s="267"/>
       <c r="U117" s="136"/>
     </row>
     <row r="118" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E118" s="136"/>
-      <c r="K118" s="251"/>
-      <c r="L118" s="252"/>
-      <c r="M118" s="252"/>
-      <c r="N118" s="253"/>
+      <c r="K118" s="268"/>
+      <c r="L118" s="269"/>
+      <c r="M118" s="269"/>
+      <c r="N118" s="270"/>
       <c r="U118" s="136"/>
     </row>
     <row r="119" spans="5:21" x14ac:dyDescent="0.3">
@@ -47492,24 +47246,24 @@
     </row>
     <row r="121" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E121" s="136"/>
-      <c r="J121" s="241" t="s">
+      <c r="J121" s="258" t="s">
         <v>390</v>
       </c>
-      <c r="K121" s="242"/>
-      <c r="O121" s="241" t="s">
+      <c r="K121" s="259"/>
+      <c r="O121" s="258" t="s">
         <v>403</v>
       </c>
-      <c r="P121" s="242"/>
+      <c r="P121" s="259"/>
       <c r="U121" s="136"/>
     </row>
     <row r="122" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E122" s="136"/>
       <c r="I122" s="101"/>
-      <c r="J122" s="243"/>
-      <c r="K122" s="244"/>
+      <c r="J122" s="260"/>
+      <c r="K122" s="261"/>
       <c r="L122" s="139"/>
-      <c r="O122" s="243"/>
-      <c r="P122" s="244"/>
+      <c r="O122" s="260"/>
+      <c r="P122" s="261"/>
       <c r="U122" s="136"/>
     </row>
     <row r="123" spans="5:21" x14ac:dyDescent="0.3">
@@ -47521,24 +47275,24 @@
     </row>
     <row r="124" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E124" s="136"/>
-      <c r="H124" s="237" t="s">
+      <c r="H124" s="254" t="s">
         <v>389</v>
       </c>
-      <c r="I124" s="238"/>
-      <c r="L124" s="237" t="s">
+      <c r="I124" s="255"/>
+      <c r="L124" s="254" t="s">
         <v>388</v>
       </c>
-      <c r="M124" s="238"/>
+      <c r="M124" s="255"/>
       <c r="P124" s="6"/>
       <c r="U124" s="136"/>
     </row>
     <row r="125" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E125" s="136"/>
       <c r="G125" s="141"/>
-      <c r="H125" s="239"/>
-      <c r="I125" s="240"/>
-      <c r="L125" s="239"/>
-      <c r="M125" s="240"/>
+      <c r="H125" s="256"/>
+      <c r="I125" s="257"/>
+      <c r="L125" s="256"/>
+      <c r="M125" s="257"/>
       <c r="P125" s="6"/>
       <c r="U125" s="136"/>
     </row>
@@ -47552,12 +47306,12 @@
     <row r="127" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E127" s="136"/>
       <c r="G127" s="6"/>
-      <c r="K127" s="245" t="s">
+      <c r="K127" s="262" t="s">
         <v>402</v>
       </c>
-      <c r="L127" s="246"/>
-      <c r="M127" s="246"/>
-      <c r="N127" s="247"/>
+      <c r="L127" s="263"/>
+      <c r="M127" s="263"/>
+      <c r="N127" s="264"/>
       <c r="O127" s="140"/>
       <c r="P127" s="6"/>
       <c r="U127" s="136"/>
@@ -47568,10 +47322,10 @@
       <c r="H128" s="112"/>
       <c r="I128" s="112"/>
       <c r="J128" s="145"/>
-      <c r="K128" s="248"/>
-      <c r="L128" s="249"/>
-      <c r="M128" s="249"/>
-      <c r="N128" s="250"/>
+      <c r="K128" s="265"/>
+      <c r="L128" s="266"/>
+      <c r="M128" s="266"/>
+      <c r="N128" s="267"/>
       <c r="U128" s="136"/>
     </row>
     <row r="129" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47580,10 +47334,10 @@
       <c r="F129" s="144"/>
       <c r="G129" s="6"/>
       <c r="J129" s="115"/>
-      <c r="K129" s="251"/>
-      <c r="L129" s="252"/>
-      <c r="M129" s="252"/>
-      <c r="N129" s="253"/>
+      <c r="K129" s="268"/>
+      <c r="L129" s="269"/>
+      <c r="M129" s="269"/>
+      <c r="N129" s="270"/>
       <c r="U129" s="136"/>
     </row>
     <row r="130" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47591,40 +47345,40 @@
       <c r="E130" s="136"/>
       <c r="G130" s="6"/>
       <c r="M130" s="138"/>
-      <c r="U130" s="277" t="s">
+      <c r="U130" s="294" t="s">
         <v>401</v>
       </c>
-      <c r="V130" s="278"/>
-      <c r="W130" s="278"/>
-      <c r="X130" s="279"/>
+      <c r="V130" s="295"/>
+      <c r="W130" s="295"/>
+      <c r="X130" s="296"/>
     </row>
     <row r="131" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="113"/>
       <c r="F131" s="143"/>
       <c r="G131" s="6"/>
-      <c r="L131" s="241" t="s">
+      <c r="L131" s="258" t="s">
         <v>400</v>
       </c>
-      <c r="M131" s="242"/>
+      <c r="M131" s="259"/>
       <c r="T131" s="134"/>
-      <c r="U131" s="280"/>
-      <c r="V131" s="249"/>
-      <c r="W131" s="249"/>
-      <c r="X131" s="281"/>
+      <c r="U131" s="297"/>
+      <c r="V131" s="266"/>
+      <c r="W131" s="266"/>
+      <c r="X131" s="298"/>
     </row>
     <row r="132" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="113"/>
       <c r="E132" s="136"/>
       <c r="G132" s="6"/>
       <c r="K132" s="101"/>
-      <c r="L132" s="243"/>
-      <c r="M132" s="244"/>
+      <c r="L132" s="260"/>
+      <c r="M132" s="261"/>
       <c r="N132" s="139"/>
       <c r="S132" s="136"/>
-      <c r="U132" s="282"/>
-      <c r="V132" s="283"/>
-      <c r="W132" s="283"/>
-      <c r="X132" s="284"/>
+      <c r="U132" s="299"/>
+      <c r="V132" s="300"/>
+      <c r="W132" s="300"/>
+      <c r="X132" s="301"/>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D133" s="113"/>
@@ -47639,16 +47393,16 @@
       <c r="D134" s="113"/>
       <c r="E134" s="136"/>
       <c r="G134" s="6"/>
-      <c r="I134" s="285" t="s">
+      <c r="I134" s="302" t="s">
         <v>399</v>
       </c>
-      <c r="J134" s="286"/>
-      <c r="K134" s="287"/>
-      <c r="N134" s="285" t="s">
+      <c r="J134" s="303"/>
+      <c r="K134" s="304"/>
+      <c r="N134" s="302" t="s">
         <v>398</v>
       </c>
-      <c r="O134" s="286"/>
-      <c r="P134" s="287"/>
+      <c r="O134" s="303"/>
+      <c r="P134" s="304"/>
       <c r="S134" s="136"/>
       <c r="U134" s="123"/>
     </row>
@@ -47657,12 +47411,12 @@
       <c r="E135" s="136"/>
       <c r="G135" s="6"/>
       <c r="H135" s="141"/>
-      <c r="I135" s="288"/>
-      <c r="J135" s="289"/>
-      <c r="K135" s="290"/>
-      <c r="N135" s="288"/>
-      <c r="O135" s="289"/>
-      <c r="P135" s="290"/>
+      <c r="I135" s="305"/>
+      <c r="J135" s="306"/>
+      <c r="K135" s="307"/>
+      <c r="N135" s="305"/>
+      <c r="O135" s="306"/>
+      <c r="P135" s="307"/>
       <c r="S135" s="136"/>
       <c r="U135" s="123"/>
     </row>
@@ -47689,12 +47443,12 @@
       <c r="E138" s="136"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="K138" s="245" t="s">
+      <c r="K138" s="262" t="s">
         <v>397</v>
       </c>
-      <c r="L138" s="246"/>
-      <c r="M138" s="246"/>
-      <c r="N138" s="247"/>
+      <c r="L138" s="263"/>
+      <c r="M138" s="263"/>
+      <c r="N138" s="264"/>
       <c r="O138" s="140"/>
       <c r="S138" s="136"/>
       <c r="U138" s="123"/>
@@ -47704,10 +47458,10 @@
       <c r="E139" s="136"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="K139" s="248"/>
-      <c r="L139" s="249"/>
-      <c r="M139" s="249"/>
-      <c r="N139" s="250"/>
+      <c r="K139" s="265"/>
+      <c r="L139" s="266"/>
+      <c r="M139" s="266"/>
+      <c r="N139" s="267"/>
       <c r="S139" s="136"/>
       <c r="U139" s="123"/>
     </row>
@@ -47716,10 +47470,10 @@
       <c r="E140" s="136"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="K140" s="251"/>
-      <c r="L140" s="252"/>
-      <c r="M140" s="252"/>
-      <c r="N140" s="253"/>
+      <c r="K140" s="268"/>
+      <c r="L140" s="269"/>
+      <c r="M140" s="269"/>
+      <c r="N140" s="270"/>
       <c r="S140" s="136"/>
       <c r="U140" s="123"/>
     </row>
@@ -47748,14 +47502,14 @@
       <c r="E143" s="136"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="J143" s="241" t="s">
+      <c r="J143" s="258" t="s">
         <v>396</v>
       </c>
-      <c r="K143" s="242"/>
-      <c r="N143" s="241" t="s">
+      <c r="K143" s="259"/>
+      <c r="N143" s="258" t="s">
         <v>395</v>
       </c>
-      <c r="O143" s="242"/>
+      <c r="O143" s="259"/>
       <c r="P143" s="135"/>
       <c r="Q143" s="134"/>
       <c r="R143" s="134"/>
@@ -47768,10 +47522,10 @@
       <c r="G144" s="132"/>
       <c r="H144" s="131"/>
       <c r="I144" s="130"/>
-      <c r="J144" s="243"/>
-      <c r="K144" s="244"/>
-      <c r="N144" s="243"/>
-      <c r="O144" s="244"/>
+      <c r="J144" s="260"/>
+      <c r="K144" s="261"/>
+      <c r="N144" s="260"/>
+      <c r="O144" s="261"/>
       <c r="U144" s="123"/>
     </row>
     <row r="145" spans="4:21" x14ac:dyDescent="0.3">
@@ -47796,12 +47550,12 @@
       <c r="H147" s="122"/>
       <c r="I147" s="122"/>
       <c r="J147" s="122"/>
-      <c r="K147" s="277" t="s">
+      <c r="K147" s="294" t="s">
         <v>394</v>
       </c>
-      <c r="L147" s="278"/>
-      <c r="M147" s="278"/>
-      <c r="N147" s="279"/>
+      <c r="L147" s="295"/>
+      <c r="M147" s="295"/>
+      <c r="N147" s="296"/>
       <c r="U147" s="123"/>
     </row>
     <row r="148" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47811,20 +47565,20 @@
       <c r="H148" s="112"/>
       <c r="I148" s="112"/>
       <c r="J148" s="127"/>
-      <c r="K148" s="280"/>
-      <c r="L148" s="249"/>
-      <c r="M148" s="249"/>
-      <c r="N148" s="281"/>
+      <c r="K148" s="297"/>
+      <c r="L148" s="266"/>
+      <c r="M148" s="266"/>
+      <c r="N148" s="298"/>
       <c r="U148" s="123"/>
     </row>
     <row r="149" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="113"/>
       <c r="E149" s="113"/>
       <c r="J149" s="123"/>
-      <c r="K149" s="282"/>
-      <c r="L149" s="283"/>
-      <c r="M149" s="283"/>
-      <c r="N149" s="284"/>
+      <c r="K149" s="299"/>
+      <c r="L149" s="300"/>
+      <c r="M149" s="300"/>
+      <c r="N149" s="301"/>
       <c r="U149" s="123"/>
     </row>
     <row r="150" spans="4:21" x14ac:dyDescent="0.3">
@@ -47836,22 +47590,22 @@
     <row r="151" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="113"/>
       <c r="E151" s="113"/>
-      <c r="K151" s="254" t="s">
+      <c r="K151" s="271" t="s">
         <v>393</v>
       </c>
-      <c r="L151" s="255"/>
-      <c r="M151" s="255"/>
-      <c r="N151" s="256"/>
+      <c r="L151" s="272"/>
+      <c r="M151" s="272"/>
+      <c r="N151" s="273"/>
       <c r="U151" s="123"/>
     </row>
     <row r="152" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="113"/>
       <c r="E152" s="113"/>
       <c r="J152" s="126"/>
-      <c r="K152" s="257"/>
-      <c r="L152" s="258"/>
-      <c r="M152" s="258"/>
-      <c r="N152" s="259"/>
+      <c r="K152" s="274"/>
+      <c r="L152" s="275"/>
+      <c r="M152" s="275"/>
+      <c r="N152" s="276"/>
       <c r="O152" s="125"/>
       <c r="U152" s="123"/>
     </row>
@@ -47865,16 +47619,16 @@
     <row r="154" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="113"/>
       <c r="E154" s="113"/>
-      <c r="I154" s="231" t="s">
+      <c r="I154" s="248" t="s">
         <v>392</v>
       </c>
-      <c r="J154" s="232"/>
-      <c r="K154" s="233"/>
-      <c r="N154" s="231" t="s">
+      <c r="J154" s="249"/>
+      <c r="K154" s="250"/>
+      <c r="N154" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="O154" s="232"/>
-      <c r="P154" s="233"/>
+      <c r="O154" s="249"/>
+      <c r="P154" s="250"/>
       <c r="Q154" s="122"/>
       <c r="R154" s="122"/>
       <c r="S154" s="122"/>
@@ -47884,12 +47638,12 @@
     <row r="155" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="113"/>
       <c r="E155" s="113"/>
-      <c r="I155" s="234"/>
-      <c r="J155" s="235"/>
-      <c r="K155" s="236"/>
-      <c r="N155" s="234"/>
-      <c r="O155" s="235"/>
-      <c r="P155" s="236"/>
+      <c r="I155" s="251"/>
+      <c r="J155" s="252"/>
+      <c r="K155" s="253"/>
+      <c r="N155" s="251"/>
+      <c r="O155" s="252"/>
+      <c r="P155" s="253"/>
     </row>
     <row r="156" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D156" s="113"/>
@@ -47899,18 +47653,18 @@
     <row r="157" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D157" s="113"/>
       <c r="E157" s="113"/>
-      <c r="I157" s="241" t="s">
+      <c r="I157" s="258" t="s">
         <v>390</v>
       </c>
-      <c r="J157" s="242"/>
+      <c r="J157" s="259"/>
       <c r="K157" s="120"/>
     </row>
     <row r="158" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D158" s="113"/>
       <c r="E158" s="113"/>
       <c r="H158" s="119"/>
-      <c r="I158" s="243"/>
-      <c r="J158" s="244"/>
+      <c r="I158" s="260"/>
+      <c r="J158" s="261"/>
       <c r="K158" s="118"/>
     </row>
     <row r="159" spans="4:21" x14ac:dyDescent="0.3">
@@ -47923,22 +47677,22 @@
       <c r="D160" s="113"/>
       <c r="E160" s="113"/>
       <c r="F160" s="115"/>
-      <c r="G160" s="237" t="s">
+      <c r="G160" s="254" t="s">
         <v>389</v>
       </c>
-      <c r="H160" s="238"/>
-      <c r="K160" s="237" t="s">
+      <c r="H160" s="255"/>
+      <c r="K160" s="254" t="s">
         <v>388</v>
       </c>
-      <c r="L160" s="238"/>
+      <c r="L160" s="255"/>
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D161" s="113"/>
       <c r="F161" s="114"/>
-      <c r="G161" s="239"/>
-      <c r="H161" s="240"/>
-      <c r="K161" s="239"/>
-      <c r="L161" s="240"/>
+      <c r="G161" s="256"/>
+      <c r="H161" s="257"/>
+      <c r="K161" s="256"/>
+      <c r="L161" s="257"/>
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D162" s="113"/>

--- a/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
+++ b/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 4월\게임기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B4E5E-8821-41C5-B8E8-D2258B638B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DE5FB-5F66-4F55-BF03-5628A03E7726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="12" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 분석(4.01)" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,7 @@
     <sheet name="샌드위치 만들기 알고리즘 순서도(4.16)" sheetId="11" r:id="rId10"/>
     <sheet name="현실에서의 알고리즘 순서도(4.16~4.17)" sheetId="12" r:id="rId11"/>
     <sheet name="지하철 개찰구 플로우(4.17~4.18)" sheetId="13" r:id="rId12"/>
-    <sheet name="에스컬레이터 플로우(4.18~4.19)" sheetId="14" r:id="rId13"/>
-    <sheet name="엘리베이터 메커니즘(4.19~4.20)" sheetId="15" r:id="rId14"/>
+    <sheet name="1개 버튼 강공격 일반공격(4.19)" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'시스템 기획_러시안룰렛 조(4.11 - 4.12)'!$A$1:$AH$158</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="942">
   <si>
     <t>짧은 거리 도약</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8631,10 +8630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에스컬레이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. </t>
     </r>
@@ -9013,19 +9008,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동으로 켜짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동으로 꺼짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비상정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평소 시속 N km/h</t>
+    <t>버튼 1개로 [일반공격 / 강공격]을 사용하는 매커니즘 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">누르고 있기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 누르는 순간 / 눌렀다 때는 순간/ 누르고 있기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일, 콘솔, pc 환경 모두 작동한다고 생각해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 터치 / 버튼 누르기 / 좌클릭 정도가 될 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 터치 - 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">누르고 있으면, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 차는것이 좋을 것같다.(모든 환경에서 돌아가야 하니까)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">의문1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">게이지가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모두 다 찬게 아니라면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 어떻게 되는걸까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 답 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 일반(게이지 0) &lt; 게이지 N%( 0 &lt; N &lt;100 ) &lt; 강공격(게이지 100)으로 하면 되지 않을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N%에 따라, 데미지가 차이가 나면 될 것이다. (예를 들어, 게이지가 10% 면 일반 공격의 10% 만큼 대미지가 늘어난다던지…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 벨런스가 이상해지지 않을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 답 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그렇다면, 버튼을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>누르는 순간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 직후, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>때어짐!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이벤트가 발생하지 않는다면, 게이지를 채우기 시작하기로 하자.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 강공격만 쓰려고 할 것 같은데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">또한, 게이지를 채우는 동안은 이동속도가 느려지고, 게이지를 채우기 위해, 기를 모으는 행동 이외엔 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다른 스킬이나 공격을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 할 수 없게 하자.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그렇게 되면, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>직후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가 무엇일까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의답 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼을 누름!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이벤트가 발생후 A초 ( 0 &lt; A =&lt; 1) 이내에 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>때어짐!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이벤트가 발생하면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일반 공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이라고 하자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌려짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌리는중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 N %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간별 이벤트 트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터의 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기모으는중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">추가로, 게이지 N %마다, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>후딜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이라고 불리는 시간을 B초 씩 늘려보자. 대신, 게이지 N% 가 커지면 커질수록, 단일 타겟이 아닌 광역기로 변해가도록 하자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하는중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11214,7 +11578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11782,10 +12146,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11794,19 +12191,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11836,10 +12221,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11848,28 +12239,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11899,36 +12281,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11956,38 +12308,20 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12001,49 +12335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12097,6 +12398,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12139,10 +12485,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
@@ -12151,19 +12521,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12184,120 +12593,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12314,63 +12609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12430,11 +12668,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36270,134 +36640,134 @@
       </c>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="335" t="s">
+      <c r="B67" s="308" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="308" t="s">
+      <c r="C67" s="311" t="s">
         <v>617</v>
       </c>
-      <c r="D67" s="310"/>
+      <c r="D67" s="312"/>
       <c r="E67" s="168" t="s">
         <v>618</v>
       </c>
-      <c r="F67" s="308" t="s">
+      <c r="F67" s="311" t="s">
         <v>615</v>
       </c>
-      <c r="G67" s="310"/>
-      <c r="H67" s="308" t="s">
+      <c r="G67" s="312"/>
+      <c r="H67" s="311" t="s">
         <v>622</v>
       </c>
-      <c r="I67" s="309"/>
-      <c r="J67" s="309"/>
-      <c r="K67" s="309"/>
-      <c r="L67" s="309"/>
-      <c r="M67" s="309"/>
-      <c r="N67" s="309"/>
-      <c r="O67" s="310"/>
-      <c r="R67" s="317" t="s">
+      <c r="I67" s="321"/>
+      <c r="J67" s="321"/>
+      <c r="K67" s="321"/>
+      <c r="L67" s="321"/>
+      <c r="M67" s="321"/>
+      <c r="N67" s="321"/>
+      <c r="O67" s="312"/>
+      <c r="R67" s="332" t="s">
         <v>667</v>
       </c>
-      <c r="S67" s="318"/>
-      <c r="T67" s="318"/>
-      <c r="U67" s="318"/>
-      <c r="V67" s="318"/>
-      <c r="W67" s="318"/>
-      <c r="X67" s="318"/>
-      <c r="Y67" s="319"/>
+      <c r="S67" s="333"/>
+      <c r="T67" s="333"/>
+      <c r="U67" s="333"/>
+      <c r="V67" s="333"/>
+      <c r="W67" s="333"/>
+      <c r="X67" s="333"/>
+      <c r="Y67" s="334"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="336"/>
-      <c r="C68" s="311" t="s">
+      <c r="B68" s="309"/>
+      <c r="C68" s="313" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="313"/>
-      <c r="E68" s="335" t="s">
+      <c r="D68" s="314"/>
+      <c r="E68" s="308" t="s">
         <v>616</v>
       </c>
-      <c r="F68" s="311" t="s">
+      <c r="F68" s="313" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="313"/>
-      <c r="H68" s="308" t="s">
+      <c r="G68" s="314"/>
+      <c r="H68" s="311" t="s">
         <v>633</v>
       </c>
-      <c r="I68" s="309"/>
-      <c r="J68" s="309"/>
-      <c r="K68" s="309"/>
-      <c r="L68" s="309"/>
-      <c r="M68" s="309"/>
-      <c r="N68" s="309"/>
-      <c r="O68" s="310"/>
+      <c r="I68" s="321"/>
+      <c r="J68" s="321"/>
+      <c r="K68" s="321"/>
+      <c r="L68" s="321"/>
+      <c r="M68" s="321"/>
+      <c r="N68" s="321"/>
+      <c r="O68" s="312"/>
       <c r="R68" s="6" t="s">
         <v>668</v>
       </c>
       <c r="Y68" s="115"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="336"/>
-      <c r="C69" s="329"/>
-      <c r="D69" s="330"/>
-      <c r="E69" s="337"/>
-      <c r="F69" s="314"/>
-      <c r="G69" s="316"/>
-      <c r="H69" s="308" t="s">
+      <c r="B69" s="309"/>
+      <c r="C69" s="315"/>
+      <c r="D69" s="316"/>
+      <c r="E69" s="310"/>
+      <c r="F69" s="317"/>
+      <c r="G69" s="318"/>
+      <c r="H69" s="311" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="309"/>
-      <c r="J69" s="309"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="310"/>
+      <c r="I69" s="321"/>
+      <c r="J69" s="321"/>
+      <c r="K69" s="321"/>
+      <c r="L69" s="321"/>
+      <c r="M69" s="321"/>
+      <c r="N69" s="321"/>
+      <c r="O69" s="312"/>
       <c r="R69" s="6" t="s">
         <v>669</v>
       </c>
       <c r="Y69" s="115"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B70" s="336"/>
-      <c r="C70" s="329"/>
-      <c r="D70" s="330"/>
-      <c r="E70" s="335" t="s">
+      <c r="B70" s="309"/>
+      <c r="C70" s="315"/>
+      <c r="D70" s="316"/>
+      <c r="E70" s="308" t="s">
         <v>619</v>
       </c>
-      <c r="F70" s="311" t="s">
+      <c r="F70" s="313" t="s">
         <v>630</v>
       </c>
-      <c r="G70" s="313"/>
-      <c r="H70" s="331" t="s">
+      <c r="G70" s="314"/>
+      <c r="H70" s="322" t="s">
         <v>623</v>
       </c>
-      <c r="I70" s="332"/>
-      <c r="J70" s="332"/>
-      <c r="K70" s="332"/>
-      <c r="L70" s="332"/>
-      <c r="M70" s="332"/>
-      <c r="N70" s="332"/>
-      <c r="O70" s="333"/>
+      <c r="I70" s="323"/>
+      <c r="J70" s="323"/>
+      <c r="K70" s="323"/>
+      <c r="L70" s="323"/>
+      <c r="M70" s="323"/>
+      <c r="N70" s="323"/>
+      <c r="O70" s="324"/>
       <c r="R70" s="6" t="s">
         <v>670</v>
       </c>
       <c r="Y70" s="115"/>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B71" s="336"/>
-      <c r="C71" s="329"/>
-      <c r="D71" s="330"/>
-      <c r="E71" s="336"/>
-      <c r="F71" s="329"/>
-      <c r="G71" s="330"/>
-      <c r="H71" s="323" t="s">
+      <c r="B71" s="309"/>
+      <c r="C71" s="315"/>
+      <c r="D71" s="316"/>
+      <c r="E71" s="309"/>
+      <c r="F71" s="315"/>
+      <c r="G71" s="316"/>
+      <c r="H71" s="325" t="s">
         <v>624</v>
       </c>
-      <c r="I71" s="324"/>
-      <c r="J71" s="324"/>
-      <c r="K71" s="324"/>
-      <c r="L71" s="324"/>
-      <c r="M71" s="324"/>
-      <c r="N71" s="324"/>
-      <c r="O71" s="325"/>
+      <c r="I71" s="326"/>
+      <c r="J71" s="326"/>
+      <c r="K71" s="326"/>
+      <c r="L71" s="326"/>
+      <c r="M71" s="326"/>
+      <c r="N71" s="326"/>
+      <c r="O71" s="327"/>
       <c r="R71" s="5" t="s">
         <v>671</v>
       </c>
@@ -36410,718 +36780,718 @@
       <c r="Y71" s="142"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B72" s="336"/>
-      <c r="C72" s="329"/>
-      <c r="D72" s="330"/>
-      <c r="E72" s="336"/>
-      <c r="F72" s="314"/>
-      <c r="G72" s="316"/>
-      <c r="H72" s="326"/>
-      <c r="I72" s="327"/>
-      <c r="J72" s="327"/>
-      <c r="K72" s="327"/>
-      <c r="L72" s="327"/>
-      <c r="M72" s="327"/>
-      <c r="N72" s="327"/>
-      <c r="O72" s="328"/>
+      <c r="B72" s="309"/>
+      <c r="C72" s="315"/>
+      <c r="D72" s="316"/>
+      <c r="E72" s="309"/>
+      <c r="F72" s="317"/>
+      <c r="G72" s="318"/>
+      <c r="H72" s="328"/>
+      <c r="I72" s="329"/>
+      <c r="J72" s="329"/>
+      <c r="K72" s="329"/>
+      <c r="L72" s="329"/>
+      <c r="M72" s="329"/>
+      <c r="N72" s="329"/>
+      <c r="O72" s="330"/>
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B73" s="336"/>
-      <c r="C73" s="329"/>
-      <c r="D73" s="330"/>
-      <c r="E73" s="336"/>
-      <c r="F73" s="311" t="s">
+      <c r="B73" s="309"/>
+      <c r="C73" s="315"/>
+      <c r="D73" s="316"/>
+      <c r="E73" s="309"/>
+      <c r="F73" s="313" t="s">
         <v>625</v>
       </c>
-      <c r="G73" s="313"/>
-      <c r="H73" s="311" t="s">
+      <c r="G73" s="314"/>
+      <c r="H73" s="313" t="s">
         <v>628</v>
       </c>
-      <c r="I73" s="312"/>
-      <c r="J73" s="312"/>
-      <c r="K73" s="312"/>
-      <c r="L73" s="312"/>
-      <c r="M73" s="312"/>
-      <c r="N73" s="312"/>
-      <c r="O73" s="313"/>
+      <c r="I73" s="319"/>
+      <c r="J73" s="319"/>
+      <c r="K73" s="319"/>
+      <c r="L73" s="319"/>
+      <c r="M73" s="319"/>
+      <c r="N73" s="319"/>
+      <c r="O73" s="314"/>
       <c r="R73" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B74" s="336"/>
-      <c r="C74" s="329"/>
-      <c r="D74" s="330"/>
-      <c r="E74" s="337"/>
-      <c r="F74" s="314"/>
-      <c r="G74" s="316"/>
-      <c r="H74" s="314"/>
-      <c r="I74" s="315"/>
-      <c r="J74" s="315"/>
-      <c r="K74" s="315"/>
-      <c r="L74" s="315"/>
-      <c r="M74" s="315"/>
-      <c r="N74" s="315"/>
-      <c r="O74" s="316"/>
+      <c r="B74" s="309"/>
+      <c r="C74" s="315"/>
+      <c r="D74" s="316"/>
+      <c r="E74" s="310"/>
+      <c r="F74" s="317"/>
+      <c r="G74" s="318"/>
+      <c r="H74" s="317"/>
+      <c r="I74" s="320"/>
+      <c r="J74" s="320"/>
+      <c r="K74" s="320"/>
+      <c r="L74" s="320"/>
+      <c r="M74" s="320"/>
+      <c r="N74" s="320"/>
+      <c r="O74" s="318"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B75" s="336"/>
-      <c r="C75" s="329"/>
-      <c r="D75" s="330"/>
-      <c r="E75" s="335" t="s">
+      <c r="B75" s="309"/>
+      <c r="C75" s="315"/>
+      <c r="D75" s="316"/>
+      <c r="E75" s="308" t="s">
         <v>620</v>
       </c>
-      <c r="F75" s="311" t="s">
+      <c r="F75" s="313" t="s">
         <v>626</v>
       </c>
-      <c r="G75" s="313"/>
-      <c r="H75" s="311" t="s">
+      <c r="G75" s="314"/>
+      <c r="H75" s="313" t="s">
         <v>627</v>
       </c>
-      <c r="I75" s="312"/>
-      <c r="J75" s="312"/>
-      <c r="K75" s="312"/>
-      <c r="L75" s="312"/>
-      <c r="M75" s="312"/>
-      <c r="N75" s="312"/>
-      <c r="O75" s="313"/>
+      <c r="I75" s="319"/>
+      <c r="J75" s="319"/>
+      <c r="K75" s="319"/>
+      <c r="L75" s="319"/>
+      <c r="M75" s="319"/>
+      <c r="N75" s="319"/>
+      <c r="O75" s="314"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="336"/>
-      <c r="C76" s="329"/>
-      <c r="D76" s="330"/>
-      <c r="E76" s="337"/>
-      <c r="F76" s="314"/>
-      <c r="G76" s="316"/>
-      <c r="H76" s="314"/>
-      <c r="I76" s="315"/>
-      <c r="J76" s="315"/>
-      <c r="K76" s="315"/>
-      <c r="L76" s="315"/>
-      <c r="M76" s="315"/>
-      <c r="N76" s="315"/>
-      <c r="O76" s="316"/>
+      <c r="B76" s="309"/>
+      <c r="C76" s="315"/>
+      <c r="D76" s="316"/>
+      <c r="E76" s="310"/>
+      <c r="F76" s="317"/>
+      <c r="G76" s="318"/>
+      <c r="H76" s="317"/>
+      <c r="I76" s="320"/>
+      <c r="J76" s="320"/>
+      <c r="K76" s="320"/>
+      <c r="L76" s="320"/>
+      <c r="M76" s="320"/>
+      <c r="N76" s="320"/>
+      <c r="O76" s="318"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="336"/>
-      <c r="C77" s="329"/>
-      <c r="D77" s="330"/>
-      <c r="E77" s="335" t="s">
+      <c r="B77" s="309"/>
+      <c r="C77" s="315"/>
+      <c r="D77" s="316"/>
+      <c r="E77" s="308" t="s">
         <v>409</v>
       </c>
-      <c r="F77" s="311" t="s">
+      <c r="F77" s="313" t="s">
         <v>629</v>
       </c>
-      <c r="G77" s="313"/>
-      <c r="H77" s="311" t="s">
+      <c r="G77" s="314"/>
+      <c r="H77" s="313" t="s">
         <v>632</v>
       </c>
-      <c r="I77" s="312"/>
-      <c r="J77" s="312"/>
-      <c r="K77" s="312"/>
-      <c r="L77" s="312"/>
-      <c r="M77" s="312"/>
-      <c r="N77" s="312"/>
-      <c r="O77" s="313"/>
+      <c r="I77" s="319"/>
+      <c r="J77" s="319"/>
+      <c r="K77" s="319"/>
+      <c r="L77" s="319"/>
+      <c r="M77" s="319"/>
+      <c r="N77" s="319"/>
+      <c r="O77" s="314"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="336"/>
-      <c r="C78" s="314"/>
-      <c r="D78" s="316"/>
-      <c r="E78" s="337"/>
-      <c r="F78" s="314"/>
-      <c r="G78" s="316"/>
-      <c r="H78" s="314"/>
-      <c r="I78" s="315"/>
-      <c r="J78" s="315"/>
-      <c r="K78" s="315"/>
-      <c r="L78" s="315"/>
-      <c r="M78" s="315"/>
-      <c r="N78" s="315"/>
-      <c r="O78" s="316"/>
+      <c r="B78" s="309"/>
+      <c r="C78" s="317"/>
+      <c r="D78" s="318"/>
+      <c r="E78" s="310"/>
+      <c r="F78" s="317"/>
+      <c r="G78" s="318"/>
+      <c r="H78" s="317"/>
+      <c r="I78" s="320"/>
+      <c r="J78" s="320"/>
+      <c r="K78" s="320"/>
+      <c r="L78" s="320"/>
+      <c r="M78" s="320"/>
+      <c r="N78" s="320"/>
+      <c r="O78" s="318"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="336"/>
-      <c r="C79" s="311" t="s">
+      <c r="B79" s="309"/>
+      <c r="C79" s="313" t="s">
         <v>582</v>
       </c>
-      <c r="D79" s="313"/>
-      <c r="E79" s="335" t="s">
+      <c r="D79" s="314"/>
+      <c r="E79" s="308" t="s">
         <v>616</v>
       </c>
-      <c r="F79" s="311" t="s">
+      <c r="F79" s="313" t="s">
         <v>621</v>
       </c>
-      <c r="G79" s="313"/>
-      <c r="H79" s="308" t="s">
+      <c r="G79" s="314"/>
+      <c r="H79" s="311" t="s">
         <v>634</v>
       </c>
-      <c r="I79" s="309"/>
-      <c r="J79" s="309"/>
-      <c r="K79" s="309"/>
-      <c r="L79" s="309"/>
-      <c r="M79" s="309"/>
-      <c r="N79" s="309"/>
-      <c r="O79" s="310"/>
+      <c r="I79" s="321"/>
+      <c r="J79" s="321"/>
+      <c r="K79" s="321"/>
+      <c r="L79" s="321"/>
+      <c r="M79" s="321"/>
+      <c r="N79" s="321"/>
+      <c r="O79" s="312"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="336"/>
-      <c r="C80" s="329"/>
-      <c r="D80" s="330"/>
-      <c r="E80" s="336"/>
-      <c r="F80" s="314"/>
-      <c r="G80" s="316"/>
-      <c r="H80" s="308" t="s">
+      <c r="B80" s="309"/>
+      <c r="C80" s="315"/>
+      <c r="D80" s="316"/>
+      <c r="E80" s="309"/>
+      <c r="F80" s="317"/>
+      <c r="G80" s="318"/>
+      <c r="H80" s="311" t="s">
         <v>663</v>
       </c>
-      <c r="I80" s="309"/>
-      <c r="J80" s="309"/>
-      <c r="K80" s="309"/>
-      <c r="L80" s="309"/>
-      <c r="M80" s="309"/>
-      <c r="N80" s="309"/>
-      <c r="O80" s="310"/>
+      <c r="I80" s="321"/>
+      <c r="J80" s="321"/>
+      <c r="K80" s="321"/>
+      <c r="L80" s="321"/>
+      <c r="M80" s="321"/>
+      <c r="N80" s="321"/>
+      <c r="O80" s="312"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="336"/>
-      <c r="C81" s="329"/>
-      <c r="D81" s="330"/>
-      <c r="E81" s="336"/>
-      <c r="F81" s="311" t="s">
+      <c r="B81" s="309"/>
+      <c r="C81" s="315"/>
+      <c r="D81" s="316"/>
+      <c r="E81" s="309"/>
+      <c r="F81" s="313" t="s">
         <v>635</v>
       </c>
-      <c r="G81" s="313"/>
-      <c r="H81" s="311" t="s">
+      <c r="G81" s="314"/>
+      <c r="H81" s="313" t="s">
         <v>636</v>
       </c>
-      <c r="I81" s="312"/>
-      <c r="J81" s="312"/>
-      <c r="K81" s="312"/>
-      <c r="L81" s="312"/>
-      <c r="M81" s="312"/>
-      <c r="N81" s="312"/>
-      <c r="O81" s="313"/>
+      <c r="I81" s="319"/>
+      <c r="J81" s="319"/>
+      <c r="K81" s="319"/>
+      <c r="L81" s="319"/>
+      <c r="M81" s="319"/>
+      <c r="N81" s="319"/>
+      <c r="O81" s="314"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="336"/>
-      <c r="C82" s="329"/>
-      <c r="D82" s="330"/>
-      <c r="E82" s="337"/>
-      <c r="F82" s="314"/>
-      <c r="G82" s="316"/>
-      <c r="H82" s="314"/>
-      <c r="I82" s="315"/>
-      <c r="J82" s="315"/>
-      <c r="K82" s="315"/>
-      <c r="L82" s="315"/>
-      <c r="M82" s="315"/>
-      <c r="N82" s="315"/>
-      <c r="O82" s="316"/>
+      <c r="B82" s="309"/>
+      <c r="C82" s="315"/>
+      <c r="D82" s="316"/>
+      <c r="E82" s="310"/>
+      <c r="F82" s="317"/>
+      <c r="G82" s="318"/>
+      <c r="H82" s="317"/>
+      <c r="I82" s="320"/>
+      <c r="J82" s="320"/>
+      <c r="K82" s="320"/>
+      <c r="L82" s="320"/>
+      <c r="M82" s="320"/>
+      <c r="N82" s="320"/>
+      <c r="O82" s="318"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="336"/>
-      <c r="C83" s="329"/>
-      <c r="D83" s="330"/>
-      <c r="E83" s="335" t="s">
+      <c r="B83" s="309"/>
+      <c r="C83" s="315"/>
+      <c r="D83" s="316"/>
+      <c r="E83" s="308" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="311" t="s">
+      <c r="F83" s="313" t="s">
         <v>638</v>
       </c>
-      <c r="G83" s="313"/>
-      <c r="H83" s="323" t="s">
+      <c r="G83" s="314"/>
+      <c r="H83" s="325" t="s">
         <v>639</v>
       </c>
-      <c r="I83" s="324"/>
-      <c r="J83" s="324"/>
-      <c r="K83" s="324"/>
-      <c r="L83" s="324"/>
-      <c r="M83" s="324"/>
-      <c r="N83" s="324"/>
-      <c r="O83" s="325"/>
+      <c r="I83" s="326"/>
+      <c r="J83" s="326"/>
+      <c r="K83" s="326"/>
+      <c r="L83" s="326"/>
+      <c r="M83" s="326"/>
+      <c r="N83" s="326"/>
+      <c r="O83" s="327"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="336"/>
-      <c r="C84" s="329"/>
-      <c r="D84" s="330"/>
-      <c r="E84" s="336"/>
-      <c r="F84" s="314"/>
-      <c r="G84" s="316"/>
-      <c r="H84" s="326"/>
-      <c r="I84" s="327"/>
-      <c r="J84" s="327"/>
-      <c r="K84" s="327"/>
-      <c r="L84" s="327"/>
-      <c r="M84" s="327"/>
-      <c r="N84" s="327"/>
-      <c r="O84" s="328"/>
+      <c r="B84" s="309"/>
+      <c r="C84" s="315"/>
+      <c r="D84" s="316"/>
+      <c r="E84" s="309"/>
+      <c r="F84" s="317"/>
+      <c r="G84" s="318"/>
+      <c r="H84" s="328"/>
+      <c r="I84" s="329"/>
+      <c r="J84" s="329"/>
+      <c r="K84" s="329"/>
+      <c r="L84" s="329"/>
+      <c r="M84" s="329"/>
+      <c r="N84" s="329"/>
+      <c r="O84" s="330"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="336"/>
-      <c r="C85" s="329"/>
-      <c r="D85" s="330"/>
-      <c r="E85" s="336"/>
-      <c r="F85" s="311" t="s">
+      <c r="B85" s="309"/>
+      <c r="C85" s="315"/>
+      <c r="D85" s="316"/>
+      <c r="E85" s="309"/>
+      <c r="F85" s="313" t="s">
         <v>625</v>
       </c>
-      <c r="G85" s="313"/>
-      <c r="H85" s="311" t="s">
+      <c r="G85" s="314"/>
+      <c r="H85" s="313" t="s">
         <v>640</v>
       </c>
-      <c r="I85" s="312"/>
-      <c r="J85" s="312"/>
-      <c r="K85" s="312"/>
-      <c r="L85" s="312"/>
-      <c r="M85" s="312"/>
-      <c r="N85" s="312"/>
-      <c r="O85" s="313"/>
+      <c r="I85" s="319"/>
+      <c r="J85" s="319"/>
+      <c r="K85" s="319"/>
+      <c r="L85" s="319"/>
+      <c r="M85" s="319"/>
+      <c r="N85" s="319"/>
+      <c r="O85" s="314"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="336"/>
-      <c r="C86" s="329"/>
-      <c r="D86" s="330"/>
-      <c r="E86" s="337"/>
-      <c r="F86" s="314"/>
-      <c r="G86" s="316"/>
-      <c r="H86" s="314"/>
-      <c r="I86" s="315"/>
-      <c r="J86" s="315"/>
-      <c r="K86" s="315"/>
-      <c r="L86" s="315"/>
-      <c r="M86" s="315"/>
-      <c r="N86" s="315"/>
-      <c r="O86" s="316"/>
+      <c r="B86" s="309"/>
+      <c r="C86" s="315"/>
+      <c r="D86" s="316"/>
+      <c r="E86" s="310"/>
+      <c r="F86" s="317"/>
+      <c r="G86" s="318"/>
+      <c r="H86" s="317"/>
+      <c r="I86" s="320"/>
+      <c r="J86" s="320"/>
+      <c r="K86" s="320"/>
+      <c r="L86" s="320"/>
+      <c r="M86" s="320"/>
+      <c r="N86" s="320"/>
+      <c r="O86" s="318"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="336"/>
-      <c r="C87" s="329"/>
-      <c r="D87" s="330"/>
-      <c r="E87" s="335" t="s">
+      <c r="B87" s="309"/>
+      <c r="C87" s="315"/>
+      <c r="D87" s="316"/>
+      <c r="E87" s="308" t="s">
         <v>642</v>
       </c>
-      <c r="F87" s="311" t="s">
+      <c r="F87" s="313" t="s">
         <v>643</v>
       </c>
-      <c r="G87" s="313"/>
-      <c r="H87" s="308" t="s">
+      <c r="G87" s="314"/>
+      <c r="H87" s="311" t="s">
         <v>645</v>
       </c>
-      <c r="I87" s="309"/>
-      <c r="J87" s="309"/>
-      <c r="K87" s="309"/>
-      <c r="L87" s="309"/>
-      <c r="M87" s="309"/>
-      <c r="N87" s="309"/>
-      <c r="O87" s="310"/>
+      <c r="I87" s="321"/>
+      <c r="J87" s="321"/>
+      <c r="K87" s="321"/>
+      <c r="L87" s="321"/>
+      <c r="M87" s="321"/>
+      <c r="N87" s="321"/>
+      <c r="O87" s="312"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="336"/>
-      <c r="C88" s="329"/>
-      <c r="D88" s="330"/>
-      <c r="E88" s="336"/>
-      <c r="F88" s="329"/>
-      <c r="G88" s="330"/>
-      <c r="H88" s="308" t="s">
+      <c r="B88" s="309"/>
+      <c r="C88" s="315"/>
+      <c r="D88" s="316"/>
+      <c r="E88" s="309"/>
+      <c r="F88" s="315"/>
+      <c r="G88" s="316"/>
+      <c r="H88" s="311" t="s">
         <v>646</v>
       </c>
-      <c r="I88" s="309"/>
-      <c r="J88" s="309"/>
-      <c r="K88" s="309"/>
-      <c r="L88" s="309"/>
-      <c r="M88" s="309"/>
-      <c r="N88" s="309"/>
-      <c r="O88" s="310"/>
+      <c r="I88" s="321"/>
+      <c r="J88" s="321"/>
+      <c r="K88" s="321"/>
+      <c r="L88" s="321"/>
+      <c r="M88" s="321"/>
+      <c r="N88" s="321"/>
+      <c r="O88" s="312"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="336"/>
-      <c r="C89" s="329"/>
-      <c r="D89" s="330"/>
-      <c r="E89" s="336"/>
-      <c r="F89" s="329"/>
-      <c r="G89" s="330"/>
-      <c r="H89" s="311" t="s">
+      <c r="B89" s="309"/>
+      <c r="C89" s="315"/>
+      <c r="D89" s="316"/>
+      <c r="E89" s="309"/>
+      <c r="F89" s="315"/>
+      <c r="G89" s="316"/>
+      <c r="H89" s="313" t="s">
         <v>647</v>
       </c>
-      <c r="I89" s="312"/>
-      <c r="J89" s="312"/>
-      <c r="K89" s="312"/>
-      <c r="L89" s="312"/>
-      <c r="M89" s="312"/>
-      <c r="N89" s="312"/>
-      <c r="O89" s="313"/>
+      <c r="I89" s="319"/>
+      <c r="J89" s="319"/>
+      <c r="K89" s="319"/>
+      <c r="L89" s="319"/>
+      <c r="M89" s="319"/>
+      <c r="N89" s="319"/>
+      <c r="O89" s="314"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="336"/>
-      <c r="C90" s="329"/>
-      <c r="D90" s="330"/>
-      <c r="E90" s="336"/>
-      <c r="F90" s="314"/>
-      <c r="G90" s="316"/>
-      <c r="H90" s="314"/>
-      <c r="I90" s="315"/>
-      <c r="J90" s="315"/>
-      <c r="K90" s="315"/>
-      <c r="L90" s="315"/>
-      <c r="M90" s="315"/>
-      <c r="N90" s="315"/>
-      <c r="O90" s="316"/>
+      <c r="B90" s="309"/>
+      <c r="C90" s="315"/>
+      <c r="D90" s="316"/>
+      <c r="E90" s="309"/>
+      <c r="F90" s="317"/>
+      <c r="G90" s="318"/>
+      <c r="H90" s="317"/>
+      <c r="I90" s="320"/>
+      <c r="J90" s="320"/>
+      <c r="K90" s="320"/>
+      <c r="L90" s="320"/>
+      <c r="M90" s="320"/>
+      <c r="N90" s="320"/>
+      <c r="O90" s="318"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="336"/>
-      <c r="C91" s="329"/>
-      <c r="D91" s="330"/>
-      <c r="E91" s="336"/>
-      <c r="F91" s="311" t="s">
+      <c r="B91" s="309"/>
+      <c r="C91" s="315"/>
+      <c r="D91" s="316"/>
+      <c r="E91" s="309"/>
+      <c r="F91" s="313" t="s">
         <v>644</v>
       </c>
-      <c r="G91" s="313"/>
-      <c r="H91" s="320" t="s">
+      <c r="G91" s="314"/>
+      <c r="H91" s="335" t="s">
         <v>648</v>
       </c>
-      <c r="I91" s="321"/>
-      <c r="J91" s="321"/>
-      <c r="K91" s="321"/>
-      <c r="L91" s="321"/>
-      <c r="M91" s="321"/>
-      <c r="N91" s="321"/>
-      <c r="O91" s="322"/>
+      <c r="I91" s="336"/>
+      <c r="J91" s="336"/>
+      <c r="K91" s="336"/>
+      <c r="L91" s="336"/>
+      <c r="M91" s="336"/>
+      <c r="N91" s="336"/>
+      <c r="O91" s="337"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="336"/>
-      <c r="C92" s="329"/>
-      <c r="D92" s="330"/>
-      <c r="E92" s="336"/>
-      <c r="F92" s="329"/>
-      <c r="G92" s="330"/>
-      <c r="H92" s="311" t="s">
+      <c r="B92" s="309"/>
+      <c r="C92" s="315"/>
+      <c r="D92" s="316"/>
+      <c r="E92" s="309"/>
+      <c r="F92" s="315"/>
+      <c r="G92" s="316"/>
+      <c r="H92" s="313" t="s">
         <v>649</v>
       </c>
-      <c r="I92" s="312"/>
-      <c r="J92" s="312"/>
-      <c r="K92" s="312"/>
-      <c r="L92" s="312"/>
-      <c r="M92" s="312"/>
-      <c r="N92" s="312"/>
-      <c r="O92" s="313"/>
+      <c r="I92" s="319"/>
+      <c r="J92" s="319"/>
+      <c r="K92" s="319"/>
+      <c r="L92" s="319"/>
+      <c r="M92" s="319"/>
+      <c r="N92" s="319"/>
+      <c r="O92" s="314"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="336"/>
-      <c r="C93" s="329"/>
-      <c r="D93" s="330"/>
-      <c r="E93" s="337"/>
-      <c r="F93" s="329"/>
-      <c r="G93" s="330"/>
-      <c r="H93" s="314"/>
-      <c r="I93" s="315"/>
-      <c r="J93" s="315"/>
-      <c r="K93" s="315"/>
-      <c r="L93" s="315"/>
-      <c r="M93" s="315"/>
-      <c r="N93" s="315"/>
-      <c r="O93" s="316"/>
+      <c r="B93" s="309"/>
+      <c r="C93" s="315"/>
+      <c r="D93" s="316"/>
+      <c r="E93" s="310"/>
+      <c r="F93" s="315"/>
+      <c r="G93" s="316"/>
+      <c r="H93" s="317"/>
+      <c r="I93" s="320"/>
+      <c r="J93" s="320"/>
+      <c r="K93" s="320"/>
+      <c r="L93" s="320"/>
+      <c r="M93" s="320"/>
+      <c r="N93" s="320"/>
+      <c r="O93" s="318"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="336"/>
-      <c r="C94" s="329"/>
-      <c r="D94" s="330"/>
-      <c r="E94" s="311" t="s">
+      <c r="B94" s="309"/>
+      <c r="C94" s="315"/>
+      <c r="D94" s="316"/>
+      <c r="E94" s="313" t="s">
         <v>641</v>
       </c>
-      <c r="F94" s="311" t="s">
+      <c r="F94" s="313" t="s">
         <v>629</v>
       </c>
-      <c r="G94" s="313"/>
-      <c r="H94" s="311" t="s">
+      <c r="G94" s="314"/>
+      <c r="H94" s="313" t="s">
         <v>631</v>
       </c>
-      <c r="I94" s="312"/>
-      <c r="J94" s="312"/>
-      <c r="K94" s="312"/>
-      <c r="L94" s="312"/>
-      <c r="M94" s="312"/>
-      <c r="N94" s="312"/>
-      <c r="O94" s="313"/>
+      <c r="I94" s="319"/>
+      <c r="J94" s="319"/>
+      <c r="K94" s="319"/>
+      <c r="L94" s="319"/>
+      <c r="M94" s="319"/>
+      <c r="N94" s="319"/>
+      <c r="O94" s="314"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="336"/>
-      <c r="C95" s="329"/>
-      <c r="D95" s="330"/>
-      <c r="E95" s="314"/>
-      <c r="F95" s="329"/>
-      <c r="G95" s="330"/>
-      <c r="H95" s="329"/>
-      <c r="I95" s="334"/>
-      <c r="J95" s="334"/>
-      <c r="K95" s="334"/>
-      <c r="L95" s="334"/>
-      <c r="M95" s="334"/>
-      <c r="N95" s="334"/>
-      <c r="O95" s="330"/>
+      <c r="B95" s="309"/>
+      <c r="C95" s="315"/>
+      <c r="D95" s="316"/>
+      <c r="E95" s="317"/>
+      <c r="F95" s="315"/>
+      <c r="G95" s="316"/>
+      <c r="H95" s="315"/>
+      <c r="I95" s="331"/>
+      <c r="J95" s="331"/>
+      <c r="K95" s="331"/>
+      <c r="L95" s="331"/>
+      <c r="M95" s="331"/>
+      <c r="N95" s="331"/>
+      <c r="O95" s="316"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="336"/>
-      <c r="C96" s="329"/>
-      <c r="D96" s="330"/>
-      <c r="E96" s="311" t="s">
+      <c r="B96" s="309"/>
+      <c r="C96" s="315"/>
+      <c r="D96" s="316"/>
+      <c r="E96" s="313" t="s">
         <v>409</v>
       </c>
-      <c r="F96" s="329"/>
-      <c r="G96" s="330"/>
-      <c r="H96" s="329"/>
-      <c r="I96" s="334"/>
-      <c r="J96" s="334"/>
-      <c r="K96" s="334"/>
-      <c r="L96" s="334"/>
-      <c r="M96" s="334"/>
-      <c r="N96" s="334"/>
-      <c r="O96" s="330"/>
+      <c r="F96" s="315"/>
+      <c r="G96" s="316"/>
+      <c r="H96" s="315"/>
+      <c r="I96" s="331"/>
+      <c r="J96" s="331"/>
+      <c r="K96" s="331"/>
+      <c r="L96" s="331"/>
+      <c r="M96" s="331"/>
+      <c r="N96" s="331"/>
+      <c r="O96" s="316"/>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B97" s="336"/>
-      <c r="C97" s="314"/>
-      <c r="D97" s="316"/>
-      <c r="E97" s="314"/>
-      <c r="F97" s="314"/>
-      <c r="G97" s="316"/>
-      <c r="H97" s="314"/>
-      <c r="I97" s="315"/>
-      <c r="J97" s="315"/>
-      <c r="K97" s="315"/>
-      <c r="L97" s="315"/>
-      <c r="M97" s="315"/>
-      <c r="N97" s="315"/>
-      <c r="O97" s="316"/>
+      <c r="B97" s="309"/>
+      <c r="C97" s="317"/>
+      <c r="D97" s="318"/>
+      <c r="E97" s="317"/>
+      <c r="F97" s="317"/>
+      <c r="G97" s="318"/>
+      <c r="H97" s="317"/>
+      <c r="I97" s="320"/>
+      <c r="J97" s="320"/>
+      <c r="K97" s="320"/>
+      <c r="L97" s="320"/>
+      <c r="M97" s="320"/>
+      <c r="N97" s="320"/>
+      <c r="O97" s="318"/>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B98" s="336"/>
-      <c r="C98" s="311" t="s">
+      <c r="B98" s="309"/>
+      <c r="C98" s="313" t="s">
         <v>583</v>
       </c>
-      <c r="D98" s="313"/>
-      <c r="E98" s="335" t="s">
+      <c r="D98" s="314"/>
+      <c r="E98" s="308" t="s">
         <v>616</v>
       </c>
-      <c r="F98" s="311" t="s">
+      <c r="F98" s="313" t="s">
         <v>652</v>
       </c>
-      <c r="G98" s="313"/>
-      <c r="H98" s="311" t="s">
+      <c r="G98" s="314"/>
+      <c r="H98" s="313" t="s">
         <v>653</v>
       </c>
-      <c r="I98" s="312"/>
-      <c r="J98" s="312"/>
-      <c r="K98" s="312"/>
-      <c r="L98" s="312"/>
-      <c r="M98" s="312"/>
-      <c r="N98" s="312"/>
-      <c r="O98" s="313"/>
+      <c r="I98" s="319"/>
+      <c r="J98" s="319"/>
+      <c r="K98" s="319"/>
+      <c r="L98" s="319"/>
+      <c r="M98" s="319"/>
+      <c r="N98" s="319"/>
+      <c r="O98" s="314"/>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B99" s="336"/>
-      <c r="C99" s="329"/>
-      <c r="D99" s="330"/>
-      <c r="E99" s="336"/>
-      <c r="F99" s="314"/>
-      <c r="G99" s="316"/>
-      <c r="H99" s="314"/>
-      <c r="I99" s="315"/>
-      <c r="J99" s="315"/>
-      <c r="K99" s="315"/>
-      <c r="L99" s="315"/>
-      <c r="M99" s="315"/>
-      <c r="N99" s="315"/>
-      <c r="O99" s="316"/>
+      <c r="B99" s="309"/>
+      <c r="C99" s="315"/>
+      <c r="D99" s="316"/>
+      <c r="E99" s="309"/>
+      <c r="F99" s="317"/>
+      <c r="G99" s="318"/>
+      <c r="H99" s="317"/>
+      <c r="I99" s="320"/>
+      <c r="J99" s="320"/>
+      <c r="K99" s="320"/>
+      <c r="L99" s="320"/>
+      <c r="M99" s="320"/>
+      <c r="N99" s="320"/>
+      <c r="O99" s="318"/>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B100" s="336"/>
-      <c r="C100" s="329"/>
-      <c r="D100" s="330"/>
-      <c r="E100" s="336"/>
-      <c r="F100" s="311" t="s">
+      <c r="B100" s="309"/>
+      <c r="C100" s="315"/>
+      <c r="D100" s="316"/>
+      <c r="E100" s="309"/>
+      <c r="F100" s="313" t="s">
         <v>654</v>
       </c>
-      <c r="G100" s="313"/>
-      <c r="H100" s="320" t="s">
+      <c r="G100" s="314"/>
+      <c r="H100" s="335" t="s">
         <v>655</v>
       </c>
-      <c r="I100" s="321"/>
-      <c r="J100" s="321"/>
-      <c r="K100" s="321"/>
-      <c r="L100" s="321"/>
-      <c r="M100" s="321"/>
-      <c r="N100" s="321"/>
-      <c r="O100" s="322"/>
+      <c r="I100" s="336"/>
+      <c r="J100" s="336"/>
+      <c r="K100" s="336"/>
+      <c r="L100" s="336"/>
+      <c r="M100" s="336"/>
+      <c r="N100" s="336"/>
+      <c r="O100" s="337"/>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B101" s="336"/>
-      <c r="C101" s="329"/>
-      <c r="D101" s="330"/>
-      <c r="E101" s="336"/>
-      <c r="F101" s="329"/>
-      <c r="G101" s="330"/>
-      <c r="H101" s="308" t="s">
+      <c r="B101" s="309"/>
+      <c r="C101" s="315"/>
+      <c r="D101" s="316"/>
+      <c r="E101" s="309"/>
+      <c r="F101" s="315"/>
+      <c r="G101" s="316"/>
+      <c r="H101" s="311" t="s">
         <v>656</v>
       </c>
-      <c r="I101" s="309"/>
-      <c r="J101" s="309"/>
-      <c r="K101" s="309"/>
-      <c r="L101" s="309"/>
-      <c r="M101" s="309"/>
-      <c r="N101" s="309"/>
-      <c r="O101" s="310"/>
+      <c r="I101" s="321"/>
+      <c r="J101" s="321"/>
+      <c r="K101" s="321"/>
+      <c r="L101" s="321"/>
+      <c r="M101" s="321"/>
+      <c r="N101" s="321"/>
+      <c r="O101" s="312"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B102" s="336"/>
-      <c r="C102" s="329"/>
-      <c r="D102" s="330"/>
-      <c r="E102" s="336"/>
-      <c r="F102" s="329"/>
-      <c r="G102" s="330"/>
-      <c r="H102" s="308" t="s">
+      <c r="B102" s="309"/>
+      <c r="C102" s="315"/>
+      <c r="D102" s="316"/>
+      <c r="E102" s="309"/>
+      <c r="F102" s="315"/>
+      <c r="G102" s="316"/>
+      <c r="H102" s="311" t="s">
         <v>657</v>
       </c>
-      <c r="I102" s="309"/>
-      <c r="J102" s="309"/>
-      <c r="K102" s="309"/>
-      <c r="L102" s="309"/>
-      <c r="M102" s="309"/>
-      <c r="N102" s="309"/>
-      <c r="O102" s="310"/>
+      <c r="I102" s="321"/>
+      <c r="J102" s="321"/>
+      <c r="K102" s="321"/>
+      <c r="L102" s="321"/>
+      <c r="M102" s="321"/>
+      <c r="N102" s="321"/>
+      <c r="O102" s="312"/>
       <c r="P102" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B103" s="336"/>
-      <c r="C103" s="329"/>
-      <c r="D103" s="330"/>
-      <c r="E103" s="336"/>
-      <c r="F103" s="329"/>
-      <c r="G103" s="330"/>
-      <c r="H103" s="311" t="s">
+      <c r="B103" s="309"/>
+      <c r="C103" s="315"/>
+      <c r="D103" s="316"/>
+      <c r="E103" s="309"/>
+      <c r="F103" s="315"/>
+      <c r="G103" s="316"/>
+      <c r="H103" s="313" t="s">
         <v>662</v>
       </c>
-      <c r="I103" s="312"/>
-      <c r="J103" s="312"/>
-      <c r="K103" s="312"/>
-      <c r="L103" s="312"/>
-      <c r="M103" s="312"/>
-      <c r="N103" s="312"/>
-      <c r="O103" s="313"/>
+      <c r="I103" s="319"/>
+      <c r="J103" s="319"/>
+      <c r="K103" s="319"/>
+      <c r="L103" s="319"/>
+      <c r="M103" s="319"/>
+      <c r="N103" s="319"/>
+      <c r="O103" s="314"/>
       <c r="P103" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B104" s="336"/>
-      <c r="C104" s="329"/>
-      <c r="D104" s="330"/>
-      <c r="E104" s="336"/>
-      <c r="F104" s="314"/>
-      <c r="G104" s="316"/>
-      <c r="H104" s="314"/>
-      <c r="I104" s="315"/>
-      <c r="J104" s="315"/>
-      <c r="K104" s="315"/>
-      <c r="L104" s="315"/>
-      <c r="M104" s="315"/>
-      <c r="N104" s="315"/>
-      <c r="O104" s="316"/>
+      <c r="B104" s="309"/>
+      <c r="C104" s="315"/>
+      <c r="D104" s="316"/>
+      <c r="E104" s="309"/>
+      <c r="F104" s="317"/>
+      <c r="G104" s="318"/>
+      <c r="H104" s="317"/>
+      <c r="I104" s="320"/>
+      <c r="J104" s="320"/>
+      <c r="K104" s="320"/>
+      <c r="L104" s="320"/>
+      <c r="M104" s="320"/>
+      <c r="N104" s="320"/>
+      <c r="O104" s="318"/>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B105" s="336"/>
-      <c r="C105" s="329"/>
-      <c r="D105" s="330"/>
-      <c r="E105" s="336"/>
-      <c r="F105" s="311" t="s">
+      <c r="B105" s="309"/>
+      <c r="C105" s="315"/>
+      <c r="D105" s="316"/>
+      <c r="E105" s="309"/>
+      <c r="F105" s="313" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="313"/>
-      <c r="H105" s="308" t="s">
+      <c r="G105" s="314"/>
+      <c r="H105" s="311" t="s">
         <v>658</v>
       </c>
-      <c r="I105" s="309"/>
-      <c r="J105" s="309"/>
-      <c r="K105" s="309"/>
-      <c r="L105" s="309"/>
-      <c r="M105" s="309"/>
-      <c r="N105" s="309"/>
-      <c r="O105" s="310"/>
+      <c r="I105" s="321"/>
+      <c r="J105" s="321"/>
+      <c r="K105" s="321"/>
+      <c r="L105" s="321"/>
+      <c r="M105" s="321"/>
+      <c r="N105" s="321"/>
+      <c r="O105" s="312"/>
       <c r="P105" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B106" s="336"/>
-      <c r="C106" s="329"/>
-      <c r="D106" s="330"/>
-      <c r="E106" s="336"/>
-      <c r="F106" s="329"/>
-      <c r="G106" s="330"/>
-      <c r="H106" s="308" t="s">
+      <c r="B106" s="309"/>
+      <c r="C106" s="315"/>
+      <c r="D106" s="316"/>
+      <c r="E106" s="309"/>
+      <c r="F106" s="315"/>
+      <c r="G106" s="316"/>
+      <c r="H106" s="311" t="s">
         <v>659</v>
       </c>
-      <c r="I106" s="309"/>
-      <c r="J106" s="309"/>
-      <c r="K106" s="309"/>
-      <c r="L106" s="309"/>
-      <c r="M106" s="309"/>
-      <c r="N106" s="309"/>
-      <c r="O106" s="310"/>
+      <c r="I106" s="321"/>
+      <c r="J106" s="321"/>
+      <c r="K106" s="321"/>
+      <c r="L106" s="321"/>
+      <c r="M106" s="321"/>
+      <c r="N106" s="321"/>
+      <c r="O106" s="312"/>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B107" s="336"/>
-      <c r="C107" s="329"/>
-      <c r="D107" s="330"/>
-      <c r="E107" s="336"/>
-      <c r="F107" s="329"/>
-      <c r="G107" s="330"/>
-      <c r="H107" s="311" t="s">
+      <c r="B107" s="309"/>
+      <c r="C107" s="315"/>
+      <c r="D107" s="316"/>
+      <c r="E107" s="309"/>
+      <c r="F107" s="315"/>
+      <c r="G107" s="316"/>
+      <c r="H107" s="313" t="s">
         <v>660</v>
       </c>
-      <c r="I107" s="312"/>
-      <c r="J107" s="312"/>
-      <c r="K107" s="312"/>
-      <c r="L107" s="312"/>
-      <c r="M107" s="312"/>
-      <c r="N107" s="312"/>
-      <c r="O107" s="313"/>
+      <c r="I107" s="319"/>
+      <c r="J107" s="319"/>
+      <c r="K107" s="319"/>
+      <c r="L107" s="319"/>
+      <c r="M107" s="319"/>
+      <c r="N107" s="319"/>
+      <c r="O107" s="314"/>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B108" s="336"/>
-      <c r="C108" s="329"/>
-      <c r="D108" s="330"/>
-      <c r="E108" s="336"/>
-      <c r="F108" s="314"/>
-      <c r="G108" s="316"/>
-      <c r="H108" s="314"/>
-      <c r="I108" s="315"/>
-      <c r="J108" s="315"/>
-      <c r="K108" s="315"/>
-      <c r="L108" s="315"/>
-      <c r="M108" s="315"/>
-      <c r="N108" s="315"/>
-      <c r="O108" s="316"/>
+      <c r="B108" s="309"/>
+      <c r="C108" s="315"/>
+      <c r="D108" s="316"/>
+      <c r="E108" s="309"/>
+      <c r="F108" s="317"/>
+      <c r="G108" s="318"/>
+      <c r="H108" s="317"/>
+      <c r="I108" s="320"/>
+      <c r="J108" s="320"/>
+      <c r="K108" s="320"/>
+      <c r="L108" s="320"/>
+      <c r="M108" s="320"/>
+      <c r="N108" s="320"/>
+      <c r="O108" s="318"/>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B109" s="337"/>
-      <c r="C109" s="314"/>
-      <c r="D109" s="316"/>
-      <c r="E109" s="337"/>
-      <c r="F109" s="308" t="s">
+      <c r="B109" s="310"/>
+      <c r="C109" s="317"/>
+      <c r="D109" s="318"/>
+      <c r="E109" s="310"/>
+      <c r="F109" s="311" t="s">
         <v>651</v>
       </c>
-      <c r="G109" s="310"/>
-      <c r="H109" s="308" t="s">
+      <c r="G109" s="312"/>
+      <c r="H109" s="311" t="s">
         <v>661</v>
       </c>
-      <c r="I109" s="309"/>
-      <c r="J109" s="309"/>
-      <c r="K109" s="309"/>
-      <c r="L109" s="309"/>
-      <c r="M109" s="309"/>
-      <c r="N109" s="309"/>
-      <c r="O109" s="310"/>
+      <c r="I109" s="321"/>
+      <c r="J109" s="321"/>
+      <c r="K109" s="321"/>
+      <c r="L109" s="321"/>
+      <c r="M109" s="321"/>
+      <c r="N109" s="321"/>
+      <c r="O109" s="312"/>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
@@ -37338,11 +37708,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B67:B109"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D78"/>
-    <mergeCell ref="C79:D97"/>
-    <mergeCell ref="C98:D109"/>
+    <mergeCell ref="H106:O106"/>
+    <mergeCell ref="H107:O108"/>
+    <mergeCell ref="H109:O109"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="H89:O90"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="H92:O93"/>
+    <mergeCell ref="H100:O100"/>
+    <mergeCell ref="H77:O78"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O82"/>
+    <mergeCell ref="H83:O84"/>
+    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="F105:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O72"/>
+    <mergeCell ref="H73:O74"/>
+    <mergeCell ref="H75:O76"/>
+    <mergeCell ref="F94:G97"/>
+    <mergeCell ref="H94:O97"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="H98:O99"/>
+    <mergeCell ref="F100:G104"/>
+    <mergeCell ref="H101:O101"/>
+    <mergeCell ref="H105:O105"/>
+    <mergeCell ref="H103:O104"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="F83:G84"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="F87:G90"/>
+    <mergeCell ref="F91:G93"/>
+    <mergeCell ref="H85:O86"/>
     <mergeCell ref="E87:E93"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="E96:E97"/>
@@ -37359,46 +37764,11 @@
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="E79:E82"/>
     <mergeCell ref="E83:E86"/>
-    <mergeCell ref="H103:O104"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="F83:G84"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="F87:G90"/>
-    <mergeCell ref="F91:G93"/>
-    <mergeCell ref="H85:O86"/>
-    <mergeCell ref="F105:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="H71:O72"/>
-    <mergeCell ref="H73:O74"/>
-    <mergeCell ref="H75:O76"/>
-    <mergeCell ref="F94:G97"/>
-    <mergeCell ref="H94:O97"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:O99"/>
-    <mergeCell ref="F100:G104"/>
-    <mergeCell ref="H101:O101"/>
-    <mergeCell ref="H105:O105"/>
-    <mergeCell ref="H106:O106"/>
-    <mergeCell ref="H107:O108"/>
-    <mergeCell ref="H109:O109"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="H87:O87"/>
-    <mergeCell ref="H88:O88"/>
-    <mergeCell ref="H89:O90"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="H92:O93"/>
-    <mergeCell ref="H100:O100"/>
-    <mergeCell ref="H77:O78"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="H81:O82"/>
-    <mergeCell ref="H83:O84"/>
-    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="B67:B109"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D78"/>
+    <mergeCell ref="C79:D97"/>
+    <mergeCell ref="C98:D109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37626,198 +37996,198 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C26" s="258" t="s">
+      <c r="C26" s="248" t="s">
         <v>713</v>
       </c>
-      <c r="D26" s="338"/>
-      <c r="E26" s="338"/>
-      <c r="F26" s="259"/>
-      <c r="H26" s="258" t="s">
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="249"/>
+      <c r="H26" s="248" t="s">
         <v>717</v>
       </c>
-      <c r="I26" s="338"/>
-      <c r="J26" s="338"/>
-      <c r="K26" s="259"/>
-      <c r="M26" s="258" t="s">
+      <c r="I26" s="366"/>
+      <c r="J26" s="366"/>
+      <c r="K26" s="249"/>
+      <c r="M26" s="248" t="s">
         <v>583</v>
       </c>
-      <c r="N26" s="259"/>
+      <c r="N26" s="249"/>
       <c r="O26" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="P26" s="308" t="s">
+      <c r="P26" s="311" t="s">
         <v>727</v>
       </c>
-      <c r="Q26" s="309"/>
-      <c r="R26" s="310"/>
-      <c r="S26" s="308" t="s">
+      <c r="Q26" s="321"/>
+      <c r="R26" s="312"/>
+      <c r="S26" s="311" t="s">
         <v>725</v>
       </c>
-      <c r="T26" s="309"/>
-      <c r="U26" s="309"/>
-      <c r="V26" s="310"/>
+      <c r="T26" s="321"/>
+      <c r="U26" s="321"/>
+      <c r="V26" s="312"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C27" s="260"/>
-      <c r="D27" s="339"/>
-      <c r="E27" s="339"/>
-      <c r="F27" s="261"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="339"/>
-      <c r="K27" s="261"/>
-      <c r="M27" s="340"/>
-      <c r="N27" s="342"/>
-      <c r="O27" s="335" t="s">
+      <c r="C27" s="250"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="367"/>
+      <c r="F27" s="251"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="367"/>
+      <c r="J27" s="367"/>
+      <c r="K27" s="251"/>
+      <c r="M27" s="396"/>
+      <c r="N27" s="397"/>
+      <c r="O27" s="308" t="s">
         <v>722</v>
       </c>
-      <c r="P27" s="311" t="s">
+      <c r="P27" s="313" t="s">
         <v>728</v>
       </c>
-      <c r="Q27" s="312"/>
-      <c r="R27" s="313"/>
-      <c r="S27" s="311" t="s">
+      <c r="Q27" s="319"/>
+      <c r="R27" s="314"/>
+      <c r="S27" s="313" t="s">
         <v>726</v>
       </c>
-      <c r="T27" s="312"/>
-      <c r="U27" s="312"/>
-      <c r="V27" s="313"/>
+      <c r="T27" s="319"/>
+      <c r="U27" s="319"/>
+      <c r="V27" s="314"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C28" s="308" t="s">
+      <c r="C28" s="311" t="s">
         <v>714</v>
       </c>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="310"/>
-      <c r="H28" s="308" t="s">
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="312"/>
+      <c r="H28" s="311" t="s">
         <v>718</v>
       </c>
-      <c r="I28" s="309"/>
-      <c r="J28" s="309"/>
-      <c r="K28" s="310"/>
-      <c r="M28" s="340"/>
-      <c r="N28" s="342"/>
-      <c r="O28" s="337"/>
-      <c r="P28" s="314"/>
-      <c r="Q28" s="315"/>
-      <c r="R28" s="316"/>
-      <c r="S28" s="314"/>
-      <c r="T28" s="315"/>
-      <c r="U28" s="315"/>
-      <c r="V28" s="316"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="321"/>
+      <c r="K28" s="312"/>
+      <c r="M28" s="396"/>
+      <c r="N28" s="397"/>
+      <c r="O28" s="310"/>
+      <c r="P28" s="317"/>
+      <c r="Q28" s="320"/>
+      <c r="R28" s="318"/>
+      <c r="S28" s="317"/>
+      <c r="T28" s="320"/>
+      <c r="U28" s="320"/>
+      <c r="V28" s="318"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C29" s="308" t="s">
+      <c r="C29" s="311" t="s">
         <v>715</v>
       </c>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="310"/>
-      <c r="H29" s="308" t="s">
+      <c r="D29" s="321"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="312"/>
+      <c r="H29" s="311" t="s">
         <v>719</v>
       </c>
-      <c r="I29" s="309"/>
-      <c r="J29" s="309"/>
-      <c r="K29" s="310"/>
-      <c r="M29" s="340"/>
-      <c r="N29" s="342"/>
-      <c r="O29" s="335" t="s">
+      <c r="I29" s="321"/>
+      <c r="J29" s="321"/>
+      <c r="K29" s="312"/>
+      <c r="M29" s="396"/>
+      <c r="N29" s="397"/>
+      <c r="O29" s="308" t="s">
         <v>723</v>
       </c>
-      <c r="P29" s="311" t="s">
+      <c r="P29" s="313" t="s">
         <v>739</v>
       </c>
-      <c r="Q29" s="312"/>
-      <c r="R29" s="313"/>
-      <c r="S29" s="308" t="s">
+      <c r="Q29" s="319"/>
+      <c r="R29" s="314"/>
+      <c r="S29" s="311" t="s">
         <v>729</v>
       </c>
-      <c r="T29" s="309"/>
-      <c r="U29" s="309"/>
-      <c r="V29" s="310"/>
+      <c r="T29" s="321"/>
+      <c r="U29" s="321"/>
+      <c r="V29" s="312"/>
       <c r="W29" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C30" s="308" t="s">
+      <c r="C30" s="311" t="s">
         <v>716</v>
       </c>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="310"/>
-      <c r="M30" s="340"/>
-      <c r="N30" s="342"/>
-      <c r="O30" s="336"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="334"/>
-      <c r="R30" s="330"/>
-      <c r="S30" s="308" t="s">
+      <c r="D30" s="321"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="312"/>
+      <c r="M30" s="396"/>
+      <c r="N30" s="397"/>
+      <c r="O30" s="309"/>
+      <c r="P30" s="315"/>
+      <c r="Q30" s="331"/>
+      <c r="R30" s="316"/>
+      <c r="S30" s="311" t="s">
         <v>730</v>
       </c>
-      <c r="T30" s="309"/>
-      <c r="U30" s="309"/>
-      <c r="V30" s="310"/>
+      <c r="T30" s="321"/>
+      <c r="U30" s="321"/>
+      <c r="V30" s="312"/>
       <c r="W30" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C31" s="308" t="s">
+      <c r="C31" s="311" t="s">
         <v>748</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="310"/>
+      <c r="D31" s="321"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="312"/>
       <c r="H31" t="s">
         <v>809</v>
       </c>
-      <c r="M31" s="340"/>
-      <c r="N31" s="342"/>
-      <c r="O31" s="336"/>
-      <c r="P31" s="329"/>
-      <c r="Q31" s="334"/>
-      <c r="R31" s="330"/>
-      <c r="S31" s="311" t="s">
+      <c r="M31" s="396"/>
+      <c r="N31" s="397"/>
+      <c r="O31" s="309"/>
+      <c r="P31" s="315"/>
+      <c r="Q31" s="331"/>
+      <c r="R31" s="316"/>
+      <c r="S31" s="313" t="s">
         <v>731</v>
       </c>
-      <c r="T31" s="312"/>
-      <c r="U31" s="312"/>
-      <c r="V31" s="313"/>
+      <c r="T31" s="319"/>
+      <c r="U31" s="319"/>
+      <c r="V31" s="314"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>810</v>
       </c>
-      <c r="M32" s="340"/>
-      <c r="N32" s="342"/>
-      <c r="O32" s="337"/>
-      <c r="P32" s="314"/>
-      <c r="Q32" s="315"/>
-      <c r="R32" s="316"/>
-      <c r="S32" s="314"/>
-      <c r="T32" s="315"/>
-      <c r="U32" s="315"/>
-      <c r="V32" s="316"/>
+      <c r="M32" s="396"/>
+      <c r="N32" s="397"/>
+      <c r="O32" s="310"/>
+      <c r="P32" s="317"/>
+      <c r="Q32" s="320"/>
+      <c r="R32" s="318"/>
+      <c r="S32" s="317"/>
+      <c r="T32" s="320"/>
+      <c r="U32" s="320"/>
+      <c r="V32" s="318"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M33" s="340"/>
-      <c r="N33" s="342"/>
-      <c r="O33" s="335" t="s">
+      <c r="M33" s="396"/>
+      <c r="N33" s="397"/>
+      <c r="O33" s="308" t="s">
         <v>724</v>
       </c>
-      <c r="P33" s="311" t="s">
+      <c r="P33" s="313" t="s">
         <v>733</v>
       </c>
-      <c r="Q33" s="312"/>
-      <c r="R33" s="313"/>
-      <c r="S33" s="311" t="s">
+      <c r="Q33" s="319"/>
+      <c r="R33" s="314"/>
+      <c r="S33" s="313" t="s">
         <v>734</v>
       </c>
-      <c r="T33" s="312"/>
-      <c r="U33" s="312"/>
-      <c r="V33" s="313"/>
+      <c r="T33" s="319"/>
+      <c r="U33" s="319"/>
+      <c r="V33" s="314"/>
       <c r="W33" t="s">
         <v>747</v>
       </c>
@@ -37826,52 +38196,52 @@
       <c r="C34" t="s">
         <v>749</v>
       </c>
-      <c r="M34" s="340"/>
-      <c r="N34" s="342"/>
-      <c r="O34" s="336"/>
-      <c r="P34" s="314"/>
-      <c r="Q34" s="315"/>
-      <c r="R34" s="316"/>
-      <c r="S34" s="314"/>
-      <c r="T34" s="315"/>
-      <c r="U34" s="315"/>
-      <c r="V34" s="316"/>
+      <c r="M34" s="396"/>
+      <c r="N34" s="397"/>
+      <c r="O34" s="309"/>
+      <c r="P34" s="317"/>
+      <c r="Q34" s="320"/>
+      <c r="R34" s="318"/>
+      <c r="S34" s="317"/>
+      <c r="T34" s="320"/>
+      <c r="U34" s="320"/>
+      <c r="V34" s="318"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>750</v>
       </c>
-      <c r="M35" s="340"/>
-      <c r="N35" s="342"/>
-      <c r="O35" s="336"/>
-      <c r="P35" s="311" t="s">
+      <c r="M35" s="396"/>
+      <c r="N35" s="397"/>
+      <c r="O35" s="309"/>
+      <c r="P35" s="313" t="s">
         <v>735</v>
       </c>
-      <c r="Q35" s="312"/>
-      <c r="R35" s="313"/>
-      <c r="S35" s="308" t="s">
+      <c r="Q35" s="319"/>
+      <c r="R35" s="314"/>
+      <c r="S35" s="311" t="s">
         <v>736</v>
       </c>
-      <c r="T35" s="309"/>
-      <c r="U35" s="309"/>
-      <c r="V35" s="310"/>
+      <c r="T35" s="321"/>
+      <c r="U35" s="321"/>
+      <c r="V35" s="312"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>811</v>
       </c>
-      <c r="M36" s="340"/>
-      <c r="N36" s="342"/>
-      <c r="O36" s="336"/>
-      <c r="P36" s="329"/>
-      <c r="Q36" s="334"/>
-      <c r="R36" s="330"/>
-      <c r="S36" s="311" t="s">
+      <c r="M36" s="396"/>
+      <c r="N36" s="397"/>
+      <c r="O36" s="309"/>
+      <c r="P36" s="315"/>
+      <c r="Q36" s="331"/>
+      <c r="R36" s="316"/>
+      <c r="S36" s="313" t="s">
         <v>737</v>
       </c>
-      <c r="T36" s="312"/>
-      <c r="U36" s="312"/>
-      <c r="V36" s="313"/>
+      <c r="T36" s="319"/>
+      <c r="U36" s="319"/>
+      <c r="V36" s="314"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
@@ -37880,35 +38250,35 @@
       <c r="I37" t="s">
         <v>812</v>
       </c>
-      <c r="M37" s="340"/>
-      <c r="N37" s="342"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="314"/>
-      <c r="Q37" s="315"/>
-      <c r="R37" s="316"/>
-      <c r="S37" s="314"/>
-      <c r="T37" s="315"/>
-      <c r="U37" s="315"/>
-      <c r="V37" s="316"/>
+      <c r="M37" s="396"/>
+      <c r="N37" s="397"/>
+      <c r="O37" s="309"/>
+      <c r="P37" s="317"/>
+      <c r="Q37" s="320"/>
+      <c r="R37" s="318"/>
+      <c r="S37" s="317"/>
+      <c r="T37" s="320"/>
+      <c r="U37" s="320"/>
+      <c r="V37" s="318"/>
       <c r="X37" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M38" s="340"/>
-      <c r="N38" s="342"/>
-      <c r="O38" s="336"/>
-      <c r="P38" s="311" t="s">
+      <c r="M38" s="396"/>
+      <c r="N38" s="397"/>
+      <c r="O38" s="309"/>
+      <c r="P38" s="313" t="s">
         <v>740</v>
       </c>
-      <c r="Q38" s="312"/>
-      <c r="R38" s="313"/>
-      <c r="S38" s="308" t="s">
+      <c r="Q38" s="319"/>
+      <c r="R38" s="314"/>
+      <c r="S38" s="311" t="s">
         <v>729</v>
       </c>
-      <c r="T38" s="309"/>
-      <c r="U38" s="309"/>
-      <c r="V38" s="310"/>
+      <c r="T38" s="321"/>
+      <c r="U38" s="321"/>
+      <c r="V38" s="312"/>
       <c r="X38" t="s">
         <v>843</v>
       </c>
@@ -37920,18 +38290,18 @@
       <c r="I39" t="s">
         <v>821</v>
       </c>
-      <c r="M39" s="340"/>
-      <c r="N39" s="342"/>
-      <c r="O39" s="336"/>
-      <c r="P39" s="329"/>
-      <c r="Q39" s="334"/>
-      <c r="R39" s="330"/>
-      <c r="S39" s="308" t="s">
+      <c r="M39" s="396"/>
+      <c r="N39" s="397"/>
+      <c r="O39" s="309"/>
+      <c r="P39" s="315"/>
+      <c r="Q39" s="331"/>
+      <c r="R39" s="316"/>
+      <c r="S39" s="311" t="s">
         <v>744</v>
       </c>
-      <c r="T39" s="309"/>
-      <c r="U39" s="309"/>
-      <c r="V39" s="310"/>
+      <c r="T39" s="321"/>
+      <c r="U39" s="321"/>
+      <c r="V39" s="312"/>
       <c r="W39" t="s">
         <v>743</v>
       </c>
@@ -37943,30 +38313,30 @@
       <c r="I40" t="s">
         <v>822</v>
       </c>
-      <c r="M40" s="340"/>
-      <c r="N40" s="342"/>
-      <c r="O40" s="336"/>
-      <c r="P40" s="329"/>
-      <c r="Q40" s="334"/>
-      <c r="R40" s="330"/>
-      <c r="S40" s="311" t="s">
+      <c r="M40" s="396"/>
+      <c r="N40" s="397"/>
+      <c r="O40" s="309"/>
+      <c r="P40" s="315"/>
+      <c r="Q40" s="331"/>
+      <c r="R40" s="316"/>
+      <c r="S40" s="313" t="s">
         <v>745</v>
       </c>
-      <c r="T40" s="312"/>
-      <c r="U40" s="312"/>
-      <c r="V40" s="313"/>
+      <c r="T40" s="319"/>
+      <c r="U40" s="319"/>
+      <c r="V40" s="314"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M41" s="340"/>
-      <c r="N41" s="342"/>
-      <c r="O41" s="336"/>
-      <c r="P41" s="314"/>
-      <c r="Q41" s="315"/>
-      <c r="R41" s="316"/>
-      <c r="S41" s="314"/>
-      <c r="T41" s="315"/>
-      <c r="U41" s="315"/>
-      <c r="V41" s="316"/>
+      <c r="M41" s="396"/>
+      <c r="N41" s="397"/>
+      <c r="O41" s="309"/>
+      <c r="P41" s="317"/>
+      <c r="Q41" s="320"/>
+      <c r="R41" s="318"/>
+      <c r="S41" s="317"/>
+      <c r="T41" s="320"/>
+      <c r="U41" s="320"/>
+      <c r="V41" s="318"/>
       <c r="X41" t="s">
         <v>825</v>
       </c>
@@ -37975,20 +38345,20 @@
       <c r="C42" t="s">
         <v>762</v>
       </c>
-      <c r="M42" s="260"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="337"/>
-      <c r="P42" s="308" t="s">
+      <c r="M42" s="250"/>
+      <c r="N42" s="251"/>
+      <c r="O42" s="310"/>
+      <c r="P42" s="311" t="s">
         <v>741</v>
       </c>
-      <c r="Q42" s="309"/>
-      <c r="R42" s="310"/>
-      <c r="S42" s="308" t="s">
+      <c r="Q42" s="321"/>
+      <c r="R42" s="312"/>
+      <c r="S42" s="311" t="s">
         <v>742</v>
       </c>
-      <c r="T42" s="309"/>
-      <c r="U42" s="309"/>
-      <c r="V42" s="310"/>
+      <c r="T42" s="321"/>
+      <c r="U42" s="321"/>
+      <c r="V42" s="312"/>
       <c r="X42" t="s">
         <v>826</v>
       </c>
@@ -38111,7 +38481,7 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N55" t="s">
         <v>761</v>
@@ -38175,7 +38545,7 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q65" t="s">
         <v>770</v>
@@ -38262,7 +38632,7 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.3">
@@ -38334,7 +38704,7 @@
     </row>
     <row r="87" spans="3:15" x14ac:dyDescent="0.3">
       <c r="O87" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="89" spans="3:15" x14ac:dyDescent="0.3">
@@ -38476,22 +38846,22 @@
       <c r="AK116" s="4"/>
     </row>
     <row r="118" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M118" s="352" t="s">
+      <c r="M118" s="398" t="s">
         <v>259</v>
       </c>
-      <c r="N118" s="353"/>
-      <c r="O118" s="353"/>
-      <c r="P118" s="353"/>
-      <c r="Q118" s="353"/>
-      <c r="R118" s="354"/>
+      <c r="N118" s="399"/>
+      <c r="O118" s="399"/>
+      <c r="P118" s="399"/>
+      <c r="Q118" s="399"/>
+      <c r="R118" s="400"/>
     </row>
     <row r="119" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M119" s="355"/>
-      <c r="N119" s="356"/>
-      <c r="O119" s="356"/>
-      <c r="P119" s="356"/>
-      <c r="Q119" s="356"/>
-      <c r="R119" s="357"/>
+      <c r="M119" s="401"/>
+      <c r="N119" s="402"/>
+      <c r="O119" s="402"/>
+      <c r="P119" s="402"/>
+      <c r="Q119" s="402"/>
+      <c r="R119" s="403"/>
     </row>
     <row r="120" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H120" s="101"/>
@@ -38499,21 +38869,21 @@
       <c r="J120" s="157"/>
       <c r="K120" s="157"/>
       <c r="L120" s="139"/>
-      <c r="M120" s="355"/>
-      <c r="N120" s="356"/>
-      <c r="O120" s="356"/>
-      <c r="P120" s="356"/>
-      <c r="Q120" s="356"/>
-      <c r="R120" s="357"/>
+      <c r="M120" s="401"/>
+      <c r="N120" s="402"/>
+      <c r="O120" s="402"/>
+      <c r="P120" s="402"/>
+      <c r="Q120" s="402"/>
+      <c r="R120" s="403"/>
     </row>
     <row r="121" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H121" s="6"/>
-      <c r="M121" s="355"/>
-      <c r="N121" s="356"/>
-      <c r="O121" s="356"/>
-      <c r="P121" s="356"/>
-      <c r="Q121" s="356"/>
-      <c r="R121" s="357"/>
+      <c r="M121" s="401"/>
+      <c r="N121" s="402"/>
+      <c r="O121" s="402"/>
+      <c r="P121" s="402"/>
+      <c r="Q121" s="402"/>
+      <c r="R121" s="403"/>
       <c r="S121" s="146"/>
       <c r="T121" s="112"/>
       <c r="U121" s="112"/>
@@ -38536,12 +38906,12 @@
     </row>
     <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H122" s="6"/>
-      <c r="M122" s="358"/>
-      <c r="N122" s="359"/>
-      <c r="O122" s="359"/>
-      <c r="P122" s="359"/>
-      <c r="Q122" s="359"/>
-      <c r="R122" s="360"/>
+      <c r="M122" s="404"/>
+      <c r="N122" s="405"/>
+      <c r="O122" s="405"/>
+      <c r="P122" s="405"/>
+      <c r="Q122" s="405"/>
+      <c r="R122" s="406"/>
       <c r="S122" s="6"/>
       <c r="AK122" s="113"/>
     </row>
@@ -38552,108 +38922,108 @@
     </row>
     <row r="124" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H124" s="6"/>
-      <c r="N124" s="343" t="s">
-        <v>859</v>
-      </c>
-      <c r="O124" s="344"/>
-      <c r="P124" s="344"/>
-      <c r="Q124" s="345"/>
-      <c r="W124" s="386" t="s">
+      <c r="N124" s="381" t="s">
+        <v>858</v>
+      </c>
+      <c r="O124" s="382"/>
+      <c r="P124" s="382"/>
+      <c r="Q124" s="383"/>
+      <c r="W124" s="344" t="s">
+        <v>903</v>
+      </c>
+      <c r="X124" s="345"/>
+      <c r="Y124" s="346"/>
+      <c r="AA124" s="353" t="s">
         <v>904</v>
       </c>
-      <c r="X124" s="387"/>
-      <c r="Y124" s="388"/>
-      <c r="AA124" s="395" t="s">
+      <c r="AB124" s="354"/>
+      <c r="AC124" s="355"/>
+      <c r="AE124" s="260" t="s">
         <v>905</v>
       </c>
-      <c r="AB124" s="396"/>
-      <c r="AC124" s="397"/>
-      <c r="AE124" s="281" t="s">
-        <v>906</v>
-      </c>
-      <c r="AF124" s="403"/>
-      <c r="AG124" s="282"/>
+      <c r="AF124" s="361"/>
+      <c r="AG124" s="261"/>
       <c r="AK124" s="113"/>
     </row>
     <row r="125" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H125" s="6"/>
-      <c r="N125" s="346"/>
-      <c r="O125" s="347"/>
-      <c r="P125" s="347"/>
-      <c r="Q125" s="348"/>
-      <c r="W125" s="389"/>
-      <c r="X125" s="390"/>
-      <c r="Y125" s="391"/>
-      <c r="AA125" s="398"/>
-      <c r="AB125" s="390"/>
-      <c r="AC125" s="399"/>
-      <c r="AE125" s="404"/>
-      <c r="AF125" s="341"/>
-      <c r="AG125" s="405"/>
+      <c r="N125" s="384"/>
+      <c r="O125" s="385"/>
+      <c r="P125" s="385"/>
+      <c r="Q125" s="386"/>
+      <c r="W125" s="347"/>
+      <c r="X125" s="348"/>
+      <c r="Y125" s="349"/>
+      <c r="AA125" s="356"/>
+      <c r="AB125" s="348"/>
+      <c r="AC125" s="357"/>
+      <c r="AE125" s="362"/>
+      <c r="AF125" s="363"/>
+      <c r="AG125" s="364"/>
       <c r="AK125" s="113"/>
     </row>
     <row r="126" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H126" s="6"/>
       <c r="M126" s="141"/>
-      <c r="N126" s="349"/>
-      <c r="O126" s="350"/>
-      <c r="P126" s="350"/>
-      <c r="Q126" s="351"/>
+      <c r="N126" s="387"/>
+      <c r="O126" s="388"/>
+      <c r="P126" s="388"/>
+      <c r="Q126" s="389"/>
       <c r="R126" s="141"/>
       <c r="S126" s="6"/>
-      <c r="W126" s="389"/>
-      <c r="X126" s="390"/>
-      <c r="Y126" s="391"/>
-      <c r="AA126" s="398"/>
-      <c r="AB126" s="390"/>
-      <c r="AC126" s="399"/>
-      <c r="AE126" s="404"/>
-      <c r="AF126" s="341"/>
-      <c r="AG126" s="405"/>
+      <c r="W126" s="347"/>
+      <c r="X126" s="348"/>
+      <c r="Y126" s="349"/>
+      <c r="AA126" s="356"/>
+      <c r="AB126" s="348"/>
+      <c r="AC126" s="357"/>
+      <c r="AE126" s="362"/>
+      <c r="AF126" s="363"/>
+      <c r="AG126" s="364"/>
       <c r="AK126" s="113"/>
     </row>
     <row r="127" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H127" s="6"/>
       <c r="M127" s="5"/>
       <c r="S127" s="5"/>
-      <c r="W127" s="392"/>
-      <c r="X127" s="393"/>
-      <c r="Y127" s="394"/>
-      <c r="AA127" s="400"/>
-      <c r="AB127" s="401"/>
-      <c r="AC127" s="402"/>
-      <c r="AE127" s="283"/>
-      <c r="AF127" s="406"/>
-      <c r="AG127" s="284"/>
+      <c r="W127" s="350"/>
+      <c r="X127" s="351"/>
+      <c r="Y127" s="352"/>
+      <c r="AA127" s="358"/>
+      <c r="AB127" s="359"/>
+      <c r="AC127" s="360"/>
+      <c r="AE127" s="262"/>
+      <c r="AF127" s="365"/>
+      <c r="AG127" s="263"/>
       <c r="AK127" s="113"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H128" s="6"/>
-      <c r="K128" s="361" t="s">
+      <c r="K128" s="338" t="s">
+        <v>859</v>
+      </c>
+      <c r="L128" s="339"/>
+      <c r="M128" s="339"/>
+      <c r="N128" s="340"/>
+      <c r="Q128" s="248" t="s">
         <v>860</v>
       </c>
-      <c r="L128" s="362"/>
-      <c r="M128" s="362"/>
-      <c r="N128" s="363"/>
-      <c r="Q128" s="258" t="s">
-        <v>861</v>
-      </c>
-      <c r="R128" s="338"/>
-      <c r="S128" s="338"/>
-      <c r="T128" s="259"/>
+      <c r="R128" s="366"/>
+      <c r="S128" s="366"/>
+      <c r="T128" s="249"/>
       <c r="AK128" s="113"/>
     </row>
     <row r="129" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H129" s="6"/>
       <c r="J129" s="141"/>
-      <c r="K129" s="364"/>
-      <c r="L129" s="365"/>
-      <c r="M129" s="365"/>
-      <c r="N129" s="366"/>
-      <c r="Q129" s="260"/>
-      <c r="R129" s="339"/>
-      <c r="S129" s="339"/>
-      <c r="T129" s="261"/>
+      <c r="K129" s="341"/>
+      <c r="L129" s="342"/>
+      <c r="M129" s="342"/>
+      <c r="N129" s="343"/>
+      <c r="Q129" s="250"/>
+      <c r="R129" s="367"/>
+      <c r="S129" s="367"/>
+      <c r="T129" s="251"/>
       <c r="AK129" s="113"/>
     </row>
     <row r="130" spans="5:37" x14ac:dyDescent="0.3">
@@ -38665,47 +39035,47 @@
     </row>
     <row r="131" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H131" s="6"/>
-      <c r="I131" s="367" t="s">
+      <c r="I131" s="390" t="s">
         <v>583</v>
       </c>
-      <c r="J131" s="368"/>
-      <c r="M131" s="367" t="s">
+      <c r="J131" s="391"/>
+      <c r="M131" s="390" t="s">
         <v>713</v>
       </c>
-      <c r="N131" s="368"/>
-      <c r="R131" s="373" t="s">
+      <c r="N131" s="391"/>
+      <c r="R131" s="368" t="s">
         <v>583</v>
       </c>
-      <c r="S131" s="374"/>
+      <c r="S131" s="369"/>
       <c r="AK131" s="113"/>
     </row>
     <row r="132" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H132" s="6"/>
-      <c r="I132" s="369" t="s">
+      <c r="I132" s="392" t="s">
+        <v>861</v>
+      </c>
+      <c r="J132" s="393"/>
+      <c r="M132" s="394" t="s">
         <v>862</v>
       </c>
-      <c r="J132" s="370"/>
-      <c r="M132" s="371" t="s">
-        <v>863</v>
-      </c>
-      <c r="N132" s="372"/>
-      <c r="R132" s="375" t="s">
-        <v>865</v>
-      </c>
-      <c r="S132" s="255"/>
+      <c r="N132" s="395"/>
+      <c r="R132" s="380" t="s">
+        <v>864</v>
+      </c>
+      <c r="S132" s="253"/>
       <c r="AK132" s="113"/>
     </row>
     <row r="133" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H133" s="6"/>
-      <c r="I133" s="371" t="s">
-        <v>860</v>
-      </c>
-      <c r="J133" s="372"/>
+      <c r="I133" s="394" t="s">
+        <v>859</v>
+      </c>
+      <c r="J133" s="395"/>
       <c r="N133" s="6"/>
-      <c r="R133" s="256" t="s">
-        <v>866</v>
-      </c>
-      <c r="S133" s="257"/>
+      <c r="R133" s="254" t="s">
+        <v>865</v>
+      </c>
+      <c r="S133" s="255"/>
       <c r="AK133" s="113"/>
     </row>
     <row r="134" spans="5:37" x14ac:dyDescent="0.3">
@@ -38732,87 +39102,87 @@
       <c r="AK137" s="113"/>
     </row>
     <row r="138" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G138" s="352" t="s">
+      <c r="G138" s="398" t="s">
+        <v>852</v>
+      </c>
+      <c r="H138" s="399"/>
+      <c r="I138" s="399"/>
+      <c r="J138" s="399"/>
+      <c r="K138" s="399"/>
+      <c r="L138" s="400"/>
+      <c r="P138" s="398" t="s">
         <v>853</v>
       </c>
-      <c r="H138" s="353"/>
-      <c r="I138" s="353"/>
-      <c r="J138" s="353"/>
-      <c r="K138" s="353"/>
-      <c r="L138" s="354"/>
-      <c r="P138" s="352" t="s">
-        <v>854</v>
-      </c>
-      <c r="Q138" s="353"/>
-      <c r="R138" s="353"/>
-      <c r="S138" s="353"/>
-      <c r="T138" s="353"/>
-      <c r="U138" s="354"/>
+      <c r="Q138" s="399"/>
+      <c r="R138" s="399"/>
+      <c r="S138" s="399"/>
+      <c r="T138" s="399"/>
+      <c r="U138" s="400"/>
       <c r="AK138" s="113"/>
     </row>
     <row r="139" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G139" s="355"/>
-      <c r="H139" s="356"/>
-      <c r="I139" s="356"/>
-      <c r="J139" s="356"/>
-      <c r="K139" s="356"/>
-      <c r="L139" s="357"/>
+      <c r="G139" s="401"/>
+      <c r="H139" s="402"/>
+      <c r="I139" s="402"/>
+      <c r="J139" s="402"/>
+      <c r="K139" s="402"/>
+      <c r="L139" s="403"/>
       <c r="N139" s="101"/>
       <c r="O139" s="139"/>
-      <c r="P139" s="355"/>
-      <c r="Q139" s="356"/>
-      <c r="R139" s="356"/>
-      <c r="S139" s="356"/>
-      <c r="T139" s="356"/>
-      <c r="U139" s="357"/>
+      <c r="P139" s="401"/>
+      <c r="Q139" s="402"/>
+      <c r="R139" s="402"/>
+      <c r="S139" s="402"/>
+      <c r="T139" s="402"/>
+      <c r="U139" s="403"/>
       <c r="AK139" s="113"/>
     </row>
     <row r="140" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G140" s="355"/>
-      <c r="H140" s="356"/>
-      <c r="I140" s="356"/>
-      <c r="J140" s="356"/>
-      <c r="K140" s="356"/>
-      <c r="L140" s="357"/>
+      <c r="G140" s="401"/>
+      <c r="H140" s="402"/>
+      <c r="I140" s="402"/>
+      <c r="J140" s="402"/>
+      <c r="K140" s="402"/>
+      <c r="L140" s="403"/>
       <c r="N140" s="6"/>
-      <c r="P140" s="355"/>
-      <c r="Q140" s="356"/>
-      <c r="R140" s="356"/>
-      <c r="S140" s="356"/>
-      <c r="T140" s="356"/>
-      <c r="U140" s="357"/>
+      <c r="P140" s="401"/>
+      <c r="Q140" s="402"/>
+      <c r="R140" s="402"/>
+      <c r="S140" s="402"/>
+      <c r="T140" s="402"/>
+      <c r="U140" s="403"/>
       <c r="AK140" s="113"/>
     </row>
     <row r="141" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G141" s="355"/>
-      <c r="H141" s="356"/>
-      <c r="I141" s="356"/>
-      <c r="J141" s="356"/>
-      <c r="K141" s="356"/>
-      <c r="L141" s="357"/>
+      <c r="G141" s="401"/>
+      <c r="H141" s="402"/>
+      <c r="I141" s="402"/>
+      <c r="J141" s="402"/>
+      <c r="K141" s="402"/>
+      <c r="L141" s="403"/>
       <c r="N141" s="6"/>
-      <c r="P141" s="355"/>
-      <c r="Q141" s="356"/>
-      <c r="R141" s="356"/>
-      <c r="S141" s="356"/>
-      <c r="T141" s="356"/>
-      <c r="U141" s="357"/>
+      <c r="P141" s="401"/>
+      <c r="Q141" s="402"/>
+      <c r="R141" s="402"/>
+      <c r="S141" s="402"/>
+      <c r="T141" s="402"/>
+      <c r="U141" s="403"/>
       <c r="AK141" s="113"/>
     </row>
     <row r="142" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G142" s="358"/>
-      <c r="H142" s="359"/>
-      <c r="I142" s="359"/>
-      <c r="J142" s="359"/>
-      <c r="K142" s="359"/>
-      <c r="L142" s="360"/>
+      <c r="G142" s="404"/>
+      <c r="H142" s="405"/>
+      <c r="I142" s="405"/>
+      <c r="J142" s="405"/>
+      <c r="K142" s="405"/>
+      <c r="L142" s="406"/>
       <c r="N142" s="6"/>
-      <c r="P142" s="358"/>
-      <c r="Q142" s="359"/>
-      <c r="R142" s="359"/>
-      <c r="S142" s="359"/>
-      <c r="T142" s="359"/>
-      <c r="U142" s="360"/>
+      <c r="P142" s="404"/>
+      <c r="Q142" s="405"/>
+      <c r="R142" s="405"/>
+      <c r="S142" s="405"/>
+      <c r="T142" s="405"/>
+      <c r="U142" s="406"/>
       <c r="AK142" s="113"/>
     </row>
     <row r="143" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -38823,24 +39193,24 @@
       <c r="AK143" s="113"/>
     </row>
     <row r="144" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="258" t="s">
-        <v>855</v>
-      </c>
-      <c r="F144" s="338"/>
-      <c r="G144" s="338"/>
-      <c r="H144" s="259"/>
-      <c r="K144" s="343" t="s">
-        <v>858</v>
-      </c>
-      <c r="L144" s="344"/>
-      <c r="M144" s="344"/>
-      <c r="N144" s="345"/>
-      <c r="Q144" s="343" t="s">
-        <v>872</v>
-      </c>
-      <c r="R144" s="344"/>
-      <c r="S144" s="344"/>
-      <c r="T144" s="345"/>
+      <c r="E144" s="248" t="s">
+        <v>854</v>
+      </c>
+      <c r="F144" s="366"/>
+      <c r="G144" s="366"/>
+      <c r="H144" s="249"/>
+      <c r="K144" s="381" t="s">
+        <v>857</v>
+      </c>
+      <c r="L144" s="382"/>
+      <c r="M144" s="382"/>
+      <c r="N144" s="383"/>
+      <c r="Q144" s="381" t="s">
+        <v>871</v>
+      </c>
+      <c r="R144" s="382"/>
+      <c r="S144" s="382"/>
+      <c r="T144" s="383"/>
       <c r="Z144" s="173"/>
       <c r="AA144" s="173"/>
       <c r="AB144" s="173"/>
@@ -38855,36 +39225,36 @@
       <c r="AK144" s="113"/>
     </row>
     <row r="145" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="340"/>
-      <c r="F145" s="341"/>
-      <c r="G145" s="341"/>
-      <c r="H145" s="342"/>
-      <c r="K145" s="346"/>
-      <c r="L145" s="347"/>
-      <c r="M145" s="347"/>
-      <c r="N145" s="348"/>
-      <c r="Q145" s="346"/>
-      <c r="R145" s="347"/>
-      <c r="S145" s="347"/>
-      <c r="T145" s="348"/>
+      <c r="E145" s="396"/>
+      <c r="F145" s="363"/>
+      <c r="G145" s="363"/>
+      <c r="H145" s="397"/>
+      <c r="K145" s="384"/>
+      <c r="L145" s="385"/>
+      <c r="M145" s="385"/>
+      <c r="N145" s="386"/>
+      <c r="Q145" s="384"/>
+      <c r="R145" s="385"/>
+      <c r="S145" s="385"/>
+      <c r="T145" s="386"/>
       <c r="Y145" s="178"/>
       <c r="AJ145" s="177"/>
       <c r="AK145" s="113"/>
     </row>
     <row r="146" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="E146" s="260"/>
-      <c r="F146" s="339"/>
-      <c r="G146" s="339"/>
-      <c r="H146" s="261"/>
-      <c r="K146" s="349"/>
-      <c r="L146" s="350"/>
-      <c r="M146" s="350"/>
-      <c r="N146" s="351"/>
+      <c r="E146" s="250"/>
+      <c r="F146" s="367"/>
+      <c r="G146" s="367"/>
+      <c r="H146" s="251"/>
+      <c r="K146" s="387"/>
+      <c r="L146" s="388"/>
+      <c r="M146" s="388"/>
+      <c r="N146" s="389"/>
       <c r="P146" s="141"/>
-      <c r="Q146" s="349"/>
-      <c r="R146" s="350"/>
-      <c r="S146" s="350"/>
-      <c r="T146" s="351"/>
+      <c r="Q146" s="387"/>
+      <c r="R146" s="388"/>
+      <c r="S146" s="388"/>
+      <c r="T146" s="389"/>
       <c r="U146" s="101"/>
       <c r="V146" s="157"/>
       <c r="W146" s="157"/>
@@ -38912,27 +39282,27 @@
       <c r="AK147" s="113"/>
     </row>
     <row r="148" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="E148" s="258" t="s">
-        <v>867</v>
-      </c>
-      <c r="F148" s="338"/>
-      <c r="G148" s="338"/>
-      <c r="H148" s="259"/>
+      <c r="E148" s="248" t="s">
+        <v>866</v>
+      </c>
+      <c r="F148" s="366"/>
+      <c r="G148" s="366"/>
+      <c r="H148" s="249"/>
       <c r="K148" s="178"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="258" t="s">
+      <c r="N148" s="248" t="s">
+        <v>872</v>
+      </c>
+      <c r="O148" s="366"/>
+      <c r="P148" s="366"/>
+      <c r="Q148" s="249"/>
+      <c r="Y148" s="178"/>
+      <c r="AD148" s="248" t="s">
         <v>873</v>
       </c>
-      <c r="O148" s="338"/>
-      <c r="P148" s="338"/>
-      <c r="Q148" s="259"/>
-      <c r="Y148" s="178"/>
-      <c r="AD148" s="258" t="s">
-        <v>874</v>
-      </c>
-      <c r="AE148" s="338"/>
-      <c r="AF148" s="338"/>
-      <c r="AG148" s="259"/>
+      <c r="AE148" s="366"/>
+      <c r="AF148" s="366"/>
+      <c r="AG148" s="249"/>
       <c r="AJ148" s="178"/>
       <c r="AK148" s="113"/>
     </row>
@@ -38940,16 +39310,16 @@
       <c r="B149" s="101"/>
       <c r="C149" s="157"/>
       <c r="D149" s="139"/>
-      <c r="E149" s="260"/>
-      <c r="F149" s="339"/>
-      <c r="G149" s="339"/>
-      <c r="H149" s="261"/>
+      <c r="E149" s="250"/>
+      <c r="F149" s="367"/>
+      <c r="G149" s="367"/>
+      <c r="H149" s="251"/>
       <c r="K149" s="178"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="260"/>
-      <c r="O149" s="339"/>
-      <c r="P149" s="339"/>
-      <c r="Q149" s="261"/>
+      <c r="N149" s="250"/>
+      <c r="O149" s="367"/>
+      <c r="P149" s="367"/>
+      <c r="Q149" s="251"/>
       <c r="R149" s="101"/>
       <c r="S149" s="157"/>
       <c r="T149" s="157"/>
@@ -38958,10 +39328,10 @@
       <c r="W149" s="157"/>
       <c r="X149" s="157"/>
       <c r="Y149" s="183"/>
-      <c r="AD149" s="260"/>
-      <c r="AE149" s="339"/>
-      <c r="AF149" s="339"/>
-      <c r="AG149" s="261"/>
+      <c r="AD149" s="250"/>
+      <c r="AE149" s="367"/>
+      <c r="AF149" s="367"/>
+      <c r="AG149" s="251"/>
       <c r="AJ149" s="178"/>
       <c r="AK149" s="113"/>
     </row>
@@ -38978,34 +39348,34 @@
     </row>
     <row r="151" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B151" s="6"/>
-      <c r="E151" s="258" t="s">
-        <v>868</v>
-      </c>
-      <c r="F151" s="338"/>
-      <c r="G151" s="338"/>
-      <c r="H151" s="259"/>
+      <c r="E151" s="248" t="s">
+        <v>867</v>
+      </c>
+      <c r="F151" s="366"/>
+      <c r="G151" s="366"/>
+      <c r="H151" s="249"/>
       <c r="K151" s="178"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="258" t="s">
-        <v>875</v>
-      </c>
-      <c r="O151" s="338"/>
-      <c r="P151" s="338"/>
-      <c r="Q151" s="259"/>
+      <c r="N151" s="248" t="s">
+        <v>874</v>
+      </c>
+      <c r="O151" s="366"/>
+      <c r="P151" s="366"/>
+      <c r="Q151" s="249"/>
       <c r="V151" s="4"/>
-      <c r="W151" s="258" t="s">
-        <v>886</v>
-      </c>
-      <c r="X151" s="338"/>
-      <c r="Y151" s="338"/>
-      <c r="Z151" s="259"/>
+      <c r="W151" s="248" t="s">
+        <v>885</v>
+      </c>
+      <c r="X151" s="366"/>
+      <c r="Y151" s="366"/>
+      <c r="Z151" s="249"/>
       <c r="AA151" s="4"/>
-      <c r="AD151" s="258" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE151" s="338"/>
-      <c r="AF151" s="338"/>
-      <c r="AG151" s="259"/>
+      <c r="AD151" s="248" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE151" s="366"/>
+      <c r="AF151" s="366"/>
+      <c r="AG151" s="249"/>
       <c r="AH151" s="179"/>
       <c r="AI151" s="173"/>
       <c r="AJ151" s="178"/>
@@ -39015,28 +39385,28 @@
       <c r="B152" s="6"/>
       <c r="C152" s="101"/>
       <c r="D152" s="157"/>
-      <c r="E152" s="260"/>
-      <c r="F152" s="339"/>
-      <c r="G152" s="339"/>
-      <c r="H152" s="261"/>
+      <c r="E152" s="250"/>
+      <c r="F152" s="367"/>
+      <c r="G152" s="367"/>
+      <c r="H152" s="251"/>
       <c r="I152" s="157"/>
       <c r="J152" s="157"/>
       <c r="K152" s="183"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="260"/>
-      <c r="O152" s="339"/>
-      <c r="P152" s="339"/>
-      <c r="Q152" s="261"/>
+      <c r="N152" s="250"/>
+      <c r="O152" s="367"/>
+      <c r="P152" s="367"/>
+      <c r="Q152" s="251"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="260"/>
-      <c r="X152" s="339"/>
-      <c r="Y152" s="339"/>
-      <c r="Z152" s="261"/>
+      <c r="W152" s="250"/>
+      <c r="X152" s="367"/>
+      <c r="Y152" s="367"/>
+      <c r="Z152" s="251"/>
       <c r="AB152" s="6"/>
-      <c r="AD152" s="260"/>
-      <c r="AE152" s="339"/>
-      <c r="AF152" s="339"/>
-      <c r="AG152" s="261"/>
+      <c r="AD152" s="250"/>
+      <c r="AE152" s="367"/>
+      <c r="AF152" s="367"/>
+      <c r="AG152" s="251"/>
       <c r="AH152" s="6"/>
       <c r="AI152" s="177"/>
       <c r="AJ152" s="178"/>
@@ -39060,43 +39430,43 @@
     <row r="154" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="373" t="s">
-        <v>869</v>
-      </c>
-      <c r="E154" s="374"/>
-      <c r="H154" s="254" t="s">
-        <v>871</v>
-      </c>
-      <c r="I154" s="255"/>
+      <c r="D154" s="368" t="s">
+        <v>868</v>
+      </c>
+      <c r="E154" s="369"/>
+      <c r="H154" s="252" t="s">
+        <v>870</v>
+      </c>
+      <c r="I154" s="253"/>
       <c r="K154" s="183"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="375" t="s">
-        <v>876</v>
-      </c>
-      <c r="O154" s="255"/>
+      <c r="N154" s="380" t="s">
+        <v>875</v>
+      </c>
+      <c r="O154" s="253"/>
       <c r="Q154" s="169"/>
-      <c r="R154" s="373" t="s">
+      <c r="R154" s="368" t="s">
         <v>729</v>
       </c>
-      <c r="S154" s="374"/>
-      <c r="U154" s="254" t="s">
+      <c r="S154" s="369"/>
+      <c r="U154" s="252" t="s">
+        <v>886</v>
+      </c>
+      <c r="V154" s="253"/>
+      <c r="X154" s="252" t="s">
         <v>887</v>
       </c>
-      <c r="V154" s="255"/>
-      <c r="X154" s="254" t="s">
+      <c r="Y154" s="253"/>
+      <c r="AA154" s="252" t="s">
         <v>888</v>
       </c>
-      <c r="Y154" s="255"/>
-      <c r="AA154" s="254" t="s">
-        <v>889</v>
-      </c>
-      <c r="AB154" s="255"/>
-      <c r="AD154" s="258" t="s">
-        <v>883</v>
-      </c>
-      <c r="AE154" s="338"/>
-      <c r="AF154" s="338"/>
-      <c r="AG154" s="259"/>
+      <c r="AB154" s="253"/>
+      <c r="AD154" s="248" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE154" s="366"/>
+      <c r="AF154" s="366"/>
+      <c r="AG154" s="249"/>
       <c r="AI154" s="178"/>
       <c r="AJ154" s="178"/>
       <c r="AK154" s="113"/>
@@ -39104,32 +39474,32 @@
     <row r="155" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B155" s="6"/>
       <c r="C155" s="157"/>
-      <c r="D155" s="380" t="s">
-        <v>870</v>
-      </c>
-      <c r="E155" s="374"/>
-      <c r="H155" s="256"/>
-      <c r="I155" s="257"/>
+      <c r="D155" s="370" t="s">
+        <v>869</v>
+      </c>
+      <c r="E155" s="369"/>
+      <c r="H155" s="254"/>
+      <c r="I155" s="255"/>
       <c r="J155" s="157"/>
       <c r="K155" s="178"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="256"/>
-      <c r="O155" s="257"/>
+      <c r="N155" s="254"/>
+      <c r="O155" s="255"/>
       <c r="Q155" s="139"/>
-      <c r="R155" s="380" t="s">
+      <c r="R155" s="370" t="s">
         <v>730</v>
       </c>
-      <c r="S155" s="374"/>
-      <c r="U155" s="256"/>
-      <c r="V155" s="257"/>
-      <c r="X155" s="256"/>
-      <c r="Y155" s="257"/>
-      <c r="AA155" s="256"/>
-      <c r="AB155" s="257"/>
-      <c r="AD155" s="260"/>
-      <c r="AE155" s="339"/>
-      <c r="AF155" s="339"/>
-      <c r="AG155" s="261"/>
+      <c r="S155" s="369"/>
+      <c r="U155" s="254"/>
+      <c r="V155" s="255"/>
+      <c r="X155" s="254"/>
+      <c r="Y155" s="255"/>
+      <c r="AA155" s="254"/>
+      <c r="AB155" s="255"/>
+      <c r="AD155" s="250"/>
+      <c r="AE155" s="367"/>
+      <c r="AF155" s="367"/>
+      <c r="AG155" s="251"/>
       <c r="AI155" s="178"/>
       <c r="AJ155" s="178"/>
       <c r="AK155" s="113"/>
@@ -39146,10 +39516,10 @@
       <c r="K156" s="180"/>
       <c r="M156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="R156" s="256" t="s">
+      <c r="R156" s="254" t="s">
         <v>731</v>
       </c>
-      <c r="S156" s="257"/>
+      <c r="S156" s="255"/>
       <c r="V156" s="138"/>
       <c r="Y156" s="138"/>
       <c r="AB156" s="138"/>
@@ -39164,23 +39534,23 @@
       <c r="O157" s="5"/>
       <c r="R157" s="4"/>
       <c r="S157" s="6"/>
-      <c r="U157" s="373" t="s">
+      <c r="U157" s="368" t="s">
         <v>583</v>
       </c>
-      <c r="V157" s="374"/>
-      <c r="X157" s="373" t="s">
+      <c r="V157" s="369"/>
+      <c r="X157" s="368" t="s">
         <v>583</v>
       </c>
-      <c r="Y157" s="374"/>
-      <c r="AA157" s="373" t="s">
+      <c r="Y157" s="369"/>
+      <c r="AA157" s="368" t="s">
         <v>583</v>
       </c>
-      <c r="AB157" s="374"/>
-      <c r="AD157" s="373" t="s">
+      <c r="AB157" s="369"/>
+      <c r="AD157" s="368" t="s">
         <v>583</v>
       </c>
-      <c r="AE157" s="381"/>
-      <c r="AF157" s="374"/>
+      <c r="AE157" s="371"/>
+      <c r="AF157" s="369"/>
       <c r="AI157" s="178"/>
       <c r="AJ157" s="178"/>
       <c r="AK157" s="113"/>
@@ -39190,56 +39560,56 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="142"/>
-      <c r="F158" s="258" t="s">
+      <c r="F158" s="248" t="s">
+        <v>879</v>
+      </c>
+      <c r="G158" s="249"/>
+      <c r="H158" s="140"/>
+      <c r="I158" s="372" t="s">
         <v>880</v>
       </c>
-      <c r="G158" s="259"/>
-      <c r="H158" s="140"/>
-      <c r="I158" s="376" t="s">
-        <v>881</v>
-      </c>
-      <c r="J158" s="377"/>
+      <c r="J158" s="373"/>
       <c r="K158" s="5"/>
-      <c r="L158" s="382" t="s">
-        <v>885</v>
-      </c>
-      <c r="M158" s="383"/>
+      <c r="L158" s="376" t="s">
+        <v>884</v>
+      </c>
+      <c r="M158" s="377"/>
       <c r="P158" s="6"/>
       <c r="R158" s="6"/>
-      <c r="U158" s="380" t="s">
+      <c r="U158" s="370" t="s">
+        <v>889</v>
+      </c>
+      <c r="V158" s="369"/>
+      <c r="X158" s="370" t="s">
         <v>890</v>
       </c>
-      <c r="V158" s="374"/>
-      <c r="X158" s="380" t="s">
+      <c r="Y158" s="369"/>
+      <c r="AA158" s="370" t="s">
         <v>891</v>
       </c>
-      <c r="Y158" s="374"/>
-      <c r="AA158" s="380" t="s">
-        <v>892</v>
-      </c>
-      <c r="AB158" s="374"/>
-      <c r="AD158" s="380" t="s">
-        <v>884</v>
-      </c>
-      <c r="AE158" s="381"/>
-      <c r="AF158" s="374"/>
+      <c r="AB158" s="369"/>
+      <c r="AD158" s="370" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE158" s="371"/>
+      <c r="AF158" s="369"/>
       <c r="AI158" s="178"/>
       <c r="AJ158" s="178"/>
       <c r="AK158" s="113"/>
     </row>
     <row r="159" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="F159" s="260"/>
-      <c r="G159" s="261"/>
-      <c r="I159" s="378"/>
-      <c r="J159" s="379"/>
-      <c r="L159" s="384"/>
-      <c r="M159" s="385"/>
-      <c r="O159" s="258" t="s">
-        <v>877</v>
-      </c>
-      <c r="P159" s="338"/>
-      <c r="Q159" s="338"/>
-      <c r="R159" s="259"/>
+      <c r="F159" s="250"/>
+      <c r="G159" s="251"/>
+      <c r="I159" s="374"/>
+      <c r="J159" s="375"/>
+      <c r="L159" s="378"/>
+      <c r="M159" s="379"/>
+      <c r="O159" s="248" t="s">
+        <v>876</v>
+      </c>
+      <c r="P159" s="366"/>
+      <c r="Q159" s="366"/>
+      <c r="R159" s="249"/>
       <c r="U159" s="157"/>
       <c r="V159" s="172"/>
       <c r="W159" s="173"/>
@@ -39258,10 +39628,10 @@
       <c r="I160" s="181"/>
       <c r="L160" s="181"/>
       <c r="M160" s="157"/>
-      <c r="O160" s="260"/>
-      <c r="P160" s="339"/>
-      <c r="Q160" s="339"/>
-      <c r="R160" s="261"/>
+      <c r="O160" s="250"/>
+      <c r="P160" s="367"/>
+      <c r="Q160" s="367"/>
+      <c r="R160" s="251"/>
       <c r="V160" s="177"/>
       <c r="Z160" s="182"/>
       <c r="AE160" s="6"/>
@@ -39270,20 +39640,20 @@
       <c r="AK160" s="113"/>
     </row>
     <row r="161" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F161" s="376" t="s">
-        <v>882</v>
-      </c>
-      <c r="G161" s="377"/>
+      <c r="F161" s="372" t="s">
+        <v>881</v>
+      </c>
+      <c r="G161" s="373"/>
       <c r="I161" s="178"/>
       <c r="L161" s="178"/>
       <c r="Q161" s="138"/>
       <c r="V161" s="178"/>
-      <c r="Y161" s="258" t="s">
-        <v>893</v>
-      </c>
-      <c r="Z161" s="338"/>
-      <c r="AA161" s="338"/>
-      <c r="AB161" s="259"/>
+      <c r="Y161" s="248" t="s">
+        <v>892</v>
+      </c>
+      <c r="Z161" s="366"/>
+      <c r="AA161" s="366"/>
+      <c r="AB161" s="249"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="142"/>
       <c r="AE161" s="6"/>
@@ -39292,21 +39662,21 @@
       <c r="AK161" s="113"/>
     </row>
     <row r="162" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F162" s="378"/>
-      <c r="G162" s="379"/>
+      <c r="F162" s="374"/>
+      <c r="G162" s="375"/>
       <c r="I162" s="178"/>
       <c r="L162" s="188"/>
-      <c r="O162" s="258" t="s">
-        <v>878</v>
-      </c>
-      <c r="P162" s="338"/>
-      <c r="Q162" s="338"/>
-      <c r="R162" s="259"/>
+      <c r="O162" s="248" t="s">
+        <v>877</v>
+      </c>
+      <c r="P162" s="366"/>
+      <c r="Q162" s="366"/>
+      <c r="R162" s="249"/>
       <c r="V162" s="178"/>
-      <c r="Y162" s="260"/>
-      <c r="Z162" s="339"/>
-      <c r="AA162" s="339"/>
-      <c r="AB162" s="261"/>
+      <c r="Y162" s="250"/>
+      <c r="Z162" s="367"/>
+      <c r="AA162" s="367"/>
+      <c r="AB162" s="251"/>
       <c r="AI162" s="178"/>
       <c r="AJ162" s="178"/>
       <c r="AK162" s="113"/>
@@ -39315,10 +39685,10 @@
       <c r="F163" s="181"/>
       <c r="I163" s="178"/>
       <c r="L163" s="178"/>
-      <c r="O163" s="260"/>
-      <c r="P163" s="339"/>
-      <c r="Q163" s="339"/>
-      <c r="R163" s="261"/>
+      <c r="O163" s="250"/>
+      <c r="P163" s="367"/>
+      <c r="Q163" s="367"/>
+      <c r="R163" s="251"/>
       <c r="V163" s="178"/>
       <c r="W163" t="s">
         <v>191</v>
@@ -39357,18 +39727,18 @@
       <c r="T165" s="173"/>
       <c r="U165" s="173"/>
       <c r="V165" s="180"/>
-      <c r="X165" s="258" t="s">
+      <c r="X165" s="248" t="s">
+        <v>893</v>
+      </c>
+      <c r="Y165" s="366"/>
+      <c r="Z165" s="366"/>
+      <c r="AA165" s="249"/>
+      <c r="AC165" s="248" t="s">
         <v>894</v>
       </c>
-      <c r="Y165" s="338"/>
-      <c r="Z165" s="338"/>
-      <c r="AA165" s="259"/>
-      <c r="AC165" s="258" t="s">
-        <v>895</v>
-      </c>
-      <c r="AD165" s="338"/>
-      <c r="AE165" s="338"/>
-      <c r="AF165" s="259"/>
+      <c r="AD165" s="366"/>
+      <c r="AE165" s="366"/>
+      <c r="AF165" s="249"/>
       <c r="AI165" s="178"/>
       <c r="AJ165" s="178"/>
       <c r="AK165" s="113"/>
@@ -39377,14 +39747,14 @@
       <c r="F166" s="178"/>
       <c r="I166" s="178"/>
       <c r="P166" s="113"/>
-      <c r="X166" s="260"/>
-      <c r="Y166" s="339"/>
-      <c r="Z166" s="339"/>
-      <c r="AA166" s="261"/>
-      <c r="AC166" s="260"/>
-      <c r="AD166" s="339"/>
-      <c r="AE166" s="339"/>
-      <c r="AF166" s="261"/>
+      <c r="X166" s="250"/>
+      <c r="Y166" s="367"/>
+      <c r="Z166" s="367"/>
+      <c r="AA166" s="251"/>
+      <c r="AC166" s="250"/>
+      <c r="AD166" s="367"/>
+      <c r="AE166" s="367"/>
+      <c r="AF166" s="251"/>
       <c r="AI166" s="178"/>
       <c r="AJ166" s="178"/>
       <c r="AK166" s="113"/>
@@ -39403,14 +39773,14 @@
       <c r="F168" s="178"/>
       <c r="I168" s="178"/>
       <c r="P168" s="113"/>
-      <c r="Y168" s="254" t="s">
-        <v>896</v>
-      </c>
-      <c r="Z168" s="255"/>
-      <c r="AD168" s="254" t="s">
-        <v>899</v>
-      </c>
-      <c r="AE168" s="255"/>
+      <c r="Y168" s="252" t="s">
+        <v>895</v>
+      </c>
+      <c r="Z168" s="253"/>
+      <c r="AD168" s="252" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE168" s="253"/>
       <c r="AI168" s="178"/>
       <c r="AJ168" s="178"/>
       <c r="AK168" s="113"/>
@@ -39420,12 +39790,12 @@
       <c r="I169" s="178"/>
       <c r="P169" s="113"/>
       <c r="X169" s="141"/>
-      <c r="Y169" s="256"/>
-      <c r="Z169" s="257"/>
+      <c r="Y169" s="254"/>
+      <c r="Z169" s="255"/>
       <c r="AA169" s="141"/>
       <c r="AB169" s="6"/>
-      <c r="AD169" s="256"/>
-      <c r="AE169" s="257"/>
+      <c r="AD169" s="254"/>
+      <c r="AE169" s="255"/>
       <c r="AF169" s="101"/>
       <c r="AG169" s="139"/>
       <c r="AH169" s="6"/>
@@ -39449,22 +39819,22 @@
       <c r="F171" s="178"/>
       <c r="I171" s="178"/>
       <c r="P171" s="113"/>
-      <c r="W171" s="254" t="s">
+      <c r="W171" s="252" t="s">
+        <v>896</v>
+      </c>
+      <c r="X171" s="253"/>
+      <c r="AA171" s="252" t="s">
         <v>897</v>
       </c>
-      <c r="X171" s="255"/>
-      <c r="AA171" s="254" t="s">
-        <v>898</v>
-      </c>
-      <c r="AB171" s="255"/>
-      <c r="AD171" s="254" t="s">
-        <v>901</v>
-      </c>
-      <c r="AE171" s="255"/>
-      <c r="AG171" s="254" t="s">
+      <c r="AB171" s="253"/>
+      <c r="AD171" s="252" t="s">
         <v>900</v>
       </c>
-      <c r="AH171" s="255"/>
+      <c r="AE171" s="253"/>
+      <c r="AG171" s="252" t="s">
+        <v>899</v>
+      </c>
+      <c r="AH171" s="253"/>
       <c r="AI171" s="178"/>
       <c r="AJ171" s="178"/>
       <c r="AK171" s="113"/>
@@ -39473,14 +39843,14 @@
       <c r="F172" s="178"/>
       <c r="I172" s="178"/>
       <c r="P172" s="113"/>
-      <c r="W172" s="256"/>
-      <c r="X172" s="257"/>
-      <c r="AA172" s="256"/>
-      <c r="AB172" s="257"/>
-      <c r="AD172" s="256"/>
-      <c r="AE172" s="257"/>
-      <c r="AG172" s="256"/>
-      <c r="AH172" s="257"/>
+      <c r="W172" s="254"/>
+      <c r="X172" s="255"/>
+      <c r="AA172" s="254"/>
+      <c r="AB172" s="255"/>
+      <c r="AD172" s="254"/>
+      <c r="AE172" s="255"/>
+      <c r="AG172" s="254"/>
+      <c r="AH172" s="255"/>
       <c r="AI172" s="178"/>
       <c r="AJ172" s="178"/>
       <c r="AK172" s="113"/>
@@ -39515,12 +39885,12 @@
       <c r="I175" s="178"/>
       <c r="P175" s="113"/>
       <c r="X175" s="6"/>
-      <c r="AB175" s="361" t="s">
-        <v>902</v>
-      </c>
-      <c r="AC175" s="362"/>
-      <c r="AD175" s="362"/>
-      <c r="AE175" s="363"/>
+      <c r="AB175" s="338" t="s">
+        <v>901</v>
+      </c>
+      <c r="AC175" s="339"/>
+      <c r="AD175" s="339"/>
+      <c r="AE175" s="340"/>
       <c r="AH175" s="6"/>
       <c r="AI175" s="178"/>
       <c r="AJ175" s="178"/>
@@ -39531,10 +39901,10 @@
       <c r="I176" s="178"/>
       <c r="P176" s="113"/>
       <c r="X176" s="6"/>
-      <c r="AB176" s="364"/>
-      <c r="AC176" s="365"/>
-      <c r="AD176" s="365"/>
-      <c r="AE176" s="366"/>
+      <c r="AB176" s="341"/>
+      <c r="AC176" s="342"/>
+      <c r="AD176" s="342"/>
+      <c r="AE176" s="343"/>
       <c r="AH176" s="6"/>
       <c r="AI176" s="178"/>
       <c r="AJ176" s="178"/>
@@ -39555,12 +39925,12 @@
       <c r="I178" s="178"/>
       <c r="P178" s="113"/>
       <c r="X178" s="6"/>
-      <c r="AB178" s="361" t="s">
-        <v>903</v>
-      </c>
-      <c r="AC178" s="362"/>
-      <c r="AD178" s="362"/>
-      <c r="AE178" s="363"/>
+      <c r="AB178" s="338" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC178" s="339"/>
+      <c r="AD178" s="339"/>
+      <c r="AE178" s="340"/>
       <c r="AH178" s="6"/>
       <c r="AI178" s="178"/>
       <c r="AJ178" s="178"/>
@@ -39574,10 +39944,10 @@
       <c r="Y179" s="157"/>
       <c r="Z179" s="157"/>
       <c r="AA179" s="157"/>
-      <c r="AB179" s="364"/>
-      <c r="AC179" s="365"/>
-      <c r="AD179" s="365"/>
-      <c r="AE179" s="366"/>
+      <c r="AB179" s="341"/>
+      <c r="AC179" s="342"/>
+      <c r="AD179" s="342"/>
+      <c r="AE179" s="343"/>
       <c r="AF179" s="157"/>
       <c r="AG179" s="157"/>
       <c r="AI179" s="178"/>
@@ -39686,6 +40056,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H26:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="S27:V28"/>
+    <mergeCell ref="P29:R32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:V34"/>
+    <mergeCell ref="P35:R37"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="E144:H146"/>
+    <mergeCell ref="K144:N146"/>
+    <mergeCell ref="N124:Q126"/>
+    <mergeCell ref="M118:R122"/>
+    <mergeCell ref="P138:U142"/>
+    <mergeCell ref="G138:L142"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="S36:V37"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S40:V41"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="M26:N42"/>
+    <mergeCell ref="Q144:T146"/>
+    <mergeCell ref="N148:Q149"/>
+    <mergeCell ref="K128:N129"/>
+    <mergeCell ref="Q128:T129"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="F161:G162"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="O159:R160"/>
+    <mergeCell ref="O162:R163"/>
+    <mergeCell ref="AD148:AG149"/>
+    <mergeCell ref="N151:Q152"/>
+    <mergeCell ref="AD151:AG152"/>
+    <mergeCell ref="N154:O155"/>
+    <mergeCell ref="R154:S154"/>
+    <mergeCell ref="R155:S155"/>
+    <mergeCell ref="E148:H149"/>
+    <mergeCell ref="E151:H152"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="H154:I155"/>
+    <mergeCell ref="AD157:AF157"/>
+    <mergeCell ref="AD158:AF158"/>
+    <mergeCell ref="AA157:AB157"/>
+    <mergeCell ref="AA158:AB158"/>
+    <mergeCell ref="F158:G159"/>
+    <mergeCell ref="I158:J159"/>
+    <mergeCell ref="L158:M159"/>
+    <mergeCell ref="U154:V155"/>
+    <mergeCell ref="X154:Y155"/>
+    <mergeCell ref="AA154:AB155"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="X158:Y158"/>
     <mergeCell ref="AD171:AE172"/>
     <mergeCell ref="AB175:AE176"/>
     <mergeCell ref="AB178:AE179"/>
@@ -39702,84 +40150,6 @@
     <mergeCell ref="AG171:AH172"/>
     <mergeCell ref="W151:Z152"/>
     <mergeCell ref="AD154:AG155"/>
-    <mergeCell ref="U154:V155"/>
-    <mergeCell ref="X154:Y155"/>
-    <mergeCell ref="AA154:AB155"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="AD158:AF158"/>
-    <mergeCell ref="AA157:AB157"/>
-    <mergeCell ref="AA158:AB158"/>
-    <mergeCell ref="F158:G159"/>
-    <mergeCell ref="I158:J159"/>
-    <mergeCell ref="L158:M159"/>
-    <mergeCell ref="F161:G162"/>
-    <mergeCell ref="R156:S156"/>
-    <mergeCell ref="O159:R160"/>
-    <mergeCell ref="O162:R163"/>
-    <mergeCell ref="AD148:AG149"/>
-    <mergeCell ref="N151:Q152"/>
-    <mergeCell ref="AD151:AG152"/>
-    <mergeCell ref="N154:O155"/>
-    <mergeCell ref="R154:S154"/>
-    <mergeCell ref="R155:S155"/>
-    <mergeCell ref="E148:H149"/>
-    <mergeCell ref="E151:H152"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="H154:I155"/>
-    <mergeCell ref="AD157:AF157"/>
-    <mergeCell ref="Q144:T146"/>
-    <mergeCell ref="N148:Q149"/>
-    <mergeCell ref="K128:N129"/>
-    <mergeCell ref="Q128:T129"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="E144:H146"/>
-    <mergeCell ref="K144:N146"/>
-    <mergeCell ref="N124:Q126"/>
-    <mergeCell ref="M118:R122"/>
-    <mergeCell ref="P138:U142"/>
-    <mergeCell ref="G138:L142"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S40:V41"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="M26:N42"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="O33:O42"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="P27:R28"/>
-    <mergeCell ref="S27:V28"/>
-    <mergeCell ref="P29:R32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:V34"/>
-    <mergeCell ref="P35:R37"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H26:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39788,56 +40158,254 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C492E84-E7FD-4E9C-86B5-FA7A12D1A893}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40612F-F0F0-4737-AA55-56B0EF5951F7}">
+  <dimension ref="A2:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>906</v>
+      </c>
+      <c r="K2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="K5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>910</v>
       </c>
     </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H10" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>915</v>
+      </c>
+      <c r="H11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>919</v>
+      </c>
+      <c r="H14" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>920</v>
+      </c>
+      <c r="H15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>923</v>
+      </c>
+      <c r="H16" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>925</v>
+      </c>
+      <c r="H19" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="407"/>
+      <c r="B20" s="407" t="s">
+        <v>926</v>
+      </c>
+      <c r="C20" s="407"/>
+      <c r="D20" s="407"/>
+      <c r="E20" s="407"/>
+      <c r="F20" s="407"/>
+      <c r="G20" s="407"/>
+      <c r="H20" s="408" t="s">
+        <v>928</v>
+      </c>
+      <c r="I20" s="407"/>
+      <c r="J20" s="407"/>
+      <c r="K20" s="407"/>
+      <c r="L20" s="407"/>
+      <c r="M20" s="407"/>
+      <c r="N20" s="407"/>
+      <c r="O20" s="407"/>
+      <c r="P20" s="407"/>
+      <c r="Q20" s="407"/>
+      <c r="R20" s="407"/>
+      <c r="S20" s="407"/>
+      <c r="T20" s="407"/>
+      <c r="U20" s="407"/>
+      <c r="V20" s="407"/>
+      <c r="W20" s="407"/>
+      <c r="X20" s="407"/>
+      <c r="Y20" s="407"/>
+      <c r="Z20" s="407"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" t="s">
+        <v>934</v>
+      </c>
+      <c r="G23" t="s">
+        <v>935</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>929</v>
+      </c>
+      <c r="D25" t="s">
+        <v>932</v>
+      </c>
+      <c r="G25" t="s">
+        <v>409</v>
+      </c>
+      <c r="J25" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>930</v>
+      </c>
+      <c r="D26" t="s">
+        <v>933</v>
+      </c>
+      <c r="G26" t="s">
+        <v>936</v>
+      </c>
+      <c r="J26" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>931</v>
+      </c>
+      <c r="G27" t="s">
+        <v>938</v>
+      </c>
+      <c r="J27" t="s">
+        <v>941</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E2A31-F412-41EA-93E0-16FA43723815}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41090,12 +41658,12 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="198" t="s">
+      <c r="K65" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="199"/>
-      <c r="M65" s="199"/>
-      <c r="N65" s="200"/>
+      <c r="L65" s="206"/>
+      <c r="M65" s="206"/>
+      <c r="N65" s="207"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -41120,10 +41688,10 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="201"/>
-      <c r="L66" s="202"/>
-      <c r="M66" s="202"/>
-      <c r="N66" s="203"/>
+      <c r="K66" s="208"/>
+      <c r="L66" s="209"/>
+      <c r="M66" s="209"/>
+      <c r="N66" s="210"/>
       <c r="O66" s="12"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -41148,10 +41716,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="204"/>
-      <c r="L67" s="205"/>
-      <c r="M67" s="205"/>
-      <c r="N67" s="206"/>
+      <c r="K67" s="211"/>
+      <c r="L67" s="212"/>
+      <c r="M67" s="212"/>
+      <c r="N67" s="213"/>
       <c r="O67" s="13"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -41229,20 +41797,20 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="228" t="s">
+      <c r="H70" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="I70" s="229"/>
-      <c r="J70" s="229"/>
-      <c r="K70" s="230"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="216"/>
       <c r="L70" s="10"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="228" t="s">
+      <c r="N70" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="O70" s="229"/>
-      <c r="P70" s="229"/>
-      <c r="Q70" s="230"/>
+      <c r="O70" s="215"/>
+      <c r="P70" s="215"/>
+      <c r="Q70" s="216"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -41293,10 +41861,10 @@
       <c r="I72" s="10"/>
       <c r="J72" s="13"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="207" t="s">
+      <c r="L72" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="M72" s="209"/>
+      <c r="M72" s="218"/>
       <c r="N72" s="11"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -41323,8 +41891,8 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="210"/>
-      <c r="M73" s="212"/>
+      <c r="L73" s="219"/>
+      <c r="M73" s="220"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -41381,10 +41949,10 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="207" t="s">
+      <c r="L75" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="M75" s="209"/>
+      <c r="M75" s="218"/>
       <c r="N75" s="16"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -41411,8 +41979,8 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="212"/>
+      <c r="L76" s="219"/>
+      <c r="M76" s="220"/>
       <c r="N76" s="10" t="s">
         <v>191</v>
       </c>
@@ -41524,12 +42092,12 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="198" t="s">
+      <c r="K80" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="L80" s="199"/>
-      <c r="M80" s="199"/>
-      <c r="N80" s="200"/>
+      <c r="L80" s="206"/>
+      <c r="M80" s="206"/>
+      <c r="N80" s="207"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -41554,10 +42122,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="201"/>
-      <c r="L81" s="202"/>
-      <c r="M81" s="202"/>
-      <c r="N81" s="203"/>
+      <c r="K81" s="208"/>
+      <c r="L81" s="209"/>
+      <c r="M81" s="209"/>
+      <c r="N81" s="210"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="10"/>
@@ -41582,10 +42150,10 @@
       <c r="H82" s="13"/>
       <c r="I82" s="10"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="204"/>
-      <c r="L82" s="205"/>
-      <c r="M82" s="205"/>
-      <c r="N82" s="206"/>
+      <c r="K82" s="211"/>
+      <c r="L82" s="212"/>
+      <c r="M82" s="212"/>
+      <c r="N82" s="213"/>
       <c r="O82" s="10"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="10"/>
@@ -41635,20 +42203,20 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="207" t="s">
+      <c r="H84" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="208"/>
-      <c r="J84" s="209"/>
+      <c r="I84" s="223"/>
+      <c r="J84" s="218"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="13"/>
-      <c r="O84" s="207" t="s">
+      <c r="O84" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="P84" s="208"/>
-      <c r="Q84" s="209"/>
+      <c r="P84" s="223"/>
+      <c r="Q84" s="218"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -41667,16 +42235,16 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="210"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="212"/>
+      <c r="H85" s="219"/>
+      <c r="I85" s="224"/>
+      <c r="J85" s="220"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="13"/>
-      <c r="O85" s="210"/>
-      <c r="P85" s="211"/>
-      <c r="Q85" s="212"/>
+      <c r="O85" s="219"/>
+      <c r="P85" s="224"/>
+      <c r="Q85" s="220"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
@@ -41722,13 +42290,13 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="219" t="s">
+      <c r="G87" s="225" t="s">
         <v>187</v>
       </c>
-      <c r="H87" s="220"/>
-      <c r="I87" s="220"/>
-      <c r="J87" s="220"/>
-      <c r="K87" s="221"/>
+      <c r="H87" s="226"/>
+      <c r="I87" s="226"/>
+      <c r="J87" s="226"/>
+      <c r="K87" s="227"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -41752,13 +42320,13 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="222" t="s">
+      <c r="G88" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="H88" s="223"/>
-      <c r="I88" s="223"/>
-      <c r="J88" s="223"/>
-      <c r="K88" s="224"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="229"/>
+      <c r="J88" s="229"/>
+      <c r="K88" s="230"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -41809,17 +42377,17 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="207" t="s">
+      <c r="F90" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="209"/>
+      <c r="G90" s="218"/>
       <c r="H90" s="11"/>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="207" t="s">
+      <c r="K90" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="L90" s="209"/>
+      <c r="L90" s="218"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -41841,13 +42409,13 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="210"/>
-      <c r="G91" s="212"/>
+      <c r="F91" s="219"/>
+      <c r="G91" s="220"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="210"/>
-      <c r="L91" s="212"/>
+      <c r="K91" s="219"/>
+      <c r="L91" s="220"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -41924,12 +42492,12 @@
       <c r="B94" s="13"/>
       <c r="C94" s="10"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="195" t="s">
+      <c r="E94" s="189" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="196"/>
-      <c r="G94" s="196"/>
-      <c r="H94" s="197"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="190"/>
+      <c r="H94" s="191"/>
       <c r="I94" s="13"/>
       <c r="J94" s="10"/>
       <c r="K94" s="13"/>
@@ -42011,19 +42579,19 @@
       <c r="C97" s="13"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="195" t="s">
+      <c r="F97" s="189" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="197"/>
+      <c r="G97" s="191"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="198" t="s">
+      <c r="K97" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="199"/>
-      <c r="M97" s="199"/>
-      <c r="N97" s="200"/>
+      <c r="L97" s="206"/>
+      <c r="M97" s="206"/>
+      <c r="N97" s="207"/>
       <c r="O97" s="12"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="10"/>
@@ -42048,10 +42616,10 @@
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="201"/>
-      <c r="L98" s="202"/>
-      <c r="M98" s="202"/>
-      <c r="N98" s="203"/>
+      <c r="K98" s="208"/>
+      <c r="L98" s="209"/>
+      <c r="M98" s="209"/>
+      <c r="N98" s="210"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -42071,17 +42639,17 @@
       <c r="C99" s="13"/>
       <c r="D99" s="10"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="195" t="s">
+      <c r="F99" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="G99" s="197"/>
+      <c r="G99" s="191"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="204"/>
-      <c r="L99" s="205"/>
-      <c r="M99" s="205"/>
-      <c r="N99" s="206"/>
+      <c r="K99" s="211"/>
+      <c r="L99" s="212"/>
+      <c r="M99" s="212"/>
+      <c r="N99" s="213"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -42134,12 +42702,12 @@
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="189" t="s">
+      <c r="K101" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="L101" s="190"/>
-      <c r="M101" s="190"/>
-      <c r="N101" s="191"/>
+      <c r="L101" s="221"/>
+      <c r="M101" s="221"/>
+      <c r="N101" s="202"/>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="10"/>
@@ -42164,10 +42732,10 @@
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="192"/>
-      <c r="L102" s="193"/>
-      <c r="M102" s="193"/>
-      <c r="N102" s="194"/>
+      <c r="K102" s="203"/>
+      <c r="L102" s="222"/>
+      <c r="M102" s="222"/>
+      <c r="N102" s="204"/>
       <c r="O102" s="10"/>
       <c r="P102" s="13"/>
       <c r="Q102" s="10"/>
@@ -42216,21 +42784,21 @@
       <c r="D104" s="10"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="213" t="s">
+      <c r="G104" s="192" t="s">
         <v>178</v>
       </c>
-      <c r="H104" s="214"/>
-      <c r="I104" s="215"/>
+      <c r="H104" s="193"/>
+      <c r="I104" s="194"/>
       <c r="J104" s="12"/>
       <c r="K104" s="11"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="13"/>
-      <c r="O104" s="195" t="s">
+      <c r="O104" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="P104" s="196"/>
-      <c r="Q104" s="197"/>
+      <c r="P104" s="190"/>
+      <c r="Q104" s="191"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
@@ -42248,9 +42816,9 @@
       <c r="D105" s="10"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="216"/>
-      <c r="H105" s="217"/>
-      <c r="I105" s="218"/>
+      <c r="G105" s="195"/>
+      <c r="H105" s="196"/>
+      <c r="I105" s="197"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
@@ -42337,21 +42905,21 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="13"/>
-      <c r="L108" s="225" t="s">
+      <c r="L108" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="M108" s="226"/>
-      <c r="N108" s="226"/>
-      <c r="O108" s="226"/>
-      <c r="P108" s="227"/>
+      <c r="M108" s="232"/>
+      <c r="N108" s="232"/>
+      <c r="O108" s="232"/>
+      <c r="P108" s="233"/>
       <c r="Q108" s="13"/>
-      <c r="R108" s="228" t="s">
+      <c r="R108" s="214" t="s">
         <v>175</v>
       </c>
-      <c r="S108" s="229"/>
-      <c r="T108" s="229"/>
-      <c r="U108" s="229"/>
-      <c r="V108" s="230"/>
+      <c r="S108" s="215"/>
+      <c r="T108" s="215"/>
+      <c r="U108" s="215"/>
+      <c r="V108" s="216"/>
       <c r="W108" s="13"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="10"/>
@@ -42397,20 +42965,20 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="13"/>
-      <c r="L110" s="207" t="s">
+      <c r="L110" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="M110" s="208"/>
-      <c r="N110" s="209"/>
+      <c r="M110" s="223"/>
+      <c r="N110" s="218"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="13"/>
-      <c r="S110" s="231" t="s">
+      <c r="S110" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="T110" s="232"/>
-      <c r="U110" s="233"/>
+      <c r="T110" s="199"/>
+      <c r="U110" s="200"/>
       <c r="V110" s="10"/>
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
@@ -42429,9 +42997,9 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="13"/>
-      <c r="L111" s="210"/>
-      <c r="M111" s="211"/>
-      <c r="N111" s="212"/>
+      <c r="L111" s="219"/>
+      <c r="M111" s="224"/>
+      <c r="N111" s="220"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -42464,10 +43032,10 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
-      <c r="S112" s="189" t="s">
+      <c r="S112" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="191"/>
+      <c r="T112" s="202"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="11"/>
@@ -42480,26 +43048,26 @@
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="198" t="s">
+      <c r="E113" s="205" t="s">
         <v>171</v>
       </c>
-      <c r="F113" s="199"/>
-      <c r="G113" s="199"/>
-      <c r="H113" s="200"/>
+      <c r="F113" s="206"/>
+      <c r="G113" s="206"/>
+      <c r="H113" s="207"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="13"/>
-      <c r="L113" s="231" t="s">
+      <c r="L113" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="M113" s="232"/>
-      <c r="N113" s="233"/>
+      <c r="M113" s="199"/>
+      <c r="N113" s="200"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
-      <c r="S113" s="192"/>
-      <c r="T113" s="194"/>
+      <c r="S113" s="203"/>
+      <c r="T113" s="204"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
       <c r="W113" s="10"/>
@@ -42512,10 +43080,10 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="201"/>
-      <c r="F114" s="202"/>
-      <c r="G114" s="202"/>
-      <c r="H114" s="203"/>
+      <c r="E114" s="208"/>
+      <c r="F114" s="209"/>
+      <c r="G114" s="209"/>
+      <c r="H114" s="210"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -42540,18 +43108,18 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="204"/>
-      <c r="F115" s="205"/>
-      <c r="G115" s="205"/>
-      <c r="H115" s="206"/>
+      <c r="E115" s="211"/>
+      <c r="F115" s="212"/>
+      <c r="G115" s="212"/>
+      <c r="H115" s="213"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="13"/>
-      <c r="L115" s="231" t="s">
+      <c r="L115" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="M115" s="232"/>
-      <c r="N115" s="233"/>
+      <c r="M115" s="199"/>
+      <c r="N115" s="200"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -42605,11 +43173,11 @@
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="13"/>
-      <c r="L117" s="231" t="s">
+      <c r="L117" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="M117" s="232"/>
-      <c r="N117" s="233"/>
+      <c r="M117" s="199"/>
+      <c r="N117" s="200"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -42714,18 +43282,18 @@
       <c r="D121" s="10"/>
       <c r="E121" s="13"/>
       <c r="F121" s="11"/>
-      <c r="G121" s="213" t="s">
+      <c r="G121" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H121" s="215"/>
+      <c r="H121" s="194"/>
       <c r="I121" s="12"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="198" t="s">
+      <c r="K121" s="205" t="s">
         <v>166</v>
       </c>
-      <c r="L121" s="199"/>
-      <c r="M121" s="199"/>
-      <c r="N121" s="200"/>
+      <c r="L121" s="206"/>
+      <c r="M121" s="206"/>
+      <c r="N121" s="207"/>
       <c r="O121" s="12"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
@@ -42746,14 +43314,14 @@
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="216"/>
-      <c r="H122" s="218"/>
+      <c r="G122" s="195"/>
+      <c r="H122" s="197"/>
       <c r="I122" s="10"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="201"/>
-      <c r="L122" s="202"/>
-      <c r="M122" s="202"/>
-      <c r="N122" s="203"/>
+      <c r="K122" s="208"/>
+      <c r="L122" s="209"/>
+      <c r="M122" s="209"/>
+      <c r="N122" s="210"/>
       <c r="O122" s="13"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
@@ -42778,10 +43346,10 @@
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="204"/>
-      <c r="L123" s="205"/>
-      <c r="M123" s="205"/>
-      <c r="N123" s="206"/>
+      <c r="K123" s="211"/>
+      <c r="L123" s="212"/>
+      <c r="M123" s="212"/>
+      <c r="N123" s="213"/>
       <c r="O123" s="13"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
@@ -42856,27 +43424,27 @@
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="213" t="s">
+      <c r="E126" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="214"/>
-      <c r="G126" s="215"/>
+      <c r="F126" s="193"/>
+      <c r="G126" s="194"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="213" t="s">
+      <c r="I126" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="J126" s="214"/>
-      <c r="K126" s="214"/>
-      <c r="L126" s="214"/>
-      <c r="M126" s="215"/>
+      <c r="J126" s="193"/>
+      <c r="K126" s="193"/>
+      <c r="L126" s="193"/>
+      <c r="M126" s="194"/>
       <c r="N126" s="13"/>
-      <c r="O126" s="213" t="s">
+      <c r="O126" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="P126" s="214"/>
-      <c r="Q126" s="214"/>
-      <c r="R126" s="214"/>
-      <c r="S126" s="215"/>
+      <c r="P126" s="193"/>
+      <c r="Q126" s="193"/>
+      <c r="R126" s="193"/>
+      <c r="S126" s="194"/>
       <c r="T126" s="11"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
@@ -42890,21 +43458,21 @@
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="216"/>
-      <c r="F127" s="217"/>
-      <c r="G127" s="218"/>
+      <c r="E127" s="195"/>
+      <c r="F127" s="196"/>
+      <c r="G127" s="197"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="216"/>
-      <c r="J127" s="217"/>
-      <c r="K127" s="217"/>
-      <c r="L127" s="217"/>
-      <c r="M127" s="218"/>
+      <c r="I127" s="195"/>
+      <c r="J127" s="196"/>
+      <c r="K127" s="196"/>
+      <c r="L127" s="196"/>
+      <c r="M127" s="197"/>
       <c r="N127" s="13"/>
-      <c r="O127" s="216"/>
-      <c r="P127" s="217"/>
-      <c r="Q127" s="217"/>
-      <c r="R127" s="217"/>
-      <c r="S127" s="218"/>
+      <c r="O127" s="195"/>
+      <c r="P127" s="196"/>
+      <c r="Q127" s="196"/>
+      <c r="R127" s="196"/>
+      <c r="S127" s="197"/>
       <c r="T127" s="13"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
@@ -42946,11 +43514,11 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="195" t="s">
+      <c r="E129" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="F129" s="196"/>
-      <c r="G129" s="197"/>
+      <c r="F129" s="190"/>
+      <c r="G129" s="191"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -43004,11 +43572,11 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="213" t="s">
+      <c r="E131" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="214"/>
-      <c r="G131" s="215"/>
+      <c r="F131" s="193"/>
+      <c r="G131" s="194"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -43034,9 +43602,9 @@
       <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="216"/>
-      <c r="F132" s="217"/>
-      <c r="G132" s="218"/>
+      <c r="E132" s="195"/>
+      <c r="F132" s="196"/>
+      <c r="G132" s="197"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -43171,25 +43739,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E131:G132"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="S112:T113"/>
-    <mergeCell ref="E113:H115"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="K121:N123"/>
-    <mergeCell ref="E126:G127"/>
-    <mergeCell ref="I126:M127"/>
-    <mergeCell ref="G121:H122"/>
-    <mergeCell ref="K97:N99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="K65:N67"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="L75:M76"/>
     <mergeCell ref="K101:N102"/>
     <mergeCell ref="O104:Q104"/>
     <mergeCell ref="K80:N82"/>
@@ -43206,6 +43755,25 @@
     <mergeCell ref="L108:P108"/>
     <mergeCell ref="R108:V108"/>
     <mergeCell ref="F97:G97"/>
+    <mergeCell ref="K97:N99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="K65:N67"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="L75:M76"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E131:G132"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="S112:T113"/>
+    <mergeCell ref="E113:H115"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="K121:N123"/>
+    <mergeCell ref="E126:G127"/>
+    <mergeCell ref="I126:M127"/>
+    <mergeCell ref="G121:H122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43750,12 +44318,12 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="234" t="s">
+      <c r="G87" s="247" t="s">
         <v>300</v>
       </c>
-      <c r="H87" s="234"/>
-      <c r="I87" s="234"/>
-      <c r="J87" s="234"/>
+      <c r="H87" s="247"/>
+      <c r="I87" s="247"/>
+      <c r="J87" s="247"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
@@ -43788,17 +44356,17 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="234"/>
-      <c r="H88" s="234"/>
-      <c r="I88" s="234"/>
-      <c r="J88" s="234"/>
+      <c r="G88" s="247"/>
+      <c r="H88" s="247"/>
+      <c r="I88" s="247"/>
+      <c r="J88" s="247"/>
       <c r="K88" s="98"/>
-      <c r="L88" s="235" t="s">
+      <c r="L88" s="245" t="s">
         <v>299</v>
       </c>
-      <c r="M88" s="235"/>
-      <c r="N88" s="235"/>
-      <c r="O88" s="235"/>
+      <c r="M88" s="245"/>
+      <c r="N88" s="245"/>
+      <c r="O88" s="245"/>
       <c r="P88" s="81"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -43807,17 +44375,17 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="105"/>
-      <c r="X88" s="238" t="s">
+      <c r="X88" s="234" t="s">
         <v>298</v>
       </c>
-      <c r="Y88" s="239"/>
-      <c r="Z88" s="239"/>
-      <c r="AA88" s="239"/>
-      <c r="AB88" s="239"/>
-      <c r="AC88" s="239"/>
-      <c r="AD88" s="239"/>
-      <c r="AE88" s="239"/>
-      <c r="AF88" s="240"/>
+      <c r="Y88" s="235"/>
+      <c r="Z88" s="235"/>
+      <c r="AA88" s="235"/>
+      <c r="AB88" s="235"/>
+      <c r="AC88" s="235"/>
+      <c r="AD88" s="235"/>
+      <c r="AE88" s="235"/>
+      <c r="AF88" s="236"/>
       <c r="AG88" s="18"/>
       <c r="AH88" s="18"/>
     </row>
@@ -43828,15 +44396,15 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="234"/>
-      <c r="H89" s="234"/>
-      <c r="I89" s="234"/>
-      <c r="J89" s="234"/>
+      <c r="G89" s="247"/>
+      <c r="H89" s="247"/>
+      <c r="I89" s="247"/>
+      <c r="J89" s="247"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="235"/>
-      <c r="M89" s="235"/>
-      <c r="N89" s="235"/>
-      <c r="O89" s="235"/>
+      <c r="L89" s="245"/>
+      <c r="M89" s="245"/>
+      <c r="N89" s="245"/>
+      <c r="O89" s="245"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
@@ -43845,15 +44413,15 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="105"/>
-      <c r="X89" s="241"/>
-      <c r="Y89" s="242"/>
-      <c r="Z89" s="242"/>
-      <c r="AA89" s="242"/>
-      <c r="AB89" s="242"/>
-      <c r="AC89" s="242"/>
-      <c r="AD89" s="242"/>
-      <c r="AE89" s="242"/>
-      <c r="AF89" s="243"/>
+      <c r="X89" s="237"/>
+      <c r="Y89" s="238"/>
+      <c r="Z89" s="238"/>
+      <c r="AA89" s="238"/>
+      <c r="AB89" s="238"/>
+      <c r="AC89" s="238"/>
+      <c r="AD89" s="238"/>
+      <c r="AE89" s="238"/>
+      <c r="AF89" s="239"/>
       <c r="AG89" s="18"/>
       <c r="AH89" s="18"/>
     </row>
@@ -43864,15 +44432,15 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="234"/>
-      <c r="H90" s="234"/>
-      <c r="I90" s="234"/>
-      <c r="J90" s="234"/>
+      <c r="G90" s="247"/>
+      <c r="H90" s="247"/>
+      <c r="I90" s="247"/>
+      <c r="J90" s="247"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="235"/>
-      <c r="M90" s="235"/>
-      <c r="N90" s="235"/>
-      <c r="O90" s="235"/>
+      <c r="L90" s="245"/>
+      <c r="M90" s="245"/>
+      <c r="N90" s="245"/>
+      <c r="O90" s="245"/>
       <c r="P90" s="36"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
@@ -43881,15 +44449,15 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="105"/>
-      <c r="X90" s="241"/>
-      <c r="Y90" s="242"/>
-      <c r="Z90" s="242"/>
-      <c r="AA90" s="242"/>
-      <c r="AB90" s="242"/>
-      <c r="AC90" s="242"/>
-      <c r="AD90" s="242"/>
-      <c r="AE90" s="242"/>
-      <c r="AF90" s="243"/>
+      <c r="X90" s="237"/>
+      <c r="Y90" s="238"/>
+      <c r="Z90" s="238"/>
+      <c r="AA90" s="238"/>
+      <c r="AB90" s="238"/>
+      <c r="AC90" s="238"/>
+      <c r="AD90" s="238"/>
+      <c r="AE90" s="238"/>
+      <c r="AF90" s="239"/>
       <c r="AG90" s="18"/>
       <c r="AH90" s="18"/>
     </row>
@@ -43917,15 +44485,15 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="105"/>
-      <c r="X91" s="244"/>
-      <c r="Y91" s="245"/>
-      <c r="Z91" s="245"/>
-      <c r="AA91" s="245"/>
-      <c r="AB91" s="245"/>
-      <c r="AC91" s="245"/>
-      <c r="AD91" s="245"/>
-      <c r="AE91" s="245"/>
-      <c r="AF91" s="246"/>
+      <c r="X91" s="240"/>
+      <c r="Y91" s="241"/>
+      <c r="Z91" s="241"/>
+      <c r="AA91" s="241"/>
+      <c r="AB91" s="241"/>
+      <c r="AC91" s="241"/>
+      <c r="AD91" s="241"/>
+      <c r="AE91" s="241"/>
+      <c r="AF91" s="242"/>
       <c r="AG91" s="18"/>
       <c r="AH91" s="18"/>
     </row>
@@ -43968,21 +44536,21 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="235" t="s">
+      <c r="C93" s="245" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="235"/>
-      <c r="E93" s="235"/>
-      <c r="F93" s="235"/>
+      <c r="D93" s="245"/>
+      <c r="E93" s="245"/>
+      <c r="F93" s="245"/>
       <c r="G93" s="19"/>
       <c r="H93" s="103"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="235" t="s">
+      <c r="J93" s="245" t="s">
         <v>289</v>
       </c>
-      <c r="K93" s="235"/>
-      <c r="L93" s="235"/>
-      <c r="M93" s="235"/>
+      <c r="K93" s="245"/>
+      <c r="L93" s="245"/>
+      <c r="M93" s="245"/>
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
       <c r="P93" s="36"/>
@@ -44008,17 +44576,17 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="235"/>
-      <c r="D94" s="235"/>
-      <c r="E94" s="235"/>
-      <c r="F94" s="235"/>
+      <c r="C94" s="245"/>
+      <c r="D94" s="245"/>
+      <c r="E94" s="245"/>
+      <c r="F94" s="245"/>
       <c r="G94" s="19"/>
       <c r="H94" s="103"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="235"/>
-      <c r="K94" s="235"/>
-      <c r="L94" s="235"/>
-      <c r="M94" s="235"/>
+      <c r="J94" s="245"/>
+      <c r="K94" s="245"/>
+      <c r="L94" s="245"/>
+      <c r="M94" s="245"/>
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
       <c r="P94" s="36"/>
@@ -44044,17 +44612,17 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="235"/>
-      <c r="D95" s="235"/>
-      <c r="E95" s="235"/>
-      <c r="F95" s="235"/>
+      <c r="C95" s="245"/>
+      <c r="D95" s="245"/>
+      <c r="E95" s="245"/>
+      <c r="F95" s="245"/>
       <c r="G95" s="19"/>
       <c r="H95" s="103"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="235"/>
-      <c r="K95" s="235"/>
-      <c r="L95" s="235"/>
-      <c r="M95" s="235"/>
+      <c r="J95" s="245"/>
+      <c r="K95" s="245"/>
+      <c r="L95" s="245"/>
+      <c r="M95" s="245"/>
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
       <c r="P95" s="36"/>
@@ -44159,12 +44727,12 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="235" t="s">
+      <c r="J98" s="245" t="s">
         <v>296</v>
       </c>
-      <c r="K98" s="235"/>
-      <c r="L98" s="235"/>
-      <c r="M98" s="235"/>
+      <c r="K98" s="245"/>
+      <c r="L98" s="245"/>
+      <c r="M98" s="245"/>
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
       <c r="P98" s="36"/>
@@ -44197,10 +44765,10 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="235"/>
-      <c r="K99" s="235"/>
-      <c r="L99" s="235"/>
-      <c r="M99" s="235"/>
+      <c r="J99" s="245"/>
+      <c r="K99" s="245"/>
+      <c r="L99" s="245"/>
+      <c r="M99" s="245"/>
       <c r="N99" s="79"/>
       <c r="O99" s="50"/>
       <c r="P99" s="91"/>
@@ -44233,10 +44801,10 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="235"/>
-      <c r="K100" s="235"/>
-      <c r="L100" s="235"/>
-      <c r="M100" s="235"/>
+      <c r="J100" s="245"/>
+      <c r="K100" s="245"/>
+      <c r="L100" s="245"/>
+      <c r="M100" s="245"/>
       <c r="N100" s="19"/>
       <c r="O100" s="19"/>
       <c r="P100" s="36"/>
@@ -44338,12 +44906,12 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="78"/>
-      <c r="G103" s="234" t="s">
+      <c r="G103" s="247" t="s">
         <v>295</v>
       </c>
-      <c r="H103" s="234"/>
-      <c r="I103" s="234"/>
-      <c r="J103" s="234"/>
+      <c r="H103" s="247"/>
+      <c r="I103" s="247"/>
+      <c r="J103" s="247"/>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
       <c r="M103" s="19"/>
@@ -44376,17 +44944,17 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="78"/>
-      <c r="G104" s="234"/>
-      <c r="H104" s="234"/>
-      <c r="I104" s="234"/>
-      <c r="J104" s="234"/>
+      <c r="G104" s="247"/>
+      <c r="H104" s="247"/>
+      <c r="I104" s="247"/>
+      <c r="J104" s="247"/>
       <c r="K104" s="98"/>
-      <c r="L104" s="235" t="s">
+      <c r="L104" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="M104" s="235"/>
-      <c r="N104" s="235"/>
-      <c r="O104" s="235"/>
+      <c r="M104" s="245"/>
+      <c r="N104" s="245"/>
+      <c r="O104" s="245"/>
       <c r="P104" s="97"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
@@ -44414,15 +44982,15 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="78"/>
-      <c r="G105" s="234"/>
-      <c r="H105" s="234"/>
-      <c r="I105" s="234"/>
-      <c r="J105" s="234"/>
+      <c r="G105" s="247"/>
+      <c r="H105" s="247"/>
+      <c r="I105" s="247"/>
+      <c r="J105" s="247"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="235"/>
-      <c r="M105" s="235"/>
-      <c r="N105" s="235"/>
-      <c r="O105" s="235"/>
+      <c r="L105" s="245"/>
+      <c r="M105" s="245"/>
+      <c r="N105" s="245"/>
+      <c r="O105" s="245"/>
       <c r="P105" s="80"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
@@ -44450,15 +45018,15 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="78"/>
-      <c r="G106" s="234"/>
-      <c r="H106" s="234"/>
-      <c r="I106" s="234"/>
-      <c r="J106" s="234"/>
+      <c r="G106" s="247"/>
+      <c r="H106" s="247"/>
+      <c r="I106" s="247"/>
+      <c r="J106" s="247"/>
       <c r="K106" s="19"/>
-      <c r="L106" s="235"/>
-      <c r="M106" s="235"/>
-      <c r="N106" s="235"/>
-      <c r="O106" s="235"/>
+      <c r="L106" s="245"/>
+      <c r="M106" s="245"/>
+      <c r="N106" s="245"/>
+      <c r="O106" s="245"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
@@ -44555,20 +45123,20 @@
       <c r="A109" s="19"/>
       <c r="B109" s="90"/>
       <c r="C109" s="19"/>
-      <c r="D109" s="235" t="s">
+      <c r="D109" s="245" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="235"/>
-      <c r="F109" s="235"/>
-      <c r="G109" s="235"/>
+      <c r="E109" s="245"/>
+      <c r="F109" s="245"/>
+      <c r="G109" s="245"/>
       <c r="H109" s="90"/>
       <c r="I109" s="93"/>
-      <c r="J109" s="235" t="s">
+      <c r="J109" s="245" t="s">
         <v>292</v>
       </c>
-      <c r="K109" s="235"/>
-      <c r="L109" s="235"/>
-      <c r="M109" s="235"/>
+      <c r="K109" s="245"/>
+      <c r="L109" s="245"/>
+      <c r="M109" s="245"/>
       <c r="N109" s="28"/>
       <c r="O109" s="19"/>
       <c r="P109" s="36"/>
@@ -44595,16 +45163,16 @@
       <c r="A110" s="19"/>
       <c r="B110" s="90"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="235"/>
-      <c r="E110" s="235"/>
-      <c r="F110" s="235"/>
-      <c r="G110" s="235"/>
+      <c r="D110" s="245"/>
+      <c r="E110" s="245"/>
+      <c r="F110" s="245"/>
+      <c r="G110" s="245"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="235"/>
-      <c r="K110" s="235"/>
-      <c r="L110" s="235"/>
-      <c r="M110" s="235"/>
+      <c r="J110" s="245"/>
+      <c r="K110" s="245"/>
+      <c r="L110" s="245"/>
+      <c r="M110" s="245"/>
       <c r="N110" s="92"/>
       <c r="O110" s="50"/>
       <c r="P110" s="91"/>
@@ -44631,16 +45199,16 @@
       <c r="A111" s="19"/>
       <c r="B111" s="90"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="235"/>
-      <c r="E111" s="235"/>
-      <c r="F111" s="235"/>
-      <c r="G111" s="235"/>
+      <c r="D111" s="245"/>
+      <c r="E111" s="245"/>
+      <c r="F111" s="245"/>
+      <c r="G111" s="245"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="235"/>
-      <c r="K111" s="235"/>
-      <c r="L111" s="235"/>
-      <c r="M111" s="235"/>
+      <c r="J111" s="245"/>
+      <c r="K111" s="245"/>
+      <c r="L111" s="245"/>
+      <c r="M111" s="245"/>
       <c r="N111" s="28"/>
       <c r="O111" s="19"/>
       <c r="P111" s="36"/>
@@ -44742,12 +45310,12 @@
       <c r="D114" s="88"/>
       <c r="E114" s="88"/>
       <c r="F114" s="87"/>
-      <c r="G114" s="234" t="s">
+      <c r="G114" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="H114" s="234"/>
-      <c r="I114" s="234"/>
-      <c r="J114" s="234"/>
+      <c r="H114" s="247"/>
+      <c r="I114" s="247"/>
+      <c r="J114" s="247"/>
       <c r="K114" s="19"/>
       <c r="L114" s="19"/>
       <c r="M114" s="19"/>
@@ -44780,10 +45348,10 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="234"/>
-      <c r="H115" s="234"/>
-      <c r="I115" s="234"/>
-      <c r="J115" s="234"/>
+      <c r="G115" s="247"/>
+      <c r="H115" s="247"/>
+      <c r="I115" s="247"/>
+      <c r="J115" s="247"/>
       <c r="K115" s="19"/>
       <c r="L115" s="19"/>
       <c r="M115" s="46"/>
@@ -44816,16 +45384,16 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="234"/>
-      <c r="H116" s="234"/>
-      <c r="I116" s="234"/>
-      <c r="J116" s="234"/>
+      <c r="G116" s="247"/>
+      <c r="H116" s="247"/>
+      <c r="I116" s="247"/>
+      <c r="J116" s="247"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="237" t="s">
+      <c r="L116" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="237"/>
-      <c r="N116" s="237"/>
+      <c r="M116" s="243"/>
+      <c r="N116" s="243"/>
       <c r="O116" s="19"/>
       <c r="P116" s="36"/>
       <c r="Q116" s="19"/>
@@ -44854,16 +45422,16 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="234"/>
-      <c r="H117" s="234"/>
-      <c r="I117" s="234"/>
-      <c r="J117" s="234"/>
+      <c r="G117" s="247"/>
+      <c r="H117" s="247"/>
+      <c r="I117" s="247"/>
+      <c r="J117" s="247"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="237" t="s">
+      <c r="L117" s="243" t="s">
         <v>285</v>
       </c>
-      <c r="M117" s="237"/>
-      <c r="N117" s="237"/>
+      <c r="M117" s="243"/>
+      <c r="N117" s="243"/>
       <c r="O117" s="19"/>
       <c r="P117" s="36"/>
       <c r="Q117" s="19"/>
@@ -44961,20 +45529,20 @@
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="235" t="s">
+      <c r="D120" s="245" t="s">
         <v>290</v>
       </c>
-      <c r="E120" s="235"/>
-      <c r="F120" s="235"/>
-      <c r="G120" s="235"/>
+      <c r="E120" s="245"/>
+      <c r="F120" s="245"/>
+      <c r="G120" s="245"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="235" t="s">
+      <c r="J120" s="245" t="s">
         <v>289</v>
       </c>
-      <c r="K120" s="235"/>
-      <c r="L120" s="235"/>
-      <c r="M120" s="235"/>
+      <c r="K120" s="245"/>
+      <c r="L120" s="245"/>
+      <c r="M120" s="245"/>
       <c r="N120" s="81"/>
       <c r="O120" s="30"/>
       <c r="P120" s="29"/>
@@ -45001,16 +45569,16 @@
       <c r="A121" s="19"/>
       <c r="B121" s="25"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="235"/>
-      <c r="E121" s="235"/>
-      <c r="F121" s="235"/>
-      <c r="G121" s="235"/>
+      <c r="D121" s="245"/>
+      <c r="E121" s="245"/>
+      <c r="F121" s="245"/>
+      <c r="G121" s="245"/>
       <c r="H121" s="79"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="235"/>
-      <c r="K121" s="235"/>
-      <c r="L121" s="235"/>
-      <c r="M121" s="235"/>
+      <c r="J121" s="245"/>
+      <c r="K121" s="245"/>
+      <c r="L121" s="245"/>
+      <c r="M121" s="245"/>
       <c r="N121" s="78"/>
       <c r="O121" s="77"/>
       <c r="P121" s="19"/>
@@ -45037,16 +45605,16 @@
       <c r="A122" s="28"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="235"/>
-      <c r="E122" s="235"/>
-      <c r="F122" s="235"/>
-      <c r="G122" s="235"/>
+      <c r="D122" s="245"/>
+      <c r="E122" s="245"/>
+      <c r="F122" s="245"/>
+      <c r="G122" s="245"/>
       <c r="H122" s="76"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="235"/>
-      <c r="K122" s="235"/>
-      <c r="L122" s="235"/>
-      <c r="M122" s="235"/>
+      <c r="J122" s="245"/>
+      <c r="K122" s="245"/>
+      <c r="L122" s="245"/>
+      <c r="M122" s="245"/>
       <c r="N122" s="75"/>
       <c r="O122" s="74"/>
       <c r="P122" s="19"/>
@@ -45084,11 +45652,11 @@
       <c r="L123" s="27"/>
       <c r="M123" s="57"/>
       <c r="N123" s="19"/>
-      <c r="O123" s="237" t="s">
+      <c r="O123" s="243" t="s">
         <v>278</v>
       </c>
-      <c r="P123" s="237"/>
-      <c r="Q123" s="237"/>
+      <c r="P123" s="243"/>
+      <c r="Q123" s="243"/>
       <c r="R123" s="19"/>
       <c r="S123" s="36"/>
       <c r="T123" s="54"/>
@@ -45112,11 +45680,11 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="237" t="s">
+      <c r="E124" s="243" t="s">
         <v>288</v>
       </c>
-      <c r="F124" s="237"/>
-      <c r="G124" s="237"/>
+      <c r="F124" s="243"/>
+      <c r="G124" s="243"/>
       <c r="H124" s="54"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
@@ -45124,11 +45692,11 @@
       <c r="L124" s="22"/>
       <c r="M124" s="73"/>
       <c r="N124" s="19"/>
-      <c r="O124" s="247" t="s">
+      <c r="O124" s="246" t="s">
         <v>287</v>
       </c>
-      <c r="P124" s="237"/>
-      <c r="Q124" s="237"/>
+      <c r="P124" s="243"/>
+      <c r="Q124" s="243"/>
       <c r="R124" s="19"/>
       <c r="S124" s="36"/>
       <c r="T124" s="54"/>
@@ -45152,11 +45720,11 @@
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="237" t="s">
+      <c r="E125" s="243" t="s">
         <v>286</v>
       </c>
-      <c r="F125" s="237"/>
-      <c r="G125" s="237"/>
+      <c r="F125" s="243"/>
+      <c r="G125" s="243"/>
       <c r="H125" s="54"/>
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
@@ -45200,11 +45768,11 @@
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
       <c r="N126" s="19"/>
-      <c r="O126" s="237" t="s">
+      <c r="O126" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="P126" s="237"/>
-      <c r="Q126" s="237"/>
+      <c r="P126" s="243"/>
+      <c r="Q126" s="243"/>
       <c r="R126" s="19"/>
       <c r="S126" s="36"/>
       <c r="T126" s="54"/>
@@ -45238,11 +45806,11 @@
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
       <c r="N127" s="19"/>
-      <c r="O127" s="237" t="s">
+      <c r="O127" s="243" t="s">
         <v>285</v>
       </c>
-      <c r="P127" s="237"/>
-      <c r="Q127" s="237"/>
+      <c r="P127" s="243"/>
+      <c r="Q127" s="243"/>
       <c r="R127" s="19"/>
       <c r="S127" s="36"/>
       <c r="T127" s="54"/>
@@ -45264,17 +45832,17 @@
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="237" t="s">
+      <c r="C128" s="243" t="s">
         <v>284</v>
       </c>
-      <c r="D128" s="237"/>
-      <c r="E128" s="237"/>
+      <c r="D128" s="243"/>
+      <c r="E128" s="243"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="237" t="s">
+      <c r="G128" s="243" t="s">
         <v>284</v>
       </c>
-      <c r="H128" s="237"/>
-      <c r="I128" s="237"/>
+      <c r="H128" s="243"/>
+      <c r="I128" s="243"/>
       <c r="J128" s="54"/>
       <c r="K128" s="19"/>
       <c r="L128" s="28"/>
@@ -45304,28 +45872,28 @@
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
       <c r="B129" s="19"/>
-      <c r="C129" s="237" t="s">
+      <c r="C129" s="243" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="237"/>
-      <c r="E129" s="237"/>
+      <c r="D129" s="243"/>
+      <c r="E129" s="243"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="237" t="s">
+      <c r="G129" s="243" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="237"/>
-      <c r="I129" s="237"/>
+      <c r="H129" s="243"/>
+      <c r="I129" s="243"/>
       <c r="J129" s="54"/>
       <c r="K129" s="50"/>
       <c r="L129" s="49"/>
       <c r="M129" s="49"/>
       <c r="N129" s="64"/>
-      <c r="O129" s="234" t="s">
+      <c r="O129" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="P129" s="234"/>
-      <c r="Q129" s="234"/>
-      <c r="R129" s="234"/>
+      <c r="P129" s="247"/>
+      <c r="Q129" s="247"/>
+      <c r="R129" s="247"/>
       <c r="S129" s="68"/>
       <c r="T129" s="47"/>
       <c r="U129" s="54"/>
@@ -45358,10 +45926,10 @@
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
       <c r="N130" s="19"/>
-      <c r="O130" s="234"/>
-      <c r="P130" s="234"/>
-      <c r="Q130" s="234"/>
-      <c r="R130" s="234"/>
+      <c r="O130" s="247"/>
+      <c r="P130" s="247"/>
+      <c r="Q130" s="247"/>
+      <c r="R130" s="247"/>
       <c r="S130" s="65"/>
       <c r="T130" s="19"/>
       <c r="U130" s="47"/>
@@ -45383,25 +45951,25 @@
       <c r="A131" s="28"/>
       <c r="B131" s="19"/>
       <c r="C131" s="64"/>
-      <c r="D131" s="236" t="s">
+      <c r="D131" s="244" t="s">
         <v>280</v>
       </c>
-      <c r="E131" s="236"/>
+      <c r="E131" s="244"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="236" t="s">
+      <c r="G131" s="244" t="s">
         <v>279</v>
       </c>
-      <c r="H131" s="236"/>
+      <c r="H131" s="244"/>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
       <c r="N131" s="19"/>
-      <c r="O131" s="234"/>
-      <c r="P131" s="234"/>
-      <c r="Q131" s="234"/>
-      <c r="R131" s="234"/>
+      <c r="O131" s="247"/>
+      <c r="P131" s="247"/>
+      <c r="Q131" s="247"/>
+      <c r="R131" s="247"/>
       <c r="S131" s="36"/>
       <c r="T131" s="63"/>
       <c r="U131" s="19"/>
@@ -45423,21 +45991,21 @@
       <c r="A132" s="28"/>
       <c r="B132" s="53"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="236"/>
-      <c r="E132" s="236"/>
+      <c r="D132" s="244"/>
+      <c r="E132" s="244"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="236"/>
-      <c r="H132" s="236"/>
+      <c r="G132" s="244"/>
+      <c r="H132" s="244"/>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
       <c r="N132" s="19"/>
-      <c r="O132" s="234"/>
-      <c r="P132" s="234"/>
-      <c r="Q132" s="234"/>
-      <c r="R132" s="234"/>
+      <c r="O132" s="247"/>
+      <c r="P132" s="247"/>
+      <c r="Q132" s="247"/>
+      <c r="R132" s="247"/>
       <c r="S132" s="36"/>
       <c r="T132" s="19"/>
       <c r="U132" s="19"/>
@@ -45532,11 +46100,11 @@
       <c r="B135" s="53"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="237" t="s">
+      <c r="E135" s="243" t="s">
         <v>278</v>
       </c>
-      <c r="F135" s="237"/>
-      <c r="G135" s="237"/>
+      <c r="F135" s="243"/>
+      <c r="G135" s="243"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
@@ -45570,11 +46138,11 @@
       <c r="B136" s="53"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="237" t="s">
+      <c r="E136" s="243" t="s">
         <v>277</v>
       </c>
-      <c r="F136" s="237"/>
-      <c r="G136" s="237"/>
+      <c r="F136" s="243"/>
+      <c r="G136" s="243"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -45682,11 +46250,11 @@
       <c r="D139" s="19"/>
       <c r="E139" s="23"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="237" t="s">
+      <c r="G139" s="243" t="s">
         <v>276</v>
       </c>
-      <c r="H139" s="237"/>
-      <c r="I139" s="237"/>
+      <c r="H139" s="243"/>
+      <c r="I139" s="243"/>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="28"/>
@@ -45720,11 +46288,11 @@
       <c r="D140" s="19"/>
       <c r="E140" s="23"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="237" t="s">
+      <c r="G140" s="243" t="s">
         <v>275</v>
       </c>
-      <c r="H140" s="237"/>
-      <c r="I140" s="237"/>
+      <c r="H140" s="243"/>
+      <c r="I140" s="243"/>
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="28"/>
@@ -45830,12 +46398,12 @@
       <c r="D143" s="19"/>
       <c r="E143" s="23"/>
       <c r="F143" s="45"/>
-      <c r="G143" s="234" t="s">
+      <c r="G143" s="247" t="s">
         <v>274</v>
       </c>
-      <c r="H143" s="234"/>
-      <c r="I143" s="234"/>
-      <c r="J143" s="234"/>
+      <c r="H143" s="247"/>
+      <c r="I143" s="247"/>
+      <c r="J143" s="247"/>
       <c r="K143" s="19"/>
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
@@ -45868,10 +46436,10 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="234"/>
-      <c r="H144" s="234"/>
-      <c r="I144" s="234"/>
-      <c r="J144" s="234"/>
+      <c r="G144" s="247"/>
+      <c r="H144" s="247"/>
+      <c r="I144" s="247"/>
+      <c r="J144" s="247"/>
       <c r="K144" s="19"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
@@ -45904,10 +46472,10 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="234"/>
-      <c r="H145" s="234"/>
-      <c r="I145" s="234"/>
-      <c r="J145" s="234"/>
+      <c r="G145" s="247"/>
+      <c r="H145" s="247"/>
+      <c r="I145" s="247"/>
+      <c r="J145" s="247"/>
       <c r="K145" s="19"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
@@ -45940,10 +46508,10 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="234"/>
-      <c r="H146" s="234"/>
-      <c r="I146" s="234"/>
-      <c r="J146" s="234"/>
+      <c r="G146" s="247"/>
+      <c r="H146" s="247"/>
+      <c r="I146" s="247"/>
+      <c r="J146" s="247"/>
       <c r="K146" s="19"/>
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
@@ -46047,16 +46615,16 @@
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="236" t="s">
+      <c r="F149" s="244" t="s">
         <v>273</v>
       </c>
-      <c r="G149" s="236"/>
+      <c r="G149" s="244"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-      <c r="J149" s="236" t="s">
+      <c r="J149" s="244" t="s">
         <v>272</v>
       </c>
-      <c r="K149" s="236"/>
+      <c r="K149" s="244"/>
       <c r="L149" s="37"/>
       <c r="M149" s="28"/>
       <c r="N149" s="23"/>
@@ -46087,12 +46655,12 @@
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="35"/>
-      <c r="F150" s="236"/>
-      <c r="G150" s="236"/>
+      <c r="F150" s="244"/>
+      <c r="G150" s="244"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-      <c r="J150" s="236"/>
-      <c r="K150" s="236"/>
+      <c r="J150" s="244"/>
+      <c r="K150" s="244"/>
       <c r="L150" s="34"/>
       <c r="M150" s="33"/>
       <c r="N150" s="32"/>
@@ -46123,12 +46691,12 @@
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="236"/>
-      <c r="G151" s="236"/>
+      <c r="F151" s="244"/>
+      <c r="G151" s="244"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-      <c r="J151" s="236"/>
-      <c r="K151" s="236"/>
+      <c r="J151" s="244"/>
+      <c r="K151" s="244"/>
       <c r="L151" s="19"/>
       <c r="M151" s="28"/>
       <c r="N151" s="23"/>
@@ -46407,6 +46975,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="G87:J90"/>
+    <mergeCell ref="G103:J106"/>
+    <mergeCell ref="L88:O90"/>
+    <mergeCell ref="C93:F95"/>
+    <mergeCell ref="L104:O106"/>
+    <mergeCell ref="F149:G151"/>
+    <mergeCell ref="J149:K151"/>
+    <mergeCell ref="O126:Q126"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="O129:R132"/>
+    <mergeCell ref="G131:H132"/>
+    <mergeCell ref="D109:G111"/>
+    <mergeCell ref="J109:M111"/>
+    <mergeCell ref="G114:J117"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="G143:J146"/>
+    <mergeCell ref="L117:N117"/>
     <mergeCell ref="X88:AF91"/>
     <mergeCell ref="E135:G135"/>
     <mergeCell ref="E136:G136"/>
@@ -46423,25 +47010,6 @@
     <mergeCell ref="E125:G125"/>
     <mergeCell ref="J93:M95"/>
     <mergeCell ref="J98:M100"/>
-    <mergeCell ref="D109:G111"/>
-    <mergeCell ref="J109:M111"/>
-    <mergeCell ref="G114:J117"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="G143:J146"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="F149:G151"/>
-    <mergeCell ref="J149:K151"/>
-    <mergeCell ref="O126:Q126"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="O129:R132"/>
-    <mergeCell ref="G131:H132"/>
-    <mergeCell ref="G87:J90"/>
-    <mergeCell ref="G103:J106"/>
-    <mergeCell ref="L88:O90"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="L104:O106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47050,25 +47618,25 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U101" s="281" t="s">
+      <c r="U101" s="260" t="s">
         <v>409</v>
       </c>
-      <c r="V101" s="282"/>
+      <c r="V101" s="261"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U102" s="283"/>
-      <c r="V102" s="284"/>
+      <c r="U102" s="262"/>
+      <c r="V102" s="263"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S104" s="277" t="s">
+      <c r="S104" s="256" t="s">
         <v>408</v>
       </c>
-      <c r="T104" s="278"/>
-      <c r="V104" s="285" t="s">
+      <c r="T104" s="257"/>
+      <c r="V104" s="264" t="s">
         <v>407</v>
       </c>
-      <c r="W104" s="286"/>
-      <c r="X104" s="287"/>
+      <c r="W104" s="265"/>
+      <c r="X104" s="266"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="134"/>
@@ -47076,17 +47644,17 @@
       <c r="H105" s="134"/>
       <c r="I105" s="134"/>
       <c r="J105" s="155"/>
-      <c r="K105" s="262" t="s">
+      <c r="K105" s="279" t="s">
         <v>406</v>
       </c>
-      <c r="L105" s="263"/>
-      <c r="M105" s="263"/>
-      <c r="N105" s="264"/>
-      <c r="S105" s="279"/>
-      <c r="T105" s="280"/>
-      <c r="V105" s="288"/>
-      <c r="W105" s="289"/>
-      <c r="X105" s="290"/>
+      <c r="L105" s="280"/>
+      <c r="M105" s="280"/>
+      <c r="N105" s="281"/>
+      <c r="S105" s="258"/>
+      <c r="T105" s="259"/>
+      <c r="V105" s="267"/>
+      <c r="W105" s="268"/>
+      <c r="X105" s="269"/>
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="136"/>
@@ -47094,22 +47662,22 @@
       <c r="H106" s="154"/>
       <c r="I106" s="154"/>
       <c r="J106" s="153"/>
-      <c r="K106" s="265"/>
-      <c r="L106" s="266"/>
-      <c r="M106" s="266"/>
-      <c r="N106" s="267"/>
-      <c r="V106" s="291"/>
-      <c r="W106" s="292"/>
-      <c r="X106" s="293"/>
+      <c r="K106" s="282"/>
+      <c r="L106" s="283"/>
+      <c r="M106" s="283"/>
+      <c r="N106" s="284"/>
+      <c r="V106" s="270"/>
+      <c r="W106" s="271"/>
+      <c r="X106" s="272"/>
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="136"/>
       <c r="F107" s="149"/>
       <c r="J107" s="115"/>
-      <c r="K107" s="268"/>
-      <c r="L107" s="269"/>
-      <c r="M107" s="269"/>
-      <c r="N107" s="270"/>
+      <c r="K107" s="285"/>
+      <c r="L107" s="286"/>
+      <c r="M107" s="286"/>
+      <c r="N107" s="287"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E108" s="136"/>
@@ -47119,22 +47687,22 @@
     <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="136"/>
       <c r="F109" s="149"/>
-      <c r="K109" s="271" t="s">
+      <c r="K109" s="273" t="s">
         <v>393</v>
       </c>
-      <c r="L109" s="272"/>
-      <c r="M109" s="272"/>
-      <c r="N109" s="273"/>
+      <c r="L109" s="274"/>
+      <c r="M109" s="274"/>
+      <c r="N109" s="275"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="136"/>
       <c r="F110" s="149"/>
       <c r="I110" s="126"/>
       <c r="J110" s="125"/>
-      <c r="K110" s="274"/>
-      <c r="L110" s="275"/>
-      <c r="M110" s="275"/>
-      <c r="N110" s="276"/>
+      <c r="K110" s="276"/>
+      <c r="L110" s="277"/>
+      <c r="M110" s="277"/>
+      <c r="N110" s="278"/>
       <c r="O110" s="126"/>
       <c r="P110" s="125"/>
     </row>
@@ -47161,29 +47729,29 @@
     <row r="113" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="136"/>
       <c r="F113" s="149"/>
-      <c r="H113" s="248" t="s">
+      <c r="H113" s="302" t="s">
         <v>392</v>
       </c>
-      <c r="I113" s="249"/>
-      <c r="J113" s="250"/>
-      <c r="O113" s="302" t="s">
+      <c r="I113" s="303"/>
+      <c r="J113" s="304"/>
+      <c r="O113" s="296" t="s">
         <v>391</v>
       </c>
-      <c r="P113" s="303"/>
-      <c r="Q113" s="304"/>
+      <c r="P113" s="297"/>
+      <c r="Q113" s="298"/>
       <c r="U113" s="136"/>
     </row>
     <row r="114" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E114" s="136"/>
       <c r="F114" s="149"/>
-      <c r="H114" s="251"/>
-      <c r="I114" s="252"/>
-      <c r="J114" s="253"/>
+      <c r="H114" s="305"/>
+      <c r="I114" s="306"/>
+      <c r="J114" s="307"/>
       <c r="K114" s="139"/>
       <c r="N114" s="101"/>
-      <c r="O114" s="305"/>
-      <c r="P114" s="306"/>
-      <c r="Q114" s="307"/>
+      <c r="O114" s="299"/>
+      <c r="P114" s="300"/>
+      <c r="Q114" s="301"/>
       <c r="U114" s="136"/>
     </row>
     <row r="115" spans="5:21" x14ac:dyDescent="0.3">
@@ -47198,35 +47766,35 @@
       <c r="E116" s="136"/>
       <c r="F116" s="149"/>
       <c r="G116" s="145"/>
-      <c r="H116" s="258" t="s">
+      <c r="H116" s="248" t="s">
         <v>405</v>
       </c>
-      <c r="I116" s="259"/>
-      <c r="K116" s="262" t="s">
+      <c r="I116" s="249"/>
+      <c r="K116" s="279" t="s">
         <v>404</v>
       </c>
-      <c r="L116" s="263"/>
-      <c r="M116" s="263"/>
-      <c r="N116" s="264"/>
+      <c r="L116" s="280"/>
+      <c r="M116" s="280"/>
+      <c r="N116" s="281"/>
       <c r="U116" s="136"/>
     </row>
     <row r="117" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="136"/>
       <c r="G117" s="115"/>
-      <c r="H117" s="260"/>
-      <c r="I117" s="261"/>
-      <c r="K117" s="265"/>
-      <c r="L117" s="266"/>
-      <c r="M117" s="266"/>
-      <c r="N117" s="267"/>
+      <c r="H117" s="250"/>
+      <c r="I117" s="251"/>
+      <c r="K117" s="282"/>
+      <c r="L117" s="283"/>
+      <c r="M117" s="283"/>
+      <c r="N117" s="284"/>
       <c r="U117" s="136"/>
     </row>
     <row r="118" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E118" s="136"/>
-      <c r="K118" s="268"/>
-      <c r="L118" s="269"/>
-      <c r="M118" s="269"/>
-      <c r="N118" s="270"/>
+      <c r="K118" s="285"/>
+      <c r="L118" s="286"/>
+      <c r="M118" s="286"/>
+      <c r="N118" s="287"/>
       <c r="U118" s="136"/>
     </row>
     <row r="119" spans="5:21" x14ac:dyDescent="0.3">
@@ -47246,24 +47814,24 @@
     </row>
     <row r="121" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E121" s="136"/>
-      <c r="J121" s="258" t="s">
+      <c r="J121" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="K121" s="259"/>
-      <c r="O121" s="258" t="s">
+      <c r="K121" s="249"/>
+      <c r="O121" s="248" t="s">
         <v>403</v>
       </c>
-      <c r="P121" s="259"/>
+      <c r="P121" s="249"/>
       <c r="U121" s="136"/>
     </row>
     <row r="122" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E122" s="136"/>
       <c r="I122" s="101"/>
-      <c r="J122" s="260"/>
-      <c r="K122" s="261"/>
+      <c r="J122" s="250"/>
+      <c r="K122" s="251"/>
       <c r="L122" s="139"/>
-      <c r="O122" s="260"/>
-      <c r="P122" s="261"/>
+      <c r="O122" s="250"/>
+      <c r="P122" s="251"/>
       <c r="U122" s="136"/>
     </row>
     <row r="123" spans="5:21" x14ac:dyDescent="0.3">
@@ -47275,24 +47843,24 @@
     </row>
     <row r="124" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E124" s="136"/>
-      <c r="H124" s="254" t="s">
+      <c r="H124" s="252" t="s">
         <v>389</v>
       </c>
-      <c r="I124" s="255"/>
-      <c r="L124" s="254" t="s">
+      <c r="I124" s="253"/>
+      <c r="L124" s="252" t="s">
         <v>388</v>
       </c>
-      <c r="M124" s="255"/>
+      <c r="M124" s="253"/>
       <c r="P124" s="6"/>
       <c r="U124" s="136"/>
     </row>
     <row r="125" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E125" s="136"/>
       <c r="G125" s="141"/>
-      <c r="H125" s="256"/>
-      <c r="I125" s="257"/>
-      <c r="L125" s="256"/>
-      <c r="M125" s="257"/>
+      <c r="H125" s="254"/>
+      <c r="I125" s="255"/>
+      <c r="L125" s="254"/>
+      <c r="M125" s="255"/>
       <c r="P125" s="6"/>
       <c r="U125" s="136"/>
     </row>
@@ -47306,12 +47874,12 @@
     <row r="127" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E127" s="136"/>
       <c r="G127" s="6"/>
-      <c r="K127" s="262" t="s">
+      <c r="K127" s="279" t="s">
         <v>402</v>
       </c>
-      <c r="L127" s="263"/>
-      <c r="M127" s="263"/>
-      <c r="N127" s="264"/>
+      <c r="L127" s="280"/>
+      <c r="M127" s="280"/>
+      <c r="N127" s="281"/>
       <c r="O127" s="140"/>
       <c r="P127" s="6"/>
       <c r="U127" s="136"/>
@@ -47322,10 +47890,10 @@
       <c r="H128" s="112"/>
       <c r="I128" s="112"/>
       <c r="J128" s="145"/>
-      <c r="K128" s="265"/>
-      <c r="L128" s="266"/>
-      <c r="M128" s="266"/>
-      <c r="N128" s="267"/>
+      <c r="K128" s="282"/>
+      <c r="L128" s="283"/>
+      <c r="M128" s="283"/>
+      <c r="N128" s="284"/>
       <c r="U128" s="136"/>
     </row>
     <row r="129" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47334,10 +47902,10 @@
       <c r="F129" s="144"/>
       <c r="G129" s="6"/>
       <c r="J129" s="115"/>
-      <c r="K129" s="268"/>
-      <c r="L129" s="269"/>
-      <c r="M129" s="269"/>
-      <c r="N129" s="270"/>
+      <c r="K129" s="285"/>
+      <c r="L129" s="286"/>
+      <c r="M129" s="286"/>
+      <c r="N129" s="287"/>
       <c r="U129" s="136"/>
     </row>
     <row r="130" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47345,40 +47913,40 @@
       <c r="E130" s="136"/>
       <c r="G130" s="6"/>
       <c r="M130" s="138"/>
-      <c r="U130" s="294" t="s">
+      <c r="U130" s="288" t="s">
         <v>401</v>
       </c>
-      <c r="V130" s="295"/>
-      <c r="W130" s="295"/>
-      <c r="X130" s="296"/>
+      <c r="V130" s="289"/>
+      <c r="W130" s="289"/>
+      <c r="X130" s="290"/>
     </row>
     <row r="131" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="113"/>
       <c r="F131" s="143"/>
       <c r="G131" s="6"/>
-      <c r="L131" s="258" t="s">
+      <c r="L131" s="248" t="s">
         <v>400</v>
       </c>
-      <c r="M131" s="259"/>
+      <c r="M131" s="249"/>
       <c r="T131" s="134"/>
-      <c r="U131" s="297"/>
-      <c r="V131" s="266"/>
-      <c r="W131" s="266"/>
-      <c r="X131" s="298"/>
+      <c r="U131" s="291"/>
+      <c r="V131" s="283"/>
+      <c r="W131" s="283"/>
+      <c r="X131" s="292"/>
     </row>
     <row r="132" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="113"/>
       <c r="E132" s="136"/>
       <c r="G132" s="6"/>
       <c r="K132" s="101"/>
-      <c r="L132" s="260"/>
-      <c r="M132" s="261"/>
+      <c r="L132" s="250"/>
+      <c r="M132" s="251"/>
       <c r="N132" s="139"/>
       <c r="S132" s="136"/>
-      <c r="U132" s="299"/>
-      <c r="V132" s="300"/>
-      <c r="W132" s="300"/>
-      <c r="X132" s="301"/>
+      <c r="U132" s="293"/>
+      <c r="V132" s="294"/>
+      <c r="W132" s="294"/>
+      <c r="X132" s="295"/>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D133" s="113"/>
@@ -47393,16 +47961,16 @@
       <c r="D134" s="113"/>
       <c r="E134" s="136"/>
       <c r="G134" s="6"/>
-      <c r="I134" s="302" t="s">
+      <c r="I134" s="296" t="s">
         <v>399</v>
       </c>
-      <c r="J134" s="303"/>
-      <c r="K134" s="304"/>
-      <c r="N134" s="302" t="s">
+      <c r="J134" s="297"/>
+      <c r="K134" s="298"/>
+      <c r="N134" s="296" t="s">
         <v>398</v>
       </c>
-      <c r="O134" s="303"/>
-      <c r="P134" s="304"/>
+      <c r="O134" s="297"/>
+      <c r="P134" s="298"/>
       <c r="S134" s="136"/>
       <c r="U134" s="123"/>
     </row>
@@ -47411,12 +47979,12 @@
       <c r="E135" s="136"/>
       <c r="G135" s="6"/>
       <c r="H135" s="141"/>
-      <c r="I135" s="305"/>
-      <c r="J135" s="306"/>
-      <c r="K135" s="307"/>
-      <c r="N135" s="305"/>
-      <c r="O135" s="306"/>
-      <c r="P135" s="307"/>
+      <c r="I135" s="299"/>
+      <c r="J135" s="300"/>
+      <c r="K135" s="301"/>
+      <c r="N135" s="299"/>
+      <c r="O135" s="300"/>
+      <c r="P135" s="301"/>
       <c r="S135" s="136"/>
       <c r="U135" s="123"/>
     </row>
@@ -47443,12 +48011,12 @@
       <c r="E138" s="136"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="K138" s="262" t="s">
+      <c r="K138" s="279" t="s">
         <v>397</v>
       </c>
-      <c r="L138" s="263"/>
-      <c r="M138" s="263"/>
-      <c r="N138" s="264"/>
+      <c r="L138" s="280"/>
+      <c r="M138" s="280"/>
+      <c r="N138" s="281"/>
       <c r="O138" s="140"/>
       <c r="S138" s="136"/>
       <c r="U138" s="123"/>
@@ -47458,10 +48026,10 @@
       <c r="E139" s="136"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="K139" s="265"/>
-      <c r="L139" s="266"/>
-      <c r="M139" s="266"/>
-      <c r="N139" s="267"/>
+      <c r="K139" s="282"/>
+      <c r="L139" s="283"/>
+      <c r="M139" s="283"/>
+      <c r="N139" s="284"/>
       <c r="S139" s="136"/>
       <c r="U139" s="123"/>
     </row>
@@ -47470,10 +48038,10 @@
       <c r="E140" s="136"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="K140" s="268"/>
-      <c r="L140" s="269"/>
-      <c r="M140" s="269"/>
-      <c r="N140" s="270"/>
+      <c r="K140" s="285"/>
+      <c r="L140" s="286"/>
+      <c r="M140" s="286"/>
+      <c r="N140" s="287"/>
       <c r="S140" s="136"/>
       <c r="U140" s="123"/>
     </row>
@@ -47502,14 +48070,14 @@
       <c r="E143" s="136"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="J143" s="258" t="s">
+      <c r="J143" s="248" t="s">
         <v>396</v>
       </c>
-      <c r="K143" s="259"/>
-      <c r="N143" s="258" t="s">
+      <c r="K143" s="249"/>
+      <c r="N143" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="O143" s="259"/>
+      <c r="O143" s="249"/>
       <c r="P143" s="135"/>
       <c r="Q143" s="134"/>
       <c r="R143" s="134"/>
@@ -47522,10 +48090,10 @@
       <c r="G144" s="132"/>
       <c r="H144" s="131"/>
       <c r="I144" s="130"/>
-      <c r="J144" s="260"/>
-      <c r="K144" s="261"/>
-      <c r="N144" s="260"/>
-      <c r="O144" s="261"/>
+      <c r="J144" s="250"/>
+      <c r="K144" s="251"/>
+      <c r="N144" s="250"/>
+      <c r="O144" s="251"/>
       <c r="U144" s="123"/>
     </row>
     <row r="145" spans="4:21" x14ac:dyDescent="0.3">
@@ -47550,12 +48118,12 @@
       <c r="H147" s="122"/>
       <c r="I147" s="122"/>
       <c r="J147" s="122"/>
-      <c r="K147" s="294" t="s">
+      <c r="K147" s="288" t="s">
         <v>394</v>
       </c>
-      <c r="L147" s="295"/>
-      <c r="M147" s="295"/>
-      <c r="N147" s="296"/>
+      <c r="L147" s="289"/>
+      <c r="M147" s="289"/>
+      <c r="N147" s="290"/>
       <c r="U147" s="123"/>
     </row>
     <row r="148" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47565,20 +48133,20 @@
       <c r="H148" s="112"/>
       <c r="I148" s="112"/>
       <c r="J148" s="127"/>
-      <c r="K148" s="297"/>
-      <c r="L148" s="266"/>
-      <c r="M148" s="266"/>
-      <c r="N148" s="298"/>
+      <c r="K148" s="291"/>
+      <c r="L148" s="283"/>
+      <c r="M148" s="283"/>
+      <c r="N148" s="292"/>
       <c r="U148" s="123"/>
     </row>
     <row r="149" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="113"/>
       <c r="E149" s="113"/>
       <c r="J149" s="123"/>
-      <c r="K149" s="299"/>
-      <c r="L149" s="300"/>
-      <c r="M149" s="300"/>
-      <c r="N149" s="301"/>
+      <c r="K149" s="293"/>
+      <c r="L149" s="294"/>
+      <c r="M149" s="294"/>
+      <c r="N149" s="295"/>
       <c r="U149" s="123"/>
     </row>
     <row r="150" spans="4:21" x14ac:dyDescent="0.3">
@@ -47590,22 +48158,22 @@
     <row r="151" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="113"/>
       <c r="E151" s="113"/>
-      <c r="K151" s="271" t="s">
+      <c r="K151" s="273" t="s">
         <v>393</v>
       </c>
-      <c r="L151" s="272"/>
-      <c r="M151" s="272"/>
-      <c r="N151" s="273"/>
+      <c r="L151" s="274"/>
+      <c r="M151" s="274"/>
+      <c r="N151" s="275"/>
       <c r="U151" s="123"/>
     </row>
     <row r="152" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="113"/>
       <c r="E152" s="113"/>
       <c r="J152" s="126"/>
-      <c r="K152" s="274"/>
-      <c r="L152" s="275"/>
-      <c r="M152" s="275"/>
-      <c r="N152" s="276"/>
+      <c r="K152" s="276"/>
+      <c r="L152" s="277"/>
+      <c r="M152" s="277"/>
+      <c r="N152" s="278"/>
       <c r="O152" s="125"/>
       <c r="U152" s="123"/>
     </row>
@@ -47619,16 +48187,16 @@
     <row r="154" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="113"/>
       <c r="E154" s="113"/>
-      <c r="I154" s="248" t="s">
+      <c r="I154" s="302" t="s">
         <v>392</v>
       </c>
-      <c r="J154" s="249"/>
-      <c r="K154" s="250"/>
-      <c r="N154" s="248" t="s">
+      <c r="J154" s="303"/>
+      <c r="K154" s="304"/>
+      <c r="N154" s="302" t="s">
         <v>391</v>
       </c>
-      <c r="O154" s="249"/>
-      <c r="P154" s="250"/>
+      <c r="O154" s="303"/>
+      <c r="P154" s="304"/>
       <c r="Q154" s="122"/>
       <c r="R154" s="122"/>
       <c r="S154" s="122"/>
@@ -47638,12 +48206,12 @@
     <row r="155" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="113"/>
       <c r="E155" s="113"/>
-      <c r="I155" s="251"/>
-      <c r="J155" s="252"/>
-      <c r="K155" s="253"/>
-      <c r="N155" s="251"/>
-      <c r="O155" s="252"/>
-      <c r="P155" s="253"/>
+      <c r="I155" s="305"/>
+      <c r="J155" s="306"/>
+      <c r="K155" s="307"/>
+      <c r="N155" s="305"/>
+      <c r="O155" s="306"/>
+      <c r="P155" s="307"/>
     </row>
     <row r="156" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D156" s="113"/>
@@ -47653,18 +48221,18 @@
     <row r="157" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D157" s="113"/>
       <c r="E157" s="113"/>
-      <c r="I157" s="258" t="s">
+      <c r="I157" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="J157" s="259"/>
+      <c r="J157" s="249"/>
       <c r="K157" s="120"/>
     </row>
     <row r="158" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D158" s="113"/>
       <c r="E158" s="113"/>
       <c r="H158" s="119"/>
-      <c r="I158" s="260"/>
-      <c r="J158" s="261"/>
+      <c r="I158" s="250"/>
+      <c r="J158" s="251"/>
       <c r="K158" s="118"/>
     </row>
     <row r="159" spans="4:21" x14ac:dyDescent="0.3">
@@ -47677,22 +48245,22 @@
       <c r="D160" s="113"/>
       <c r="E160" s="113"/>
       <c r="F160" s="115"/>
-      <c r="G160" s="254" t="s">
+      <c r="G160" s="252" t="s">
         <v>389</v>
       </c>
-      <c r="H160" s="255"/>
-      <c r="K160" s="254" t="s">
+      <c r="H160" s="253"/>
+      <c r="K160" s="252" t="s">
         <v>388</v>
       </c>
-      <c r="L160" s="255"/>
+      <c r="L160" s="253"/>
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D161" s="113"/>
       <c r="F161" s="114"/>
-      <c r="G161" s="256"/>
-      <c r="H161" s="257"/>
-      <c r="K161" s="256"/>
-      <c r="L161" s="257"/>
+      <c r="G161" s="254"/>
+      <c r="H161" s="255"/>
+      <c r="K161" s="254"/>
+      <c r="L161" s="255"/>
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D162" s="113"/>
@@ -47707,6 +48275,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I154:K155"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="H124:I125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="L131:M132"/>
+    <mergeCell ref="O121:P122"/>
+    <mergeCell ref="J121:K122"/>
+    <mergeCell ref="K105:N107"/>
+    <mergeCell ref="K116:N118"/>
+    <mergeCell ref="K127:N129"/>
+    <mergeCell ref="K109:N110"/>
+    <mergeCell ref="H113:J114"/>
     <mergeCell ref="I157:J158"/>
     <mergeCell ref="G160:H161"/>
     <mergeCell ref="K160:L161"/>
@@ -47723,18 +48303,6 @@
     <mergeCell ref="J143:K144"/>
     <mergeCell ref="O113:Q114"/>
     <mergeCell ref="H116:I117"/>
-    <mergeCell ref="O121:P122"/>
-    <mergeCell ref="J121:K122"/>
-    <mergeCell ref="K105:N107"/>
-    <mergeCell ref="K116:N118"/>
-    <mergeCell ref="K127:N129"/>
-    <mergeCell ref="K109:N110"/>
-    <mergeCell ref="H113:J114"/>
-    <mergeCell ref="I154:K155"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="H124:I125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="L131:M132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
+++ b/아카데미 수업내용 4월/게임기획서/김혜령(4월).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\아카데미\Academy2\아카데미 수업내용 4월\게임기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DE5FB-5F66-4F55-BF03-5628A03E7726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D575DD4-B49D-42FB-A7EC-CD7BDA789DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="13" xr2:uid="{DE23B7ED-DD7C-428C-9538-6D6E6723B856}"/>
   </bookViews>
   <sheets>
     <sheet name="홍콩메서커 분석(4.01)" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="현실에서의 알고리즘 순서도(4.16~4.17)" sheetId="12" r:id="rId11"/>
     <sheet name="지하철 개찰구 플로우(4.17~4.18)" sheetId="13" r:id="rId12"/>
     <sheet name="1개 버튼 강공격 일반공격(4.19)" sheetId="16" r:id="rId13"/>
+    <sheet name="2개 버튼 강약 궁극기(4.19-4.20)" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'시스템 기획_러시안룰렛 조(4.11 - 4.12)'!$A$1:$AH$158</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="975">
   <si>
     <t>짧은 거리 도약</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9381,15 +9382,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반(약)공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N &lt; 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N = 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B초 + B1초( B + B1 &lt; B2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 모으는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 판정 대기 A초 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 N% 체워짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌리는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>때어짐 / N=100 이후 c초 지남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1인( 1 &lt; D1 &lt; D2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각 기술이 잇음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약/ 중 / 강공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 버튼 동시- 필살기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 a : 주먹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 b : 발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 a +b : 궁극기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약 / 중 / 강의 기준은 버튼 1개와 같이, 게이지로 결정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A초의 공격 판정 대기시간을 갖는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 범위 역시 1인 ~ D인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 N1(버튼 a)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지 N2(버튼 b)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9623,7 +9756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9669,6 +9802,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11578,7 +11723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="409">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12146,43 +12291,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12191,7 +12303,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12221,16 +12345,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12239,19 +12357,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12281,6 +12408,36 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12308,20 +12465,38 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12335,16 +12510,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12398,51 +12606,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12485,34 +12648,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
@@ -12521,37 +12660,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1">
@@ -12572,26 +12711,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12609,6 +12823,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12668,142 +12939,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="129" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="110" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36640,134 +36971,134 @@
       </c>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="308" t="s">
+      <c r="B67" s="335" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="311" t="s">
+      <c r="C67" s="308" t="s">
         <v>617</v>
       </c>
-      <c r="D67" s="312"/>
+      <c r="D67" s="310"/>
       <c r="E67" s="168" t="s">
         <v>618</v>
       </c>
-      <c r="F67" s="311" t="s">
+      <c r="F67" s="308" t="s">
         <v>615</v>
       </c>
-      <c r="G67" s="312"/>
-      <c r="H67" s="311" t="s">
+      <c r="G67" s="310"/>
+      <c r="H67" s="308" t="s">
         <v>622</v>
       </c>
-      <c r="I67" s="321"/>
-      <c r="J67" s="321"/>
-      <c r="K67" s="321"/>
-      <c r="L67" s="321"/>
-      <c r="M67" s="321"/>
-      <c r="N67" s="321"/>
-      <c r="O67" s="312"/>
-      <c r="R67" s="332" t="s">
+      <c r="I67" s="309"/>
+      <c r="J67" s="309"/>
+      <c r="K67" s="309"/>
+      <c r="L67" s="309"/>
+      <c r="M67" s="309"/>
+      <c r="N67" s="309"/>
+      <c r="O67" s="310"/>
+      <c r="R67" s="317" t="s">
         <v>667</v>
       </c>
-      <c r="S67" s="333"/>
-      <c r="T67" s="333"/>
-      <c r="U67" s="333"/>
-      <c r="V67" s="333"/>
-      <c r="W67" s="333"/>
-      <c r="X67" s="333"/>
-      <c r="Y67" s="334"/>
+      <c r="S67" s="318"/>
+      <c r="T67" s="318"/>
+      <c r="U67" s="318"/>
+      <c r="V67" s="318"/>
+      <c r="W67" s="318"/>
+      <c r="X67" s="318"/>
+      <c r="Y67" s="319"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="309"/>
-      <c r="C68" s="313" t="s">
+      <c r="B68" s="336"/>
+      <c r="C68" s="311" t="s">
         <v>581</v>
       </c>
-      <c r="D68" s="314"/>
-      <c r="E68" s="308" t="s">
+      <c r="D68" s="313"/>
+      <c r="E68" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F68" s="313" t="s">
+      <c r="F68" s="311" t="s">
         <v>621</v>
       </c>
-      <c r="G68" s="314"/>
-      <c r="H68" s="311" t="s">
+      <c r="G68" s="313"/>
+      <c r="H68" s="308" t="s">
         <v>633</v>
       </c>
-      <c r="I68" s="321"/>
-      <c r="J68" s="321"/>
-      <c r="K68" s="321"/>
-      <c r="L68" s="321"/>
-      <c r="M68" s="321"/>
-      <c r="N68" s="321"/>
-      <c r="O68" s="312"/>
+      <c r="I68" s="309"/>
+      <c r="J68" s="309"/>
+      <c r="K68" s="309"/>
+      <c r="L68" s="309"/>
+      <c r="M68" s="309"/>
+      <c r="N68" s="309"/>
+      <c r="O68" s="310"/>
       <c r="R68" s="6" t="s">
         <v>668</v>
       </c>
       <c r="Y68" s="115"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B69" s="309"/>
-      <c r="C69" s="315"/>
-      <c r="D69" s="316"/>
-      <c r="E69" s="310"/>
-      <c r="F69" s="317"/>
-      <c r="G69" s="318"/>
-      <c r="H69" s="311" t="s">
+      <c r="B69" s="336"/>
+      <c r="C69" s="329"/>
+      <c r="D69" s="330"/>
+      <c r="E69" s="337"/>
+      <c r="F69" s="314"/>
+      <c r="G69" s="316"/>
+      <c r="H69" s="308" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="321"/>
-      <c r="J69" s="321"/>
-      <c r="K69" s="321"/>
-      <c r="L69" s="321"/>
-      <c r="M69" s="321"/>
-      <c r="N69" s="321"/>
-      <c r="O69" s="312"/>
+      <c r="I69" s="309"/>
+      <c r="J69" s="309"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
+      <c r="N69" s="309"/>
+      <c r="O69" s="310"/>
       <c r="R69" s="6" t="s">
         <v>669</v>
       </c>
       <c r="Y69" s="115"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B70" s="309"/>
-      <c r="C70" s="315"/>
-      <c r="D70" s="316"/>
-      <c r="E70" s="308" t="s">
+      <c r="B70" s="336"/>
+      <c r="C70" s="329"/>
+      <c r="D70" s="330"/>
+      <c r="E70" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="F70" s="313" t="s">
+      <c r="F70" s="311" t="s">
         <v>630</v>
       </c>
-      <c r="G70" s="314"/>
-      <c r="H70" s="322" t="s">
+      <c r="G70" s="313"/>
+      <c r="H70" s="331" t="s">
         <v>623</v>
       </c>
-      <c r="I70" s="323"/>
-      <c r="J70" s="323"/>
-      <c r="K70" s="323"/>
-      <c r="L70" s="323"/>
-      <c r="M70" s="323"/>
-      <c r="N70" s="323"/>
-      <c r="O70" s="324"/>
+      <c r="I70" s="332"/>
+      <c r="J70" s="332"/>
+      <c r="K70" s="332"/>
+      <c r="L70" s="332"/>
+      <c r="M70" s="332"/>
+      <c r="N70" s="332"/>
+      <c r="O70" s="333"/>
       <c r="R70" s="6" t="s">
         <v>670</v>
       </c>
       <c r="Y70" s="115"/>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B71" s="309"/>
-      <c r="C71" s="315"/>
-      <c r="D71" s="316"/>
-      <c r="E71" s="309"/>
-      <c r="F71" s="315"/>
-      <c r="G71" s="316"/>
-      <c r="H71" s="325" t="s">
+      <c r="B71" s="336"/>
+      <c r="C71" s="329"/>
+      <c r="D71" s="330"/>
+      <c r="E71" s="336"/>
+      <c r="F71" s="329"/>
+      <c r="G71" s="330"/>
+      <c r="H71" s="323" t="s">
         <v>624</v>
       </c>
-      <c r="I71" s="326"/>
-      <c r="J71" s="326"/>
-      <c r="K71" s="326"/>
-      <c r="L71" s="326"/>
-      <c r="M71" s="326"/>
-      <c r="N71" s="326"/>
-      <c r="O71" s="327"/>
+      <c r="I71" s="324"/>
+      <c r="J71" s="324"/>
+      <c r="K71" s="324"/>
+      <c r="L71" s="324"/>
+      <c r="M71" s="324"/>
+      <c r="N71" s="324"/>
+      <c r="O71" s="325"/>
       <c r="R71" s="5" t="s">
         <v>671</v>
       </c>
@@ -36780,718 +37111,718 @@
       <c r="Y71" s="142"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B72" s="309"/>
-      <c r="C72" s="315"/>
-      <c r="D72" s="316"/>
-      <c r="E72" s="309"/>
-      <c r="F72" s="317"/>
-      <c r="G72" s="318"/>
-      <c r="H72" s="328"/>
-      <c r="I72" s="329"/>
-      <c r="J72" s="329"/>
-      <c r="K72" s="329"/>
-      <c r="L72" s="329"/>
-      <c r="M72" s="329"/>
-      <c r="N72" s="329"/>
-      <c r="O72" s="330"/>
+      <c r="B72" s="336"/>
+      <c r="C72" s="329"/>
+      <c r="D72" s="330"/>
+      <c r="E72" s="336"/>
+      <c r="F72" s="314"/>
+      <c r="G72" s="316"/>
+      <c r="H72" s="326"/>
+      <c r="I72" s="327"/>
+      <c r="J72" s="327"/>
+      <c r="K72" s="327"/>
+      <c r="L72" s="327"/>
+      <c r="M72" s="327"/>
+      <c r="N72" s="327"/>
+      <c r="O72" s="328"/>
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B73" s="309"/>
-      <c r="C73" s="315"/>
-      <c r="D73" s="316"/>
-      <c r="E73" s="309"/>
-      <c r="F73" s="313" t="s">
+      <c r="B73" s="336"/>
+      <c r="C73" s="329"/>
+      <c r="D73" s="330"/>
+      <c r="E73" s="336"/>
+      <c r="F73" s="311" t="s">
         <v>625</v>
       </c>
-      <c r="G73" s="314"/>
-      <c r="H73" s="313" t="s">
+      <c r="G73" s="313"/>
+      <c r="H73" s="311" t="s">
         <v>628</v>
       </c>
-      <c r="I73" s="319"/>
-      <c r="J73" s="319"/>
-      <c r="K73" s="319"/>
-      <c r="L73" s="319"/>
-      <c r="M73" s="319"/>
-      <c r="N73" s="319"/>
-      <c r="O73" s="314"/>
+      <c r="I73" s="312"/>
+      <c r="J73" s="312"/>
+      <c r="K73" s="312"/>
+      <c r="L73" s="312"/>
+      <c r="M73" s="312"/>
+      <c r="N73" s="312"/>
+      <c r="O73" s="313"/>
       <c r="R73" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B74" s="309"/>
-      <c r="C74" s="315"/>
-      <c r="D74" s="316"/>
-      <c r="E74" s="310"/>
-      <c r="F74" s="317"/>
-      <c r="G74" s="318"/>
-      <c r="H74" s="317"/>
-      <c r="I74" s="320"/>
-      <c r="J74" s="320"/>
-      <c r="K74" s="320"/>
-      <c r="L74" s="320"/>
-      <c r="M74" s="320"/>
-      <c r="N74" s="320"/>
-      <c r="O74" s="318"/>
+      <c r="B74" s="336"/>
+      <c r="C74" s="329"/>
+      <c r="D74" s="330"/>
+      <c r="E74" s="337"/>
+      <c r="F74" s="314"/>
+      <c r="G74" s="316"/>
+      <c r="H74" s="314"/>
+      <c r="I74" s="315"/>
+      <c r="J74" s="315"/>
+      <c r="K74" s="315"/>
+      <c r="L74" s="315"/>
+      <c r="M74" s="315"/>
+      <c r="N74" s="315"/>
+      <c r="O74" s="316"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B75" s="309"/>
-      <c r="C75" s="315"/>
-      <c r="D75" s="316"/>
-      <c r="E75" s="308" t="s">
+      <c r="B75" s="336"/>
+      <c r="C75" s="329"/>
+      <c r="D75" s="330"/>
+      <c r="E75" s="335" t="s">
         <v>620</v>
       </c>
-      <c r="F75" s="313" t="s">
+      <c r="F75" s="311" t="s">
         <v>626</v>
       </c>
-      <c r="G75" s="314"/>
-      <c r="H75" s="313" t="s">
+      <c r="G75" s="313"/>
+      <c r="H75" s="311" t="s">
         <v>627</v>
       </c>
-      <c r="I75" s="319"/>
-      <c r="J75" s="319"/>
-      <c r="K75" s="319"/>
-      <c r="L75" s="319"/>
-      <c r="M75" s="319"/>
-      <c r="N75" s="319"/>
-      <c r="O75" s="314"/>
+      <c r="I75" s="312"/>
+      <c r="J75" s="312"/>
+      <c r="K75" s="312"/>
+      <c r="L75" s="312"/>
+      <c r="M75" s="312"/>
+      <c r="N75" s="312"/>
+      <c r="O75" s="313"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B76" s="309"/>
-      <c r="C76" s="315"/>
-      <c r="D76" s="316"/>
-      <c r="E76" s="310"/>
-      <c r="F76" s="317"/>
-      <c r="G76" s="318"/>
-      <c r="H76" s="317"/>
-      <c r="I76" s="320"/>
-      <c r="J76" s="320"/>
-      <c r="K76" s="320"/>
-      <c r="L76" s="320"/>
-      <c r="M76" s="320"/>
-      <c r="N76" s="320"/>
-      <c r="O76" s="318"/>
+      <c r="B76" s="336"/>
+      <c r="C76" s="329"/>
+      <c r="D76" s="330"/>
+      <c r="E76" s="337"/>
+      <c r="F76" s="314"/>
+      <c r="G76" s="316"/>
+      <c r="H76" s="314"/>
+      <c r="I76" s="315"/>
+      <c r="J76" s="315"/>
+      <c r="K76" s="315"/>
+      <c r="L76" s="315"/>
+      <c r="M76" s="315"/>
+      <c r="N76" s="315"/>
+      <c r="O76" s="316"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B77" s="309"/>
-      <c r="C77" s="315"/>
-      <c r="D77" s="316"/>
-      <c r="E77" s="308" t="s">
+      <c r="B77" s="336"/>
+      <c r="C77" s="329"/>
+      <c r="D77" s="330"/>
+      <c r="E77" s="335" t="s">
         <v>409</v>
       </c>
-      <c r="F77" s="313" t="s">
+      <c r="F77" s="311" t="s">
         <v>629</v>
       </c>
-      <c r="G77" s="314"/>
-      <c r="H77" s="313" t="s">
+      <c r="G77" s="313"/>
+      <c r="H77" s="311" t="s">
         <v>632</v>
       </c>
-      <c r="I77" s="319"/>
-      <c r="J77" s="319"/>
-      <c r="K77" s="319"/>
-      <c r="L77" s="319"/>
-      <c r="M77" s="319"/>
-      <c r="N77" s="319"/>
-      <c r="O77" s="314"/>
+      <c r="I77" s="312"/>
+      <c r="J77" s="312"/>
+      <c r="K77" s="312"/>
+      <c r="L77" s="312"/>
+      <c r="M77" s="312"/>
+      <c r="N77" s="312"/>
+      <c r="O77" s="313"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B78" s="309"/>
-      <c r="C78" s="317"/>
-      <c r="D78" s="318"/>
-      <c r="E78" s="310"/>
-      <c r="F78" s="317"/>
-      <c r="G78" s="318"/>
-      <c r="H78" s="317"/>
-      <c r="I78" s="320"/>
-      <c r="J78" s="320"/>
-      <c r="K78" s="320"/>
-      <c r="L78" s="320"/>
-      <c r="M78" s="320"/>
-      <c r="N78" s="320"/>
-      <c r="O78" s="318"/>
+      <c r="B78" s="336"/>
+      <c r="C78" s="314"/>
+      <c r="D78" s="316"/>
+      <c r="E78" s="337"/>
+      <c r="F78" s="314"/>
+      <c r="G78" s="316"/>
+      <c r="H78" s="314"/>
+      <c r="I78" s="315"/>
+      <c r="J78" s="315"/>
+      <c r="K78" s="315"/>
+      <c r="L78" s="315"/>
+      <c r="M78" s="315"/>
+      <c r="N78" s="315"/>
+      <c r="O78" s="316"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="309"/>
-      <c r="C79" s="313" t="s">
+      <c r="B79" s="336"/>
+      <c r="C79" s="311" t="s">
         <v>582</v>
       </c>
-      <c r="D79" s="314"/>
-      <c r="E79" s="308" t="s">
+      <c r="D79" s="313"/>
+      <c r="E79" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F79" s="313" t="s">
+      <c r="F79" s="311" t="s">
         <v>621</v>
       </c>
-      <c r="G79" s="314"/>
-      <c r="H79" s="311" t="s">
+      <c r="G79" s="313"/>
+      <c r="H79" s="308" t="s">
         <v>634</v>
       </c>
-      <c r="I79" s="321"/>
-      <c r="J79" s="321"/>
-      <c r="K79" s="321"/>
-      <c r="L79" s="321"/>
-      <c r="M79" s="321"/>
-      <c r="N79" s="321"/>
-      <c r="O79" s="312"/>
+      <c r="I79" s="309"/>
+      <c r="J79" s="309"/>
+      <c r="K79" s="309"/>
+      <c r="L79" s="309"/>
+      <c r="M79" s="309"/>
+      <c r="N79" s="309"/>
+      <c r="O79" s="310"/>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="309"/>
-      <c r="C80" s="315"/>
-      <c r="D80" s="316"/>
-      <c r="E80" s="309"/>
-      <c r="F80" s="317"/>
-      <c r="G80" s="318"/>
-      <c r="H80" s="311" t="s">
+      <c r="B80" s="336"/>
+      <c r="C80" s="329"/>
+      <c r="D80" s="330"/>
+      <c r="E80" s="336"/>
+      <c r="F80" s="314"/>
+      <c r="G80" s="316"/>
+      <c r="H80" s="308" t="s">
         <v>663</v>
       </c>
-      <c r="I80" s="321"/>
-      <c r="J80" s="321"/>
-      <c r="K80" s="321"/>
-      <c r="L80" s="321"/>
-      <c r="M80" s="321"/>
-      <c r="N80" s="321"/>
-      <c r="O80" s="312"/>
+      <c r="I80" s="309"/>
+      <c r="J80" s="309"/>
+      <c r="K80" s="309"/>
+      <c r="L80" s="309"/>
+      <c r="M80" s="309"/>
+      <c r="N80" s="309"/>
+      <c r="O80" s="310"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B81" s="309"/>
-      <c r="C81" s="315"/>
-      <c r="D81" s="316"/>
-      <c r="E81" s="309"/>
-      <c r="F81" s="313" t="s">
+      <c r="B81" s="336"/>
+      <c r="C81" s="329"/>
+      <c r="D81" s="330"/>
+      <c r="E81" s="336"/>
+      <c r="F81" s="311" t="s">
         <v>635</v>
       </c>
-      <c r="G81" s="314"/>
-      <c r="H81" s="313" t="s">
+      <c r="G81" s="313"/>
+      <c r="H81" s="311" t="s">
         <v>636</v>
       </c>
-      <c r="I81" s="319"/>
-      <c r="J81" s="319"/>
-      <c r="K81" s="319"/>
-      <c r="L81" s="319"/>
-      <c r="M81" s="319"/>
-      <c r="N81" s="319"/>
-      <c r="O81" s="314"/>
+      <c r="I81" s="312"/>
+      <c r="J81" s="312"/>
+      <c r="K81" s="312"/>
+      <c r="L81" s="312"/>
+      <c r="M81" s="312"/>
+      <c r="N81" s="312"/>
+      <c r="O81" s="313"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B82" s="309"/>
-      <c r="C82" s="315"/>
-      <c r="D82" s="316"/>
-      <c r="E82" s="310"/>
-      <c r="F82" s="317"/>
-      <c r="G82" s="318"/>
-      <c r="H82" s="317"/>
-      <c r="I82" s="320"/>
-      <c r="J82" s="320"/>
-      <c r="K82" s="320"/>
-      <c r="L82" s="320"/>
-      <c r="M82" s="320"/>
-      <c r="N82" s="320"/>
-      <c r="O82" s="318"/>
+      <c r="B82" s="336"/>
+      <c r="C82" s="329"/>
+      <c r="D82" s="330"/>
+      <c r="E82" s="337"/>
+      <c r="F82" s="314"/>
+      <c r="G82" s="316"/>
+      <c r="H82" s="314"/>
+      <c r="I82" s="315"/>
+      <c r="J82" s="315"/>
+      <c r="K82" s="315"/>
+      <c r="L82" s="315"/>
+      <c r="M82" s="315"/>
+      <c r="N82" s="315"/>
+      <c r="O82" s="316"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B83" s="309"/>
-      <c r="C83" s="315"/>
-      <c r="D83" s="316"/>
-      <c r="E83" s="308" t="s">
+      <c r="B83" s="336"/>
+      <c r="C83" s="329"/>
+      <c r="D83" s="330"/>
+      <c r="E83" s="335" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="313" t="s">
+      <c r="F83" s="311" t="s">
         <v>638</v>
       </c>
-      <c r="G83" s="314"/>
-      <c r="H83" s="325" t="s">
+      <c r="G83" s="313"/>
+      <c r="H83" s="323" t="s">
         <v>639</v>
       </c>
-      <c r="I83" s="326"/>
-      <c r="J83" s="326"/>
-      <c r="K83" s="326"/>
-      <c r="L83" s="326"/>
-      <c r="M83" s="326"/>
-      <c r="N83" s="326"/>
-      <c r="O83" s="327"/>
+      <c r="I83" s="324"/>
+      <c r="J83" s="324"/>
+      <c r="K83" s="324"/>
+      <c r="L83" s="324"/>
+      <c r="M83" s="324"/>
+      <c r="N83" s="324"/>
+      <c r="O83" s="325"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B84" s="309"/>
-      <c r="C84" s="315"/>
-      <c r="D84" s="316"/>
-      <c r="E84" s="309"/>
-      <c r="F84" s="317"/>
-      <c r="G84" s="318"/>
-      <c r="H84" s="328"/>
-      <c r="I84" s="329"/>
-      <c r="J84" s="329"/>
-      <c r="K84" s="329"/>
-      <c r="L84" s="329"/>
-      <c r="M84" s="329"/>
-      <c r="N84" s="329"/>
-      <c r="O84" s="330"/>
+      <c r="B84" s="336"/>
+      <c r="C84" s="329"/>
+      <c r="D84" s="330"/>
+      <c r="E84" s="336"/>
+      <c r="F84" s="314"/>
+      <c r="G84" s="316"/>
+      <c r="H84" s="326"/>
+      <c r="I84" s="327"/>
+      <c r="J84" s="327"/>
+      <c r="K84" s="327"/>
+      <c r="L84" s="327"/>
+      <c r="M84" s="327"/>
+      <c r="N84" s="327"/>
+      <c r="O84" s="328"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B85" s="309"/>
-      <c r="C85" s="315"/>
-      <c r="D85" s="316"/>
-      <c r="E85" s="309"/>
-      <c r="F85" s="313" t="s">
+      <c r="B85" s="336"/>
+      <c r="C85" s="329"/>
+      <c r="D85" s="330"/>
+      <c r="E85" s="336"/>
+      <c r="F85" s="311" t="s">
         <v>625</v>
       </c>
-      <c r="G85" s="314"/>
-      <c r="H85" s="313" t="s">
+      <c r="G85" s="313"/>
+      <c r="H85" s="311" t="s">
         <v>640</v>
       </c>
-      <c r="I85" s="319"/>
-      <c r="J85" s="319"/>
-      <c r="K85" s="319"/>
-      <c r="L85" s="319"/>
-      <c r="M85" s="319"/>
-      <c r="N85" s="319"/>
-      <c r="O85" s="314"/>
+      <c r="I85" s="312"/>
+      <c r="J85" s="312"/>
+      <c r="K85" s="312"/>
+      <c r="L85" s="312"/>
+      <c r="M85" s="312"/>
+      <c r="N85" s="312"/>
+      <c r="O85" s="313"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B86" s="309"/>
-      <c r="C86" s="315"/>
-      <c r="D86" s="316"/>
-      <c r="E86" s="310"/>
-      <c r="F86" s="317"/>
-      <c r="G86" s="318"/>
-      <c r="H86" s="317"/>
-      <c r="I86" s="320"/>
-      <c r="J86" s="320"/>
-      <c r="K86" s="320"/>
-      <c r="L86" s="320"/>
-      <c r="M86" s="320"/>
-      <c r="N86" s="320"/>
-      <c r="O86" s="318"/>
+      <c r="B86" s="336"/>
+      <c r="C86" s="329"/>
+      <c r="D86" s="330"/>
+      <c r="E86" s="337"/>
+      <c r="F86" s="314"/>
+      <c r="G86" s="316"/>
+      <c r="H86" s="314"/>
+      <c r="I86" s="315"/>
+      <c r="J86" s="315"/>
+      <c r="K86" s="315"/>
+      <c r="L86" s="315"/>
+      <c r="M86" s="315"/>
+      <c r="N86" s="315"/>
+      <c r="O86" s="316"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="309"/>
-      <c r="C87" s="315"/>
-      <c r="D87" s="316"/>
-      <c r="E87" s="308" t="s">
+      <c r="B87" s="336"/>
+      <c r="C87" s="329"/>
+      <c r="D87" s="330"/>
+      <c r="E87" s="335" t="s">
         <v>642</v>
       </c>
-      <c r="F87" s="313" t="s">
+      <c r="F87" s="311" t="s">
         <v>643</v>
       </c>
-      <c r="G87" s="314"/>
-      <c r="H87" s="311" t="s">
+      <c r="G87" s="313"/>
+      <c r="H87" s="308" t="s">
         <v>645</v>
       </c>
-      <c r="I87" s="321"/>
-      <c r="J87" s="321"/>
-      <c r="K87" s="321"/>
-      <c r="L87" s="321"/>
-      <c r="M87" s="321"/>
-      <c r="N87" s="321"/>
-      <c r="O87" s="312"/>
+      <c r="I87" s="309"/>
+      <c r="J87" s="309"/>
+      <c r="K87" s="309"/>
+      <c r="L87" s="309"/>
+      <c r="M87" s="309"/>
+      <c r="N87" s="309"/>
+      <c r="O87" s="310"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B88" s="309"/>
-      <c r="C88" s="315"/>
-      <c r="D88" s="316"/>
-      <c r="E88" s="309"/>
-      <c r="F88" s="315"/>
-      <c r="G88" s="316"/>
-      <c r="H88" s="311" t="s">
+      <c r="B88" s="336"/>
+      <c r="C88" s="329"/>
+      <c r="D88" s="330"/>
+      <c r="E88" s="336"/>
+      <c r="F88" s="329"/>
+      <c r="G88" s="330"/>
+      <c r="H88" s="308" t="s">
         <v>646</v>
       </c>
-      <c r="I88" s="321"/>
-      <c r="J88" s="321"/>
-      <c r="K88" s="321"/>
-      <c r="L88" s="321"/>
-      <c r="M88" s="321"/>
-      <c r="N88" s="321"/>
-      <c r="O88" s="312"/>
+      <c r="I88" s="309"/>
+      <c r="J88" s="309"/>
+      <c r="K88" s="309"/>
+      <c r="L88" s="309"/>
+      <c r="M88" s="309"/>
+      <c r="N88" s="309"/>
+      <c r="O88" s="310"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B89" s="309"/>
-      <c r="C89" s="315"/>
-      <c r="D89" s="316"/>
-      <c r="E89" s="309"/>
-      <c r="F89" s="315"/>
-      <c r="G89" s="316"/>
-      <c r="H89" s="313" t="s">
+      <c r="B89" s="336"/>
+      <c r="C89" s="329"/>
+      <c r="D89" s="330"/>
+      <c r="E89" s="336"/>
+      <c r="F89" s="329"/>
+      <c r="G89" s="330"/>
+      <c r="H89" s="311" t="s">
         <v>647</v>
       </c>
-      <c r="I89" s="319"/>
-      <c r="J89" s="319"/>
-      <c r="K89" s="319"/>
-      <c r="L89" s="319"/>
-      <c r="M89" s="319"/>
-      <c r="N89" s="319"/>
-      <c r="O89" s="314"/>
+      <c r="I89" s="312"/>
+      <c r="J89" s="312"/>
+      <c r="K89" s="312"/>
+      <c r="L89" s="312"/>
+      <c r="M89" s="312"/>
+      <c r="N89" s="312"/>
+      <c r="O89" s="313"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B90" s="309"/>
-      <c r="C90" s="315"/>
-      <c r="D90" s="316"/>
-      <c r="E90" s="309"/>
-      <c r="F90" s="317"/>
-      <c r="G90" s="318"/>
-      <c r="H90" s="317"/>
-      <c r="I90" s="320"/>
-      <c r="J90" s="320"/>
-      <c r="K90" s="320"/>
-      <c r="L90" s="320"/>
-      <c r="M90" s="320"/>
-      <c r="N90" s="320"/>
-      <c r="O90" s="318"/>
+      <c r="B90" s="336"/>
+      <c r="C90" s="329"/>
+      <c r="D90" s="330"/>
+      <c r="E90" s="336"/>
+      <c r="F90" s="314"/>
+      <c r="G90" s="316"/>
+      <c r="H90" s="314"/>
+      <c r="I90" s="315"/>
+      <c r="J90" s="315"/>
+      <c r="K90" s="315"/>
+      <c r="L90" s="315"/>
+      <c r="M90" s="315"/>
+      <c r="N90" s="315"/>
+      <c r="O90" s="316"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B91" s="309"/>
-      <c r="C91" s="315"/>
-      <c r="D91" s="316"/>
-      <c r="E91" s="309"/>
-      <c r="F91" s="313" t="s">
+      <c r="B91" s="336"/>
+      <c r="C91" s="329"/>
+      <c r="D91" s="330"/>
+      <c r="E91" s="336"/>
+      <c r="F91" s="311" t="s">
         <v>644</v>
       </c>
-      <c r="G91" s="314"/>
-      <c r="H91" s="335" t="s">
+      <c r="G91" s="313"/>
+      <c r="H91" s="320" t="s">
         <v>648</v>
       </c>
-      <c r="I91" s="336"/>
-      <c r="J91" s="336"/>
-      <c r="K91" s="336"/>
-      <c r="L91" s="336"/>
-      <c r="M91" s="336"/>
-      <c r="N91" s="336"/>
-      <c r="O91" s="337"/>
+      <c r="I91" s="321"/>
+      <c r="J91" s="321"/>
+      <c r="K91" s="321"/>
+      <c r="L91" s="321"/>
+      <c r="M91" s="321"/>
+      <c r="N91" s="321"/>
+      <c r="O91" s="322"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B92" s="309"/>
-      <c r="C92" s="315"/>
-      <c r="D92" s="316"/>
-      <c r="E92" s="309"/>
-      <c r="F92" s="315"/>
-      <c r="G92" s="316"/>
-      <c r="H92" s="313" t="s">
+      <c r="B92" s="336"/>
+      <c r="C92" s="329"/>
+      <c r="D92" s="330"/>
+      <c r="E92" s="336"/>
+      <c r="F92" s="329"/>
+      <c r="G92" s="330"/>
+      <c r="H92" s="311" t="s">
         <v>649</v>
       </c>
-      <c r="I92" s="319"/>
-      <c r="J92" s="319"/>
-      <c r="K92" s="319"/>
-      <c r="L92" s="319"/>
-      <c r="M92" s="319"/>
-      <c r="N92" s="319"/>
-      <c r="O92" s="314"/>
+      <c r="I92" s="312"/>
+      <c r="J92" s="312"/>
+      <c r="K92" s="312"/>
+      <c r="L92" s="312"/>
+      <c r="M92" s="312"/>
+      <c r="N92" s="312"/>
+      <c r="O92" s="313"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B93" s="309"/>
-      <c r="C93" s="315"/>
-      <c r="D93" s="316"/>
-      <c r="E93" s="310"/>
-      <c r="F93" s="315"/>
-      <c r="G93" s="316"/>
-      <c r="H93" s="317"/>
-      <c r="I93" s="320"/>
-      <c r="J93" s="320"/>
-      <c r="K93" s="320"/>
-      <c r="L93" s="320"/>
-      <c r="M93" s="320"/>
-      <c r="N93" s="320"/>
-      <c r="O93" s="318"/>
+      <c r="B93" s="336"/>
+      <c r="C93" s="329"/>
+      <c r="D93" s="330"/>
+      <c r="E93" s="337"/>
+      <c r="F93" s="329"/>
+      <c r="G93" s="330"/>
+      <c r="H93" s="314"/>
+      <c r="I93" s="315"/>
+      <c r="J93" s="315"/>
+      <c r="K93" s="315"/>
+      <c r="L93" s="315"/>
+      <c r="M93" s="315"/>
+      <c r="N93" s="315"/>
+      <c r="O93" s="316"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="309"/>
-      <c r="C94" s="315"/>
-      <c r="D94" s="316"/>
-      <c r="E94" s="313" t="s">
+      <c r="B94" s="336"/>
+      <c r="C94" s="329"/>
+      <c r="D94" s="330"/>
+      <c r="E94" s="311" t="s">
         <v>641</v>
       </c>
-      <c r="F94" s="313" t="s">
+      <c r="F94" s="311" t="s">
         <v>629</v>
       </c>
-      <c r="G94" s="314"/>
-      <c r="H94" s="313" t="s">
+      <c r="G94" s="313"/>
+      <c r="H94" s="311" t="s">
         <v>631</v>
       </c>
-      <c r="I94" s="319"/>
-      <c r="J94" s="319"/>
-      <c r="K94" s="319"/>
-      <c r="L94" s="319"/>
-      <c r="M94" s="319"/>
-      <c r="N94" s="319"/>
-      <c r="O94" s="314"/>
+      <c r="I94" s="312"/>
+      <c r="J94" s="312"/>
+      <c r="K94" s="312"/>
+      <c r="L94" s="312"/>
+      <c r="M94" s="312"/>
+      <c r="N94" s="312"/>
+      <c r="O94" s="313"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="309"/>
-      <c r="C95" s="315"/>
-      <c r="D95" s="316"/>
-      <c r="E95" s="317"/>
-      <c r="F95" s="315"/>
-      <c r="G95" s="316"/>
-      <c r="H95" s="315"/>
-      <c r="I95" s="331"/>
-      <c r="J95" s="331"/>
-      <c r="K95" s="331"/>
-      <c r="L95" s="331"/>
-      <c r="M95" s="331"/>
-      <c r="N95" s="331"/>
-      <c r="O95" s="316"/>
+      <c r="B95" s="336"/>
+      <c r="C95" s="329"/>
+      <c r="D95" s="330"/>
+      <c r="E95" s="314"/>
+      <c r="F95" s="329"/>
+      <c r="G95" s="330"/>
+      <c r="H95" s="329"/>
+      <c r="I95" s="334"/>
+      <c r="J95" s="334"/>
+      <c r="K95" s="334"/>
+      <c r="L95" s="334"/>
+      <c r="M95" s="334"/>
+      <c r="N95" s="334"/>
+      <c r="O95" s="330"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="309"/>
-      <c r="C96" s="315"/>
-      <c r="D96" s="316"/>
-      <c r="E96" s="313" t="s">
+      <c r="B96" s="336"/>
+      <c r="C96" s="329"/>
+      <c r="D96" s="330"/>
+      <c r="E96" s="311" t="s">
         <v>409</v>
       </c>
-      <c r="F96" s="315"/>
-      <c r="G96" s="316"/>
-      <c r="H96" s="315"/>
-      <c r="I96" s="331"/>
-      <c r="J96" s="331"/>
-      <c r="K96" s="331"/>
-      <c r="L96" s="331"/>
-      <c r="M96" s="331"/>
-      <c r="N96" s="331"/>
-      <c r="O96" s="316"/>
+      <c r="F96" s="329"/>
+      <c r="G96" s="330"/>
+      <c r="H96" s="329"/>
+      <c r="I96" s="334"/>
+      <c r="J96" s="334"/>
+      <c r="K96" s="334"/>
+      <c r="L96" s="334"/>
+      <c r="M96" s="334"/>
+      <c r="N96" s="334"/>
+      <c r="O96" s="330"/>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B97" s="309"/>
-      <c r="C97" s="317"/>
-      <c r="D97" s="318"/>
-      <c r="E97" s="317"/>
-      <c r="F97" s="317"/>
-      <c r="G97" s="318"/>
-      <c r="H97" s="317"/>
-      <c r="I97" s="320"/>
-      <c r="J97" s="320"/>
-      <c r="K97" s="320"/>
-      <c r="L97" s="320"/>
-      <c r="M97" s="320"/>
-      <c r="N97" s="320"/>
-      <c r="O97" s="318"/>
+      <c r="B97" s="336"/>
+      <c r="C97" s="314"/>
+      <c r="D97" s="316"/>
+      <c r="E97" s="314"/>
+      <c r="F97" s="314"/>
+      <c r="G97" s="316"/>
+      <c r="H97" s="314"/>
+      <c r="I97" s="315"/>
+      <c r="J97" s="315"/>
+      <c r="K97" s="315"/>
+      <c r="L97" s="315"/>
+      <c r="M97" s="315"/>
+      <c r="N97" s="315"/>
+      <c r="O97" s="316"/>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B98" s="309"/>
-      <c r="C98" s="313" t="s">
+      <c r="B98" s="336"/>
+      <c r="C98" s="311" t="s">
         <v>583</v>
       </c>
-      <c r="D98" s="314"/>
-      <c r="E98" s="308" t="s">
+      <c r="D98" s="313"/>
+      <c r="E98" s="335" t="s">
         <v>616</v>
       </c>
-      <c r="F98" s="313" t="s">
+      <c r="F98" s="311" t="s">
         <v>652</v>
       </c>
-      <c r="G98" s="314"/>
-      <c r="H98" s="313" t="s">
+      <c r="G98" s="313"/>
+      <c r="H98" s="311" t="s">
         <v>653</v>
       </c>
-      <c r="I98" s="319"/>
-      <c r="J98" s="319"/>
-      <c r="K98" s="319"/>
-      <c r="L98" s="319"/>
-      <c r="M98" s="319"/>
-      <c r="N98" s="319"/>
-      <c r="O98" s="314"/>
+      <c r="I98" s="312"/>
+      <c r="J98" s="312"/>
+      <c r="K98" s="312"/>
+      <c r="L98" s="312"/>
+      <c r="M98" s="312"/>
+      <c r="N98" s="312"/>
+      <c r="O98" s="313"/>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B99" s="309"/>
-      <c r="C99" s="315"/>
-      <c r="D99" s="316"/>
-      <c r="E99" s="309"/>
-      <c r="F99" s="317"/>
-      <c r="G99" s="318"/>
-      <c r="H99" s="317"/>
-      <c r="I99" s="320"/>
-      <c r="J99" s="320"/>
-      <c r="K99" s="320"/>
-      <c r="L99" s="320"/>
-      <c r="M99" s="320"/>
-      <c r="N99" s="320"/>
-      <c r="O99" s="318"/>
+      <c r="B99" s="336"/>
+      <c r="C99" s="329"/>
+      <c r="D99" s="330"/>
+      <c r="E99" s="336"/>
+      <c r="F99" s="314"/>
+      <c r="G99" s="316"/>
+      <c r="H99" s="314"/>
+      <c r="I99" s="315"/>
+      <c r="J99" s="315"/>
+      <c r="K99" s="315"/>
+      <c r="L99" s="315"/>
+      <c r="M99" s="315"/>
+      <c r="N99" s="315"/>
+      <c r="O99" s="316"/>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B100" s="309"/>
-      <c r="C100" s="315"/>
-      <c r="D100" s="316"/>
-      <c r="E100" s="309"/>
-      <c r="F100" s="313" t="s">
+      <c r="B100" s="336"/>
+      <c r="C100" s="329"/>
+      <c r="D100" s="330"/>
+      <c r="E100" s="336"/>
+      <c r="F100" s="311" t="s">
         <v>654</v>
       </c>
-      <c r="G100" s="314"/>
-      <c r="H100" s="335" t="s">
+      <c r="G100" s="313"/>
+      <c r="H100" s="320" t="s">
         <v>655</v>
       </c>
-      <c r="I100" s="336"/>
-      <c r="J100" s="336"/>
-      <c r="K100" s="336"/>
-      <c r="L100" s="336"/>
-      <c r="M100" s="336"/>
-      <c r="N100" s="336"/>
-      <c r="O100" s="337"/>
+      <c r="I100" s="321"/>
+      <c r="J100" s="321"/>
+      <c r="K100" s="321"/>
+      <c r="L100" s="321"/>
+      <c r="M100" s="321"/>
+      <c r="N100" s="321"/>
+      <c r="O100" s="322"/>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B101" s="309"/>
-      <c r="C101" s="315"/>
-      <c r="D101" s="316"/>
-      <c r="E101" s="309"/>
-      <c r="F101" s="315"/>
-      <c r="G101" s="316"/>
-      <c r="H101" s="311" t="s">
+      <c r="B101" s="336"/>
+      <c r="C101" s="329"/>
+      <c r="D101" s="330"/>
+      <c r="E101" s="336"/>
+      <c r="F101" s="329"/>
+      <c r="G101" s="330"/>
+      <c r="H101" s="308" t="s">
         <v>656</v>
       </c>
-      <c r="I101" s="321"/>
-      <c r="J101" s="321"/>
-      <c r="K101" s="321"/>
-      <c r="L101" s="321"/>
-      <c r="M101" s="321"/>
-      <c r="N101" s="321"/>
-      <c r="O101" s="312"/>
+      <c r="I101" s="309"/>
+      <c r="J101" s="309"/>
+      <c r="K101" s="309"/>
+      <c r="L101" s="309"/>
+      <c r="M101" s="309"/>
+      <c r="N101" s="309"/>
+      <c r="O101" s="310"/>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B102" s="309"/>
-      <c r="C102" s="315"/>
-      <c r="D102" s="316"/>
-      <c r="E102" s="309"/>
-      <c r="F102" s="315"/>
-      <c r="G102" s="316"/>
-      <c r="H102" s="311" t="s">
+      <c r="B102" s="336"/>
+      <c r="C102" s="329"/>
+      <c r="D102" s="330"/>
+      <c r="E102" s="336"/>
+      <c r="F102" s="329"/>
+      <c r="G102" s="330"/>
+      <c r="H102" s="308" t="s">
         <v>657</v>
       </c>
-      <c r="I102" s="321"/>
-      <c r="J102" s="321"/>
-      <c r="K102" s="321"/>
-      <c r="L102" s="321"/>
-      <c r="M102" s="321"/>
-      <c r="N102" s="321"/>
-      <c r="O102" s="312"/>
+      <c r="I102" s="309"/>
+      <c r="J102" s="309"/>
+      <c r="K102" s="309"/>
+      <c r="L102" s="309"/>
+      <c r="M102" s="309"/>
+      <c r="N102" s="309"/>
+      <c r="O102" s="310"/>
       <c r="P102" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B103" s="309"/>
-      <c r="C103" s="315"/>
-      <c r="D103" s="316"/>
-      <c r="E103" s="309"/>
-      <c r="F103" s="315"/>
-      <c r="G103" s="316"/>
-      <c r="H103" s="313" t="s">
+      <c r="B103" s="336"/>
+      <c r="C103" s="329"/>
+      <c r="D103" s="330"/>
+      <c r="E103" s="336"/>
+      <c r="F103" s="329"/>
+      <c r="G103" s="330"/>
+      <c r="H103" s="311" t="s">
         <v>662</v>
       </c>
-      <c r="I103" s="319"/>
-      <c r="J103" s="319"/>
-      <c r="K103" s="319"/>
-      <c r="L103" s="319"/>
-      <c r="M103" s="319"/>
-      <c r="N103" s="319"/>
-      <c r="O103" s="314"/>
+      <c r="I103" s="312"/>
+      <c r="J103" s="312"/>
+      <c r="K103" s="312"/>
+      <c r="L103" s="312"/>
+      <c r="M103" s="312"/>
+      <c r="N103" s="312"/>
+      <c r="O103" s="313"/>
       <c r="P103" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B104" s="309"/>
-      <c r="C104" s="315"/>
-      <c r="D104" s="316"/>
-      <c r="E104" s="309"/>
-      <c r="F104" s="317"/>
-      <c r="G104" s="318"/>
-      <c r="H104" s="317"/>
-      <c r="I104" s="320"/>
-      <c r="J104" s="320"/>
-      <c r="K104" s="320"/>
-      <c r="L104" s="320"/>
-      <c r="M104" s="320"/>
-      <c r="N104" s="320"/>
-      <c r="O104" s="318"/>
+      <c r="B104" s="336"/>
+      <c r="C104" s="329"/>
+      <c r="D104" s="330"/>
+      <c r="E104" s="336"/>
+      <c r="F104" s="314"/>
+      <c r="G104" s="316"/>
+      <c r="H104" s="314"/>
+      <c r="I104" s="315"/>
+      <c r="J104" s="315"/>
+      <c r="K104" s="315"/>
+      <c r="L104" s="315"/>
+      <c r="M104" s="315"/>
+      <c r="N104" s="315"/>
+      <c r="O104" s="316"/>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B105" s="309"/>
-      <c r="C105" s="315"/>
-      <c r="D105" s="316"/>
-      <c r="E105" s="309"/>
-      <c r="F105" s="313" t="s">
+      <c r="B105" s="336"/>
+      <c r="C105" s="329"/>
+      <c r="D105" s="330"/>
+      <c r="E105" s="336"/>
+      <c r="F105" s="311" t="s">
         <v>650</v>
       </c>
-      <c r="G105" s="314"/>
-      <c r="H105" s="311" t="s">
+      <c r="G105" s="313"/>
+      <c r="H105" s="308" t="s">
         <v>658</v>
       </c>
-      <c r="I105" s="321"/>
-      <c r="J105" s="321"/>
-      <c r="K105" s="321"/>
-      <c r="L105" s="321"/>
-      <c r="M105" s="321"/>
-      <c r="N105" s="321"/>
-      <c r="O105" s="312"/>
+      <c r="I105" s="309"/>
+      <c r="J105" s="309"/>
+      <c r="K105" s="309"/>
+      <c r="L105" s="309"/>
+      <c r="M105" s="309"/>
+      <c r="N105" s="309"/>
+      <c r="O105" s="310"/>
       <c r="P105" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B106" s="309"/>
-      <c r="C106" s="315"/>
-      <c r="D106" s="316"/>
-      <c r="E106" s="309"/>
-      <c r="F106" s="315"/>
-      <c r="G106" s="316"/>
-      <c r="H106" s="311" t="s">
+      <c r="B106" s="336"/>
+      <c r="C106" s="329"/>
+      <c r="D106" s="330"/>
+      <c r="E106" s="336"/>
+      <c r="F106" s="329"/>
+      <c r="G106" s="330"/>
+      <c r="H106" s="308" t="s">
         <v>659</v>
       </c>
-      <c r="I106" s="321"/>
-      <c r="J106" s="321"/>
-      <c r="K106" s="321"/>
-      <c r="L106" s="321"/>
-      <c r="M106" s="321"/>
-      <c r="N106" s="321"/>
-      <c r="O106" s="312"/>
+      <c r="I106" s="309"/>
+      <c r="J106" s="309"/>
+      <c r="K106" s="309"/>
+      <c r="L106" s="309"/>
+      <c r="M106" s="309"/>
+      <c r="N106" s="309"/>
+      <c r="O106" s="310"/>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B107" s="309"/>
-      <c r="C107" s="315"/>
-      <c r="D107" s="316"/>
-      <c r="E107" s="309"/>
-      <c r="F107" s="315"/>
-      <c r="G107" s="316"/>
-      <c r="H107" s="313" t="s">
+      <c r="B107" s="336"/>
+      <c r="C107" s="329"/>
+      <c r="D107" s="330"/>
+      <c r="E107" s="336"/>
+      <c r="F107" s="329"/>
+      <c r="G107" s="330"/>
+      <c r="H107" s="311" t="s">
         <v>660</v>
       </c>
-      <c r="I107" s="319"/>
-      <c r="J107" s="319"/>
-      <c r="K107" s="319"/>
-      <c r="L107" s="319"/>
-      <c r="M107" s="319"/>
-      <c r="N107" s="319"/>
-      <c r="O107" s="314"/>
+      <c r="I107" s="312"/>
+      <c r="J107" s="312"/>
+      <c r="K107" s="312"/>
+      <c r="L107" s="312"/>
+      <c r="M107" s="312"/>
+      <c r="N107" s="312"/>
+      <c r="O107" s="313"/>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B108" s="309"/>
-      <c r="C108" s="315"/>
-      <c r="D108" s="316"/>
-      <c r="E108" s="309"/>
-      <c r="F108" s="317"/>
-      <c r="G108" s="318"/>
-      <c r="H108" s="317"/>
-      <c r="I108" s="320"/>
-      <c r="J108" s="320"/>
-      <c r="K108" s="320"/>
-      <c r="L108" s="320"/>
-      <c r="M108" s="320"/>
-      <c r="N108" s="320"/>
-      <c r="O108" s="318"/>
+      <c r="B108" s="336"/>
+      <c r="C108" s="329"/>
+      <c r="D108" s="330"/>
+      <c r="E108" s="336"/>
+      <c r="F108" s="314"/>
+      <c r="G108" s="316"/>
+      <c r="H108" s="314"/>
+      <c r="I108" s="315"/>
+      <c r="J108" s="315"/>
+      <c r="K108" s="315"/>
+      <c r="L108" s="315"/>
+      <c r="M108" s="315"/>
+      <c r="N108" s="315"/>
+      <c r="O108" s="316"/>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B109" s="310"/>
-      <c r="C109" s="317"/>
-      <c r="D109" s="318"/>
-      <c r="E109" s="310"/>
-      <c r="F109" s="311" t="s">
+      <c r="B109" s="337"/>
+      <c r="C109" s="314"/>
+      <c r="D109" s="316"/>
+      <c r="E109" s="337"/>
+      <c r="F109" s="308" t="s">
         <v>651</v>
       </c>
-      <c r="G109" s="312"/>
-      <c r="H109" s="311" t="s">
+      <c r="G109" s="310"/>
+      <c r="H109" s="308" t="s">
         <v>661</v>
       </c>
-      <c r="I109" s="321"/>
-      <c r="J109" s="321"/>
-      <c r="K109" s="321"/>
-      <c r="L109" s="321"/>
-      <c r="M109" s="321"/>
-      <c r="N109" s="321"/>
-      <c r="O109" s="312"/>
+      <c r="I109" s="309"/>
+      <c r="J109" s="309"/>
+      <c r="K109" s="309"/>
+      <c r="L109" s="309"/>
+      <c r="M109" s="309"/>
+      <c r="N109" s="309"/>
+      <c r="O109" s="310"/>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
@@ -37708,6 +38039,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B67:B109"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D78"/>
+    <mergeCell ref="C79:D97"/>
+    <mergeCell ref="C98:D109"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="F70:G72"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="H103:O104"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="F81:G82"/>
+    <mergeCell ref="F83:G84"/>
+    <mergeCell ref="F85:G86"/>
+    <mergeCell ref="F87:G90"/>
+    <mergeCell ref="F91:G93"/>
+    <mergeCell ref="H85:O86"/>
+    <mergeCell ref="F105:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O72"/>
+    <mergeCell ref="H73:O74"/>
+    <mergeCell ref="H75:O76"/>
+    <mergeCell ref="F94:G97"/>
+    <mergeCell ref="H94:O97"/>
+    <mergeCell ref="F98:G99"/>
+    <mergeCell ref="H98:O99"/>
+    <mergeCell ref="F100:G104"/>
+    <mergeCell ref="H101:O101"/>
+    <mergeCell ref="H105:O105"/>
     <mergeCell ref="H106:O106"/>
     <mergeCell ref="H107:O108"/>
     <mergeCell ref="H109:O109"/>
@@ -37724,51 +38100,6 @@
     <mergeCell ref="H81:O82"/>
     <mergeCell ref="H83:O84"/>
     <mergeCell ref="H102:O102"/>
-    <mergeCell ref="F105:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="H71:O72"/>
-    <mergeCell ref="H73:O74"/>
-    <mergeCell ref="H75:O76"/>
-    <mergeCell ref="F94:G97"/>
-    <mergeCell ref="H94:O97"/>
-    <mergeCell ref="F98:G99"/>
-    <mergeCell ref="H98:O99"/>
-    <mergeCell ref="F100:G104"/>
-    <mergeCell ref="H101:O101"/>
-    <mergeCell ref="H105:O105"/>
-    <mergeCell ref="H103:O104"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="F81:G82"/>
-    <mergeCell ref="F83:G84"/>
-    <mergeCell ref="F85:G86"/>
-    <mergeCell ref="F87:G90"/>
-    <mergeCell ref="F91:G93"/>
-    <mergeCell ref="H85:O86"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E109"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="F70:G72"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="B67:B109"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D78"/>
-    <mergeCell ref="C79:D97"/>
-    <mergeCell ref="C98:D109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37996,198 +38327,198 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="258" t="s">
         <v>713</v>
       </c>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="249"/>
-      <c r="H26" s="248" t="s">
+      <c r="D26" s="338"/>
+      <c r="E26" s="338"/>
+      <c r="F26" s="259"/>
+      <c r="H26" s="258" t="s">
         <v>717</v>
       </c>
-      <c r="I26" s="366"/>
-      <c r="J26" s="366"/>
-      <c r="K26" s="249"/>
-      <c r="M26" s="248" t="s">
+      <c r="I26" s="338"/>
+      <c r="J26" s="338"/>
+      <c r="K26" s="259"/>
+      <c r="M26" s="258" t="s">
         <v>583</v>
       </c>
-      <c r="N26" s="249"/>
+      <c r="N26" s="259"/>
       <c r="O26" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="P26" s="311" t="s">
+      <c r="P26" s="308" t="s">
         <v>727</v>
       </c>
-      <c r="Q26" s="321"/>
-      <c r="R26" s="312"/>
-      <c r="S26" s="311" t="s">
+      <c r="Q26" s="309"/>
+      <c r="R26" s="310"/>
+      <c r="S26" s="308" t="s">
         <v>725</v>
       </c>
-      <c r="T26" s="321"/>
-      <c r="U26" s="321"/>
-      <c r="V26" s="312"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="309"/>
+      <c r="V26" s="310"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C27" s="250"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="251"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="367"/>
-      <c r="J27" s="367"/>
-      <c r="K27" s="251"/>
-      <c r="M27" s="396"/>
-      <c r="N27" s="397"/>
-      <c r="O27" s="308" t="s">
+      <c r="C27" s="260"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="261"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="339"/>
+      <c r="K27" s="261"/>
+      <c r="M27" s="340"/>
+      <c r="N27" s="342"/>
+      <c r="O27" s="335" t="s">
         <v>722</v>
       </c>
-      <c r="P27" s="313" t="s">
+      <c r="P27" s="311" t="s">
         <v>728</v>
       </c>
-      <c r="Q27" s="319"/>
-      <c r="R27" s="314"/>
-      <c r="S27" s="313" t="s">
+      <c r="Q27" s="312"/>
+      <c r="R27" s="313"/>
+      <c r="S27" s="311" t="s">
         <v>726</v>
       </c>
-      <c r="T27" s="319"/>
-      <c r="U27" s="319"/>
-      <c r="V27" s="314"/>
+      <c r="T27" s="312"/>
+      <c r="U27" s="312"/>
+      <c r="V27" s="313"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C28" s="311" t="s">
+      <c r="C28" s="308" t="s">
         <v>714</v>
       </c>
-      <c r="D28" s="321"/>
-      <c r="E28" s="321"/>
-      <c r="F28" s="312"/>
-      <c r="H28" s="311" t="s">
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="310"/>
+      <c r="H28" s="308" t="s">
         <v>718</v>
       </c>
-      <c r="I28" s="321"/>
-      <c r="J28" s="321"/>
-      <c r="K28" s="312"/>
-      <c r="M28" s="396"/>
-      <c r="N28" s="397"/>
-      <c r="O28" s="310"/>
-      <c r="P28" s="317"/>
-      <c r="Q28" s="320"/>
-      <c r="R28" s="318"/>
-      <c r="S28" s="317"/>
-      <c r="T28" s="320"/>
-      <c r="U28" s="320"/>
-      <c r="V28" s="318"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="310"/>
+      <c r="M28" s="340"/>
+      <c r="N28" s="342"/>
+      <c r="O28" s="337"/>
+      <c r="P28" s="314"/>
+      <c r="Q28" s="315"/>
+      <c r="R28" s="316"/>
+      <c r="S28" s="314"/>
+      <c r="T28" s="315"/>
+      <c r="U28" s="315"/>
+      <c r="V28" s="316"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C29" s="311" t="s">
+      <c r="C29" s="308" t="s">
         <v>715</v>
       </c>
-      <c r="D29" s="321"/>
-      <c r="E29" s="321"/>
-      <c r="F29" s="312"/>
-      <c r="H29" s="311" t="s">
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="310"/>
+      <c r="H29" s="308" t="s">
         <v>719</v>
       </c>
-      <c r="I29" s="321"/>
-      <c r="J29" s="321"/>
-      <c r="K29" s="312"/>
-      <c r="M29" s="396"/>
-      <c r="N29" s="397"/>
-      <c r="O29" s="308" t="s">
+      <c r="I29" s="309"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="310"/>
+      <c r="M29" s="340"/>
+      <c r="N29" s="342"/>
+      <c r="O29" s="335" t="s">
         <v>723</v>
       </c>
-      <c r="P29" s="313" t="s">
+      <c r="P29" s="311" t="s">
         <v>739</v>
       </c>
-      <c r="Q29" s="319"/>
-      <c r="R29" s="314"/>
-      <c r="S29" s="311" t="s">
+      <c r="Q29" s="312"/>
+      <c r="R29" s="313"/>
+      <c r="S29" s="308" t="s">
         <v>729</v>
       </c>
-      <c r="T29" s="321"/>
-      <c r="U29" s="321"/>
-      <c r="V29" s="312"/>
+      <c r="T29" s="309"/>
+      <c r="U29" s="309"/>
+      <c r="V29" s="310"/>
       <c r="W29" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C30" s="311" t="s">
+      <c r="C30" s="308" t="s">
         <v>716</v>
       </c>
-      <c r="D30" s="321"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="312"/>
-      <c r="M30" s="396"/>
-      <c r="N30" s="397"/>
-      <c r="O30" s="309"/>
-      <c r="P30" s="315"/>
-      <c r="Q30" s="331"/>
-      <c r="R30" s="316"/>
-      <c r="S30" s="311" t="s">
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="310"/>
+      <c r="M30" s="340"/>
+      <c r="N30" s="342"/>
+      <c r="O30" s="336"/>
+      <c r="P30" s="329"/>
+      <c r="Q30" s="334"/>
+      <c r="R30" s="330"/>
+      <c r="S30" s="308" t="s">
         <v>730</v>
       </c>
-      <c r="T30" s="321"/>
-      <c r="U30" s="321"/>
-      <c r="V30" s="312"/>
+      <c r="T30" s="309"/>
+      <c r="U30" s="309"/>
+      <c r="V30" s="310"/>
       <c r="W30" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C31" s="311" t="s">
+      <c r="C31" s="308" t="s">
         <v>748</v>
       </c>
-      <c r="D31" s="321"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="312"/>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="310"/>
       <c r="H31" t="s">
         <v>809</v>
       </c>
-      <c r="M31" s="396"/>
-      <c r="N31" s="397"/>
-      <c r="O31" s="309"/>
-      <c r="P31" s="315"/>
-      <c r="Q31" s="331"/>
-      <c r="R31" s="316"/>
-      <c r="S31" s="313" t="s">
+      <c r="M31" s="340"/>
+      <c r="N31" s="342"/>
+      <c r="O31" s="336"/>
+      <c r="P31" s="329"/>
+      <c r="Q31" s="334"/>
+      <c r="R31" s="330"/>
+      <c r="S31" s="311" t="s">
         <v>731</v>
       </c>
-      <c r="T31" s="319"/>
-      <c r="U31" s="319"/>
-      <c r="V31" s="314"/>
+      <c r="T31" s="312"/>
+      <c r="U31" s="312"/>
+      <c r="V31" s="313"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>810</v>
       </c>
-      <c r="M32" s="396"/>
-      <c r="N32" s="397"/>
-      <c r="O32" s="310"/>
-      <c r="P32" s="317"/>
-      <c r="Q32" s="320"/>
-      <c r="R32" s="318"/>
-      <c r="S32" s="317"/>
-      <c r="T32" s="320"/>
-      <c r="U32" s="320"/>
-      <c r="V32" s="318"/>
+      <c r="M32" s="340"/>
+      <c r="N32" s="342"/>
+      <c r="O32" s="337"/>
+      <c r="P32" s="314"/>
+      <c r="Q32" s="315"/>
+      <c r="R32" s="316"/>
+      <c r="S32" s="314"/>
+      <c r="T32" s="315"/>
+      <c r="U32" s="315"/>
+      <c r="V32" s="316"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M33" s="396"/>
-      <c r="N33" s="397"/>
-      <c r="O33" s="308" t="s">
+      <c r="M33" s="340"/>
+      <c r="N33" s="342"/>
+      <c r="O33" s="335" t="s">
         <v>724</v>
       </c>
-      <c r="P33" s="313" t="s">
+      <c r="P33" s="311" t="s">
         <v>733</v>
       </c>
-      <c r="Q33" s="319"/>
-      <c r="R33" s="314"/>
-      <c r="S33" s="313" t="s">
+      <c r="Q33" s="312"/>
+      <c r="R33" s="313"/>
+      <c r="S33" s="311" t="s">
         <v>734</v>
       </c>
-      <c r="T33" s="319"/>
-      <c r="U33" s="319"/>
-      <c r="V33" s="314"/>
+      <c r="T33" s="312"/>
+      <c r="U33" s="312"/>
+      <c r="V33" s="313"/>
       <c r="W33" t="s">
         <v>747</v>
       </c>
@@ -38196,52 +38527,52 @@
       <c r="C34" t="s">
         <v>749</v>
       </c>
-      <c r="M34" s="396"/>
-      <c r="N34" s="397"/>
-      <c r="O34" s="309"/>
-      <c r="P34" s="317"/>
-      <c r="Q34" s="320"/>
-      <c r="R34" s="318"/>
-      <c r="S34" s="317"/>
-      <c r="T34" s="320"/>
-      <c r="U34" s="320"/>
-      <c r="V34" s="318"/>
+      <c r="M34" s="340"/>
+      <c r="N34" s="342"/>
+      <c r="O34" s="336"/>
+      <c r="P34" s="314"/>
+      <c r="Q34" s="315"/>
+      <c r="R34" s="316"/>
+      <c r="S34" s="314"/>
+      <c r="T34" s="315"/>
+      <c r="U34" s="315"/>
+      <c r="V34" s="316"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>750</v>
       </c>
-      <c r="M35" s="396"/>
-      <c r="N35" s="397"/>
-      <c r="O35" s="309"/>
-      <c r="P35" s="313" t="s">
+      <c r="M35" s="340"/>
+      <c r="N35" s="342"/>
+      <c r="O35" s="336"/>
+      <c r="P35" s="311" t="s">
         <v>735</v>
       </c>
-      <c r="Q35" s="319"/>
-      <c r="R35" s="314"/>
-      <c r="S35" s="311" t="s">
+      <c r="Q35" s="312"/>
+      <c r="R35" s="313"/>
+      <c r="S35" s="308" t="s">
         <v>736</v>
       </c>
-      <c r="T35" s="321"/>
-      <c r="U35" s="321"/>
-      <c r="V35" s="312"/>
+      <c r="T35" s="309"/>
+      <c r="U35" s="309"/>
+      <c r="V35" s="310"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>811</v>
       </c>
-      <c r="M36" s="396"/>
-      <c r="N36" s="397"/>
-      <c r="O36" s="309"/>
-      <c r="P36" s="315"/>
-      <c r="Q36" s="331"/>
-      <c r="R36" s="316"/>
-      <c r="S36" s="313" t="s">
+      <c r="M36" s="340"/>
+      <c r="N36" s="342"/>
+      <c r="O36" s="336"/>
+      <c r="P36" s="329"/>
+      <c r="Q36" s="334"/>
+      <c r="R36" s="330"/>
+      <c r="S36" s="311" t="s">
         <v>737</v>
       </c>
-      <c r="T36" s="319"/>
-      <c r="U36" s="319"/>
-      <c r="V36" s="314"/>
+      <c r="T36" s="312"/>
+      <c r="U36" s="312"/>
+      <c r="V36" s="313"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
@@ -38250,35 +38581,35 @@
       <c r="I37" t="s">
         <v>812</v>
       </c>
-      <c r="M37" s="396"/>
-      <c r="N37" s="397"/>
-      <c r="O37" s="309"/>
-      <c r="P37" s="317"/>
-      <c r="Q37" s="320"/>
-      <c r="R37" s="318"/>
-      <c r="S37" s="317"/>
-      <c r="T37" s="320"/>
-      <c r="U37" s="320"/>
-      <c r="V37" s="318"/>
+      <c r="M37" s="340"/>
+      <c r="N37" s="342"/>
+      <c r="O37" s="336"/>
+      <c r="P37" s="314"/>
+      <c r="Q37" s="315"/>
+      <c r="R37" s="316"/>
+      <c r="S37" s="314"/>
+      <c r="T37" s="315"/>
+      <c r="U37" s="315"/>
+      <c r="V37" s="316"/>
       <c r="X37" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M38" s="396"/>
-      <c r="N38" s="397"/>
-      <c r="O38" s="309"/>
-      <c r="P38" s="313" t="s">
+      <c r="M38" s="340"/>
+      <c r="N38" s="342"/>
+      <c r="O38" s="336"/>
+      <c r="P38" s="311" t="s">
         <v>740</v>
       </c>
-      <c r="Q38" s="319"/>
-      <c r="R38" s="314"/>
-      <c r="S38" s="311" t="s">
+      <c r="Q38" s="312"/>
+      <c r="R38" s="313"/>
+      <c r="S38" s="308" t="s">
         <v>729</v>
       </c>
-      <c r="T38" s="321"/>
-      <c r="U38" s="321"/>
-      <c r="V38" s="312"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="309"/>
+      <c r="V38" s="310"/>
       <c r="X38" t="s">
         <v>843</v>
       </c>
@@ -38290,18 +38621,18 @@
       <c r="I39" t="s">
         <v>821</v>
       </c>
-      <c r="M39" s="396"/>
-      <c r="N39" s="397"/>
-      <c r="O39" s="309"/>
-      <c r="P39" s="315"/>
-      <c r="Q39" s="331"/>
-      <c r="R39" s="316"/>
-      <c r="S39" s="311" t="s">
+      <c r="M39" s="340"/>
+      <c r="N39" s="342"/>
+      <c r="O39" s="336"/>
+      <c r="P39" s="329"/>
+      <c r="Q39" s="334"/>
+      <c r="R39" s="330"/>
+      <c r="S39" s="308" t="s">
         <v>744</v>
       </c>
-      <c r="T39" s="321"/>
-      <c r="U39" s="321"/>
-      <c r="V39" s="312"/>
+      <c r="T39" s="309"/>
+      <c r="U39" s="309"/>
+      <c r="V39" s="310"/>
       <c r="W39" t="s">
         <v>743</v>
       </c>
@@ -38313,30 +38644,30 @@
       <c r="I40" t="s">
         <v>822</v>
       </c>
-      <c r="M40" s="396"/>
-      <c r="N40" s="397"/>
-      <c r="O40" s="309"/>
-      <c r="P40" s="315"/>
-      <c r="Q40" s="331"/>
-      <c r="R40" s="316"/>
-      <c r="S40" s="313" t="s">
+      <c r="M40" s="340"/>
+      <c r="N40" s="342"/>
+      <c r="O40" s="336"/>
+      <c r="P40" s="329"/>
+      <c r="Q40" s="334"/>
+      <c r="R40" s="330"/>
+      <c r="S40" s="311" t="s">
         <v>745</v>
       </c>
-      <c r="T40" s="319"/>
-      <c r="U40" s="319"/>
-      <c r="V40" s="314"/>
+      <c r="T40" s="312"/>
+      <c r="U40" s="312"/>
+      <c r="V40" s="313"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M41" s="396"/>
-      <c r="N41" s="397"/>
-      <c r="O41" s="309"/>
-      <c r="P41" s="317"/>
-      <c r="Q41" s="320"/>
-      <c r="R41" s="318"/>
-      <c r="S41" s="317"/>
-      <c r="T41" s="320"/>
-      <c r="U41" s="320"/>
-      <c r="V41" s="318"/>
+      <c r="M41" s="340"/>
+      <c r="N41" s="342"/>
+      <c r="O41" s="336"/>
+      <c r="P41" s="314"/>
+      <c r="Q41" s="315"/>
+      <c r="R41" s="316"/>
+      <c r="S41" s="314"/>
+      <c r="T41" s="315"/>
+      <c r="U41" s="315"/>
+      <c r="V41" s="316"/>
       <c r="X41" t="s">
         <v>825</v>
       </c>
@@ -38345,20 +38676,20 @@
       <c r="C42" t="s">
         <v>762</v>
       </c>
-      <c r="M42" s="250"/>
-      <c r="N42" s="251"/>
-      <c r="O42" s="310"/>
-      <c r="P42" s="311" t="s">
+      <c r="M42" s="260"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="337"/>
+      <c r="P42" s="308" t="s">
         <v>741</v>
       </c>
-      <c r="Q42" s="321"/>
-      <c r="R42" s="312"/>
-      <c r="S42" s="311" t="s">
+      <c r="Q42" s="309"/>
+      <c r="R42" s="310"/>
+      <c r="S42" s="308" t="s">
         <v>742</v>
       </c>
-      <c r="T42" s="321"/>
-      <c r="U42" s="321"/>
-      <c r="V42" s="312"/>
+      <c r="T42" s="309"/>
+      <c r="U42" s="309"/>
+      <c r="V42" s="310"/>
       <c r="X42" t="s">
         <v>826</v>
       </c>
@@ -38846,22 +39177,22 @@
       <c r="AK116" s="4"/>
     </row>
     <row r="118" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M118" s="398" t="s">
+      <c r="M118" s="352" t="s">
         <v>259</v>
       </c>
-      <c r="N118" s="399"/>
-      <c r="O118" s="399"/>
-      <c r="P118" s="399"/>
-      <c r="Q118" s="399"/>
-      <c r="R118" s="400"/>
+      <c r="N118" s="353"/>
+      <c r="O118" s="353"/>
+      <c r="P118" s="353"/>
+      <c r="Q118" s="353"/>
+      <c r="R118" s="354"/>
     </row>
     <row r="119" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M119" s="401"/>
-      <c r="N119" s="402"/>
-      <c r="O119" s="402"/>
-      <c r="P119" s="402"/>
-      <c r="Q119" s="402"/>
-      <c r="R119" s="403"/>
+      <c r="M119" s="355"/>
+      <c r="N119" s="356"/>
+      <c r="O119" s="356"/>
+      <c r="P119" s="356"/>
+      <c r="Q119" s="356"/>
+      <c r="R119" s="357"/>
     </row>
     <row r="120" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H120" s="101"/>
@@ -38869,21 +39200,21 @@
       <c r="J120" s="157"/>
       <c r="K120" s="157"/>
       <c r="L120" s="139"/>
-      <c r="M120" s="401"/>
-      <c r="N120" s="402"/>
-      <c r="O120" s="402"/>
-      <c r="P120" s="402"/>
-      <c r="Q120" s="402"/>
-      <c r="R120" s="403"/>
+      <c r="M120" s="355"/>
+      <c r="N120" s="356"/>
+      <c r="O120" s="356"/>
+      <c r="P120" s="356"/>
+      <c r="Q120" s="356"/>
+      <c r="R120" s="357"/>
     </row>
     <row r="121" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H121" s="6"/>
-      <c r="M121" s="401"/>
-      <c r="N121" s="402"/>
-      <c r="O121" s="402"/>
-      <c r="P121" s="402"/>
-      <c r="Q121" s="402"/>
-      <c r="R121" s="403"/>
+      <c r="M121" s="355"/>
+      <c r="N121" s="356"/>
+      <c r="O121" s="356"/>
+      <c r="P121" s="356"/>
+      <c r="Q121" s="356"/>
+      <c r="R121" s="357"/>
       <c r="S121" s="146"/>
       <c r="T121" s="112"/>
       <c r="U121" s="112"/>
@@ -38906,12 +39237,12 @@
     </row>
     <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H122" s="6"/>
-      <c r="M122" s="404"/>
-      <c r="N122" s="405"/>
-      <c r="O122" s="405"/>
-      <c r="P122" s="405"/>
-      <c r="Q122" s="405"/>
-      <c r="R122" s="406"/>
+      <c r="M122" s="358"/>
+      <c r="N122" s="359"/>
+      <c r="O122" s="359"/>
+      <c r="P122" s="359"/>
+      <c r="Q122" s="359"/>
+      <c r="R122" s="360"/>
       <c r="S122" s="6"/>
       <c r="AK122" s="113"/>
     </row>
@@ -38922,108 +39253,108 @@
     </row>
     <row r="124" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H124" s="6"/>
-      <c r="N124" s="381" t="s">
+      <c r="N124" s="343" t="s">
         <v>858</v>
       </c>
-      <c r="O124" s="382"/>
-      <c r="P124" s="382"/>
-      <c r="Q124" s="383"/>
-      <c r="W124" s="344" t="s">
+      <c r="O124" s="344"/>
+      <c r="P124" s="344"/>
+      <c r="Q124" s="345"/>
+      <c r="W124" s="386" t="s">
         <v>903</v>
       </c>
-      <c r="X124" s="345"/>
-      <c r="Y124" s="346"/>
-      <c r="AA124" s="353" t="s">
+      <c r="X124" s="387"/>
+      <c r="Y124" s="388"/>
+      <c r="AA124" s="395" t="s">
         <v>904</v>
       </c>
-      <c r="AB124" s="354"/>
-      <c r="AC124" s="355"/>
-      <c r="AE124" s="260" t="s">
+      <c r="AB124" s="396"/>
+      <c r="AC124" s="397"/>
+      <c r="AE124" s="281" t="s">
         <v>905</v>
       </c>
-      <c r="AF124" s="361"/>
-      <c r="AG124" s="261"/>
+      <c r="AF124" s="403"/>
+      <c r="AG124" s="282"/>
       <c r="AK124" s="113"/>
     </row>
     <row r="125" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H125" s="6"/>
-      <c r="N125" s="384"/>
-      <c r="O125" s="385"/>
-      <c r="P125" s="385"/>
-      <c r="Q125" s="386"/>
-      <c r="W125" s="347"/>
-      <c r="X125" s="348"/>
-      <c r="Y125" s="349"/>
-      <c r="AA125" s="356"/>
-      <c r="AB125" s="348"/>
-      <c r="AC125" s="357"/>
-      <c r="AE125" s="362"/>
-      <c r="AF125" s="363"/>
-      <c r="AG125" s="364"/>
+      <c r="N125" s="346"/>
+      <c r="O125" s="347"/>
+      <c r="P125" s="347"/>
+      <c r="Q125" s="348"/>
+      <c r="W125" s="389"/>
+      <c r="X125" s="390"/>
+      <c r="Y125" s="391"/>
+      <c r="AA125" s="398"/>
+      <c r="AB125" s="390"/>
+      <c r="AC125" s="399"/>
+      <c r="AE125" s="404"/>
+      <c r="AF125" s="341"/>
+      <c r="AG125" s="405"/>
       <c r="AK125" s="113"/>
     </row>
     <row r="126" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H126" s="6"/>
       <c r="M126" s="141"/>
-      <c r="N126" s="387"/>
-      <c r="O126" s="388"/>
-      <c r="P126" s="388"/>
-      <c r="Q126" s="389"/>
+      <c r="N126" s="349"/>
+      <c r="O126" s="350"/>
+      <c r="P126" s="350"/>
+      <c r="Q126" s="351"/>
       <c r="R126" s="141"/>
       <c r="S126" s="6"/>
-      <c r="W126" s="347"/>
-      <c r="X126" s="348"/>
-      <c r="Y126" s="349"/>
-      <c r="AA126" s="356"/>
-      <c r="AB126" s="348"/>
-      <c r="AC126" s="357"/>
-      <c r="AE126" s="362"/>
-      <c r="AF126" s="363"/>
-      <c r="AG126" s="364"/>
+      <c r="W126" s="389"/>
+      <c r="X126" s="390"/>
+      <c r="Y126" s="391"/>
+      <c r="AA126" s="398"/>
+      <c r="AB126" s="390"/>
+      <c r="AC126" s="399"/>
+      <c r="AE126" s="404"/>
+      <c r="AF126" s="341"/>
+      <c r="AG126" s="405"/>
       <c r="AK126" s="113"/>
     </row>
     <row r="127" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H127" s="6"/>
       <c r="M127" s="5"/>
       <c r="S127" s="5"/>
-      <c r="W127" s="350"/>
-      <c r="X127" s="351"/>
-      <c r="Y127" s="352"/>
-      <c r="AA127" s="358"/>
-      <c r="AB127" s="359"/>
-      <c r="AC127" s="360"/>
-      <c r="AE127" s="262"/>
-      <c r="AF127" s="365"/>
-      <c r="AG127" s="263"/>
+      <c r="W127" s="392"/>
+      <c r="X127" s="393"/>
+      <c r="Y127" s="394"/>
+      <c r="AA127" s="400"/>
+      <c r="AB127" s="401"/>
+      <c r="AC127" s="402"/>
+      <c r="AE127" s="283"/>
+      <c r="AF127" s="406"/>
+      <c r="AG127" s="284"/>
       <c r="AK127" s="113"/>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="H128" s="6"/>
-      <c r="K128" s="338" t="s">
+      <c r="K128" s="361" t="s">
         <v>859</v>
       </c>
-      <c r="L128" s="339"/>
-      <c r="M128" s="339"/>
-      <c r="N128" s="340"/>
-      <c r="Q128" s="248" t="s">
+      <c r="L128" s="362"/>
+      <c r="M128" s="362"/>
+      <c r="N128" s="363"/>
+      <c r="Q128" s="258" t="s">
         <v>860</v>
       </c>
-      <c r="R128" s="366"/>
-      <c r="S128" s="366"/>
-      <c r="T128" s="249"/>
+      <c r="R128" s="338"/>
+      <c r="S128" s="338"/>
+      <c r="T128" s="259"/>
       <c r="AK128" s="113"/>
     </row>
     <row r="129" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H129" s="6"/>
       <c r="J129" s="141"/>
-      <c r="K129" s="341"/>
-      <c r="L129" s="342"/>
-      <c r="M129" s="342"/>
-      <c r="N129" s="343"/>
-      <c r="Q129" s="250"/>
-      <c r="R129" s="367"/>
-      <c r="S129" s="367"/>
-      <c r="T129" s="251"/>
+      <c r="K129" s="364"/>
+      <c r="L129" s="365"/>
+      <c r="M129" s="365"/>
+      <c r="N129" s="366"/>
+      <c r="Q129" s="260"/>
+      <c r="R129" s="339"/>
+      <c r="S129" s="339"/>
+      <c r="T129" s="261"/>
       <c r="AK129" s="113"/>
     </row>
     <row r="130" spans="5:37" x14ac:dyDescent="0.3">
@@ -39035,47 +39366,47 @@
     </row>
     <row r="131" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H131" s="6"/>
-      <c r="I131" s="390" t="s">
+      <c r="I131" s="367" t="s">
         <v>583</v>
       </c>
-      <c r="J131" s="391"/>
-      <c r="M131" s="390" t="s">
+      <c r="J131" s="368"/>
+      <c r="M131" s="367" t="s">
         <v>713</v>
       </c>
-      <c r="N131" s="391"/>
-      <c r="R131" s="368" t="s">
+      <c r="N131" s="368"/>
+      <c r="R131" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="S131" s="369"/>
+      <c r="S131" s="374"/>
       <c r="AK131" s="113"/>
     </row>
     <row r="132" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H132" s="6"/>
-      <c r="I132" s="392" t="s">
+      <c r="I132" s="369" t="s">
         <v>861</v>
       </c>
-      <c r="J132" s="393"/>
-      <c r="M132" s="394" t="s">
+      <c r="J132" s="370"/>
+      <c r="M132" s="371" t="s">
         <v>862</v>
       </c>
-      <c r="N132" s="395"/>
-      <c r="R132" s="380" t="s">
+      <c r="N132" s="372"/>
+      <c r="R132" s="375" t="s">
         <v>864</v>
       </c>
-      <c r="S132" s="253"/>
+      <c r="S132" s="255"/>
       <c r="AK132" s="113"/>
     </row>
     <row r="133" spans="5:37" x14ac:dyDescent="0.3">
       <c r="H133" s="6"/>
-      <c r="I133" s="394" t="s">
+      <c r="I133" s="371" t="s">
         <v>859</v>
       </c>
-      <c r="J133" s="395"/>
+      <c r="J133" s="372"/>
       <c r="N133" s="6"/>
-      <c r="R133" s="254" t="s">
+      <c r="R133" s="256" t="s">
         <v>865</v>
       </c>
-      <c r="S133" s="255"/>
+      <c r="S133" s="257"/>
       <c r="AK133" s="113"/>
     </row>
     <row r="134" spans="5:37" x14ac:dyDescent="0.3">
@@ -39102,87 +39433,87 @@
       <c r="AK137" s="113"/>
     </row>
     <row r="138" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G138" s="398" t="s">
+      <c r="G138" s="352" t="s">
         <v>852</v>
       </c>
-      <c r="H138" s="399"/>
-      <c r="I138" s="399"/>
-      <c r="J138" s="399"/>
-      <c r="K138" s="399"/>
-      <c r="L138" s="400"/>
-      <c r="P138" s="398" t="s">
+      <c r="H138" s="353"/>
+      <c r="I138" s="353"/>
+      <c r="J138" s="353"/>
+      <c r="K138" s="353"/>
+      <c r="L138" s="354"/>
+      <c r="P138" s="352" t="s">
         <v>853</v>
       </c>
-      <c r="Q138" s="399"/>
-      <c r="R138" s="399"/>
-      <c r="S138" s="399"/>
-      <c r="T138" s="399"/>
-      <c r="U138" s="400"/>
+      <c r="Q138" s="353"/>
+      <c r="R138" s="353"/>
+      <c r="S138" s="353"/>
+      <c r="T138" s="353"/>
+      <c r="U138" s="354"/>
       <c r="AK138" s="113"/>
     </row>
     <row r="139" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G139" s="401"/>
-      <c r="H139" s="402"/>
-      <c r="I139" s="402"/>
-      <c r="J139" s="402"/>
-      <c r="K139" s="402"/>
-      <c r="L139" s="403"/>
+      <c r="G139" s="355"/>
+      <c r="H139" s="356"/>
+      <c r="I139" s="356"/>
+      <c r="J139" s="356"/>
+      <c r="K139" s="356"/>
+      <c r="L139" s="357"/>
       <c r="N139" s="101"/>
       <c r="O139" s="139"/>
-      <c r="P139" s="401"/>
-      <c r="Q139" s="402"/>
-      <c r="R139" s="402"/>
-      <c r="S139" s="402"/>
-      <c r="T139" s="402"/>
-      <c r="U139" s="403"/>
+      <c r="P139" s="355"/>
+      <c r="Q139" s="356"/>
+      <c r="R139" s="356"/>
+      <c r="S139" s="356"/>
+      <c r="T139" s="356"/>
+      <c r="U139" s="357"/>
       <c r="AK139" s="113"/>
     </row>
     <row r="140" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G140" s="401"/>
-      <c r="H140" s="402"/>
-      <c r="I140" s="402"/>
-      <c r="J140" s="402"/>
-      <c r="K140" s="402"/>
-      <c r="L140" s="403"/>
+      <c r="G140" s="355"/>
+      <c r="H140" s="356"/>
+      <c r="I140" s="356"/>
+      <c r="J140" s="356"/>
+      <c r="K140" s="356"/>
+      <c r="L140" s="357"/>
       <c r="N140" s="6"/>
-      <c r="P140" s="401"/>
-      <c r="Q140" s="402"/>
-      <c r="R140" s="402"/>
-      <c r="S140" s="402"/>
-      <c r="T140" s="402"/>
-      <c r="U140" s="403"/>
+      <c r="P140" s="355"/>
+      <c r="Q140" s="356"/>
+      <c r="R140" s="356"/>
+      <c r="S140" s="356"/>
+      <c r="T140" s="356"/>
+      <c r="U140" s="357"/>
       <c r="AK140" s="113"/>
     </row>
     <row r="141" spans="5:37" x14ac:dyDescent="0.3">
-      <c r="G141" s="401"/>
-      <c r="H141" s="402"/>
-      <c r="I141" s="402"/>
-      <c r="J141" s="402"/>
-      <c r="K141" s="402"/>
-      <c r="L141" s="403"/>
+      <c r="G141" s="355"/>
+      <c r="H141" s="356"/>
+      <c r="I141" s="356"/>
+      <c r="J141" s="356"/>
+      <c r="K141" s="356"/>
+      <c r="L141" s="357"/>
       <c r="N141" s="6"/>
-      <c r="P141" s="401"/>
-      <c r="Q141" s="402"/>
-      <c r="R141" s="402"/>
-      <c r="S141" s="402"/>
-      <c r="T141" s="402"/>
-      <c r="U141" s="403"/>
+      <c r="P141" s="355"/>
+      <c r="Q141" s="356"/>
+      <c r="R141" s="356"/>
+      <c r="S141" s="356"/>
+      <c r="T141" s="356"/>
+      <c r="U141" s="357"/>
       <c r="AK141" s="113"/>
     </row>
     <row r="142" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G142" s="404"/>
-      <c r="H142" s="405"/>
-      <c r="I142" s="405"/>
-      <c r="J142" s="405"/>
-      <c r="K142" s="405"/>
-      <c r="L142" s="406"/>
+      <c r="G142" s="358"/>
+      <c r="H142" s="359"/>
+      <c r="I142" s="359"/>
+      <c r="J142" s="359"/>
+      <c r="K142" s="359"/>
+      <c r="L142" s="360"/>
       <c r="N142" s="6"/>
-      <c r="P142" s="404"/>
-      <c r="Q142" s="405"/>
-      <c r="R142" s="405"/>
-      <c r="S142" s="405"/>
-      <c r="T142" s="405"/>
-      <c r="U142" s="406"/>
+      <c r="P142" s="358"/>
+      <c r="Q142" s="359"/>
+      <c r="R142" s="359"/>
+      <c r="S142" s="359"/>
+      <c r="T142" s="359"/>
+      <c r="U142" s="360"/>
       <c r="AK142" s="113"/>
     </row>
     <row r="143" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -39193,24 +39524,24 @@
       <c r="AK143" s="113"/>
     </row>
     <row r="144" spans="5:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="248" t="s">
+      <c r="E144" s="258" t="s">
         <v>854</v>
       </c>
-      <c r="F144" s="366"/>
-      <c r="G144" s="366"/>
-      <c r="H144" s="249"/>
-      <c r="K144" s="381" t="s">
+      <c r="F144" s="338"/>
+      <c r="G144" s="338"/>
+      <c r="H144" s="259"/>
+      <c r="K144" s="343" t="s">
         <v>857</v>
       </c>
-      <c r="L144" s="382"/>
-      <c r="M144" s="382"/>
-      <c r="N144" s="383"/>
-      <c r="Q144" s="381" t="s">
+      <c r="L144" s="344"/>
+      <c r="M144" s="344"/>
+      <c r="N144" s="345"/>
+      <c r="Q144" s="343" t="s">
         <v>871</v>
       </c>
-      <c r="R144" s="382"/>
-      <c r="S144" s="382"/>
-      <c r="T144" s="383"/>
+      <c r="R144" s="344"/>
+      <c r="S144" s="344"/>
+      <c r="T144" s="345"/>
       <c r="Z144" s="173"/>
       <c r="AA144" s="173"/>
       <c r="AB144" s="173"/>
@@ -39225,36 +39556,36 @@
       <c r="AK144" s="113"/>
     </row>
     <row r="145" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="396"/>
-      <c r="F145" s="363"/>
-      <c r="G145" s="363"/>
-      <c r="H145" s="397"/>
-      <c r="K145" s="384"/>
-      <c r="L145" s="385"/>
-      <c r="M145" s="385"/>
-      <c r="N145" s="386"/>
-      <c r="Q145" s="384"/>
-      <c r="R145" s="385"/>
-      <c r="S145" s="385"/>
-      <c r="T145" s="386"/>
+      <c r="E145" s="340"/>
+      <c r="F145" s="341"/>
+      <c r="G145" s="341"/>
+      <c r="H145" s="342"/>
+      <c r="K145" s="346"/>
+      <c r="L145" s="347"/>
+      <c r="M145" s="347"/>
+      <c r="N145" s="348"/>
+      <c r="Q145" s="346"/>
+      <c r="R145" s="347"/>
+      <c r="S145" s="347"/>
+      <c r="T145" s="348"/>
       <c r="Y145" s="178"/>
       <c r="AJ145" s="177"/>
       <c r="AK145" s="113"/>
     </row>
     <row r="146" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="E146" s="250"/>
-      <c r="F146" s="367"/>
-      <c r="G146" s="367"/>
-      <c r="H146" s="251"/>
-      <c r="K146" s="387"/>
-      <c r="L146" s="388"/>
-      <c r="M146" s="388"/>
-      <c r="N146" s="389"/>
+      <c r="E146" s="260"/>
+      <c r="F146" s="339"/>
+      <c r="G146" s="339"/>
+      <c r="H146" s="261"/>
+      <c r="K146" s="349"/>
+      <c r="L146" s="350"/>
+      <c r="M146" s="350"/>
+      <c r="N146" s="351"/>
       <c r="P146" s="141"/>
-      <c r="Q146" s="387"/>
-      <c r="R146" s="388"/>
-      <c r="S146" s="388"/>
-      <c r="T146" s="389"/>
+      <c r="Q146" s="349"/>
+      <c r="R146" s="350"/>
+      <c r="S146" s="350"/>
+      <c r="T146" s="351"/>
       <c r="U146" s="101"/>
       <c r="V146" s="157"/>
       <c r="W146" s="157"/>
@@ -39282,27 +39613,27 @@
       <c r="AK147" s="113"/>
     </row>
     <row r="148" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="E148" s="248" t="s">
+      <c r="E148" s="258" t="s">
         <v>866</v>
       </c>
-      <c r="F148" s="366"/>
-      <c r="G148" s="366"/>
-      <c r="H148" s="249"/>
+      <c r="F148" s="338"/>
+      <c r="G148" s="338"/>
+      <c r="H148" s="259"/>
       <c r="K148" s="178"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="248" t="s">
+      <c r="N148" s="258" t="s">
         <v>872</v>
       </c>
-      <c r="O148" s="366"/>
-      <c r="P148" s="366"/>
-      <c r="Q148" s="249"/>
+      <c r="O148" s="338"/>
+      <c r="P148" s="338"/>
+      <c r="Q148" s="259"/>
       <c r="Y148" s="178"/>
-      <c r="AD148" s="248" t="s">
+      <c r="AD148" s="258" t="s">
         <v>873</v>
       </c>
-      <c r="AE148" s="366"/>
-      <c r="AF148" s="366"/>
-      <c r="AG148" s="249"/>
+      <c r="AE148" s="338"/>
+      <c r="AF148" s="338"/>
+      <c r="AG148" s="259"/>
       <c r="AJ148" s="178"/>
       <c r="AK148" s="113"/>
     </row>
@@ -39310,16 +39641,16 @@
       <c r="B149" s="101"/>
       <c r="C149" s="157"/>
       <c r="D149" s="139"/>
-      <c r="E149" s="250"/>
-      <c r="F149" s="367"/>
-      <c r="G149" s="367"/>
-      <c r="H149" s="251"/>
+      <c r="E149" s="260"/>
+      <c r="F149" s="339"/>
+      <c r="G149" s="339"/>
+      <c r="H149" s="261"/>
       <c r="K149" s="178"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="250"/>
-      <c r="O149" s="367"/>
-      <c r="P149" s="367"/>
-      <c r="Q149" s="251"/>
+      <c r="N149" s="260"/>
+      <c r="O149" s="339"/>
+      <c r="P149" s="339"/>
+      <c r="Q149" s="261"/>
       <c r="R149" s="101"/>
       <c r="S149" s="157"/>
       <c r="T149" s="157"/>
@@ -39328,10 +39659,10 @@
       <c r="W149" s="157"/>
       <c r="X149" s="157"/>
       <c r="Y149" s="183"/>
-      <c r="AD149" s="250"/>
-      <c r="AE149" s="367"/>
-      <c r="AF149" s="367"/>
-      <c r="AG149" s="251"/>
+      <c r="AD149" s="260"/>
+      <c r="AE149" s="339"/>
+      <c r="AF149" s="339"/>
+      <c r="AG149" s="261"/>
       <c r="AJ149" s="178"/>
       <c r="AK149" s="113"/>
     </row>
@@ -39348,34 +39679,34 @@
     </row>
     <row r="151" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B151" s="6"/>
-      <c r="E151" s="248" t="s">
+      <c r="E151" s="258" t="s">
         <v>867</v>
       </c>
-      <c r="F151" s="366"/>
-      <c r="G151" s="366"/>
-      <c r="H151" s="249"/>
+      <c r="F151" s="338"/>
+      <c r="G151" s="338"/>
+      <c r="H151" s="259"/>
       <c r="K151" s="178"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="248" t="s">
+      <c r="N151" s="258" t="s">
         <v>874</v>
       </c>
-      <c r="O151" s="366"/>
-      <c r="P151" s="366"/>
-      <c r="Q151" s="249"/>
+      <c r="O151" s="338"/>
+      <c r="P151" s="338"/>
+      <c r="Q151" s="259"/>
       <c r="V151" s="4"/>
-      <c r="W151" s="248" t="s">
+      <c r="W151" s="258" t="s">
         <v>885</v>
       </c>
-      <c r="X151" s="366"/>
-      <c r="Y151" s="366"/>
-      <c r="Z151" s="249"/>
+      <c r="X151" s="338"/>
+      <c r="Y151" s="338"/>
+      <c r="Z151" s="259"/>
       <c r="AA151" s="4"/>
-      <c r="AD151" s="248" t="s">
+      <c r="AD151" s="258" t="s">
         <v>878</v>
       </c>
-      <c r="AE151" s="366"/>
-      <c r="AF151" s="366"/>
-      <c r="AG151" s="249"/>
+      <c r="AE151" s="338"/>
+      <c r="AF151" s="338"/>
+      <c r="AG151" s="259"/>
       <c r="AH151" s="179"/>
       <c r="AI151" s="173"/>
       <c r="AJ151" s="178"/>
@@ -39385,28 +39716,28 @@
       <c r="B152" s="6"/>
       <c r="C152" s="101"/>
       <c r="D152" s="157"/>
-      <c r="E152" s="250"/>
-      <c r="F152" s="367"/>
-      <c r="G152" s="367"/>
-      <c r="H152" s="251"/>
+      <c r="E152" s="260"/>
+      <c r="F152" s="339"/>
+      <c r="G152" s="339"/>
+      <c r="H152" s="261"/>
       <c r="I152" s="157"/>
       <c r="J152" s="157"/>
       <c r="K152" s="183"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="250"/>
-      <c r="O152" s="367"/>
-      <c r="P152" s="367"/>
-      <c r="Q152" s="251"/>
+      <c r="N152" s="260"/>
+      <c r="O152" s="339"/>
+      <c r="P152" s="339"/>
+      <c r="Q152" s="261"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="250"/>
-      <c r="X152" s="367"/>
-      <c r="Y152" s="367"/>
-      <c r="Z152" s="251"/>
+      <c r="W152" s="260"/>
+      <c r="X152" s="339"/>
+      <c r="Y152" s="339"/>
+      <c r="Z152" s="261"/>
       <c r="AB152" s="6"/>
-      <c r="AD152" s="250"/>
-      <c r="AE152" s="367"/>
-      <c r="AF152" s="367"/>
-      <c r="AG152" s="251"/>
+      <c r="AD152" s="260"/>
+      <c r="AE152" s="339"/>
+      <c r="AF152" s="339"/>
+      <c r="AG152" s="261"/>
       <c r="AH152" s="6"/>
       <c r="AI152" s="177"/>
       <c r="AJ152" s="178"/>
@@ -39430,43 +39761,43 @@
     <row r="154" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="368" t="s">
+      <c r="D154" s="373" t="s">
         <v>868</v>
       </c>
-      <c r="E154" s="369"/>
-      <c r="H154" s="252" t="s">
+      <c r="E154" s="374"/>
+      <c r="H154" s="254" t="s">
         <v>870</v>
       </c>
-      <c r="I154" s="253"/>
+      <c r="I154" s="255"/>
       <c r="K154" s="183"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="380" t="s">
+      <c r="N154" s="375" t="s">
         <v>875</v>
       </c>
-      <c r="O154" s="253"/>
+      <c r="O154" s="255"/>
       <c r="Q154" s="169"/>
-      <c r="R154" s="368" t="s">
+      <c r="R154" s="373" t="s">
         <v>729</v>
       </c>
-      <c r="S154" s="369"/>
-      <c r="U154" s="252" t="s">
+      <c r="S154" s="374"/>
+      <c r="U154" s="254" t="s">
         <v>886</v>
       </c>
-      <c r="V154" s="253"/>
-      <c r="X154" s="252" t="s">
+      <c r="V154" s="255"/>
+      <c r="X154" s="254" t="s">
         <v>887</v>
       </c>
-      <c r="Y154" s="253"/>
-      <c r="AA154" s="252" t="s">
+      <c r="Y154" s="255"/>
+      <c r="AA154" s="254" t="s">
         <v>888</v>
       </c>
-      <c r="AB154" s="253"/>
-      <c r="AD154" s="248" t="s">
+      <c r="AB154" s="255"/>
+      <c r="AD154" s="258" t="s">
         <v>882</v>
       </c>
-      <c r="AE154" s="366"/>
-      <c r="AF154" s="366"/>
-      <c r="AG154" s="249"/>
+      <c r="AE154" s="338"/>
+      <c r="AF154" s="338"/>
+      <c r="AG154" s="259"/>
       <c r="AI154" s="178"/>
       <c r="AJ154" s="178"/>
       <c r="AK154" s="113"/>
@@ -39474,32 +39805,32 @@
     <row r="155" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B155" s="6"/>
       <c r="C155" s="157"/>
-      <c r="D155" s="370" t="s">
+      <c r="D155" s="380" t="s">
         <v>869</v>
       </c>
-      <c r="E155" s="369"/>
-      <c r="H155" s="254"/>
-      <c r="I155" s="255"/>
+      <c r="E155" s="374"/>
+      <c r="H155" s="256"/>
+      <c r="I155" s="257"/>
       <c r="J155" s="157"/>
       <c r="K155" s="178"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="254"/>
-      <c r="O155" s="255"/>
+      <c r="N155" s="256"/>
+      <c r="O155" s="257"/>
       <c r="Q155" s="139"/>
-      <c r="R155" s="370" t="s">
+      <c r="R155" s="380" t="s">
         <v>730</v>
       </c>
-      <c r="S155" s="369"/>
-      <c r="U155" s="254"/>
-      <c r="V155" s="255"/>
-      <c r="X155" s="254"/>
-      <c r="Y155" s="255"/>
-      <c r="AA155" s="254"/>
-      <c r="AB155" s="255"/>
-      <c r="AD155" s="250"/>
-      <c r="AE155" s="367"/>
-      <c r="AF155" s="367"/>
-      <c r="AG155" s="251"/>
+      <c r="S155" s="374"/>
+      <c r="U155" s="256"/>
+      <c r="V155" s="257"/>
+      <c r="X155" s="256"/>
+      <c r="Y155" s="257"/>
+      <c r="AA155" s="256"/>
+      <c r="AB155" s="257"/>
+      <c r="AD155" s="260"/>
+      <c r="AE155" s="339"/>
+      <c r="AF155" s="339"/>
+      <c r="AG155" s="261"/>
       <c r="AI155" s="178"/>
       <c r="AJ155" s="178"/>
       <c r="AK155" s="113"/>
@@ -39516,10 +39847,10 @@
       <c r="K156" s="180"/>
       <c r="M156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="R156" s="254" t="s">
+      <c r="R156" s="256" t="s">
         <v>731</v>
       </c>
-      <c r="S156" s="255"/>
+      <c r="S156" s="257"/>
       <c r="V156" s="138"/>
       <c r="Y156" s="138"/>
       <c r="AB156" s="138"/>
@@ -39534,23 +39865,23 @@
       <c r="O157" s="5"/>
       <c r="R157" s="4"/>
       <c r="S157" s="6"/>
-      <c r="U157" s="368" t="s">
+      <c r="U157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="V157" s="369"/>
-      <c r="X157" s="368" t="s">
+      <c r="V157" s="374"/>
+      <c r="X157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="Y157" s="369"/>
-      <c r="AA157" s="368" t="s">
+      <c r="Y157" s="374"/>
+      <c r="AA157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="AB157" s="369"/>
-      <c r="AD157" s="368" t="s">
+      <c r="AB157" s="374"/>
+      <c r="AD157" s="373" t="s">
         <v>583</v>
       </c>
-      <c r="AE157" s="371"/>
-      <c r="AF157" s="369"/>
+      <c r="AE157" s="381"/>
+      <c r="AF157" s="374"/>
       <c r="AI157" s="178"/>
       <c r="AJ157" s="178"/>
       <c r="AK157" s="113"/>
@@ -39560,56 +39891,56 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="142"/>
-      <c r="F158" s="248" t="s">
+      <c r="F158" s="258" t="s">
         <v>879</v>
       </c>
-      <c r="G158" s="249"/>
+      <c r="G158" s="259"/>
       <c r="H158" s="140"/>
-      <c r="I158" s="372" t="s">
+      <c r="I158" s="376" t="s">
         <v>880</v>
       </c>
-      <c r="J158" s="373"/>
+      <c r="J158" s="377"/>
       <c r="K158" s="5"/>
-      <c r="L158" s="376" t="s">
+      <c r="L158" s="382" t="s">
         <v>884</v>
       </c>
-      <c r="M158" s="377"/>
+      <c r="M158" s="383"/>
       <c r="P158" s="6"/>
       <c r="R158" s="6"/>
-      <c r="U158" s="370" t="s">
+      <c r="U158" s="380" t="s">
         <v>889</v>
       </c>
-      <c r="V158" s="369"/>
-      <c r="X158" s="370" t="s">
+      <c r="V158" s="374"/>
+      <c r="X158" s="380" t="s">
         <v>890</v>
       </c>
-      <c r="Y158" s="369"/>
-      <c r="AA158" s="370" t="s">
+      <c r="Y158" s="374"/>
+      <c r="AA158" s="380" t="s">
         <v>891</v>
       </c>
-      <c r="AB158" s="369"/>
-      <c r="AD158" s="370" t="s">
+      <c r="AB158" s="374"/>
+      <c r="AD158" s="380" t="s">
         <v>883</v>
       </c>
-      <c r="AE158" s="371"/>
-      <c r="AF158" s="369"/>
+      <c r="AE158" s="381"/>
+      <c r="AF158" s="374"/>
       <c r="AI158" s="178"/>
       <c r="AJ158" s="178"/>
       <c r="AK158" s="113"/>
     </row>
     <row r="159" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="F159" s="250"/>
-      <c r="G159" s="251"/>
-      <c r="I159" s="374"/>
-      <c r="J159" s="375"/>
-      <c r="L159" s="378"/>
-      <c r="M159" s="379"/>
-      <c r="O159" s="248" t="s">
+      <c r="F159" s="260"/>
+      <c r="G159" s="261"/>
+      <c r="I159" s="378"/>
+      <c r="J159" s="379"/>
+      <c r="L159" s="384"/>
+      <c r="M159" s="385"/>
+      <c r="O159" s="258" t="s">
         <v>876</v>
       </c>
-      <c r="P159" s="366"/>
-      <c r="Q159" s="366"/>
-      <c r="R159" s="249"/>
+      <c r="P159" s="338"/>
+      <c r="Q159" s="338"/>
+      <c r="R159" s="259"/>
       <c r="U159" s="157"/>
       <c r="V159" s="172"/>
       <c r="W159" s="173"/>
@@ -39628,10 +39959,10 @@
       <c r="I160" s="181"/>
       <c r="L160" s="181"/>
       <c r="M160" s="157"/>
-      <c r="O160" s="250"/>
-      <c r="P160" s="367"/>
-      <c r="Q160" s="367"/>
-      <c r="R160" s="251"/>
+      <c r="O160" s="260"/>
+      <c r="P160" s="339"/>
+      <c r="Q160" s="339"/>
+      <c r="R160" s="261"/>
       <c r="V160" s="177"/>
       <c r="Z160" s="182"/>
       <c r="AE160" s="6"/>
@@ -39640,20 +39971,20 @@
       <c r="AK160" s="113"/>
     </row>
     <row r="161" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F161" s="372" t="s">
+      <c r="F161" s="376" t="s">
         <v>881</v>
       </c>
-      <c r="G161" s="373"/>
+      <c r="G161" s="377"/>
       <c r="I161" s="178"/>
       <c r="L161" s="178"/>
       <c r="Q161" s="138"/>
       <c r="V161" s="178"/>
-      <c r="Y161" s="248" t="s">
+      <c r="Y161" s="258" t="s">
         <v>892</v>
       </c>
-      <c r="Z161" s="366"/>
-      <c r="AA161" s="366"/>
-      <c r="AB161" s="249"/>
+      <c r="Z161" s="338"/>
+      <c r="AA161" s="338"/>
+      <c r="AB161" s="259"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="142"/>
       <c r="AE161" s="6"/>
@@ -39662,21 +39993,21 @@
       <c r="AK161" s="113"/>
     </row>
     <row r="162" spans="6:37" x14ac:dyDescent="0.3">
-      <c r="F162" s="374"/>
-      <c r="G162" s="375"/>
+      <c r="F162" s="378"/>
+      <c r="G162" s="379"/>
       <c r="I162" s="178"/>
       <c r="L162" s="188"/>
-      <c r="O162" s="248" t="s">
+      <c r="O162" s="258" t="s">
         <v>877</v>
       </c>
-      <c r="P162" s="366"/>
-      <c r="Q162" s="366"/>
-      <c r="R162" s="249"/>
+      <c r="P162" s="338"/>
+      <c r="Q162" s="338"/>
+      <c r="R162" s="259"/>
       <c r="V162" s="178"/>
-      <c r="Y162" s="250"/>
-      <c r="Z162" s="367"/>
-      <c r="AA162" s="367"/>
-      <c r="AB162" s="251"/>
+      <c r="Y162" s="260"/>
+      <c r="Z162" s="339"/>
+      <c r="AA162" s="339"/>
+      <c r="AB162" s="261"/>
       <c r="AI162" s="178"/>
       <c r="AJ162" s="178"/>
       <c r="AK162" s="113"/>
@@ -39685,10 +40016,10 @@
       <c r="F163" s="181"/>
       <c r="I163" s="178"/>
       <c r="L163" s="178"/>
-      <c r="O163" s="250"/>
-      <c r="P163" s="367"/>
-      <c r="Q163" s="367"/>
-      <c r="R163" s="251"/>
+      <c r="O163" s="260"/>
+      <c r="P163" s="339"/>
+      <c r="Q163" s="339"/>
+      <c r="R163" s="261"/>
       <c r="V163" s="178"/>
       <c r="W163" t="s">
         <v>191</v>
@@ -39727,18 +40058,18 @@
       <c r="T165" s="173"/>
       <c r="U165" s="173"/>
       <c r="V165" s="180"/>
-      <c r="X165" s="248" t="s">
+      <c r="X165" s="258" t="s">
         <v>893</v>
       </c>
-      <c r="Y165" s="366"/>
-      <c r="Z165" s="366"/>
-      <c r="AA165" s="249"/>
-      <c r="AC165" s="248" t="s">
+      <c r="Y165" s="338"/>
+      <c r="Z165" s="338"/>
+      <c r="AA165" s="259"/>
+      <c r="AC165" s="258" t="s">
         <v>894</v>
       </c>
-      <c r="AD165" s="366"/>
-      <c r="AE165" s="366"/>
-      <c r="AF165" s="249"/>
+      <c r="AD165" s="338"/>
+      <c r="AE165" s="338"/>
+      <c r="AF165" s="259"/>
       <c r="AI165" s="178"/>
       <c r="AJ165" s="178"/>
       <c r="AK165" s="113"/>
@@ -39747,14 +40078,14 @@
       <c r="F166" s="178"/>
       <c r="I166" s="178"/>
       <c r="P166" s="113"/>
-      <c r="X166" s="250"/>
-      <c r="Y166" s="367"/>
-      <c r="Z166" s="367"/>
-      <c r="AA166" s="251"/>
-      <c r="AC166" s="250"/>
-      <c r="AD166" s="367"/>
-      <c r="AE166" s="367"/>
-      <c r="AF166" s="251"/>
+      <c r="X166" s="260"/>
+      <c r="Y166" s="339"/>
+      <c r="Z166" s="339"/>
+      <c r="AA166" s="261"/>
+      <c r="AC166" s="260"/>
+      <c r="AD166" s="339"/>
+      <c r="AE166" s="339"/>
+      <c r="AF166" s="261"/>
       <c r="AI166" s="178"/>
       <c r="AJ166" s="178"/>
       <c r="AK166" s="113"/>
@@ -39773,14 +40104,14 @@
       <c r="F168" s="178"/>
       <c r="I168" s="178"/>
       <c r="P168" s="113"/>
-      <c r="Y168" s="252" t="s">
+      <c r="Y168" s="254" t="s">
         <v>895</v>
       </c>
-      <c r="Z168" s="253"/>
-      <c r="AD168" s="252" t="s">
+      <c r="Z168" s="255"/>
+      <c r="AD168" s="254" t="s">
         <v>898</v>
       </c>
-      <c r="AE168" s="253"/>
+      <c r="AE168" s="255"/>
       <c r="AI168" s="178"/>
       <c r="AJ168" s="178"/>
       <c r="AK168" s="113"/>
@@ -39790,12 +40121,12 @@
       <c r="I169" s="178"/>
       <c r="P169" s="113"/>
       <c r="X169" s="141"/>
-      <c r="Y169" s="254"/>
-      <c r="Z169" s="255"/>
+      <c r="Y169" s="256"/>
+      <c r="Z169" s="257"/>
       <c r="AA169" s="141"/>
       <c r="AB169" s="6"/>
-      <c r="AD169" s="254"/>
-      <c r="AE169" s="255"/>
+      <c r="AD169" s="256"/>
+      <c r="AE169" s="257"/>
       <c r="AF169" s="101"/>
       <c r="AG169" s="139"/>
       <c r="AH169" s="6"/>
@@ -39819,22 +40150,22 @@
       <c r="F171" s="178"/>
       <c r="I171" s="178"/>
       <c r="P171" s="113"/>
-      <c r="W171" s="252" t="s">
+      <c r="W171" s="254" t="s">
         <v>896</v>
       </c>
-      <c r="X171" s="253"/>
-      <c r="AA171" s="252" t="s">
+      <c r="X171" s="255"/>
+      <c r="AA171" s="254" t="s">
         <v>897</v>
       </c>
-      <c r="AB171" s="253"/>
-      <c r="AD171" s="252" t="s">
+      <c r="AB171" s="255"/>
+      <c r="AD171" s="254" t="s">
         <v>900</v>
       </c>
-      <c r="AE171" s="253"/>
-      <c r="AG171" s="252" t="s">
+      <c r="AE171" s="255"/>
+      <c r="AG171" s="254" t="s">
         <v>899</v>
       </c>
-      <c r="AH171" s="253"/>
+      <c r="AH171" s="255"/>
       <c r="AI171" s="178"/>
       <c r="AJ171" s="178"/>
       <c r="AK171" s="113"/>
@@ -39843,14 +40174,14 @@
       <c r="F172" s="178"/>
       <c r="I172" s="178"/>
       <c r="P172" s="113"/>
-      <c r="W172" s="254"/>
-      <c r="X172" s="255"/>
-      <c r="AA172" s="254"/>
-      <c r="AB172" s="255"/>
-      <c r="AD172" s="254"/>
-      <c r="AE172" s="255"/>
-      <c r="AG172" s="254"/>
-      <c r="AH172" s="255"/>
+      <c r="W172" s="256"/>
+      <c r="X172" s="257"/>
+      <c r="AA172" s="256"/>
+      <c r="AB172" s="257"/>
+      <c r="AD172" s="256"/>
+      <c r="AE172" s="257"/>
+      <c r="AG172" s="256"/>
+      <c r="AH172" s="257"/>
       <c r="AI172" s="178"/>
       <c r="AJ172" s="178"/>
       <c r="AK172" s="113"/>
@@ -39885,12 +40216,12 @@
       <c r="I175" s="178"/>
       <c r="P175" s="113"/>
       <c r="X175" s="6"/>
-      <c r="AB175" s="338" t="s">
+      <c r="AB175" s="361" t="s">
         <v>901</v>
       </c>
-      <c r="AC175" s="339"/>
-      <c r="AD175" s="339"/>
-      <c r="AE175" s="340"/>
+      <c r="AC175" s="362"/>
+      <c r="AD175" s="362"/>
+      <c r="AE175" s="363"/>
       <c r="AH175" s="6"/>
       <c r="AI175" s="178"/>
       <c r="AJ175" s="178"/>
@@ -39901,10 +40232,10 @@
       <c r="I176" s="178"/>
       <c r="P176" s="113"/>
       <c r="X176" s="6"/>
-      <c r="AB176" s="341"/>
-      <c r="AC176" s="342"/>
-      <c r="AD176" s="342"/>
-      <c r="AE176" s="343"/>
+      <c r="AB176" s="364"/>
+      <c r="AC176" s="365"/>
+      <c r="AD176" s="365"/>
+      <c r="AE176" s="366"/>
       <c r="AH176" s="6"/>
       <c r="AI176" s="178"/>
       <c r="AJ176" s="178"/>
@@ -39925,12 +40256,12 @@
       <c r="I178" s="178"/>
       <c r="P178" s="113"/>
       <c r="X178" s="6"/>
-      <c r="AB178" s="338" t="s">
+      <c r="AB178" s="361" t="s">
         <v>902</v>
       </c>
-      <c r="AC178" s="339"/>
-      <c r="AD178" s="339"/>
-      <c r="AE178" s="340"/>
+      <c r="AC178" s="362"/>
+      <c r="AD178" s="362"/>
+      <c r="AE178" s="363"/>
       <c r="AH178" s="6"/>
       <c r="AI178" s="178"/>
       <c r="AJ178" s="178"/>
@@ -39944,10 +40275,10 @@
       <c r="Y179" s="157"/>
       <c r="Z179" s="157"/>
       <c r="AA179" s="157"/>
-      <c r="AB179" s="341"/>
-      <c r="AC179" s="342"/>
-      <c r="AD179" s="342"/>
-      <c r="AE179" s="343"/>
+      <c r="AB179" s="364"/>
+      <c r="AC179" s="365"/>
+      <c r="AD179" s="365"/>
+      <c r="AE179" s="366"/>
       <c r="AF179" s="157"/>
       <c r="AG179" s="157"/>
       <c r="AI179" s="178"/>
@@ -40056,27 +40387,63 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H26:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="O33:O42"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="P27:R28"/>
-    <mergeCell ref="S27:V28"/>
-    <mergeCell ref="P29:R32"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="S33:V34"/>
-    <mergeCell ref="P35:R37"/>
+    <mergeCell ref="AD171:AE172"/>
+    <mergeCell ref="AB175:AE176"/>
+    <mergeCell ref="AB178:AE179"/>
+    <mergeCell ref="W124:Y127"/>
+    <mergeCell ref="AA124:AC127"/>
+    <mergeCell ref="AE124:AG127"/>
+    <mergeCell ref="Y161:AB162"/>
+    <mergeCell ref="X165:AA166"/>
+    <mergeCell ref="AC165:AF166"/>
+    <mergeCell ref="Y168:Z169"/>
+    <mergeCell ref="AA171:AB172"/>
+    <mergeCell ref="W171:X172"/>
+    <mergeCell ref="AD168:AE169"/>
+    <mergeCell ref="AG171:AH172"/>
+    <mergeCell ref="W151:Z152"/>
+    <mergeCell ref="AD154:AG155"/>
+    <mergeCell ref="U154:V155"/>
+    <mergeCell ref="X154:Y155"/>
+    <mergeCell ref="AA154:AB155"/>
+    <mergeCell ref="U157:V157"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="AD158:AF158"/>
+    <mergeCell ref="AA157:AB157"/>
+    <mergeCell ref="AA158:AB158"/>
+    <mergeCell ref="F158:G159"/>
+    <mergeCell ref="I158:J159"/>
+    <mergeCell ref="L158:M159"/>
+    <mergeCell ref="F161:G162"/>
+    <mergeCell ref="R156:S156"/>
+    <mergeCell ref="O159:R160"/>
+    <mergeCell ref="O162:R163"/>
+    <mergeCell ref="AD148:AG149"/>
+    <mergeCell ref="N151:Q152"/>
+    <mergeCell ref="AD151:AG152"/>
+    <mergeCell ref="N154:O155"/>
+    <mergeCell ref="R154:S154"/>
+    <mergeCell ref="R155:S155"/>
+    <mergeCell ref="E148:H149"/>
+    <mergeCell ref="E151:H152"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="H154:I155"/>
+    <mergeCell ref="AD157:AF157"/>
+    <mergeCell ref="Q144:T146"/>
+    <mergeCell ref="N148:Q149"/>
+    <mergeCell ref="K128:N129"/>
+    <mergeCell ref="Q128:T129"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="R131:S131"/>
+    <mergeCell ref="R132:S132"/>
+    <mergeCell ref="R133:S133"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="M132:N132"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="E144:H146"/>
     <mergeCell ref="K144:N146"/>
@@ -40093,63 +40460,27 @@
     <mergeCell ref="S42:V42"/>
     <mergeCell ref="P38:R41"/>
     <mergeCell ref="M26:N42"/>
-    <mergeCell ref="Q144:T146"/>
-    <mergeCell ref="N148:Q149"/>
-    <mergeCell ref="K128:N129"/>
-    <mergeCell ref="Q128:T129"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="R131:S131"/>
-    <mergeCell ref="R132:S132"/>
-    <mergeCell ref="R133:S133"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="F161:G162"/>
-    <mergeCell ref="R156:S156"/>
-    <mergeCell ref="O159:R160"/>
-    <mergeCell ref="O162:R163"/>
-    <mergeCell ref="AD148:AG149"/>
-    <mergeCell ref="N151:Q152"/>
-    <mergeCell ref="AD151:AG152"/>
-    <mergeCell ref="N154:O155"/>
-    <mergeCell ref="R154:S154"/>
-    <mergeCell ref="R155:S155"/>
-    <mergeCell ref="E148:H149"/>
-    <mergeCell ref="E151:H152"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="H154:I155"/>
-    <mergeCell ref="AD157:AF157"/>
-    <mergeCell ref="AD158:AF158"/>
-    <mergeCell ref="AA157:AB157"/>
-    <mergeCell ref="AA158:AB158"/>
-    <mergeCell ref="F158:G159"/>
-    <mergeCell ref="I158:J159"/>
-    <mergeCell ref="L158:M159"/>
-    <mergeCell ref="U154:V155"/>
-    <mergeCell ref="X154:Y155"/>
-    <mergeCell ref="AA154:AB155"/>
-    <mergeCell ref="U157:V157"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="X158:Y158"/>
-    <mergeCell ref="AD171:AE172"/>
-    <mergeCell ref="AB175:AE176"/>
-    <mergeCell ref="AB178:AE179"/>
-    <mergeCell ref="W124:Y127"/>
-    <mergeCell ref="AA124:AC127"/>
-    <mergeCell ref="AE124:AG127"/>
-    <mergeCell ref="Y161:AB162"/>
-    <mergeCell ref="X165:AA166"/>
-    <mergeCell ref="AC165:AF166"/>
-    <mergeCell ref="Y168:Z169"/>
-    <mergeCell ref="AA171:AB172"/>
-    <mergeCell ref="W171:X172"/>
-    <mergeCell ref="AD168:AE169"/>
-    <mergeCell ref="AG171:AH172"/>
-    <mergeCell ref="W151:Z152"/>
-    <mergeCell ref="AD154:AG155"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="P27:R28"/>
+    <mergeCell ref="S27:V28"/>
+    <mergeCell ref="P29:R32"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="S33:V34"/>
+    <mergeCell ref="P35:R37"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H26:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40159,10 +40490,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40612F-F0F0-4737-AA55-56B0EF5951F7}">
-  <dimension ref="A2:Z27"/>
+  <dimension ref="A2:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A33" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40293,36 +40624,12 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="407"/>
-      <c r="B20" s="407" t="s">
+      <c r="B20" t="s">
         <v>926</v>
       </c>
-      <c r="C20" s="407"/>
-      <c r="D20" s="407"/>
-      <c r="E20" s="407"/>
-      <c r="F20" s="407"/>
-      <c r="G20" s="407"/>
-      <c r="H20" s="408" t="s">
+      <c r="H20" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="I20" s="407"/>
-      <c r="J20" s="407"/>
-      <c r="K20" s="407"/>
-      <c r="L20" s="407"/>
-      <c r="M20" s="407"/>
-      <c r="N20" s="407"/>
-      <c r="O20" s="407"/>
-      <c r="P20" s="407"/>
-      <c r="Q20" s="407"/>
-      <c r="R20" s="407"/>
-      <c r="S20" s="407"/>
-      <c r="T20" s="407"/>
-      <c r="U20" s="407"/>
-      <c r="V20" s="407"/>
-      <c r="W20" s="407"/>
-      <c r="X20" s="407"/>
-      <c r="Y20" s="407"/>
-      <c r="Z20" s="407"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -40377,7 +40684,7 @@
         <v>409</v>
       </c>
       <c r="J25" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -40391,7 +40698,7 @@
         <v>936</v>
       </c>
       <c r="J26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -40402,7 +40709,645 @@
         <v>938</v>
       </c>
       <c r="J27" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J30" s="408" t="s">
+        <v>409</v>
+      </c>
+      <c r="K30" s="409"/>
+      <c r="L30" s="409"/>
+      <c r="M30" s="409"/>
+      <c r="N30" s="410"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J31" s="411"/>
+      <c r="K31" s="412"/>
+      <c r="L31" s="412"/>
+      <c r="M31" s="412"/>
+      <c r="N31" s="413"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F32" s="101"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="411"/>
+      <c r="K32" s="412"/>
+      <c r="L32" s="412"/>
+      <c r="M32" s="412"/>
+      <c r="N32" s="413"/>
+      <c r="Q32" s="408" t="s">
+        <v>952</v>
+      </c>
+      <c r="R32" s="409"/>
+      <c r="S32" s="410"/>
+      <c r="U32" s="448" t="s">
+        <v>955</v>
+      </c>
+      <c r="V32" s="449"/>
+      <c r="W32" s="450"/>
+    </row>
+    <row r="33" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F33" s="6"/>
+      <c r="J33" s="411"/>
+      <c r="K33" s="412"/>
+      <c r="L33" s="412"/>
+      <c r="M33" s="412"/>
+      <c r="N33" s="413"/>
+      <c r="Q33" s="411"/>
+      <c r="R33" s="412"/>
+      <c r="S33" s="413"/>
+      <c r="U33" s="451"/>
+      <c r="V33" s="452"/>
+      <c r="W33" s="453"/>
+    </row>
+    <row r="34" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F34" s="6"/>
+      <c r="J34" s="414"/>
+      <c r="K34" s="415"/>
+      <c r="L34" s="415"/>
+      <c r="M34" s="415"/>
+      <c r="N34" s="416"/>
+      <c r="Q34" s="414"/>
+      <c r="R34" s="415"/>
+      <c r="S34" s="416"/>
+      <c r="U34" s="454"/>
+      <c r="V34" s="455"/>
+      <c r="W34" s="456"/>
+    </row>
+    <row r="35" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F35" s="6"/>
+      <c r="L35" s="138"/>
+    </row>
+    <row r="36" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F36" s="6"/>
+      <c r="K36" s="421" t="s">
+        <v>957</v>
+      </c>
+      <c r="L36" s="422"/>
+      <c r="M36" s="423"/>
+      <c r="Q36" s="430" t="s">
+        <v>541</v>
+      </c>
+      <c r="R36" s="431"/>
+      <c r="S36" s="432"/>
+      <c r="U36" s="460" t="s">
+        <v>956</v>
+      </c>
+      <c r="V36" s="461"/>
+      <c r="W36" s="462"/>
+    </row>
+    <row r="37" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F37" s="6"/>
+      <c r="K37" s="424"/>
+      <c r="L37" s="425"/>
+      <c r="M37" s="426"/>
+      <c r="Q37" s="433"/>
+      <c r="R37" s="434"/>
+      <c r="S37" s="435"/>
+      <c r="U37" s="463"/>
+      <c r="V37" s="464"/>
+      <c r="W37" s="465"/>
+    </row>
+    <row r="38" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F38" s="6"/>
+      <c r="K38" s="427"/>
+      <c r="L38" s="428"/>
+      <c r="M38" s="429"/>
+      <c r="Q38" s="436"/>
+      <c r="R38" s="437"/>
+      <c r="S38" s="438"/>
+      <c r="U38" s="466"/>
+      <c r="V38" s="467"/>
+      <c r="W38" s="468"/>
+    </row>
+    <row r="39" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F39" s="6"/>
+      <c r="L39" s="138"/>
+    </row>
+    <row r="40" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F40" s="6"/>
+      <c r="K40" s="421" t="s">
+        <v>958</v>
+      </c>
+      <c r="L40" s="422"/>
+      <c r="M40" s="423"/>
+      <c r="Q40" s="361" t="s">
+        <v>954</v>
+      </c>
+      <c r="R40" s="362"/>
+      <c r="S40" s="363"/>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F41" s="6"/>
+      <c r="K41" s="424"/>
+      <c r="L41" s="425"/>
+      <c r="M41" s="426"/>
+      <c r="Q41" s="439"/>
+      <c r="R41" s="440"/>
+      <c r="S41" s="441"/>
+    </row>
+    <row r="42" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F42" s="6"/>
+      <c r="K42" s="427"/>
+      <c r="L42" s="428"/>
+      <c r="M42" s="429"/>
+      <c r="Q42" s="364"/>
+      <c r="R42" s="365"/>
+      <c r="S42" s="366"/>
+    </row>
+    <row r="43" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F43" s="6"/>
+      <c r="L43" s="138"/>
+    </row>
+    <row r="44" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F44" s="6"/>
+      <c r="K44" s="258" t="s">
+        <v>950</v>
+      </c>
+      <c r="L44" s="338"/>
+      <c r="M44" s="259"/>
+    </row>
+    <row r="45" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F45" s="6"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="260"/>
+      <c r="L45" s="339"/>
+      <c r="M45" s="261"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+      <c r="H47" s="421" t="s">
+        <v>930</v>
+      </c>
+      <c r="I47" s="422"/>
+      <c r="J47" s="423"/>
+      <c r="O47" s="408" t="s">
+        <v>948</v>
+      </c>
+      <c r="P47" s="409"/>
+      <c r="Q47" s="410"/>
+    </row>
+    <row r="48" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F48" s="6"/>
+      <c r="H48" s="424"/>
+      <c r="I48" s="425"/>
+      <c r="J48" s="426"/>
+      <c r="O48" s="411"/>
+      <c r="P48" s="412"/>
+      <c r="Q48" s="413"/>
+    </row>
+    <row r="49" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F49" s="6"/>
+      <c r="H49" s="427"/>
+      <c r="I49" s="428"/>
+      <c r="J49" s="429"/>
+      <c r="O49" s="414"/>
+      <c r="P49" s="415"/>
+      <c r="Q49" s="416"/>
+    </row>
+    <row r="50" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F51" s="6"/>
+      <c r="H51" s="361" t="s">
         <v>941</v>
+      </c>
+      <c r="I51" s="362"/>
+      <c r="J51" s="363"/>
+      <c r="O51" s="258" t="s">
+        <v>951</v>
+      </c>
+      <c r="P51" s="338"/>
+      <c r="Q51" s="259"/>
+    </row>
+    <row r="52" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F52" s="6"/>
+      <c r="H52" s="439"/>
+      <c r="I52" s="440"/>
+      <c r="J52" s="441"/>
+      <c r="O52" s="340"/>
+      <c r="P52" s="407"/>
+      <c r="Q52" s="342"/>
+    </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F53" s="6"/>
+      <c r="H53" s="364"/>
+      <c r="I53" s="365"/>
+      <c r="J53" s="366"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="260"/>
+      <c r="P53" s="339"/>
+      <c r="Q53" s="261"/>
+      <c r="R53" s="157"/>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="S54" s="6"/>
+    </row>
+    <row r="55" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F55" s="6"/>
+      <c r="H55" s="445" t="s">
+        <v>959</v>
+      </c>
+      <c r="I55" s="446"/>
+      <c r="J55" s="447"/>
+      <c r="M55" s="258" t="s">
+        <v>943</v>
+      </c>
+      <c r="N55" s="338"/>
+      <c r="O55" s="259"/>
+      <c r="Q55" s="258" t="s">
+        <v>944</v>
+      </c>
+      <c r="R55" s="338"/>
+      <c r="S55" s="259"/>
+    </row>
+    <row r="56" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="M56" s="260"/>
+      <c r="N56" s="339"/>
+      <c r="O56" s="261"/>
+      <c r="Q56" s="260"/>
+      <c r="R56" s="339"/>
+      <c r="S56" s="261"/>
+    </row>
+    <row r="57" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F57" s="6"/>
+      <c r="H57" s="418" t="s">
+        <v>953</v>
+      </c>
+      <c r="I57" s="419"/>
+      <c r="J57" s="420"/>
+      <c r="N57" s="6"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="M58" s="421" t="s">
+        <v>930</v>
+      </c>
+      <c r="N58" s="422"/>
+      <c r="O58" s="423"/>
+      <c r="Q58" s="421" t="s">
+        <v>960</v>
+      </c>
+      <c r="R58" s="422"/>
+      <c r="S58" s="422"/>
+      <c r="T58" s="423"/>
+    </row>
+    <row r="59" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F59" s="6"/>
+      <c r="H59" s="457" t="s">
+        <v>945</v>
+      </c>
+      <c r="I59" s="458"/>
+      <c r="J59" s="459"/>
+      <c r="M59" s="427"/>
+      <c r="N59" s="428"/>
+      <c r="O59" s="429"/>
+      <c r="Q59" s="427"/>
+      <c r="R59" s="428"/>
+      <c r="S59" s="428"/>
+      <c r="T59" s="429"/>
+    </row>
+    <row r="60" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F61" s="6"/>
+      <c r="H61" s="470"/>
+      <c r="I61" s="470"/>
+      <c r="J61" s="469"/>
+      <c r="M61" s="442" t="s">
+        <v>939</v>
+      </c>
+      <c r="N61" s="443"/>
+      <c r="O61" s="444"/>
+      <c r="Q61" s="442" t="s">
+        <v>940</v>
+      </c>
+      <c r="R61" s="443"/>
+      <c r="S61" s="444"/>
+    </row>
+    <row r="62" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F62" s="6"/>
+      <c r="H62" s="470"/>
+      <c r="I62" s="470"/>
+      <c r="J62" s="469"/>
+      <c r="N62" s="6"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F63" s="6"/>
+      <c r="H63" s="470"/>
+      <c r="I63" s="470"/>
+      <c r="J63" s="469"/>
+      <c r="M63" s="445" t="s">
+        <v>961</v>
+      </c>
+      <c r="N63" s="446"/>
+      <c r="O63" s="447"/>
+      <c r="Q63" s="445" t="s">
+        <v>962</v>
+      </c>
+      <c r="R63" s="446"/>
+      <c r="S63" s="447"/>
+    </row>
+    <row r="64" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="L65" s="457" t="s">
+        <v>946</v>
+      </c>
+      <c r="M65" s="458"/>
+      <c r="N65" s="458"/>
+      <c r="O65" s="459"/>
+      <c r="Q65" s="457" t="s">
+        <v>947</v>
+      </c>
+      <c r="R65" s="458"/>
+      <c r="S65" s="459"/>
+    </row>
+    <row r="66" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="N67" s="140"/>
+      <c r="O67" s="408" t="s">
+        <v>953</v>
+      </c>
+      <c r="P67" s="409"/>
+      <c r="Q67" s="410"/>
+      <c r="R67" s="140"/>
+      <c r="S67" s="417"/>
+    </row>
+    <row r="68" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F68" s="6"/>
+      <c r="G68" s="417"/>
+      <c r="H68" s="417"/>
+      <c r="I68" s="417"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="417"/>
+      <c r="M68" s="417"/>
+      <c r="N68" s="417"/>
+      <c r="O68" s="414"/>
+      <c r="P68" s="415"/>
+      <c r="Q68" s="416"/>
+      <c r="R68" s="417"/>
+      <c r="S68" s="417"/>
+    </row>
+    <row r="69" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F69" s="6"/>
+      <c r="G69" s="417"/>
+      <c r="H69" s="417"/>
+      <c r="I69" s="417"/>
+      <c r="J69" s="5"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="417"/>
+      <c r="R69" s="417"/>
+    </row>
+    <row r="70" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F70" s="6"/>
+      <c r="G70" s="417"/>
+      <c r="H70" s="417"/>
+      <c r="I70" s="417"/>
+      <c r="K70" s="5"/>
+      <c r="O70" s="115"/>
+    </row>
+    <row r="71" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F71" s="5"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="258" t="s">
+        <v>949</v>
+      </c>
+      <c r="K71" s="338"/>
+      <c r="L71" s="338"/>
+      <c r="M71" s="338"/>
+      <c r="N71" s="259"/>
+      <c r="O71" s="140"/>
+    </row>
+    <row r="72" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="F72" s="417"/>
+      <c r="G72" s="417"/>
+      <c r="H72" s="417"/>
+      <c r="I72" s="417"/>
+      <c r="J72" s="340"/>
+      <c r="K72" s="407"/>
+      <c r="L72" s="407"/>
+      <c r="M72" s="407"/>
+      <c r="N72" s="342"/>
+    </row>
+    <row r="73" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="J73" s="340"/>
+      <c r="K73" s="407"/>
+      <c r="L73" s="407"/>
+      <c r="M73" s="407"/>
+      <c r="N73" s="342"/>
+    </row>
+    <row r="74" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="J74" s="340"/>
+      <c r="K74" s="407"/>
+      <c r="L74" s="407"/>
+      <c r="M74" s="407"/>
+      <c r="N74" s="342"/>
+    </row>
+    <row r="75" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="J75" s="260"/>
+      <c r="K75" s="339"/>
+      <c r="L75" s="339"/>
+      <c r="M75" s="339"/>
+      <c r="N75" s="261"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="U32:W34"/>
+    <mergeCell ref="U36:W38"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="J71:N75"/>
+    <mergeCell ref="O67:Q68"/>
+    <mergeCell ref="Q55:S56"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M58:O59"/>
+    <mergeCell ref="Q58:T59"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="H51:J53"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="O51:Q53"/>
+    <mergeCell ref="M55:O56"/>
+    <mergeCell ref="J30:N34"/>
+    <mergeCell ref="K36:M38"/>
+    <mergeCell ref="K40:M42"/>
+    <mergeCell ref="H47:J49"/>
+    <mergeCell ref="O47:Q49"/>
+    <mergeCell ref="K44:M45"/>
+    <mergeCell ref="Q32:S34"/>
+    <mergeCell ref="Q36:S38"/>
+    <mergeCell ref="Q40:S42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24440316-05C5-4363-8CEC-77EC4BF7C9C5}">
+  <dimension ref="A2:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>963</v>
+      </c>
+      <c r="E2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>964</v>
+      </c>
+      <c r="E3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>965</v>
+      </c>
+      <c r="E4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -41658,12 +42603,12 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="205" t="s">
+      <c r="K65" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="L65" s="206"/>
-      <c r="M65" s="206"/>
-      <c r="N65" s="207"/>
+      <c r="L65" s="199"/>
+      <c r="M65" s="199"/>
+      <c r="N65" s="200"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -41688,10 +42633,10 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="208"/>
-      <c r="L66" s="209"/>
-      <c r="M66" s="209"/>
-      <c r="N66" s="210"/>
+      <c r="K66" s="201"/>
+      <c r="L66" s="202"/>
+      <c r="M66" s="202"/>
+      <c r="N66" s="203"/>
       <c r="O66" s="12"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -41716,10 +42661,10 @@
       <c r="H67" s="10"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="211"/>
-      <c r="L67" s="212"/>
-      <c r="M67" s="212"/>
-      <c r="N67" s="213"/>
+      <c r="K67" s="204"/>
+      <c r="L67" s="205"/>
+      <c r="M67" s="205"/>
+      <c r="N67" s="206"/>
       <c r="O67" s="13"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -41797,20 +42742,20 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="214" t="s">
+      <c r="H70" s="228" t="s">
         <v>195</v>
       </c>
-      <c r="I70" s="215"/>
-      <c r="J70" s="215"/>
-      <c r="K70" s="216"/>
+      <c r="I70" s="229"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="230"/>
       <c r="L70" s="10"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="214" t="s">
+      <c r="N70" s="228" t="s">
         <v>194</v>
       </c>
-      <c r="O70" s="215"/>
-      <c r="P70" s="215"/>
-      <c r="Q70" s="216"/>
+      <c r="O70" s="229"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="230"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
@@ -41861,10 +42806,10 @@
       <c r="I72" s="10"/>
       <c r="J72" s="13"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="217" t="s">
+      <c r="L72" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="M72" s="218"/>
+      <c r="M72" s="209"/>
       <c r="N72" s="11"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -41891,8 +42836,8 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="219"/>
-      <c r="M73" s="220"/>
+      <c r="L73" s="210"/>
+      <c r="M73" s="212"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -41949,10 +42894,10 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="13"/>
-      <c r="L75" s="217" t="s">
+      <c r="L75" s="207" t="s">
         <v>192</v>
       </c>
-      <c r="M75" s="218"/>
+      <c r="M75" s="209"/>
       <c r="N75" s="16"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -41979,8 +42924,8 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="13"/>
-      <c r="L76" s="219"/>
-      <c r="M76" s="220"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="212"/>
       <c r="N76" s="10" t="s">
         <v>191</v>
       </c>
@@ -42092,12 +43037,12 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="13"/>
-      <c r="K80" s="205" t="s">
+      <c r="K80" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="L80" s="206"/>
-      <c r="M80" s="206"/>
-      <c r="N80" s="207"/>
+      <c r="L80" s="199"/>
+      <c r="M80" s="199"/>
+      <c r="N80" s="200"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -42122,10 +43067,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="12"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="208"/>
-      <c r="L81" s="209"/>
-      <c r="M81" s="209"/>
-      <c r="N81" s="210"/>
+      <c r="K81" s="201"/>
+      <c r="L81" s="202"/>
+      <c r="M81" s="202"/>
+      <c r="N81" s="203"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="10"/>
@@ -42150,10 +43095,10 @@
       <c r="H82" s="13"/>
       <c r="I82" s="10"/>
       <c r="J82" s="13"/>
-      <c r="K82" s="211"/>
-      <c r="L82" s="212"/>
-      <c r="M82" s="212"/>
-      <c r="N82" s="213"/>
+      <c r="K82" s="204"/>
+      <c r="L82" s="205"/>
+      <c r="M82" s="205"/>
+      <c r="N82" s="206"/>
       <c r="O82" s="10"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="10"/>
@@ -42203,20 +43148,20 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="217" t="s">
+      <c r="H84" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="223"/>
-      <c r="J84" s="218"/>
+      <c r="I84" s="208"/>
+      <c r="J84" s="209"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="13"/>
-      <c r="O84" s="217" t="s">
+      <c r="O84" s="207" t="s">
         <v>188</v>
       </c>
-      <c r="P84" s="223"/>
-      <c r="Q84" s="218"/>
+      <c r="P84" s="208"/>
+      <c r="Q84" s="209"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
@@ -42235,16 +43180,16 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="219"/>
-      <c r="I85" s="224"/>
-      <c r="J85" s="220"/>
+      <c r="H85" s="210"/>
+      <c r="I85" s="211"/>
+      <c r="J85" s="212"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="13"/>
-      <c r="O85" s="219"/>
-      <c r="P85" s="224"/>
-      <c r="Q85" s="220"/>
+      <c r="O85" s="210"/>
+      <c r="P85" s="211"/>
+      <c r="Q85" s="212"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
@@ -42290,13 +43235,13 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="225" t="s">
+      <c r="G87" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="H87" s="226"/>
-      <c r="I87" s="226"/>
-      <c r="J87" s="226"/>
-      <c r="K87" s="227"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="220"/>
+      <c r="K87" s="221"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -42320,13 +43265,13 @@
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="228" t="s">
+      <c r="G88" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="H88" s="229"/>
-      <c r="I88" s="229"/>
-      <c r="J88" s="229"/>
-      <c r="K88" s="230"/>
+      <c r="H88" s="223"/>
+      <c r="I88" s="223"/>
+      <c r="J88" s="223"/>
+      <c r="K88" s="224"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -42377,17 +43322,17 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="217" t="s">
+      <c r="F90" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="218"/>
+      <c r="G90" s="209"/>
       <c r="H90" s="11"/>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="217" t="s">
+      <c r="K90" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="L90" s="218"/>
+      <c r="L90" s="209"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -42409,13 +43354,13 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="219"/>
-      <c r="G91" s="220"/>
+      <c r="F91" s="210"/>
+      <c r="G91" s="212"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="219"/>
-      <c r="L91" s="220"/>
+      <c r="K91" s="210"/>
+      <c r="L91" s="212"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -42492,12 +43437,12 @@
       <c r="B94" s="13"/>
       <c r="C94" s="10"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="189" t="s">
+      <c r="E94" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="190"/>
-      <c r="G94" s="190"/>
-      <c r="H94" s="191"/>
+      <c r="F94" s="196"/>
+      <c r="G94" s="196"/>
+      <c r="H94" s="197"/>
       <c r="I94" s="13"/>
       <c r="J94" s="10"/>
       <c r="K94" s="13"/>
@@ -42579,19 +43524,19 @@
       <c r="C97" s="13"/>
       <c r="D97" s="10"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="189" t="s">
+      <c r="F97" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="191"/>
+      <c r="G97" s="197"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="205" t="s">
+      <c r="K97" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="206"/>
-      <c r="M97" s="206"/>
-      <c r="N97" s="207"/>
+      <c r="L97" s="199"/>
+      <c r="M97" s="199"/>
+      <c r="N97" s="200"/>
       <c r="O97" s="12"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="10"/>
@@ -42616,10 +43561,10 @@
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="208"/>
-      <c r="L98" s="209"/>
-      <c r="M98" s="209"/>
-      <c r="N98" s="210"/>
+      <c r="K98" s="201"/>
+      <c r="L98" s="202"/>
+      <c r="M98" s="202"/>
+      <c r="N98" s="203"/>
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -42639,17 +43584,17 @@
       <c r="C99" s="13"/>
       <c r="D99" s="10"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="189" t="s">
+      <c r="F99" s="195" t="s">
         <v>180</v>
       </c>
-      <c r="G99" s="191"/>
+      <c r="G99" s="197"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="211"/>
-      <c r="L99" s="212"/>
-      <c r="M99" s="212"/>
-      <c r="N99" s="213"/>
+      <c r="K99" s="204"/>
+      <c r="L99" s="205"/>
+      <c r="M99" s="205"/>
+      <c r="N99" s="206"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -42702,12 +43647,12 @@
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="201" t="s">
+      <c r="K101" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="L101" s="221"/>
-      <c r="M101" s="221"/>
-      <c r="N101" s="202"/>
+      <c r="L101" s="190"/>
+      <c r="M101" s="190"/>
+      <c r="N101" s="191"/>
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
       <c r="Q101" s="10"/>
@@ -42732,10 +43677,10 @@
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="203"/>
-      <c r="L102" s="222"/>
-      <c r="M102" s="222"/>
-      <c r="N102" s="204"/>
+      <c r="K102" s="192"/>
+      <c r="L102" s="193"/>
+      <c r="M102" s="193"/>
+      <c r="N102" s="194"/>
       <c r="O102" s="10"/>
       <c r="P102" s="13"/>
       <c r="Q102" s="10"/>
@@ -42784,21 +43729,21 @@
       <c r="D104" s="10"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="192" t="s">
+      <c r="G104" s="213" t="s">
         <v>178</v>
       </c>
-      <c r="H104" s="193"/>
-      <c r="I104" s="194"/>
+      <c r="H104" s="214"/>
+      <c r="I104" s="215"/>
       <c r="J104" s="12"/>
       <c r="K104" s="11"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="13"/>
-      <c r="O104" s="189" t="s">
+      <c r="O104" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="P104" s="190"/>
-      <c r="Q104" s="191"/>
+      <c r="P104" s="196"/>
+      <c r="Q104" s="197"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
@@ -42816,9 +43761,9 @@
       <c r="D105" s="10"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="195"/>
-      <c r="H105" s="196"/>
-      <c r="I105" s="197"/>
+      <c r="G105" s="216"/>
+      <c r="H105" s="217"/>
+      <c r="I105" s="218"/>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
@@ -42905,21 +43850,21 @@
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
       <c r="K108" s="13"/>
-      <c r="L108" s="231" t="s">
+      <c r="L108" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="M108" s="232"/>
-      <c r="N108" s="232"/>
-      <c r="O108" s="232"/>
-      <c r="P108" s="233"/>
+      <c r="M108" s="226"/>
+      <c r="N108" s="226"/>
+      <c r="O108" s="226"/>
+      <c r="P108" s="227"/>
       <c r="Q108" s="13"/>
-      <c r="R108" s="214" t="s">
+      <c r="R108" s="228" t="s">
         <v>175</v>
       </c>
-      <c r="S108" s="215"/>
-      <c r="T108" s="215"/>
-      <c r="U108" s="215"/>
-      <c r="V108" s="216"/>
+      <c r="S108" s="229"/>
+      <c r="T108" s="229"/>
+      <c r="U108" s="229"/>
+      <c r="V108" s="230"/>
       <c r="W108" s="13"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="10"/>
@@ -42965,20 +43910,20 @@
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="13"/>
-      <c r="L110" s="217" t="s">
+      <c r="L110" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="M110" s="223"/>
-      <c r="N110" s="218"/>
+      <c r="M110" s="208"/>
+      <c r="N110" s="209"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="13"/>
-      <c r="S110" s="198" t="s">
+      <c r="S110" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="T110" s="199"/>
-      <c r="U110" s="200"/>
+      <c r="T110" s="232"/>
+      <c r="U110" s="233"/>
       <c r="V110" s="10"/>
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
@@ -42997,9 +43942,9 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="13"/>
-      <c r="L111" s="219"/>
-      <c r="M111" s="224"/>
-      <c r="N111" s="220"/>
+      <c r="L111" s="210"/>
+      <c r="M111" s="211"/>
+      <c r="N111" s="212"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -43032,10 +43977,10 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
-      <c r="S112" s="201" t="s">
+      <c r="S112" s="189" t="s">
         <v>172</v>
       </c>
-      <c r="T112" s="202"/>
+      <c r="T112" s="191"/>
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
       <c r="W112" s="11"/>
@@ -43048,26 +43993,26 @@
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="205" t="s">
+      <c r="E113" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="F113" s="206"/>
-      <c r="G113" s="206"/>
-      <c r="H113" s="207"/>
+      <c r="F113" s="199"/>
+      <c r="G113" s="199"/>
+      <c r="H113" s="200"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="13"/>
-      <c r="L113" s="198" t="s">
+      <c r="L113" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="M113" s="199"/>
-      <c r="N113" s="200"/>
+      <c r="M113" s="232"/>
+      <c r="N113" s="233"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
-      <c r="S113" s="203"/>
-      <c r="T113" s="204"/>
+      <c r="S113" s="192"/>
+      <c r="T113" s="194"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
       <c r="W113" s="10"/>
@@ -43080,10 +44025,10 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="208"/>
-      <c r="F114" s="209"/>
-      <c r="G114" s="209"/>
-      <c r="H114" s="210"/>
+      <c r="E114" s="201"/>
+      <c r="F114" s="202"/>
+      <c r="G114" s="202"/>
+      <c r="H114" s="203"/>
       <c r="I114" s="10"/>
       <c r="J114" s="10"/>
       <c r="K114" s="10"/>
@@ -43108,18 +44053,18 @@
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="211"/>
-      <c r="F115" s="212"/>
-      <c r="G115" s="212"/>
-      <c r="H115" s="213"/>
+      <c r="E115" s="204"/>
+      <c r="F115" s="205"/>
+      <c r="G115" s="205"/>
+      <c r="H115" s="206"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
       <c r="K115" s="13"/>
-      <c r="L115" s="198" t="s">
+      <c r="L115" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="M115" s="199"/>
-      <c r="N115" s="200"/>
+      <c r="M115" s="232"/>
+      <c r="N115" s="233"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -43173,11 +44118,11 @@
       <c r="I117" s="10"/>
       <c r="J117" s="10"/>
       <c r="K117" s="13"/>
-      <c r="L117" s="198" t="s">
+      <c r="L117" s="231" t="s">
         <v>168</v>
       </c>
-      <c r="M117" s="199"/>
-      <c r="N117" s="200"/>
+      <c r="M117" s="232"/>
+      <c r="N117" s="233"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -43282,18 +44227,18 @@
       <c r="D121" s="10"/>
       <c r="E121" s="13"/>
       <c r="F121" s="11"/>
-      <c r="G121" s="192" t="s">
+      <c r="G121" s="213" t="s">
         <v>167</v>
       </c>
-      <c r="H121" s="194"/>
+      <c r="H121" s="215"/>
       <c r="I121" s="12"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="205" t="s">
+      <c r="K121" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="L121" s="206"/>
-      <c r="M121" s="206"/>
-      <c r="N121" s="207"/>
+      <c r="L121" s="199"/>
+      <c r="M121" s="199"/>
+      <c r="N121" s="200"/>
       <c r="O121" s="12"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
@@ -43314,14 +44259,14 @@
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="195"/>
-      <c r="H122" s="197"/>
+      <c r="G122" s="216"/>
+      <c r="H122" s="218"/>
       <c r="I122" s="10"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="208"/>
-      <c r="L122" s="209"/>
-      <c r="M122" s="209"/>
-      <c r="N122" s="210"/>
+      <c r="K122" s="201"/>
+      <c r="L122" s="202"/>
+      <c r="M122" s="202"/>
+      <c r="N122" s="203"/>
       <c r="O122" s="13"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
@@ -43346,10 +44291,10 @@
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="211"/>
-      <c r="L123" s="212"/>
-      <c r="M123" s="212"/>
-      <c r="N123" s="213"/>
+      <c r="K123" s="204"/>
+      <c r="L123" s="205"/>
+      <c r="M123" s="205"/>
+      <c r="N123" s="206"/>
       <c r="O123" s="13"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
@@ -43424,27 +44369,27 @@
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="192" t="s">
+      <c r="E126" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="F126" s="193"/>
-      <c r="G126" s="194"/>
+      <c r="F126" s="214"/>
+      <c r="G126" s="215"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="192" t="s">
+      <c r="I126" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="J126" s="193"/>
-      <c r="K126" s="193"/>
-      <c r="L126" s="193"/>
-      <c r="M126" s="194"/>
+      <c r="J126" s="214"/>
+      <c r="K126" s="214"/>
+      <c r="L126" s="214"/>
+      <c r="M126" s="215"/>
       <c r="N126" s="13"/>
-      <c r="O126" s="192" t="s">
+      <c r="O126" s="213" t="s">
         <v>163</v>
       </c>
-      <c r="P126" s="193"/>
-      <c r="Q126" s="193"/>
-      <c r="R126" s="193"/>
-      <c r="S126" s="194"/>
+      <c r="P126" s="214"/>
+      <c r="Q126" s="214"/>
+      <c r="R126" s="214"/>
+      <c r="S126" s="215"/>
       <c r="T126" s="11"/>
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
@@ -43458,21 +44403,21 @@
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="195"/>
-      <c r="F127" s="196"/>
-      <c r="G127" s="197"/>
+      <c r="E127" s="216"/>
+      <c r="F127" s="217"/>
+      <c r="G127" s="218"/>
       <c r="H127" s="13"/>
-      <c r="I127" s="195"/>
-      <c r="J127" s="196"/>
-      <c r="K127" s="196"/>
-      <c r="L127" s="196"/>
-      <c r="M127" s="197"/>
+      <c r="I127" s="216"/>
+      <c r="J127" s="217"/>
+      <c r="K127" s="217"/>
+      <c r="L127" s="217"/>
+      <c r="M127" s="218"/>
       <c r="N127" s="13"/>
-      <c r="O127" s="195"/>
-      <c r="P127" s="196"/>
-      <c r="Q127" s="196"/>
-      <c r="R127" s="196"/>
-      <c r="S127" s="197"/>
+      <c r="O127" s="216"/>
+      <c r="P127" s="217"/>
+      <c r="Q127" s="217"/>
+      <c r="R127" s="217"/>
+      <c r="S127" s="218"/>
       <c r="T127" s="13"/>
       <c r="U127" s="10"/>
       <c r="V127" s="10"/>
@@ -43514,11 +44459,11 @@
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="189" t="s">
+      <c r="E129" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="F129" s="190"/>
-      <c r="G129" s="191"/>
+      <c r="F129" s="196"/>
+      <c r="G129" s="197"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -43572,11 +44517,11 @@
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="192" t="s">
+      <c r="E131" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="193"/>
-      <c r="G131" s="194"/>
+      <c r="F131" s="214"/>
+      <c r="G131" s="215"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -43602,9 +44547,9 @@
       <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="195"/>
-      <c r="F132" s="196"/>
-      <c r="G132" s="197"/>
+      <c r="E132" s="216"/>
+      <c r="F132" s="217"/>
+      <c r="G132" s="218"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -43739,6 +44684,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="E131:G132"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="S112:T113"/>
+    <mergeCell ref="E113:H115"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="K121:N123"/>
+    <mergeCell ref="E126:G127"/>
+    <mergeCell ref="I126:M127"/>
+    <mergeCell ref="G121:H122"/>
+    <mergeCell ref="K97:N99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="K65:N67"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="L72:M73"/>
+    <mergeCell ref="L75:M76"/>
     <mergeCell ref="K101:N102"/>
     <mergeCell ref="O104:Q104"/>
     <mergeCell ref="K80:N82"/>
@@ -43755,25 +44719,6 @@
     <mergeCell ref="L108:P108"/>
     <mergeCell ref="R108:V108"/>
     <mergeCell ref="F97:G97"/>
-    <mergeCell ref="K97:N99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="K65:N67"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="L72:M73"/>
-    <mergeCell ref="L75:M76"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="E131:G132"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="S112:T113"/>
-    <mergeCell ref="E113:H115"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="L117:N117"/>
-    <mergeCell ref="K121:N123"/>
-    <mergeCell ref="E126:G127"/>
-    <mergeCell ref="I126:M127"/>
-    <mergeCell ref="G121:H122"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44318,12 +45263,12 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="247" t="s">
+      <c r="G87" s="234" t="s">
         <v>300</v>
       </c>
-      <c r="H87" s="247"/>
-      <c r="I87" s="247"/>
-      <c r="J87" s="247"/>
+      <c r="H87" s="234"/>
+      <c r="I87" s="234"/>
+      <c r="J87" s="234"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
@@ -44356,17 +45301,17 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="247"/>
-      <c r="H88" s="247"/>
-      <c r="I88" s="247"/>
-      <c r="J88" s="247"/>
+      <c r="G88" s="234"/>
+      <c r="H88" s="234"/>
+      <c r="I88" s="234"/>
+      <c r="J88" s="234"/>
       <c r="K88" s="98"/>
-      <c r="L88" s="245" t="s">
+      <c r="L88" s="235" t="s">
         <v>299</v>
       </c>
-      <c r="M88" s="245"/>
-      <c r="N88" s="245"/>
-      <c r="O88" s="245"/>
+      <c r="M88" s="235"/>
+      <c r="N88" s="235"/>
+      <c r="O88" s="235"/>
       <c r="P88" s="81"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
@@ -44375,17 +45320,17 @@
       <c r="U88" s="19"/>
       <c r="V88" s="19"/>
       <c r="W88" s="105"/>
-      <c r="X88" s="234" t="s">
+      <c r="X88" s="238" t="s">
         <v>298</v>
       </c>
-      <c r="Y88" s="235"/>
-      <c r="Z88" s="235"/>
-      <c r="AA88" s="235"/>
-      <c r="AB88" s="235"/>
-      <c r="AC88" s="235"/>
-      <c r="AD88" s="235"/>
-      <c r="AE88" s="235"/>
-      <c r="AF88" s="236"/>
+      <c r="Y88" s="239"/>
+      <c r="Z88" s="239"/>
+      <c r="AA88" s="239"/>
+      <c r="AB88" s="239"/>
+      <c r="AC88" s="239"/>
+      <c r="AD88" s="239"/>
+      <c r="AE88" s="239"/>
+      <c r="AF88" s="240"/>
       <c r="AG88" s="18"/>
       <c r="AH88" s="18"/>
     </row>
@@ -44396,15 +45341,15 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="247"/>
-      <c r="H89" s="247"/>
-      <c r="I89" s="247"/>
-      <c r="J89" s="247"/>
+      <c r="G89" s="234"/>
+      <c r="H89" s="234"/>
+      <c r="I89" s="234"/>
+      <c r="J89" s="234"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="245"/>
-      <c r="M89" s="245"/>
-      <c r="N89" s="245"/>
-      <c r="O89" s="245"/>
+      <c r="L89" s="235"/>
+      <c r="M89" s="235"/>
+      <c r="N89" s="235"/>
+      <c r="O89" s="235"/>
       <c r="P89" s="80"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
@@ -44413,15 +45358,15 @@
       <c r="U89" s="19"/>
       <c r="V89" s="19"/>
       <c r="W89" s="105"/>
-      <c r="X89" s="237"/>
-      <c r="Y89" s="238"/>
-      <c r="Z89" s="238"/>
-      <c r="AA89" s="238"/>
-      <c r="AB89" s="238"/>
-      <c r="AC89" s="238"/>
-      <c r="AD89" s="238"/>
-      <c r="AE89" s="238"/>
-      <c r="AF89" s="239"/>
+      <c r="X89" s="241"/>
+      <c r="Y89" s="242"/>
+      <c r="Z89" s="242"/>
+      <c r="AA89" s="242"/>
+      <c r="AB89" s="242"/>
+      <c r="AC89" s="242"/>
+      <c r="AD89" s="242"/>
+      <c r="AE89" s="242"/>
+      <c r="AF89" s="243"/>
       <c r="AG89" s="18"/>
       <c r="AH89" s="18"/>
     </row>
@@ -44432,15 +45377,15 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="247"/>
-      <c r="H90" s="247"/>
-      <c r="I90" s="247"/>
-      <c r="J90" s="247"/>
+      <c r="G90" s="234"/>
+      <c r="H90" s="234"/>
+      <c r="I90" s="234"/>
+      <c r="J90" s="234"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="245"/>
-      <c r="M90" s="245"/>
-      <c r="N90" s="245"/>
-      <c r="O90" s="245"/>
+      <c r="L90" s="235"/>
+      <c r="M90" s="235"/>
+      <c r="N90" s="235"/>
+      <c r="O90" s="235"/>
       <c r="P90" s="36"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
@@ -44449,15 +45394,15 @@
       <c r="U90" s="19"/>
       <c r="V90" s="19"/>
       <c r="W90" s="105"/>
-      <c r="X90" s="237"/>
-      <c r="Y90" s="238"/>
-      <c r="Z90" s="238"/>
-      <c r="AA90" s="238"/>
-      <c r="AB90" s="238"/>
-      <c r="AC90" s="238"/>
-      <c r="AD90" s="238"/>
-      <c r="AE90" s="238"/>
-      <c r="AF90" s="239"/>
+      <c r="X90" s="241"/>
+      <c r="Y90" s="242"/>
+      <c r="Z90" s="242"/>
+      <c r="AA90" s="242"/>
+      <c r="AB90" s="242"/>
+      <c r="AC90" s="242"/>
+      <c r="AD90" s="242"/>
+      <c r="AE90" s="242"/>
+      <c r="AF90" s="243"/>
       <c r="AG90" s="18"/>
       <c r="AH90" s="18"/>
     </row>
@@ -44485,15 +45430,15 @@
       <c r="U91" s="19"/>
       <c r="V91" s="19"/>
       <c r="W91" s="105"/>
-      <c r="X91" s="240"/>
-      <c r="Y91" s="241"/>
-      <c r="Z91" s="241"/>
-      <c r="AA91" s="241"/>
-      <c r="AB91" s="241"/>
-      <c r="AC91" s="241"/>
-      <c r="AD91" s="241"/>
-      <c r="AE91" s="241"/>
-      <c r="AF91" s="242"/>
+      <c r="X91" s="244"/>
+      <c r="Y91" s="245"/>
+      <c r="Z91" s="245"/>
+      <c r="AA91" s="245"/>
+      <c r="AB91" s="245"/>
+      <c r="AC91" s="245"/>
+      <c r="AD91" s="245"/>
+      <c r="AE91" s="245"/>
+      <c r="AF91" s="246"/>
       <c r="AG91" s="18"/>
       <c r="AH91" s="18"/>
     </row>
@@ -44536,21 +45481,21 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="245" t="s">
+      <c r="C93" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="245"/>
-      <c r="E93" s="245"/>
-      <c r="F93" s="245"/>
+      <c r="D93" s="235"/>
+      <c r="E93" s="235"/>
+      <c r="F93" s="235"/>
       <c r="G93" s="19"/>
       <c r="H93" s="103"/>
       <c r="I93" s="19"/>
-      <c r="J93" s="245" t="s">
+      <c r="J93" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="K93" s="245"/>
-      <c r="L93" s="245"/>
-      <c r="M93" s="245"/>
+      <c r="K93" s="235"/>
+      <c r="L93" s="235"/>
+      <c r="M93" s="235"/>
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
       <c r="P93" s="36"/>
@@ -44576,17 +45521,17 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="245"/>
-      <c r="D94" s="245"/>
-      <c r="E94" s="245"/>
-      <c r="F94" s="245"/>
+      <c r="C94" s="235"/>
+      <c r="D94" s="235"/>
+      <c r="E94" s="235"/>
+      <c r="F94" s="235"/>
       <c r="G94" s="19"/>
       <c r="H94" s="103"/>
       <c r="I94" s="19"/>
-      <c r="J94" s="245"/>
-      <c r="K94" s="245"/>
-      <c r="L94" s="245"/>
-      <c r="M94" s="245"/>
+      <c r="J94" s="235"/>
+      <c r="K94" s="235"/>
+      <c r="L94" s="235"/>
+      <c r="M94" s="235"/>
       <c r="N94" s="19"/>
       <c r="O94" s="19"/>
       <c r="P94" s="36"/>
@@ -44612,17 +45557,17 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
-      <c r="C95" s="245"/>
-      <c r="D95" s="245"/>
-      <c r="E95" s="245"/>
-      <c r="F95" s="245"/>
+      <c r="C95" s="235"/>
+      <c r="D95" s="235"/>
+      <c r="E95" s="235"/>
+      <c r="F95" s="235"/>
       <c r="G95" s="19"/>
       <c r="H95" s="103"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="245"/>
-      <c r="K95" s="245"/>
-      <c r="L95" s="245"/>
-      <c r="M95" s="245"/>
+      <c r="J95" s="235"/>
+      <c r="K95" s="235"/>
+      <c r="L95" s="235"/>
+      <c r="M95" s="235"/>
       <c r="N95" s="19"/>
       <c r="O95" s="19"/>
       <c r="P95" s="36"/>
@@ -44727,12 +45672,12 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="245" t="s">
+      <c r="J98" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="K98" s="245"/>
-      <c r="L98" s="245"/>
-      <c r="M98" s="245"/>
+      <c r="K98" s="235"/>
+      <c r="L98" s="235"/>
+      <c r="M98" s="235"/>
       <c r="N98" s="19"/>
       <c r="O98" s="19"/>
       <c r="P98" s="36"/>
@@ -44765,10 +45710,10 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
-      <c r="J99" s="245"/>
-      <c r="K99" s="245"/>
-      <c r="L99" s="245"/>
-      <c r="M99" s="245"/>
+      <c r="J99" s="235"/>
+      <c r="K99" s="235"/>
+      <c r="L99" s="235"/>
+      <c r="M99" s="235"/>
       <c r="N99" s="79"/>
       <c r="O99" s="50"/>
       <c r="P99" s="91"/>
@@ -44801,10 +45746,10 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
-      <c r="J100" s="245"/>
-      <c r="K100" s="245"/>
-      <c r="L100" s="245"/>
-      <c r="M100" s="245"/>
+      <c r="J100" s="235"/>
+      <c r="K100" s="235"/>
+      <c r="L100" s="235"/>
+      <c r="M100" s="235"/>
       <c r="N100" s="19"/>
       <c r="O100" s="19"/>
       <c r="P100" s="36"/>
@@ -44906,12 +45851,12 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="78"/>
-      <c r="G103" s="247" t="s">
+      <c r="G103" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="H103" s="247"/>
-      <c r="I103" s="247"/>
-      <c r="J103" s="247"/>
+      <c r="H103" s="234"/>
+      <c r="I103" s="234"/>
+      <c r="J103" s="234"/>
       <c r="K103" s="19"/>
       <c r="L103" s="19"/>
       <c r="M103" s="19"/>
@@ -44944,17 +45889,17 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="78"/>
-      <c r="G104" s="247"/>
-      <c r="H104" s="247"/>
-      <c r="I104" s="247"/>
-      <c r="J104" s="247"/>
+      <c r="G104" s="234"/>
+      <c r="H104" s="234"/>
+      <c r="I104" s="234"/>
+      <c r="J104" s="234"/>
       <c r="K104" s="98"/>
-      <c r="L104" s="245" t="s">
+      <c r="L104" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="M104" s="245"/>
-      <c r="N104" s="245"/>
-      <c r="O104" s="245"/>
+      <c r="M104" s="235"/>
+      <c r="N104" s="235"/>
+      <c r="O104" s="235"/>
       <c r="P104" s="97"/>
       <c r="Q104" s="19"/>
       <c r="R104" s="19"/>
@@ -44982,15 +45927,15 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="78"/>
-      <c r="G105" s="247"/>
-      <c r="H105" s="247"/>
-      <c r="I105" s="247"/>
-      <c r="J105" s="247"/>
+      <c r="G105" s="234"/>
+      <c r="H105" s="234"/>
+      <c r="I105" s="234"/>
+      <c r="J105" s="234"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="245"/>
-      <c r="M105" s="245"/>
-      <c r="N105" s="245"/>
-      <c r="O105" s="245"/>
+      <c r="L105" s="235"/>
+      <c r="M105" s="235"/>
+      <c r="N105" s="235"/>
+      <c r="O105" s="235"/>
       <c r="P105" s="80"/>
       <c r="Q105" s="19"/>
       <c r="R105" s="19"/>
@@ -45018,15 +45963,15 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="78"/>
-      <c r="G106" s="247"/>
-      <c r="H106" s="247"/>
-      <c r="I106" s="247"/>
-      <c r="J106" s="247"/>
+      <c r="G106" s="234"/>
+      <c r="H106" s="234"/>
+      <c r="I106" s="234"/>
+      <c r="J106" s="234"/>
       <c r="K106" s="19"/>
-      <c r="L106" s="245"/>
-      <c r="M106" s="245"/>
-      <c r="N106" s="245"/>
-      <c r="O106" s="245"/>
+      <c r="L106" s="235"/>
+      <c r="M106" s="235"/>
+      <c r="N106" s="235"/>
+      <c r="O106" s="235"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="19"/>
       <c r="R106" s="19"/>
@@ -45123,20 +46068,20 @@
       <c r="A109" s="19"/>
       <c r="B109" s="90"/>
       <c r="C109" s="19"/>
-      <c r="D109" s="245" t="s">
+      <c r="D109" s="235" t="s">
         <v>293</v>
       </c>
-      <c r="E109" s="245"/>
-      <c r="F109" s="245"/>
-      <c r="G109" s="245"/>
+      <c r="E109" s="235"/>
+      <c r="F109" s="235"/>
+      <c r="G109" s="235"/>
       <c r="H109" s="90"/>
       <c r="I109" s="93"/>
-      <c r="J109" s="245" t="s">
+      <c r="J109" s="235" t="s">
         <v>292</v>
       </c>
-      <c r="K109" s="245"/>
-      <c r="L109" s="245"/>
-      <c r="M109" s="245"/>
+      <c r="K109" s="235"/>
+      <c r="L109" s="235"/>
+      <c r="M109" s="235"/>
       <c r="N109" s="28"/>
       <c r="O109" s="19"/>
       <c r="P109" s="36"/>
@@ -45163,16 +46108,16 @@
       <c r="A110" s="19"/>
       <c r="B110" s="90"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="245"/>
-      <c r="E110" s="245"/>
-      <c r="F110" s="245"/>
-      <c r="G110" s="245"/>
+      <c r="D110" s="235"/>
+      <c r="E110" s="235"/>
+      <c r="F110" s="235"/>
+      <c r="G110" s="235"/>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
-      <c r="J110" s="245"/>
-      <c r="K110" s="245"/>
-      <c r="L110" s="245"/>
-      <c r="M110" s="245"/>
+      <c r="J110" s="235"/>
+      <c r="K110" s="235"/>
+      <c r="L110" s="235"/>
+      <c r="M110" s="235"/>
       <c r="N110" s="92"/>
       <c r="O110" s="50"/>
       <c r="P110" s="91"/>
@@ -45199,16 +46144,16 @@
       <c r="A111" s="19"/>
       <c r="B111" s="90"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="245"/>
-      <c r="E111" s="245"/>
-      <c r="F111" s="245"/>
-      <c r="G111" s="245"/>
+      <c r="D111" s="235"/>
+      <c r="E111" s="235"/>
+      <c r="F111" s="235"/>
+      <c r="G111" s="235"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="245"/>
-      <c r="K111" s="245"/>
-      <c r="L111" s="245"/>
-      <c r="M111" s="245"/>
+      <c r="J111" s="235"/>
+      <c r="K111" s="235"/>
+      <c r="L111" s="235"/>
+      <c r="M111" s="235"/>
       <c r="N111" s="28"/>
       <c r="O111" s="19"/>
       <c r="P111" s="36"/>
@@ -45310,12 +46255,12 @@
       <c r="D114" s="88"/>
       <c r="E114" s="88"/>
       <c r="F114" s="87"/>
-      <c r="G114" s="247" t="s">
+      <c r="G114" s="234" t="s">
         <v>291</v>
       </c>
-      <c r="H114" s="247"/>
-      <c r="I114" s="247"/>
-      <c r="J114" s="247"/>
+      <c r="H114" s="234"/>
+      <c r="I114" s="234"/>
+      <c r="J114" s="234"/>
       <c r="K114" s="19"/>
       <c r="L114" s="19"/>
       <c r="M114" s="19"/>
@@ -45348,10 +46293,10 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
-      <c r="G115" s="247"/>
-      <c r="H115" s="247"/>
-      <c r="I115" s="247"/>
-      <c r="J115" s="247"/>
+      <c r="G115" s="234"/>
+      <c r="H115" s="234"/>
+      <c r="I115" s="234"/>
+      <c r="J115" s="234"/>
       <c r="K115" s="19"/>
       <c r="L115" s="19"/>
       <c r="M115" s="46"/>
@@ -45384,16 +46329,16 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="G116" s="247"/>
-      <c r="H116" s="247"/>
-      <c r="I116" s="247"/>
-      <c r="J116" s="247"/>
+      <c r="G116" s="234"/>
+      <c r="H116" s="234"/>
+      <c r="I116" s="234"/>
+      <c r="J116" s="234"/>
       <c r="K116" s="19"/>
-      <c r="L116" s="243" t="s">
+      <c r="L116" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="M116" s="243"/>
-      <c r="N116" s="243"/>
+      <c r="M116" s="237"/>
+      <c r="N116" s="237"/>
       <c r="O116" s="19"/>
       <c r="P116" s="36"/>
       <c r="Q116" s="19"/>
@@ -45422,16 +46367,16 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="G117" s="247"/>
-      <c r="H117" s="247"/>
-      <c r="I117" s="247"/>
-      <c r="J117" s="247"/>
+      <c r="G117" s="234"/>
+      <c r="H117" s="234"/>
+      <c r="I117" s="234"/>
+      <c r="J117" s="234"/>
       <c r="K117" s="19"/>
-      <c r="L117" s="243" t="s">
+      <c r="L117" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="M117" s="243"/>
-      <c r="N117" s="243"/>
+      <c r="M117" s="237"/>
+      <c r="N117" s="237"/>
       <c r="O117" s="19"/>
       <c r="P117" s="36"/>
       <c r="Q117" s="19"/>
@@ -45529,20 +46474,20 @@
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="245" t="s">
+      <c r="D120" s="235" t="s">
         <v>290</v>
       </c>
-      <c r="E120" s="245"/>
-      <c r="F120" s="245"/>
-      <c r="G120" s="245"/>
+      <c r="E120" s="235"/>
+      <c r="F120" s="235"/>
+      <c r="G120" s="235"/>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="245" t="s">
+      <c r="J120" s="235" t="s">
         <v>289</v>
       </c>
-      <c r="K120" s="245"/>
-      <c r="L120" s="245"/>
-      <c r="M120" s="245"/>
+      <c r="K120" s="235"/>
+      <c r="L120" s="235"/>
+      <c r="M120" s="235"/>
       <c r="N120" s="81"/>
       <c r="O120" s="30"/>
       <c r="P120" s="29"/>
@@ -45569,16 +46514,16 @@
       <c r="A121" s="19"/>
       <c r="B121" s="25"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="245"/>
-      <c r="E121" s="245"/>
-      <c r="F121" s="245"/>
-      <c r="G121" s="245"/>
+      <c r="D121" s="235"/>
+      <c r="E121" s="235"/>
+      <c r="F121" s="235"/>
+      <c r="G121" s="235"/>
       <c r="H121" s="79"/>
       <c r="I121" s="19"/>
-      <c r="J121" s="245"/>
-      <c r="K121" s="245"/>
-      <c r="L121" s="245"/>
-      <c r="M121" s="245"/>
+      <c r="J121" s="235"/>
+      <c r="K121" s="235"/>
+      <c r="L121" s="235"/>
+      <c r="M121" s="235"/>
       <c r="N121" s="78"/>
       <c r="O121" s="77"/>
       <c r="P121" s="19"/>
@@ -45605,16 +46550,16 @@
       <c r="A122" s="28"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
-      <c r="D122" s="245"/>
-      <c r="E122" s="245"/>
-      <c r="F122" s="245"/>
-      <c r="G122" s="245"/>
+      <c r="D122" s="235"/>
+      <c r="E122" s="235"/>
+      <c r="F122" s="235"/>
+      <c r="G122" s="235"/>
       <c r="H122" s="76"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="245"/>
-      <c r="K122" s="245"/>
-      <c r="L122" s="245"/>
-      <c r="M122" s="245"/>
+      <c r="J122" s="235"/>
+      <c r="K122" s="235"/>
+      <c r="L122" s="235"/>
+      <c r="M122" s="235"/>
       <c r="N122" s="75"/>
       <c r="O122" s="74"/>
       <c r="P122" s="19"/>
@@ -45652,11 +46597,11 @@
       <c r="L123" s="27"/>
       <c r="M123" s="57"/>
       <c r="N123" s="19"/>
-      <c r="O123" s="243" t="s">
+      <c r="O123" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="P123" s="243"/>
-      <c r="Q123" s="243"/>
+      <c r="P123" s="237"/>
+      <c r="Q123" s="237"/>
       <c r="R123" s="19"/>
       <c r="S123" s="36"/>
       <c r="T123" s="54"/>
@@ -45680,11 +46625,11 @@
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="243" t="s">
+      <c r="E124" s="237" t="s">
         <v>288</v>
       </c>
-      <c r="F124" s="243"/>
-      <c r="G124" s="243"/>
+      <c r="F124" s="237"/>
+      <c r="G124" s="237"/>
       <c r="H124" s="54"/>
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
@@ -45692,11 +46637,11 @@
       <c r="L124" s="22"/>
       <c r="M124" s="73"/>
       <c r="N124" s="19"/>
-      <c r="O124" s="246" t="s">
+      <c r="O124" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="P124" s="243"/>
-      <c r="Q124" s="243"/>
+      <c r="P124" s="237"/>
+      <c r="Q124" s="237"/>
       <c r="R124" s="19"/>
       <c r="S124" s="36"/>
       <c r="T124" s="54"/>
@@ -45720,11 +46665,11 @@
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="243" t="s">
+      <c r="E125" s="237" t="s">
         <v>286</v>
       </c>
-      <c r="F125" s="243"/>
-      <c r="G125" s="243"/>
+      <c r="F125" s="237"/>
+      <c r="G125" s="237"/>
       <c r="H125" s="54"/>
       <c r="I125" s="19"/>
       <c r="J125" s="19"/>
@@ -45768,11 +46713,11 @@
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
       <c r="N126" s="19"/>
-      <c r="O126" s="243" t="s">
+      <c r="O126" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="P126" s="243"/>
-      <c r="Q126" s="243"/>
+      <c r="P126" s="237"/>
+      <c r="Q126" s="237"/>
       <c r="R126" s="19"/>
       <c r="S126" s="36"/>
       <c r="T126" s="54"/>
@@ -45806,11 +46751,11 @@
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
       <c r="N127" s="19"/>
-      <c r="O127" s="243" t="s">
+      <c r="O127" s="237" t="s">
         <v>285</v>
       </c>
-      <c r="P127" s="243"/>
-      <c r="Q127" s="243"/>
+      <c r="P127" s="237"/>
+      <c r="Q127" s="237"/>
       <c r="R127" s="19"/>
       <c r="S127" s="36"/>
       <c r="T127" s="54"/>
@@ -45832,17 +46777,17 @@
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="28"/>
       <c r="B128" s="19"/>
-      <c r="C128" s="243" t="s">
+      <c r="C128" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="D128" s="243"/>
-      <c r="E128" s="243"/>
+      <c r="D128" s="237"/>
+      <c r="E128" s="237"/>
       <c r="F128" s="19"/>
-      <c r="G128" s="243" t="s">
+      <c r="G128" s="237" t="s">
         <v>284</v>
       </c>
-      <c r="H128" s="243"/>
-      <c r="I128" s="243"/>
+      <c r="H128" s="237"/>
+      <c r="I128" s="237"/>
       <c r="J128" s="54"/>
       <c r="K128" s="19"/>
       <c r="L128" s="28"/>
@@ -45872,28 +46817,28 @@
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="28"/>
       <c r="B129" s="19"/>
-      <c r="C129" s="243" t="s">
+      <c r="C129" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="243"/>
-      <c r="E129" s="243"/>
+      <c r="D129" s="237"/>
+      <c r="E129" s="237"/>
       <c r="F129" s="19"/>
-      <c r="G129" s="243" t="s">
+      <c r="G129" s="237" t="s">
         <v>282</v>
       </c>
-      <c r="H129" s="243"/>
-      <c r="I129" s="243"/>
+      <c r="H129" s="237"/>
+      <c r="I129" s="237"/>
       <c r="J129" s="54"/>
       <c r="K129" s="50"/>
       <c r="L129" s="49"/>
       <c r="M129" s="49"/>
       <c r="N129" s="64"/>
-      <c r="O129" s="247" t="s">
+      <c r="O129" s="234" t="s">
         <v>281</v>
       </c>
-      <c r="P129" s="247"/>
-      <c r="Q129" s="247"/>
-      <c r="R129" s="247"/>
+      <c r="P129" s="234"/>
+      <c r="Q129" s="234"/>
+      <c r="R129" s="234"/>
       <c r="S129" s="68"/>
       <c r="T129" s="47"/>
       <c r="U129" s="54"/>
@@ -45926,10 +46871,10 @@
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
       <c r="N130" s="19"/>
-      <c r="O130" s="247"/>
-      <c r="P130" s="247"/>
-      <c r="Q130" s="247"/>
-      <c r="R130" s="247"/>
+      <c r="O130" s="234"/>
+      <c r="P130" s="234"/>
+      <c r="Q130" s="234"/>
+      <c r="R130" s="234"/>
       <c r="S130" s="65"/>
       <c r="T130" s="19"/>
       <c r="U130" s="47"/>
@@ -45951,25 +46896,25 @@
       <c r="A131" s="28"/>
       <c r="B131" s="19"/>
       <c r="C131" s="64"/>
-      <c r="D131" s="244" t="s">
+      <c r="D131" s="236" t="s">
         <v>280</v>
       </c>
-      <c r="E131" s="244"/>
+      <c r="E131" s="236"/>
       <c r="F131" s="19"/>
-      <c r="G131" s="244" t="s">
+      <c r="G131" s="236" t="s">
         <v>279</v>
       </c>
-      <c r="H131" s="244"/>
+      <c r="H131" s="236"/>
       <c r="I131" s="19"/>
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
       <c r="N131" s="19"/>
-      <c r="O131" s="247"/>
-      <c r="P131" s="247"/>
-      <c r="Q131" s="247"/>
-      <c r="R131" s="247"/>
+      <c r="O131" s="234"/>
+      <c r="P131" s="234"/>
+      <c r="Q131" s="234"/>
+      <c r="R131" s="234"/>
       <c r="S131" s="36"/>
       <c r="T131" s="63"/>
       <c r="U131" s="19"/>
@@ -45991,21 +46936,21 @@
       <c r="A132" s="28"/>
       <c r="B132" s="53"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="244"/>
-      <c r="E132" s="244"/>
+      <c r="D132" s="236"/>
+      <c r="E132" s="236"/>
       <c r="F132" s="19"/>
-      <c r="G132" s="244"/>
-      <c r="H132" s="244"/>
+      <c r="G132" s="236"/>
+      <c r="H132" s="236"/>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
       <c r="N132" s="19"/>
-      <c r="O132" s="247"/>
-      <c r="P132" s="247"/>
-      <c r="Q132" s="247"/>
-      <c r="R132" s="247"/>
+      <c r="O132" s="234"/>
+      <c r="P132" s="234"/>
+      <c r="Q132" s="234"/>
+      <c r="R132" s="234"/>
       <c r="S132" s="36"/>
       <c r="T132" s="19"/>
       <c r="U132" s="19"/>
@@ -46100,11 +47045,11 @@
       <c r="B135" s="53"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="243" t="s">
+      <c r="E135" s="237" t="s">
         <v>278</v>
       </c>
-      <c r="F135" s="243"/>
-      <c r="G135" s="243"/>
+      <c r="F135" s="237"/>
+      <c r="G135" s="237"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
@@ -46138,11 +47083,11 @@
       <c r="B136" s="53"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="243" t="s">
+      <c r="E136" s="237" t="s">
         <v>277</v>
       </c>
-      <c r="F136" s="243"/>
-      <c r="G136" s="243"/>
+      <c r="F136" s="237"/>
+      <c r="G136" s="237"/>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -46250,11 +47195,11 @@
       <c r="D139" s="19"/>
       <c r="E139" s="23"/>
       <c r="F139" s="19"/>
-      <c r="G139" s="243" t="s">
+      <c r="G139" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="H139" s="243"/>
-      <c r="I139" s="243"/>
+      <c r="H139" s="237"/>
+      <c r="I139" s="237"/>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="28"/>
@@ -46288,11 +47233,11 @@
       <c r="D140" s="19"/>
       <c r="E140" s="23"/>
       <c r="F140" s="19"/>
-      <c r="G140" s="243" t="s">
+      <c r="G140" s="237" t="s">
         <v>275</v>
       </c>
-      <c r="H140" s="243"/>
-      <c r="I140" s="243"/>
+      <c r="H140" s="237"/>
+      <c r="I140" s="237"/>
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="28"/>
@@ -46398,12 +47343,12 @@
       <c r="D143" s="19"/>
       <c r="E143" s="23"/>
       <c r="F143" s="45"/>
-      <c r="G143" s="247" t="s">
+      <c r="G143" s="234" t="s">
         <v>274</v>
       </c>
-      <c r="H143" s="247"/>
-      <c r="I143" s="247"/>
-      <c r="J143" s="247"/>
+      <c r="H143" s="234"/>
+      <c r="I143" s="234"/>
+      <c r="J143" s="234"/>
       <c r="K143" s="19"/>
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
@@ -46436,10 +47381,10 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="247"/>
-      <c r="H144" s="247"/>
-      <c r="I144" s="247"/>
-      <c r="J144" s="247"/>
+      <c r="G144" s="234"/>
+      <c r="H144" s="234"/>
+      <c r="I144" s="234"/>
+      <c r="J144" s="234"/>
       <c r="K144" s="19"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
@@ -46472,10 +47417,10 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="247"/>
-      <c r="H145" s="247"/>
-      <c r="I145" s="247"/>
-      <c r="J145" s="247"/>
+      <c r="G145" s="234"/>
+      <c r="H145" s="234"/>
+      <c r="I145" s="234"/>
+      <c r="J145" s="234"/>
       <c r="K145" s="19"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
@@ -46508,10 +47453,10 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
-      <c r="G146" s="247"/>
-      <c r="H146" s="247"/>
-      <c r="I146" s="247"/>
-      <c r="J146" s="247"/>
+      <c r="G146" s="234"/>
+      <c r="H146" s="234"/>
+      <c r="I146" s="234"/>
+      <c r="J146" s="234"/>
       <c r="K146" s="19"/>
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
@@ -46615,16 +47560,16 @@
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="244" t="s">
+      <c r="F149" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="G149" s="244"/>
+      <c r="G149" s="236"/>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
-      <c r="J149" s="244" t="s">
+      <c r="J149" s="236" t="s">
         <v>272</v>
       </c>
-      <c r="K149" s="244"/>
+      <c r="K149" s="236"/>
       <c r="L149" s="37"/>
       <c r="M149" s="28"/>
       <c r="N149" s="23"/>
@@ -46655,12 +47600,12 @@
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="35"/>
-      <c r="F150" s="244"/>
-      <c r="G150" s="244"/>
+      <c r="F150" s="236"/>
+      <c r="G150" s="236"/>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
-      <c r="J150" s="244"/>
-      <c r="K150" s="244"/>
+      <c r="J150" s="236"/>
+      <c r="K150" s="236"/>
       <c r="L150" s="34"/>
       <c r="M150" s="33"/>
       <c r="N150" s="32"/>
@@ -46691,12 +47636,12 @@
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="244"/>
-      <c r="G151" s="244"/>
+      <c r="F151" s="236"/>
+      <c r="G151" s="236"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
-      <c r="J151" s="244"/>
-      <c r="K151" s="244"/>
+      <c r="J151" s="236"/>
+      <c r="K151" s="236"/>
       <c r="L151" s="19"/>
       <c r="M151" s="28"/>
       <c r="N151" s="23"/>
@@ -46975,25 +47920,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G87:J90"/>
-    <mergeCell ref="G103:J106"/>
-    <mergeCell ref="L88:O90"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="L104:O106"/>
-    <mergeCell ref="F149:G151"/>
-    <mergeCell ref="J149:K151"/>
-    <mergeCell ref="O126:Q126"/>
-    <mergeCell ref="O127:Q127"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="O129:R132"/>
-    <mergeCell ref="G131:H132"/>
-    <mergeCell ref="D109:G111"/>
-    <mergeCell ref="J109:M111"/>
-    <mergeCell ref="G114:J117"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="G143:J146"/>
-    <mergeCell ref="L117:N117"/>
     <mergeCell ref="X88:AF91"/>
     <mergeCell ref="E135:G135"/>
     <mergeCell ref="E136:G136"/>
@@ -47010,6 +47936,25 @@
     <mergeCell ref="E125:G125"/>
     <mergeCell ref="J93:M95"/>
     <mergeCell ref="J98:M100"/>
+    <mergeCell ref="D109:G111"/>
+    <mergeCell ref="J109:M111"/>
+    <mergeCell ref="G114:J117"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="G143:J146"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="F149:G151"/>
+    <mergeCell ref="J149:K151"/>
+    <mergeCell ref="O126:Q126"/>
+    <mergeCell ref="O127:Q127"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="O129:R132"/>
+    <mergeCell ref="G131:H132"/>
+    <mergeCell ref="G87:J90"/>
+    <mergeCell ref="G103:J106"/>
+    <mergeCell ref="L88:O90"/>
+    <mergeCell ref="C93:F95"/>
+    <mergeCell ref="L104:O106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47618,25 +48563,25 @@
       <c r="Z98" s="4"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U101" s="260" t="s">
+      <c r="U101" s="281" t="s">
         <v>409</v>
       </c>
-      <c r="V101" s="261"/>
+      <c r="V101" s="282"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="U102" s="262"/>
-      <c r="V102" s="263"/>
+      <c r="U102" s="283"/>
+      <c r="V102" s="284"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S104" s="256" t="s">
+      <c r="S104" s="277" t="s">
         <v>408</v>
       </c>
-      <c r="T104" s="257"/>
-      <c r="V104" s="264" t="s">
+      <c r="T104" s="278"/>
+      <c r="V104" s="285" t="s">
         <v>407</v>
       </c>
-      <c r="W104" s="265"/>
-      <c r="X104" s="266"/>
+      <c r="W104" s="286"/>
+      <c r="X104" s="287"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F105" s="134"/>
@@ -47644,17 +48589,17 @@
       <c r="H105" s="134"/>
       <c r="I105" s="134"/>
       <c r="J105" s="155"/>
-      <c r="K105" s="279" t="s">
+      <c r="K105" s="262" t="s">
         <v>406</v>
       </c>
-      <c r="L105" s="280"/>
-      <c r="M105" s="280"/>
-      <c r="N105" s="281"/>
-      <c r="S105" s="258"/>
-      <c r="T105" s="259"/>
-      <c r="V105" s="267"/>
-      <c r="W105" s="268"/>
-      <c r="X105" s="269"/>
+      <c r="L105" s="263"/>
+      <c r="M105" s="263"/>
+      <c r="N105" s="264"/>
+      <c r="S105" s="279"/>
+      <c r="T105" s="280"/>
+      <c r="V105" s="288"/>
+      <c r="W105" s="289"/>
+      <c r="X105" s="290"/>
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E106" s="136"/>
@@ -47662,22 +48607,22 @@
       <c r="H106" s="154"/>
       <c r="I106" s="154"/>
       <c r="J106" s="153"/>
-      <c r="K106" s="282"/>
-      <c r="L106" s="283"/>
-      <c r="M106" s="283"/>
-      <c r="N106" s="284"/>
-      <c r="V106" s="270"/>
-      <c r="W106" s="271"/>
-      <c r="X106" s="272"/>
+      <c r="K106" s="265"/>
+      <c r="L106" s="266"/>
+      <c r="M106" s="266"/>
+      <c r="N106" s="267"/>
+      <c r="V106" s="291"/>
+      <c r="W106" s="292"/>
+      <c r="X106" s="293"/>
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E107" s="136"/>
       <c r="F107" s="149"/>
       <c r="J107" s="115"/>
-      <c r="K107" s="285"/>
-      <c r="L107" s="286"/>
-      <c r="M107" s="286"/>
-      <c r="N107" s="287"/>
+      <c r="K107" s="268"/>
+      <c r="L107" s="269"/>
+      <c r="M107" s="269"/>
+      <c r="N107" s="270"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E108" s="136"/>
@@ -47687,22 +48632,22 @@
     <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E109" s="136"/>
       <c r="F109" s="149"/>
-      <c r="K109" s="273" t="s">
+      <c r="K109" s="271" t="s">
         <v>393</v>
       </c>
-      <c r="L109" s="274"/>
-      <c r="M109" s="274"/>
-      <c r="N109" s="275"/>
+      <c r="L109" s="272"/>
+      <c r="M109" s="272"/>
+      <c r="N109" s="273"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="136"/>
       <c r="F110" s="149"/>
       <c r="I110" s="126"/>
       <c r="J110" s="125"/>
-      <c r="K110" s="276"/>
-      <c r="L110" s="277"/>
-      <c r="M110" s="277"/>
-      <c r="N110" s="278"/>
+      <c r="K110" s="274"/>
+      <c r="L110" s="275"/>
+      <c r="M110" s="275"/>
+      <c r="N110" s="276"/>
       <c r="O110" s="126"/>
       <c r="P110" s="125"/>
     </row>
@@ -47729,29 +48674,29 @@
     <row r="113" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="136"/>
       <c r="F113" s="149"/>
-      <c r="H113" s="302" t="s">
+      <c r="H113" s="248" t="s">
         <v>392</v>
       </c>
-      <c r="I113" s="303"/>
-      <c r="J113" s="304"/>
-      <c r="O113" s="296" t="s">
+      <c r="I113" s="249"/>
+      <c r="J113" s="250"/>
+      <c r="O113" s="302" t="s">
         <v>391</v>
       </c>
-      <c r="P113" s="297"/>
-      <c r="Q113" s="298"/>
+      <c r="P113" s="303"/>
+      <c r="Q113" s="304"/>
       <c r="U113" s="136"/>
     </row>
     <row r="114" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E114" s="136"/>
       <c r="F114" s="149"/>
-      <c r="H114" s="305"/>
-      <c r="I114" s="306"/>
-      <c r="J114" s="307"/>
+      <c r="H114" s="251"/>
+      <c r="I114" s="252"/>
+      <c r="J114" s="253"/>
       <c r="K114" s="139"/>
       <c r="N114" s="101"/>
-      <c r="O114" s="299"/>
-      <c r="P114" s="300"/>
-      <c r="Q114" s="301"/>
+      <c r="O114" s="305"/>
+      <c r="P114" s="306"/>
+      <c r="Q114" s="307"/>
       <c r="U114" s="136"/>
     </row>
     <row r="115" spans="5:21" x14ac:dyDescent="0.3">
@@ -47766,35 +48711,35 @@
       <c r="E116" s="136"/>
       <c r="F116" s="149"/>
       <c r="G116" s="145"/>
-      <c r="H116" s="248" t="s">
+      <c r="H116" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="I116" s="249"/>
-      <c r="K116" s="279" t="s">
+      <c r="I116" s="259"/>
+      <c r="K116" s="262" t="s">
         <v>404</v>
       </c>
-      <c r="L116" s="280"/>
-      <c r="M116" s="280"/>
-      <c r="N116" s="281"/>
+      <c r="L116" s="263"/>
+      <c r="M116" s="263"/>
+      <c r="N116" s="264"/>
       <c r="U116" s="136"/>
     </row>
     <row r="117" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E117" s="136"/>
       <c r="G117" s="115"/>
-      <c r="H117" s="250"/>
-      <c r="I117" s="251"/>
-      <c r="K117" s="282"/>
-      <c r="L117" s="283"/>
-      <c r="M117" s="283"/>
-      <c r="N117" s="284"/>
+      <c r="H117" s="260"/>
+      <c r="I117" s="261"/>
+      <c r="K117" s="265"/>
+      <c r="L117" s="266"/>
+      <c r="M117" s="266"/>
+      <c r="N117" s="267"/>
       <c r="U117" s="136"/>
     </row>
     <row r="118" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E118" s="136"/>
-      <c r="K118" s="285"/>
-      <c r="L118" s="286"/>
-      <c r="M118" s="286"/>
-      <c r="N118" s="287"/>
+      <c r="K118" s="268"/>
+      <c r="L118" s="269"/>
+      <c r="M118" s="269"/>
+      <c r="N118" s="270"/>
       <c r="U118" s="136"/>
     </row>
     <row r="119" spans="5:21" x14ac:dyDescent="0.3">
@@ -47814,24 +48759,24 @@
     </row>
     <row r="121" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E121" s="136"/>
-      <c r="J121" s="248" t="s">
+      <c r="J121" s="258" t="s">
         <v>390</v>
       </c>
-      <c r="K121" s="249"/>
-      <c r="O121" s="248" t="s">
+      <c r="K121" s="259"/>
+      <c r="O121" s="258" t="s">
         <v>403</v>
       </c>
-      <c r="P121" s="249"/>
+      <c r="P121" s="259"/>
       <c r="U121" s="136"/>
     </row>
     <row r="122" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E122" s="136"/>
       <c r="I122" s="101"/>
-      <c r="J122" s="250"/>
-      <c r="K122" s="251"/>
+      <c r="J122" s="260"/>
+      <c r="K122" s="261"/>
       <c r="L122" s="139"/>
-      <c r="O122" s="250"/>
-      <c r="P122" s="251"/>
+      <c r="O122" s="260"/>
+      <c r="P122" s="261"/>
       <c r="U122" s="136"/>
     </row>
     <row r="123" spans="5:21" x14ac:dyDescent="0.3">
@@ -47843,24 +48788,24 @@
     </row>
     <row r="124" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E124" s="136"/>
-      <c r="H124" s="252" t="s">
+      <c r="H124" s="254" t="s">
         <v>389</v>
       </c>
-      <c r="I124" s="253"/>
-      <c r="L124" s="252" t="s">
+      <c r="I124" s="255"/>
+      <c r="L124" s="254" t="s">
         <v>388</v>
       </c>
-      <c r="M124" s="253"/>
+      <c r="M124" s="255"/>
       <c r="P124" s="6"/>
       <c r="U124" s="136"/>
     </row>
     <row r="125" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E125" s="136"/>
       <c r="G125" s="141"/>
-      <c r="H125" s="254"/>
-      <c r="I125" s="255"/>
-      <c r="L125" s="254"/>
-      <c r="M125" s="255"/>
+      <c r="H125" s="256"/>
+      <c r="I125" s="257"/>
+      <c r="L125" s="256"/>
+      <c r="M125" s="257"/>
       <c r="P125" s="6"/>
       <c r="U125" s="136"/>
     </row>
@@ -47874,12 +48819,12 @@
     <row r="127" spans="5:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E127" s="136"/>
       <c r="G127" s="6"/>
-      <c r="K127" s="279" t="s">
+      <c r="K127" s="262" t="s">
         <v>402</v>
       </c>
-      <c r="L127" s="280"/>
-      <c r="M127" s="280"/>
-      <c r="N127" s="281"/>
+      <c r="L127" s="263"/>
+      <c r="M127" s="263"/>
+      <c r="N127" s="264"/>
       <c r="O127" s="140"/>
       <c r="P127" s="6"/>
       <c r="U127" s="136"/>
@@ -47890,10 +48835,10 @@
       <c r="H128" s="112"/>
       <c r="I128" s="112"/>
       <c r="J128" s="145"/>
-      <c r="K128" s="282"/>
-      <c r="L128" s="283"/>
-      <c r="M128" s="283"/>
-      <c r="N128" s="284"/>
+      <c r="K128" s="265"/>
+      <c r="L128" s="266"/>
+      <c r="M128" s="266"/>
+      <c r="N128" s="267"/>
       <c r="U128" s="136"/>
     </row>
     <row r="129" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47902,10 +48847,10 @@
       <c r="F129" s="144"/>
       <c r="G129" s="6"/>
       <c r="J129" s="115"/>
-      <c r="K129" s="285"/>
-      <c r="L129" s="286"/>
-      <c r="M129" s="286"/>
-      <c r="N129" s="287"/>
+      <c r="K129" s="268"/>
+      <c r="L129" s="269"/>
+      <c r="M129" s="269"/>
+      <c r="N129" s="270"/>
       <c r="U129" s="136"/>
     </row>
     <row r="130" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -47913,40 +48858,40 @@
       <c r="E130" s="136"/>
       <c r="G130" s="6"/>
       <c r="M130" s="138"/>
-      <c r="U130" s="288" t="s">
+      <c r="U130" s="294" t="s">
         <v>401</v>
       </c>
-      <c r="V130" s="289"/>
-      <c r="W130" s="289"/>
-      <c r="X130" s="290"/>
+      <c r="V130" s="295"/>
+      <c r="W130" s="295"/>
+      <c r="X130" s="296"/>
     </row>
     <row r="131" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="113"/>
       <c r="F131" s="143"/>
       <c r="G131" s="6"/>
-      <c r="L131" s="248" t="s">
+      <c r="L131" s="258" t="s">
         <v>400</v>
       </c>
-      <c r="M131" s="249"/>
+      <c r="M131" s="259"/>
       <c r="T131" s="134"/>
-      <c r="U131" s="291"/>
-      <c r="V131" s="283"/>
-      <c r="W131" s="283"/>
-      <c r="X131" s="292"/>
+      <c r="U131" s="297"/>
+      <c r="V131" s="266"/>
+      <c r="W131" s="266"/>
+      <c r="X131" s="298"/>
     </row>
     <row r="132" spans="4:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="113"/>
       <c r="E132" s="136"/>
       <c r="G132" s="6"/>
       <c r="K132" s="101"/>
-      <c r="L132" s="250"/>
-      <c r="M132" s="251"/>
+      <c r="L132" s="260"/>
+      <c r="M132" s="261"/>
       <c r="N132" s="139"/>
       <c r="S132" s="136"/>
-      <c r="U132" s="293"/>
-      <c r="V132" s="294"/>
-      <c r="W132" s="294"/>
-      <c r="X132" s="295"/>
+      <c r="U132" s="299"/>
+      <c r="V132" s="300"/>
+      <c r="W132" s="300"/>
+      <c r="X132" s="301"/>
     </row>
     <row r="133" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D133" s="113"/>
@@ -47961,16 +48906,16 @@
       <c r="D134" s="113"/>
       <c r="E134" s="136"/>
       <c r="G134" s="6"/>
-      <c r="I134" s="296" t="s">
+      <c r="I134" s="302" t="s">
         <v>399</v>
       </c>
-      <c r="J134" s="297"/>
-      <c r="K134" s="298"/>
-      <c r="N134" s="296" t="s">
+      <c r="J134" s="303"/>
+      <c r="K134" s="304"/>
+      <c r="N134" s="302" t="s">
         <v>398</v>
       </c>
-      <c r="O134" s="297"/>
-      <c r="P134" s="298"/>
+      <c r="O134" s="303"/>
+      <c r="P134" s="304"/>
       <c r="S134" s="136"/>
       <c r="U134" s="123"/>
     </row>
@@ -47979,12 +48924,12 @@
       <c r="E135" s="136"/>
       <c r="G135" s="6"/>
       <c r="H135" s="141"/>
-      <c r="I135" s="299"/>
-      <c r="J135" s="300"/>
-      <c r="K135" s="301"/>
-      <c r="N135" s="299"/>
-      <c r="O135" s="300"/>
-      <c r="P135" s="301"/>
+      <c r="I135" s="305"/>
+      <c r="J135" s="306"/>
+      <c r="K135" s="307"/>
+      <c r="N135" s="305"/>
+      <c r="O135" s="306"/>
+      <c r="P135" s="307"/>
       <c r="S135" s="136"/>
       <c r="U135" s="123"/>
     </row>
@@ -48011,12 +48956,12 @@
       <c r="E138" s="136"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="K138" s="279" t="s">
+      <c r="K138" s="262" t="s">
         <v>397</v>
       </c>
-      <c r="L138" s="280"/>
-      <c r="M138" s="280"/>
-      <c r="N138" s="281"/>
+      <c r="L138" s="263"/>
+      <c r="M138" s="263"/>
+      <c r="N138" s="264"/>
       <c r="O138" s="140"/>
       <c r="S138" s="136"/>
       <c r="U138" s="123"/>
@@ -48026,10 +48971,10 @@
       <c r="E139" s="136"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="K139" s="282"/>
-      <c r="L139" s="283"/>
-      <c r="M139" s="283"/>
-      <c r="N139" s="284"/>
+      <c r="K139" s="265"/>
+      <c r="L139" s="266"/>
+      <c r="M139" s="266"/>
+      <c r="N139" s="267"/>
       <c r="S139" s="136"/>
       <c r="U139" s="123"/>
     </row>
@@ -48038,10 +48983,10 @@
       <c r="E140" s="136"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="K140" s="285"/>
-      <c r="L140" s="286"/>
-      <c r="M140" s="286"/>
-      <c r="N140" s="287"/>
+      <c r="K140" s="268"/>
+      <c r="L140" s="269"/>
+      <c r="M140" s="269"/>
+      <c r="N140" s="270"/>
       <c r="S140" s="136"/>
       <c r="U140" s="123"/>
     </row>
@@ -48070,14 +49015,14 @@
       <c r="E143" s="136"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="J143" s="248" t="s">
+      <c r="J143" s="258" t="s">
         <v>396</v>
       </c>
-      <c r="K143" s="249"/>
-      <c r="N143" s="248" t="s">
+      <c r="K143" s="259"/>
+      <c r="N143" s="258" t="s">
         <v>395</v>
       </c>
-      <c r="O143" s="249"/>
+      <c r="O143" s="259"/>
       <c r="P143" s="135"/>
       <c r="Q143" s="134"/>
       <c r="R143" s="134"/>
@@ -48090,10 +49035,10 @@
       <c r="G144" s="132"/>
       <c r="H144" s="131"/>
       <c r="I144" s="130"/>
-      <c r="J144" s="250"/>
-      <c r="K144" s="251"/>
-      <c r="N144" s="250"/>
-      <c r="O144" s="251"/>
+      <c r="J144" s="260"/>
+      <c r="K144" s="261"/>
+      <c r="N144" s="260"/>
+      <c r="O144" s="261"/>
       <c r="U144" s="123"/>
     </row>
     <row r="145" spans="4:21" x14ac:dyDescent="0.3">
@@ -48118,12 +49063,12 @@
       <c r="H147" s="122"/>
       <c r="I147" s="122"/>
       <c r="J147" s="122"/>
-      <c r="K147" s="288" t="s">
+      <c r="K147" s="294" t="s">
         <v>394</v>
       </c>
-      <c r="L147" s="289"/>
-      <c r="M147" s="289"/>
-      <c r="N147" s="290"/>
+      <c r="L147" s="295"/>
+      <c r="M147" s="295"/>
+      <c r="N147" s="296"/>
       <c r="U147" s="123"/>
     </row>
     <row r="148" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -48133,20 +49078,20 @@
       <c r="H148" s="112"/>
       <c r="I148" s="112"/>
       <c r="J148" s="127"/>
-      <c r="K148" s="291"/>
-      <c r="L148" s="283"/>
-      <c r="M148" s="283"/>
-      <c r="N148" s="292"/>
+      <c r="K148" s="297"/>
+      <c r="L148" s="266"/>
+      <c r="M148" s="266"/>
+      <c r="N148" s="298"/>
       <c r="U148" s="123"/>
     </row>
     <row r="149" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D149" s="113"/>
       <c r="E149" s="113"/>
       <c r="J149" s="123"/>
-      <c r="K149" s="293"/>
-      <c r="L149" s="294"/>
-      <c r="M149" s="294"/>
-      <c r="N149" s="295"/>
+      <c r="K149" s="299"/>
+      <c r="L149" s="300"/>
+      <c r="M149" s="300"/>
+      <c r="N149" s="301"/>
       <c r="U149" s="123"/>
     </row>
     <row r="150" spans="4:21" x14ac:dyDescent="0.3">
@@ -48158,22 +49103,22 @@
     <row r="151" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D151" s="113"/>
       <c r="E151" s="113"/>
-      <c r="K151" s="273" t="s">
+      <c r="K151" s="271" t="s">
         <v>393</v>
       </c>
-      <c r="L151" s="274"/>
-      <c r="M151" s="274"/>
-      <c r="N151" s="275"/>
+      <c r="L151" s="272"/>
+      <c r="M151" s="272"/>
+      <c r="N151" s="273"/>
       <c r="U151" s="123"/>
     </row>
     <row r="152" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D152" s="113"/>
       <c r="E152" s="113"/>
       <c r="J152" s="126"/>
-      <c r="K152" s="276"/>
-      <c r="L152" s="277"/>
-      <c r="M152" s="277"/>
-      <c r="N152" s="278"/>
+      <c r="K152" s="274"/>
+      <c r="L152" s="275"/>
+      <c r="M152" s="275"/>
+      <c r="N152" s="276"/>
       <c r="O152" s="125"/>
       <c r="U152" s="123"/>
     </row>
@@ -48187,16 +49132,16 @@
     <row r="154" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D154" s="113"/>
       <c r="E154" s="113"/>
-      <c r="I154" s="302" t="s">
+      <c r="I154" s="248" t="s">
         <v>392</v>
       </c>
-      <c r="J154" s="303"/>
-      <c r="K154" s="304"/>
-      <c r="N154" s="302" t="s">
+      <c r="J154" s="249"/>
+      <c r="K154" s="250"/>
+      <c r="N154" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="O154" s="303"/>
-      <c r="P154" s="304"/>
+      <c r="O154" s="249"/>
+      <c r="P154" s="250"/>
       <c r="Q154" s="122"/>
       <c r="R154" s="122"/>
       <c r="S154" s="122"/>
@@ -48206,12 +49151,12 @@
     <row r="155" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D155" s="113"/>
       <c r="E155" s="113"/>
-      <c r="I155" s="305"/>
-      <c r="J155" s="306"/>
-      <c r="K155" s="307"/>
-      <c r="N155" s="305"/>
-      <c r="O155" s="306"/>
-      <c r="P155" s="307"/>
+      <c r="I155" s="251"/>
+      <c r="J155" s="252"/>
+      <c r="K155" s="253"/>
+      <c r="N155" s="251"/>
+      <c r="O155" s="252"/>
+      <c r="P155" s="253"/>
     </row>
     <row r="156" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D156" s="113"/>
@@ -48221,18 +49166,18 @@
     <row r="157" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D157" s="113"/>
       <c r="E157" s="113"/>
-      <c r="I157" s="248" t="s">
+      <c r="I157" s="258" t="s">
         <v>390</v>
       </c>
-      <c r="J157" s="249"/>
+      <c r="J157" s="259"/>
       <c r="K157" s="120"/>
     </row>
     <row r="158" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D158" s="113"/>
       <c r="E158" s="113"/>
       <c r="H158" s="119"/>
-      <c r="I158" s="250"/>
-      <c r="J158" s="251"/>
+      <c r="I158" s="260"/>
+      <c r="J158" s="261"/>
       <c r="K158" s="118"/>
     </row>
     <row r="159" spans="4:21" x14ac:dyDescent="0.3">
@@ -48245,22 +49190,22 @@
       <c r="D160" s="113"/>
       <c r="E160" s="113"/>
       <c r="F160" s="115"/>
-      <c r="G160" s="252" t="s">
+      <c r="G160" s="254" t="s">
         <v>389</v>
       </c>
-      <c r="H160" s="253"/>
-      <c r="K160" s="252" t="s">
+      <c r="H160" s="255"/>
+      <c r="K160" s="254" t="s">
         <v>388</v>
       </c>
-      <c r="L160" s="253"/>
+      <c r="L160" s="255"/>
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D161" s="113"/>
       <c r="F161" s="114"/>
-      <c r="G161" s="254"/>
-      <c r="H161" s="255"/>
-      <c r="K161" s="254"/>
-      <c r="L161" s="255"/>
+      <c r="G161" s="256"/>
+      <c r="H161" s="257"/>
+      <c r="K161" s="256"/>
+      <c r="L161" s="257"/>
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D162" s="113"/>
@@ -48275,18 +49220,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I154:K155"/>
-    <mergeCell ref="N154:P155"/>
-    <mergeCell ref="H124:I125"/>
-    <mergeCell ref="L124:M125"/>
-    <mergeCell ref="L131:M132"/>
-    <mergeCell ref="O121:P122"/>
-    <mergeCell ref="J121:K122"/>
-    <mergeCell ref="K105:N107"/>
-    <mergeCell ref="K116:N118"/>
-    <mergeCell ref="K127:N129"/>
-    <mergeCell ref="K109:N110"/>
-    <mergeCell ref="H113:J114"/>
     <mergeCell ref="I157:J158"/>
     <mergeCell ref="G160:H161"/>
     <mergeCell ref="K160:L161"/>
@@ -48303,6 +49236,18 @@
     <mergeCell ref="J143:K144"/>
     <mergeCell ref="O113:Q114"/>
     <mergeCell ref="H116:I117"/>
+    <mergeCell ref="O121:P122"/>
+    <mergeCell ref="J121:K122"/>
+    <mergeCell ref="K105:N107"/>
+    <mergeCell ref="K116:N118"/>
+    <mergeCell ref="K127:N129"/>
+    <mergeCell ref="K109:N110"/>
+    <mergeCell ref="H113:J114"/>
+    <mergeCell ref="I154:K155"/>
+    <mergeCell ref="N154:P155"/>
+    <mergeCell ref="H124:I125"/>
+    <mergeCell ref="L124:M125"/>
+    <mergeCell ref="L131:M132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
